--- a/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4004" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4006" uniqueCount="771">
   <si>
     <r>
       <rPr>
@@ -5290,6 +5290,21 @@
                                                 &lt;div&gt;
                &lt;p&gt;项目“${projectName}”中的流水线“${pipelineName}”目前暂停于【${stageName}】阶段，需要您进行审核。&lt;p&gt;
                                                    &lt;/div&gt;
+            &lt;div class="mj-column-per-100 outlook-group-fix" style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; text-align: left; direction: ltr; display: inline-block; vertical-align: top; width: 100%;"&gt;
+                          &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="vertical-align:top;" width="100%"&gt;
+                            &lt;tbody&gt;&lt;tr&gt;
+                              &lt;td align="center" vertical-align="middle" style="font-size:0px;padding:10px 25px;padding-top:60px;word-break:break-word;"&gt;
+                                &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="border-collapse:separate;width:212px;line-height:100%;"&gt;
+                                  &lt;tbody&gt;&lt;tr&gt;
+                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#3f51b5;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
+          查看详情
+                                    &lt;/a&gt; &lt;/td&gt;
+                                  &lt;/tr&gt;
+                                &lt;/tbody&gt;&lt;/table&gt;&lt;br&gt;
+                              &lt;/td&gt;
+                            &lt;/tr&gt;
+                          &lt;/tbody&gt;&lt;/table&gt;
+                        &lt;/div&gt;   
                                             &lt;/div&gt;
                                             &lt;div&gt;
                                                 &lt;div style="text-align: justify;"&gt;
@@ -5394,9 +5409,10 @@
     <t>流水线任务待审核</t>
   </si>
   <si>
-    <t>&lt;p&gt;流水线“${pipelineName}”目前暂停于【${stageName}】阶段，需要您进行审核。
+    <t xml:space="preserve">
+&lt;p&gt;流水线“${pipelineName}”目前暂停于【${stageName}】阶段，需要您进行审核。
 &lt;p&gt;&lt;p&gt;&lt;a href=#/devops/pipeline-manage?type=project&amp;id=${projectId}&amp;
-name=${projectName}&amp;category=GENERAL&amp;organizationId=${organizationId}&amp;
+name=${projectName}&amp;organizationId=${organizationId}&amp;
 pipelineId=${pipelineId}&amp;pipelineIdRecordId=${pipelineIdRecordId}&gt;查看详情&lt;/a &gt;</t>
   </si>
   <si>
@@ -7695,6 +7711,9 @@
     <t>mergeRequestId</t>
   </si>
   <si>
+    <t>link</t>
+  </si>
+  <si>
     <t>gitlabPassword</t>
   </si>
   <si>
@@ -8678,9 +8697,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="43">
@@ -8785,6 +8804,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -8801,22 +8834,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8829,23 +8847,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8875,9 +8887,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8900,23 +8911,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9010,25 +9029,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9040,31 +9059,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9082,7 +9089,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9094,55 +9119,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9160,7 +9137,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9172,25 +9197,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9322,25 +9341,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9363,6 +9373,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -9370,16 +9389,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9400,10 +9419,10 @@
     <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9412,138 +9431,138 @@
     <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9556,9 +9575,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -10023,8 +10039,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5833333333333" style="13" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="14" customWidth="1"/>
+    <col min="1" max="1" width="15.5833333333333" style="12" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="13" customWidth="1"/>
     <col min="3" max="3" width="28.1666666666667" customWidth="1"/>
     <col min="4" max="4" width="35.25" style="6" customWidth="1"/>
     <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
@@ -10040,79 +10056,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="15"/>
-      <c r="C1" s="16" t="s">
+      <c r="A1" s="14"/>
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="18"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="3:7">
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22" t="s">
+      <c r="D4" s="20"/>
+      <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="15"/>
+      <c r="A5" s="14"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="30"/>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="32" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -10120,56 +10136,56 @@
       </c>
     </row>
     <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="32" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="32" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="34" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="28"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
     </row>
     <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="37" t="s">
         <v>28</v>
       </c>
     </row>
@@ -10179,30 +10195,30 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="17" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="39" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -10210,7 +10226,7 @@
       </c>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="39" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -10218,25 +10234,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="19"/>
+      <c r="E25" s="18"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="19"/>
+      <c r="E26" s="18"/>
     </row>
     <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="41" t="s">
         <v>43</v>
       </c>
     </row>
@@ -10432,10 +10448,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q620"/>
+  <dimension ref="A1:Q621"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="E57" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A487" workbookViewId="0">
+      <selection activeCell="H515" sqref="H515"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -10644,7 +10660,7 @@
       <c r="H11" t="s">
         <v>118</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="8" t="s">
         <v>119</v>
       </c>
       <c r="N11" t="s">
@@ -10673,7 +10689,7 @@
       <c r="H12" t="s">
         <v>122</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="10" t="s">
         <v>123</v>
       </c>
       <c r="N12" t="s">
@@ -10702,7 +10718,7 @@
       <c r="H13" t="s">
         <v>126</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="8" t="s">
         <v>127</v>
       </c>
       <c r="N13" t="s">
@@ -10760,7 +10776,7 @@
       <c r="H15" t="s">
         <v>118</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="8" t="s">
         <v>133</v>
       </c>
       <c r="N15" t="s">
@@ -11133,7 +11149,7 @@
       <c r="H26" t="s">
         <v>118</v>
       </c>
-      <c r="I26" s="10" t="s">
+      <c r="I26" s="8" t="s">
         <v>176</v>
       </c>
       <c r="N26" t="s">
@@ -11395,7 +11411,7 @@
       <c r="H34" t="s">
         <v>118</v>
       </c>
-      <c r="I34" s="10" t="s">
+      <c r="I34" s="8" t="s">
         <v>205</v>
       </c>
       <c r="N34" t="s">
@@ -11552,7 +11568,7 @@
       <c r="H39" t="s">
         <v>118</v>
       </c>
-      <c r="I39" s="10" t="s">
+      <c r="I39" s="8" t="s">
         <v>220</v>
       </c>
       <c r="N39" t="s">
@@ -11680,7 +11696,7 @@
       <c r="H43" t="s">
         <v>118</v>
       </c>
-      <c r="I43" s="10" t="s">
+      <c r="I43" s="8" t="s">
         <v>231</v>
       </c>
       <c r="N43" t="s">
@@ -11767,7 +11783,7 @@
       <c r="H46" t="s">
         <v>118</v>
       </c>
-      <c r="I46" s="10" t="s">
+      <c r="I46" s="8" t="s">
         <v>242</v>
       </c>
       <c r="N46" t="s">
@@ -11854,7 +11870,7 @@
       <c r="H49" t="s">
         <v>126</v>
       </c>
-      <c r="I49" s="10" t="s">
+      <c r="I49" s="8" t="s">
         <v>252</v>
       </c>
       <c r="N49" t="s">
@@ -11912,7 +11928,7 @@
       <c r="H51" t="s">
         <v>126</v>
       </c>
-      <c r="I51" s="10" t="s">
+      <c r="I51" s="8" t="s">
         <v>258</v>
       </c>
       <c r="N51" t="s">
@@ -11999,7 +12015,7 @@
       <c r="H54" t="s">
         <v>118</v>
       </c>
-      <c r="I54" s="10" t="s">
+      <c r="I54" s="8" t="s">
         <v>268</v>
       </c>
       <c r="N54" t="s">
@@ -12015,7 +12031,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" ht="69.6" spans="5:17">
+    <row r="55" ht="87" spans="5:17">
       <c r="E55" t="s">
         <v>269</v>
       </c>
@@ -12121,7 +12137,7 @@
       <c r="H58" t="s">
         <v>118</v>
       </c>
-      <c r="I58" s="10" t="s">
+      <c r="I58" s="8" t="s">
         <v>284</v>
       </c>
       <c r="N58" t="s">
@@ -12214,7 +12230,7 @@
       <c r="H61" t="s">
         <v>118</v>
       </c>
-      <c r="I61" s="10" t="s">
+      <c r="I61" s="8" t="s">
         <v>294</v>
       </c>
       <c r="N61" t="s">
@@ -12307,7 +12323,7 @@
       <c r="H64" t="s">
         <v>118</v>
       </c>
-      <c r="I64" s="10" t="s">
+      <c r="I64" s="8" t="s">
         <v>304</v>
       </c>
       <c r="N64" t="s">
@@ -12429,7 +12445,7 @@
       <c r="H68" t="s">
         <v>118</v>
       </c>
-      <c r="I68" s="10" t="s">
+      <c r="I68" s="8" t="s">
         <v>317</v>
       </c>
       <c r="N68" t="s">
@@ -12545,7 +12561,7 @@
       <c r="H72" t="s">
         <v>332</v>
       </c>
-      <c r="I72" s="10" t="s">
+      <c r="I72" s="8" t="s">
         <v>333</v>
       </c>
       <c r="N72" t="s">
@@ -12667,7 +12683,7 @@
       <c r="H76" t="s">
         <v>118</v>
       </c>
-      <c r="I76" s="10" t="s">
+      <c r="I76" s="8" t="s">
         <v>348</v>
       </c>
       <c r="N76" t="s">
@@ -12747,8 +12763,8 @@
         <v>106</v>
       </c>
     </row>
-    <row r="79" ht="156.6" spans="5:17">
-      <c r="E79" s="12" t="s">
+    <row r="79" ht="87" spans="5:17">
+      <c r="E79" s="11" t="s">
         <v>357</v>
       </c>
       <c r="F79" s="6" t="s">
@@ -12992,7 +13008,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="86" ht="34.8" spans="5:17">
+    <row r="86" spans="5:17">
       <c r="E86" t="s">
         <v>383</v>
       </c>
@@ -13005,7 +13021,7 @@
       <c r="H86" t="s">
         <v>385</v>
       </c>
-      <c r="I86" s="11" t="s">
+      <c r="I86" s="10" t="s">
         <v>386</v>
       </c>
       <c r="J86" t="s">
@@ -13040,7 +13056,7 @@
       <c r="H87" t="s">
         <v>385</v>
       </c>
-      <c r="I87" s="11" t="s">
+      <c r="I87" s="10" t="s">
         <v>389</v>
       </c>
       <c r="J87" t="s">
@@ -20747,22 +20763,16 @@
         <v>76</v>
       </c>
     </row>
-    <row r="515" spans="5:11">
+    <row r="515" spans="5:7">
       <c r="E515" t="s">
         <v>397</v>
       </c>
       <c r="F515" t="str">
-        <f>消息模板!$E$54</f>
+        <f>E54</f>
         <v>hmsg_message_template-112</v>
       </c>
       <c r="G515" t="s">
-        <v>427</v>
-      </c>
-      <c r="J515" t="s">
-        <v>76</v>
-      </c>
-      <c r="K515" t="s">
-        <v>76</v>
+        <v>453</v>
       </c>
     </row>
     <row r="516" spans="5:11">
@@ -20774,7 +20784,7 @@
         <v>hmsg_message_template-112</v>
       </c>
       <c r="G516" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="J516" t="s">
         <v>76</v>
@@ -20792,7 +20802,7 @@
         <v>hmsg_message_template-112</v>
       </c>
       <c r="G517" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="J517" t="s">
         <v>76</v>
@@ -20806,11 +20816,11 @@
         <v>397</v>
       </c>
       <c r="F518" t="str">
-        <f>消息模板!$E$46</f>
-        <v>hmsg_message_template-82</v>
+        <f>消息模板!$E$54</f>
+        <v>hmsg_message_template-112</v>
       </c>
       <c r="G518" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="J518" t="s">
         <v>76</v>
@@ -20828,7 +20838,7 @@
         <v>hmsg_message_template-82</v>
       </c>
       <c r="G519" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="J519" t="s">
         <v>76</v>
@@ -20846,7 +20856,7 @@
         <v>hmsg_message_template-82</v>
       </c>
       <c r="G520" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="J520" t="s">
         <v>76</v>
@@ -20860,11 +20870,11 @@
         <v>397</v>
       </c>
       <c r="F521" t="str">
-        <f>消息模板!$E$15</f>
-        <v>hmsg_message_template-22</v>
+        <f>消息模板!$E$46</f>
+        <v>hmsg_message_template-82</v>
       </c>
       <c r="G521" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="J521" t="s">
         <v>76</v>
@@ -20882,7 +20892,7 @@
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G522" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="J522" t="s">
         <v>76</v>
@@ -20900,7 +20910,7 @@
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G523" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="J523" t="s">
         <v>76</v>
@@ -20914,11 +20924,11 @@
         <v>397</v>
       </c>
       <c r="F524" t="str">
-        <f>消息模板!$E$76</f>
-        <v>hmsg_message_template-146</v>
+        <f>消息模板!$E$15</f>
+        <v>hmsg_message_template-22</v>
       </c>
       <c r="G524" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="J524" t="s">
         <v>76</v>
@@ -20936,7 +20946,7 @@
         <v>hmsg_message_template-146</v>
       </c>
       <c r="G525" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="J525" t="s">
         <v>76</v>
@@ -20954,7 +20964,7 @@
         <v>hmsg_message_template-146</v>
       </c>
       <c r="G526" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="J526" t="s">
         <v>76</v>
@@ -20968,11 +20978,11 @@
         <v>397</v>
       </c>
       <c r="F527" t="str">
-        <f>消息模板!$E$68</f>
-        <v>hmsg_message_template-126</v>
+        <f>消息模板!$E$76</f>
+        <v>hmsg_message_template-146</v>
       </c>
       <c r="G527" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="J527" t="s">
         <v>76</v>
@@ -20990,7 +21000,7 @@
         <v>hmsg_message_template-126</v>
       </c>
       <c r="G528" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="J528" t="s">
         <v>76</v>
@@ -21004,11 +21014,11 @@
         <v>397</v>
       </c>
       <c r="F529" t="str">
-        <f>消息模板!$E$11</f>
-        <v>hmsg_message_template-16</v>
+        <f>消息模板!$E$68</f>
+        <v>hmsg_message_template-126</v>
       </c>
       <c r="G529" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="J529" t="s">
         <v>76</v>
@@ -21026,7 +21036,7 @@
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G530" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="J530" t="s">
         <v>76</v>
@@ -21040,11 +21050,11 @@
         <v>397</v>
       </c>
       <c r="F531" t="str">
-        <f>消息模板!$E$34</f>
-        <v>hmsg_message_template-43</v>
+        <f>消息模板!$E$11</f>
+        <v>hmsg_message_template-16</v>
       </c>
       <c r="G531" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="J531" t="s">
         <v>76</v>
@@ -21062,7 +21072,7 @@
         <v>hmsg_message_template-43</v>
       </c>
       <c r="G532" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="J532" t="s">
         <v>76</v>
@@ -21076,11 +21086,11 @@
         <v>397</v>
       </c>
       <c r="F533" t="str">
-        <f>消息模板!$E$64</f>
-        <v>hmsg_message_template-122</v>
+        <f>消息模板!$E$34</f>
+        <v>hmsg_message_template-43</v>
       </c>
       <c r="G533" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="J533" t="s">
         <v>76</v>
@@ -21098,7 +21108,7 @@
         <v>hmsg_message_template-122</v>
       </c>
       <c r="G534" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="J534" t="s">
         <v>76</v>
@@ -21116,7 +21126,7 @@
         <v>hmsg_message_template-122</v>
       </c>
       <c r="G535" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="J535" t="s">
         <v>76</v>
@@ -21134,7 +21144,7 @@
         <v>hmsg_message_template-122</v>
       </c>
       <c r="G536" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="J536" t="s">
         <v>76</v>
@@ -21152,7 +21162,7 @@
         <v>hmsg_message_template-122</v>
       </c>
       <c r="G537" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="J537" t="s">
         <v>76</v>
@@ -21166,11 +21176,11 @@
         <v>397</v>
       </c>
       <c r="F538" t="str">
-        <f>消息模板!$E$45</f>
-        <v>hmsg_message_template-69</v>
+        <f>消息模板!$E$64</f>
+        <v>hmsg_message_template-122</v>
       </c>
       <c r="G538" t="s">
-        <v>453</v>
+        <v>430</v>
       </c>
       <c r="J538" t="s">
         <v>76</v>
@@ -21188,7 +21198,7 @@
         <v>hmsg_message_template-69</v>
       </c>
       <c r="G539" t="s">
-        <v>405</v>
+        <v>454</v>
       </c>
       <c r="J539" t="s">
         <v>76</v>
@@ -21202,11 +21212,11 @@
         <v>397</v>
       </c>
       <c r="F540" t="str">
-        <f>消息模板!$E$27</f>
-        <v>hmsg_message_template-36</v>
+        <f>消息模板!$E$45</f>
+        <v>hmsg_message_template-69</v>
       </c>
       <c r="G540" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="J540" t="s">
         <v>76</v>
@@ -21224,7 +21234,7 @@
         <v>hmsg_message_template-36</v>
       </c>
       <c r="G541" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="J541" t="s">
         <v>76</v>
@@ -21242,7 +21252,7 @@
         <v>hmsg_message_template-36</v>
       </c>
       <c r="G542" t="s">
-        <v>450</v>
+        <v>405</v>
       </c>
       <c r="J542" t="s">
         <v>76</v>
@@ -21260,7 +21270,7 @@
         <v>hmsg_message_template-36</v>
       </c>
       <c r="G543" t="s">
-        <v>412</v>
+        <v>450</v>
       </c>
       <c r="J543" t="s">
         <v>76</v>
@@ -21278,7 +21288,7 @@
         <v>hmsg_message_template-36</v>
       </c>
       <c r="G544" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="J544" t="s">
         <v>76</v>
@@ -21292,11 +21302,11 @@
         <v>397</v>
       </c>
       <c r="F545" t="str">
-        <f>消息模板!$E$26</f>
-        <v>hmsg_message_template-35</v>
+        <f>消息模板!$E$27</f>
+        <v>hmsg_message_template-36</v>
       </c>
       <c r="G545" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="J545" t="s">
         <v>76</v>
@@ -21314,7 +21324,7 @@
         <v>hmsg_message_template-35</v>
       </c>
       <c r="G546" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="J546" t="s">
         <v>76</v>
@@ -21328,11 +21338,11 @@
         <v>397</v>
       </c>
       <c r="F547" t="str">
-        <f>消息模板!$E$9</f>
-        <v>hmsg_message_template-14</v>
+        <f>消息模板!$E$26</f>
+        <v>hmsg_message_template-35</v>
       </c>
       <c r="G547" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="J547" t="s">
         <v>76</v>
@@ -21350,7 +21360,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G548" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J548" t="s">
         <v>76</v>
@@ -21368,7 +21378,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G549" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J549" t="s">
         <v>76</v>
@@ -21386,7 +21396,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G550" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J550" t="s">
         <v>76</v>
@@ -21404,7 +21414,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G551" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="J551" t="s">
         <v>76</v>
@@ -21422,7 +21432,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G552" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="J552" t="s">
         <v>76</v>
@@ -21440,7 +21450,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G553" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="J553" t="s">
         <v>76</v>
@@ -21458,7 +21468,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G554" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J554" t="s">
         <v>76</v>
@@ -21476,7 +21486,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G555" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J555" t="s">
         <v>76</v>
@@ -21494,7 +21504,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G556" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="J556" t="s">
         <v>76</v>
@@ -21512,7 +21522,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G557" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="J557" t="s">
         <v>76</v>
@@ -21530,7 +21540,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G558" t="s">
-        <v>454</v>
+        <v>406</v>
       </c>
       <c r="J558" t="s">
         <v>76</v>
@@ -21544,11 +21554,11 @@
         <v>397</v>
       </c>
       <c r="F559" t="str">
-        <f>E80</f>
-        <v>hmsg_message_template-156</v>
+        <f>消息模板!$E$9</f>
+        <v>hmsg_message_template-14</v>
       </c>
       <c r="G559" t="s">
-        <v>404</v>
+        <v>455</v>
       </c>
       <c r="J559" t="s">
         <v>76</v>
@@ -21566,7 +21576,7 @@
         <v>hmsg_message_template-156</v>
       </c>
       <c r="G560" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="J560" t="s">
         <v>76</v>
@@ -21584,7 +21594,7 @@
         <v>hmsg_message_template-156</v>
       </c>
       <c r="G561" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J561" t="s">
         <v>76</v>
@@ -21602,7 +21612,7 @@
         <v>hmsg_message_template-156</v>
       </c>
       <c r="G562" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="J562" t="s">
         <v>76</v>
@@ -21620,7 +21630,7 @@
         <v>hmsg_message_template-156</v>
       </c>
       <c r="G563" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="J563" t="s">
         <v>76</v>
@@ -21638,7 +21648,7 @@
         <v>hmsg_message_template-156</v>
       </c>
       <c r="G564" t="s">
-        <v>455</v>
+        <v>415</v>
       </c>
       <c r="J564" t="s">
         <v>76</v>
@@ -21656,7 +21666,7 @@
         <v>hmsg_message_template-156</v>
       </c>
       <c r="G565" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="J565" t="s">
         <v>76</v>
@@ -21674,7 +21684,7 @@
         <v>hmsg_message_template-156</v>
       </c>
       <c r="G566" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="J566" t="s">
         <v>76</v>
@@ -21692,7 +21702,7 @@
         <v>hmsg_message_template-156</v>
       </c>
       <c r="G567" t="s">
-        <v>416</v>
+        <v>457</v>
       </c>
       <c r="J567" t="s">
         <v>76</v>
@@ -21710,7 +21720,7 @@
         <v>hmsg_message_template-156</v>
       </c>
       <c r="G568" t="s">
-        <v>457</v>
+        <v>416</v>
       </c>
       <c r="J568" t="s">
         <v>76</v>
@@ -21724,11 +21734,11 @@
         <v>397</v>
       </c>
       <c r="F569" t="str">
-        <f>E81</f>
-        <v>hmsg_message_template-157</v>
+        <f>E80</f>
+        <v>hmsg_message_template-156</v>
       </c>
       <c r="G569" t="s">
-        <v>404</v>
+        <v>458</v>
       </c>
       <c r="J569" t="s">
         <v>76</v>
@@ -21746,7 +21756,7 @@
         <v>hmsg_message_template-157</v>
       </c>
       <c r="G570" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="J570" t="s">
         <v>76</v>
@@ -21764,7 +21774,7 @@
         <v>hmsg_message_template-157</v>
       </c>
       <c r="G571" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J571" t="s">
         <v>76</v>
@@ -21782,7 +21792,7 @@
         <v>hmsg_message_template-157</v>
       </c>
       <c r="G572" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="J572" t="s">
         <v>76</v>
@@ -21800,7 +21810,7 @@
         <v>hmsg_message_template-157</v>
       </c>
       <c r="G573" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="J573" t="s">
         <v>76</v>
@@ -21818,7 +21828,7 @@
         <v>hmsg_message_template-157</v>
       </c>
       <c r="G574" t="s">
-        <v>455</v>
+        <v>415</v>
       </c>
       <c r="J574" t="s">
         <v>76</v>
@@ -21836,7 +21846,7 @@
         <v>hmsg_message_template-157</v>
       </c>
       <c r="G575" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="J575" t="s">
         <v>76</v>
@@ -21854,7 +21864,7 @@
         <v>hmsg_message_template-157</v>
       </c>
       <c r="G576" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="J576" t="s">
         <v>76</v>
@@ -21872,7 +21882,7 @@
         <v>hmsg_message_template-157</v>
       </c>
       <c r="G577" t="s">
-        <v>416</v>
+        <v>457</v>
       </c>
       <c r="J577" t="s">
         <v>76</v>
@@ -21890,7 +21900,7 @@
         <v>hmsg_message_template-157</v>
       </c>
       <c r="G578" t="s">
-        <v>457</v>
+        <v>416</v>
       </c>
       <c r="J578" t="s">
         <v>76</v>
@@ -21904,11 +21914,11 @@
         <v>397</v>
       </c>
       <c r="F579" t="str">
-        <f>E82</f>
-        <v>hmsg_message_template-158</v>
+        <f>E81</f>
+        <v>hmsg_message_template-157</v>
       </c>
       <c r="G579" t="s">
-        <v>404</v>
+        <v>458</v>
       </c>
       <c r="J579" t="s">
         <v>76</v>
@@ -21926,7 +21936,7 @@
         <v>hmsg_message_template-158</v>
       </c>
       <c r="G580" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="J580" t="s">
         <v>76</v>
@@ -21944,7 +21954,7 @@
         <v>hmsg_message_template-158</v>
       </c>
       <c r="G581" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J581" t="s">
         <v>76</v>
@@ -21962,7 +21972,7 @@
         <v>hmsg_message_template-158</v>
       </c>
       <c r="G582" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="J582" t="s">
         <v>76</v>
@@ -21980,7 +21990,7 @@
         <v>hmsg_message_template-158</v>
       </c>
       <c r="G583" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="J583" t="s">
         <v>76</v>
@@ -21998,7 +22008,7 @@
         <v>hmsg_message_template-158</v>
       </c>
       <c r="G584" t="s">
-        <v>455</v>
+        <v>415</v>
       </c>
       <c r="J584" t="s">
         <v>76</v>
@@ -22016,7 +22026,7 @@
         <v>hmsg_message_template-158</v>
       </c>
       <c r="G585" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="J585" t="s">
         <v>76</v>
@@ -22034,7 +22044,7 @@
         <v>hmsg_message_template-158</v>
       </c>
       <c r="G586" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="J586" t="s">
         <v>76</v>
@@ -22052,7 +22062,7 @@
         <v>hmsg_message_template-158</v>
       </c>
       <c r="G587" t="s">
-        <v>416</v>
+        <v>457</v>
       </c>
       <c r="J587" t="s">
         <v>76</v>
@@ -22070,7 +22080,7 @@
         <v>hmsg_message_template-158</v>
       </c>
       <c r="G588" t="s">
-        <v>457</v>
+        <v>416</v>
       </c>
       <c r="J588" t="s">
         <v>76</v>
@@ -22084,11 +22094,11 @@
         <v>397</v>
       </c>
       <c r="F589" t="str">
-        <f>E83</f>
-        <v>hmsg_message_template-159</v>
+        <f>E82</f>
+        <v>hmsg_message_template-158</v>
       </c>
       <c r="G589" t="s">
-        <v>404</v>
+        <v>458</v>
       </c>
       <c r="J589" t="s">
         <v>76</v>
@@ -22106,7 +22116,7 @@
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G590" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="J590" t="s">
         <v>76</v>
@@ -22124,7 +22134,7 @@
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G591" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J591" t="s">
         <v>76</v>
@@ -22142,7 +22152,7 @@
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G592" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="J592" t="s">
         <v>76</v>
@@ -22160,7 +22170,7 @@
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G593" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="J593" t="s">
         <v>76</v>
@@ -22178,7 +22188,7 @@
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G594" t="s">
-        <v>455</v>
+        <v>415</v>
       </c>
       <c r="J594" t="s">
         <v>76</v>
@@ -22196,7 +22206,7 @@
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G595" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="J595" t="s">
         <v>76</v>
@@ -22214,7 +22224,7 @@
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G596" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="J596" t="s">
         <v>76</v>
@@ -22232,7 +22242,7 @@
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G597" t="s">
-        <v>416</v>
+        <v>457</v>
       </c>
       <c r="J597" t="s">
         <v>76</v>
@@ -22250,7 +22260,7 @@
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G598" t="s">
-        <v>457</v>
+        <v>416</v>
       </c>
       <c r="J598" t="s">
         <v>76</v>
@@ -22264,11 +22274,11 @@
         <v>397</v>
       </c>
       <c r="F599" t="str">
-        <f>E84</f>
-        <v>hmsg_message_template-160</v>
+        <f>E83</f>
+        <v>hmsg_message_template-159</v>
       </c>
       <c r="G599" t="s">
-        <v>404</v>
+        <v>458</v>
       </c>
       <c r="J599" t="s">
         <v>76</v>
@@ -22286,7 +22296,7 @@
         <v>hmsg_message_template-160</v>
       </c>
       <c r="G600" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="J600" t="s">
         <v>76</v>
@@ -22304,7 +22314,7 @@
         <v>hmsg_message_template-160</v>
       </c>
       <c r="G601" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J601" t="s">
         <v>76</v>
@@ -22322,7 +22332,7 @@
         <v>hmsg_message_template-160</v>
       </c>
       <c r="G602" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="J602" t="s">
         <v>76</v>
@@ -22340,7 +22350,7 @@
         <v>hmsg_message_template-160</v>
       </c>
       <c r="G603" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="J603" t="s">
         <v>76</v>
@@ -22358,7 +22368,7 @@
         <v>hmsg_message_template-160</v>
       </c>
       <c r="G604" t="s">
-        <v>451</v>
+        <v>415</v>
       </c>
       <c r="J604" t="s">
         <v>76</v>
@@ -22376,7 +22386,7 @@
         <v>hmsg_message_template-160</v>
       </c>
       <c r="G605" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="J605" t="s">
         <v>76</v>
@@ -22394,7 +22404,7 @@
         <v>hmsg_message_template-160</v>
       </c>
       <c r="G606" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="J606" t="s">
         <v>76</v>
@@ -22408,11 +22418,11 @@
         <v>397</v>
       </c>
       <c r="F607" t="str">
-        <f>E85</f>
-        <v>hmsg_message_template-161</v>
+        <f>E84</f>
+        <v>hmsg_message_template-160</v>
       </c>
       <c r="G607" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="J607" t="s">
         <v>76</v>
@@ -22430,7 +22440,7 @@
         <v>hmsg_message_template-161</v>
       </c>
       <c r="G608" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="J608" t="s">
         <v>76</v>
@@ -22448,7 +22458,7 @@
         <v>hmsg_message_template-161</v>
       </c>
       <c r="G609" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J609" t="s">
         <v>76</v>
@@ -22466,7 +22476,7 @@
         <v>hmsg_message_template-161</v>
       </c>
       <c r="G610" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="J610" t="s">
         <v>76</v>
@@ -22484,7 +22494,7 @@
         <v>hmsg_message_template-161</v>
       </c>
       <c r="G611" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="J611" t="s">
         <v>76</v>
@@ -22502,7 +22512,7 @@
         <v>hmsg_message_template-161</v>
       </c>
       <c r="G612" t="s">
-        <v>451</v>
+        <v>415</v>
       </c>
       <c r="J612" t="s">
         <v>76</v>
@@ -22520,7 +22530,7 @@
         <v>hmsg_message_template-161</v>
       </c>
       <c r="G613" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="J613" t="s">
         <v>76</v>
@@ -22538,7 +22548,7 @@
         <v>hmsg_message_template-161</v>
       </c>
       <c r="G614" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="J614" t="s">
         <v>76</v>
@@ -22552,11 +22562,11 @@
         <v>397</v>
       </c>
       <c r="F615" t="str">
-        <f>E86</f>
-        <v>hmsg_message_template-162</v>
+        <f>E85</f>
+        <v>hmsg_message_template-161</v>
       </c>
       <c r="G615" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="J615" t="s">
         <v>76</v>
@@ -22574,7 +22584,7 @@
         <v>hmsg_message_template-162</v>
       </c>
       <c r="G616" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="J616" t="s">
         <v>76</v>
@@ -22592,7 +22602,7 @@
         <v>hmsg_message_template-162</v>
       </c>
       <c r="G617" t="s">
-        <v>451</v>
+        <v>415</v>
       </c>
       <c r="J617" t="s">
         <v>76</v>
@@ -22606,11 +22616,11 @@
         <v>397</v>
       </c>
       <c r="F618" t="str">
-        <f>E87</f>
-        <v>hmsg_message_template-163</v>
+        <f>E86</f>
+        <v>hmsg_message_template-162</v>
       </c>
       <c r="G618" t="s">
-        <v>419</v>
+        <v>451</v>
       </c>
       <c r="J618" t="s">
         <v>76</v>
@@ -22628,7 +22638,7 @@
         <v>hmsg_message_template-163</v>
       </c>
       <c r="G619" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="J619" t="s">
         <v>76</v>
@@ -22646,12 +22656,30 @@
         <v>hmsg_message_template-163</v>
       </c>
       <c r="G620" t="s">
+        <v>415</v>
+      </c>
+      <c r="J620" t="s">
+        <v>76</v>
+      </c>
+      <c r="K620" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="621" spans="5:11">
+      <c r="E621" t="s">
+        <v>397</v>
+      </c>
+      <c r="F621" t="str">
+        <f>E87</f>
+        <v>hmsg_message_template-163</v>
+      </c>
+      <c r="G621" t="s">
         <v>451</v>
       </c>
-      <c r="J620" t="s">
-        <v>76</v>
-      </c>
-      <c r="K620" t="s">
+      <c r="J621" t="s">
+        <v>76</v>
+      </c>
+      <c r="K621" t="s">
         <v>76</v>
       </c>
     </row>
@@ -22711,7 +22739,7 @@
         <v>48</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H4" s="5"/>
     </row>
@@ -22723,13 +22751,13 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>66</v>
@@ -22738,33 +22766,33 @@
         <v>67</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="J7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="K7" t="s">
         <v>64</v>
       </c>
       <c r="L7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F8" t="s">
         <v>76</v>
@@ -22773,33 +22801,33 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="I8" t="s">
         <v>264</v>
       </c>
       <c r="J8" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K8" t="s">
         <v>105</v>
       </c>
       <c r="L8" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M8" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N8" t="s">
         <v>105</v>
       </c>
       <c r="O8" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F9" t="s">
         <v>76</v>
@@ -22808,33 +22836,33 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="I9" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="J9" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K9" t="s">
         <v>105</v>
       </c>
       <c r="L9" t="s">
+        <v>479</v>
+      </c>
+      <c r="M9" t="s">
+        <v>480</v>
+      </c>
+      <c r="N9" t="s">
+        <v>76</v>
+      </c>
+      <c r="O9" t="s">
         <v>478</v>
-      </c>
-      <c r="M9" t="s">
-        <v>479</v>
-      </c>
-      <c r="N9" t="s">
-        <v>76</v>
-      </c>
-      <c r="O9" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -22843,19 +22871,19 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="I10" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K10" t="s">
         <v>105</v>
       </c>
       <c r="L10" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M10" t="s">
         <v>361</v>
@@ -22864,12 +22892,12 @@
         <v>76</v>
       </c>
       <c r="O10" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F11" t="s">
         <v>76</v>
@@ -22878,19 +22906,19 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="I11" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J11" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K11" t="s">
         <v>105</v>
       </c>
       <c r="L11" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M11" t="s">
         <v>361</v>
@@ -22899,12 +22927,12 @@
         <v>76</v>
       </c>
       <c r="O11" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F12" t="s">
         <v>76</v>
@@ -22913,19 +22941,19 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="I12" t="s">
         <v>310</v>
       </c>
       <c r="J12" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K12" t="s">
         <v>105</v>
       </c>
       <c r="L12" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M12" t="s">
         <v>361</v>
@@ -22934,12 +22962,12 @@
         <v>105</v>
       </c>
       <c r="O12" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F13" t="s">
         <v>76</v>
@@ -22948,19 +22976,19 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="I13" t="s">
         <v>275</v>
       </c>
       <c r="J13" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K13" t="s">
         <v>105</v>
       </c>
       <c r="L13" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M13" t="s">
         <v>361</v>
@@ -22969,12 +22997,12 @@
         <v>105</v>
       </c>
       <c r="O13" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F14" t="s">
         <v>76</v>
@@ -22983,19 +23011,19 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="I14" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="J14" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K14" t="s">
         <v>105</v>
       </c>
       <c r="L14" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M14" t="s">
         <v>361</v>
@@ -23004,12 +23032,12 @@
         <v>76</v>
       </c>
       <c r="O14" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F15" t="s">
         <v>76</v>
@@ -23018,33 +23046,33 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="I15" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="J15" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K15" t="s">
         <v>105</v>
       </c>
       <c r="L15" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M15" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N15" t="s">
         <v>105</v>
       </c>
       <c r="O15" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F16" t="s">
         <v>76</v>
@@ -23053,33 +23081,33 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="I16" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="J16" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K16" t="s">
         <v>105</v>
       </c>
       <c r="L16" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M16" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N16" t="s">
         <v>105</v>
       </c>
       <c r="O16" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F17" t="s">
         <v>76</v>
@@ -23088,33 +23116,33 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="I17" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="J17" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K17" t="s">
         <v>105</v>
       </c>
       <c r="L17" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M17" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N17" t="s">
         <v>105</v>
       </c>
       <c r="O17" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F18" t="s">
         <v>76</v>
@@ -23123,33 +23151,33 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="I18" t="s">
         <v>228</v>
       </c>
       <c r="J18" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K18" t="s">
         <v>105</v>
       </c>
       <c r="L18" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M18" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N18" t="s">
         <v>105</v>
       </c>
       <c r="O18" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F19" t="s">
         <v>76</v>
@@ -23158,33 +23186,33 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="I19" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J19" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K19" t="s">
         <v>105</v>
       </c>
       <c r="L19" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M19" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N19" t="s">
         <v>76</v>
       </c>
       <c r="O19" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F20" t="s">
         <v>76</v>
@@ -23193,33 +23221,33 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="I20" t="s">
         <v>245</v>
       </c>
       <c r="J20" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K20" t="s">
         <v>105</v>
       </c>
       <c r="L20" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M20" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N20" t="s">
         <v>105</v>
       </c>
       <c r="O20" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F21" t="s">
         <v>76</v>
@@ -23228,33 +23256,33 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="I21" t="s">
         <v>136</v>
       </c>
       <c r="J21" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K21" t="s">
         <v>105</v>
       </c>
       <c r="L21" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M21" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N21" t="s">
         <v>105</v>
       </c>
       <c r="O21" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F22" t="s">
         <v>76</v>
@@ -23263,33 +23291,33 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="I22" t="s">
         <v>351</v>
       </c>
       <c r="J22" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K22" t="s">
         <v>105</v>
       </c>
       <c r="L22" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M22" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N22" t="s">
         <v>105</v>
       </c>
       <c r="O22" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F23" t="s">
         <v>76</v>
@@ -23298,33 +23326,33 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="I23" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="J23" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K23" t="s">
         <v>105</v>
       </c>
       <c r="L23" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M23" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N23" t="s">
         <v>105</v>
       </c>
       <c r="O23" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F24" t="s">
         <v>76</v>
@@ -23333,33 +23361,33 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="I24" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="J24" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K24" t="s">
         <v>105</v>
       </c>
       <c r="L24" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M24" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N24" t="s">
         <v>105</v>
       </c>
       <c r="O24" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F25" t="s">
         <v>76</v>
@@ -23368,22 +23396,22 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I25" t="s">
         <v>238</v>
       </c>
       <c r="J25" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K25" t="s">
         <v>105</v>
       </c>
       <c r="L25" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M25" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N25" t="s">
         <v>76</v>
@@ -23394,7 +23422,7 @@
     </row>
     <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F26" t="s">
         <v>76</v>
@@ -23403,33 +23431,33 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="I26" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="J26" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K26" t="s">
         <v>105</v>
       </c>
       <c r="L26" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M26" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N26" t="s">
         <v>105</v>
       </c>
       <c r="O26" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="27" spans="5:15">
       <c r="E27" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F27" t="s">
         <v>76</v>
@@ -23438,33 +23466,33 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="I27" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="J27" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K27" t="s">
         <v>105</v>
       </c>
       <c r="L27" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M27" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N27" t="s">
         <v>105</v>
       </c>
       <c r="O27" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="28" spans="5:15">
       <c r="E28" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F28" t="s">
         <v>76</v>
@@ -23473,22 +23501,22 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="I28" t="s">
         <v>225</v>
       </c>
       <c r="J28" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K28" t="s">
         <v>105</v>
       </c>
       <c r="L28" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M28" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N28" t="s">
         <v>105</v>
@@ -23499,7 +23527,7 @@
     </row>
     <row r="29" spans="5:15">
       <c r="E29" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F29" t="s">
         <v>76</v>
@@ -23508,22 +23536,22 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="I29" t="s">
         <v>189</v>
       </c>
       <c r="J29" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K29" t="s">
         <v>105</v>
       </c>
       <c r="L29" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M29" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N29" t="s">
         <v>105</v>
@@ -23534,7 +23562,7 @@
     </row>
     <row r="30" spans="5:15">
       <c r="E30" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F30" t="s">
         <v>76</v>
@@ -23543,33 +23571,33 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="I30" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="J30" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K30" t="s">
         <v>105</v>
       </c>
       <c r="L30" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M30" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N30" t="s">
         <v>105</v>
       </c>
       <c r="O30" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="31" spans="5:15">
       <c r="E31" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F31" t="s">
         <v>76</v>
@@ -23578,22 +23606,22 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I31" t="s">
         <v>149</v>
       </c>
       <c r="J31" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K31" t="s">
         <v>105</v>
       </c>
       <c r="L31" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M31" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="N31" t="s">
         <v>105</v>
@@ -23604,7 +23632,7 @@
     </row>
     <row r="32" spans="5:15">
       <c r="E32" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F32" t="s">
         <v>76</v>
@@ -23613,33 +23641,33 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I32" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="J32" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K32" t="s">
         <v>105</v>
       </c>
       <c r="L32" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M32" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="N32" t="s">
         <v>105</v>
       </c>
       <c r="O32" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="33" spans="5:15">
       <c r="E33" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F33" t="s">
         <v>76</v>
@@ -23648,33 +23676,33 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="I33" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="J33" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K33" t="s">
         <v>105</v>
       </c>
       <c r="L33" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M33" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N33" t="s">
         <v>105</v>
       </c>
       <c r="O33" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="34" spans="5:15">
       <c r="E34" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F34" t="s">
         <v>76</v>
@@ -23683,33 +23711,33 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="I34" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="J34" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K34" t="s">
         <v>105</v>
       </c>
       <c r="L34" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M34" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N34" t="s">
         <v>105</v>
       </c>
       <c r="O34" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="35" spans="5:15">
       <c r="E35" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F35" t="s">
         <v>76</v>
@@ -23718,33 +23746,33 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="I35" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="J35" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K35" t="s">
         <v>105</v>
       </c>
       <c r="L35" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M35" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N35" t="s">
         <v>105</v>
       </c>
       <c r="O35" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="36" spans="5:15">
       <c r="E36" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F36" t="s">
         <v>76</v>
@@ -23753,22 +23781,22 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="I36" t="s">
         <v>140</v>
       </c>
       <c r="J36" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K36" t="s">
         <v>105</v>
       </c>
       <c r="L36" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M36" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N36" t="s">
         <v>105</v>
@@ -23779,7 +23807,7 @@
     </row>
     <row r="37" spans="5:15">
       <c r="E37" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F37" t="s">
         <v>76</v>
@@ -23788,33 +23816,33 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="I37" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="J37" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K37" t="s">
         <v>105</v>
       </c>
       <c r="L37" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M37" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N37" t="s">
         <v>105</v>
       </c>
       <c r="O37" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="38" spans="5:15">
       <c r="E38" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F38" t="s">
         <v>76</v>
@@ -23823,33 +23851,33 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="I38" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="J38" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K38" t="s">
         <v>105</v>
       </c>
       <c r="L38" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M38" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N38" t="s">
         <v>105</v>
       </c>
       <c r="O38" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="39" spans="5:15">
       <c r="E39" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F39" t="s">
         <v>76</v>
@@ -23858,33 +23886,33 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="I39" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="J39" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K39" t="s">
         <v>105</v>
       </c>
       <c r="L39" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M39" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N39" t="s">
         <v>105</v>
       </c>
       <c r="O39" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="40" spans="5:15">
       <c r="E40" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F40" t="s">
         <v>76</v>
@@ -23893,33 +23921,33 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="I40" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="J40" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K40" t="s">
         <v>105</v>
       </c>
       <c r="L40" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M40" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N40" t="s">
         <v>105</v>
       </c>
       <c r="O40" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="41" spans="5:15">
       <c r="E41" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F41" t="s">
         <v>76</v>
@@ -23928,33 +23956,33 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I41" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J41" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K41" t="s">
         <v>105</v>
       </c>
       <c r="L41" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M41" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N41" t="s">
         <v>105</v>
       </c>
       <c r="O41" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="42" spans="5:15">
       <c r="E42" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F42" t="s">
         <v>76</v>
@@ -23963,33 +23991,33 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="I42" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="J42" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K42" t="s">
         <v>105</v>
       </c>
       <c r="L42" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M42" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N42" t="s">
         <v>105</v>
       </c>
       <c r="O42" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="43" spans="5:15">
       <c r="E43" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F43" t="s">
         <v>76</v>
@@ -23998,33 +24026,33 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="I43" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="J43" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K43" t="s">
         <v>105</v>
       </c>
       <c r="L43" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M43" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="N43" t="s">
         <v>105</v>
       </c>
       <c r="O43" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="44" spans="5:15">
       <c r="E44" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F44" t="s">
         <v>76</v>
@@ -24033,33 +24061,33 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="I44" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="J44" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K44" t="s">
         <v>105</v>
       </c>
       <c r="L44" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M44" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="N44" t="s">
         <v>105</v>
       </c>
       <c r="O44" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="45" spans="5:15">
       <c r="E45" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F45" t="s">
         <v>76</v>
@@ -24068,33 +24096,33 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="I45" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="J45" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K45" t="s">
         <v>105</v>
       </c>
       <c r="L45" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M45" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="N45" t="s">
         <v>105</v>
       </c>
       <c r="O45" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="46" spans="5:15">
       <c r="E46" s="6" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F46" t="s">
         <v>76</v>
@@ -24103,33 +24131,33 @@
         <v>0</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="J46" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K46" t="s">
         <v>105</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="N46" t="s">
         <v>76</v>
       </c>
       <c r="O46" s="6" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="47" spans="5:15">
       <c r="E47" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F47" t="s">
         <v>76</v>
@@ -24138,33 +24166,33 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="J47" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K47" t="s">
         <v>105</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="N47" t="s">
         <v>76</v>
       </c>
       <c r="O47" s="6" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="48" ht="34.8" spans="5:15">
       <c r="E48" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -24173,19 +24201,19 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="J48" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K48">
         <v>1</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M48" t="s">
         <v>361</v>
@@ -24194,12 +24222,12 @@
         <v>0</v>
       </c>
       <c r="O48" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="49" spans="5:15">
       <c r="E49" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -24208,19 +24236,19 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="J49" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K49">
         <v>1</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M49" t="s">
         <v>366</v>
@@ -24229,12 +24257,12 @@
         <v>0</v>
       </c>
       <c r="O49" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="50" spans="5:15">
       <c r="E50" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -24243,19 +24271,19 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="J50" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K50">
         <v>1</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M50" t="s">
         <v>366</v>
@@ -24264,12 +24292,12 @@
         <v>0</v>
       </c>
       <c r="O50" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="51" spans="5:15">
       <c r="E51" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -24278,19 +24306,19 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="J51" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K51">
         <v>1</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M51" t="s">
         <v>366</v>
@@ -24299,12 +24327,12 @@
         <v>0</v>
       </c>
       <c r="O51" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="52" spans="5:15">
       <c r="E52" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -24313,19 +24341,19 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="J52" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K52">
         <v>1</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M52" t="s">
         <v>366</v>
@@ -24334,12 +24362,12 @@
         <v>0</v>
       </c>
       <c r="O52" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="53" spans="5:15">
       <c r="E53" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -24348,19 +24376,19 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="J53" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K53">
         <v>1</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M53" t="s">
         <v>366</v>
@@ -24369,12 +24397,12 @@
         <v>0</v>
       </c>
       <c r="O53" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="54" spans="5:15">
       <c r="E54" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -24383,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="J54" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K54">
         <v>1</v>
       </c>
       <c r="L54" s="8" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M54" t="s">
         <v>366</v>
@@ -24404,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="O54" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -24415,31 +24443,31 @@
         <v>51</v>
       </c>
       <c r="C56" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>88</v>
       </c>
       <c r="I56" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="J56" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="K56" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="L56" t="s">
         <v>60</v>
@@ -24450,14 +24478,14 @@
     </row>
     <row r="57" spans="5:13">
       <c r="E57" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F57" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G57" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H57" t="s">
         <v>263</v>
@@ -24471,14 +24499,14 @@
     </row>
     <row r="58" spans="5:13">
       <c r="E58" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F58" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-27</v>
       </c>
       <c r="G58" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H58" t="s">
         <v>331</v>
@@ -24499,14 +24527,14 @@
     </row>
     <row r="59" spans="5:13">
       <c r="E59" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F59" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-27</v>
       </c>
       <c r="G59" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H59" t="s">
         <v>340</v>
@@ -24520,14 +24548,14 @@
     </row>
     <row r="60" spans="5:13">
       <c r="E60" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F60" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-27</v>
       </c>
       <c r="G60" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H60" t="s">
         <v>335</v>
@@ -24537,7 +24565,7 @@
         <v>hmsg_email_server-9</v>
       </c>
       <c r="K60" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="L60" t="s">
         <v>76</v>
@@ -24548,14 +24576,14 @@
     </row>
     <row r="61" spans="5:13">
       <c r="E61" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F61" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-29</v>
       </c>
       <c r="G61" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H61" t="s">
         <v>293</v>
@@ -24576,14 +24604,14 @@
     </row>
     <row r="62" spans="5:13">
       <c r="E62" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F62" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-29</v>
       </c>
       <c r="G62" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H62" t="s">
         <v>296</v>
@@ -24597,14 +24625,14 @@
     </row>
     <row r="63" spans="5:13">
       <c r="E63" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F63" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-29</v>
       </c>
       <c r="G63" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H63" t="s">
         <v>289</v>
@@ -24618,14 +24646,14 @@
     </row>
     <row r="64" spans="5:13">
       <c r="E64" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F64" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-30</v>
       </c>
       <c r="G64" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H64" t="s">
         <v>303</v>
@@ -24646,14 +24674,14 @@
     </row>
     <row r="65" spans="5:13">
       <c r="E65" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F65" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-30</v>
       </c>
       <c r="G65" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H65" t="s">
         <v>306</v>
@@ -24667,14 +24695,14 @@
     </row>
     <row r="66" spans="5:13">
       <c r="E66" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F66" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-30</v>
       </c>
       <c r="G66" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H66" t="s">
         <v>300</v>
@@ -24688,14 +24716,14 @@
     </row>
     <row r="67" spans="5:13">
       <c r="E67" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F67" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-31</v>
       </c>
       <c r="G67" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H67" t="s">
         <v>316</v>
@@ -24716,14 +24744,14 @@
     </row>
     <row r="68" spans="5:13">
       <c r="E68" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F68" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-31</v>
       </c>
       <c r="G68" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H68" t="s">
         <v>319</v>
@@ -24737,14 +24765,14 @@
     </row>
     <row r="69" spans="5:13">
       <c r="E69" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F69" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-31</v>
       </c>
       <c r="G69" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H69" t="s">
         <v>312</v>
@@ -24758,14 +24786,14 @@
     </row>
     <row r="70" spans="5:13">
       <c r="E70" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F70" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-31</v>
       </c>
       <c r="G70" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H70" t="s">
         <v>309</v>
@@ -24779,14 +24807,14 @@
     </row>
     <row r="71" spans="5:13">
       <c r="E71" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F71" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-32</v>
       </c>
       <c r="G71" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H71" t="s">
         <v>283</v>
@@ -24807,14 +24835,14 @@
     </row>
     <row r="72" spans="5:13">
       <c r="E72" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F72" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-32</v>
       </c>
       <c r="G72" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H72" t="s">
         <v>286</v>
@@ -24828,14 +24856,14 @@
     </row>
     <row r="73" spans="5:13">
       <c r="E73" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F73" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-32</v>
       </c>
       <c r="G73" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H73" t="s">
         <v>279</v>
@@ -24849,14 +24877,14 @@
     </row>
     <row r="74" spans="5:13">
       <c r="E74" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F74" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-32</v>
       </c>
       <c r="G74" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H74" t="s">
         <v>274</v>
@@ -24870,14 +24898,14 @@
     </row>
     <row r="75" spans="5:13">
       <c r="E75" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F75" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-33</v>
       </c>
       <c r="G75" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H75" t="s">
         <v>267</v>
@@ -24898,14 +24926,14 @@
     </row>
     <row r="76" spans="5:13">
       <c r="E76" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F76" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-33</v>
       </c>
       <c r="G76" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H76" t="s">
         <v>270</v>
@@ -24919,14 +24947,14 @@
     </row>
     <row r="77" spans="5:13">
       <c r="E77" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F77" t="str">
         <f>发送配置!$E$15</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G77" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H77" t="s">
         <v>219</v>
@@ -24947,14 +24975,14 @@
     </row>
     <row r="78" spans="5:13">
       <c r="E78" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F78" t="str">
         <f>发送配置!$E$15</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G78" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H78" t="s">
         <v>222</v>
@@ -24968,14 +24996,14 @@
     </row>
     <row r="79" spans="5:13">
       <c r="E79" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F79" t="str">
         <f>发送配置!$E$15</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G79" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H79" t="s">
         <v>215</v>
@@ -24989,14 +25017,14 @@
     </row>
     <row r="80" spans="5:13">
       <c r="E80" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="F80" t="str">
         <f>发送配置!$E$15</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G80" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H80" t="s">
         <v>212</v>
@@ -25010,14 +25038,14 @@
     </row>
     <row r="81" spans="5:13">
       <c r="E81" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F81" t="str">
         <f>发送配置!$E$16</f>
         <v>hmsg_template_server-38</v>
       </c>
       <c r="G81" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H81" t="s">
         <v>257</v>
@@ -25038,14 +25066,14 @@
     </row>
     <row r="82" spans="5:13">
       <c r="E82" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F82" t="str">
         <f>发送配置!$E$16</f>
         <v>hmsg_template_server-38</v>
       </c>
       <c r="G82" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H82" t="s">
         <v>260</v>
@@ -25059,14 +25087,14 @@
     </row>
     <row r="83" spans="5:13">
       <c r="E83" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F83" t="str">
         <f>E50</f>
         <v>hmsg_template_server-91</v>
       </c>
       <c r="G83" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H83" t="s">
         <v>388</v>
@@ -25087,14 +25115,14 @@
     </row>
     <row r="84" spans="5:13">
       <c r="E84" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F84" t="str">
         <f>E50</f>
         <v>hmsg_template_server-91</v>
       </c>
       <c r="G84" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H84" t="s">
         <v>384</v>
@@ -25108,14 +25136,14 @@
     </row>
     <row r="85" spans="5:13">
       <c r="E85" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="F85" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-40</v>
       </c>
       <c r="G85" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H85" t="s">
         <v>251</v>
@@ -25136,14 +25164,14 @@
     </row>
     <row r="86" spans="5:13">
       <c r="E86" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F86" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-40</v>
       </c>
       <c r="G86" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H86" t="s">
         <v>254</v>
@@ -25157,14 +25185,14 @@
     </row>
     <row r="87" spans="5:13">
       <c r="E87" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F87" t="str">
         <f>发送配置!$E$18</f>
         <v>hmsg_template_server-41</v>
       </c>
       <c r="G87" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H87" t="s">
         <v>230</v>
@@ -25185,14 +25213,14 @@
     </row>
     <row r="88" spans="5:13">
       <c r="E88" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F88" t="str">
         <f>发送配置!$E$18</f>
         <v>hmsg_template_server-41</v>
       </c>
       <c r="G88" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H88" t="s">
         <v>233</v>
@@ -25206,14 +25234,14 @@
     </row>
     <row r="89" spans="5:13">
       <c r="E89" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F89" t="str">
         <f>发送配置!$E$18</f>
         <v>hmsg_template_server-41</v>
       </c>
       <c r="G89" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H89" t="s">
         <v>227</v>
@@ -25227,14 +25255,14 @@
     </row>
     <row r="90" spans="5:13">
       <c r="E90" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F90" t="str">
         <f>发送配置!$E$19</f>
         <v>hmsg_template_server-42</v>
       </c>
       <c r="G90" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H90" t="s">
         <v>125</v>
@@ -25255,14 +25283,14 @@
     </row>
     <row r="91" spans="5:13">
       <c r="E91" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F91" t="str">
         <f>发送配置!$E$19</f>
         <v>hmsg_template_server-42</v>
       </c>
       <c r="G91" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H91" t="s">
         <v>129</v>
@@ -25276,14 +25304,14 @@
     </row>
     <row r="92" spans="5:13">
       <c r="E92" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F92" t="str">
         <f>发送配置!$E$20</f>
         <v>hmsg_template_server-43</v>
       </c>
       <c r="G92" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H92" t="s">
         <v>241</v>
@@ -25304,14 +25332,14 @@
     </row>
     <row r="93" spans="5:13">
       <c r="E93" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F93" t="str">
         <f>发送配置!$E$20</f>
         <v>hmsg_template_server-43</v>
       </c>
       <c r="G93" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H93" t="s">
         <v>244</v>
@@ -25325,14 +25353,14 @@
     </row>
     <row r="94" spans="5:13">
       <c r="E94" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F94" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-44</v>
       </c>
       <c r="G94" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H94" t="s">
         <v>132</v>
@@ -25353,14 +25381,14 @@
     </row>
     <row r="95" spans="5:13">
       <c r="E95" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F95" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-44</v>
       </c>
       <c r="G95" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H95" t="s">
         <v>135</v>
@@ -25374,14 +25402,14 @@
     </row>
     <row r="96" spans="5:13">
       <c r="E96" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F96" t="str">
         <f>发送配置!$E$22</f>
         <v>hmsg_template_server-45</v>
       </c>
       <c r="G96" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H96" t="s">
         <v>347</v>
@@ -25402,14 +25430,14 @@
     </row>
     <row r="97" spans="5:13">
       <c r="E97" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F97" t="str">
         <f>发送配置!$E$22</f>
         <v>hmsg_template_server-45</v>
       </c>
       <c r="G97" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H97" t="s">
         <v>350</v>
@@ -25423,14 +25451,14 @@
     </row>
     <row r="98" spans="5:13">
       <c r="E98" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F98" t="str">
         <f>发送配置!$E$23</f>
         <v>hmsg_template_server-46</v>
       </c>
       <c r="G98" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H98" t="s">
         <v>117</v>
@@ -25451,14 +25479,14 @@
     </row>
     <row r="99" spans="5:13">
       <c r="E99" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F99" t="str">
         <f>发送配置!$E$23</f>
         <v>hmsg_template_server-46</v>
       </c>
       <c r="G99" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H99" t="s">
         <v>121</v>
@@ -25472,14 +25500,14 @@
     </row>
     <row r="100" spans="5:13">
       <c r="E100" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F100" t="str">
         <f>发送配置!$E$23</f>
         <v>hmsg_template_server-46</v>
       </c>
       <c r="G100" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H100" t="s">
         <v>112</v>
@@ -25493,14 +25521,14 @@
     </row>
     <row r="101" spans="5:13">
       <c r="E101" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F101" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-47</v>
       </c>
       <c r="G101" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H101" t="s">
         <v>204</v>
@@ -25521,14 +25549,14 @@
     </row>
     <row r="102" spans="5:13">
       <c r="E102" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F102" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-47</v>
       </c>
       <c r="G102" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H102" t="s">
         <v>207</v>
@@ -25542,14 +25570,14 @@
     </row>
     <row r="103" spans="5:13">
       <c r="E103" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F103" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-47</v>
       </c>
       <c r="G103" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H103" t="s">
         <v>200</v>
@@ -25563,14 +25591,14 @@
     </row>
     <row r="104" spans="5:13">
       <c r="E104" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F104" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-47</v>
       </c>
       <c r="G104" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H104" t="s">
         <v>196</v>
@@ -25584,14 +25612,14 @@
     </row>
     <row r="105" spans="5:13">
       <c r="E105" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F105" t="str">
         <f>发送配置!$E$25</f>
         <v>hmsg_template_server-48</v>
       </c>
       <c r="G105" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H105" t="s">
         <v>237</v>
@@ -25605,14 +25633,14 @@
     </row>
     <row r="106" spans="5:13">
       <c r="E106" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F106" t="str">
         <f>发送配置!$E$26</f>
         <v>hmsg_template_server-53</v>
       </c>
       <c r="G106" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H106" t="s">
         <v>175</v>
@@ -25633,14 +25661,14 @@
     </row>
     <row r="107" spans="5:13">
       <c r="E107" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F107" t="str">
         <f>发送配置!$E$26</f>
         <v>hmsg_template_server-53</v>
       </c>
       <c r="G107" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H107" t="s">
         <v>178</v>
@@ -25654,14 +25682,14 @@
     </row>
     <row r="108" spans="5:13">
       <c r="E108" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F108" t="str">
         <f>发送配置!$E$26</f>
         <v>hmsg_template_server-53</v>
       </c>
       <c r="G108" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H108" t="s">
         <v>172</v>
@@ -25675,20 +25703,20 @@
     </row>
     <row r="109" spans="5:13">
       <c r="E109" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F109" t="str">
         <f>发送配置!$E$27</f>
         <v>hmsg_template_server-54</v>
       </c>
       <c r="G109" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H109" t="s">
         <v>169</v>
       </c>
       <c r="L109" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="M109" t="s">
         <v>105</v>
@@ -25696,20 +25724,20 @@
     </row>
     <row r="110" spans="5:13">
       <c r="E110" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F110" t="str">
         <f>发送配置!$E$28</f>
         <v>hmsg_template_server-55</v>
       </c>
       <c r="G110" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H110" t="s">
         <v>224</v>
       </c>
       <c r="L110" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="M110" t="s">
         <v>105</v>
@@ -25717,20 +25745,20 @@
     </row>
     <row r="111" spans="5:13">
       <c r="E111" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F111" t="str">
         <f>发送配置!$E$29</f>
         <v>hmsg_template_server-56</v>
       </c>
       <c r="G111" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H111" t="s">
         <v>188</v>
       </c>
       <c r="L111" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="M111" t="s">
         <v>105</v>
@@ -25738,20 +25766,20 @@
     </row>
     <row r="112" spans="5:13">
       <c r="E112" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F112" t="str">
         <f>发送配置!$E$30</f>
         <v>hmsg_template_server-57</v>
       </c>
       <c r="G112" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H112" t="s">
         <v>209</v>
       </c>
       <c r="L112" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="M112" t="s">
         <v>105</v>
@@ -25759,20 +25787,20 @@
     </row>
     <row r="113" spans="5:13">
       <c r="E113" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F113" t="str">
         <f>发送配置!$E$31</f>
         <v>hmsg_template_server-58</v>
       </c>
       <c r="G113" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H113" t="s">
         <v>148</v>
       </c>
       <c r="L113" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="M113" t="s">
         <v>105</v>
@@ -25780,20 +25808,20 @@
     </row>
     <row r="114" spans="5:13">
       <c r="E114" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F114" t="str">
         <f>发送配置!$E$32</f>
         <v>hmsg_template_server-59</v>
       </c>
       <c r="G114" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H114" t="s">
         <v>152</v>
       </c>
       <c r="L114" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="M114" t="s">
         <v>105</v>
@@ -25801,20 +25829,20 @@
     </row>
     <row r="115" spans="5:13">
       <c r="E115" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F115" t="str">
         <f>发送配置!$E$33</f>
         <v>hmsg_template_server-60</v>
       </c>
       <c r="G115" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H115" t="s">
         <v>155</v>
       </c>
       <c r="L115" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="M115" t="s">
         <v>105</v>
@@ -25822,20 +25850,20 @@
     </row>
     <row r="116" spans="5:13">
       <c r="E116" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F116" t="str">
         <f>发送配置!$E$34</f>
         <v>hmsg_template_server-61</v>
       </c>
       <c r="G116" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H116" t="s">
         <v>160</v>
       </c>
       <c r="L116" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="M116" t="s">
         <v>105</v>
@@ -25843,20 +25871,20 @@
     </row>
     <row r="117" spans="5:13">
       <c r="E117" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F117" t="str">
         <f>发送配置!$E$35</f>
         <v>hmsg_template_server-62</v>
       </c>
       <c r="G117" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H117" t="s">
         <v>185</v>
       </c>
       <c r="L117" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="M117" t="s">
         <v>105</v>
@@ -25864,20 +25892,20 @@
     </row>
     <row r="118" spans="5:13">
       <c r="E118" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F118" t="str">
         <f>发送配置!$E$36</f>
         <v>hmsg_template_server-64</v>
       </c>
       <c r="G118" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H118" t="s">
         <v>139</v>
       </c>
       <c r="L118" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="M118" t="s">
         <v>105</v>
@@ -25885,20 +25913,20 @@
     </row>
     <row r="119" spans="5:13">
       <c r="E119" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F119" t="str">
         <f>发送配置!$E$37</f>
         <v>hmsg_template_server-65</v>
       </c>
       <c r="G119" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H119" t="s">
         <v>191</v>
       </c>
       <c r="L119" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="M119" t="s">
         <v>105</v>
@@ -25906,20 +25934,20 @@
     </row>
     <row r="120" spans="5:13">
       <c r="E120" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F120" t="str">
         <f>发送配置!$E$38</f>
         <v>hmsg_template_server-67</v>
       </c>
       <c r="G120" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H120" t="s">
         <v>164</v>
       </c>
       <c r="L120" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="M120" t="s">
         <v>105</v>
@@ -25927,20 +25955,20 @@
     </row>
     <row r="121" spans="5:13">
       <c r="E121" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="F121" t="str">
         <f>发送配置!$E$39</f>
         <v>hmsg_template_server-68</v>
       </c>
       <c r="G121" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H121" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="L121" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="M121" t="s">
         <v>105</v>
@@ -25948,20 +25976,20 @@
     </row>
     <row r="122" spans="5:13">
       <c r="E122" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F122" t="str">
         <f>发送配置!$E$41</f>
         <v>hmsg_template_server-71</v>
       </c>
       <c r="G122" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H122" t="s">
         <v>144</v>
       </c>
       <c r="L122" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="M122" t="s">
         <v>105</v>
@@ -25969,20 +25997,20 @@
     </row>
     <row r="123" spans="5:13">
       <c r="E123" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F123" t="str">
         <f>发送配置!$E$42</f>
         <v>hmsg_template_server-72</v>
       </c>
       <c r="G123" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H123" t="s">
         <v>354</v>
       </c>
       <c r="L123" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="M123" t="s">
         <v>105</v>
@@ -25990,20 +26018,20 @@
     </row>
     <row r="124" spans="5:13">
       <c r="E124" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F124" t="str">
         <f>发送配置!$E$43</f>
         <v>hmsg_template_server-73</v>
       </c>
       <c r="G124" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H124" t="s">
         <v>99</v>
       </c>
       <c r="L124" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="M124" t="s">
         <v>105</v>
@@ -26011,20 +26039,20 @@
     </row>
     <row r="125" spans="5:13">
       <c r="E125" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F125" t="str">
         <f>发送配置!$E$44</f>
         <v>hmsg_template_server-74</v>
       </c>
       <c r="G125" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H125" t="s">
         <v>182</v>
       </c>
       <c r="L125" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="M125" t="s">
         <v>105</v>
@@ -26032,20 +26060,20 @@
     </row>
     <row r="126" spans="5:13">
       <c r="E126" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F126" t="str">
         <f>发送配置!$E$45</f>
         <v>hmsg_template_server-75</v>
       </c>
       <c r="G126" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H126" t="s">
         <v>343</v>
       </c>
       <c r="L126" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="M126" t="s">
         <v>105</v>
@@ -26053,14 +26081,14 @@
     </row>
     <row r="127" spans="5:13">
       <c r="E127" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="F127" t="str">
         <f>发送配置!$E$46</f>
         <v>hmsg_template_server-76</v>
       </c>
       <c r="G127" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H127" t="s">
         <v>321</v>
@@ -26074,14 +26102,14 @@
     </row>
     <row r="128" spans="5:13">
       <c r="E128" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="F128" t="str">
         <f>发送配置!$E$47</f>
         <v>hmsg_template_server-77</v>
       </c>
       <c r="G128" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H128" t="s">
         <v>326</v>
@@ -26095,14 +26123,14 @@
     </row>
     <row r="129" spans="5:13">
       <c r="E129" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F129" t="str">
         <f>发送配置!$E$40</f>
         <v>hmsg_template_server-69</v>
       </c>
       <c r="G129" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H129" t="s">
         <v>108</v>
@@ -26116,14 +26144,14 @@
     </row>
     <row r="130" spans="5:13">
       <c r="E130" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F130" t="str">
         <f t="shared" ref="F130:F136" si="0">E48</f>
         <v>hmsg_template_server-89</v>
       </c>
       <c r="G130" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H130" t="s">
         <v>358</v>
@@ -26137,14 +26165,14 @@
     </row>
     <row r="131" spans="5:13">
       <c r="E131" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F131" t="str">
         <f t="shared" si="0"/>
         <v>hmsg_template_server-90</v>
       </c>
       <c r="G131" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H131" t="s">
         <v>363</v>
@@ -26158,14 +26186,14 @@
     </row>
     <row r="132" spans="5:13">
       <c r="E132" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="F132" t="str">
         <f t="shared" si="0"/>
         <v>hmsg_template_server-91</v>
       </c>
       <c r="G132" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H132" t="s">
         <v>368</v>
@@ -26179,14 +26207,14 @@
     </row>
     <row r="133" spans="5:13">
       <c r="E133" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F133" t="str">
         <f t="shared" si="0"/>
         <v>hmsg_template_server-92</v>
       </c>
       <c r="G133" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H133" t="s">
         <v>371</v>
@@ -26200,14 +26228,14 @@
     </row>
     <row r="134" spans="5:13">
       <c r="E134" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="F134" t="str">
         <f t="shared" si="0"/>
         <v>hmsg_template_server-93</v>
       </c>
       <c r="G134" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H134" t="s">
         <v>374</v>
@@ -26221,14 +26249,14 @@
     </row>
     <row r="135" spans="5:13">
       <c r="E135" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F135" t="str">
         <f t="shared" si="0"/>
         <v>hmsg_template_server-94</v>
       </c>
       <c r="G135" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H135" t="s">
         <v>377</v>
@@ -26242,14 +26270,14 @@
     </row>
     <row r="136" spans="5:13">
       <c r="E136" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="F136" t="str">
         <f t="shared" si="0"/>
         <v>hmsg_template_server-95</v>
       </c>
       <c r="G136" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H136" t="s">
         <v>381</v>
@@ -26269,30 +26297,30 @@
         <v>51</v>
       </c>
       <c r="C138" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H138" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="139" spans="5:8">
       <c r="E139" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="F139" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -26303,10 +26331,10 @@
     </row>
     <row r="140" spans="5:8">
       <c r="E140" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="F140" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -26317,10 +26345,10 @@
     </row>
     <row r="141" spans="5:8">
       <c r="E141" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="F141" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -26331,10 +26359,10 @@
     </row>
     <row r="142" spans="5:8">
       <c r="E142" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="F142" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -26345,10 +26373,10 @@
     </row>
     <row r="143" spans="5:8">
       <c r="E143" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="F143" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -26359,10 +26387,10 @@
     </row>
     <row r="144" spans="5:8">
       <c r="E144" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="F144" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -26373,10 +26401,10 @@
     </row>
     <row r="145" spans="5:8">
       <c r="E145" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="F145" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -26387,10 +26415,10 @@
     </row>
     <row r="146" spans="5:8">
       <c r="E146" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F146" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -26401,10 +26429,10 @@
     </row>
     <row r="147" spans="5:8">
       <c r="E147" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="F147" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -26415,10 +26443,10 @@
     </row>
     <row r="148" spans="5:8">
       <c r="E148" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F148" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -26429,10 +26457,10 @@
     </row>
     <row r="149" spans="5:8">
       <c r="E149" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="F149" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -26443,10 +26471,10 @@
     </row>
     <row r="150" spans="5:8">
       <c r="E150" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="F150" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -26457,10 +26485,10 @@
     </row>
     <row r="151" spans="5:8">
       <c r="E151" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F151" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -26471,10 +26499,10 @@
     </row>
     <row r="152" spans="5:8">
       <c r="E152" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F152" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -26485,10 +26513,10 @@
     </row>
     <row r="153" spans="5:8">
       <c r="E153" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="F153" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -26499,10 +26527,10 @@
     </row>
     <row r="154" spans="5:8">
       <c r="E154" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="F154" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -26513,10 +26541,10 @@
     </row>
     <row r="155" spans="5:8">
       <c r="E155" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="F155" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -26527,10 +26555,10 @@
     </row>
     <row r="156" spans="5:8">
       <c r="E156" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F156" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -26541,10 +26569,10 @@
     </row>
     <row r="157" spans="5:8">
       <c r="E157" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F157" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -26555,10 +26583,10 @@
     </row>
     <row r="158" spans="5:8">
       <c r="E158" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="F158" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -26569,10 +26597,10 @@
     </row>
     <row r="159" spans="5:8">
       <c r="E159" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="F159" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -26583,10 +26611,10 @@
     </row>
     <row r="160" spans="5:8">
       <c r="E160" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="F160" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -26597,10 +26625,10 @@
     </row>
     <row r="161" spans="5:8">
       <c r="E161" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="F161" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -26611,10 +26639,10 @@
     </row>
     <row r="162" spans="5:8">
       <c r="E162" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="F162" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -26625,10 +26653,10 @@
     </row>
     <row r="163" spans="5:8">
       <c r="E163" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="F163" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -26639,10 +26667,10 @@
     </row>
     <row r="164" spans="5:8">
       <c r="E164" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="F164" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -26653,10 +26681,10 @@
     </row>
     <row r="165" spans="5:8">
       <c r="E165" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="F165" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -26667,10 +26695,10 @@
     </row>
     <row r="166" spans="5:8">
       <c r="E166" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="F166" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G166">
         <v>1</v>
@@ -26681,10 +26709,10 @@
     </row>
     <row r="167" spans="5:8">
       <c r="E167" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="F167" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -26695,10 +26723,10 @@
     </row>
     <row r="168" spans="5:8">
       <c r="E168" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="F168" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="G168">
         <v>1</v>
@@ -26709,10 +26737,10 @@
     </row>
     <row r="169" spans="5:8">
       <c r="E169" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="F169" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -26723,10 +26751,10 @@
     </row>
     <row r="170" spans="5:8">
       <c r="E170" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="F170" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -26737,10 +26765,10 @@
     </row>
     <row r="171" spans="5:8">
       <c r="E171" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="F171" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="G171">
         <v>1</v>
@@ -26751,10 +26779,10 @@
     </row>
     <row r="172" spans="5:8">
       <c r="E172" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="F172" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -26765,10 +26793,10 @@
     </row>
     <row r="173" spans="5:8">
       <c r="E173" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="F173" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -26779,10 +26807,10 @@
     </row>
     <row r="174" spans="5:8">
       <c r="E174" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F174" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -26793,10 +26821,10 @@
     </row>
     <row r="175" spans="5:8">
       <c r="E175" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F175" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -26807,10 +26835,10 @@
     </row>
     <row r="176" spans="5:8">
       <c r="E176" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="F176" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -26821,10 +26849,10 @@
     </row>
     <row r="177" spans="5:8">
       <c r="E177" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="F177" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -26835,10 +26863,10 @@
     </row>
     <row r="178" spans="5:8">
       <c r="E178" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="F178" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G178">
         <v>1</v>
@@ -26849,10 +26877,10 @@
     </row>
     <row r="179" spans="5:8">
       <c r="E179" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="F179" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G179">
         <v>1</v>
@@ -26863,10 +26891,10 @@
     </row>
     <row r="180" spans="5:8">
       <c r="E180" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="F180" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -26877,10 +26905,10 @@
     </row>
     <row r="181" spans="5:8">
       <c r="E181" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F181" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -26891,10 +26919,10 @@
     </row>
     <row r="182" spans="5:8">
       <c r="E182" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="F182" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G182">
         <v>1</v>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4006" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4004" uniqueCount="771">
   <si>
     <r>
       <rPr>
@@ -8798,21 +8798,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8834,7 +8820,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8848,16 +8870,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8887,13 +8901,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -8910,18 +8917,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8935,7 +8935,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9029,7 +9029,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9041,73 +9179,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9119,97 +9203,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9325,6 +9325,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -9336,54 +9345,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9405,11 +9366,50 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9419,10 +9419,10 @@
     <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9431,133 +9431,133 @@
     <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10451,7 +10451,7 @@
   <dimension ref="A1:Q621"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A487" workbookViewId="0">
-      <selection activeCell="H515" sqref="H515"/>
+      <selection activeCell="G515" sqref="$A515:$XFD515"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -20756,14 +20756,14 @@
       <c r="G514" t="s">
         <v>440</v>
       </c>
-      <c r="J514" t="s">
-        <v>76</v>
-      </c>
-      <c r="K514" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="515" spans="5:7">
+      <c r="J514">
+        <v>0</v>
+      </c>
+      <c r="K514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="5:11">
       <c r="E515" t="s">
         <v>397</v>
       </c>
@@ -20773,6 +20773,12 @@
       </c>
       <c r="G515" t="s">
         <v>453</v>
+      </c>
+      <c r="J515">
+        <v>0</v>
+      </c>
+      <c r="K515">
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="5:11">

--- a/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="2"/>
+    <workbookView windowHeight="19420" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4004" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770">
   <si>
     <r>
       <rPr>
@@ -5290,21 +5290,6 @@
                                                 &lt;div&gt;
                &lt;p&gt;项目“${projectName}”中的流水线“${pipelineName}”目前暂停于【${stageName}】阶段，需要您进行审核。&lt;p&gt;
                                                    &lt;/div&gt;
-            &lt;div class="mj-column-per-100 outlook-group-fix" style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; text-align: left; direction: ltr; display: inline-block; vertical-align: top; width: 100%;"&gt;
-                          &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="vertical-align:top;" width="100%"&gt;
-                            &lt;tbody&gt;&lt;tr&gt;
-                              &lt;td align="center" vertical-align="middle" style="font-size:0px;padding:10px 25px;padding-top:60px;word-break:break-word;"&gt;
-                                &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="border-collapse:separate;width:212px;line-height:100%;"&gt;
-                                  &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#3f51b5;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
-          查看详情
-                                    &lt;/a&gt; &lt;/td&gt;
-                                  &lt;/tr&gt;
-                                &lt;/tbody&gt;&lt;/table&gt;&lt;br&gt;
-                              &lt;/td&gt;
-                            &lt;/tr&gt;
-                          &lt;/tbody&gt;&lt;/table&gt;
-                        &lt;/div&gt;   
                                             &lt;/div&gt;
                                             &lt;div&gt;
                                                 &lt;div style="text-align: justify;"&gt;
@@ -5409,10 +5394,8 @@
     <t>流水线任务待审核</t>
   </si>
   <si>
-    <t xml:space="preserve">
-&lt;p&gt;流水线“${pipelineName}”目前暂停于【${stageName}】阶段，需要您进行审核。
-&lt;p&gt;&lt;p&gt;&lt;a href=#/devops/pipeline-manage?type=project&amp;id=${projectId}&amp;
-name=${projectName}&amp;organizationId=${organizationId}&amp;
+    <t>&lt;p&gt;流水线“${pipelineName}”目前暂停于【${stageName}】阶段，需要您进行审核。
+&lt;p&gt;&lt;p&gt;&lt;a href=#/devops/pipeline-manage?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;category=GENERAL&amp;organizationId=${organizationId}&amp;
 pipelineId=${pipelineId}&amp;pipelineIdRecordId=${pipelineIdRecordId}&gt;查看详情&lt;/a &gt;</t>
   </si>
   <si>
@@ -7711,9 +7694,6 @@
     <t>mergeRequestId</t>
   </si>
   <si>
-    <t>link</t>
-  </si>
-  <si>
     <t>gitlabPassword</t>
   </si>
   <si>
@@ -8697,10 +8677,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -8767,6 +8747,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -8784,36 +8770,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8826,54 +8784,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8886,7 +8816,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -8895,23 +8825,22 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8933,9 +8862,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9029,7 +9009,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9041,127 +9165,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9179,37 +9183,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9226,12 +9206,28 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -9256,6 +9252,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -9267,26 +9276,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -9294,15 +9283,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -9319,8 +9299,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9328,8 +9308,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9363,204 +9393,154 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -9589,112 +9569,112 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
+    <cellStyle name="输入" xfId="5" builtinId="20"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
+    <cellStyle name="货币" xfId="8" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
+    <cellStyle name="百分比" xfId="10" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
+    <cellStyle name="计算" xfId="16" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
+    <cellStyle name="适中" xfId="18" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
+    <cellStyle name="好" xfId="20" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
+    <cellStyle name="汇总" xfId="22" builtinId="25"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
+    <cellStyle name="标题" xfId="34" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
+    <cellStyle name="注释" xfId="38" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
@@ -10029,7 +10009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
@@ -10037,21 +10017,21 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5833333333333" style="12" customWidth="1"/>
+    <col min="1" max="1" width="15.5855263157895" style="12" customWidth="1"/>
     <col min="2" max="2" width="10.25" style="13" customWidth="1"/>
-    <col min="3" max="3" width="28.1666666666667" customWidth="1"/>
+    <col min="3" max="3" width="28.1644736842105" customWidth="1"/>
     <col min="4" max="4" width="35.25" style="6" customWidth="1"/>
-    <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
-    <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
-    <col min="7" max="7" width="21.5833333333333" customWidth="1"/>
+    <col min="5" max="5" width="38.5855263157895" customWidth="1"/>
+    <col min="6" max="6" width="23.4144736842105" customWidth="1"/>
+    <col min="7" max="7" width="21.5855263157895" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5833333333333" customWidth="1"/>
+    <col min="9" max="9" width="24.5855263157895" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1666666666667" customWidth="1"/>
-    <col min="12" max="12" width="18.5833333333333" customWidth="1"/>
-    <col min="13" max="13" width="13.1666666666667" customWidth="1"/>
+    <col min="11" max="11" width="19.1644736842105" customWidth="1"/>
+    <col min="12" max="12" width="18.5855263157895" customWidth="1"/>
+    <col min="13" max="13" width="13.1644736842105" customWidth="1"/>
     <col min="14" max="1025" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10062,130 +10042,130 @@
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="17"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="4" spans="3:7">
-      <c r="C4" s="20" t="s">
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+    </row>
+    <row r="4" ht="16" spans="3:7">
+      <c r="C4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="36" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" ht="16" spans="1:3">
       <c r="A5" s="14"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="37" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="29"/>
-    </row>
-    <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="30" t="s">
+      <c r="E8" s="38"/>
+    </row>
+    <row r="9" ht="46" spans="3:6">
+      <c r="C9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="39" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="33" t="s">
+    <row r="10" ht="46" spans="3:5">
+      <c r="C10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="39" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="27" t="s">
+    <row r="11" ht="61" spans="3:5">
+      <c r="C11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="39" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="27" t="s">
+    <row r="12" ht="16" spans="3:5">
+      <c r="C12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="40" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="38"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="27"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-    </row>
-    <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="35" t="s">
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="38"/>
+    </row>
+    <row r="15" ht="31" spans="3:5">
+      <c r="C15" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="41" t="s">
         <v>28</v>
       </c>
     </row>
@@ -10194,39 +10174,39 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="3:5">
-      <c r="C19" s="38" t="s">
+    <row r="19" ht="16" spans="3:5">
+      <c r="C19" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="39" t="s">
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+    </row>
+    <row r="20" ht="16" spans="3:4">
+      <c r="C20" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="39" t="s">
+    <row r="21" ht="16" spans="3:4">
+      <c r="C21" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="39" t="s">
+    <row r="22" ht="16" spans="3:4">
+      <c r="C22" s="28" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="39" t="s">
+    <row r="23" ht="16" spans="3:4">
+      <c r="C23" s="28" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -10234,25 +10214,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="18"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="18"/>
-    </row>
-    <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="41" t="s">
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" ht="31" spans="3:3">
+      <c r="C27" s="31" t="s">
         <v>43</v>
       </c>
     </row>
@@ -10273,7 +10253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:R10"/>
   <sheetViews>
@@ -10281,11 +10261,11 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.2"/>
   <cols>
     <col min="5" max="5" width="23.25" customWidth="1"/>
     <col min="6" max="6" width="21.25" customWidth="1"/>
-    <col min="8" max="8" width="14.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="14.6644736842105" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10440,34 +10420,34 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Q621"/>
+  <dimension ref="A1:Q620"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A487" workbookViewId="0">
-      <selection activeCell="G515" sqref="$A515:$XFD515"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="D54" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
   <cols>
-    <col min="4" max="4" width="22.5833333333333" customWidth="1"/>
-    <col min="5" max="5" width="26.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="44.8333333333333" customWidth="1"/>
-    <col min="7" max="7" width="29.4166666666667" customWidth="1"/>
+    <col min="4" max="4" width="22.5855263157895" customWidth="1"/>
+    <col min="5" max="5" width="26.3355263157895" customWidth="1"/>
+    <col min="6" max="6" width="44.8355263157895" customWidth="1"/>
+    <col min="7" max="7" width="29.4144736842105" customWidth="1"/>
     <col min="8" max="8" width="24.25" customWidth="1"/>
-    <col min="9" max="9" width="92.8541666666667" customWidth="1"/>
-    <col min="10" max="10" width="29.3333333333333" customWidth="1"/>
-    <col min="11" max="11" width="32.1666666666667" customWidth="1"/>
-    <col min="13" max="13" width="33.1666666666667" customWidth="1"/>
-    <col min="14" max="14" width="23.4166666666667" customWidth="1"/>
-    <col min="15" max="15" width="29.4166666666667" customWidth="1"/>
-    <col min="16" max="16" width="29.8333333333333" customWidth="1"/>
+    <col min="9" max="9" width="92.8552631578947" customWidth="1"/>
+    <col min="10" max="10" width="29.3355263157895" customWidth="1"/>
+    <col min="11" max="11" width="32.1644736842105" customWidth="1"/>
+    <col min="13" max="13" width="33.1644736842105" customWidth="1"/>
+    <col min="14" max="14" width="23.4144736842105" customWidth="1"/>
+    <col min="15" max="15" width="29.4144736842105" customWidth="1"/>
+    <col min="16" max="16" width="29.8355263157895" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10676,7 +10656,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" ht="69.6" spans="5:17">
+    <row r="12" ht="61" spans="5:17">
       <c r="E12" t="s">
         <v>120</v>
       </c>
@@ -11165,7 +11145,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" ht="69.6" spans="5:17">
+    <row r="27" ht="61" spans="5:17">
       <c r="E27" t="s">
         <v>177</v>
       </c>
@@ -11584,7 +11564,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" ht="69.6" spans="5:17">
+    <row r="40" ht="61" spans="5:17">
       <c r="E40" t="s">
         <v>221</v>
       </c>
@@ -11712,7 +11692,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" ht="52.2" spans="5:17">
+    <row r="44" ht="46" spans="5:17">
       <c r="E44" t="s">
         <v>232</v>
       </c>
@@ -11741,7 +11721,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="5:17">
+    <row r="45" ht="18" spans="5:17">
       <c r="E45" t="s">
         <v>236</v>
       </c>
@@ -11886,7 +11866,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="50" ht="52.2" spans="5:17">
+    <row r="50" ht="46" spans="5:17">
       <c r="E50" t="s">
         <v>253</v>
       </c>
@@ -12031,7 +12011,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" ht="87" spans="5:17">
+    <row r="55" ht="61" spans="5:17">
       <c r="E55" t="s">
         <v>269</v>
       </c>
@@ -12153,7 +12133,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="59" ht="69.6" spans="5:17">
+    <row r="59" ht="61" spans="5:17">
       <c r="E59" t="s">
         <v>285</v>
       </c>
@@ -12246,7 +12226,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="62" ht="69.6" spans="5:17">
+    <row r="62" ht="61" spans="5:17">
       <c r="E62" t="s">
         <v>295</v>
       </c>
@@ -12339,7 +12319,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="65" ht="69.6" spans="5:17">
+    <row r="65" ht="61" spans="5:17">
       <c r="E65" t="s">
         <v>305</v>
       </c>
@@ -12403,7 +12383,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="67" ht="69.6" spans="5:17">
+    <row r="67" ht="61" spans="5:17">
       <c r="E67" t="s">
         <v>311</v>
       </c>
@@ -12461,7 +12441,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="69" ht="69.6" spans="5:17">
+    <row r="69" ht="61" spans="5:17">
       <c r="E69" t="s">
         <v>318</v>
       </c>
@@ -12763,7 +12743,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="79" ht="87" spans="5:17">
+    <row r="79" ht="76" spans="5:17">
       <c r="E79" s="11" t="s">
         <v>357</v>
       </c>
@@ -12798,7 +12778,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="80" ht="243.6" spans="5:17">
+    <row r="80" ht="213" spans="5:17">
       <c r="E80" t="s">
         <v>362</v>
       </c>
@@ -12833,7 +12813,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="81" ht="243.6" spans="5:17">
+    <row r="81" ht="213" spans="5:17">
       <c r="E81" t="s">
         <v>367</v>
       </c>
@@ -12868,7 +12848,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="82" ht="243.6" spans="5:17">
+    <row r="82" ht="213" spans="5:17">
       <c r="E82" t="s">
         <v>370</v>
       </c>
@@ -12903,7 +12883,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="83" ht="243.6" spans="5:17">
+    <row r="83" ht="213" spans="5:17">
       <c r="E83" t="s">
         <v>373</v>
       </c>
@@ -12938,7 +12918,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="84" ht="208.8" spans="5:17">
+    <row r="84" ht="183" spans="5:17">
       <c r="E84" t="s">
         <v>376</v>
       </c>
@@ -12973,7 +12953,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="85" ht="208.8" spans="5:17">
+    <row r="85" ht="183" spans="5:17">
       <c r="E85" t="s">
         <v>380</v>
       </c>
@@ -13008,7 +12988,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="86" spans="5:17">
+    <row r="86" ht="16" spans="5:17">
       <c r="E86" t="s">
         <v>383</v>
       </c>
@@ -20756,11 +20736,11 @@
       <c r="G514" t="s">
         <v>440</v>
       </c>
-      <c r="J514">
-        <v>0</v>
-      </c>
-      <c r="K514">
-        <v>0</v>
+      <c r="J514" t="s">
+        <v>76</v>
+      </c>
+      <c r="K514" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="515" spans="5:11">
@@ -20768,17 +20748,17 @@
         <v>397</v>
       </c>
       <c r="F515" t="str">
-        <f>E54</f>
+        <f>消息模板!$E$54</f>
         <v>hmsg_message_template-112</v>
       </c>
       <c r="G515" t="s">
-        <v>453</v>
-      </c>
-      <c r="J515">
-        <v>0</v>
-      </c>
-      <c r="K515">
-        <v>0</v>
+        <v>427</v>
+      </c>
+      <c r="J515" t="s">
+        <v>76</v>
+      </c>
+      <c r="K515" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="516" spans="5:11">
@@ -20790,7 +20770,7 @@
         <v>hmsg_message_template-112</v>
       </c>
       <c r="G516" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="J516" t="s">
         <v>76</v>
@@ -20808,7 +20788,7 @@
         <v>hmsg_message_template-112</v>
       </c>
       <c r="G517" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="J517" t="s">
         <v>76</v>
@@ -20822,11 +20802,11 @@
         <v>397</v>
       </c>
       <c r="F518" t="str">
-        <f>消息模板!$E$54</f>
-        <v>hmsg_message_template-112</v>
+        <f>消息模板!$E$46</f>
+        <v>hmsg_message_template-82</v>
       </c>
       <c r="G518" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="J518" t="s">
         <v>76</v>
@@ -20844,7 +20824,7 @@
         <v>hmsg_message_template-82</v>
       </c>
       <c r="G519" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="J519" t="s">
         <v>76</v>
@@ -20862,7 +20842,7 @@
         <v>hmsg_message_template-82</v>
       </c>
       <c r="G520" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="J520" t="s">
         <v>76</v>
@@ -20876,11 +20856,11 @@
         <v>397</v>
       </c>
       <c r="F521" t="str">
-        <f>消息模板!$E$46</f>
-        <v>hmsg_message_template-82</v>
+        <f>消息模板!$E$15</f>
+        <v>hmsg_message_template-22</v>
       </c>
       <c r="G521" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="J521" t="s">
         <v>76</v>
@@ -20898,7 +20878,7 @@
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G522" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="J522" t="s">
         <v>76</v>
@@ -20916,7 +20896,7 @@
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G523" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="J523" t="s">
         <v>76</v>
@@ -20930,11 +20910,11 @@
         <v>397</v>
       </c>
       <c r="F524" t="str">
-        <f>消息模板!$E$15</f>
-        <v>hmsg_message_template-22</v>
+        <f>消息模板!$E$76</f>
+        <v>hmsg_message_template-146</v>
       </c>
       <c r="G524" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="J524" t="s">
         <v>76</v>
@@ -20952,7 +20932,7 @@
         <v>hmsg_message_template-146</v>
       </c>
       <c r="G525" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="J525" t="s">
         <v>76</v>
@@ -20970,7 +20950,7 @@
         <v>hmsg_message_template-146</v>
       </c>
       <c r="G526" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="J526" t="s">
         <v>76</v>
@@ -20984,11 +20964,11 @@
         <v>397</v>
       </c>
       <c r="F527" t="str">
-        <f>消息模板!$E$76</f>
-        <v>hmsg_message_template-146</v>
+        <f>消息模板!$E$68</f>
+        <v>hmsg_message_template-126</v>
       </c>
       <c r="G527" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="J527" t="s">
         <v>76</v>
@@ -21006,7 +20986,7 @@
         <v>hmsg_message_template-126</v>
       </c>
       <c r="G528" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="J528" t="s">
         <v>76</v>
@@ -21020,11 +21000,11 @@
         <v>397</v>
       </c>
       <c r="F529" t="str">
-        <f>消息模板!$E$68</f>
-        <v>hmsg_message_template-126</v>
+        <f>消息模板!$E$11</f>
+        <v>hmsg_message_template-16</v>
       </c>
       <c r="G529" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="J529" t="s">
         <v>76</v>
@@ -21042,7 +21022,7 @@
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G530" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="J530" t="s">
         <v>76</v>
@@ -21056,11 +21036,11 @@
         <v>397</v>
       </c>
       <c r="F531" t="str">
-        <f>消息模板!$E$11</f>
-        <v>hmsg_message_template-16</v>
+        <f>消息模板!$E$34</f>
+        <v>hmsg_message_template-43</v>
       </c>
       <c r="G531" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="J531" t="s">
         <v>76</v>
@@ -21078,7 +21058,7 @@
         <v>hmsg_message_template-43</v>
       </c>
       <c r="G532" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="J532" t="s">
         <v>76</v>
@@ -21092,11 +21072,11 @@
         <v>397</v>
       </c>
       <c r="F533" t="str">
-        <f>消息模板!$E$34</f>
-        <v>hmsg_message_template-43</v>
+        <f>消息模板!$E$64</f>
+        <v>hmsg_message_template-122</v>
       </c>
       <c r="G533" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="J533" t="s">
         <v>76</v>
@@ -21114,7 +21094,7 @@
         <v>hmsg_message_template-122</v>
       </c>
       <c r="G534" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="J534" t="s">
         <v>76</v>
@@ -21132,7 +21112,7 @@
         <v>hmsg_message_template-122</v>
       </c>
       <c r="G535" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="J535" t="s">
         <v>76</v>
@@ -21150,7 +21130,7 @@
         <v>hmsg_message_template-122</v>
       </c>
       <c r="G536" t="s">
-        <v>419</v>
+        <v>440</v>
       </c>
       <c r="J536" t="s">
         <v>76</v>
@@ -21168,7 +21148,7 @@
         <v>hmsg_message_template-122</v>
       </c>
       <c r="G537" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="J537" t="s">
         <v>76</v>
@@ -21182,11 +21162,11 @@
         <v>397</v>
       </c>
       <c r="F538" t="str">
-        <f>消息模板!$E$64</f>
-        <v>hmsg_message_template-122</v>
+        <f>消息模板!$E$45</f>
+        <v>hmsg_message_template-69</v>
       </c>
       <c r="G538" t="s">
-        <v>430</v>
+        <v>453</v>
       </c>
       <c r="J538" t="s">
         <v>76</v>
@@ -21204,7 +21184,7 @@
         <v>hmsg_message_template-69</v>
       </c>
       <c r="G539" t="s">
-        <v>454</v>
+        <v>405</v>
       </c>
       <c r="J539" t="s">
         <v>76</v>
@@ -21218,11 +21198,11 @@
         <v>397</v>
       </c>
       <c r="F540" t="str">
-        <f>消息模板!$E$45</f>
-        <v>hmsg_message_template-69</v>
+        <f>消息模板!$E$27</f>
+        <v>hmsg_message_template-36</v>
       </c>
       <c r="G540" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="J540" t="s">
         <v>76</v>
@@ -21240,7 +21220,7 @@
         <v>hmsg_message_template-36</v>
       </c>
       <c r="G541" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="J541" t="s">
         <v>76</v>
@@ -21258,7 +21238,7 @@
         <v>hmsg_message_template-36</v>
       </c>
       <c r="G542" t="s">
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="J542" t="s">
         <v>76</v>
@@ -21276,7 +21256,7 @@
         <v>hmsg_message_template-36</v>
       </c>
       <c r="G543" t="s">
-        <v>450</v>
+        <v>412</v>
       </c>
       <c r="J543" t="s">
         <v>76</v>
@@ -21294,7 +21274,7 @@
         <v>hmsg_message_template-36</v>
       </c>
       <c r="G544" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="J544" t="s">
         <v>76</v>
@@ -21308,11 +21288,11 @@
         <v>397</v>
       </c>
       <c r="F545" t="str">
-        <f>消息模板!$E$27</f>
-        <v>hmsg_message_template-36</v>
+        <f>消息模板!$E$26</f>
+        <v>hmsg_message_template-35</v>
       </c>
       <c r="G545" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="J545" t="s">
         <v>76</v>
@@ -21330,7 +21310,7 @@
         <v>hmsg_message_template-35</v>
       </c>
       <c r="G546" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="J546" t="s">
         <v>76</v>
@@ -21344,11 +21324,11 @@
         <v>397</v>
       </c>
       <c r="F547" t="str">
-        <f>消息模板!$E$26</f>
-        <v>hmsg_message_template-35</v>
+        <f>消息模板!$E$9</f>
+        <v>hmsg_message_template-14</v>
       </c>
       <c r="G547" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="J547" t="s">
         <v>76</v>
@@ -21366,7 +21346,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G548" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="J548" t="s">
         <v>76</v>
@@ -21384,7 +21364,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G549" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="J549" t="s">
         <v>76</v>
@@ -21402,7 +21382,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G550" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="J550" t="s">
         <v>76</v>
@@ -21420,7 +21400,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G551" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="J551" t="s">
         <v>76</v>
@@ -21438,7 +21418,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G552" t="s">
-        <v>401</v>
+        <v>422</v>
       </c>
       <c r="J552" t="s">
         <v>76</v>
@@ -21456,7 +21436,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G553" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="J553" t="s">
         <v>76</v>
@@ -21474,7 +21454,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G554" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J554" t="s">
         <v>76</v>
@@ -21492,7 +21472,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G555" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J555" t="s">
         <v>76</v>
@@ -21510,7 +21490,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G556" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="J556" t="s">
         <v>76</v>
@@ -21528,7 +21508,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G557" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="J557" t="s">
         <v>76</v>
@@ -21546,7 +21526,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G558" t="s">
-        <v>406</v>
+        <v>454</v>
       </c>
       <c r="J558" t="s">
         <v>76</v>
@@ -21560,11 +21540,11 @@
         <v>397</v>
       </c>
       <c r="F559" t="str">
-        <f>消息模板!$E$9</f>
-        <v>hmsg_message_template-14</v>
+        <f>E80</f>
+        <v>hmsg_message_template-156</v>
       </c>
       <c r="G559" t="s">
-        <v>455</v>
+        <v>404</v>
       </c>
       <c r="J559" t="s">
         <v>76</v>
@@ -21582,7 +21562,7 @@
         <v>hmsg_message_template-156</v>
       </c>
       <c r="G560" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="J560" t="s">
         <v>76</v>
@@ -21600,7 +21580,7 @@
         <v>hmsg_message_template-156</v>
       </c>
       <c r="G561" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J561" t="s">
         <v>76</v>
@@ -21618,7 +21598,7 @@
         <v>hmsg_message_template-156</v>
       </c>
       <c r="G562" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="J562" t="s">
         <v>76</v>
@@ -21636,7 +21616,7 @@
         <v>hmsg_message_template-156</v>
       </c>
       <c r="G563" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="J563" t="s">
         <v>76</v>
@@ -21654,7 +21634,7 @@
         <v>hmsg_message_template-156</v>
       </c>
       <c r="G564" t="s">
-        <v>415</v>
+        <v>455</v>
       </c>
       <c r="J564" t="s">
         <v>76</v>
@@ -21672,7 +21652,7 @@
         <v>hmsg_message_template-156</v>
       </c>
       <c r="G565" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="J565" t="s">
         <v>76</v>
@@ -21690,7 +21670,7 @@
         <v>hmsg_message_template-156</v>
       </c>
       <c r="G566" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="J566" t="s">
         <v>76</v>
@@ -21708,7 +21688,7 @@
         <v>hmsg_message_template-156</v>
       </c>
       <c r="G567" t="s">
-        <v>457</v>
+        <v>416</v>
       </c>
       <c r="J567" t="s">
         <v>76</v>
@@ -21726,7 +21706,7 @@
         <v>hmsg_message_template-156</v>
       </c>
       <c r="G568" t="s">
-        <v>416</v>
+        <v>457</v>
       </c>
       <c r="J568" t="s">
         <v>76</v>
@@ -21740,11 +21720,11 @@
         <v>397</v>
       </c>
       <c r="F569" t="str">
-        <f>E80</f>
-        <v>hmsg_message_template-156</v>
+        <f>E81</f>
+        <v>hmsg_message_template-157</v>
       </c>
       <c r="G569" t="s">
-        <v>458</v>
+        <v>404</v>
       </c>
       <c r="J569" t="s">
         <v>76</v>
@@ -21762,7 +21742,7 @@
         <v>hmsg_message_template-157</v>
       </c>
       <c r="G570" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="J570" t="s">
         <v>76</v>
@@ -21780,7 +21760,7 @@
         <v>hmsg_message_template-157</v>
       </c>
       <c r="G571" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J571" t="s">
         <v>76</v>
@@ -21798,7 +21778,7 @@
         <v>hmsg_message_template-157</v>
       </c>
       <c r="G572" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="J572" t="s">
         <v>76</v>
@@ -21816,7 +21796,7 @@
         <v>hmsg_message_template-157</v>
       </c>
       <c r="G573" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="J573" t="s">
         <v>76</v>
@@ -21834,7 +21814,7 @@
         <v>hmsg_message_template-157</v>
       </c>
       <c r="G574" t="s">
-        <v>415</v>
+        <v>455</v>
       </c>
       <c r="J574" t="s">
         <v>76</v>
@@ -21852,7 +21832,7 @@
         <v>hmsg_message_template-157</v>
       </c>
       <c r="G575" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="J575" t="s">
         <v>76</v>
@@ -21870,7 +21850,7 @@
         <v>hmsg_message_template-157</v>
       </c>
       <c r="G576" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="J576" t="s">
         <v>76</v>
@@ -21888,7 +21868,7 @@
         <v>hmsg_message_template-157</v>
       </c>
       <c r="G577" t="s">
-        <v>457</v>
+        <v>416</v>
       </c>
       <c r="J577" t="s">
         <v>76</v>
@@ -21906,7 +21886,7 @@
         <v>hmsg_message_template-157</v>
       </c>
       <c r="G578" t="s">
-        <v>416</v>
+        <v>457</v>
       </c>
       <c r="J578" t="s">
         <v>76</v>
@@ -21920,11 +21900,11 @@
         <v>397</v>
       </c>
       <c r="F579" t="str">
-        <f>E81</f>
-        <v>hmsg_message_template-157</v>
+        <f>E82</f>
+        <v>hmsg_message_template-158</v>
       </c>
       <c r="G579" t="s">
-        <v>458</v>
+        <v>404</v>
       </c>
       <c r="J579" t="s">
         <v>76</v>
@@ -21942,7 +21922,7 @@
         <v>hmsg_message_template-158</v>
       </c>
       <c r="G580" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="J580" t="s">
         <v>76</v>
@@ -21960,7 +21940,7 @@
         <v>hmsg_message_template-158</v>
       </c>
       <c r="G581" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J581" t="s">
         <v>76</v>
@@ -21978,7 +21958,7 @@
         <v>hmsg_message_template-158</v>
       </c>
       <c r="G582" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="J582" t="s">
         <v>76</v>
@@ -21996,7 +21976,7 @@
         <v>hmsg_message_template-158</v>
       </c>
       <c r="G583" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="J583" t="s">
         <v>76</v>
@@ -22014,7 +21994,7 @@
         <v>hmsg_message_template-158</v>
       </c>
       <c r="G584" t="s">
-        <v>415</v>
+        <v>455</v>
       </c>
       <c r="J584" t="s">
         <v>76</v>
@@ -22032,7 +22012,7 @@
         <v>hmsg_message_template-158</v>
       </c>
       <c r="G585" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="J585" t="s">
         <v>76</v>
@@ -22050,7 +22030,7 @@
         <v>hmsg_message_template-158</v>
       </c>
       <c r="G586" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="J586" t="s">
         <v>76</v>
@@ -22068,7 +22048,7 @@
         <v>hmsg_message_template-158</v>
       </c>
       <c r="G587" t="s">
-        <v>457</v>
+        <v>416</v>
       </c>
       <c r="J587" t="s">
         <v>76</v>
@@ -22086,7 +22066,7 @@
         <v>hmsg_message_template-158</v>
       </c>
       <c r="G588" t="s">
-        <v>416</v>
+        <v>457</v>
       </c>
       <c r="J588" t="s">
         <v>76</v>
@@ -22100,11 +22080,11 @@
         <v>397</v>
       </c>
       <c r="F589" t="str">
-        <f>E82</f>
-        <v>hmsg_message_template-158</v>
+        <f>E83</f>
+        <v>hmsg_message_template-159</v>
       </c>
       <c r="G589" t="s">
-        <v>458</v>
+        <v>404</v>
       </c>
       <c r="J589" t="s">
         <v>76</v>
@@ -22122,7 +22102,7 @@
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G590" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="J590" t="s">
         <v>76</v>
@@ -22140,7 +22120,7 @@
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G591" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J591" t="s">
         <v>76</v>
@@ -22158,7 +22138,7 @@
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G592" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="J592" t="s">
         <v>76</v>
@@ -22176,7 +22156,7 @@
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G593" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="J593" t="s">
         <v>76</v>
@@ -22194,7 +22174,7 @@
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G594" t="s">
-        <v>415</v>
+        <v>455</v>
       </c>
       <c r="J594" t="s">
         <v>76</v>
@@ -22212,7 +22192,7 @@
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G595" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="J595" t="s">
         <v>76</v>
@@ -22230,7 +22210,7 @@
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G596" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="J596" t="s">
         <v>76</v>
@@ -22248,7 +22228,7 @@
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G597" t="s">
-        <v>457</v>
+        <v>416</v>
       </c>
       <c r="J597" t="s">
         <v>76</v>
@@ -22266,7 +22246,7 @@
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G598" t="s">
-        <v>416</v>
+        <v>457</v>
       </c>
       <c r="J598" t="s">
         <v>76</v>
@@ -22280,11 +22260,11 @@
         <v>397</v>
       </c>
       <c r="F599" t="str">
-        <f>E83</f>
-        <v>hmsg_message_template-159</v>
+        <f>E84</f>
+        <v>hmsg_message_template-160</v>
       </c>
       <c r="G599" t="s">
-        <v>458</v>
+        <v>404</v>
       </c>
       <c r="J599" t="s">
         <v>76</v>
@@ -22302,7 +22282,7 @@
         <v>hmsg_message_template-160</v>
       </c>
       <c r="G600" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="J600" t="s">
         <v>76</v>
@@ -22320,7 +22300,7 @@
         <v>hmsg_message_template-160</v>
       </c>
       <c r="G601" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J601" t="s">
         <v>76</v>
@@ -22338,7 +22318,7 @@
         <v>hmsg_message_template-160</v>
       </c>
       <c r="G602" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="J602" t="s">
         <v>76</v>
@@ -22356,7 +22336,7 @@
         <v>hmsg_message_template-160</v>
       </c>
       <c r="G603" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="J603" t="s">
         <v>76</v>
@@ -22374,7 +22354,7 @@
         <v>hmsg_message_template-160</v>
       </c>
       <c r="G604" t="s">
-        <v>415</v>
+        <v>451</v>
       </c>
       <c r="J604" t="s">
         <v>76</v>
@@ -22392,7 +22372,7 @@
         <v>hmsg_message_template-160</v>
       </c>
       <c r="G605" t="s">
-        <v>451</v>
+        <v>425</v>
       </c>
       <c r="J605" t="s">
         <v>76</v>
@@ -22410,7 +22390,7 @@
         <v>hmsg_message_template-160</v>
       </c>
       <c r="G606" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="J606" t="s">
         <v>76</v>
@@ -22424,11 +22404,11 @@
         <v>397</v>
       </c>
       <c r="F607" t="str">
-        <f>E84</f>
-        <v>hmsg_message_template-160</v>
+        <f>E85</f>
+        <v>hmsg_message_template-161</v>
       </c>
       <c r="G607" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="J607" t="s">
         <v>76</v>
@@ -22446,7 +22426,7 @@
         <v>hmsg_message_template-161</v>
       </c>
       <c r="G608" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="J608" t="s">
         <v>76</v>
@@ -22464,7 +22444,7 @@
         <v>hmsg_message_template-161</v>
       </c>
       <c r="G609" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J609" t="s">
         <v>76</v>
@@ -22482,7 +22462,7 @@
         <v>hmsg_message_template-161</v>
       </c>
       <c r="G610" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="J610" t="s">
         <v>76</v>
@@ -22500,7 +22480,7 @@
         <v>hmsg_message_template-161</v>
       </c>
       <c r="G611" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="J611" t="s">
         <v>76</v>
@@ -22518,7 +22498,7 @@
         <v>hmsg_message_template-161</v>
       </c>
       <c r="G612" t="s">
-        <v>415</v>
+        <v>451</v>
       </c>
       <c r="J612" t="s">
         <v>76</v>
@@ -22536,7 +22516,7 @@
         <v>hmsg_message_template-161</v>
       </c>
       <c r="G613" t="s">
-        <v>451</v>
+        <v>425</v>
       </c>
       <c r="J613" t="s">
         <v>76</v>
@@ -22554,7 +22534,7 @@
         <v>hmsg_message_template-161</v>
       </c>
       <c r="G614" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="J614" t="s">
         <v>76</v>
@@ -22568,11 +22548,11 @@
         <v>397</v>
       </c>
       <c r="F615" t="str">
-        <f>E85</f>
-        <v>hmsg_message_template-161</v>
+        <f>E86</f>
+        <v>hmsg_message_template-162</v>
       </c>
       <c r="G615" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="J615" t="s">
         <v>76</v>
@@ -22590,7 +22570,7 @@
         <v>hmsg_message_template-162</v>
       </c>
       <c r="G616" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="J616" t="s">
         <v>76</v>
@@ -22608,7 +22588,7 @@
         <v>hmsg_message_template-162</v>
       </c>
       <c r="G617" t="s">
-        <v>415</v>
+        <v>451</v>
       </c>
       <c r="J617" t="s">
         <v>76</v>
@@ -22622,11 +22602,11 @@
         <v>397</v>
       </c>
       <c r="F618" t="str">
-        <f>E86</f>
-        <v>hmsg_message_template-162</v>
+        <f>E87</f>
+        <v>hmsg_message_template-163</v>
       </c>
       <c r="G618" t="s">
-        <v>451</v>
+        <v>419</v>
       </c>
       <c r="J618" t="s">
         <v>76</v>
@@ -22644,7 +22624,7 @@
         <v>hmsg_message_template-163</v>
       </c>
       <c r="G619" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="J619" t="s">
         <v>76</v>
@@ -22662,7 +22642,7 @@
         <v>hmsg_message_template-163</v>
       </c>
       <c r="G620" t="s">
-        <v>415</v>
+        <v>451</v>
       </c>
       <c r="J620" t="s">
         <v>76</v>
@@ -22671,33 +22651,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="621" spans="5:11">
-      <c r="E621" t="s">
-        <v>397</v>
-      </c>
-      <c r="F621" t="str">
-        <f>E87</f>
-        <v>hmsg_message_template-163</v>
-      </c>
-      <c r="G621" t="s">
-        <v>451</v>
-      </c>
-      <c r="J621" t="s">
-        <v>76</v>
-      </c>
-      <c r="K621" t="s">
-        <v>76</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:O182"/>
   <sheetViews>
@@ -22705,22 +22667,22 @@
       <selection activeCell="D176" sqref="$A176:$XFD176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
   <cols>
-    <col min="1" max="1" width="22.4166666666667" customWidth="1"/>
-    <col min="2" max="2" width="15.4166666666667" customWidth="1"/>
-    <col min="3" max="3" width="22.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="29.4166666666667" customWidth="1"/>
-    <col min="5" max="5" width="43.6666666666667" customWidth="1"/>
-    <col min="6" max="7" width="34.4166666666667" customWidth="1"/>
-    <col min="8" max="8" width="37.9166666666667" customWidth="1"/>
-    <col min="9" max="9" width="26.9166666666667" customWidth="1"/>
-    <col min="10" max="10" width="14.1666666666667" customWidth="1"/>
-    <col min="11" max="11" width="26.8333333333333" customWidth="1"/>
-    <col min="12" max="12" width="29.8333333333333" customWidth="1"/>
-    <col min="13" max="13" width="24.8333333333333" customWidth="1"/>
-    <col min="14" max="14" width="17.5833333333333" customWidth="1"/>
-    <col min="15" max="15" width="15.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="22.4144736842105" customWidth="1"/>
+    <col min="2" max="2" width="15.4144736842105" customWidth="1"/>
+    <col min="3" max="3" width="22.6644736842105" customWidth="1"/>
+    <col min="4" max="4" width="29.4144736842105" customWidth="1"/>
+    <col min="5" max="5" width="43.6644736842105" customWidth="1"/>
+    <col min="6" max="7" width="34.4144736842105" customWidth="1"/>
+    <col min="8" max="8" width="37.9144736842105" customWidth="1"/>
+    <col min="9" max="9" width="26.9144736842105" customWidth="1"/>
+    <col min="10" max="10" width="14.1644736842105" customWidth="1"/>
+    <col min="11" max="11" width="26.8355263157895" customWidth="1"/>
+    <col min="12" max="12" width="29.8355263157895" customWidth="1"/>
+    <col min="13" max="13" width="24.8355263157895" customWidth="1"/>
+    <col min="14" max="14" width="17.5855263157895" customWidth="1"/>
+    <col min="15" max="15" width="15.6644736842105" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -22737,7 +22699,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:8">
+    <row r="4" ht="17" spans="5:8">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -22745,7 +22707,7 @@
         <v>48</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H4" s="5"/>
     </row>
@@ -22757,13 +22719,13 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>462</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>66</v>
@@ -22772,33 +22734,33 @@
         <v>67</v>
       </c>
       <c r="H7" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="I7" t="s">
         <v>463</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>464</v>
-      </c>
-      <c r="J7" t="s">
-        <v>465</v>
       </c>
       <c r="K7" t="s">
         <v>64</v>
       </c>
       <c r="L7" t="s">
+        <v>465</v>
+      </c>
+      <c r="M7" t="s">
         <v>466</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>467</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>468</v>
-      </c>
-      <c r="O7" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F8" t="s">
         <v>76</v>
@@ -22807,33 +22769,33 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I8" t="s">
         <v>264</v>
       </c>
       <c r="J8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K8" t="s">
         <v>105</v>
       </c>
       <c r="L8" t="s">
+        <v>472</v>
+      </c>
+      <c r="M8" t="s">
         <v>473</v>
-      </c>
-      <c r="M8" t="s">
-        <v>474</v>
       </c>
       <c r="N8" t="s">
         <v>105</v>
       </c>
       <c r="O8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F9" t="s">
         <v>76</v>
@@ -22842,33 +22804,33 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
+        <v>476</v>
+      </c>
+      <c r="I9" t="s">
         <v>477</v>
       </c>
-      <c r="I9" t="s">
-        <v>478</v>
-      </c>
       <c r="J9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K9" t="s">
         <v>105</v>
       </c>
       <c r="L9" t="s">
+        <v>478</v>
+      </c>
+      <c r="M9" t="s">
         <v>479</v>
       </c>
-      <c r="M9" t="s">
-        <v>480</v>
-      </c>
       <c r="N9" t="s">
         <v>76</v>
       </c>
       <c r="O9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -22877,19 +22839,19 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
+        <v>481</v>
+      </c>
+      <c r="I10" t="s">
         <v>482</v>
       </c>
-      <c r="I10" t="s">
-        <v>483</v>
-      </c>
       <c r="J10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K10" t="s">
         <v>105</v>
       </c>
       <c r="L10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M10" t="s">
         <v>361</v>
@@ -22898,12 +22860,12 @@
         <v>76</v>
       </c>
       <c r="O10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F11" t="s">
         <v>76</v>
@@ -22912,19 +22874,19 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
+        <v>484</v>
+      </c>
+      <c r="I11" t="s">
         <v>485</v>
       </c>
-      <c r="I11" t="s">
-        <v>486</v>
-      </c>
       <c r="J11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K11" t="s">
         <v>105</v>
       </c>
       <c r="L11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M11" t="s">
         <v>361</v>
@@ -22933,12 +22895,12 @@
         <v>76</v>
       </c>
       <c r="O11" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F12" t="s">
         <v>76</v>
@@ -22947,19 +22909,19 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I12" t="s">
         <v>310</v>
       </c>
       <c r="J12" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K12" t="s">
         <v>105</v>
       </c>
       <c r="L12" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M12" t="s">
         <v>361</v>
@@ -22968,12 +22930,12 @@
         <v>105</v>
       </c>
       <c r="O12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F13" t="s">
         <v>76</v>
@@ -22982,19 +22944,19 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I13" t="s">
         <v>275</v>
       </c>
       <c r="J13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K13" t="s">
         <v>105</v>
       </c>
       <c r="L13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M13" t="s">
         <v>361</v>
@@ -23003,12 +22965,12 @@
         <v>105</v>
       </c>
       <c r="O13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F14" t="s">
         <v>76</v>
@@ -23017,19 +22979,19 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
+        <v>493</v>
+      </c>
+      <c r="I14" t="s">
         <v>494</v>
       </c>
-      <c r="I14" t="s">
-        <v>495</v>
-      </c>
       <c r="J14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K14" t="s">
         <v>105</v>
       </c>
       <c r="L14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M14" t="s">
         <v>361</v>
@@ -23038,12 +23000,12 @@
         <v>76</v>
       </c>
       <c r="O14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F15" t="s">
         <v>76</v>
@@ -23052,33 +23014,33 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
+        <v>496</v>
+      </c>
+      <c r="I15" t="s">
         <v>497</v>
       </c>
-      <c r="I15" t="s">
-        <v>498</v>
-      </c>
       <c r="J15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K15" t="s">
         <v>105</v>
       </c>
       <c r="L15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="N15" t="s">
         <v>105</v>
       </c>
       <c r="O15" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F16" t="s">
         <v>76</v>
@@ -23087,33 +23049,33 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
+        <v>501</v>
+      </c>
+      <c r="I16" t="s">
         <v>502</v>
       </c>
-      <c r="I16" t="s">
-        <v>503</v>
-      </c>
       <c r="J16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K16" t="s">
         <v>105</v>
       </c>
       <c r="L16" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M16" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N16" t="s">
         <v>105</v>
       </c>
       <c r="O16" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F17" t="s">
         <v>76</v>
@@ -23122,33 +23084,33 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
+        <v>506</v>
+      </c>
+      <c r="I17" t="s">
         <v>507</v>
       </c>
-      <c r="I17" t="s">
-        <v>508</v>
-      </c>
       <c r="J17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K17" t="s">
         <v>105</v>
       </c>
       <c r="L17" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M17" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N17" t="s">
         <v>105</v>
       </c>
       <c r="O17" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F18" t="s">
         <v>76</v>
@@ -23157,33 +23119,33 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I18" t="s">
         <v>228</v>
       </c>
       <c r="J18" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K18" t="s">
         <v>105</v>
       </c>
       <c r="L18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M18" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N18" t="s">
         <v>105</v>
       </c>
       <c r="O18" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F19" t="s">
         <v>76</v>
@@ -23192,33 +23154,33 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
+        <v>513</v>
+      </c>
+      <c r="I19" t="s">
         <v>514</v>
       </c>
-      <c r="I19" t="s">
-        <v>515</v>
-      </c>
       <c r="J19" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K19" t="s">
         <v>105</v>
       </c>
       <c r="L19" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M19" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N19" t="s">
         <v>76</v>
       </c>
       <c r="O19" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F20" t="s">
         <v>76</v>
@@ -23227,33 +23189,33 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I20" t="s">
         <v>245</v>
       </c>
       <c r="J20" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K20" t="s">
         <v>105</v>
       </c>
       <c r="L20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M20" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N20" t="s">
         <v>105</v>
       </c>
       <c r="O20" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F21" t="s">
         <v>76</v>
@@ -23262,33 +23224,33 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I21" t="s">
         <v>136</v>
       </c>
       <c r="J21" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K21" t="s">
         <v>105</v>
       </c>
       <c r="L21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M21" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N21" t="s">
         <v>105</v>
       </c>
       <c r="O21" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F22" t="s">
         <v>76</v>
@@ -23297,33 +23259,33 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I22" t="s">
         <v>351</v>
       </c>
       <c r="J22" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K22" t="s">
         <v>105</v>
       </c>
       <c r="L22" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M22" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N22" t="s">
         <v>105</v>
       </c>
       <c r="O22" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F23" t="s">
         <v>76</v>
@@ -23332,33 +23294,33 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
+        <v>526</v>
+      </c>
+      <c r="I23" t="s">
         <v>527</v>
       </c>
-      <c r="I23" t="s">
-        <v>528</v>
-      </c>
       <c r="J23" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K23" t="s">
         <v>105</v>
       </c>
       <c r="L23" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M23" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="N23" t="s">
         <v>105</v>
       </c>
       <c r="O23" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F24" t="s">
         <v>76</v>
@@ -23367,33 +23329,33 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
+        <v>530</v>
+      </c>
+      <c r="I24" t="s">
         <v>531</v>
       </c>
-      <c r="I24" t="s">
-        <v>532</v>
-      </c>
       <c r="J24" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K24" t="s">
         <v>105</v>
       </c>
       <c r="L24" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M24" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="N24" t="s">
         <v>105</v>
       </c>
       <c r="O24" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F25" t="s">
         <v>76</v>
@@ -23402,22 +23364,22 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I25" t="s">
         <v>238</v>
       </c>
       <c r="J25" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K25" t="s">
         <v>105</v>
       </c>
       <c r="L25" t="s">
+        <v>472</v>
+      </c>
+      <c r="M25" t="s">
         <v>473</v>
-      </c>
-      <c r="M25" t="s">
-        <v>474</v>
       </c>
       <c r="N25" t="s">
         <v>76</v>
@@ -23428,7 +23390,7 @@
     </row>
     <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F26" t="s">
         <v>76</v>
@@ -23437,33 +23399,33 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
+        <v>536</v>
+      </c>
+      <c r="I26" t="s">
         <v>537</v>
       </c>
-      <c r="I26" t="s">
-        <v>538</v>
-      </c>
       <c r="J26" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K26" t="s">
         <v>105</v>
       </c>
       <c r="L26" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M26" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="N26" t="s">
         <v>105</v>
       </c>
       <c r="O26" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="27" spans="5:15">
       <c r="E27" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F27" t="s">
         <v>76</v>
@@ -23472,33 +23434,33 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
+        <v>540</v>
+      </c>
+      <c r="I27" t="s">
         <v>541</v>
       </c>
-      <c r="I27" t="s">
-        <v>542</v>
-      </c>
       <c r="J27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K27" t="s">
         <v>105</v>
       </c>
       <c r="L27" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M27" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N27" t="s">
         <v>105</v>
       </c>
       <c r="O27" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="28" spans="5:15">
       <c r="E28" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F28" t="s">
         <v>76</v>
@@ -23507,22 +23469,22 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I28" t="s">
         <v>225</v>
       </c>
       <c r="J28" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K28" t="s">
         <v>105</v>
       </c>
       <c r="L28" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M28" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="N28" t="s">
         <v>105</v>
@@ -23533,7 +23495,7 @@
     </row>
     <row r="29" spans="5:15">
       <c r="E29" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F29" t="s">
         <v>76</v>
@@ -23542,22 +23504,22 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I29" t="s">
         <v>189</v>
       </c>
       <c r="J29" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K29" t="s">
         <v>105</v>
       </c>
       <c r="L29" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M29" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N29" t="s">
         <v>105</v>
@@ -23568,7 +23530,7 @@
     </row>
     <row r="30" spans="5:15">
       <c r="E30" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F30" t="s">
         <v>76</v>
@@ -23577,33 +23539,33 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
+        <v>548</v>
+      </c>
+      <c r="I30" t="s">
         <v>549</v>
       </c>
-      <c r="I30" t="s">
-        <v>550</v>
-      </c>
       <c r="J30" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K30" t="s">
         <v>105</v>
       </c>
       <c r="L30" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M30" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="N30" t="s">
         <v>105</v>
       </c>
       <c r="O30" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="31" spans="5:15">
       <c r="E31" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F31" t="s">
         <v>76</v>
@@ -23612,22 +23574,22 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I31" t="s">
         <v>149</v>
       </c>
       <c r="J31" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K31" t="s">
         <v>105</v>
       </c>
       <c r="L31" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M31" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="N31" t="s">
         <v>105</v>
@@ -23638,7 +23600,7 @@
     </row>
     <row r="32" spans="5:15">
       <c r="E32" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F32" t="s">
         <v>76</v>
@@ -23647,33 +23609,33 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
+        <v>554</v>
+      </c>
+      <c r="I32" t="s">
         <v>555</v>
       </c>
-      <c r="I32" t="s">
-        <v>556</v>
-      </c>
       <c r="J32" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K32" t="s">
         <v>105</v>
       </c>
       <c r="L32" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M32" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="N32" t="s">
         <v>105</v>
       </c>
       <c r="O32" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="33" spans="5:15">
       <c r="E33" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F33" t="s">
         <v>76</v>
@@ -23682,33 +23644,33 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
+        <v>557</v>
+      </c>
+      <c r="I33" t="s">
         <v>558</v>
       </c>
-      <c r="I33" t="s">
-        <v>559</v>
-      </c>
       <c r="J33" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K33" t="s">
         <v>105</v>
       </c>
       <c r="L33" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M33" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="N33" t="s">
         <v>105</v>
       </c>
       <c r="O33" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="34" spans="5:15">
       <c r="E34" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F34" t="s">
         <v>76</v>
@@ -23717,33 +23679,33 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
+        <v>560</v>
+      </c>
+      <c r="I34" t="s">
         <v>561</v>
       </c>
-      <c r="I34" t="s">
-        <v>562</v>
-      </c>
       <c r="J34" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K34" t="s">
         <v>105</v>
       </c>
       <c r="L34" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M34" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="N34" t="s">
         <v>105</v>
       </c>
       <c r="O34" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="35" spans="5:15">
       <c r="E35" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F35" t="s">
         <v>76</v>
@@ -23752,33 +23714,33 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
+        <v>563</v>
+      </c>
+      <c r="I35" t="s">
         <v>564</v>
       </c>
-      <c r="I35" t="s">
-        <v>565</v>
-      </c>
       <c r="J35" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K35" t="s">
         <v>105</v>
       </c>
       <c r="L35" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M35" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="N35" t="s">
         <v>105</v>
       </c>
       <c r="O35" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="36" spans="5:15">
       <c r="E36" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F36" t="s">
         <v>76</v>
@@ -23787,22 +23749,22 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I36" t="s">
         <v>140</v>
       </c>
       <c r="J36" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K36" t="s">
         <v>105</v>
       </c>
       <c r="L36" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M36" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N36" t="s">
         <v>105</v>
@@ -23813,7 +23775,7 @@
     </row>
     <row r="37" spans="5:15">
       <c r="E37" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F37" t="s">
         <v>76</v>
@@ -23822,33 +23784,33 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
+        <v>568</v>
+      </c>
+      <c r="I37" t="s">
         <v>569</v>
       </c>
-      <c r="I37" t="s">
-        <v>570</v>
-      </c>
       <c r="J37" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K37" t="s">
         <v>105</v>
       </c>
       <c r="L37" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M37" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N37" t="s">
         <v>105</v>
       </c>
       <c r="O37" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="38" spans="5:15">
       <c r="E38" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F38" t="s">
         <v>76</v>
@@ -23857,33 +23819,33 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
+        <v>572</v>
+      </c>
+      <c r="I38" t="s">
         <v>573</v>
       </c>
-      <c r="I38" t="s">
-        <v>574</v>
-      </c>
       <c r="J38" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K38" t="s">
         <v>105</v>
       </c>
       <c r="L38" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M38" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N38" t="s">
         <v>105</v>
       </c>
       <c r="O38" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="39" spans="5:15">
       <c r="E39" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F39" t="s">
         <v>76</v>
@@ -23892,33 +23854,33 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
+        <v>575</v>
+      </c>
+      <c r="I39" t="s">
         <v>576</v>
       </c>
-      <c r="I39" t="s">
-        <v>577</v>
-      </c>
       <c r="J39" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K39" t="s">
         <v>105</v>
       </c>
       <c r="L39" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M39" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N39" t="s">
         <v>105</v>
       </c>
       <c r="O39" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="40" spans="5:15">
       <c r="E40" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F40" t="s">
         <v>76</v>
@@ -23927,33 +23889,33 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
+        <v>578</v>
+      </c>
+      <c r="I40" t="s">
         <v>579</v>
       </c>
-      <c r="I40" t="s">
-        <v>580</v>
-      </c>
       <c r="J40" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K40" t="s">
         <v>105</v>
       </c>
       <c r="L40" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M40" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="N40" t="s">
         <v>105</v>
       </c>
       <c r="O40" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="41" spans="5:15">
       <c r="E41" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F41" t="s">
         <v>76</v>
@@ -23962,33 +23924,33 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
+        <v>581</v>
+      </c>
+      <c r="I41" t="s">
         <v>582</v>
       </c>
-      <c r="I41" t="s">
-        <v>583</v>
-      </c>
       <c r="J41" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K41" t="s">
         <v>105</v>
       </c>
       <c r="L41" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M41" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="N41" t="s">
         <v>105</v>
       </c>
       <c r="O41" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="42" spans="5:15">
       <c r="E42" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F42" t="s">
         <v>76</v>
@@ -23997,33 +23959,33 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
+        <v>584</v>
+      </c>
+      <c r="I42" t="s">
         <v>585</v>
       </c>
-      <c r="I42" t="s">
-        <v>586</v>
-      </c>
       <c r="J42" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K42" t="s">
         <v>105</v>
       </c>
       <c r="L42" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M42" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="N42" t="s">
         <v>105</v>
       </c>
       <c r="O42" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="43" spans="5:15">
       <c r="E43" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F43" t="s">
         <v>76</v>
@@ -24032,33 +23994,33 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
+        <v>587</v>
+      </c>
+      <c r="I43" t="s">
         <v>588</v>
       </c>
-      <c r="I43" t="s">
-        <v>589</v>
-      </c>
       <c r="J43" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K43" t="s">
         <v>105</v>
       </c>
       <c r="L43" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M43" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="N43" t="s">
         <v>105</v>
       </c>
       <c r="O43" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="44" spans="5:15">
       <c r="E44" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F44" t="s">
         <v>76</v>
@@ -24067,33 +24029,33 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
+        <v>590</v>
+      </c>
+      <c r="I44" t="s">
         <v>591</v>
       </c>
-      <c r="I44" t="s">
-        <v>592</v>
-      </c>
       <c r="J44" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K44" t="s">
         <v>105</v>
       </c>
       <c r="L44" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="N44" t="s">
         <v>105</v>
       </c>
       <c r="O44" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="45" spans="5:15">
       <c r="E45" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F45" t="s">
         <v>76</v>
@@ -24102,33 +24064,33 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
+        <v>593</v>
+      </c>
+      <c r="I45" t="s">
         <v>594</v>
       </c>
-      <c r="I45" t="s">
-        <v>595</v>
-      </c>
       <c r="J45" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K45" t="s">
         <v>105</v>
       </c>
       <c r="L45" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M45" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="N45" t="s">
         <v>105</v>
       </c>
       <c r="O45" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="46" spans="5:15">
       <c r="E46" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F46" t="s">
         <v>76</v>
@@ -24137,33 +24099,33 @@
         <v>0</v>
       </c>
       <c r="H46" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="I46" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="I46" s="6" t="s">
-        <v>598</v>
-      </c>
       <c r="J46" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K46" t="s">
         <v>105</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="M46" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="N46" t="s">
+        <v>76</v>
+      </c>
+      <c r="O46" s="6" t="s">
         <v>599</v>
-      </c>
-      <c r="N46" t="s">
-        <v>76</v>
-      </c>
-      <c r="O46" s="6" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="47" spans="5:15">
       <c r="E47" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F47" t="s">
         <v>76</v>
@@ -24172,33 +24134,33 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
+        <v>601</v>
+      </c>
+      <c r="I47" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="I47" s="6" t="s">
-        <v>603</v>
-      </c>
       <c r="J47" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K47" t="s">
         <v>105</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="N47" t="s">
         <v>76</v>
       </c>
       <c r="O47" s="6" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="48" ht="31" spans="5:15">
+      <c r="E48" t="s">
         <v>604</v>
-      </c>
-    </row>
-    <row r="48" ht="34.8" spans="5:15">
-      <c r="E48" t="s">
-        <v>605</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -24207,19 +24169,19 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
+        <v>605</v>
+      </c>
+      <c r="I48" s="8" t="s">
         <v>606</v>
       </c>
-      <c r="I48" s="8" t="s">
-        <v>607</v>
-      </c>
       <c r="J48" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K48">
         <v>1</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M48" t="s">
         <v>361</v>
@@ -24228,12 +24190,12 @@
         <v>0</v>
       </c>
       <c r="O48" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="49" ht="16" spans="5:15">
+      <c r="E49" t="s">
         <v>608</v>
-      </c>
-    </row>
-    <row r="49" spans="5:15">
-      <c r="E49" t="s">
-        <v>609</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -24242,19 +24204,19 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
+        <v>609</v>
+      </c>
+      <c r="I49" s="8" t="s">
         <v>610</v>
       </c>
-      <c r="I49" s="8" t="s">
-        <v>611</v>
-      </c>
       <c r="J49" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K49">
         <v>1</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M49" t="s">
         <v>366</v>
@@ -24263,12 +24225,12 @@
         <v>0</v>
       </c>
       <c r="O49" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="50" ht="16" spans="5:15">
+      <c r="E50" t="s">
         <v>611</v>
-      </c>
-    </row>
-    <row r="50" spans="5:15">
-      <c r="E50" t="s">
-        <v>612</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -24277,19 +24239,19 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
+        <v>612</v>
+      </c>
+      <c r="I50" s="8" t="s">
         <v>613</v>
       </c>
-      <c r="I50" s="8" t="s">
-        <v>614</v>
-      </c>
       <c r="J50" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K50">
         <v>1</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M50" t="s">
         <v>366</v>
@@ -24298,12 +24260,12 @@
         <v>0</v>
       </c>
       <c r="O50" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="51" ht="16" spans="5:15">
+      <c r="E51" t="s">
         <v>614</v>
-      </c>
-    </row>
-    <row r="51" spans="5:15">
-      <c r="E51" t="s">
-        <v>615</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -24312,19 +24274,19 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
+        <v>615</v>
+      </c>
+      <c r="I51" s="8" t="s">
         <v>616</v>
       </c>
-      <c r="I51" s="8" t="s">
-        <v>617</v>
-      </c>
       <c r="J51" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K51">
         <v>1</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M51" t="s">
         <v>366</v>
@@ -24333,12 +24295,12 @@
         <v>0</v>
       </c>
       <c r="O51" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="52" ht="16" spans="5:15">
+      <c r="E52" t="s">
         <v>617</v>
-      </c>
-    </row>
-    <row r="52" spans="5:15">
-      <c r="E52" t="s">
-        <v>618</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -24347,19 +24309,19 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
+        <v>618</v>
+      </c>
+      <c r="I52" s="8" t="s">
         <v>619</v>
       </c>
-      <c r="I52" s="8" t="s">
-        <v>620</v>
-      </c>
       <c r="J52" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K52">
         <v>1</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M52" t="s">
         <v>366</v>
@@ -24368,12 +24330,12 @@
         <v>0</v>
       </c>
       <c r="O52" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="53" ht="16" spans="5:15">
+      <c r="E53" t="s">
         <v>620</v>
-      </c>
-    </row>
-    <row r="53" spans="5:15">
-      <c r="E53" t="s">
-        <v>621</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -24382,19 +24344,19 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
+        <v>621</v>
+      </c>
+      <c r="I53" s="8" t="s">
         <v>622</v>
       </c>
-      <c r="I53" s="8" t="s">
-        <v>623</v>
-      </c>
       <c r="J53" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K53">
         <v>1</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M53" t="s">
         <v>366</v>
@@ -24403,12 +24365,12 @@
         <v>0</v>
       </c>
       <c r="O53" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="54" ht="16" spans="5:15">
+      <c r="E54" t="s">
         <v>623</v>
-      </c>
-    </row>
-    <row r="54" spans="5:15">
-      <c r="E54" t="s">
-        <v>624</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -24417,19 +24379,19 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
+        <v>624</v>
+      </c>
+      <c r="I54" s="8" t="s">
         <v>625</v>
       </c>
-      <c r="I54" s="8" t="s">
-        <v>626</v>
-      </c>
       <c r="J54" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K54">
         <v>1</v>
       </c>
       <c r="L54" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M54" t="s">
         <v>366</v>
@@ -24438,7 +24400,7 @@
         <v>0</v>
       </c>
       <c r="O54" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -24449,31 +24411,31 @@
         <v>51</v>
       </c>
       <c r="C56" t="s">
+        <v>626</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="F56" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="G56" s="3" t="s">
         <v>630</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>631</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>88</v>
       </c>
       <c r="I56" t="s">
+        <v>631</v>
+      </c>
+      <c r="J56" t="s">
         <v>632</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>633</v>
-      </c>
-      <c r="K56" t="s">
-        <v>634</v>
       </c>
       <c r="L56" t="s">
         <v>60</v>
@@ -24484,14 +24446,14 @@
     </row>
     <row r="57" spans="5:13">
       <c r="E57" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F57" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G57" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H57" t="s">
         <v>263</v>
@@ -24505,14 +24467,14 @@
     </row>
     <row r="58" spans="5:13">
       <c r="E58" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F58" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-27</v>
       </c>
       <c r="G58" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H58" t="s">
         <v>331</v>
@@ -24533,14 +24495,14 @@
     </row>
     <row r="59" spans="5:13">
       <c r="E59" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F59" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-27</v>
       </c>
       <c r="G59" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H59" t="s">
         <v>340</v>
@@ -24554,14 +24516,14 @@
     </row>
     <row r="60" spans="5:13">
       <c r="E60" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F60" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-27</v>
       </c>
       <c r="G60" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H60" t="s">
         <v>335</v>
@@ -24571,7 +24533,7 @@
         <v>hmsg_email_server-9</v>
       </c>
       <c r="K60" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="L60" t="s">
         <v>76</v>
@@ -24582,14 +24544,14 @@
     </row>
     <row r="61" spans="5:13">
       <c r="E61" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F61" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-29</v>
       </c>
       <c r="G61" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H61" t="s">
         <v>293</v>
@@ -24610,14 +24572,14 @@
     </row>
     <row r="62" spans="5:13">
       <c r="E62" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F62" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-29</v>
       </c>
       <c r="G62" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H62" t="s">
         <v>296</v>
@@ -24631,14 +24593,14 @@
     </row>
     <row r="63" spans="5:13">
       <c r="E63" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F63" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-29</v>
       </c>
       <c r="G63" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H63" t="s">
         <v>289</v>
@@ -24652,14 +24614,14 @@
     </row>
     <row r="64" spans="5:13">
       <c r="E64" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F64" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-30</v>
       </c>
       <c r="G64" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H64" t="s">
         <v>303</v>
@@ -24680,14 +24642,14 @@
     </row>
     <row r="65" spans="5:13">
       <c r="E65" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F65" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-30</v>
       </c>
       <c r="G65" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H65" t="s">
         <v>306</v>
@@ -24701,14 +24663,14 @@
     </row>
     <row r="66" spans="5:13">
       <c r="E66" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F66" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-30</v>
       </c>
       <c r="G66" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H66" t="s">
         <v>300</v>
@@ -24722,14 +24684,14 @@
     </row>
     <row r="67" spans="5:13">
       <c r="E67" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F67" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-31</v>
       </c>
       <c r="G67" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H67" t="s">
         <v>316</v>
@@ -24750,14 +24712,14 @@
     </row>
     <row r="68" spans="5:13">
       <c r="E68" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F68" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-31</v>
       </c>
       <c r="G68" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H68" t="s">
         <v>319</v>
@@ -24771,14 +24733,14 @@
     </row>
     <row r="69" spans="5:13">
       <c r="E69" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F69" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-31</v>
       </c>
       <c r="G69" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H69" t="s">
         <v>312</v>
@@ -24792,14 +24754,14 @@
     </row>
     <row r="70" spans="5:13">
       <c r="E70" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F70" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-31</v>
       </c>
       <c r="G70" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H70" t="s">
         <v>309</v>
@@ -24813,14 +24775,14 @@
     </row>
     <row r="71" spans="5:13">
       <c r="E71" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F71" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-32</v>
       </c>
       <c r="G71" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H71" t="s">
         <v>283</v>
@@ -24841,14 +24803,14 @@
     </row>
     <row r="72" spans="5:13">
       <c r="E72" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F72" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-32</v>
       </c>
       <c r="G72" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H72" t="s">
         <v>286</v>
@@ -24862,14 +24824,14 @@
     </row>
     <row r="73" spans="5:13">
       <c r="E73" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F73" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-32</v>
       </c>
       <c r="G73" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H73" t="s">
         <v>279</v>
@@ -24883,14 +24845,14 @@
     </row>
     <row r="74" spans="5:13">
       <c r="E74" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F74" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-32</v>
       </c>
       <c r="G74" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H74" t="s">
         <v>274</v>
@@ -24904,14 +24866,14 @@
     </row>
     <row r="75" spans="5:13">
       <c r="E75" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F75" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-33</v>
       </c>
       <c r="G75" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H75" t="s">
         <v>267</v>
@@ -24932,14 +24894,14 @@
     </row>
     <row r="76" spans="5:13">
       <c r="E76" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F76" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-33</v>
       </c>
       <c r="G76" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H76" t="s">
         <v>270</v>
@@ -24953,14 +24915,14 @@
     </row>
     <row r="77" spans="5:13">
       <c r="E77" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F77" t="str">
         <f>发送配置!$E$15</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G77" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H77" t="s">
         <v>219</v>
@@ -24981,14 +24943,14 @@
     </row>
     <row r="78" spans="5:13">
       <c r="E78" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F78" t="str">
         <f>发送配置!$E$15</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G78" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H78" t="s">
         <v>222</v>
@@ -25002,14 +24964,14 @@
     </row>
     <row r="79" spans="5:13">
       <c r="E79" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F79" t="str">
         <f>发送配置!$E$15</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G79" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H79" t="s">
         <v>215</v>
@@ -25023,14 +24985,14 @@
     </row>
     <row r="80" spans="5:13">
       <c r="E80" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F80" t="str">
         <f>发送配置!$E$15</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G80" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H80" t="s">
         <v>212</v>
@@ -25044,14 +25006,14 @@
     </row>
     <row r="81" spans="5:13">
       <c r="E81" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F81" t="str">
         <f>发送配置!$E$16</f>
         <v>hmsg_template_server-38</v>
       </c>
       <c r="G81" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H81" t="s">
         <v>257</v>
@@ -25072,14 +25034,14 @@
     </row>
     <row r="82" spans="5:13">
       <c r="E82" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F82" t="str">
         <f>发送配置!$E$16</f>
         <v>hmsg_template_server-38</v>
       </c>
       <c r="G82" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H82" t="s">
         <v>260</v>
@@ -25093,14 +25055,14 @@
     </row>
     <row r="83" spans="5:13">
       <c r="E83" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F83" t="str">
         <f>E50</f>
         <v>hmsg_template_server-91</v>
       </c>
       <c r="G83" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H83" t="s">
         <v>388</v>
@@ -25121,14 +25083,14 @@
     </row>
     <row r="84" spans="5:13">
       <c r="E84" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F84" t="str">
         <f>E50</f>
         <v>hmsg_template_server-91</v>
       </c>
       <c r="G84" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H84" t="s">
         <v>384</v>
@@ -25142,14 +25104,14 @@
     </row>
     <row r="85" spans="5:13">
       <c r="E85" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F85" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-40</v>
       </c>
       <c r="G85" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H85" t="s">
         <v>251</v>
@@ -25170,14 +25132,14 @@
     </row>
     <row r="86" spans="5:13">
       <c r="E86" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F86" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-40</v>
       </c>
       <c r="G86" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H86" t="s">
         <v>254</v>
@@ -25191,14 +25153,14 @@
     </row>
     <row r="87" spans="5:13">
       <c r="E87" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F87" t="str">
         <f>发送配置!$E$18</f>
         <v>hmsg_template_server-41</v>
       </c>
       <c r="G87" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H87" t="s">
         <v>230</v>
@@ -25219,14 +25181,14 @@
     </row>
     <row r="88" spans="5:13">
       <c r="E88" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F88" t="str">
         <f>发送配置!$E$18</f>
         <v>hmsg_template_server-41</v>
       </c>
       <c r="G88" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H88" t="s">
         <v>233</v>
@@ -25240,14 +25202,14 @@
     </row>
     <row r="89" spans="5:13">
       <c r="E89" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F89" t="str">
         <f>发送配置!$E$18</f>
         <v>hmsg_template_server-41</v>
       </c>
       <c r="G89" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H89" t="s">
         <v>227</v>
@@ -25261,14 +25223,14 @@
     </row>
     <row r="90" spans="5:13">
       <c r="E90" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F90" t="str">
         <f>发送配置!$E$19</f>
         <v>hmsg_template_server-42</v>
       </c>
       <c r="G90" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H90" t="s">
         <v>125</v>
@@ -25289,14 +25251,14 @@
     </row>
     <row r="91" spans="5:13">
       <c r="E91" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F91" t="str">
         <f>发送配置!$E$19</f>
         <v>hmsg_template_server-42</v>
       </c>
       <c r="G91" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H91" t="s">
         <v>129</v>
@@ -25310,14 +25272,14 @@
     </row>
     <row r="92" spans="5:13">
       <c r="E92" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F92" t="str">
         <f>发送配置!$E$20</f>
         <v>hmsg_template_server-43</v>
       </c>
       <c r="G92" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H92" t="s">
         <v>241</v>
@@ -25338,14 +25300,14 @@
     </row>
     <row r="93" spans="5:13">
       <c r="E93" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F93" t="str">
         <f>发送配置!$E$20</f>
         <v>hmsg_template_server-43</v>
       </c>
       <c r="G93" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H93" t="s">
         <v>244</v>
@@ -25359,14 +25321,14 @@
     </row>
     <row r="94" spans="5:13">
       <c r="E94" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F94" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-44</v>
       </c>
       <c r="G94" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H94" t="s">
         <v>132</v>
@@ -25387,14 +25349,14 @@
     </row>
     <row r="95" spans="5:13">
       <c r="E95" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F95" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-44</v>
       </c>
       <c r="G95" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H95" t="s">
         <v>135</v>
@@ -25408,14 +25370,14 @@
     </row>
     <row r="96" spans="5:13">
       <c r="E96" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F96" t="str">
         <f>发送配置!$E$22</f>
         <v>hmsg_template_server-45</v>
       </c>
       <c r="G96" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H96" t="s">
         <v>347</v>
@@ -25436,14 +25398,14 @@
     </row>
     <row r="97" spans="5:13">
       <c r="E97" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F97" t="str">
         <f>发送配置!$E$22</f>
         <v>hmsg_template_server-45</v>
       </c>
       <c r="G97" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H97" t="s">
         <v>350</v>
@@ -25457,14 +25419,14 @@
     </row>
     <row r="98" spans="5:13">
       <c r="E98" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F98" t="str">
         <f>发送配置!$E$23</f>
         <v>hmsg_template_server-46</v>
       </c>
       <c r="G98" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H98" t="s">
         <v>117</v>
@@ -25485,14 +25447,14 @@
     </row>
     <row r="99" spans="5:13">
       <c r="E99" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F99" t="str">
         <f>发送配置!$E$23</f>
         <v>hmsg_template_server-46</v>
       </c>
       <c r="G99" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H99" t="s">
         <v>121</v>
@@ -25506,14 +25468,14 @@
     </row>
     <row r="100" spans="5:13">
       <c r="E100" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F100" t="str">
         <f>发送配置!$E$23</f>
         <v>hmsg_template_server-46</v>
       </c>
       <c r="G100" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H100" t="s">
         <v>112</v>
@@ -25527,14 +25489,14 @@
     </row>
     <row r="101" spans="5:13">
       <c r="E101" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F101" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-47</v>
       </c>
       <c r="G101" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H101" t="s">
         <v>204</v>
@@ -25555,14 +25517,14 @@
     </row>
     <row r="102" spans="5:13">
       <c r="E102" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F102" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-47</v>
       </c>
       <c r="G102" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H102" t="s">
         <v>207</v>
@@ -25576,14 +25538,14 @@
     </row>
     <row r="103" spans="5:13">
       <c r="E103" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F103" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-47</v>
       </c>
       <c r="G103" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H103" t="s">
         <v>200</v>
@@ -25597,14 +25559,14 @@
     </row>
     <row r="104" spans="5:13">
       <c r="E104" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F104" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-47</v>
       </c>
       <c r="G104" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H104" t="s">
         <v>196</v>
@@ -25618,14 +25580,14 @@
     </row>
     <row r="105" spans="5:13">
       <c r="E105" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F105" t="str">
         <f>发送配置!$E$25</f>
         <v>hmsg_template_server-48</v>
       </c>
       <c r="G105" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H105" t="s">
         <v>237</v>
@@ -25639,14 +25601,14 @@
     </row>
     <row r="106" spans="5:13">
       <c r="E106" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F106" t="str">
         <f>发送配置!$E$26</f>
         <v>hmsg_template_server-53</v>
       </c>
       <c r="G106" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H106" t="s">
         <v>175</v>
@@ -25667,14 +25629,14 @@
     </row>
     <row r="107" spans="5:13">
       <c r="E107" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F107" t="str">
         <f>发送配置!$E$26</f>
         <v>hmsg_template_server-53</v>
       </c>
       <c r="G107" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H107" t="s">
         <v>178</v>
@@ -25688,14 +25650,14 @@
     </row>
     <row r="108" spans="5:13">
       <c r="E108" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F108" t="str">
         <f>发送配置!$E$26</f>
         <v>hmsg_template_server-53</v>
       </c>
       <c r="G108" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H108" t="s">
         <v>172</v>
@@ -25709,20 +25671,20 @@
     </row>
     <row r="109" spans="5:13">
       <c r="E109" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F109" t="str">
         <f>发送配置!$E$27</f>
         <v>hmsg_template_server-54</v>
       </c>
       <c r="G109" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H109" t="s">
         <v>169</v>
       </c>
       <c r="L109" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="M109" t="s">
         <v>105</v>
@@ -25730,20 +25692,20 @@
     </row>
     <row r="110" spans="5:13">
       <c r="E110" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F110" t="str">
         <f>发送配置!$E$28</f>
         <v>hmsg_template_server-55</v>
       </c>
       <c r="G110" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H110" t="s">
         <v>224</v>
       </c>
       <c r="L110" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="M110" t="s">
         <v>105</v>
@@ -25751,20 +25713,20 @@
     </row>
     <row r="111" spans="5:13">
       <c r="E111" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F111" t="str">
         <f>发送配置!$E$29</f>
         <v>hmsg_template_server-56</v>
       </c>
       <c r="G111" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H111" t="s">
         <v>188</v>
       </c>
       <c r="L111" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="M111" t="s">
         <v>105</v>
@@ -25772,20 +25734,20 @@
     </row>
     <row r="112" spans="5:13">
       <c r="E112" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F112" t="str">
         <f>发送配置!$E$30</f>
         <v>hmsg_template_server-57</v>
       </c>
       <c r="G112" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H112" t="s">
         <v>209</v>
       </c>
       <c r="L112" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="M112" t="s">
         <v>105</v>
@@ -25793,20 +25755,20 @@
     </row>
     <row r="113" spans="5:13">
       <c r="E113" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F113" t="str">
         <f>发送配置!$E$31</f>
         <v>hmsg_template_server-58</v>
       </c>
       <c r="G113" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H113" t="s">
         <v>148</v>
       </c>
       <c r="L113" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="M113" t="s">
         <v>105</v>
@@ -25814,20 +25776,20 @@
     </row>
     <row r="114" spans="5:13">
       <c r="E114" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F114" t="str">
         <f>发送配置!$E$32</f>
         <v>hmsg_template_server-59</v>
       </c>
       <c r="G114" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H114" t="s">
         <v>152</v>
       </c>
       <c r="L114" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="M114" t="s">
         <v>105</v>
@@ -25835,20 +25797,20 @@
     </row>
     <row r="115" spans="5:13">
       <c r="E115" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F115" t="str">
         <f>发送配置!$E$33</f>
         <v>hmsg_template_server-60</v>
       </c>
       <c r="G115" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H115" t="s">
         <v>155</v>
       </c>
       <c r="L115" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="M115" t="s">
         <v>105</v>
@@ -25856,20 +25818,20 @@
     </row>
     <row r="116" spans="5:13">
       <c r="E116" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F116" t="str">
         <f>发送配置!$E$34</f>
         <v>hmsg_template_server-61</v>
       </c>
       <c r="G116" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H116" t="s">
         <v>160</v>
       </c>
       <c r="L116" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="M116" t="s">
         <v>105</v>
@@ -25877,20 +25839,20 @@
     </row>
     <row r="117" spans="5:13">
       <c r="E117" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F117" t="str">
         <f>发送配置!$E$35</f>
         <v>hmsg_template_server-62</v>
       </c>
       <c r="G117" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H117" t="s">
         <v>185</v>
       </c>
       <c r="L117" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="M117" t="s">
         <v>105</v>
@@ -25898,20 +25860,20 @@
     </row>
     <row r="118" spans="5:13">
       <c r="E118" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F118" t="str">
         <f>发送配置!$E$36</f>
         <v>hmsg_template_server-64</v>
       </c>
       <c r="G118" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H118" t="s">
         <v>139</v>
       </c>
       <c r="L118" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="M118" t="s">
         <v>105</v>
@@ -25919,20 +25881,20 @@
     </row>
     <row r="119" spans="5:13">
       <c r="E119" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F119" t="str">
         <f>发送配置!$E$37</f>
         <v>hmsg_template_server-65</v>
       </c>
       <c r="G119" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H119" t="s">
         <v>191</v>
       </c>
       <c r="L119" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="M119" t="s">
         <v>105</v>
@@ -25940,20 +25902,20 @@
     </row>
     <row r="120" spans="5:13">
       <c r="E120" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F120" t="str">
         <f>发送配置!$E$38</f>
         <v>hmsg_template_server-67</v>
       </c>
       <c r="G120" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H120" t="s">
         <v>164</v>
       </c>
       <c r="L120" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="M120" t="s">
         <v>105</v>
@@ -25961,20 +25923,20 @@
     </row>
     <row r="121" spans="5:13">
       <c r="E121" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F121" t="str">
         <f>发送配置!$E$39</f>
         <v>hmsg_template_server-68</v>
       </c>
       <c r="G121" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H121" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="L121" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="M121" t="s">
         <v>105</v>
@@ -25982,20 +25944,20 @@
     </row>
     <row r="122" spans="5:13">
       <c r="E122" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F122" t="str">
         <f>发送配置!$E$41</f>
         <v>hmsg_template_server-71</v>
       </c>
       <c r="G122" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H122" t="s">
         <v>144</v>
       </c>
       <c r="L122" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="M122" t="s">
         <v>105</v>
@@ -26003,20 +25965,20 @@
     </row>
     <row r="123" spans="5:13">
       <c r="E123" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F123" t="str">
         <f>发送配置!$E$42</f>
         <v>hmsg_template_server-72</v>
       </c>
       <c r="G123" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H123" t="s">
         <v>354</v>
       </c>
       <c r="L123" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="M123" t="s">
         <v>105</v>
@@ -26024,20 +25986,20 @@
     </row>
     <row r="124" spans="5:13">
       <c r="E124" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F124" t="str">
         <f>发送配置!$E$43</f>
         <v>hmsg_template_server-73</v>
       </c>
       <c r="G124" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H124" t="s">
         <v>99</v>
       </c>
       <c r="L124" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="M124" t="s">
         <v>105</v>
@@ -26045,20 +26007,20 @@
     </row>
     <row r="125" spans="5:13">
       <c r="E125" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F125" t="str">
         <f>发送配置!$E$44</f>
         <v>hmsg_template_server-74</v>
       </c>
       <c r="G125" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H125" t="s">
         <v>182</v>
       </c>
       <c r="L125" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="M125" t="s">
         <v>105</v>
@@ -26066,20 +26028,20 @@
     </row>
     <row r="126" spans="5:13">
       <c r="E126" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F126" t="str">
         <f>发送配置!$E$45</f>
         <v>hmsg_template_server-75</v>
       </c>
       <c r="G126" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H126" t="s">
         <v>343</v>
       </c>
       <c r="L126" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="M126" t="s">
         <v>105</v>
@@ -26087,14 +26049,14 @@
     </row>
     <row r="127" spans="5:13">
       <c r="E127" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F127" t="str">
         <f>发送配置!$E$46</f>
         <v>hmsg_template_server-76</v>
       </c>
       <c r="G127" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H127" t="s">
         <v>321</v>
@@ -26108,14 +26070,14 @@
     </row>
     <row r="128" spans="5:13">
       <c r="E128" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F128" t="str">
         <f>发送配置!$E$47</f>
         <v>hmsg_template_server-77</v>
       </c>
       <c r="G128" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H128" t="s">
         <v>326</v>
@@ -26129,14 +26091,14 @@
     </row>
     <row r="129" spans="5:13">
       <c r="E129" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F129" t="str">
         <f>发送配置!$E$40</f>
         <v>hmsg_template_server-69</v>
       </c>
       <c r="G129" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H129" t="s">
         <v>108</v>
@@ -26150,14 +26112,14 @@
     </row>
     <row r="130" spans="5:13">
       <c r="E130" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F130" t="str">
         <f t="shared" ref="F130:F136" si="0">E48</f>
         <v>hmsg_template_server-89</v>
       </c>
       <c r="G130" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H130" t="s">
         <v>358</v>
@@ -26171,14 +26133,14 @@
     </row>
     <row r="131" spans="5:13">
       <c r="E131" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F131" t="str">
         <f t="shared" si="0"/>
         <v>hmsg_template_server-90</v>
       </c>
       <c r="G131" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H131" t="s">
         <v>363</v>
@@ -26192,14 +26154,14 @@
     </row>
     <row r="132" spans="5:13">
       <c r="E132" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F132" t="str">
         <f t="shared" si="0"/>
         <v>hmsg_template_server-91</v>
       </c>
       <c r="G132" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H132" t="s">
         <v>368</v>
@@ -26213,14 +26175,14 @@
     </row>
     <row r="133" spans="5:13">
       <c r="E133" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F133" t="str">
         <f t="shared" si="0"/>
         <v>hmsg_template_server-92</v>
       </c>
       <c r="G133" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H133" t="s">
         <v>371</v>
@@ -26234,14 +26196,14 @@
     </row>
     <row r="134" spans="5:13">
       <c r="E134" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F134" t="str">
         <f t="shared" si="0"/>
         <v>hmsg_template_server-93</v>
       </c>
       <c r="G134" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H134" t="s">
         <v>374</v>
@@ -26255,14 +26217,14 @@
     </row>
     <row r="135" spans="5:13">
       <c r="E135" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F135" t="str">
         <f t="shared" si="0"/>
         <v>hmsg_template_server-94</v>
       </c>
       <c r="G135" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H135" t="s">
         <v>377</v>
@@ -26276,14 +26238,14 @@
     </row>
     <row r="136" spans="5:13">
       <c r="E136" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F136" t="str">
         <f t="shared" si="0"/>
         <v>hmsg_template_server-95</v>
       </c>
       <c r="G136" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H136" t="s">
         <v>381</v>
@@ -26303,30 +26265,30 @@
         <v>51</v>
       </c>
       <c r="C138" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D138" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="E138" s="2" t="s">
+      <c r="F138" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="G138" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="F138" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="G138" s="3" t="s">
+      <c r="H138" t="s">
         <v>724</v>
-      </c>
-      <c r="H138" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="139" spans="5:8">
       <c r="E139" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F139" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -26337,10 +26299,10 @@
     </row>
     <row r="140" spans="5:8">
       <c r="E140" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F140" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -26351,10 +26313,10 @@
     </row>
     <row r="141" spans="5:8">
       <c r="E141" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F141" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -26365,10 +26327,10 @@
     </row>
     <row r="142" spans="5:8">
       <c r="E142" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F142" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -26379,10 +26341,10 @@
     </row>
     <row r="143" spans="5:8">
       <c r="E143" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F143" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -26393,10 +26355,10 @@
     </row>
     <row r="144" spans="5:8">
       <c r="E144" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F144" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -26407,10 +26369,10 @@
     </row>
     <row r="145" spans="5:8">
       <c r="E145" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F145" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -26421,10 +26383,10 @@
     </row>
     <row r="146" spans="5:8">
       <c r="E146" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F146" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -26435,10 +26397,10 @@
     </row>
     <row r="147" spans="5:8">
       <c r="E147" t="s">
+        <v>733</v>
+      </c>
+      <c r="F147" t="s">
         <v>734</v>
-      </c>
-      <c r="F147" t="s">
-        <v>735</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -26449,10 +26411,10 @@
     </row>
     <row r="148" spans="5:8">
       <c r="E148" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F148" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -26463,10 +26425,10 @@
     </row>
     <row r="149" spans="5:8">
       <c r="E149" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F149" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -26477,10 +26439,10 @@
     </row>
     <row r="150" spans="5:8">
       <c r="E150" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F150" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -26491,10 +26453,10 @@
     </row>
     <row r="151" spans="5:8">
       <c r="E151" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F151" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -26505,10 +26467,10 @@
     </row>
     <row r="152" spans="5:8">
       <c r="E152" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F152" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -26519,10 +26481,10 @@
     </row>
     <row r="153" spans="5:8">
       <c r="E153" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F153" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -26533,10 +26495,10 @@
     </row>
     <row r="154" spans="5:8">
       <c r="E154" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F154" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -26547,10 +26509,10 @@
     </row>
     <row r="155" spans="5:8">
       <c r="E155" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F155" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -26561,10 +26523,10 @@
     </row>
     <row r="156" spans="5:8">
       <c r="E156" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F156" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -26575,10 +26537,10 @@
     </row>
     <row r="157" spans="5:8">
       <c r="E157" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F157" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -26589,10 +26551,10 @@
     </row>
     <row r="158" spans="5:8">
       <c r="E158" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F158" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -26603,10 +26565,10 @@
     </row>
     <row r="159" spans="5:8">
       <c r="E159" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F159" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -26617,10 +26579,10 @@
     </row>
     <row r="160" spans="5:8">
       <c r="E160" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F160" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -26631,10 +26593,10 @@
     </row>
     <row r="161" spans="5:8">
       <c r="E161" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F161" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -26645,10 +26607,10 @@
     </row>
     <row r="162" spans="5:8">
       <c r="E162" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F162" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -26659,10 +26621,10 @@
     </row>
     <row r="163" spans="5:8">
       <c r="E163" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F163" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -26673,10 +26635,10 @@
     </row>
     <row r="164" spans="5:8">
       <c r="E164" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F164" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -26687,10 +26649,10 @@
     </row>
     <row r="165" spans="5:8">
       <c r="E165" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F165" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -26701,10 +26663,10 @@
     </row>
     <row r="166" spans="5:8">
       <c r="E166" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F166" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G166">
         <v>1</v>
@@ -26715,10 +26677,10 @@
     </row>
     <row r="167" spans="5:8">
       <c r="E167" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F167" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -26729,10 +26691,10 @@
     </row>
     <row r="168" spans="5:8">
       <c r="E168" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F168" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G168">
         <v>1</v>
@@ -26743,10 +26705,10 @@
     </row>
     <row r="169" spans="5:8">
       <c r="E169" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F169" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -26757,10 +26719,10 @@
     </row>
     <row r="170" spans="5:8">
       <c r="E170" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F170" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -26771,10 +26733,10 @@
     </row>
     <row r="171" spans="5:8">
       <c r="E171" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F171" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G171">
         <v>1</v>
@@ -26785,10 +26747,10 @@
     </row>
     <row r="172" spans="5:8">
       <c r="E172" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F172" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -26799,10 +26761,10 @@
     </row>
     <row r="173" spans="5:8">
       <c r="E173" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F173" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -26813,10 +26775,10 @@
     </row>
     <row r="174" spans="5:8">
       <c r="E174" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F174" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -26827,10 +26789,10 @@
     </row>
     <row r="175" spans="5:8">
       <c r="E175" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F175" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -26841,10 +26803,10 @@
     </row>
     <row r="176" spans="5:8">
       <c r="E176" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F176" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -26855,10 +26817,10 @@
     </row>
     <row r="177" spans="5:8">
       <c r="E177" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F177" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -26869,10 +26831,10 @@
     </row>
     <row r="178" spans="5:8">
       <c r="E178" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F178" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G178">
         <v>1</v>
@@ -26883,10 +26845,10 @@
     </row>
     <row r="179" spans="5:8">
       <c r="E179" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F179" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G179">
         <v>1</v>
@@ -26897,10 +26859,10 @@
     </row>
     <row r="180" spans="5:8">
       <c r="E180" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F180" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -26911,10 +26873,10 @@
     </row>
     <row r="181" spans="5:8">
       <c r="E181" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F181" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -26925,10 +26887,10 @@
     </row>
     <row r="182" spans="5:8">
       <c r="E182" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F182" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -26938,7 +26900,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="19420" tabRatio="597" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4004" uniqueCount="770">
   <si>
     <r>
       <rPr>
@@ -2366,7 +2366,7 @@
   </si>
   <si>
     <t>&lt;p&gt;您在项目“${projectName}”下创建的应用服务“${appServiceName}”失败。&lt;/p&gt;
-&lt;p&gt;&lt;a href=#/devops/app-service?type=project&amp;id=${projectId}&amp;name=${appServiceName}&amp;category=${projectCategory}&amp;organizationId=${organizationId}&gt;查看详情&lt;/a&gt;&lt;/p&gt;</t>
+&lt;p&gt;&lt;a href="#/devops/app-service?type=project&amp;id=${projectId}&amp;name=${appServiceName}&amp;category=${projectCategory}&amp;organizationId=${organizationId}"&gt;查看详情&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-20</t>
@@ -2632,7 +2632,7 @@
   </si>
   <si>
     <t>&lt;p&gt;项目“${projectName}”下应用服务“${appServiceName}”中${realName}提交了合并请求，需要您进行审核。&lt;/p&gt;
-&lt;p&gt;&lt;a href=${gitlabUrl}/${organizationCode}-${projectCode}/${appServiceCode}/merge_requests/${mergeRequestId}&gt;查看详情&lt;/a&gt;&lt;/p&gt;</t>
+&lt;p&gt;&lt;a href="${gitlabUrl}/${organizationCode}-${projectCode}/${appServiceCode}/merge_requests/${mergeRequestId}"&gt;查看详情&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-22</t>
@@ -3271,7 +3271,7 @@
   </si>
   <si>
     <t>&lt;p&gt;项目“${projectName}”下的应用服务“${appServiceName}”已被删除。&lt;/p&gt;
-&lt;p&gt;&lt;a href=#/devops/app-service?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;category=${projectCategory}&amp;organizationId=${organizationId}&gt;查看详情&lt;/a&gt;&lt;/p&gt;</t>
+&lt;p&gt;&lt;a href="#/devops/app-service?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;category=${projectCategory}&amp;organizationId=${organizationId}"&gt;查看详情&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-37</t>
@@ -3338,7 +3338,7 @@
   </si>
   <si>
     <t>&lt;p&gt;项目“${projectName}”下的应用服务“${appServiceName}”已被停用。&lt;/p&gt;
-&lt;p&gt;&lt;a href=#/devops/app-service?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;category=${projectCategory}&amp;organizationId=${organizationId}&gt;查看详情&lt;/a&gt;&lt;/p&gt;</t>
+&lt;p&gt;&lt;a href="#/devops/app-service?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;category=${projectCategory}&amp;organizationId=${organizationId}"&gt;查看详情&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-43</t>
@@ -3628,7 +3628,7 @@
   </si>
   <si>
     <t>&lt;p&gt;项目“${projectName}”下的应用服务“${appServiceName}”已被启用。&lt;/p&gt;
-&lt;p&gt;&lt;a href=#/devops/app-service?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;category=${projectCategory}&amp;organizationId=${organizationId}&gt;查看详情&lt;/a&gt;&lt;/p&gt;</t>
+&lt;p&gt;&lt;a href="#/devops/app-service?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;category=${projectCategory}&amp;organizationId=${organizationId}"&gt;查看详情&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-55</t>
@@ -4171,7 +4171,7 @@
   </si>
   <si>
     <t>&lt;p&gt;您在项目“${projectName}”下应用服务“${appServiceName}”中的持续集成过程失败。&lt;/p&gt;
-&lt;p&gt;&lt;a href=${gitlabUrl}/${organizationCode}-${projectCode}/${appServiceCode}/pipelines/${gitlabPipelineId}&gt;查看详情&lt;/a&gt;&lt;/p&gt;</t>
+&lt;p&gt;&lt;a href="${gitlabUrl}/${organizationCode}-${projectCode}/${appServiceCode}/pipelines/${gitlabPipelineId}"&gt;查看详情&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-69</t>
@@ -4854,7 +4854,7 @@
   </si>
   <si>
     <t>&lt;p&gt;您在项目“${projectName}”下应用服务“${appServiceName}”中提交的合并请求已被 ${realName} 关闭。&lt;/p&gt;
-&lt;p&gt;&lt;a href=${gitlabUrl}/${organizationCode}-${projectCode}/${appServiceCode}/merge_requests/${mergeRequestId}&gt;查看详情&lt;/a&gt;&lt;/p&gt;</t>
+&lt;p&gt;&lt;a href="${gitlabUrl}/${organizationCode}-${projectCode}/${appServiceCode}/merge_requests/${mergeRequestId}"&gt;查看详情&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-105</t>
@@ -5117,7 +5117,7 @@
   </si>
   <si>
     <t>&lt;p&gt;您在项目“${projectName}”下应用服务“${appServiceName}”中提交的合并请求已被 ${realName} 合并。&lt;/p&gt;
-&lt;p&gt;&lt;a href=${gitlabUrl}/${organizationCode}-${projectCode}/${appServiceCode}/merge_requests/${mergeRequestId}&gt;查看详情&lt;/a&gt;&lt;/p&gt;</t>
+&lt;p&gt;&lt;a href="${gitlabUrl}/${organizationCode}-${projectCode}/${appServiceCode}/merge_requests/${mergeRequestId}"&gt;查看详情&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-107</t>
@@ -5395,8 +5395,8 @@
   </si>
   <si>
     <t>&lt;p&gt;流水线“${pipelineName}”目前暂停于【${stageName}】阶段，需要您进行审核。
-&lt;p&gt;&lt;p&gt;&lt;a href=#/devops/pipeline-manage?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;category=GENERAL&amp;organizationId=${organizationId}&amp;
-pipelineId=${pipelineId}&amp;pipelineIdRecordId=${pipelineIdRecordId}&gt;查看详情&lt;/a &gt;</t>
+&lt;p&gt;&lt;p&gt;&lt;a href="#/devops/pipeline-manage?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;category=GENERAL&amp;organizationId=${organizationId}&amp;
+pipelineId=${pipelineId}&amp;pipelineIdRecordId=${pipelineIdRecordId}"&gt;查看详情&lt;/a &gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-114</t>
@@ -5423,7 +5423,7 @@
     <t>流水线失败</t>
   </si>
   <si>
-    <t>&lt;p&gt;流水线“${pipelineName}”执行失败。&lt;p&gt;&lt;p&gt;&lt;a href=#/devops/deployment-operation?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;category=undefined&amp;organizationId=${organizationId}&amp;orgId=${organizationId}&amp;pipelineRecordId=${pipelineRecordId}&gt;查看详情&lt;/a &gt;</t>
+    <t>&lt;p&gt;流水线“${pipelineName}”执行失败。&lt;p&gt;&lt;p&gt;&lt;a href="#/devops/deployment-operation?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;category=undefined&amp;organizationId=${organizationId}&amp;orgId=${organizationId}&amp;pipelineRecordId=${pipelineRecordId}"&gt;查看详情&lt;/a &gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-116</t>
@@ -5686,9 +5686,9 @@
   </si>
   <si>
     <t>&lt;p&gt;流水线“${pipelineName}”执行失败。
-&lt;p&gt;&lt;p&gt;&lt;a href=#/devops/pipeline-manage?type=project&amp;id=${projectId}&amp;
+&lt;p&gt;&lt;p&gt;&lt;a href="#/devops/pipeline-manage?type=project&amp;id=${projectId}&amp;
 name=${projectName}&amp;category=GENERAL&amp;organizationId=${organizationId}&amp;
-pipelineId=${pipelineId}&amp;pipelineIdRecordId=${pipelineIdRecordId}&gt;查看详情&lt;/a &gt;</t>
+pipelineId=${pipelineId}&amp;pipelineIdRecordId=${pipelineIdRecordId}"&gt;查看详情&lt;/a &gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-118</t>
@@ -5966,9 +5966,9 @@
   </si>
   <si>
     <t>&lt;p&gt;流水线“${pipelineName}”在【${stageName}】阶段中的或签任务已被${auditName}:${realName}审核。
-&lt;p&gt;&lt;p&gt;&lt;a href=#/devops/pipeline-manage?type=project&amp;id=${projectId}&amp;
+&lt;p&gt;&lt;p&gt;&lt;a href="#/devops/pipeline-manage?type=project&amp;id=${projectId}&amp;
 name=${projectName}&amp;category=GENERAL&amp;organizationId=${organizationId}&amp;
-pipelineId=${pipelineId}&amp;pipelineIdRecordId=${pipelineIdRecordId}&gt;查看详情&lt;/a &gt;</t>
+pipelineId=${pipelineId}&amp;pipelineIdRecordId=${pipelineIdRecordId}"&gt;查看详情&lt;/a &gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-121</t>
@@ -6240,9 +6240,9 @@
   </si>
   <si>
     <t>&lt;p&gt;流水线“${pipelineName}”在【${stageName}】阶段被${auditName}:${realName}终止。
-&lt;p&gt;&lt;p&gt;&lt;a href=#/devops/pipeline-manage?type=project&amp;id=${projectId}&amp;
+&lt;p&gt;&lt;p&gt;&lt;a href="#/devops/pipeline-manage?type=project&amp;id=${projectId}&amp;
 name=${projectName}&amp;category=GENERAL&amp;organizationId=${organizationId}&amp;
-pipelineId=${pipelineId}&amp;pipelineIdRecordId=${pipelineIdRecordId}&gt;查看详情&lt;/a &gt;</t>
+pipelineId=${pipelineId}&amp;pipelineIdRecordId=${pipelineIdRecordId}"&gt;查看详情&lt;/a &gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-124</t>
@@ -6264,9 +6264,9 @@
   </si>
   <si>
     <t>&lt;p&gt;流水线“${pipelineName}”执行成功。&lt;/p&gt;&lt;p&gt;
-&lt;a href=#/devops/pipeline-manage?type=project&amp;id=${projectId}&amp;
+&lt;a href="#/devops/pipeline-manage?type=project&amp;id=${projectId}&amp;
 name=${projectName}&amp;category=GENERAL&amp;organizationId=${organizationId}&amp;
-pipelineId=${pipelineId}&amp;pipelineIdRecordId=${pipelineIdRecordId}&gt;查看详情&lt;/a &gt;</t>
+pipelineId=${pipelineId}&amp;pipelineIdRecordId=${pipelineIdRecordId}"&gt;查看详情&lt;/a &gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-126</t>
@@ -8747,12 +8747,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -8770,91 +8764,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -8869,6 +8784,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -8876,23 +8813,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8907,7 +8869,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8916,6 +8894,28 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9015,7 +9015,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9027,19 +9165,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9051,145 +9189,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9206,28 +9206,12 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -9252,12 +9236,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -9269,20 +9271,18 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
         <color auto="1"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
         <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -9299,41 +9299,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9355,26 +9337,20 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9393,156 +9369,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9558,6 +9558,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9569,112 +9572,112 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
@@ -10009,7 +10012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
@@ -10017,155 +10020,155 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5855263157895" style="12" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="13" customWidth="1"/>
-    <col min="3" max="3" width="28.1644736842105" customWidth="1"/>
+    <col min="1" max="1" width="15.5833333333333" style="13" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="14" customWidth="1"/>
+    <col min="3" max="3" width="28.1666666666667" customWidth="1"/>
     <col min="4" max="4" width="35.25" style="6" customWidth="1"/>
-    <col min="5" max="5" width="38.5855263157895" customWidth="1"/>
-    <col min="6" max="6" width="23.4144736842105" customWidth="1"/>
-    <col min="7" max="7" width="21.5855263157895" customWidth="1"/>
+    <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
+    <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
+    <col min="7" max="7" width="21.5833333333333" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5855263157895" customWidth="1"/>
+    <col min="9" max="9" width="24.5833333333333" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1644736842105" customWidth="1"/>
-    <col min="12" max="12" width="18.5855263157895" customWidth="1"/>
-    <col min="13" max="13" width="13.1644736842105" customWidth="1"/>
+    <col min="11" max="11" width="19.1666666666667" customWidth="1"/>
+    <col min="12" max="12" width="18.5833333333333" customWidth="1"/>
+    <col min="13" max="13" width="13.1666666666667" customWidth="1"/>
     <col min="14" max="1025" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="14"/>
-      <c r="C1" s="15" t="s">
+      <c r="A1" s="15"/>
+      <c r="C1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="29"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="33" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-    </row>
-    <row r="4" ht="16" spans="3:7">
-      <c r="C4" s="17" t="s">
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="34" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="16" spans="1:3">
-      <c r="A5" s="14"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="15"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="38"/>
-    </row>
-    <row r="9" ht="46" spans="3:6">
-      <c r="C9" s="22" t="s">
+      <c r="E8" s="30"/>
+    </row>
+    <row r="9" ht="52.2" spans="3:6">
+      <c r="C9" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="33" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="46" spans="3:5">
-      <c r="C10" s="24" t="s">
+    <row r="10" ht="52.2" spans="3:5">
+      <c r="C10" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="61" spans="3:5">
-      <c r="C11" s="20" t="s">
+    <row r="11" ht="69.6" spans="3:5">
+      <c r="C11" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="33" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" ht="16" spans="3:5">
-      <c r="C12" s="20" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="35" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="38"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="38"/>
-    </row>
-    <row r="15" ht="31" spans="3:5">
-      <c r="C15" s="25" t="s">
+      <c r="C14" s="28"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
+    </row>
+    <row r="15" ht="34.8" spans="3:5">
+      <c r="C15" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="38" t="s">
         <v>28</v>
       </c>
     </row>
@@ -10174,39 +10177,39 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" ht="16" spans="3:5">
-      <c r="C19" s="27" t="s">
+    <row r="19" spans="3:5">
+      <c r="C19" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-    </row>
-    <row r="20" ht="16" spans="3:4">
-      <c r="C20" s="28" t="s">
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="16" spans="3:4">
-      <c r="C21" s="28" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="16" spans="3:4">
-      <c r="C22" s="28" t="s">
+    <row r="22" spans="3:4">
+      <c r="C22" s="40" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="16" spans="3:4">
-      <c r="C23" s="28" t="s">
+    <row r="23" spans="3:4">
+      <c r="C23" s="40" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -10214,25 +10217,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="16"/>
+      <c r="E25" s="19"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="16"/>
-    </row>
-    <row r="27" ht="31" spans="3:3">
-      <c r="C27" s="31" t="s">
+      <c r="E26" s="19"/>
+    </row>
+    <row r="27" ht="52.2" spans="3:3">
+      <c r="C27" s="42" t="s">
         <v>43</v>
       </c>
     </row>
@@ -10253,7 +10256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:R10"/>
   <sheetViews>
@@ -10261,11 +10264,11 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.4"/>
   <cols>
     <col min="5" max="5" width="23.25" customWidth="1"/>
     <col min="6" max="6" width="21.25" customWidth="1"/>
-    <col min="8" max="8" width="14.6644736842105" customWidth="1"/>
+    <col min="8" max="8" width="14.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10426,28 +10429,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q620"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="D54" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="E27" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="4" max="4" width="22.5855263157895" customWidth="1"/>
-    <col min="5" max="5" width="26.3355263157895" customWidth="1"/>
-    <col min="6" max="6" width="44.8355263157895" customWidth="1"/>
-    <col min="7" max="7" width="29.4144736842105" customWidth="1"/>
+    <col min="4" max="4" width="22.5833333333333" customWidth="1"/>
+    <col min="5" max="5" width="26.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="44.8333333333333" customWidth="1"/>
+    <col min="7" max="7" width="29.4166666666667" customWidth="1"/>
     <col min="8" max="8" width="24.25" customWidth="1"/>
-    <col min="9" max="9" width="92.8552631578947" customWidth="1"/>
-    <col min="10" max="10" width="29.3355263157895" customWidth="1"/>
-    <col min="11" max="11" width="32.1644736842105" customWidth="1"/>
-    <col min="13" max="13" width="33.1644736842105" customWidth="1"/>
-    <col min="14" max="14" width="23.4144736842105" customWidth="1"/>
-    <col min="15" max="15" width="29.4144736842105" customWidth="1"/>
-    <col min="16" max="16" width="29.8355263157895" customWidth="1"/>
+    <col min="9" max="9" width="92.8541666666667" customWidth="1"/>
+    <col min="10" max="10" width="29.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="32.1666666666667" customWidth="1"/>
+    <col min="13" max="13" width="33.1666666666667" customWidth="1"/>
+    <col min="14" max="14" width="23.4166666666667" customWidth="1"/>
+    <col min="15" max="15" width="29.4166666666667" customWidth="1"/>
+    <col min="16" max="16" width="29.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10656,7 +10659,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" ht="61" spans="5:17">
+    <row r="12" ht="69.6" spans="5:17">
       <c r="E12" t="s">
         <v>120</v>
       </c>
@@ -10714,7 +10717,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="5:17">
+    <row r="14" ht="69.6" spans="5:17">
       <c r="E14" t="s">
         <v>128</v>
       </c>
@@ -10727,7 +10730,7 @@
       <c r="H14" t="s">
         <v>126</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="11" t="s">
         <v>130</v>
       </c>
       <c r="N14" t="s">
@@ -11145,7 +11148,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" ht="61" spans="5:17">
+    <row r="27" ht="69.6" spans="5:17">
       <c r="E27" t="s">
         <v>177</v>
       </c>
@@ -11349,7 +11352,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="5:17">
+    <row r="33" ht="69.6" spans="5:17">
       <c r="E33" t="s">
         <v>199</v>
       </c>
@@ -11362,7 +11365,7 @@
       <c r="H33" t="s">
         <v>201</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="11" t="s">
         <v>202</v>
       </c>
       <c r="N33" t="s">
@@ -11407,7 +11410,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="5:17">
+    <row r="35" ht="69.6" spans="5:17">
       <c r="E35" t="s">
         <v>206</v>
       </c>
@@ -11420,7 +11423,7 @@
       <c r="H35" t="s">
         <v>201</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="11" t="s">
         <v>202</v>
       </c>
       <c r="N35" t="s">
@@ -11506,7 +11509,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="5:17">
+    <row r="38" ht="69.6" spans="5:17">
       <c r="E38" t="s">
         <v>214</v>
       </c>
@@ -11519,7 +11522,7 @@
       <c r="H38" t="s">
         <v>216</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="11" t="s">
         <v>217</v>
       </c>
       <c r="N38" t="s">
@@ -11564,7 +11567,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" ht="61" spans="5:17">
+    <row r="40" ht="69.6" spans="5:17">
       <c r="E40" t="s">
         <v>221</v>
       </c>
@@ -11692,7 +11695,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" ht="46" spans="5:17">
+    <row r="44" ht="52.2" spans="5:17">
       <c r="E44" t="s">
         <v>232</v>
       </c>
@@ -11721,7 +11724,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="45" ht="18" spans="5:17">
+    <row r="45" spans="5:17">
       <c r="E45" t="s">
         <v>236</v>
       </c>
@@ -11866,7 +11869,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="50" ht="46" spans="5:17">
+    <row r="50" ht="52.2" spans="5:17">
       <c r="E50" t="s">
         <v>253</v>
       </c>
@@ -11924,7 +11927,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="5:17">
+    <row r="52" ht="52.2" spans="5:17">
       <c r="E52" t="s">
         <v>259</v>
       </c>
@@ -11937,7 +11940,7 @@
       <c r="H52" t="s">
         <v>126</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" s="11" t="s">
         <v>261</v>
       </c>
       <c r="N52" t="s">
@@ -12011,7 +12014,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" ht="61" spans="5:17">
+    <row r="55" ht="87" spans="5:17">
       <c r="E55" t="s">
         <v>269</v>
       </c>
@@ -12133,7 +12136,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="59" ht="61" spans="5:17">
+    <row r="59" ht="69.6" spans="5:17">
       <c r="E59" t="s">
         <v>285</v>
       </c>
@@ -12226,7 +12229,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="62" ht="61" spans="5:17">
+    <row r="62" ht="69.6" spans="5:17">
       <c r="E62" t="s">
         <v>295</v>
       </c>
@@ -12319,7 +12322,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="65" ht="61" spans="5:17">
+    <row r="65" ht="69.6" spans="5:17">
       <c r="E65" t="s">
         <v>305</v>
       </c>
@@ -12383,7 +12386,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="67" ht="61" spans="5:17">
+    <row r="67" ht="69.6" spans="5:17">
       <c r="E67" t="s">
         <v>311</v>
       </c>
@@ -12441,7 +12444,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="69" ht="61" spans="5:17">
+    <row r="69" ht="69.6" spans="5:17">
       <c r="E69" t="s">
         <v>318</v>
       </c>
@@ -12743,8 +12746,8 @@
         <v>106</v>
       </c>
     </row>
-    <row r="79" ht="76" spans="5:17">
-      <c r="E79" s="11" t="s">
+    <row r="79" ht="87" spans="5:17">
+      <c r="E79" s="12" t="s">
         <v>357</v>
       </c>
       <c r="F79" s="6" t="s">
@@ -12778,7 +12781,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="80" ht="213" spans="5:17">
+    <row r="80" ht="243.6" spans="5:17">
       <c r="E80" t="s">
         <v>362</v>
       </c>
@@ -12813,7 +12816,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="81" ht="213" spans="5:17">
+    <row r="81" ht="243.6" spans="5:17">
       <c r="E81" t="s">
         <v>367</v>
       </c>
@@ -12848,7 +12851,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="82" ht="213" spans="5:17">
+    <row r="82" ht="243.6" spans="5:17">
       <c r="E82" t="s">
         <v>370</v>
       </c>
@@ -12883,7 +12886,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="83" ht="213" spans="5:17">
+    <row r="83" ht="243.6" spans="5:17">
       <c r="E83" t="s">
         <v>373</v>
       </c>
@@ -12918,7 +12921,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="84" ht="183" spans="5:17">
+    <row r="84" ht="208.8" spans="5:17">
       <c r="E84" t="s">
         <v>376</v>
       </c>
@@ -12953,7 +12956,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="85" ht="183" spans="5:17">
+    <row r="85" ht="208.8" spans="5:17">
       <c r="E85" t="s">
         <v>380</v>
       </c>
@@ -12988,7 +12991,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="86" ht="16" spans="5:17">
+    <row r="86" spans="5:17">
       <c r="E86" t="s">
         <v>383</v>
       </c>
@@ -22659,7 +22662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:O182"/>
   <sheetViews>
@@ -22667,22 +22670,22 @@
       <selection activeCell="D176" sqref="$A176:$XFD176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="1" max="1" width="22.4144736842105" customWidth="1"/>
-    <col min="2" max="2" width="15.4144736842105" customWidth="1"/>
-    <col min="3" max="3" width="22.6644736842105" customWidth="1"/>
-    <col min="4" max="4" width="29.4144736842105" customWidth="1"/>
-    <col min="5" max="5" width="43.6644736842105" customWidth="1"/>
-    <col min="6" max="7" width="34.4144736842105" customWidth="1"/>
-    <col min="8" max="8" width="37.9144736842105" customWidth="1"/>
-    <col min="9" max="9" width="26.9144736842105" customWidth="1"/>
-    <col min="10" max="10" width="14.1644736842105" customWidth="1"/>
-    <col min="11" max="11" width="26.8355263157895" customWidth="1"/>
-    <col min="12" max="12" width="29.8355263157895" customWidth="1"/>
-    <col min="13" max="13" width="24.8355263157895" customWidth="1"/>
-    <col min="14" max="14" width="17.5855263157895" customWidth="1"/>
-    <col min="15" max="15" width="15.6644736842105" customWidth="1"/>
+    <col min="1" max="1" width="22.4166666666667" customWidth="1"/>
+    <col min="2" max="2" width="15.4166666666667" customWidth="1"/>
+    <col min="3" max="3" width="22.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="29.4166666666667" customWidth="1"/>
+    <col min="5" max="5" width="43.6666666666667" customWidth="1"/>
+    <col min="6" max="7" width="34.4166666666667" customWidth="1"/>
+    <col min="8" max="8" width="37.9166666666667" customWidth="1"/>
+    <col min="9" max="9" width="26.9166666666667" customWidth="1"/>
+    <col min="10" max="10" width="14.1666666666667" customWidth="1"/>
+    <col min="11" max="11" width="26.8333333333333" customWidth="1"/>
+    <col min="12" max="12" width="29.8333333333333" customWidth="1"/>
+    <col min="13" max="13" width="24.8333333333333" customWidth="1"/>
+    <col min="14" max="14" width="17.5833333333333" customWidth="1"/>
+    <col min="15" max="15" width="15.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -22699,7 +22702,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" ht="17" spans="5:8">
+    <row r="4" spans="5:8">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -24158,7 +24161,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="48" ht="31" spans="5:15">
+    <row r="48" ht="34.8" spans="5:15">
       <c r="E48" t="s">
         <v>604</v>
       </c>
@@ -24193,7 +24196,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="49" ht="16" spans="5:15">
+    <row r="49" spans="5:15">
       <c r="E49" t="s">
         <v>608</v>
       </c>
@@ -24228,7 +24231,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="50" ht="16" spans="5:15">
+    <row r="50" spans="5:15">
       <c r="E50" t="s">
         <v>611</v>
       </c>
@@ -24263,7 +24266,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="51" ht="16" spans="5:15">
+    <row r="51" spans="5:15">
       <c r="E51" t="s">
         <v>614</v>
       </c>
@@ -24298,7 +24301,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="52" ht="16" spans="5:15">
+    <row r="52" spans="5:15">
       <c r="E52" t="s">
         <v>617</v>
       </c>
@@ -24333,7 +24336,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="53" ht="16" spans="5:15">
+    <row r="53" spans="5:15">
       <c r="E53" t="s">
         <v>620</v>
       </c>
@@ -24368,7 +24371,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="54" ht="16" spans="5:15">
+    <row r="54" spans="5:15">
       <c r="E54" t="s">
         <v>623</v>
       </c>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="2"/>
+    <workbookView windowHeight="19420" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4004" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770">
   <si>
     <r>
       <rPr>
@@ -4184,12 +4184,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t>您的</t>
     </r>
     <r>
@@ -4271,7 +4265,7 @@
         <rFont val="DejaVu Sans"/>
         <charset val="134"/>
       </rPr>
-      <t>href='#/rducm/personal-setting?type=site&amp;organizationId=${organizationId}'&gt;</t>
+      <t>href='#/rducm/personal-setting?type=user&amp;organizationId=${organizationId}'&gt;</t>
     </r>
     <r>
       <rPr>
@@ -8678,9 +8672,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -8747,6 +8741,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -8764,14 +8764,60 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8785,22 +8831,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -8815,7 +8855,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8838,23 +8878,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8868,10 +8892,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8886,36 +8910,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9015,7 +9009,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9027,157 +9165,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9189,7 +9183,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9206,12 +9200,28 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -9236,6 +9246,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -9244,26 +9267,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -9278,21 +9281,86 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color auto="1"/>
-      </left>
-      <right/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -9319,230 +9387,156 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9558,9 +9552,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9572,112 +9563,112 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
+    <cellStyle name="输入" xfId="5" builtinId="20"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
+    <cellStyle name="货币" xfId="8" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
+    <cellStyle name="百分比" xfId="10" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
+    <cellStyle name="计算" xfId="16" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
+    <cellStyle name="适中" xfId="18" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
+    <cellStyle name="好" xfId="20" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
+    <cellStyle name="汇总" xfId="22" builtinId="25"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
+    <cellStyle name="标题" xfId="34" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
+    <cellStyle name="注释" xfId="38" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
@@ -10012,7 +10003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
@@ -10020,155 +10011,155 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5833333333333" style="13" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="14" customWidth="1"/>
-    <col min="3" max="3" width="28.1666666666667" customWidth="1"/>
+    <col min="1" max="1" width="15.5855263157895" style="12" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="13" customWidth="1"/>
+    <col min="3" max="3" width="28.1644736842105" customWidth="1"/>
     <col min="4" max="4" width="35.25" style="6" customWidth="1"/>
-    <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
-    <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
-    <col min="7" max="7" width="21.5833333333333" customWidth="1"/>
+    <col min="5" max="5" width="38.5855263157895" customWidth="1"/>
+    <col min="6" max="6" width="23.4144736842105" customWidth="1"/>
+    <col min="7" max="7" width="21.5855263157895" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5833333333333" customWidth="1"/>
+    <col min="9" max="9" width="24.5855263157895" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1666666666667" customWidth="1"/>
-    <col min="12" max="12" width="18.5833333333333" customWidth="1"/>
-    <col min="13" max="13" width="13.1666666666667" customWidth="1"/>
+    <col min="11" max="11" width="19.1644736842105" customWidth="1"/>
+    <col min="12" max="12" width="18.5855263157895" customWidth="1"/>
+    <col min="13" max="13" width="13.1644736842105" customWidth="1"/>
     <col min="14" max="1025" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="15"/>
-      <c r="C1" s="16" t="s">
+      <c r="A1" s="14"/>
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="18"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-    </row>
-    <row r="4" spans="3:7">
-      <c r="C4" s="21" t="s">
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+    </row>
+    <row r="4" ht="16" spans="3:7">
+      <c r="C4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="36" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="15"/>
+    <row r="5" ht="16" spans="1:3">
+      <c r="A5" s="14"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="37" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="30"/>
-    </row>
-    <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="31" t="s">
+      <c r="E8" s="38"/>
+    </row>
+    <row r="9" ht="46" spans="3:6">
+      <c r="C9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="39" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="34" t="s">
+    <row r="10" ht="46" spans="3:5">
+      <c r="C10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="39" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="28" t="s">
+    <row r="11" ht="61" spans="3:5">
+      <c r="C11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="39" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="28" t="s">
+    <row r="12" ht="16" spans="3:5">
+      <c r="C12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="40" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="38"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="28"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
-    </row>
-    <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="36" t="s">
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="38"/>
+    </row>
+    <row r="15" ht="31" spans="3:5">
+      <c r="C15" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="41" t="s">
         <v>28</v>
       </c>
     </row>
@@ -10177,39 +10168,39 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="3:5">
-      <c r="C19" s="39" t="s">
+    <row r="19" ht="16" spans="3:5">
+      <c r="C19" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="40" t="s">
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+    </row>
+    <row r="20" ht="16" spans="3:4">
+      <c r="C20" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="40" t="s">
+    <row r="21" ht="16" spans="3:4">
+      <c r="C21" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="40" t="s">
+    <row r="22" ht="16" spans="3:4">
+      <c r="C22" s="28" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="40" t="s">
+    <row r="23" ht="16" spans="3:4">
+      <c r="C23" s="28" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -10217,25 +10208,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="19"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="19"/>
-    </row>
-    <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="42" t="s">
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" ht="31" spans="3:3">
+      <c r="C27" s="31" t="s">
         <v>43</v>
       </c>
     </row>
@@ -10256,7 +10247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:R10"/>
   <sheetViews>
@@ -10264,11 +10255,11 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.2"/>
   <cols>
     <col min="5" max="5" width="23.25" customWidth="1"/>
     <col min="6" max="6" width="21.25" customWidth="1"/>
-    <col min="8" max="8" width="14.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="14.6644736842105" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10429,28 +10420,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:Q620"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="E27" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
   <cols>
-    <col min="4" max="4" width="22.5833333333333" customWidth="1"/>
-    <col min="5" max="5" width="26.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="44.8333333333333" customWidth="1"/>
-    <col min="7" max="7" width="29.4166666666667" customWidth="1"/>
+    <col min="4" max="4" width="22.5855263157895" customWidth="1"/>
+    <col min="5" max="5" width="26.3355263157895" customWidth="1"/>
+    <col min="6" max="6" width="44.8355263157895" customWidth="1"/>
+    <col min="7" max="7" width="29.4144736842105" customWidth="1"/>
     <col min="8" max="8" width="24.25" customWidth="1"/>
-    <col min="9" max="9" width="92.8541666666667" customWidth="1"/>
-    <col min="10" max="10" width="29.3333333333333" customWidth="1"/>
-    <col min="11" max="11" width="32.1666666666667" customWidth="1"/>
-    <col min="13" max="13" width="33.1666666666667" customWidth="1"/>
-    <col min="14" max="14" width="23.4166666666667" customWidth="1"/>
-    <col min="15" max="15" width="29.4166666666667" customWidth="1"/>
-    <col min="16" max="16" width="29.8333333333333" customWidth="1"/>
+    <col min="9" max="9" width="92.8552631578947" customWidth="1"/>
+    <col min="10" max="10" width="29.3355263157895" customWidth="1"/>
+    <col min="11" max="11" width="32.1644736842105" customWidth="1"/>
+    <col min="13" max="13" width="33.1644736842105" customWidth="1"/>
+    <col min="14" max="14" width="23.4144736842105" customWidth="1"/>
+    <col min="15" max="15" width="29.4144736842105" customWidth="1"/>
+    <col min="16" max="16" width="29.8355263157895" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10659,7 +10650,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" ht="69.6" spans="5:17">
+    <row r="12" ht="61" spans="5:17">
       <c r="E12" t="s">
         <v>120</v>
       </c>
@@ -10717,7 +10708,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" ht="69.6" spans="5:17">
+    <row r="14" ht="46" spans="5:17">
       <c r="E14" t="s">
         <v>128</v>
       </c>
@@ -10730,7 +10721,7 @@
       <c r="H14" t="s">
         <v>126</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="8" t="s">
         <v>130</v>
       </c>
       <c r="N14" t="s">
@@ -11148,7 +11139,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" ht="69.6" spans="5:17">
+    <row r="27" ht="61" spans="5:17">
       <c r="E27" t="s">
         <v>177</v>
       </c>
@@ -11352,7 +11343,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" ht="69.6" spans="5:17">
+    <row r="33" ht="61" spans="5:17">
       <c r="E33" t="s">
         <v>199</v>
       </c>
@@ -11365,7 +11356,7 @@
       <c r="H33" t="s">
         <v>201</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="I33" s="8" t="s">
         <v>202</v>
       </c>
       <c r="N33" t="s">
@@ -11410,7 +11401,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" ht="69.6" spans="5:17">
+    <row r="35" ht="61" spans="5:17">
       <c r="E35" t="s">
         <v>206</v>
       </c>
@@ -11423,7 +11414,7 @@
       <c r="H35" t="s">
         <v>201</v>
       </c>
-      <c r="I35" s="11" t="s">
+      <c r="I35" s="8" t="s">
         <v>202</v>
       </c>
       <c r="N35" t="s">
@@ -11509,7 +11500,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" ht="69.6" spans="5:17">
+    <row r="38" ht="61" spans="5:17">
       <c r="E38" t="s">
         <v>214</v>
       </c>
@@ -11522,7 +11513,7 @@
       <c r="H38" t="s">
         <v>216</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="I38" s="8" t="s">
         <v>217</v>
       </c>
       <c r="N38" t="s">
@@ -11567,7 +11558,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" ht="69.6" spans="5:17">
+    <row r="40" ht="61" spans="5:17">
       <c r="E40" t="s">
         <v>221</v>
       </c>
@@ -11695,7 +11686,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" ht="52.2" spans="5:17">
+    <row r="44" ht="46" spans="5:17">
       <c r="E44" t="s">
         <v>232</v>
       </c>
@@ -11724,7 +11715,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="5:17">
+    <row r="45" ht="18" spans="5:17">
       <c r="E45" t="s">
         <v>236</v>
       </c>
@@ -11869,7 +11860,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="50" ht="52.2" spans="5:17">
+    <row r="50" ht="46" spans="5:17">
       <c r="E50" t="s">
         <v>253</v>
       </c>
@@ -11927,7 +11918,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" ht="52.2" spans="5:17">
+    <row r="52" ht="46" spans="5:17">
       <c r="E52" t="s">
         <v>259</v>
       </c>
@@ -11940,7 +11931,7 @@
       <c r="H52" t="s">
         <v>126</v>
       </c>
-      <c r="I52" s="11" t="s">
+      <c r="I52" s="8" t="s">
         <v>261</v>
       </c>
       <c r="N52" t="s">
@@ -12014,7 +12005,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" ht="87" spans="5:17">
+    <row r="55" ht="61" spans="5:17">
       <c r="E55" t="s">
         <v>269</v>
       </c>
@@ -12136,7 +12127,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="59" ht="69.6" spans="5:17">
+    <row r="59" ht="61" spans="5:17">
       <c r="E59" t="s">
         <v>285</v>
       </c>
@@ -12229,7 +12220,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="62" ht="69.6" spans="5:17">
+    <row r="62" ht="61" spans="5:17">
       <c r="E62" t="s">
         <v>295</v>
       </c>
@@ -12322,7 +12313,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="65" ht="69.6" spans="5:17">
+    <row r="65" ht="61" spans="5:17">
       <c r="E65" t="s">
         <v>305</v>
       </c>
@@ -12386,7 +12377,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="67" ht="69.6" spans="5:17">
+    <row r="67" ht="61" spans="5:17">
       <c r="E67" t="s">
         <v>311</v>
       </c>
@@ -12444,7 +12435,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="69" ht="69.6" spans="5:17">
+    <row r="69" ht="61" spans="5:17">
       <c r="E69" t="s">
         <v>318</v>
       </c>
@@ -12746,8 +12737,8 @@
         <v>106</v>
       </c>
     </row>
-    <row r="79" ht="87" spans="5:17">
-      <c r="E79" s="12" t="s">
+    <row r="79" ht="76" spans="5:17">
+      <c r="E79" s="11" t="s">
         <v>357</v>
       </c>
       <c r="F79" s="6" t="s">
@@ -12781,7 +12772,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="80" ht="243.6" spans="5:17">
+    <row r="80" ht="213" spans="5:17">
       <c r="E80" t="s">
         <v>362</v>
       </c>
@@ -12816,7 +12807,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="81" ht="243.6" spans="5:17">
+    <row r="81" ht="213" spans="5:17">
       <c r="E81" t="s">
         <v>367</v>
       </c>
@@ -12851,7 +12842,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="82" ht="243.6" spans="5:17">
+    <row r="82" ht="213" spans="5:17">
       <c r="E82" t="s">
         <v>370</v>
       </c>
@@ -12886,7 +12877,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="83" ht="243.6" spans="5:17">
+    <row r="83" ht="213" spans="5:17">
       <c r="E83" t="s">
         <v>373</v>
       </c>
@@ -12921,7 +12912,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="84" ht="208.8" spans="5:17">
+    <row r="84" ht="183" spans="5:17">
       <c r="E84" t="s">
         <v>376</v>
       </c>
@@ -12956,7 +12947,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="85" ht="208.8" spans="5:17">
+    <row r="85" ht="183" spans="5:17">
       <c r="E85" t="s">
         <v>380</v>
       </c>
@@ -12991,7 +12982,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="86" spans="5:17">
+    <row r="86" ht="16" spans="5:17">
       <c r="E86" t="s">
         <v>383</v>
       </c>
@@ -22662,7 +22653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:O182"/>
   <sheetViews>
@@ -22670,22 +22661,22 @@
       <selection activeCell="D176" sqref="$A176:$XFD176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
   <cols>
-    <col min="1" max="1" width="22.4166666666667" customWidth="1"/>
-    <col min="2" max="2" width="15.4166666666667" customWidth="1"/>
-    <col min="3" max="3" width="22.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="29.4166666666667" customWidth="1"/>
-    <col min="5" max="5" width="43.6666666666667" customWidth="1"/>
-    <col min="6" max="7" width="34.4166666666667" customWidth="1"/>
-    <col min="8" max="8" width="37.9166666666667" customWidth="1"/>
-    <col min="9" max="9" width="26.9166666666667" customWidth="1"/>
-    <col min="10" max="10" width="14.1666666666667" customWidth="1"/>
-    <col min="11" max="11" width="26.8333333333333" customWidth="1"/>
-    <col min="12" max="12" width="29.8333333333333" customWidth="1"/>
-    <col min="13" max="13" width="24.8333333333333" customWidth="1"/>
-    <col min="14" max="14" width="17.5833333333333" customWidth="1"/>
-    <col min="15" max="15" width="15.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="22.4144736842105" customWidth="1"/>
+    <col min="2" max="2" width="15.4144736842105" customWidth="1"/>
+    <col min="3" max="3" width="22.6644736842105" customWidth="1"/>
+    <col min="4" max="4" width="29.4144736842105" customWidth="1"/>
+    <col min="5" max="5" width="43.6644736842105" customWidth="1"/>
+    <col min="6" max="7" width="34.4144736842105" customWidth="1"/>
+    <col min="8" max="8" width="37.9144736842105" customWidth="1"/>
+    <col min="9" max="9" width="26.9144736842105" customWidth="1"/>
+    <col min="10" max="10" width="14.1644736842105" customWidth="1"/>
+    <col min="11" max="11" width="26.8355263157895" customWidth="1"/>
+    <col min="12" max="12" width="29.8355263157895" customWidth="1"/>
+    <col min="13" max="13" width="24.8355263157895" customWidth="1"/>
+    <col min="14" max="14" width="17.5855263157895" customWidth="1"/>
+    <col min="15" max="15" width="15.6644736842105" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -22702,7 +22693,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:8">
+    <row r="4" ht="17" spans="5:8">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -24161,7 +24152,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="48" ht="34.8" spans="5:15">
+    <row r="48" ht="31" spans="5:15">
       <c r="E48" t="s">
         <v>604</v>
       </c>
@@ -24196,7 +24187,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="49" spans="5:15">
+    <row r="49" ht="16" spans="5:15">
       <c r="E49" t="s">
         <v>608</v>
       </c>
@@ -24231,7 +24222,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="50" spans="5:15">
+    <row r="50" ht="16" spans="5:15">
       <c r="E50" t="s">
         <v>611</v>
       </c>
@@ -24266,7 +24257,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="51" spans="5:15">
+    <row r="51" ht="16" spans="5:15">
       <c r="E51" t="s">
         <v>614</v>
       </c>
@@ -24301,7 +24292,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="52" spans="5:15">
+    <row r="52" ht="16" spans="5:15">
       <c r="E52" t="s">
         <v>617</v>
       </c>
@@ -24336,7 +24327,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="53" spans="5:15">
+    <row r="53" ht="16" spans="5:15">
       <c r="E53" t="s">
         <v>620</v>
       </c>
@@ -24371,7 +24362,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="54" spans="5:15">
+    <row r="54" ht="16" spans="5:15">
       <c r="E54" t="s">
         <v>623</v>
       </c>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4014" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4028" uniqueCount="771">
   <si>
     <r>
       <rPr>
@@ -2109,218 +2109,208 @@
     <t>Choerodon通知</t>
   </si>
   <si>
-    <t>&lt;!doctype html&gt;
-&lt;html xmlns="http://www.w3.org/1999/xhtml" xmlns:v="urn:schemas-microsoft-com:vml"
-      xmlns:o="urn:schemas-microsoft-com:office:office"&gt;
-&lt;head&gt;
-    &lt;title&gt;&lt;/title&gt;
-    &lt;!--[if !mso]&gt;&lt;!-- --&gt;
-    &lt;meta http-equiv="X-UA-Compatible" content="IE=edge"&gt;
-    &lt;!--&lt;![endif]--&gt;
-    &lt;meta http-equiv="Content-Type" content="text/html; charset=UTF-8"&gt;
-    &lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt;
-    &lt;style type="text/css"&gt;
-        #outlook a {
-            padding: 0;
-        }
-        .ReadMsgBody {
-            width: 100%;
-        }
-        .ExternalClass {
-            width: 100%;
-        }
-        .ExternalClass * {
-            line-height: 100%;
-        }
-        body {
-            margin: 0;
-            padding: 0;
-            -webkit-text-size-adjust: 100%;
-            -ms-text-size-adjust: 100%;
-        }
-        table,
-        td {
-            border-collapse: collapse;
-            mso-table-lspace: 0pt;
-            mso-table-rspace: 0pt;
-        }
-        img {
-            border: 0;
-            height: auto;
-            line-height: 100%;
-            outline: none;
-            text-decoration: none;
-            -ms-interpolation-mode: bicubic;
-        }
-        p {
-            display: block;
-            margin: 13px 0;
-        }
-    &lt;/style&gt;
-    &lt;!--[if !mso]&gt;&lt;!--&gt;
-    &lt;style type="text/css"&gt;
-        @media only screen and (max-width: 480px) {
-            @-ms-viewport {
-                width: 320px;
-            }
-            @viewport {
-                width: 320px;
-            }
-        }
-    &lt;/style&gt;
-    &lt;!--&lt;![endif]--&gt;
-    &lt;!--[if mso]&gt;
-    &lt;xml&gt;
-        &lt;o:OfficeDocumentSettings&gt;
-            &lt;o:AllowPNG/&gt;
-            &lt;o:PixelsPerInch&gt;96&lt;/o:PixelsPerInch&gt;
-        &lt;/o:OfficeDocumentSettings&gt;
-    &lt;/xml&gt;
-    &lt;![endif]--&gt;
-    &lt;!--[if lte mso 11]&gt;
-    &lt;style type="text/css"&gt;
-        .outlook-group-fix {
-            width: 100% !important;
-        }
-    &lt;/style&gt;
-    &lt;![endif]--&gt;
-    &lt;!--[if !mso]&gt;&lt;!--&gt;
-    &lt;link href="https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700" rel="stylesheet" type="text/css"&gt;
-    &lt;style type="text/css"&gt;
-        @import url(https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700);
-    &lt;/style&gt;
-    &lt;!--&lt;![endif]--&gt;
-    &lt;style type="text/css"&gt;
-        @media only screen and (min-width: 480px) {
-            .mj-column-per-100 {
-                width: 100% !important;
-                max-width: 100%;
-            }
-        }
-    &lt;/style&gt;
-    &lt;style type="text/css"&gt;
-    &lt;/style&gt;
-&lt;/head&gt;
-&lt;body&gt;
+    <t>&lt;title&gt; &lt;/title&gt;
+  &lt;!--[if !mso]&gt;&lt;!-- --&gt;
+  &lt;meta http-equiv="X-UA-Compatible" content="IE=edge"&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;meta http-equiv="Content-Type" content="text/html; charset=UTF-8"&gt;
+  &lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt;
+  &lt;style type="text/css"&gt;
+    #outlook a {
+      padding: 0;
+    }
+    .ReadMsgBody {
+      width: 100%;
+    }
+    .ExternalClass {
+      width: 100%;
+    }
+    .ExternalClass * {
+      line-height: 100%;
+    }
+    body {
+      margin: 0;
+      padding: 0;
+      -webkit-text-size-adjust: 100%;
+      -ms-text-size-adjust: 100%;
+    }
+    table,
+    td {
+      border-collapse: collapse;
+      mso-table-lspace: 0pt;
+      mso-table-rspace: 0pt;
+    }
+    img {
+      border: 0;
+      height: auto;
+      line-height: 100%;
+      outline: none;
+      text-decoration: none;
+      -ms-interpolation-mode: bicubic;
+    }
+    p {
+      display: block;
+      margin: 13px 0;
+    }
+  &lt;/style&gt;
+  &lt;!--[if !mso]&gt;&lt;!--&gt;
+  &lt;style type="text/css"&gt;
+    @media only screen and (max-width:480px) {
+      @-ms-viewport {
+        width: 320px;
+      }
+      @viewport {
+        width: 320px;
+      }
+    }
+  &lt;/style&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;!--[if mso]&gt;
+  &lt;xml&gt;
+    &lt;o:OfficeDocumentSettings&gt;
+      &lt;o:AllowPNG/&gt;
+      &lt;o:PixelsPerInch&gt;96&lt;/o:PixelsPerInch&gt;
+    &lt;/o:OfficeDocumentSettings&gt;
+  &lt;/xml&gt;
+  &lt;![endif]--&gt;
+  &lt;!--[if lte mso 11]&gt;
+  &lt;style type="text/css"&gt;
+    .outlook-group-fix { width:100% !important; }
+  &lt;/style&gt;
+  &lt;![endif]--&gt;
+  &lt;!--[if !mso]&gt;&lt;!--&gt;
+  &lt;link href="https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700" rel="stylesheet" type="text/css"&gt;
+  &lt;style type="text/css"&gt;
+    @import url(https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700);
+  &lt;/style&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;style type="text/css"&gt;
+    @media only screen and (min-width:480px) {
+      .mj-column-per-100 {
+        width: 100% !important;
+        max-width: 100%;
+      }
+    }
+  &lt;/style&gt;
+  &lt;style type="text/css"&gt;
+  &lt;/style&gt;
 &lt;div style=""&gt;
-    &lt;!--[if mso | IE]&gt;
-    &lt;table
-            align="center" border="0" cellpadding="0" cellspacing="0" class="" style="width:600px;" width="782"
-    &gt;
-        &lt;tr&gt;
-            &lt;td style="line-height:0px;font-size:0px;mso-line-height-rule:exactly;"&gt;
-    &lt;![endif]--&gt;
-    &lt;div style="Margin:0px auto;max-width:600px;"&gt;
-        &lt;table align="center" border="0" cellpadding="0" cellspacing="0" role="presentation" style="width:100%;"&gt;
-            &lt;tbody&gt;
+  &lt;!--[if mso | IE]&gt;
+  &lt;table
+          align="center" border="0" cellpadding="0" cellspacing="0" class="" style="width:782px;" width="782"
+  &gt;
+    &lt;tr&gt;
+      &lt;td style="line-height:0px;font-size:0px;mso-line-height-rule:exactly;"&gt;
+  &lt;![endif]--&gt;
+  &lt;div style="Margin:0px auto;max-width:782px;"&gt;
+    &lt;table align="center" border="0" cellpadding="0" cellspacing="0" role="presentation" style="width:100%;"&gt;
+      &lt;tbody&gt;
+      &lt;tr&gt;
+        &lt;td style="direction:ltr;font-size:0px;padding:20px 0;text-align:center;vertical-align:top;"&gt;
+          &lt;!--[if mso | IE]&gt;
+          &lt;table role="presentation" border="0" cellpadding="0" cellspacing="0"&gt;
             &lt;tr&gt;
-                &lt;td style="direction:ltr;font-size:0px;padding:20px 0;text-align:center;vertical-align:top;"&gt;
-                    &lt;!--[if mso | IE]&gt;
-                    &lt;table role="presentation" border="0" cellpadding="0" cellspacing="0"&gt;
-                        &lt;tr&gt;
-                            &lt;td
-                                    class="" style="vertical-align:top;width:600px;"
-                            &gt;
-                    &lt;![endif]--&gt;
-                    &lt;div class="mj-column-per-100 outlook-group-fix"
-                         style="font-size:13px;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%;"&gt;
-                        &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation"
-                               style="vertical-align:top;" width="100%"&gt;
-                            &lt;tr&gt;
-                                &lt;td align="left" style="font-size:0px;padding:20px 25px;word-break:break-word;"&gt;
-                                    &lt;div style="font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;line-height:1;text-align:left;color:#000000;"&gt;
-                                        &lt;body&gt;
-                                        &lt;div style="width: 600px;
-      background: #FFFFFF;
-      margin: 0 auto;"&gt;
-                                            &lt;div style="height: 55px;
-      background-color: #ffffff;
-      border-bottom: 8px solid #3F51B5;"&gt;
-                                                &lt;table&gt;
-                                                    &lt;tr&gt;
-                                                        &lt;td style="padding-bottom: 0;vertical-align: bottom;"&gt;
-                                                            &lt;table&gt;
-                                                                &lt;tr&gt;
-                                                                    &lt;td style="width:190px;"&gt;&lt;img height="auto"
-                                                                                                  src="https://file.choerodon.com.cn/static/choerodon.png"
-                                                                                                  style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;"
-                                                                                                  width="190"/&gt;&lt;/td&gt;
-                                                                &lt;/tr&gt;
-                                                            &lt;/table&gt;
-                                                        &lt;td&gt;
-                                                    &lt;/tr&gt;
-                                                &lt;/table&gt;
-                                            &lt;/div&gt;
-                                            &lt;div style="padding: 30px 40px;
-      border-bottom: 0;
-      border-top: 0;
-      border-left:1px solid #E6E6E6;
-      border-right:1px solid #E6E6E6;
-      border-radius: 2px;
-      background: #FFFFFF;"&gt;
-                                                &lt;div&gt;
-            &lt;p&gt;您在项目“${projectName}”下创建的应用服务“${appServiceName}”失败。&lt;/p&gt;
-                                                   &lt;/div&gt;
-                                            &lt;/div&gt;
-                                            &lt;div&gt;
-                                                &lt;div style="text-align: justify;"&gt;
-                                                    &lt;table style="height: 148px; background-color: #f7f7f7;width: 100%;"&gt;
-                                                        &lt;tr&gt;
-                                                            &lt;td style="padding-left: 29px;"&gt;
-                                                                &lt;table&gt;
-                                                                    &lt;tr&gt;
-                                                                        &lt;td&gt;&lt;img height="auto"
-                                                                                 style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:90px;"
-                                                                                 width="90"
-                                                                                 src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt;
-                                                                    &lt;/tr&gt;
-                                                                    &lt;tr&gt;
-                                                                        &lt;td style="text-align: center"&gt;微信公众号&lt;/td&gt;
-                                                                    &lt;/tr&gt;
-                                                                &lt;/table&gt;
-                                                            &lt;td&gt;
-                                                            &lt;td&gt;
-                                                                &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; vertical-align: top;"&gt;
-                                                                    &lt;p style="font-size: 12px;
+              &lt;td
+                      class="" style="vertical-align:top;width:782px;"
+              &gt;
+          &lt;![endif]--&gt;
+          &lt;div class="mj-column-per-100 outlook-group-fix" style="font-size:13px;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%;"&gt;
+            &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="vertical-align:top;" width="100%"&gt;
+              &lt;tbody&gt;&lt;tr&gt;
+                &lt;td align="left" style="padding: 10px 25px; word-break: break-word;"&gt;
+                  &lt;div style="line-height: 1; text-align: left;"&gt;
+                    &lt;div style="width: 782px; background: rgb(255, 255, 255); margin: 0px auto;"&gt;
+                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; height: 115px; background-color: rgb(255, 255, 255); border-bottom: 8px solid rgb(63, 81, 181);"&gt;
+                        &lt;table&gt;
+                          &lt;tbody&gt;&lt;tr&gt;
+                            &lt;td style="padding-bottom: 0;vertical-align: bottom;"&gt;
+                              &lt;table&gt;
+                                &lt;tbody&gt;&lt;tr&gt;
+                                  &lt;td style="width:190px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                                &lt;/tr&gt;
+                              &lt;/tbody&gt;&lt;/table&gt;
+                            &lt;/td&gt;&lt;td&gt;
+                            &lt;/td&gt;&lt;td style="vertical-align: bottom;"&gt;
+                              &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; "&gt;
+                                &lt;p style="font-size: 14px;
+    color: #252528;
+    letter-spacing: 0;
+    display: inline-block;
+    text-align: right;
+    width: 558px;
+    padding-top: 55px;"&gt;&lt;/p&gt;
+                              &lt;/div&gt;
+                            &lt;/td&gt;
+                          &lt;/tr&gt;
+                        &lt;/tbody&gt;&lt;/table&gt;
+                      &lt;/div&gt;
+                      &lt;div style="padding: 68px 40px; border-width: 0px 1px; border-bottom-style: initial; border-bottom-color: initial; border-top-style: initial; border-top-color: initial; border-left-style: solid; border-left-color: rgb(230, 230, 230); border-right-style: solid; border-right-color: rgb(230, 230, 230); border-radius: 2px; background: rgb(255, 255, 255);"&gt;
+                        &lt;div style=""&gt;
+                              &lt;p&gt;您在项目“${projectName}”下创建的应用服务“${appServiceName}”失败。&lt;/p&gt;
+                        &lt;/div&gt;
+                        &lt;div class="mj-column-per-100 outlook-group-fix" style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; text-align: left; direction: ltr; display: inline-block; vertical-align: top; width: 100%;"&gt;
+                          &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="vertical-align:top;" width="100%"&gt;
+                            &lt;tbody&gt;&lt;tr&gt;
+                              &lt;td align="center" vertical-align="middle" style="font-size:0px;padding:10px 25px;padding-top:60px;word-break:break-word;"&gt;
+                                &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="border-collapse:separate;width:212px;line-height:100%;"&gt;
+                                  &lt;tbody&gt;&lt;tr&gt;
+                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#3f51b5;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
+                                      查看详情
+                                    &lt;/a&gt; &lt;/td&gt;
+                                  &lt;/tr&gt;
+                                &lt;/tbody&gt;&lt;/table&gt;&lt;br&gt;
+                              &lt;/td&gt;
+                            &lt;/tr&gt;
+                          &lt;/tbody&gt;&lt;/table&gt;
+                        &lt;/div&gt;
+                      &lt;/div&gt;
+                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px;"&gt;
+                        &lt;div style="text-align: justify;"&gt;
+                          &lt;table style="height: 148px; background-color: #f7f7f7;width: 100%;"&gt;
+                            &lt;tbody&gt;&lt;tr&gt;
+                              &lt;td style="padding-left: 29px;"&gt;
+                                &lt;table&gt;
+                                  &lt;tbody&gt;&lt;tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:90px;" width="90" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                  &lt;tr&gt;
+                                    &lt;td style="text-align: center"&gt;微信公众号&lt;/td&gt;
+                                  &lt;/tr&gt;
+                                &lt;/tbody&gt;&lt;/table&gt;
+                              &lt;/td&gt;&lt;td&gt;
+                              &lt;/td&gt;&lt;td&gt;
+                                &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; vertical-align: top;"&gt;
+                                  &lt;p style="font-size: 12px;
       color: #626774;
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;"&gt; 此邮件为系统邮件，请勿回复。 &lt;/p&gt;
-                                                                    &lt;p style="font-size: 12px;
+                                  &lt;p style="font-size: 12px;
       color: #626774;
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px"
-                                                          href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt;或 &lt;a
-                                                                            style="text-decoration:none;font-size: 12px"
-                                                                            href="http://choerodon.io/zh/docs/"
-                                                                            target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
-                                                                    &lt;p style="font-size: 12px;
+      margin-top: 0;"&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt;或 &lt;a style="text-decoration:none;font-size: 12px" href="http://choerodon.io/zh/docs/" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+                                  &lt;p style="font-size: 12px;
       color: #626774;
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px"
-                                               href="http://forum.choerodon.io/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
-                                                                    &lt;p style="font-size: 12px;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px" href="http://forum.choerodon.io/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
+                                  &lt;p style="font-size: 12px;
       color: #626774;
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：choerodon@vip.hand-china.com&lt;/p&gt;
-                                                                &lt;/div&gt;
-                                                            &lt;/td&gt;
-                                                        &lt;/tr&gt;
-                                                    &lt;/table&gt;
-                                                &lt;/div&gt;
-                                            &lt;/div&gt;
-                                            &lt;div style="width: 600px;
-      height: 34px;
-      background: #3F51B5;
-      "&gt;
-                                                &lt;p style="opacity: 0.8;
+                                &lt;/div&gt;
+                              &lt;/td&gt;
+                            &lt;/tr&gt;
+                          &lt;/tbody&gt;&lt;/table&gt;
+                        &lt;/div&gt;
+                      &lt;/div&gt;
+                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; width: 782px; height: 34px; background: rgb(63, 81, 181);"&gt;
+                        &lt;p style="opacity: 0.8;
       font-size: 10px;
       color: #FFFFFF;
       text-align: center;
@@ -2328,32 +2318,29 @@
       line-height: 34px;
       width: 100%;
       margin: 0 auto;"&gt;Copyright © The Choerodon Author. All rights reserved.&lt;/p&gt;
-                                            &lt;/div&gt;
-                                        &lt;/div&gt;
-                                        &lt;/body&gt;
-                                    &lt;/div&gt;
-                                &lt;/td&gt;
-                            &lt;/tr&gt;
-                        &lt;/table&gt;
+                      &lt;/div&gt;
                     &lt;/div&gt;
-                    &lt;!--[if mso | IE]&gt;
-                    &lt;/td&gt;
-                    &lt;/tr&gt;
-                    &lt;/table&gt;
-                    &lt;![endif]--&gt;
+                  &lt;/div&gt;
                 &lt;/td&gt;
-            &lt;/tr&gt;
-            &lt;/tbody&gt;
-        &lt;/table&gt;
-    &lt;/div&gt;
-    &lt;!--[if mso | IE]&gt;
-    &lt;/td&gt;
-    &lt;/tr&gt;
-    &lt;/table&gt;
-    &lt;![endif]--&gt;
-&lt;/div&gt;
-&lt;/body&gt;
-&lt;/html&gt;</t>
+              &lt;/tr&gt;
+            &lt;/tbody&gt;&lt;/table&gt;
+          &lt;/div&gt;
+          &lt;!--[if mso | IE]&gt;
+          &lt;/td&gt;
+          &lt;/tr&gt;
+          &lt;/table&gt;
+          &lt;![endif]--&gt;
+        &lt;/td&gt;
+      &lt;/tr&gt;
+      &lt;/tbody&gt;
+    &lt;/table&gt;&lt;br&gt;
+  &lt;/div&gt;
+  &lt;!--[if mso | IE]&gt;
+  &lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;/table&gt;
+  &lt;![endif]--&gt;
+&lt;/div&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-17</t>
@@ -2641,218 +2628,208 @@
     <t>CERTIFICATION_FAILURE.EMAIL</t>
   </si>
   <si>
-    <t>&lt;!doctype html&gt;
-&lt;html xmlns="http://www.w3.org/1999/xhtml" xmlns:v="urn:schemas-microsoft-com:vml"
-      xmlns:o="urn:schemas-microsoft-com:office:office"&gt;
-&lt;head&gt;
-    &lt;title&gt;&lt;/title&gt;
-    &lt;!--[if !mso]&gt;&lt;!-- --&gt;
-    &lt;meta http-equiv="X-UA-Compatible" content="IE=edge"&gt;
-    &lt;!--&lt;![endif]--&gt;
-    &lt;meta http-equiv="Content-Type" content="text/html; charset=UTF-8"&gt;
-    &lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt;
-    &lt;style type="text/css"&gt;
-        #outlook a {
-            padding: 0;
-        }
-        .ReadMsgBody {
-            width: 100%;
-        }
-        .ExternalClass {
-            width: 100%;
-        }
-        .ExternalClass * {
-            line-height: 100%;
-        }
-        body {
-            margin: 0;
-            padding: 0;
-            -webkit-text-size-adjust: 100%;
-            -ms-text-size-adjust: 100%;
-        }
-        table,
-        td {
-            border-collapse: collapse;
-            mso-table-lspace: 0pt;
-            mso-table-rspace: 0pt;
-        }
-        img {
-            border: 0;
-            height: auto;
-            line-height: 100%;
-            outline: none;
-            text-decoration: none;
-            -ms-interpolation-mode: bicubic;
-        }
-        p {
-            display: block;
-            margin: 13px 0;
-        }
-    &lt;/style&gt;
-    &lt;!--[if !mso]&gt;&lt;!--&gt;
-    &lt;style type="text/css"&gt;
-        @media only screen and (max-width: 480px) {
-            @-ms-viewport {
-                width: 320px;
-            }
-            @viewport {
-                width: 320px;
-            }
-        }
-    &lt;/style&gt;
-    &lt;!--&lt;![endif]--&gt;
-    &lt;!--[if mso]&gt;
-    &lt;xml&gt;
-        &lt;o:OfficeDocumentSettings&gt;
-            &lt;o:AllowPNG/&gt;
-            &lt;o:PixelsPerInch&gt;96&lt;/o:PixelsPerInch&gt;
-        &lt;/o:OfficeDocumentSettings&gt;
-    &lt;/xml&gt;
-    &lt;![endif]--&gt;
-    &lt;!--[if lte mso 11]&gt;
-    &lt;style type="text/css"&gt;
-        .outlook-group-fix {
-            width: 100% !important;
-        }
-    &lt;/style&gt;
-    &lt;![endif]--&gt;
-    &lt;!--[if !mso]&gt;&lt;!--&gt;
-    &lt;link href="https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700" rel="stylesheet" type="text/css"&gt;
-    &lt;style type="text/css"&gt;
-        @import url(https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700);
-    &lt;/style&gt;
-    &lt;!--&lt;![endif]--&gt;
-    &lt;style type="text/css"&gt;
-        @media only screen and (min-width: 480px) {
-            .mj-column-per-100 {
-                width: 100% !important;
-                max-width: 100%;
-            }
-        }
-    &lt;/style&gt;
-    &lt;style type="text/css"&gt;
-    &lt;/style&gt;
-&lt;/head&gt;
-&lt;body&gt;
+    <t>&lt;title&gt; &lt;/title&gt;
+  &lt;!--[if !mso]&gt;&lt;!-- --&gt;
+  &lt;meta http-equiv="X-UA-Compatible" content="IE=edge"&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;meta http-equiv="Content-Type" content="text/html; charset=UTF-8"&gt;
+  &lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt;
+  &lt;style type="text/css"&gt;
+    #outlook a {
+      padding: 0;
+    }
+    .ReadMsgBody {
+      width: 100%;
+    }
+    .ExternalClass {
+      width: 100%;
+    }
+    .ExternalClass * {
+      line-height: 100%;
+    }
+    body {
+      margin: 0;
+      padding: 0;
+      -webkit-text-size-adjust: 100%;
+      -ms-text-size-adjust: 100%;
+    }
+    table,
+    td {
+      border-collapse: collapse;
+      mso-table-lspace: 0pt;
+      mso-table-rspace: 0pt;
+    }
+    img {
+      border: 0;
+      height: auto;
+      line-height: 100%;
+      outline: none;
+      text-decoration: none;
+      -ms-interpolation-mode: bicubic;
+    }
+    p {
+      display: block;
+      margin: 13px 0;
+    }
+  &lt;/style&gt;
+  &lt;!--[if !mso]&gt;&lt;!--&gt;
+  &lt;style type="text/css"&gt;
+    @media only screen and (max-width:480px) {
+      @-ms-viewport {
+        width: 320px;
+      }
+      @viewport {
+        width: 320px;
+      }
+    }
+  &lt;/style&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;!--[if mso]&gt;
+  &lt;xml&gt;
+    &lt;o:OfficeDocumentSettings&gt;
+      &lt;o:AllowPNG/&gt;
+      &lt;o:PixelsPerInch&gt;96&lt;/o:PixelsPerInch&gt;
+    &lt;/o:OfficeDocumentSettings&gt;
+  &lt;/xml&gt;
+  &lt;![endif]--&gt;
+  &lt;!--[if lte mso 11]&gt;
+  &lt;style type="text/css"&gt;
+    .outlook-group-fix { width:100% !important; }
+  &lt;/style&gt;
+  &lt;![endif]--&gt;
+  &lt;!--[if !mso]&gt;&lt;!--&gt;
+  &lt;link href="https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700" rel="stylesheet" type="text/css"&gt;
+  &lt;style type="text/css"&gt;
+    @import url(https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700);
+  &lt;/style&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;style type="text/css"&gt;
+    @media only screen and (min-width:480px) {
+      .mj-column-per-100 {
+        width: 100% !important;
+        max-width: 100%;
+      }
+    }
+  &lt;/style&gt;
+  &lt;style type="text/css"&gt;
+  &lt;/style&gt;
 &lt;div style=""&gt;
-    &lt;!--[if mso | IE]&gt;
-    &lt;table
-            align="center" border="0" cellpadding="0" cellspacing="0" class="" style="width:600px;" width="782"
-    &gt;
-        &lt;tr&gt;
-            &lt;td style="line-height:0px;font-size:0px;mso-line-height-rule:exactly;"&gt;
-    &lt;![endif]--&gt;
-    &lt;div style="Margin:0px auto;max-width:600px;"&gt;
-        &lt;table align="center" border="0" cellpadding="0" cellspacing="0" role="presentation" style="width:100%;"&gt;
-            &lt;tbody&gt;
+  &lt;!--[if mso | IE]&gt;
+  &lt;table
+          align="center" border="0" cellpadding="0" cellspacing="0" class="" style="width:782px;" width="782"
+  &gt;
+    &lt;tr&gt;
+      &lt;td style="line-height:0px;font-size:0px;mso-line-height-rule:exactly;"&gt;
+  &lt;![endif]--&gt;
+  &lt;div style="Margin:0px auto;max-width:782px;"&gt;
+    &lt;table align="center" border="0" cellpadding="0" cellspacing="0" role="presentation" style="width:100%;"&gt;
+      &lt;tbody&gt;
+      &lt;tr&gt;
+        &lt;td style="direction:ltr;font-size:0px;padding:20px 0;text-align:center;vertical-align:top;"&gt;
+          &lt;!--[if mso | IE]&gt;
+          &lt;table role="presentation" border="0" cellpadding="0" cellspacing="0"&gt;
             &lt;tr&gt;
-                &lt;td style="direction:ltr;font-size:0px;padding:20px 0;text-align:center;vertical-align:top;"&gt;
-                    &lt;!--[if mso | IE]&gt;
-                    &lt;table role="presentation" border="0" cellpadding="0" cellspacing="0"&gt;
-                        &lt;tr&gt;
-                            &lt;td
-                                    class="" style="vertical-align:top;width:600px;"
-                            &gt;
-                    &lt;![endif]--&gt;
-                    &lt;div class="mj-column-per-100 outlook-group-fix"
-                         style="font-size:13px;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%;"&gt;
-                        &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation"
-                               style="vertical-align:top;" width="100%"&gt;
-                            &lt;tr&gt;
-                                &lt;td align="left" style="font-size:0px;padding:20px 25px;word-break:break-word;"&gt;
-                                    &lt;div style="font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;line-height:1;text-align:left;color:#000000;"&gt;
-                                        &lt;body&gt;
-                                        &lt;div style="width: 600px;
-      background: #FFFFFF;
-      margin: 0 auto;"&gt;
-                                            &lt;div style="height: 55px;
-      background-color: #ffffff;
-      border-bottom: 8px solid #3F51B5;"&gt;
-                                                &lt;table&gt;
-                                                    &lt;tr&gt;
-                                                        &lt;td style="padding-bottom: 0;vertical-align: bottom;"&gt;
-                                                            &lt;table&gt;
-                                                                &lt;tr&gt;
-                                                                    &lt;td style="width:190px;"&gt;&lt;img height="auto"
-                                                                                                  src="https://file.choerodon.com.cn/static/choerodon.png"
-                                                                                                  style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;"
-                                                                                                  width="190"/&gt;&lt;/td&gt;
-                                                                &lt;/tr&gt;
-                                                            &lt;/table&gt;
-                                                        &lt;td&gt;
-                                                    &lt;/tr&gt;
-                                                &lt;/table&gt;
-                                            &lt;/div&gt;
-                                            &lt;div style="padding: 30px 40px;
-      border-bottom: 0;
-      border-top: 0;
-      border-left:1px solid #E6E6E6;
-      border-right:1px solid #E6E6E6;
-      border-radius: 2px;
-      background: #FFFFFF;"&gt;
-                                                &lt;div&gt;
-            &lt;p&gt;您在项目“${projectName}”下“${envName}”环境中创建的证书“${resourceName}”失败。&lt;/p&gt;
-                                                   &lt;/div&gt;
-                                            &lt;/div&gt;
-                                            &lt;div&gt;
-                                                &lt;div style="text-align: justify;"&gt;
-                                                    &lt;table style="height: 148px; background-color: #f7f7f7;width: 100%;"&gt;
-                                                        &lt;tr&gt;
-                                                            &lt;td style="padding-left: 29px;"&gt;
-                                                                &lt;table&gt;
-                                                                    &lt;tr&gt;
-                                                                        &lt;td&gt;&lt;img height="auto"
-                                                                                 style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:90px;"
-                                                                                 width="90"
-                                                                                 src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt;
-                                                                    &lt;/tr&gt;
-                                                                    &lt;tr&gt;
-                                                                        &lt;td style="text-align: center"&gt;微信公众号&lt;/td&gt;
-                                                                    &lt;/tr&gt;
-                                                                &lt;/table&gt;
-                                                            &lt;td&gt;
-                                                            &lt;td&gt;
-                                                                &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; vertical-align: top;"&gt;
-                                                                    &lt;p style="font-size: 12px;
+              &lt;td
+                      class="" style="vertical-align:top;width:782px;"
+              &gt;
+          &lt;![endif]--&gt;
+          &lt;div class="mj-column-per-100 outlook-group-fix" style="font-size:13px;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%;"&gt;
+            &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="vertical-align:top;" width="100%"&gt;
+              &lt;tbody&gt;&lt;tr&gt;
+                &lt;td align="left" style="padding: 10px 25px; word-break: break-word;"&gt;
+                  &lt;div style="line-height: 1; text-align: left;"&gt;
+                    &lt;div style="width: 782px; background: rgb(255, 255, 255); margin: 0px auto;"&gt;
+                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; height: 115px; background-color: rgb(255, 255, 255); border-bottom: 8px solid rgb(63, 81, 181);"&gt;
+                        &lt;table&gt;
+                          &lt;tbody&gt;&lt;tr&gt;
+                            &lt;td style="padding-bottom: 0;vertical-align: bottom;"&gt;
+                              &lt;table&gt;
+                                &lt;tbody&gt;&lt;tr&gt;
+                                  &lt;td style="width:190px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                                &lt;/tr&gt;
+                              &lt;/tbody&gt;&lt;/table&gt;
+                            &lt;/td&gt;&lt;td&gt;
+                            &lt;/td&gt;&lt;td style="vertical-align: bottom;"&gt;
+                              &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; "&gt;
+                                &lt;p style="font-size: 14px;
+    color: #252528;
+    letter-spacing: 0;
+    display: inline-block;
+    text-align: right;
+    width: 558px;
+    padding-top: 55px;"&gt;&lt;/p&gt;
+                              &lt;/div&gt;
+                            &lt;/td&gt;
+                          &lt;/tr&gt;
+                        &lt;/tbody&gt;&lt;/table&gt;
+                      &lt;/div&gt;
+                      &lt;div style="padding: 68px 40px; border-width: 0px 1px; border-bottom-style: initial; border-bottom-color: initial; border-top-style: initial; border-top-color: initial; border-left-style: solid; border-left-color: rgb(230, 230, 230); border-right-style: solid; border-right-color: rgb(230, 230, 230); border-radius: 2px; background: rgb(255, 255, 255);"&gt;
+                        &lt;div style=""&gt;
+                                  &lt;p&gt;您在项目“${projectName}”下“${envName}”环境中创建的证书“${resourceName}”失败。&lt;/p&gt;
+                        &lt;/div&gt;
+                        &lt;div class="mj-column-per-100 outlook-group-fix" style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; text-align: left; direction: ltr; display: inline-block; vertical-align: top; width: 100%;"&gt;
+                          &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="vertical-align:top;" width="100%"&gt;
+                            &lt;tbody&gt;&lt;tr&gt;
+                              &lt;td align="center" vertical-align="middle" style="font-size:0px;padding:10px 25px;padding-top:60px;word-break:break-word;"&gt;
+                                &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="border-collapse:separate;width:212px;line-height:100%;"&gt;
+                                  &lt;tbody&gt;&lt;tr&gt;
+                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#3f51b5;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
+                                      查看详情
+                                    &lt;/a&gt; &lt;/td&gt;
+                                  &lt;/tr&gt;
+                                &lt;/tbody&gt;&lt;/table&gt;&lt;br&gt;
+                              &lt;/td&gt;
+                            &lt;/tr&gt;
+                          &lt;/tbody&gt;&lt;/table&gt;
+                        &lt;/div&gt;
+                      &lt;/div&gt;
+                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px;"&gt;
+                        &lt;div style="text-align: justify;"&gt;
+                          &lt;table style="height: 148px; background-color: #f7f7f7;width: 100%;"&gt;
+                            &lt;tbody&gt;&lt;tr&gt;
+                              &lt;td style="padding-left: 29px;"&gt;
+                                &lt;table&gt;
+                                  &lt;tbody&gt;&lt;tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:90px;" width="90" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                  &lt;tr&gt;
+                                    &lt;td style="text-align: center"&gt;微信公众号&lt;/td&gt;
+                                  &lt;/tr&gt;
+                                &lt;/tbody&gt;&lt;/table&gt;
+                              &lt;/td&gt;&lt;td&gt;
+                              &lt;/td&gt;&lt;td&gt;
+                                &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; vertical-align: top;"&gt;
+                                  &lt;p style="font-size: 12px;
       color: #626774;
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;"&gt; 此邮件为系统邮件，请勿回复。 &lt;/p&gt;
-                                                                    &lt;p style="font-size: 12px;
+                                  &lt;p style="font-size: 12px;
       color: #626774;
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px"
-                                                          href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt;或 &lt;a
-                                                                            style="text-decoration:none;font-size: 12px"
-                                                                            href="http://choerodon.io/zh/docs/"
-                                                                            target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
-                                                                    &lt;p style="font-size: 12px;
+      margin-top: 0;"&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt;或 &lt;a style="text-decoration:none;font-size: 12px" href="http://choerodon.io/zh/docs/" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+                                  &lt;p style="font-size: 12px;
       color: #626774;
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px"
-                                               href="http://forum.choerodon.io/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
-                                                                    &lt;p style="font-size: 12px;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px" href="http://forum.choerodon.io/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
+                                  &lt;p style="font-size: 12px;
       color: #626774;
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：choerodon@vip.hand-china.com&lt;/p&gt;
-                                                                &lt;/div&gt;
-                                                            &lt;/td&gt;
-                                                        &lt;/tr&gt;
-                                                    &lt;/table&gt;
-                                                &lt;/div&gt;
-                                            &lt;/div&gt;
-                                            &lt;div style="width: 600px;
-      height: 34px;
-      background: #3F51B5;
-      "&gt;
-                                                &lt;p style="opacity: 0.8;
+                                &lt;/div&gt;
+                              &lt;/td&gt;
+                            &lt;/tr&gt;
+                          &lt;/tbody&gt;&lt;/table&gt;
+                        &lt;/div&gt;
+                      &lt;/div&gt;
+                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; width: 782px; height: 34px; background: rgb(63, 81, 181);"&gt;
+                        &lt;p style="opacity: 0.8;
       font-size: 10px;
       color: #FFFFFF;
       text-align: center;
@@ -2860,372 +2837,359 @@
       line-height: 34px;
       width: 100%;
       margin: 0 auto;"&gt;Copyright © The Choerodon Author. All rights reserved.&lt;/p&gt;
-                                            &lt;/div&gt;
-                                        &lt;/div&gt;
-                                        &lt;/body&gt;
-                                    &lt;/div&gt;
-                                &lt;/td&gt;
+                      &lt;/div&gt;
+                    &lt;/div&gt;
+                  &lt;/div&gt;
+                &lt;/td&gt;
+              &lt;/tr&gt;
+            &lt;/tbody&gt;&lt;/table&gt;
+          &lt;/div&gt;
+          &lt;!--[if mso | IE]&gt;
+          &lt;/td&gt;
+          &lt;/tr&gt;
+          &lt;/table&gt;
+          &lt;![endif]--&gt;
+        &lt;/td&gt;
+      &lt;/tr&gt;
+      &lt;/tbody&gt;
+    &lt;/table&gt;&lt;br&gt;
+  &lt;/div&gt;
+  &lt;!--[if mso | IE]&gt;
+  &lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;/table&gt;
+  &lt;![endif]--&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-23</t>
+  </si>
+  <si>
+    <t>CERTIFICATION_FAILURE.WEB</t>
+  </si>
+  <si>
+    <t>证书创建失败</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;您在项目“${projectName}”下“${envName}”环境中创建的证书“${resourceName}”失败。&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-24</t>
+  </si>
+  <si>
+    <t>CONTINUOUS_DELIVERY_SUCCESS_JSON</t>
+  </si>
+  <si>
+    <t>持续集成流水线成功</t>
+  </si>
+  <si>
+    <t>{"objectKind":"${objectKind}","createdAt":"${createdAt}","eventName":"${eventName}","user":{"loginName":"${loginName}","userName":"${userName}"},"objectAttributes":{"appServiceId":"${appServiceId}","appServiceName":"${appServiceName}","projectName":"${projectName}","projectId":"${projectId}","status":"${status}"}}</t>
+  </si>
+  <si>
+    <t>code-management-notice</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-25</t>
+  </si>
+  <si>
+    <t>CREATE_APP_SERVICE_JSON</t>
+  </si>
+  <si>
+    <t>创建应用服务Json</t>
+  </si>
+  <si>
+    <t>{"objectKind":"${objectKind}","createdAt":"${createdAt}","eventName":"${eventName}","user":{"loginName":"${loginName}","userName":"${userName}"},"objectAttributes":{"appServerCode":"${appServerCode}","appServerType":"${appServerType}","appServerId":"${appServerId}","appServerName":"${appServerName}","projectId":"${projectId}"}}</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-26</t>
+  </si>
+  <si>
+    <t>CREATE_CLUSTER_FAILED_JSON</t>
+  </si>
+  <si>
+    <t>创建集群失败</t>
+  </si>
+  <si>
+    <t>{"objectKind":"${objectKind}","createdAt":"${createdAt}","eventName":"${eventName}","user":{"loginName":"${loginName}","userName":"${userName}"},"objectAttributes":{"organizationId":"${organizationId}","msg":"${msg}","clusterName":"${clusterName}","clusterCode":"${clusterCode}","clusterId":"${clusterId}"}}</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-27</t>
+  </si>
+  <si>
+    <t>CREATE_CLUSTER_JSON</t>
+  </si>
+  <si>
+    <t>创建集群Json</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-28</t>
+  </si>
+  <si>
+    <t>CREATE_ENV_FAILED_JSON</t>
+  </si>
+  <si>
+    <t>创建环境失败Json</t>
+  </si>
+  <si>
+    <t>{"objectKind":"${objectKind}","createdAt":"${createdAt}","eventName":"${eventName}","user":{"loginName":"${loginName}","userName":"${userName}"},"objectAttributes":{"organizationId":"${organizationId}","msg":"${msg}","envCode":"${envCode}","envName":"${envName}","clusterId":"${clusterId}","enveId":"${enveId}"}}</t>
+  </si>
+  <si>
+    <t>env-notice</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-29</t>
+  </si>
+  <si>
+    <t>CREATE_ENV_JSON</t>
+  </si>
+  <si>
+    <t>创建环境Json</t>
+  </si>
+  <si>
+    <t>{"objectKind":"${objectKind}","createdAt":"${createdAt}","eventName":"${eventName}","user":{"loginName":"${loginName}","userName":"${userName}"},"objectAttributes":{"organizationId":"${organizationId}","envCode":"${envCode}","envName":"${envName}","clusterId":"${clusterId}","enveId":"${enveId}"}}</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-32</t>
+  </si>
+  <si>
+    <t>CREATE_RESOURCE_FAILED_JSON</t>
+  </si>
+  <si>
+    <t>创建资源失败</t>
+  </si>
+  <si>
+    <t>{"objectKind":"${objectKind}","createdAt":"${createdAt}","eventName":"${eventName}","user":{"loginName":"${loginName}","userName":"${userName}"},"objectAttributes":{"resourceId":"${resourceId}","envName":"${envName}","k8sKind":"${k8sKind}","resourceName":"${resourceName}","envId":"${envId}","projectName":"${projectName}","projectid":"${projectid}"}}</t>
+  </si>
+  <si>
+    <t>resource-security-notice</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-33</t>
+  </si>
+  <si>
+    <t>CREATE_RESOURCE_JSON</t>
+  </si>
+  <si>
+    <t>创建资源</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-34</t>
+  </si>
+  <si>
+    <t>DELETE_APP_SERVICE_JSON</t>
+  </si>
+  <si>
+    <t>删除应用服务Json</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-35</t>
+  </si>
+  <si>
+    <t>DELETE_APP_SERVICE.EMAIL</t>
+  </si>
+  <si>
+    <t>&lt;title&gt; &lt;/title&gt;
+  &lt;!--[if !mso]&gt;&lt;!-- --&gt;
+  &lt;meta http-equiv="X-UA-Compatible" content="IE=edge"&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;meta http-equiv="Content-Type" content="text/html; charset=UTF-8"&gt;
+  &lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt;
+  &lt;style type="text/css"&gt;
+    #outlook a {
+      padding: 0;
+    }
+    .ReadMsgBody {
+      width: 100%;
+    }
+    .ExternalClass {
+      width: 100%;
+    }
+    .ExternalClass * {
+      line-height: 100%;
+    }
+    body {
+      margin: 0;
+      padding: 0;
+      -webkit-text-size-adjust: 100%;
+      -ms-text-size-adjust: 100%;
+    }
+    table,
+    td {
+      border-collapse: collapse;
+      mso-table-lspace: 0pt;
+      mso-table-rspace: 0pt;
+    }
+    img {
+      border: 0;
+      height: auto;
+      line-height: 100%;
+      outline: none;
+      text-decoration: none;
+      -ms-interpolation-mode: bicubic;
+    }
+    p {
+      display: block;
+      margin: 13px 0;
+    }
+  &lt;/style&gt;
+  &lt;!--[if !mso]&gt;&lt;!--&gt;
+  &lt;style type="text/css"&gt;
+    @media only screen and (max-width:480px) {
+      @-ms-viewport {
+        width: 320px;
+      }
+      @viewport {
+        width: 320px;
+      }
+    }
+  &lt;/style&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;!--[if mso]&gt;
+  &lt;xml&gt;
+    &lt;o:OfficeDocumentSettings&gt;
+      &lt;o:AllowPNG/&gt;
+      &lt;o:PixelsPerInch&gt;96&lt;/o:PixelsPerInch&gt;
+    &lt;/o:OfficeDocumentSettings&gt;
+  &lt;/xml&gt;
+  &lt;![endif]--&gt;
+  &lt;!--[if lte mso 11]&gt;
+  &lt;style type="text/css"&gt;
+    .outlook-group-fix { width:100% !important; }
+  &lt;/style&gt;
+  &lt;![endif]--&gt;
+  &lt;!--[if !mso]&gt;&lt;!--&gt;
+  &lt;link href="https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700" rel="stylesheet" type="text/css"&gt;
+  &lt;style type="text/css"&gt;
+    @import url(https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700);
+  &lt;/style&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;style type="text/css"&gt;
+    @media only screen and (min-width:480px) {
+      .mj-column-per-100 {
+        width: 100% !important;
+        max-width: 100%;
+      }
+    }
+  &lt;/style&gt;
+  &lt;style type="text/css"&gt;
+  &lt;/style&gt;
+&lt;div style=""&gt;
+  &lt;!--[if mso | IE]&gt;
+  &lt;table
+          align="center" border="0" cellpadding="0" cellspacing="0" class="" style="width:782px;" width="782"
+  &gt;
+    &lt;tr&gt;
+      &lt;td style="line-height:0px;font-size:0px;mso-line-height-rule:exactly;"&gt;
+  &lt;![endif]--&gt;
+  &lt;div style="Margin:0px auto;max-width:782px;"&gt;
+    &lt;table align="center" border="0" cellpadding="0" cellspacing="0" role="presentation" style="width:100%;"&gt;
+      &lt;tbody&gt;
+      &lt;tr&gt;
+        &lt;td style="direction:ltr;font-size:0px;padding:20px 0;text-align:center;vertical-align:top;"&gt;
+          &lt;!--[if mso | IE]&gt;
+          &lt;table role="presentation" border="0" cellpadding="0" cellspacing="0"&gt;
+            &lt;tr&gt;
+              &lt;td
+                      class="" style="vertical-align:top;width:782px;"
+              &gt;
+          &lt;![endif]--&gt;
+          &lt;div class="mj-column-per-100 outlook-group-fix" style="font-size:13px;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%;"&gt;
+            &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="vertical-align:top;" width="100%"&gt;
+              &lt;tbody&gt;&lt;tr&gt;
+                &lt;td align="left" style="padding: 10px 25px; word-break: break-word;"&gt;
+                  &lt;div style="line-height: 1; text-align: left;"&gt;
+                    &lt;div style="width: 782px; background: rgb(255, 255, 255); margin: 0px auto;"&gt;
+                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; height: 115px; background-color: rgb(255, 255, 255); border-bottom: 8px solid rgb(63, 81, 181);"&gt;
+                        &lt;table&gt;
+                          &lt;tbody&gt;&lt;tr&gt;
+                            &lt;td style="padding-bottom: 0;vertical-align: bottom;"&gt;
+                              &lt;table&gt;
+                                &lt;tbody&gt;&lt;tr&gt;
+                                  &lt;td style="width:190px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                                &lt;/tr&gt;
+                              &lt;/tbody&gt;&lt;/table&gt;
+                            &lt;/td&gt;&lt;td&gt;
+                            &lt;/td&gt;&lt;td style="vertical-align: bottom;"&gt;
+                              &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; "&gt;
+                                &lt;p style="font-size: 14px;
+    color: #252528;
+    letter-spacing: 0;
+    display: inline-block;
+    text-align: right;
+    width: 558px;
+    padding-top: 55px;"&gt;&lt;/p&gt;
+                              &lt;/div&gt;
+                            &lt;/td&gt;
+                          &lt;/tr&gt;
+                        &lt;/tbody&gt;&lt;/table&gt;
+                      &lt;/div&gt;
+                      &lt;div style="padding: 68px 40px; border-width: 0px 1px; border-bottom-style: initial; border-bottom-color: initial; border-top-style: initial; border-top-color: initial; border-left-style: solid; border-left-color: rgb(230, 230, 230); border-right-style: solid; border-right-color: rgb(230, 230, 230); border-radius: 2px; background: rgb(255, 255, 255);"&gt;
+                        &lt;div style=""&gt;
+                                项目“${projectName}”下的应用服务“${appServiceName}”已被删除。&lt;/p&gt;
+                        &lt;/div&gt;
+                        &lt;div class="mj-column-per-100 outlook-group-fix" style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; text-align: left; direction: ltr; display: inline-block; vertical-align: top; width: 100%;"&gt;
+                          &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="vertical-align:top;" width="100%"&gt;
+                            &lt;tbody&gt;&lt;tr&gt;
+                              &lt;td align="center" vertical-align="middle" style="font-size:0px;padding:10px 25px;padding-top:60px;word-break:break-word;"&gt;
+                                &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="border-collapse:separate;width:212px;line-height:100%;"&gt;
+                                  &lt;tbody&gt;&lt;tr&gt;
+                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#3f51b5;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
+                                      查看详情
+                                    &lt;/a&gt; &lt;/td&gt;
+                                  &lt;/tr&gt;
+                                &lt;/tbody&gt;&lt;/table&gt;&lt;br&gt;
+                              &lt;/td&gt;
                             &lt;/tr&gt;
-                        &lt;/table&gt;
-                    &lt;/div&gt;
-                    &lt;!--[if mso | IE]&gt;
-                    &lt;/td&gt;
-                    &lt;/tr&gt;
-                    &lt;/table&gt;
-                    &lt;![endif]--&gt;
-                &lt;/td&gt;
-            &lt;/tr&gt;
-            &lt;/tbody&gt;
-        &lt;/table&gt;
-    &lt;/div&gt;
-    &lt;!--[if mso | IE]&gt;
-    &lt;/td&gt;
-    &lt;/tr&gt;
-    &lt;/table&gt;
-    &lt;![endif]--&gt;
-&lt;/div&gt;
-&lt;/body&gt;
-&lt;/html&gt;</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-23</t>
-  </si>
-  <si>
-    <t>CERTIFICATION_FAILURE.WEB</t>
-  </si>
-  <si>
-    <t>证书创建失败</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;您在项目“${projectName}”下“${envName}”环境中创建的证书“${resourceName}”失败。&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-24</t>
-  </si>
-  <si>
-    <t>CONTINUOUS_DELIVERY_SUCCESS_JSON</t>
-  </si>
-  <si>
-    <t>持续集成流水线成功</t>
-  </si>
-  <si>
-    <t>{"objectKind":"${objectKind}","createdAt":"${createdAt}","eventName":"${eventName}","user":{"loginName":"${loginName}","userName":"${userName}"},"objectAttributes":{"appServiceId":"${appServiceId}","appServiceName":"${appServiceName}","projectName":"${projectName}","projectId":"${projectId}","status":"${status}"}}</t>
-  </si>
-  <si>
-    <t>code-management-notice</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-25</t>
-  </si>
-  <si>
-    <t>CREATE_APP_SERVICE_JSON</t>
-  </si>
-  <si>
-    <t>创建应用服务Json</t>
-  </si>
-  <si>
-    <t>{"objectKind":"${objectKind}","createdAt":"${createdAt}","eventName":"${eventName}","user":{"loginName":"${loginName}","userName":"${userName}"},"objectAttributes":{"appServerCode":"${appServerCode}","appServerType":"${appServerType}","appServerId":"${appServerId}","appServerName":"${appServerName}","projectId":"${projectId}"}}</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-26</t>
-  </si>
-  <si>
-    <t>CREATE_CLUSTER_FAILED_JSON</t>
-  </si>
-  <si>
-    <t>创建集群失败</t>
-  </si>
-  <si>
-    <t>{"objectKind":"${objectKind}","createdAt":"${createdAt}","eventName":"${eventName}","user":{"loginName":"${loginName}","userName":"${userName}"},"objectAttributes":{"organizationId":"${organizationId}","msg":"${msg}","clusterName":"${clusterName}","clusterCode":"${clusterCode}","clusterId":"${clusterId}"}}</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-27</t>
-  </si>
-  <si>
-    <t>CREATE_CLUSTER_JSON</t>
-  </si>
-  <si>
-    <t>创建集群Json</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-28</t>
-  </si>
-  <si>
-    <t>CREATE_ENV_FAILED_JSON</t>
-  </si>
-  <si>
-    <t>创建环境失败Json</t>
-  </si>
-  <si>
-    <t>{"objectKind":"${objectKind}","createdAt":"${createdAt}","eventName":"${eventName}","user":{"loginName":"${loginName}","userName":"${userName}"},"objectAttributes":{"organizationId":"${organizationId}","msg":"${msg}","envCode":"${envCode}","envName":"${envName}","clusterId":"${clusterId}","enveId":"${enveId}"}}</t>
-  </si>
-  <si>
-    <t>env-notice</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-29</t>
-  </si>
-  <si>
-    <t>CREATE_ENV_JSON</t>
-  </si>
-  <si>
-    <t>创建环境Json</t>
-  </si>
-  <si>
-    <t>{"objectKind":"${objectKind}","createdAt":"${createdAt}","eventName":"${eventName}","user":{"loginName":"${loginName}","userName":"${userName}"},"objectAttributes":{"organizationId":"${organizationId}","envCode":"${envCode}","envName":"${envName}","clusterId":"${clusterId}","enveId":"${enveId}"}}</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-32</t>
-  </si>
-  <si>
-    <t>CREATE_RESOURCE_FAILED_JSON</t>
-  </si>
-  <si>
-    <t>创建资源失败</t>
-  </si>
-  <si>
-    <t>{"objectKind":"${objectKind}","createdAt":"${createdAt}","eventName":"${eventName}","user":{"loginName":"${loginName}","userName":"${userName}"},"objectAttributes":{"resourceId":"${resourceId}","envName":"${envName}","k8sKind":"${k8sKind}","resourceName":"${resourceName}","envId":"${envId}","projectName":"${projectName}","projectid":"${projectid}"}}</t>
-  </si>
-  <si>
-    <t>resource-security-notice</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-33</t>
-  </si>
-  <si>
-    <t>CREATE_RESOURCE_JSON</t>
-  </si>
-  <si>
-    <t>创建资源</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-34</t>
-  </si>
-  <si>
-    <t>DELETE_APP_SERVICE_JSON</t>
-  </si>
-  <si>
-    <t>删除应用服务Json</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-35</t>
-  </si>
-  <si>
-    <t>DELETE_APP_SERVICE.EMAIL</t>
-  </si>
-  <si>
-    <t>&lt;!doctype html&gt;
-&lt;html xmlns="http://www.w3.org/1999/xhtml" xmlns:v="urn:schemas-microsoft-com:vml"
-      xmlns:o="urn:schemas-microsoft-com:office:office"&gt;
-&lt;head&gt;
-    &lt;title&gt;&lt;/title&gt;
-    &lt;!--[if !mso]&gt;&lt;!-- --&gt;
-    &lt;meta http-equiv="X-UA-Compatible" content="IE=edge"&gt;
-    &lt;!--&lt;![endif]--&gt;
-    &lt;meta http-equiv="Content-Type" content="text/html; charset=UTF-8"&gt;
-    &lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt;
-    &lt;style type="text/css"&gt;
-        #outlook a {
-            padding: 0;
-        }
-        .ReadMsgBody {
-            width: 100%;
-        }
-        .ExternalClass {
-            width: 100%;
-        }
-        .ExternalClass * {
-            line-height: 100%;
-        }
-        body {
-            margin: 0;
-            padding: 0;
-            -webkit-text-size-adjust: 100%;
-            -ms-text-size-adjust: 100%;
-        }
-        table,
-        td {
-            border-collapse: collapse;
-            mso-table-lspace: 0pt;
-            mso-table-rspace: 0pt;
-        }
-        img {
-            border: 0;
-            height: auto;
-            line-height: 100%;
-            outline: none;
-            text-decoration: none;
-            -ms-interpolation-mode: bicubic;
-        }
-        p {
-            display: block;
-            margin: 13px 0;
-        }
-    &lt;/style&gt;
-    &lt;!--[if !mso]&gt;&lt;!--&gt;
-    &lt;style type="text/css"&gt;
-        @media only screen and (max-width: 480px) {
-            @-ms-viewport {
-                width: 320px;
-            }
-            @viewport {
-                width: 320px;
-            }
-        }
-    &lt;/style&gt;
-    &lt;!--&lt;![endif]--&gt;
-    &lt;!--[if mso]&gt;
-    &lt;xml&gt;
-        &lt;o:OfficeDocumentSettings&gt;
-            &lt;o:AllowPNG/&gt;
-            &lt;o:PixelsPerInch&gt;96&lt;/o:PixelsPerInch&gt;
-        &lt;/o:OfficeDocumentSettings&gt;
-    &lt;/xml&gt;
-    &lt;![endif]--&gt;
-    &lt;!--[if lte mso 11]&gt;
-    &lt;style type="text/css"&gt;
-        .outlook-group-fix {
-            width: 100% !important;
-        }
-    &lt;/style&gt;
-    &lt;![endif]--&gt;
-    &lt;!--[if !mso]&gt;&lt;!--&gt;
-    &lt;link href="https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700" rel="stylesheet" type="text/css"&gt;
-    &lt;style type="text/css"&gt;
-        @import url(https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700);
-    &lt;/style&gt;
-    &lt;!--&lt;![endif]--&gt;
-    &lt;style type="text/css"&gt;
-        @media only screen and (min-width: 480px) {
-            .mj-column-per-100 {
-                width: 100% !important;
-                max-width: 100%;
-            }
-        }
-    &lt;/style&gt;
-    &lt;style type="text/css"&gt;
-    &lt;/style&gt;
-&lt;/head&gt;
-&lt;body&gt;
-&lt;div style=""&gt;
-    &lt;!--[if mso | IE]&gt;
-    &lt;table
-            align="center" border="0" cellpadding="0" cellspacing="0" class="" style="width:600px;" width="782"
-    &gt;
-        &lt;tr&gt;
-            &lt;td style="line-height:0px;font-size:0px;mso-line-height-rule:exactly;"&gt;
-    &lt;![endif]--&gt;
-    &lt;div style="Margin:0px auto;max-width:600px;"&gt;
-        &lt;table align="center" border="0" cellpadding="0" cellspacing="0" role="presentation" style="width:100%;"&gt;
-            &lt;tbody&gt;
-            &lt;tr&gt;
-                &lt;td style="direction:ltr;font-size:0px;padding:20px 0;text-align:center;vertical-align:top;"&gt;
-                    &lt;!--[if mso | IE]&gt;
-                    &lt;table role="presentation" border="0" cellpadding="0" cellspacing="0"&gt;
-                        &lt;tr&gt;
-                            &lt;td
-                                    class="" style="vertical-align:top;width:600px;"
-                            &gt;
-                    &lt;![endif]--&gt;
-                    &lt;div class="mj-column-per-100 outlook-group-fix"
-                         style="font-size:13px;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%;"&gt;
-                        &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation"
-                               style="vertical-align:top;" width="100%"&gt;
-                            &lt;tr&gt;
-                                &lt;td align="left" style="font-size:0px;padding:20px 25px;word-break:break-word;"&gt;
-                                    &lt;div style="font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;line-height:1;text-align:left;color:#000000;"&gt;
-                                        &lt;body&gt;
-                                        &lt;div style="width: 600px;
-      background: #FFFFFF;
-      margin: 0 auto;"&gt;
-                                            &lt;div style="height: 55px;
-      background-color: #ffffff;
-      border-bottom: 8px solid #3F51B5;"&gt;
-                                                &lt;table&gt;
-                                                    &lt;tr&gt;
-                                                        &lt;td style="padding-bottom: 0;vertical-align: bottom;"&gt;
-                                                            &lt;table&gt;
-                                                                &lt;tr&gt;
-                                                                    &lt;td style="width:190px;"&gt;&lt;img height="auto"
-                                                                                                  src="https://file.choerodon.com.cn/static/choerodon.png"
-                                                                                                  style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;"
-                                                                                                  width="190"/&gt;&lt;/td&gt;
-                                                                &lt;/tr&gt;
-                                                            &lt;/table&gt;
-                                                        &lt;td&gt;
-                                                    &lt;/tr&gt;
-                                                &lt;/table&gt;
-                                            &lt;/div&gt;
-                                            &lt;div style="padding: 30px 40px;
-      border-bottom: 0;
-      border-top: 0;
-      border-left:1px solid #E6E6E6;
-      border-right:1px solid #E6E6E6;
-      border-radius: 2px;
-      background: #FFFFFF;"&gt;
-                                                &lt;div&gt;
-            项目“${projectName}”下的应用服务“${appServiceName}”已被删除。&lt;/p&gt;
-                                                   &lt;/div&gt;
-                                            &lt;/div&gt;
-                                            &lt;div&gt;
-                                                &lt;div style="text-align: justify;"&gt;
-                                                    &lt;table style="height: 148px; background-color: #f7f7f7;width: 100%;"&gt;
-                                                        &lt;tr&gt;
-                                                            &lt;td style="padding-left: 29px;"&gt;
-                                                                &lt;table&gt;
-                                                                    &lt;tr&gt;
-                                                                        &lt;td&gt;&lt;img height="auto"
-                                                                                 style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:90px;"
-                                                                                 width="90"
-                                                                                 src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt;
-                                                                    &lt;/tr&gt;
-                                                                    &lt;tr&gt;
-                                                                        &lt;td style="text-align: center"&gt;微信公众号&lt;/td&gt;
-                                                                    &lt;/tr&gt;
-                                                                &lt;/table&gt;
-                                                            &lt;td&gt;
-                                                            &lt;td&gt;
-                                                                &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; vertical-align: top;"&gt;
-                                                                    &lt;p style="font-size: 12px;
+                          &lt;/tbody&gt;&lt;/table&gt;
+                        &lt;/div&gt;
+                      &lt;/div&gt;
+                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px;"&gt;
+                        &lt;div style="text-align: justify;"&gt;
+                          &lt;table style="height: 148px; background-color: #f7f7f7;width: 100%;"&gt;
+                            &lt;tbody&gt;&lt;tr&gt;
+                              &lt;td style="padding-left: 29px;"&gt;
+                                &lt;table&gt;
+                                  &lt;tbody&gt;&lt;tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:90px;" width="90" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                  &lt;tr&gt;
+                                    &lt;td style="text-align: center"&gt;微信公众号&lt;/td&gt;
+                                  &lt;/tr&gt;
+                                &lt;/tbody&gt;&lt;/table&gt;
+                              &lt;/td&gt;&lt;td&gt;
+                              &lt;/td&gt;&lt;td&gt;
+                                &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; vertical-align: top;"&gt;
+                                  &lt;p style="font-size: 12px;
       color: #626774;
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;"&gt; 此邮件为系统邮件，请勿回复。 &lt;/p&gt;
-                                                                    &lt;p style="font-size: 12px;
+                                  &lt;p style="font-size: 12px;
       color: #626774;
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px"
-                                                          href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt;或 &lt;a
-                                                                            style="text-decoration:none;font-size: 12px"
-                                                                            href="http://choerodon.io/zh/docs/"
-                                                                            target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
-                                                                    &lt;p style="font-size: 12px;
+      margin-top: 0;"&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt;或 &lt;a style="text-decoration:none;font-size: 12px" href="http://choerodon.io/zh/docs/" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+                                  &lt;p style="font-size: 12px;
       color: #626774;
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px"
-                                               href="http://forum.choerodon.io/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
-                                                                    &lt;p style="font-size: 12px;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px" href="http://forum.choerodon.io/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
+                                  &lt;p style="font-size: 12px;
       color: #626774;
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：choerodon@vip.hand-china.com&lt;/p&gt;
-                                                                &lt;/div&gt;
-                                                            &lt;/td&gt;
-                                                        &lt;/tr&gt;
-                                                    &lt;/table&gt;
-                                                &lt;/div&gt;
-                                            &lt;/div&gt;
-                                            &lt;div style="width: 600px;
-      height: 34px;
-      background: #3F51B5;
-      "&gt;
-                                                &lt;p style="opacity: 0.8;
+                                &lt;/div&gt;
+                              &lt;/td&gt;
+                            &lt;/tr&gt;
+                          &lt;/tbody&gt;&lt;/table&gt;
+                        &lt;/div&gt;
+                      &lt;/div&gt;
+                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; width: 782px; height: 34px; background: rgb(63, 81, 181);"&gt;
+                        &lt;p style="opacity: 0.8;
       font-size: 10px;
       color: #FFFFFF;
       text-align: center;
@@ -3233,32 +3197,29 @@
       line-height: 34px;
       width: 100%;
       margin: 0 auto;"&gt;Copyright © The Choerodon Author. All rights reserved.&lt;/p&gt;
-                                            &lt;/div&gt;
-                                        &lt;/div&gt;
-                                        &lt;/body&gt;
-                                    &lt;/div&gt;
-                                &lt;/td&gt;
-                            &lt;/tr&gt;
-                        &lt;/table&gt;
+                      &lt;/div&gt;
                     &lt;/div&gt;
-                    &lt;!--[if mso | IE]&gt;
-                    &lt;/td&gt;
-                    &lt;/tr&gt;
-                    &lt;/table&gt;
-                    &lt;![endif]--&gt;
+                  &lt;/div&gt;
                 &lt;/td&gt;
-            &lt;/tr&gt;
-            &lt;/tbody&gt;
-        &lt;/table&gt;
-    &lt;/div&gt;
-    &lt;!--[if mso | IE]&gt;
-    &lt;/td&gt;
-    &lt;/tr&gt;
-    &lt;/table&gt;
-    &lt;![endif]--&gt;
-&lt;/div&gt;
-&lt;/body&gt;
-&lt;/html&gt;</t>
+              &lt;/tr&gt;
+            &lt;/tbody&gt;&lt;/table&gt;
+          &lt;/div&gt;
+          &lt;!--[if mso | IE]&gt;
+          &lt;/td&gt;
+          &lt;/tr&gt;
+          &lt;/table&gt;
+          &lt;![endif]--&gt;
+        &lt;/td&gt;
+      &lt;/tr&gt;
+      &lt;/tbody&gt;
+    &lt;/table&gt;&lt;br&gt;
+  &lt;/div&gt;
+  &lt;!--[if mso | IE]&gt;
+  &lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;/table&gt;
+  &lt;![endif]--&gt;
+&lt;/div&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-36</t>
@@ -3347,218 +3308,208 @@
     <t>DISABLE_APP_SERVICE.EMAIL</t>
   </si>
   <si>
-    <t>&lt;!doctype html&gt;
-&lt;html xmlns="http://www.w3.org/1999/xhtml" xmlns:v="urn:schemas-microsoft-com:vml"
-      xmlns:o="urn:schemas-microsoft-com:office:office"&gt;
-&lt;head&gt;
-    &lt;title&gt;&lt;/title&gt;
-    &lt;!--[if !mso]&gt;&lt;!-- --&gt;
-    &lt;meta http-equiv="X-UA-Compatible" content="IE=edge"&gt;
-    &lt;!--&lt;![endif]--&gt;
-    &lt;meta http-equiv="Content-Type" content="text/html; charset=UTF-8"&gt;
-    &lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt;
-    &lt;style type="text/css"&gt;
-        #outlook a {
-            padding: 0;
-        }
-        .ReadMsgBody {
-            width: 100%;
-        }
-        .ExternalClass {
-            width: 100%;
-        }
-        .ExternalClass * {
-            line-height: 100%;
-        }
-        body {
-            margin: 0;
-            padding: 0;
-            -webkit-text-size-adjust: 100%;
-            -ms-text-size-adjust: 100%;
-        }
-        table,
-        td {
-            border-collapse: collapse;
-            mso-table-lspace: 0pt;
-            mso-table-rspace: 0pt;
-        }
-        img {
-            border: 0;
-            height: auto;
-            line-height: 100%;
-            outline: none;
-            text-decoration: none;
-            -ms-interpolation-mode: bicubic;
-        }
-        p {
-            display: block;
-            margin: 13px 0;
-        }
-    &lt;/style&gt;
-    &lt;!--[if !mso]&gt;&lt;!--&gt;
-    &lt;style type="text/css"&gt;
-        @media only screen and (max-width: 480px) {
-            @-ms-viewport {
-                width: 320px;
-            }
-            @viewport {
-                width: 320px;
-            }
-        }
-    &lt;/style&gt;
-    &lt;!--&lt;![endif]--&gt;
-    &lt;!--[if mso]&gt;
-    &lt;xml&gt;
-        &lt;o:OfficeDocumentSettings&gt;
-            &lt;o:AllowPNG/&gt;
-            &lt;o:PixelsPerInch&gt;96&lt;/o:PixelsPerInch&gt;
-        &lt;/o:OfficeDocumentSettings&gt;
-    &lt;/xml&gt;
-    &lt;![endif]--&gt;
-    &lt;!--[if lte mso 11]&gt;
-    &lt;style type="text/css"&gt;
-        .outlook-group-fix {
-            width: 100% !important;
-        }
-    &lt;/style&gt;
-    &lt;![endif]--&gt;
-    &lt;!--[if !mso]&gt;&lt;!--&gt;
-    &lt;link href="https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700" rel="stylesheet" type="text/css"&gt;
-    &lt;style type="text/css"&gt;
-        @import url(https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700);
-    &lt;/style&gt;
-    &lt;!--&lt;![endif]--&gt;
-    &lt;style type="text/css"&gt;
-        @media only screen and (min-width: 480px) {
-            .mj-column-per-100 {
-                width: 100% !important;
-                max-width: 100%;
-            }
-        }
-    &lt;/style&gt;
-    &lt;style type="text/css"&gt;
-    &lt;/style&gt;
-&lt;/head&gt;
-&lt;body&gt;
+    <t>&lt;title&gt; &lt;/title&gt;
+  &lt;!--[if !mso]&gt;&lt;!-- --&gt;
+  &lt;meta http-equiv="X-UA-Compatible" content="IE=edge"&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;meta http-equiv="Content-Type" content="text/html; charset=UTF-8"&gt;
+  &lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt;
+  &lt;style type="text/css"&gt;
+    #outlook a {
+      padding: 0;
+    }
+    .ReadMsgBody {
+      width: 100%;
+    }
+    .ExternalClass {
+      width: 100%;
+    }
+    .ExternalClass * {
+      line-height: 100%;
+    }
+    body {
+      margin: 0;
+      padding: 0;
+      -webkit-text-size-adjust: 100%;
+      -ms-text-size-adjust: 100%;
+    }
+    table,
+    td {
+      border-collapse: collapse;
+      mso-table-lspace: 0pt;
+      mso-table-rspace: 0pt;
+    }
+    img {
+      border: 0;
+      height: auto;
+      line-height: 100%;
+      outline: none;
+      text-decoration: none;
+      -ms-interpolation-mode: bicubic;
+    }
+    p {
+      display: block;
+      margin: 13px 0;
+    }
+  &lt;/style&gt;
+  &lt;!--[if !mso]&gt;&lt;!--&gt;
+  &lt;style type="text/css"&gt;
+    @media only screen and (max-width:480px) {
+      @-ms-viewport {
+        width: 320px;
+      }
+      @viewport {
+        width: 320px;
+      }
+    }
+  &lt;/style&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;!--[if mso]&gt;
+  &lt;xml&gt;
+    &lt;o:OfficeDocumentSettings&gt;
+      &lt;o:AllowPNG/&gt;
+      &lt;o:PixelsPerInch&gt;96&lt;/o:PixelsPerInch&gt;
+    &lt;/o:OfficeDocumentSettings&gt;
+  &lt;/xml&gt;
+  &lt;![endif]--&gt;
+  &lt;!--[if lte mso 11]&gt;
+  &lt;style type="text/css"&gt;
+    .outlook-group-fix { width:100% !important; }
+  &lt;/style&gt;
+  &lt;![endif]--&gt;
+  &lt;!--[if !mso]&gt;&lt;!--&gt;
+  &lt;link href="https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700" rel="stylesheet" type="text/css"&gt;
+  &lt;style type="text/css"&gt;
+    @import url(https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700);
+  &lt;/style&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;style type="text/css"&gt;
+    @media only screen and (min-width:480px) {
+      .mj-column-per-100 {
+        width: 100% !important;
+        max-width: 100%;
+      }
+    }
+  &lt;/style&gt;
+  &lt;style type="text/css"&gt;
+  &lt;/style&gt;
 &lt;div style=""&gt;
-    &lt;!--[if mso | IE]&gt;
-    &lt;table
-            align="center" border="0" cellpadding="0" cellspacing="0" class="" style="width:600px;" width="782"
-    &gt;
-        &lt;tr&gt;
-            &lt;td style="line-height:0px;font-size:0px;mso-line-height-rule:exactly;"&gt;
-    &lt;![endif]--&gt;
-    &lt;div style="Margin:0px auto;max-width:600px;"&gt;
-        &lt;table align="center" border="0" cellpadding="0" cellspacing="0" role="presentation" style="width:100%;"&gt;
-            &lt;tbody&gt;
+  &lt;!--[if mso | IE]&gt;
+  &lt;table
+          align="center" border="0" cellpadding="0" cellspacing="0" class="" style="width:782px;" width="782"
+  &gt;
+    &lt;tr&gt;
+      &lt;td style="line-height:0px;font-size:0px;mso-line-height-rule:exactly;"&gt;
+  &lt;![endif]--&gt;
+  &lt;div style="Margin:0px auto;max-width:782px;"&gt;
+    &lt;table align="center" border="0" cellpadding="0" cellspacing="0" role="presentation" style="width:100%;"&gt;
+      &lt;tbody&gt;
+      &lt;tr&gt;
+        &lt;td style="direction:ltr;font-size:0px;padding:20px 0;text-align:center;vertical-align:top;"&gt;
+          &lt;!--[if mso | IE]&gt;
+          &lt;table role="presentation" border="0" cellpadding="0" cellspacing="0"&gt;
             &lt;tr&gt;
-                &lt;td style="direction:ltr;font-size:0px;padding:20px 0;text-align:center;vertical-align:top;"&gt;
-                    &lt;!--[if mso | IE]&gt;
-                    &lt;table role="presentation" border="0" cellpadding="0" cellspacing="0"&gt;
-                        &lt;tr&gt;
-                            &lt;td
-                                    class="" style="vertical-align:top;width:600px;"
-                            &gt;
-                    &lt;![endif]--&gt;
-                    &lt;div class="mj-column-per-100 outlook-group-fix"
-                         style="font-size:13px;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%;"&gt;
-                        &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation"
-                               style="vertical-align:top;" width="100%"&gt;
-                            &lt;tr&gt;
-                                &lt;td align="left" style="font-size:0px;padding:20px 25px;word-break:break-word;"&gt;
-                                    &lt;div style="font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;line-height:1;text-align:left;color:#000000;"&gt;
-                                        &lt;body&gt;
-                                        &lt;div style="width: 600px;
-      background: #FFFFFF;
-      margin: 0 auto;"&gt;
-                                            &lt;div style="height: 55px;
-      background-color: #ffffff;
-      border-bottom: 8px solid #3F51B5;"&gt;
-                                                &lt;table&gt;
-                                                    &lt;tr&gt;
-                                                        &lt;td style="padding-bottom: 0;vertical-align: bottom;"&gt;
-                                                            &lt;table&gt;
-                                                                &lt;tr&gt;
-                                                                    &lt;td style="width:190px;"&gt;&lt;img height="auto"
-                                                                                                  src="https://file.choerodon.com.cn/static/choerodon.png"
-                                                                                                  style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;"
-                                                                                                  width="190"/&gt;&lt;/td&gt;
-                                                                &lt;/tr&gt;
-                                                            &lt;/table&gt;
-                                                        &lt;td&gt;
-                                                    &lt;/tr&gt;
-                                                &lt;/table&gt;
-                                            &lt;/div&gt;
-                                            &lt;div style="padding: 30px 40px;
-      border-bottom: 0;
-      border-top: 0;
-      border-left:1px solid #E6E6E6;
-      border-right:1px solid #E6E6E6;
-      border-radius: 2px;
-      background: #FFFFFF;"&gt;
-                                                &lt;div&gt;
-            &lt;p&gt;项目“${projectName}”下的应用服务“${appServiceName}”已被停用。&lt;/p&gt;
-                                                   &lt;/div&gt;
-                                            &lt;/div&gt;
-                                            &lt;div&gt;
-                                                &lt;div style="text-align: justify;"&gt;
-                                                    &lt;table style="height: 148px; background-color: #f7f7f7;width: 100%;"&gt;
-                                                        &lt;tr&gt;
-                                                            &lt;td style="padding-left: 29px;"&gt;
-                                                                &lt;table&gt;
-                                                                    &lt;tr&gt;
-                                                                        &lt;td&gt;&lt;img height="auto"
-                                                                                 style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:90px;"
-                                                                                 width="90"
-                                                                                 src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt;
-                                                                    &lt;/tr&gt;
-                                                                    &lt;tr&gt;
-                                                                        &lt;td style="text-align: center"&gt;微信公众号&lt;/td&gt;
-                                                                    &lt;/tr&gt;
-                                                                &lt;/table&gt;
-                                                            &lt;td&gt;
-                                                            &lt;td&gt;
-                                                                &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; vertical-align: top;"&gt;
-                                                                    &lt;p style="font-size: 12px;
+              &lt;td
+                      class="" style="vertical-align:top;width:782px;"
+              &gt;
+          &lt;![endif]--&gt;
+          &lt;div class="mj-column-per-100 outlook-group-fix" style="font-size:13px;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%;"&gt;
+            &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="vertical-align:top;" width="100%"&gt;
+              &lt;tbody&gt;&lt;tr&gt;
+                &lt;td align="left" style="padding: 10px 25px; word-break: break-word;"&gt;
+                  &lt;div style="line-height: 1; text-align: left;"&gt;
+                    &lt;div style="width: 782px; background: rgb(255, 255, 255); margin: 0px auto;"&gt;
+                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; height: 115px; background-color: rgb(255, 255, 255); border-bottom: 8px solid rgb(63, 81, 181);"&gt;
+                        &lt;table&gt;
+                          &lt;tbody&gt;&lt;tr&gt;
+                            &lt;td style="padding-bottom: 0;vertical-align: bottom;"&gt;
+                              &lt;table&gt;
+                                &lt;tbody&gt;&lt;tr&gt;
+                                  &lt;td style="width:190px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                                &lt;/tr&gt;
+                              &lt;/tbody&gt;&lt;/table&gt;
+                            &lt;/td&gt;&lt;td&gt;
+                            &lt;/td&gt;&lt;td style="vertical-align: bottom;"&gt;
+                              &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; "&gt;
+                                &lt;p style="font-size: 14px;
+    color: #252528;
+    letter-spacing: 0;
+    display: inline-block;
+    text-align: right;
+    width: 558px;
+    padding-top: 55px;"&gt;&lt;/p&gt;
+                              &lt;/div&gt;
+                            &lt;/td&gt;
+                          &lt;/tr&gt;
+                        &lt;/tbody&gt;&lt;/table&gt;
+                      &lt;/div&gt;
+                      &lt;div style="padding: 68px 40px; border-width: 0px 1px; border-bottom-style: initial; border-bottom-color: initial; border-top-style: initial; border-top-color: initial; border-left-style: solid; border-left-color: rgb(230, 230, 230); border-right-style: solid; border-right-color: rgb(230, 230, 230); border-radius: 2px; background: rgb(255, 255, 255);"&gt;
+                        &lt;div style=""&gt;
+                               &lt;p&gt;项目“${projectName}”下的应用服务“${appServiceName}”已被停用。&lt;/p&gt;
+                        &lt;/div&gt;
+                        &lt;div class="mj-column-per-100 outlook-group-fix" style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; text-align: left; direction: ltr; display: inline-block; vertical-align: top; width: 100%;"&gt;
+                          &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="vertical-align:top;" width="100%"&gt;
+                            &lt;tbody&gt;&lt;tr&gt;
+                              &lt;td align="center" vertical-align="middle" style="font-size:0px;padding:10px 25px;padding-top:60px;word-break:break-word;"&gt;
+                                &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="border-collapse:separate;width:212px;line-height:100%;"&gt;
+                                  &lt;tbody&gt;&lt;tr&gt;
+                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#3f51b5;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
+                                      查看详情
+                                    &lt;/a&gt; &lt;/td&gt;
+                                  &lt;/tr&gt;
+                                &lt;/tbody&gt;&lt;/table&gt;&lt;br&gt;
+                              &lt;/td&gt;
+                            &lt;/tr&gt;
+                          &lt;/tbody&gt;&lt;/table&gt;
+                        &lt;/div&gt;
+                      &lt;/div&gt;
+                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px;"&gt;
+                        &lt;div style="text-align: justify;"&gt;
+                          &lt;table style="height: 148px; background-color: #f7f7f7;width: 100%;"&gt;
+                            &lt;tbody&gt;&lt;tr&gt;
+                              &lt;td style="padding-left: 29px;"&gt;
+                                &lt;table&gt;
+                                  &lt;tbody&gt;&lt;tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:90px;" width="90" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                  &lt;tr&gt;
+                                    &lt;td style="text-align: center"&gt;微信公众号&lt;/td&gt;
+                                  &lt;/tr&gt;
+                                &lt;/tbody&gt;&lt;/table&gt;
+                              &lt;/td&gt;&lt;td&gt;
+                              &lt;/td&gt;&lt;td&gt;
+                                &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; vertical-align: top;"&gt;
+                                  &lt;p style="font-size: 12px;
       color: #626774;
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;"&gt; 此邮件为系统邮件，请勿回复。 &lt;/p&gt;
-                                                                    &lt;p style="font-size: 12px;
+                                  &lt;p style="font-size: 12px;
       color: #626774;
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px"
-                                                          href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt;或 &lt;a
-                                                                            style="text-decoration:none;font-size: 12px"
-                                                                            href="http://choerodon.io/zh/docs/"
-                                                                            target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
-                                                                    &lt;p style="font-size: 12px;
+      margin-top: 0;"&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt;或 &lt;a style="text-decoration:none;font-size: 12px" href="http://choerodon.io/zh/docs/" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+                                  &lt;p style="font-size: 12px;
       color: #626774;
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px"
-                                               href="http://forum.choerodon.io/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
-                                                                    &lt;p style="font-size: 12px;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px" href="http://forum.choerodon.io/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
+                                  &lt;p style="font-size: 12px;
       color: #626774;
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：choerodon@vip.hand-china.com&lt;/p&gt;
-                                                                &lt;/div&gt;
-                                                            &lt;/td&gt;
-                                                        &lt;/tr&gt;
-                                                    &lt;/table&gt;
-                                                &lt;/div&gt;
-                                            &lt;/div&gt;
-                                            &lt;div style="width: 600px;
-      height: 34px;
-      background: #3F51B5;
-      "&gt;
-                                                &lt;p style="opacity: 0.8;
+                                &lt;/div&gt;
+                              &lt;/td&gt;
+                            &lt;/tr&gt;
+                          &lt;/tbody&gt;&lt;/table&gt;
+                        &lt;/div&gt;
+                      &lt;/div&gt;
+                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; width: 782px; height: 34px; background: rgb(63, 81, 181);"&gt;
+                        &lt;p style="opacity: 0.8;
       font-size: 10px;
       color: #FFFFFF;
       text-align: center;
@@ -3566,32 +3517,29 @@
       line-height: 34px;
       width: 100%;
       margin: 0 auto;"&gt;Copyright © The Choerodon Author. All rights reserved.&lt;/p&gt;
-                                            &lt;/div&gt;
-                                        &lt;/div&gt;
-                                        &lt;/body&gt;
-                                    &lt;/div&gt;
-                                &lt;/td&gt;
-                            &lt;/tr&gt;
-                        &lt;/table&gt;
+                      &lt;/div&gt;
                     &lt;/div&gt;
-                    &lt;!--[if mso | IE]&gt;
-                    &lt;/td&gt;
-                    &lt;/tr&gt;
-                    &lt;/table&gt;
-                    &lt;![endif]--&gt;
+                  &lt;/div&gt;
                 &lt;/td&gt;
-            &lt;/tr&gt;
-            &lt;/tbody&gt;
-        &lt;/table&gt;
-    &lt;/div&gt;
-    &lt;!--[if mso | IE]&gt;
-    &lt;/td&gt;
-    &lt;/tr&gt;
-    &lt;/table&gt;
-    &lt;![endif]--&gt;
-&lt;/div&gt;
-&lt;/body&gt;
-&lt;/html&gt;</t>
+              &lt;/tr&gt;
+            &lt;/tbody&gt;&lt;/table&gt;
+          &lt;/div&gt;
+          &lt;!--[if mso | IE]&gt;
+          &lt;/td&gt;
+          &lt;/tr&gt;
+          &lt;/table&gt;
+          &lt;![endif]--&gt;
+        &lt;/td&gt;
+      &lt;/tr&gt;
+      &lt;/tbody&gt;
+    &lt;/table&gt;&lt;br&gt;
+  &lt;/div&gt;
+  &lt;!--[if mso | IE]&gt;
+  &lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;/table&gt;
+  &lt;![endif]--&gt;
+&lt;/div&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-44</t>
@@ -4326,218 +4274,208 @@
     <t>INGRESS_FAILURE.EMAIL</t>
   </si>
   <si>
-    <t>&lt;!doctype html&gt;
-&lt;html xmlns="http://www.w3.org/1999/xhtml" xmlns:v="urn:schemas-microsoft-com:vml"
-      xmlns:o="urn:schemas-microsoft-com:office:office"&gt;
-&lt;head&gt;
-    &lt;title&gt;&lt;/title&gt;
-    &lt;!--[if !mso]&gt;&lt;!-- --&gt;
-    &lt;meta http-equiv="X-UA-Compatible" content="IE=edge"&gt;
-    &lt;!--&lt;![endif]--&gt;
-    &lt;meta http-equiv="Content-Type" content="text/html; charset=UTF-8"&gt;
-    &lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt;
-    &lt;style type="text/css"&gt;
-        #outlook a {
-            padding: 0;
-        }
-        .ReadMsgBody {
-            width: 100%;
-        }
-        .ExternalClass {
-            width: 100%;
-        }
-        .ExternalClass * {
-            line-height: 100%;
-        }
-        body {
-            margin: 0;
-            padding: 0;
-            -webkit-text-size-adjust: 100%;
-            -ms-text-size-adjust: 100%;
-        }
-        table,
-        td {
-            border-collapse: collapse;
-            mso-table-lspace: 0pt;
-            mso-table-rspace: 0pt;
-        }
-        img {
-            border: 0;
-            height: auto;
-            line-height: 100%;
-            outline: none;
-            text-decoration: none;
-            -ms-interpolation-mode: bicubic;
-        }
-        p {
-            display: block;
-            margin: 13px 0;
-        }
-    &lt;/style&gt;
-    &lt;!--[if !mso]&gt;&lt;!--&gt;
-    &lt;style type="text/css"&gt;
-        @media only screen and (max-width: 480px) {
-            @-ms-viewport {
-                width: 320px;
-            }
-            @viewport {
-                width: 320px;
-            }
-        }
-    &lt;/style&gt;
-    &lt;!--&lt;![endif]--&gt;
-    &lt;!--[if mso]&gt;
-    &lt;xml&gt;
-        &lt;o:OfficeDocumentSettings&gt;
-            &lt;o:AllowPNG/&gt;
-            &lt;o:PixelsPerInch&gt;96&lt;/o:PixelsPerInch&gt;
-        &lt;/o:OfficeDocumentSettings&gt;
-    &lt;/xml&gt;
-    &lt;![endif]--&gt;
-    &lt;!--[if lte mso 11]&gt;
-    &lt;style type="text/css"&gt;
-        .outlook-group-fix {
-            width: 100% !important;
-        }
-    &lt;/style&gt;
-    &lt;![endif]--&gt;
-    &lt;!--[if !mso]&gt;&lt;!--&gt;
-    &lt;link href="https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700" rel="stylesheet" type="text/css"&gt;
-    &lt;style type="text/css"&gt;
-        @import url(https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700);
-    &lt;/style&gt;
-    &lt;!--&lt;![endif]--&gt;
-    &lt;style type="text/css"&gt;
-        @media only screen and (min-width: 480px) {
-            .mj-column-per-100 {
-                width: 100% !important;
-                max-width: 100%;
-            }
-        }
-    &lt;/style&gt;
-    &lt;style type="text/css"&gt;
-    &lt;/style&gt;
-&lt;/head&gt;
-&lt;body&gt;
+    <t>&lt;title&gt; &lt;/title&gt;
+  &lt;!--[if !mso]&gt;&lt;!-- --&gt;
+  &lt;meta http-equiv="X-UA-Compatible" content="IE=edge"&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;meta http-equiv="Content-Type" content="text/html; charset=UTF-8"&gt;
+  &lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt;
+  &lt;style type="text/css"&gt;
+    #outlook a {
+      padding: 0;
+    }
+    .ReadMsgBody {
+      width: 100%;
+    }
+    .ExternalClass {
+      width: 100%;
+    }
+    .ExternalClass * {
+      line-height: 100%;
+    }
+    body {
+      margin: 0;
+      padding: 0;
+      -webkit-text-size-adjust: 100%;
+      -ms-text-size-adjust: 100%;
+    }
+    table,
+    td {
+      border-collapse: collapse;
+      mso-table-lspace: 0pt;
+      mso-table-rspace: 0pt;
+    }
+    img {
+      border: 0;
+      height: auto;
+      line-height: 100%;
+      outline: none;
+      text-decoration: none;
+      -ms-interpolation-mode: bicubic;
+    }
+    p {
+      display: block;
+      margin: 13px 0;
+    }
+  &lt;/style&gt;
+  &lt;!--[if !mso]&gt;&lt;!--&gt;
+  &lt;style type="text/css"&gt;
+    @media only screen and (max-width:480px) {
+      @-ms-viewport {
+        width: 320px;
+      }
+      @viewport {
+        width: 320px;
+      }
+    }
+  &lt;/style&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;!--[if mso]&gt;
+  &lt;xml&gt;
+    &lt;o:OfficeDocumentSettings&gt;
+      &lt;o:AllowPNG/&gt;
+      &lt;o:PixelsPerInch&gt;96&lt;/o:PixelsPerInch&gt;
+    &lt;/o:OfficeDocumentSettings&gt;
+  &lt;/xml&gt;
+  &lt;![endif]--&gt;
+  &lt;!--[if lte mso 11]&gt;
+  &lt;style type="text/css"&gt;
+    .outlook-group-fix { width:100% !important; }
+  &lt;/style&gt;
+  &lt;![endif]--&gt;
+  &lt;!--[if !mso]&gt;&lt;!--&gt;
+  &lt;link href="https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700" rel="stylesheet" type="text/css"&gt;
+  &lt;style type="text/css"&gt;
+    @import url(https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700);
+  &lt;/style&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;style type="text/css"&gt;
+    @media only screen and (min-width:480px) {
+      .mj-column-per-100 {
+        width: 100% !important;
+        max-width: 100%;
+      }
+    }
+  &lt;/style&gt;
+  &lt;style type="text/css"&gt;
+  &lt;/style&gt;
 &lt;div style=""&gt;
-    &lt;!--[if mso | IE]&gt;
-    &lt;table
-            align="center" border="0" cellpadding="0" cellspacing="0" class="" style="width:600px;" width="782"
-    &gt;
-        &lt;tr&gt;
-            &lt;td style="line-height:0px;font-size:0px;mso-line-height-rule:exactly;"&gt;
-    &lt;![endif]--&gt;
-    &lt;div style="Margin:0px auto;max-width:600px;"&gt;
-        &lt;table align="center" border="0" cellpadding="0" cellspacing="0" role="presentation" style="width:100%;"&gt;
-            &lt;tbody&gt;
+  &lt;!--[if mso | IE]&gt;
+  &lt;table
+          align="center" border="0" cellpadding="0" cellspacing="0" class="" style="width:782px;" width="782"
+  &gt;
+    &lt;tr&gt;
+      &lt;td style="line-height:0px;font-size:0px;mso-line-height-rule:exactly;"&gt;
+  &lt;![endif]--&gt;
+  &lt;div style="Margin:0px auto;max-width:782px;"&gt;
+    &lt;table align="center" border="0" cellpadding="0" cellspacing="0" role="presentation" style="width:100%;"&gt;
+      &lt;tbody&gt;
+      &lt;tr&gt;
+        &lt;td style="direction:ltr;font-size:0px;padding:20px 0;text-align:center;vertical-align:top;"&gt;
+          &lt;!--[if mso | IE]&gt;
+          &lt;table role="presentation" border="0" cellpadding="0" cellspacing="0"&gt;
             &lt;tr&gt;
-                &lt;td style="direction:ltr;font-size:0px;padding:20px 0;text-align:center;vertical-align:top;"&gt;
-                    &lt;!--[if mso | IE]&gt;
-                    &lt;table role="presentation" border="0" cellpadding="0" cellspacing="0"&gt;
-                        &lt;tr&gt;
-                            &lt;td
-                                    class="" style="vertical-align:top;width:600px;"
-                            &gt;
-                    &lt;![endif]--&gt;
-                    &lt;div class="mj-column-per-100 outlook-group-fix"
-                         style="font-size:13px;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%;"&gt;
-                        &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation"
-                               style="vertical-align:top;" width="100%"&gt;
-                            &lt;tr&gt;
-                                &lt;td align="left" style="font-size:0px;padding:20px 25px;word-break:break-word;"&gt;
-                                    &lt;div style="font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;line-height:1;text-align:left;color:#000000;"&gt;
-                                        &lt;body&gt;
-                                        &lt;div style="width: 600px;
-      background: #FFFFFF;
-      margin: 0 auto;"&gt;
-                                            &lt;div style="height: 55px;
-      background-color: #ffffff;
-      border-bottom: 8px solid #3F51B5;"&gt;
-                                                &lt;table&gt;
-                                                    &lt;tr&gt;
-                                                        &lt;td style="padding-bottom: 0;vertical-align: bottom;"&gt;
-                                                            &lt;table&gt;
-                                                                &lt;tr&gt;
-                                                                    &lt;td style="width:190px;"&gt;&lt;img height="auto"
-                                                                                                  src="https://file.choerodon.com.cn/static/choerodon.png"
-                                                                                                  style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;"
-                                                                                                  width="190"/&gt;&lt;/td&gt;
-                                                                &lt;/tr&gt;
-                                                            &lt;/table&gt;
-                                                        &lt;td&gt;
-                                                    &lt;/tr&gt;
-                                                &lt;/table&gt;
-                                            &lt;/div&gt;
-                                            &lt;div style="padding: 30px 40px;
-      border-bottom: 0;
-      border-top: 0;
-      border-left:1px solid #E6E6E6;
-      border-right:1px solid #E6E6E6;
-      border-radius: 2px;
-      background: #FFFFFF;"&gt;
-                                                &lt;div&gt;
-            &lt;p&gt;您在项目“${projectName}”下“${envName}”环境中创建的域名“${resourceName}”失败。&lt;/p&gt;
-                                                   &lt;/div&gt;
-                                            &lt;/div&gt;
-                                            &lt;div&gt;
-                                                &lt;div style="text-align: justify;"&gt;
-                                                    &lt;table style="height: 148px; background-color: #f7f7f7;width: 100%;"&gt;
-                                                        &lt;tr&gt;
-                                                            &lt;td style="padding-left: 29px;"&gt;
-                                                                &lt;table&gt;
-                                                                    &lt;tr&gt;
-                                                                        &lt;td&gt;&lt;img height="auto"
-                                                                                 style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:90px;"
-                                                                                 width="90"
-                                                                                 src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt;
-                                                                    &lt;/tr&gt;
-                                                                    &lt;tr&gt;
-                                                                        &lt;td style="text-align: center"&gt;微信公众号&lt;/td&gt;
-                                                                    &lt;/tr&gt;
-                                                                &lt;/table&gt;
-                                                            &lt;td&gt;
-                                                            &lt;td&gt;
-                                                                &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; vertical-align: top;"&gt;
-                                                                    &lt;p style="font-size: 12px;
+              &lt;td
+                      class="" style="vertical-align:top;width:782px;"
+              &gt;
+          &lt;![endif]--&gt;
+          &lt;div class="mj-column-per-100 outlook-group-fix" style="font-size:13px;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%;"&gt;
+            &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="vertical-align:top;" width="100%"&gt;
+              &lt;tbody&gt;&lt;tr&gt;
+                &lt;td align="left" style="padding: 10px 25px; word-break: break-word;"&gt;
+                  &lt;div style="line-height: 1; text-align: left;"&gt;
+                    &lt;div style="width: 782px; background: rgb(255, 255, 255); margin: 0px auto;"&gt;
+                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; height: 115px; background-color: rgb(255, 255, 255); border-bottom: 8px solid rgb(63, 81, 181);"&gt;
+                        &lt;table&gt;
+                          &lt;tbody&gt;&lt;tr&gt;
+                            &lt;td style="padding-bottom: 0;vertical-align: bottom;"&gt;
+                              &lt;table&gt;
+                                &lt;tbody&gt;&lt;tr&gt;
+                                  &lt;td style="width:190px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                                &lt;/tr&gt;
+                              &lt;/tbody&gt;&lt;/table&gt;
+                            &lt;/td&gt;&lt;td&gt;
+                            &lt;/td&gt;&lt;td style="vertical-align: bottom;"&gt;
+                              &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; "&gt;
+                                &lt;p style="font-size: 14px;
+    color: #252528;
+    letter-spacing: 0;
+    display: inline-block;
+    text-align: right;
+    width: 558px;
+    padding-top: 55px;"&gt;&lt;/p&gt;
+                              &lt;/div&gt;
+                            &lt;/td&gt;
+                          &lt;/tr&gt;
+                        &lt;/tbody&gt;&lt;/table&gt;
+                      &lt;/div&gt;
+                      &lt;div style="padding: 68px 40px; border-width: 0px 1px; border-bottom-style: initial; border-bottom-color: initial; border-top-style: initial; border-top-color: initial; border-left-style: solid; border-left-color: rgb(230, 230, 230); border-right-style: solid; border-right-color: rgb(230, 230, 230); border-radius: 2px; background: rgb(255, 255, 255);"&gt;
+                        &lt;div style=""&gt;
+                                  &lt;p&gt;您在项目“${projectName}”下“${envName}”环境中创建的域名“${resourceName}”失败。&lt;/p&gt;
+                        &lt;/div&gt;
+                        &lt;div class="mj-column-per-100 outlook-group-fix" style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; text-align: left; direction: ltr; display: inline-block; vertical-align: top; width: 100%;"&gt;
+                          &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="vertical-align:top;" width="100%"&gt;
+                            &lt;tbody&gt;&lt;tr&gt;
+                              &lt;td align="center" vertical-align="middle" style="font-size:0px;padding:10px 25px;padding-top:60px;word-break:break-word;"&gt;
+                                &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="border-collapse:separate;width:212px;line-height:100%;"&gt;
+                                  &lt;tbody&gt;&lt;tr&gt;
+                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#3f51b5;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
+                                      查看详情
+                                    &lt;/a&gt; &lt;/td&gt;
+                                  &lt;/tr&gt;
+                                &lt;/tbody&gt;&lt;/table&gt;&lt;br&gt;
+                              &lt;/td&gt;
+                            &lt;/tr&gt;
+                          &lt;/tbody&gt;&lt;/table&gt;
+                        &lt;/div&gt;
+                      &lt;/div&gt;
+                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px;"&gt;
+                        &lt;div style="text-align: justify;"&gt;
+                          &lt;table style="height: 148px; background-color: #f7f7f7;width: 100%;"&gt;
+                            &lt;tbody&gt;&lt;tr&gt;
+                              &lt;td style="padding-left: 29px;"&gt;
+                                &lt;table&gt;
+                                  &lt;tbody&gt;&lt;tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:90px;" width="90" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                  &lt;tr&gt;
+                                    &lt;td style="text-align: center"&gt;微信公众号&lt;/td&gt;
+                                  &lt;/tr&gt;
+                                &lt;/tbody&gt;&lt;/table&gt;
+                              &lt;/td&gt;&lt;td&gt;
+                              &lt;/td&gt;&lt;td&gt;
+                                &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; vertical-align: top;"&gt;
+                                  &lt;p style="font-size: 12px;
       color: #626774;
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;"&gt; 此邮件为系统邮件，请勿回复。 &lt;/p&gt;
-                                                                    &lt;p style="font-size: 12px;
+                                  &lt;p style="font-size: 12px;
       color: #626774;
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px"
-                                                          href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt;或 &lt;a
-                                                                            style="text-decoration:none;font-size: 12px"
-                                                                            href="http://choerodon.io/zh/docs/"
-                                                                            target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
-                                                                    &lt;p style="font-size: 12px;
+      margin-top: 0;"&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt;或 &lt;a style="text-decoration:none;font-size: 12px" href="http://choerodon.io/zh/docs/" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+                                  &lt;p style="font-size: 12px;
       color: #626774;
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px"
-                                               href="http://forum.choerodon.io/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
-                                                                    &lt;p style="font-size: 12px;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px" href="http://forum.choerodon.io/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
+                                  &lt;p style="font-size: 12px;
       color: #626774;
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：choerodon@vip.hand-china.com&lt;/p&gt;
-                                                                &lt;/div&gt;
-                                                            &lt;/td&gt;
-                                                        &lt;/tr&gt;
-                                                    &lt;/table&gt;
-                                                &lt;/div&gt;
-                                            &lt;/div&gt;
-                                            &lt;div style="width: 600px;
-      height: 34px;
-      background: #3F51B5;
-      "&gt;
-                                                &lt;p style="opacity: 0.8;
+                                &lt;/div&gt;
+                              &lt;/td&gt;
+                            &lt;/tr&gt;
+                          &lt;/tbody&gt;&lt;/table&gt;
+                        &lt;/div&gt;
+                      &lt;/div&gt;
+                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; width: 782px; height: 34px; background: rgb(63, 81, 181);"&gt;
+                        &lt;p style="opacity: 0.8;
       font-size: 10px;
       color: #FFFFFF;
       text-align: center;
@@ -4545,32 +4483,29 @@
       line-height: 34px;
       width: 100%;
       margin: 0 auto;"&gt;Copyright © The Choerodon Author. All rights reserved.&lt;/p&gt;
-                                            &lt;/div&gt;
-                                        &lt;/div&gt;
-                                        &lt;/body&gt;
-                                    &lt;/div&gt;
-                                &lt;/td&gt;
-                            &lt;/tr&gt;
-                        &lt;/table&gt;
+                      &lt;/div&gt;
                     &lt;/div&gt;
-                    &lt;!--[if mso | IE]&gt;
-                    &lt;/td&gt;
-                    &lt;/tr&gt;
-                    &lt;/table&gt;
-                    &lt;![endif]--&gt;
+                  &lt;/div&gt;
                 &lt;/td&gt;
-            &lt;/tr&gt;
-            &lt;/tbody&gt;
-        &lt;/table&gt;
-    &lt;/div&gt;
-    &lt;!--[if mso | IE]&gt;
-    &lt;/td&gt;
-    &lt;/tr&gt;
-    &lt;/table&gt;
-    &lt;![endif]--&gt;
-&lt;/div&gt;
-&lt;/body&gt;
-&lt;/html&gt;</t>
+              &lt;/tr&gt;
+            &lt;/tbody&gt;&lt;/table&gt;
+          &lt;/div&gt;
+          &lt;!--[if mso | IE]&gt;
+          &lt;/td&gt;
+          &lt;/tr&gt;
+          &lt;/table&gt;
+          &lt;![endif]--&gt;
+        &lt;/td&gt;
+      &lt;/tr&gt;
+      &lt;/tbody&gt;
+    &lt;/table&gt;&lt;br&gt;
+  &lt;/div&gt;
+  &lt;!--[if mso | IE]&gt;
+  &lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;/table&gt;
+  &lt;![endif]--&gt;
+&lt;/div&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-83</t>
@@ -6798,218 +6733,208 @@
     <t>SERVICE_FAILURE.EMAIL</t>
   </si>
   <si>
-    <t>&lt;!doctype html&gt;
-&lt;html xmlns="http://www.w3.org/1999/xhtml" xmlns:v="urn:schemas-microsoft-com:vml"
-      xmlns:o="urn:schemas-microsoft-com:office:office"&gt;
-&lt;head&gt;
-    &lt;title&gt;&lt;/title&gt;
-    &lt;!--[if !mso]&gt;&lt;!-- --&gt;
-    &lt;meta http-equiv="X-UA-Compatible" content="IE=edge"&gt;
-    &lt;!--&lt;![endif]--&gt;
-    &lt;meta http-equiv="Content-Type" content="text/html; charset=UTF-8"&gt;
-    &lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt;
-    &lt;style type="text/css"&gt;
-        #outlook a {
-            padding: 0;
-        }
-        .ReadMsgBody {
-            width: 100%;
-        }
-        .ExternalClass {
-            width: 100%;
-        }
-        .ExternalClass * {
-            line-height: 100%;
-        }
-        body {
-            margin: 0;
-            padding: 0;
-            -webkit-text-size-adjust: 100%;
-            -ms-text-size-adjust: 100%;
-        }
-        table,
-        td {
-            border-collapse: collapse;
-            mso-table-lspace: 0pt;
-            mso-table-rspace: 0pt;
-        }
-        img {
-            border: 0;
-            height: auto;
-            line-height: 100%;
-            outline: none;
-            text-decoration: none;
-            -ms-interpolation-mode: bicubic;
-        }
-        p {
-            display: block;
-            margin: 13px 0;
-        }
-    &lt;/style&gt;
-    &lt;!--[if !mso]&gt;&lt;!--&gt;
-    &lt;style type="text/css"&gt;
-        @media only screen and (max-width: 480px) {
-            @-ms-viewport {
-                width: 320px;
-            }
-            @viewport {
-                width: 320px;
-            }
-        }
-    &lt;/style&gt;
-    &lt;!--&lt;![endif]--&gt;
-    &lt;!--[if mso]&gt;
-    &lt;xml&gt;
-        &lt;o:OfficeDocumentSettings&gt;
-            &lt;o:AllowPNG/&gt;
-            &lt;o:PixelsPerInch&gt;96&lt;/o:PixelsPerInch&gt;
-        &lt;/o:OfficeDocumentSettings&gt;
-    &lt;/xml&gt;
-    &lt;![endif]--&gt;
-    &lt;!--[if lte mso 11]&gt;
-    &lt;style type="text/css"&gt;
-        .outlook-group-fix {
-            width: 100% !important;
-        }
-    &lt;/style&gt;
-    &lt;![endif]--&gt;
-    &lt;!--[if !mso]&gt;&lt;!--&gt;
-    &lt;link href="https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700" rel="stylesheet" type="text/css"&gt;
-    &lt;style type="text/css"&gt;
-        @import url(https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700);
-    &lt;/style&gt;
-    &lt;!--&lt;![endif]--&gt;
-    &lt;style type="text/css"&gt;
-        @media only screen and (min-width: 480px) {
-            .mj-column-per-100 {
-                width: 100% !important;
-                max-width: 100%;
-            }
-        }
-    &lt;/style&gt;
-    &lt;style type="text/css"&gt;
-    &lt;/style&gt;
-&lt;/head&gt;
-&lt;body&gt;
+    <t>&lt;title&gt; &lt;/title&gt;
+  &lt;!--[if !mso]&gt;&lt;!-- --&gt;
+  &lt;meta http-equiv="X-UA-Compatible" content="IE=edge"&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;meta http-equiv="Content-Type" content="text/html; charset=UTF-8"&gt;
+  &lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt;
+  &lt;style type="text/css"&gt;
+    #outlook a {
+      padding: 0;
+    }
+    .ReadMsgBody {
+      width: 100%;
+    }
+    .ExternalClass {
+      width: 100%;
+    }
+    .ExternalClass * {
+      line-height: 100%;
+    }
+    body {
+      margin: 0;
+      padding: 0;
+      -webkit-text-size-adjust: 100%;
+      -ms-text-size-adjust: 100%;
+    }
+    table,
+    td {
+      border-collapse: collapse;
+      mso-table-lspace: 0pt;
+      mso-table-rspace: 0pt;
+    }
+    img {
+      border: 0;
+      height: auto;
+      line-height: 100%;
+      outline: none;
+      text-decoration: none;
+      -ms-interpolation-mode: bicubic;
+    }
+    p {
+      display: block;
+      margin: 13px 0;
+    }
+  &lt;/style&gt;
+  &lt;!--[if !mso]&gt;&lt;!--&gt;
+  &lt;style type="text/css"&gt;
+    @media only screen and (max-width:480px) {
+      @-ms-viewport {
+        width: 320px;
+      }
+      @viewport {
+        width: 320px;
+      }
+    }
+  &lt;/style&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;!--[if mso]&gt;
+  &lt;xml&gt;
+    &lt;o:OfficeDocumentSettings&gt;
+      &lt;o:AllowPNG/&gt;
+      &lt;o:PixelsPerInch&gt;96&lt;/o:PixelsPerInch&gt;
+    &lt;/o:OfficeDocumentSettings&gt;
+  &lt;/xml&gt;
+  &lt;![endif]--&gt;
+  &lt;!--[if lte mso 11]&gt;
+  &lt;style type="text/css"&gt;
+    .outlook-group-fix { width:100% !important; }
+  &lt;/style&gt;
+  &lt;![endif]--&gt;
+  &lt;!--[if !mso]&gt;&lt;!--&gt;
+  &lt;link href="https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700" rel="stylesheet" type="text/css"&gt;
+  &lt;style type="text/css"&gt;
+    @import url(https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700);
+  &lt;/style&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;style type="text/css"&gt;
+    @media only screen and (min-width:480px) {
+      .mj-column-per-100 {
+        width: 100% !important;
+        max-width: 100%;
+      }
+    }
+  &lt;/style&gt;
+  &lt;style type="text/css"&gt;
+  &lt;/style&gt;
 &lt;div style=""&gt;
-    &lt;!--[if mso | IE]&gt;
-    &lt;table
-            align="center" border="0" cellpadding="0" cellspacing="0" class="" style="width:600px;" width="782"
-    &gt;
-        &lt;tr&gt;
-            &lt;td style="line-height:0px;font-size:0px;mso-line-height-rule:exactly;"&gt;
-    &lt;![endif]--&gt;
-    &lt;div style="Margin:0px auto;max-width:600px;"&gt;
-        &lt;table align="center" border="0" cellpadding="0" cellspacing="0" role="presentation" style="width:100%;"&gt;
-            &lt;tbody&gt;
+  &lt;!--[if mso | IE]&gt;
+  &lt;table
+          align="center" border="0" cellpadding="0" cellspacing="0" class="" style="width:782px;" width="782"
+  &gt;
+    &lt;tr&gt;
+      &lt;td style="line-height:0px;font-size:0px;mso-line-height-rule:exactly;"&gt;
+  &lt;![endif]--&gt;
+  &lt;div style="Margin:0px auto;max-width:782px;"&gt;
+    &lt;table align="center" border="0" cellpadding="0" cellspacing="0" role="presentation" style="width:100%;"&gt;
+      &lt;tbody&gt;
+      &lt;tr&gt;
+        &lt;td style="direction:ltr;font-size:0px;padding:20px 0;text-align:center;vertical-align:top;"&gt;
+          &lt;!--[if mso | IE]&gt;
+          &lt;table role="presentation" border="0" cellpadding="0" cellspacing="0"&gt;
             &lt;tr&gt;
-                &lt;td style="direction:ltr;font-size:0px;padding:20px 0;text-align:center;vertical-align:top;"&gt;
-                    &lt;!--[if mso | IE]&gt;
-                    &lt;table role="presentation" border="0" cellpadding="0" cellspacing="0"&gt;
-                        &lt;tr&gt;
-                            &lt;td
-                                    class="" style="vertical-align:top;width:600px;"
-                            &gt;
-                    &lt;![endif]--&gt;
-                    &lt;div class="mj-column-per-100 outlook-group-fix"
-                         style="font-size:13px;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%;"&gt;
-                        &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation"
-                               style="vertical-align:top;" width="100%"&gt;
-                            &lt;tr&gt;
-                                &lt;td align="left" style="font-size:0px;padding:20px 25px;word-break:break-word;"&gt;
-                                    &lt;div style="font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;line-height:1;text-align:left;color:#000000;"&gt;
-                                        &lt;body&gt;
-                                        &lt;div style="width: 600px;
-      background: #FFFFFF;
-      margin: 0 auto;"&gt;
-                                            &lt;div style="height: 55px;
-      background-color: #ffffff;
-      border-bottom: 8px solid #3F51B5;"&gt;
-                                                &lt;table&gt;
-                                                    &lt;tr&gt;
-                                                        &lt;td style="padding-bottom: 0;vertical-align: bottom;"&gt;
-                                                            &lt;table&gt;
-                                                                &lt;tr&gt;
-                                                                    &lt;td style="width:190px;"&gt;&lt;img height="auto"
-                                                                                                  src="https://file.choerodon.com.cn/static/choerodon.png"
-                                                                                                  style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;"
-                                                                                                  width="190"/&gt;&lt;/td&gt;
-                                                                &lt;/tr&gt;
-                                                            &lt;/table&gt;
-                                                        &lt;td&gt;
-                                                    &lt;/tr&gt;
-                                                &lt;/table&gt;
-                                            &lt;/div&gt;
-                                            &lt;div style="padding: 30px 40px;
-      border-bottom: 0;
-      border-top: 0;
-      border-left:1px solid #E6E6E6;
-      border-right:1px solid #E6E6E6;
-      border-radius: 2px;
-      background: #FFFFFF;"&gt;
-                                                &lt;div&gt;
-            &lt;p&gt;您在项目“${projectName}”下“${envName}”环境中创建的网络“${resourceName}”失败。&lt;/p&gt;
-                                                   &lt;/div&gt;
-                                            &lt;/div&gt;
-                                            &lt;div&gt;
-                                                &lt;div style="text-align: justify;"&gt;
-                                                    &lt;table style="height: 148px; background-color: #f7f7f7;width: 100%;"&gt;
-                                                        &lt;tr&gt;
-                                                            &lt;td style="padding-left: 29px;"&gt;
-                                                                &lt;table&gt;
-                                                                    &lt;tr&gt;
-                                                                        &lt;td&gt;&lt;img height="auto"
-                                                                                 style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:90px;"
-                                                                                 width="90"
-                                                                                 src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt;
-                                                                    &lt;/tr&gt;
-                                                                    &lt;tr&gt;
-                                                                        &lt;td style="text-align: center"&gt;微信公众号&lt;/td&gt;
-                                                                    &lt;/tr&gt;
-                                                                &lt;/table&gt;
-                                                            &lt;td&gt;
-                                                            &lt;td&gt;
-                                                                &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; vertical-align: top;"&gt;
-                                                                    &lt;p style="font-size: 12px;
+              &lt;td
+                      class="" style="vertical-align:top;width:782px;"
+              &gt;
+          &lt;![endif]--&gt;
+          &lt;div class="mj-column-per-100 outlook-group-fix" style="font-size:13px;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%;"&gt;
+            &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="vertical-align:top;" width="100%"&gt;
+              &lt;tbody&gt;&lt;tr&gt;
+                &lt;td align="left" style="padding: 10px 25px; word-break: break-word;"&gt;
+                  &lt;div style="line-height: 1; text-align: left;"&gt;
+                    &lt;div style="width: 782px; background: rgb(255, 255, 255); margin: 0px auto;"&gt;
+                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; height: 115px; background-color: rgb(255, 255, 255); border-bottom: 8px solid rgb(63, 81, 181);"&gt;
+                        &lt;table&gt;
+                          &lt;tbody&gt;&lt;tr&gt;
+                            &lt;td style="padding-bottom: 0;vertical-align: bottom;"&gt;
+                              &lt;table&gt;
+                                &lt;tbody&gt;&lt;tr&gt;
+                                  &lt;td style="width:190px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                                &lt;/tr&gt;
+                              &lt;/tbody&gt;&lt;/table&gt;
+                            &lt;/td&gt;&lt;td&gt;
+                            &lt;/td&gt;&lt;td style="vertical-align: bottom;"&gt;
+                              &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; "&gt;
+                                &lt;p style="font-size: 14px;
+    color: #252528;
+    letter-spacing: 0;
+    display: inline-block;
+    text-align: right;
+    width: 558px;
+    padding-top: 55px;"&gt;&lt;/p&gt;
+                              &lt;/div&gt;
+                            &lt;/td&gt;
+                          &lt;/tr&gt;
+                        &lt;/tbody&gt;&lt;/table&gt;
+                      &lt;/div&gt;
+                      &lt;div style="padding: 68px 40px; border-width: 0px 1px; border-bottom-style: initial; border-bottom-color: initial; border-top-style: initial; border-top-color: initial; border-left-style: solid; border-left-color: rgb(230, 230, 230); border-right-style: solid; border-right-color: rgb(230, 230, 230); border-radius: 2px; background: rgb(255, 255, 255);"&gt;
+                        &lt;div style=""&gt;
+                               &lt;p&gt;您在项目“${projectName}”下“${envName}”环境中创建的网络“${resourceName}”失败。&lt;/p&gt;
+                        &lt;/div&gt;
+                        &lt;div class="mj-column-per-100 outlook-group-fix" style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; text-align: left; direction: ltr; display: inline-block; vertical-align: top; width: 100%;"&gt;
+                          &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="vertical-align:top;" width="100%"&gt;
+                            &lt;tbody&gt;&lt;tr&gt;
+                              &lt;td align="center" vertical-align="middle" style="font-size:0px;padding:10px 25px;padding-top:60px;word-break:break-word;"&gt;
+                                &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="border-collapse:separate;width:212px;line-height:100%;"&gt;
+                                  &lt;tbody&gt;&lt;tr&gt;
+                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#3f51b5;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
+                                      查看详情
+                                    &lt;/a&gt; &lt;/td&gt;
+                                  &lt;/tr&gt;
+                                &lt;/tbody&gt;&lt;/table&gt;&lt;br&gt;
+                              &lt;/td&gt;
+                            &lt;/tr&gt;
+                          &lt;/tbody&gt;&lt;/table&gt;
+                        &lt;/div&gt;
+                      &lt;/div&gt;
+                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px;"&gt;
+                        &lt;div style="text-align: justify;"&gt;
+                          &lt;table style="height: 148px; background-color: #f7f7f7;width: 100%;"&gt;
+                            &lt;tbody&gt;&lt;tr&gt;
+                              &lt;td style="padding-left: 29px;"&gt;
+                                &lt;table&gt;
+                                  &lt;tbody&gt;&lt;tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:90px;" width="90" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                  &lt;tr&gt;
+                                    &lt;td style="text-align: center"&gt;微信公众号&lt;/td&gt;
+                                  &lt;/tr&gt;
+                                &lt;/tbody&gt;&lt;/table&gt;
+                              &lt;/td&gt;&lt;td&gt;
+                              &lt;/td&gt;&lt;td&gt;
+                                &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; vertical-align: top;"&gt;
+                                  &lt;p style="font-size: 12px;
       color: #626774;
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;"&gt; 此邮件为系统邮件，请勿回复。 &lt;/p&gt;
-                                                                    &lt;p style="font-size: 12px;
+                                  &lt;p style="font-size: 12px;
       color: #626774;
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px"
-                                                          href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt;或 &lt;a
-                                                                            style="text-decoration:none;font-size: 12px"
-                                                                            href="http://choerodon.io/zh/docs/"
-                                                                            target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
-                                                                    &lt;p style="font-size: 12px;
+      margin-top: 0;"&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt;或 &lt;a style="text-decoration:none;font-size: 12px" href="http://choerodon.io/zh/docs/" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+                                  &lt;p style="font-size: 12px;
       color: #626774;
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px"
-                                               href="http://forum.choerodon.io/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
-                                                                    &lt;p style="font-size: 12px;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px" href="http://forum.choerodon.io/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
+                                  &lt;p style="font-size: 12px;
       color: #626774;
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：choerodon@vip.hand-china.com&lt;/p&gt;
-                                                                &lt;/div&gt;
-                                                            &lt;/td&gt;
-                                                        &lt;/tr&gt;
-                                                    &lt;/table&gt;
-                                                &lt;/div&gt;
-                                            &lt;/div&gt;
-                                            &lt;div style="width: 600px;
-      height: 34px;
-      background: #3F51B5;
-      "&gt;
-                                                &lt;p style="opacity: 0.8;
+                                &lt;/div&gt;
+                              &lt;/td&gt;
+                            &lt;/tr&gt;
+                          &lt;/tbody&gt;&lt;/table&gt;
+                        &lt;/div&gt;
+                      &lt;/div&gt;
+                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; width: 782px; height: 34px; background: rgb(63, 81, 181);"&gt;
+                        &lt;p style="opacity: 0.8;
       font-size: 10px;
       color: #FFFFFF;
       text-align: center;
@@ -7017,32 +6942,29 @@
       line-height: 34px;
       width: 100%;
       margin: 0 auto;"&gt;Copyright © The Choerodon Author. All rights reserved.&lt;/p&gt;
-                                            &lt;/div&gt;
-                                        &lt;/div&gt;
-                                        &lt;/body&gt;
-                                    &lt;/div&gt;
-                                &lt;/td&gt;
-                            &lt;/tr&gt;
-                        &lt;/table&gt;
+                      &lt;/div&gt;
                     &lt;/div&gt;
-                    &lt;!--[if mso | IE]&gt;
-                    &lt;/td&gt;
-                    &lt;/tr&gt;
-                    &lt;/table&gt;
-                    &lt;![endif]--&gt;
+                  &lt;/div&gt;
                 &lt;/td&gt;
-            &lt;/tr&gt;
-            &lt;/tbody&gt;
-        &lt;/table&gt;
-    &lt;/div&gt;
-    &lt;!--[if mso | IE]&gt;
-    &lt;/td&gt;
-    &lt;/tr&gt;
-    &lt;/table&gt;
-    &lt;![endif]--&gt;
-&lt;/div&gt;
-&lt;/body&gt;
-&lt;/html&gt;</t>
+              &lt;/tr&gt;
+            &lt;/tbody&gt;&lt;/table&gt;
+          &lt;/div&gt;
+          &lt;!--[if mso | IE]&gt;
+          &lt;/td&gt;
+          &lt;/tr&gt;
+          &lt;/table&gt;
+          &lt;![endif]--&gt;
+        &lt;/td&gt;
+      &lt;/tr&gt;
+      &lt;/tbody&gt;
+    &lt;/table&gt;&lt;br&gt;
+  &lt;/div&gt;
+  &lt;!--[if mso | IE]&gt;
+  &lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;/table&gt;
+  &lt;![endif]--&gt;
+&lt;/div&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-147</t>
@@ -8709,14 +8631,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8729,8 +8651,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8751,63 +8674,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8837,7 +8708,58 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8947,13 +8869,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8965,7 +8881,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8977,7 +8923,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8989,19 +8935,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9013,85 +8977,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9109,7 +8995,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9121,13 +9025,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9235,16 +9157,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9264,6 +9186,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -9271,15 +9217,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9311,23 +9248,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9337,10 +9259,10 @@
     <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9349,19 +9271,19 @@
     <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9370,112 +9292,112 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10366,10 +10288,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q625"/>
+  <dimension ref="A1:Q632"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="G472" workbookViewId="0">
-      <selection activeCell="K506" sqref="K506"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="G522" workbookViewId="0">
+      <selection activeCell="K556" sqref="K556"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -20326,17 +20248,17 @@
         <v>397</v>
       </c>
       <c r="F495" t="str">
-        <f>消息模板!$E$39</f>
+        <f>E39</f>
         <v>hmsg_message_template-55</v>
       </c>
       <c r="G495" t="s">
-        <v>424</v>
-      </c>
-      <c r="J495" t="s">
-        <v>76</v>
-      </c>
-      <c r="K495" t="s">
-        <v>76</v>
+        <v>453</v>
+      </c>
+      <c r="J495">
+        <v>0</v>
+      </c>
+      <c r="K495">
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="5:11">
@@ -20348,7 +20270,7 @@
         <v>hmsg_message_template-55</v>
       </c>
       <c r="G496" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="J496" t="s">
         <v>76</v>
@@ -20362,11 +20284,11 @@
         <v>397</v>
       </c>
       <c r="F497" t="str">
-        <f>消息模板!$E$61</f>
-        <v>hmsg_message_template-119</v>
+        <f>消息模板!$E$39</f>
+        <v>hmsg_message_template-55</v>
       </c>
       <c r="G497" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="J497" t="s">
         <v>76</v>
@@ -20384,7 +20306,7 @@
         <v>hmsg_message_template-119</v>
       </c>
       <c r="G498" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="J498" t="s">
         <v>76</v>
@@ -20402,7 +20324,7 @@
         <v>hmsg_message_template-119</v>
       </c>
       <c r="G499" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="J499" t="s">
         <v>76</v>
@@ -20416,35 +20338,35 @@
         <v>397</v>
       </c>
       <c r="F500" t="str">
+        <f>消息模板!$E$61</f>
+        <v>hmsg_message_template-119</v>
+      </c>
+      <c r="G500" t="s">
+        <v>419</v>
+      </c>
+      <c r="J500" t="s">
+        <v>76</v>
+      </c>
+      <c r="K500" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="501" spans="5:11">
+      <c r="E501" t="s">
+        <v>397</v>
+      </c>
+      <c r="F501" t="str">
         <f>E61</f>
         <v>hmsg_message_template-119</v>
       </c>
-      <c r="G500" t="s">
+      <c r="G501" t="s">
         <v>453</v>
       </c>
-      <c r="J500">
+      <c r="J501">
         <v>0</v>
       </c>
-      <c r="K500">
+      <c r="K501">
         <v>0</v>
-      </c>
-    </row>
-    <row r="501" spans="5:11">
-      <c r="E501" t="s">
-        <v>397</v>
-      </c>
-      <c r="F501" t="str">
-        <f>消息模板!$E$61</f>
-        <v>hmsg_message_template-119</v>
-      </c>
-      <c r="G501" t="s">
-        <v>440</v>
-      </c>
-      <c r="J501" t="s">
-        <v>76</v>
-      </c>
-      <c r="K501" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="502" spans="5:11">
@@ -20456,7 +20378,7 @@
         <v>hmsg_message_template-119</v>
       </c>
       <c r="G502" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="J502" t="s">
         <v>76</v>
@@ -20470,11 +20392,11 @@
         <v>397</v>
       </c>
       <c r="F503" t="str">
-        <f>消息模板!$E$13</f>
-        <v>hmsg_message_template-20</v>
+        <f>消息模板!$E$61</f>
+        <v>hmsg_message_template-119</v>
       </c>
       <c r="G503" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="J503" t="s">
         <v>76</v>
@@ -20492,7 +20414,7 @@
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G504" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="J504" t="s">
         <v>76</v>
@@ -20510,7 +20432,7 @@
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G505" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="J505" t="s">
         <v>76</v>
@@ -20524,35 +20446,35 @@
         <v>397</v>
       </c>
       <c r="F506" t="str">
+        <f>消息模板!$E$13</f>
+        <v>hmsg_message_template-20</v>
+      </c>
+      <c r="G506" t="s">
+        <v>440</v>
+      </c>
+      <c r="J506" t="s">
+        <v>76</v>
+      </c>
+      <c r="K506" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="507" spans="5:11">
+      <c r="E507" t="s">
+        <v>397</v>
+      </c>
+      <c r="F507" t="str">
         <f>E58</f>
         <v>hmsg_message_template-116</v>
       </c>
-      <c r="G506" t="s">
+      <c r="G507" t="s">
         <v>453</v>
       </c>
-      <c r="J506">
+      <c r="J507">
         <v>0</v>
       </c>
-      <c r="K506">
+      <c r="K507">
         <v>0</v>
-      </c>
-    </row>
-    <row r="507" spans="5:11">
-      <c r="E507" t="s">
-        <v>397</v>
-      </c>
-      <c r="F507" t="str">
-        <f>消息模板!$E$58</f>
-        <v>hmsg_message_template-116</v>
-      </c>
-      <c r="G507" t="s">
-        <v>427</v>
-      </c>
-      <c r="J507" t="s">
-        <v>76</v>
-      </c>
-      <c r="K507" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="508" spans="5:11">
@@ -20564,7 +20486,7 @@
         <v>hmsg_message_template-116</v>
       </c>
       <c r="G508" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="J508" t="s">
         <v>76</v>
@@ -20578,11 +20500,11 @@
         <v>397</v>
       </c>
       <c r="F509" t="str">
-        <f>消息模板!$E$43</f>
-        <v>hmsg_message_template-67</v>
+        <f>消息模板!$E$58</f>
+        <v>hmsg_message_template-116</v>
       </c>
       <c r="G509" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="J509" t="s">
         <v>76</v>
@@ -20600,7 +20522,7 @@
         <v>hmsg_message_template-67</v>
       </c>
       <c r="G510" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="J510" t="s">
         <v>76</v>
@@ -20614,11 +20536,11 @@
         <v>397</v>
       </c>
       <c r="F511" t="str">
-        <f>消息模板!$E$49</f>
-        <v>hmsg_message_template-103</v>
+        <f>消息模板!$E$43</f>
+        <v>hmsg_message_template-67</v>
       </c>
       <c r="G511" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="J511" t="s">
         <v>76</v>
@@ -20636,7 +20558,7 @@
         <v>hmsg_message_template-103</v>
       </c>
       <c r="G512" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="J512" t="s">
         <v>76</v>
@@ -20654,7 +20576,7 @@
         <v>hmsg_message_template-103</v>
       </c>
       <c r="G513" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="J513" t="s">
         <v>76</v>
@@ -20668,11 +20590,11 @@
         <v>397</v>
       </c>
       <c r="F514" t="str">
-        <f>消息模板!$E$51</f>
-        <v>hmsg_message_template-105</v>
+        <f>消息模板!$E$49</f>
+        <v>hmsg_message_template-103</v>
       </c>
       <c r="G514" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="J514" t="s">
         <v>76</v>
@@ -20690,7 +20612,7 @@
         <v>hmsg_message_template-105</v>
       </c>
       <c r="G515" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="J515" t="s">
         <v>76</v>
@@ -20708,7 +20630,7 @@
         <v>hmsg_message_template-105</v>
       </c>
       <c r="G516" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="J516" t="s">
         <v>76</v>
@@ -20722,53 +20644,53 @@
         <v>397</v>
       </c>
       <c r="F517" t="str">
+        <f>消息模板!$E$51</f>
+        <v>hmsg_message_template-105</v>
+      </c>
+      <c r="G517" t="s">
+        <v>440</v>
+      </c>
+      <c r="J517" t="s">
+        <v>76</v>
+      </c>
+      <c r="K517" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="518" spans="5:11">
+      <c r="E518" t="s">
+        <v>397</v>
+      </c>
+      <c r="F518" t="str">
         <f>消息模板!$E$54</f>
         <v>hmsg_message_template-112</v>
       </c>
-      <c r="G517" t="s">
+      <c r="G518" t="s">
         <v>427</v>
       </c>
-      <c r="J517" t="s">
-        <v>76</v>
-      </c>
-      <c r="K517" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="518" spans="5:11">
-      <c r="E518" t="s">
-        <v>397</v>
-      </c>
-      <c r="F518" t="str">
+      <c r="J518" t="s">
+        <v>76</v>
+      </c>
+      <c r="K518" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="519" spans="5:11">
+      <c r="E519" t="s">
+        <v>397</v>
+      </c>
+      <c r="F519" t="str">
         <f>E54</f>
         <v>hmsg_message_template-112</v>
       </c>
-      <c r="G518" t="s">
+      <c r="G519" t="s">
         <v>453</v>
       </c>
-      <c r="J518">
+      <c r="J519">
         <v>0</v>
       </c>
-      <c r="K518">
+      <c r="K519">
         <v>0</v>
-      </c>
-    </row>
-    <row r="519" spans="5:11">
-      <c r="E519" t="s">
-        <v>397</v>
-      </c>
-      <c r="F519" t="str">
-        <f>消息模板!$E$54</f>
-        <v>hmsg_message_template-112</v>
-      </c>
-      <c r="G519" t="s">
-        <v>419</v>
-      </c>
-      <c r="J519" t="s">
-        <v>76</v>
-      </c>
-      <c r="K519" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="520" spans="5:11">
@@ -20780,7 +20702,7 @@
         <v>hmsg_message_template-112</v>
       </c>
       <c r="G520" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="J520" t="s">
         <v>76</v>
@@ -20794,11 +20716,11 @@
         <v>397</v>
       </c>
       <c r="F521" t="str">
-        <f>消息模板!$E$46</f>
-        <v>hmsg_message_template-82</v>
+        <f>消息模板!$E$54</f>
+        <v>hmsg_message_template-112</v>
       </c>
       <c r="G521" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="J521" t="s">
         <v>76</v>
@@ -20812,17 +20734,17 @@
         <v>397</v>
       </c>
       <c r="F522" t="str">
-        <f>消息模板!$E$46</f>
+        <f>E46</f>
         <v>hmsg_message_template-82</v>
       </c>
       <c r="G522" t="s">
-        <v>419</v>
-      </c>
-      <c r="J522" t="s">
-        <v>76</v>
-      </c>
-      <c r="K522" t="s">
-        <v>76</v>
+        <v>453</v>
+      </c>
+      <c r="J522">
+        <v>0</v>
+      </c>
+      <c r="K522">
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="5:11">
@@ -20834,7 +20756,7 @@
         <v>hmsg_message_template-82</v>
       </c>
       <c r="G523" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="J523" t="s">
         <v>76</v>
@@ -20848,11 +20770,11 @@
         <v>397</v>
       </c>
       <c r="F524" t="str">
-        <f>消息模板!$E$15</f>
-        <v>hmsg_message_template-22</v>
+        <f>消息模板!$E$46</f>
+        <v>hmsg_message_template-82</v>
       </c>
       <c r="G524" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="J524" t="s">
         <v>76</v>
@@ -20866,11 +20788,11 @@
         <v>397</v>
       </c>
       <c r="F525" t="str">
-        <f>消息模板!$E$15</f>
-        <v>hmsg_message_template-22</v>
+        <f>消息模板!$E$46</f>
+        <v>hmsg_message_template-82</v>
       </c>
       <c r="G525" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="J525" t="s">
         <v>76</v>
@@ -20888,7 +20810,7 @@
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G526" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="J526" t="s">
         <v>76</v>
@@ -20902,569 +20824,569 @@
         <v>397</v>
       </c>
       <c r="F527" t="str">
+        <f>E15</f>
+        <v>hmsg_message_template-22</v>
+      </c>
+      <c r="G527" t="s">
+        <v>453</v>
+      </c>
+      <c r="J527">
+        <v>0</v>
+      </c>
+      <c r="K527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="5:11">
+      <c r="E528" t="s">
+        <v>397</v>
+      </c>
+      <c r="F528" t="str">
+        <f>消息模板!$E$15</f>
+        <v>hmsg_message_template-22</v>
+      </c>
+      <c r="G528" t="s">
+        <v>419</v>
+      </c>
+      <c r="J528" t="s">
+        <v>76</v>
+      </c>
+      <c r="K528" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="529" spans="5:11">
+      <c r="E529" t="s">
+        <v>397</v>
+      </c>
+      <c r="F529" t="str">
+        <f>消息模板!$E$15</f>
+        <v>hmsg_message_template-22</v>
+      </c>
+      <c r="G529" t="s">
+        <v>421</v>
+      </c>
+      <c r="J529" t="s">
+        <v>76</v>
+      </c>
+      <c r="K529" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="530" spans="5:11">
+      <c r="E530" t="s">
+        <v>397</v>
+      </c>
+      <c r="F530" t="str">
         <f>消息模板!$E$76</f>
         <v>hmsg_message_template-146</v>
       </c>
-      <c r="G527" t="s">
+      <c r="G530" t="s">
         <v>415</v>
       </c>
-      <c r="J527" t="s">
-        <v>76</v>
-      </c>
-      <c r="K527" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="528" spans="5:11">
-      <c r="E528" t="s">
-        <v>397</v>
-      </c>
-      <c r="F528" t="str">
+      <c r="J530" t="s">
+        <v>76</v>
+      </c>
+      <c r="K530" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="531" spans="5:11">
+      <c r="E531" t="s">
+        <v>397</v>
+      </c>
+      <c r="F531" t="str">
+        <f>E76</f>
+        <v>hmsg_message_template-146</v>
+      </c>
+      <c r="G531" t="s">
+        <v>453</v>
+      </c>
+      <c r="J531">
+        <v>0</v>
+      </c>
+      <c r="K531">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="5:11">
+      <c r="E532" t="s">
+        <v>397</v>
+      </c>
+      <c r="F532" t="str">
         <f>消息模板!$E$76</f>
         <v>hmsg_message_template-146</v>
       </c>
-      <c r="G528" t="s">
+      <c r="G532" t="s">
         <v>419</v>
       </c>
-      <c r="J528" t="s">
-        <v>76</v>
-      </c>
-      <c r="K528" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="529" spans="5:11">
-      <c r="E529" t="s">
-        <v>397</v>
-      </c>
-      <c r="F529" t="str">
+      <c r="J532" t="s">
+        <v>76</v>
+      </c>
+      <c r="K532" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="533" spans="5:11">
+      <c r="E533" t="s">
+        <v>397</v>
+      </c>
+      <c r="F533" t="str">
         <f>消息模板!$E$76</f>
         <v>hmsg_message_template-146</v>
       </c>
-      <c r="G529" t="s">
+      <c r="G533" t="s">
         <v>421</v>
       </c>
-      <c r="J529" t="s">
-        <v>76</v>
-      </c>
-      <c r="K529" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="530" spans="5:11">
-      <c r="E530" t="s">
-        <v>397</v>
-      </c>
-      <c r="F530" t="str">
+      <c r="J533" t="s">
+        <v>76</v>
+      </c>
+      <c r="K533" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="534" spans="5:11">
+      <c r="E534" t="s">
+        <v>397</v>
+      </c>
+      <c r="F534" t="str">
         <f>消息模板!$E$68</f>
         <v>hmsg_message_template-126</v>
       </c>
-      <c r="G530" t="s">
+      <c r="G534" t="s">
         <v>427</v>
       </c>
-      <c r="J530" t="s">
-        <v>76</v>
-      </c>
-      <c r="K530" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="531" spans="5:11">
-      <c r="E531" t="s">
-        <v>397</v>
-      </c>
-      <c r="F531" t="str">
+      <c r="J534" t="s">
+        <v>76</v>
+      </c>
+      <c r="K534" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="535" spans="5:11">
+      <c r="E535" t="s">
+        <v>397</v>
+      </c>
+      <c r="F535" t="str">
         <f>E68</f>
         <v>hmsg_message_template-126</v>
       </c>
-      <c r="G531" t="s">
+      <c r="G535" t="s">
         <v>453</v>
       </c>
-      <c r="J531">
+      <c r="J535">
         <v>0</v>
       </c>
-      <c r="K531">
+      <c r="K535">
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="5:11">
-      <c r="E532" t="s">
-        <v>397</v>
-      </c>
-      <c r="F532" t="str">
+    <row r="536" spans="5:11">
+      <c r="E536" t="s">
+        <v>397</v>
+      </c>
+      <c r="F536" t="str">
         <f>消息模板!$E$68</f>
         <v>hmsg_message_template-126</v>
       </c>
-      <c r="G532" t="s">
+      <c r="G536" t="s">
         <v>419</v>
       </c>
-      <c r="J532" t="s">
-        <v>76</v>
-      </c>
-      <c r="K532" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="533" spans="5:11">
-      <c r="E533" t="s">
-        <v>397</v>
-      </c>
-      <c r="F533" t="str">
+      <c r="J536" t="s">
+        <v>76</v>
+      </c>
+      <c r="K536" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="537" spans="5:11">
+      <c r="E537" t="s">
+        <v>397</v>
+      </c>
+      <c r="F537" t="str">
+        <f>E11</f>
+        <v>hmsg_message_template-16</v>
+      </c>
+      <c r="G537" t="s">
+        <v>453</v>
+      </c>
+      <c r="J537">
+        <v>0</v>
+      </c>
+      <c r="K537">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="5:11">
+      <c r="E538" t="s">
+        <v>397</v>
+      </c>
+      <c r="F538" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-16</v>
       </c>
-      <c r="G533" t="s">
+      <c r="G538" t="s">
         <v>424</v>
       </c>
-      <c r="J533" t="s">
-        <v>76</v>
-      </c>
-      <c r="K533" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="534" spans="5:11">
-      <c r="E534" t="s">
-        <v>397</v>
-      </c>
-      <c r="F534" t="str">
+      <c r="J538" t="s">
+        <v>76</v>
+      </c>
+      <c r="K538" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="539" spans="5:11">
+      <c r="E539" t="s">
+        <v>397</v>
+      </c>
+      <c r="F539" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-16</v>
       </c>
-      <c r="G534" t="s">
+      <c r="G539" t="s">
         <v>419</v>
       </c>
-      <c r="J534" t="s">
-        <v>76</v>
-      </c>
-      <c r="K534" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="535" spans="5:11">
-      <c r="E535" t="s">
-        <v>397</v>
-      </c>
-      <c r="F535" t="str">
+      <c r="J539" t="s">
+        <v>76</v>
+      </c>
+      <c r="K539" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="540" spans="5:11">
+      <c r="E540" t="s">
+        <v>397</v>
+      </c>
+      <c r="F540" t="str">
+        <f>E34</f>
+        <v>hmsg_message_template-43</v>
+      </c>
+      <c r="G540" t="s">
+        <v>453</v>
+      </c>
+      <c r="J540">
+        <v>0</v>
+      </c>
+      <c r="K540">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="5:11">
+      <c r="E541" t="s">
+        <v>397</v>
+      </c>
+      <c r="F541" t="str">
         <f>消息模板!$E$34</f>
         <v>hmsg_message_template-43</v>
       </c>
-      <c r="G535" t="s">
+      <c r="G541" t="s">
         <v>424</v>
       </c>
-      <c r="J535" t="s">
-        <v>76</v>
-      </c>
-      <c r="K535" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="536" spans="5:11">
-      <c r="E536" t="s">
-        <v>397</v>
-      </c>
-      <c r="F536" t="str">
+      <c r="J541" t="s">
+        <v>76</v>
+      </c>
+      <c r="K541" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="542" spans="5:11">
+      <c r="E542" t="s">
+        <v>397</v>
+      </c>
+      <c r="F542" t="str">
         <f>消息模板!$E$34</f>
         <v>hmsg_message_template-43</v>
       </c>
-      <c r="G536" t="s">
+      <c r="G542" t="s">
         <v>419</v>
       </c>
-      <c r="J536" t="s">
-        <v>76</v>
-      </c>
-      <c r="K536" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="537" spans="5:11">
-      <c r="E537" t="s">
-        <v>397</v>
-      </c>
-      <c r="F537" t="str">
+      <c r="J542" t="s">
+        <v>76</v>
+      </c>
+      <c r="K542" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="543" spans="5:11">
+      <c r="E543" t="s">
+        <v>397</v>
+      </c>
+      <c r="F543" t="str">
         <f>消息模板!$E$64</f>
         <v>hmsg_message_template-122</v>
       </c>
-      <c r="G537" t="s">
+      <c r="G543" t="s">
         <v>439</v>
       </c>
-      <c r="J537" t="s">
-        <v>76</v>
-      </c>
-      <c r="K537" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="538" spans="5:11">
-      <c r="E538" t="s">
-        <v>397</v>
-      </c>
-      <c r="F538" t="str">
+      <c r="J543" t="s">
+        <v>76</v>
+      </c>
+      <c r="K543" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="544" spans="5:11">
+      <c r="E544" t="s">
+        <v>397</v>
+      </c>
+      <c r="F544" t="str">
         <f>消息模板!$E$64</f>
         <v>hmsg_message_template-122</v>
       </c>
-      <c r="G538" t="s">
+      <c r="G544" t="s">
         <v>427</v>
       </c>
-      <c r="J538" t="s">
-        <v>76</v>
-      </c>
-      <c r="K538" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="539" spans="5:11">
-      <c r="E539" t="s">
-        <v>397</v>
-      </c>
-      <c r="F539" t="str">
+      <c r="J544" t="s">
+        <v>76</v>
+      </c>
+      <c r="K544" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="545" spans="5:11">
+      <c r="E545" t="s">
+        <v>397</v>
+      </c>
+      <c r="F545" t="str">
         <f>E64</f>
         <v>hmsg_message_template-122</v>
       </c>
-      <c r="G539" t="s">
+      <c r="G545" t="s">
         <v>453</v>
       </c>
-      <c r="J539">
+      <c r="J545">
         <v>0</v>
       </c>
-      <c r="K539">
+      <c r="K545">
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="5:11">
-      <c r="E540" t="s">
-        <v>397</v>
-      </c>
-      <c r="F540" t="str">
+    <row r="546" spans="5:11">
+      <c r="E546" t="s">
+        <v>397</v>
+      </c>
+      <c r="F546" t="str">
         <f>消息模板!$E$64</f>
         <v>hmsg_message_template-122</v>
       </c>
-      <c r="G540" t="s">
+      <c r="G546" t="s">
         <v>419</v>
       </c>
-      <c r="J540" t="s">
-        <v>76</v>
-      </c>
-      <c r="K540" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="541" spans="5:11">
-      <c r="E541" t="s">
-        <v>397</v>
-      </c>
-      <c r="F541" t="str">
+      <c r="J546" t="s">
+        <v>76</v>
+      </c>
+      <c r="K546" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="547" spans="5:11">
+      <c r="E547" t="s">
+        <v>397</v>
+      </c>
+      <c r="F547" t="str">
         <f>消息模板!$E$64</f>
         <v>hmsg_message_template-122</v>
       </c>
-      <c r="G541" t="s">
+      <c r="G547" t="s">
         <v>440</v>
       </c>
-      <c r="J541" t="s">
-        <v>76</v>
-      </c>
-      <c r="K541" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="542" spans="5:11">
-      <c r="E542" t="s">
-        <v>397</v>
-      </c>
-      <c r="F542" t="str">
+      <c r="J547" t="s">
+        <v>76</v>
+      </c>
+      <c r="K547" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="548" spans="5:11">
+      <c r="E548" t="s">
+        <v>397</v>
+      </c>
+      <c r="F548" t="str">
         <f>消息模板!$E$64</f>
         <v>hmsg_message_template-122</v>
       </c>
-      <c r="G542" t="s">
+      <c r="G548" t="s">
         <v>430</v>
       </c>
-      <c r="J542" t="s">
-        <v>76</v>
-      </c>
-      <c r="K542" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="543" spans="5:11">
-      <c r="E543" t="s">
-        <v>397</v>
-      </c>
-      <c r="F543" t="str">
+      <c r="J548" t="s">
+        <v>76</v>
+      </c>
+      <c r="K548" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="549" spans="5:11">
+      <c r="E549" t="s">
+        <v>397</v>
+      </c>
+      <c r="F549" t="str">
         <f>消息模板!$E$45</f>
         <v>hmsg_message_template-69</v>
       </c>
-      <c r="G543" t="s">
+      <c r="G549" t="s">
         <v>454</v>
       </c>
-      <c r="J543" t="s">
-        <v>76</v>
-      </c>
-      <c r="K543" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="544" spans="5:11">
-      <c r="E544" t="s">
-        <v>397</v>
-      </c>
-      <c r="F544" t="str">
+      <c r="J549" t="s">
+        <v>76</v>
+      </c>
+      <c r="K549" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="550" spans="5:11">
+      <c r="E550" t="s">
+        <v>397</v>
+      </c>
+      <c r="F550" t="str">
         <f>消息模板!$E$45</f>
         <v>hmsg_message_template-69</v>
       </c>
-      <c r="G544" t="s">
+      <c r="G550" t="s">
         <v>405</v>
       </c>
-      <c r="J544" t="s">
-        <v>76</v>
-      </c>
-      <c r="K544" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="545" spans="5:11">
-      <c r="E545" t="s">
-        <v>397</v>
-      </c>
-      <c r="F545" t="str">
+      <c r="J550" t="s">
+        <v>76</v>
+      </c>
+      <c r="K550" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="551" spans="5:11">
+      <c r="E551" t="s">
+        <v>397</v>
+      </c>
+      <c r="F551" t="str">
         <f>消息模板!$E$27</f>
         <v>hmsg_message_template-36</v>
       </c>
-      <c r="G545" t="s">
+      <c r="G551" t="s">
         <v>424</v>
       </c>
-      <c r="J545" t="s">
-        <v>76</v>
-      </c>
-      <c r="K545" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="546" spans="5:11">
-      <c r="E546" t="s">
-        <v>397</v>
-      </c>
-      <c r="F546" t="str">
+      <c r="J551" t="s">
+        <v>76</v>
+      </c>
+      <c r="K551" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="552" spans="5:11">
+      <c r="E552" t="s">
+        <v>397</v>
+      </c>
+      <c r="F552" t="str">
         <f>消息模板!$E$27</f>
         <v>hmsg_message_template-36</v>
       </c>
-      <c r="G546" t="s">
+      <c r="G552" t="s">
         <v>405</v>
       </c>
-      <c r="J546" t="s">
-        <v>76</v>
-      </c>
-      <c r="K546" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="547" spans="5:11">
-      <c r="E547" t="s">
-        <v>397</v>
-      </c>
-      <c r="F547" t="str">
+      <c r="J552" t="s">
+        <v>76</v>
+      </c>
+      <c r="K552" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="553" spans="5:11">
+      <c r="E553" t="s">
+        <v>397</v>
+      </c>
+      <c r="F553" t="str">
         <f>消息模板!$E$27</f>
         <v>hmsg_message_template-36</v>
       </c>
-      <c r="G547" t="s">
+      <c r="G553" t="s">
         <v>450</v>
       </c>
-      <c r="J547" t="s">
-        <v>76</v>
-      </c>
-      <c r="K547" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="548" spans="5:11">
-      <c r="E548" t="s">
-        <v>397</v>
-      </c>
-      <c r="F548" t="str">
+      <c r="J553" t="s">
+        <v>76</v>
+      </c>
+      <c r="K553" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="554" spans="5:11">
+      <c r="E554" t="s">
+        <v>397</v>
+      </c>
+      <c r="F554" t="str">
         <f>消息模板!$E$27</f>
         <v>hmsg_message_template-36</v>
       </c>
-      <c r="G548" t="s">
+      <c r="G554" t="s">
         <v>412</v>
       </c>
-      <c r="J548" t="s">
-        <v>76</v>
-      </c>
-      <c r="K548" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="549" spans="5:11">
-      <c r="E549" t="s">
-        <v>397</v>
-      </c>
-      <c r="F549" t="str">
+      <c r="J554" t="s">
+        <v>76</v>
+      </c>
+      <c r="K554" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="555" spans="5:11">
+      <c r="E555" t="s">
+        <v>397</v>
+      </c>
+      <c r="F555" t="str">
         <f>消息模板!$E$27</f>
         <v>hmsg_message_template-36</v>
       </c>
-      <c r="G549" t="s">
+      <c r="G555" t="s">
         <v>419</v>
       </c>
-      <c r="J549" t="s">
-        <v>76</v>
-      </c>
-      <c r="K549" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="550" spans="5:11">
-      <c r="E550" t="s">
-        <v>397</v>
-      </c>
-      <c r="F550" t="str">
+      <c r="J555" t="s">
+        <v>76</v>
+      </c>
+      <c r="K555" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="556" spans="5:11">
+      <c r="E556" t="s">
+        <v>397</v>
+      </c>
+      <c r="F556" t="str">
+        <f>E26</f>
+        <v>hmsg_message_template-35</v>
+      </c>
+      <c r="G556" t="s">
+        <v>453</v>
+      </c>
+      <c r="J556">
+        <v>0</v>
+      </c>
+      <c r="K556">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="5:11">
+      <c r="E557" t="s">
+        <v>397</v>
+      </c>
+      <c r="F557" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-35</v>
       </c>
-      <c r="G550" t="s">
+      <c r="G557" t="s">
         <v>424</v>
       </c>
-      <c r="J550" t="s">
-        <v>76</v>
-      </c>
-      <c r="K550" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="551" spans="5:11">
-      <c r="E551" t="s">
-        <v>397</v>
-      </c>
-      <c r="F551" t="str">
+      <c r="J557" t="s">
+        <v>76</v>
+      </c>
+      <c r="K557" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="558" spans="5:11">
+      <c r="E558" t="s">
+        <v>397</v>
+      </c>
+      <c r="F558" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-35</v>
       </c>
-      <c r="G551" t="s">
+      <c r="G558" t="s">
         <v>419</v>
-      </c>
-      <c r="J551" t="s">
-        <v>76</v>
-      </c>
-      <c r="K551" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="552" spans="5:11">
-      <c r="E552" t="s">
-        <v>397</v>
-      </c>
-      <c r="F552" t="str">
-        <f>消息模板!$E$9</f>
-        <v>hmsg_message_template-14</v>
-      </c>
-      <c r="G552" t="s">
-        <v>407</v>
-      </c>
-      <c r="J552" t="s">
-        <v>76</v>
-      </c>
-      <c r="K552" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="553" spans="5:11">
-      <c r="E553" t="s">
-        <v>397</v>
-      </c>
-      <c r="F553" t="str">
-        <f>消息模板!$E$9</f>
-        <v>hmsg_message_template-14</v>
-      </c>
-      <c r="G553" t="s">
-        <v>408</v>
-      </c>
-      <c r="J553" t="s">
-        <v>76</v>
-      </c>
-      <c r="K553" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="554" spans="5:11">
-      <c r="E554" t="s">
-        <v>397</v>
-      </c>
-      <c r="F554" t="str">
-        <f>消息模板!$E$9</f>
-        <v>hmsg_message_template-14</v>
-      </c>
-      <c r="G554" t="s">
-        <v>409</v>
-      </c>
-      <c r="J554" t="s">
-        <v>76</v>
-      </c>
-      <c r="K554" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="555" spans="5:11">
-      <c r="E555" t="s">
-        <v>397</v>
-      </c>
-      <c r="F555" t="str">
-        <f>消息模板!$E$9</f>
-        <v>hmsg_message_template-14</v>
-      </c>
-      <c r="G555" t="s">
-        <v>410</v>
-      </c>
-      <c r="J555" t="s">
-        <v>76</v>
-      </c>
-      <c r="K555" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="556" spans="5:11">
-      <c r="E556" t="s">
-        <v>397</v>
-      </c>
-      <c r="F556" t="str">
-        <f>消息模板!$E$9</f>
-        <v>hmsg_message_template-14</v>
-      </c>
-      <c r="G556" t="s">
-        <v>401</v>
-      </c>
-      <c r="J556" t="s">
-        <v>76</v>
-      </c>
-      <c r="K556" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="557" spans="5:11">
-      <c r="E557" t="s">
-        <v>397</v>
-      </c>
-      <c r="F557" t="str">
-        <f>消息模板!$E$9</f>
-        <v>hmsg_message_template-14</v>
-      </c>
-      <c r="G557" t="s">
-        <v>422</v>
-      </c>
-      <c r="J557" t="s">
-        <v>76</v>
-      </c>
-      <c r="K557" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="558" spans="5:11">
-      <c r="E558" t="s">
-        <v>397</v>
-      </c>
-      <c r="F558" t="str">
-        <f>消息模板!$E$9</f>
-        <v>hmsg_message_template-14</v>
-      </c>
-      <c r="G558" t="s">
-        <v>402</v>
       </c>
       <c r="J558" t="s">
         <v>76</v>
@@ -21482,7 +21404,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G559" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="J559" t="s">
         <v>76</v>
@@ -21500,7 +21422,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G560" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="J560" t="s">
         <v>76</v>
@@ -21518,7 +21440,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G561" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="J561" t="s">
         <v>76</v>
@@ -21536,7 +21458,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G562" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="J562" t="s">
         <v>76</v>
@@ -21554,7 +21476,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G563" t="s">
-        <v>455</v>
+        <v>401</v>
       </c>
       <c r="J563" t="s">
         <v>76</v>
@@ -21568,11 +21490,11 @@
         <v>397</v>
       </c>
       <c r="F564" t="str">
-        <f>E80</f>
-        <v>hmsg_message_template-156</v>
+        <f>消息模板!$E$9</f>
+        <v>hmsg_message_template-14</v>
       </c>
       <c r="G564" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="J564" t="s">
         <v>76</v>
@@ -21586,11 +21508,11 @@
         <v>397</v>
       </c>
       <c r="F565" t="str">
-        <f>E80</f>
-        <v>hmsg_message_template-156</v>
+        <f>消息模板!$E$9</f>
+        <v>hmsg_message_template-14</v>
       </c>
       <c r="G565" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J565" t="s">
         <v>76</v>
@@ -21604,11 +21526,11 @@
         <v>397</v>
       </c>
       <c r="F566" t="str">
-        <f>E80</f>
-        <v>hmsg_message_template-156</v>
+        <f>消息模板!$E$9</f>
+        <v>hmsg_message_template-14</v>
       </c>
       <c r="G566" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J566" t="s">
         <v>76</v>
@@ -21622,11 +21544,11 @@
         <v>397</v>
       </c>
       <c r="F567" t="str">
-        <f>E80</f>
-        <v>hmsg_message_template-156</v>
+        <f>消息模板!$E$9</f>
+        <v>hmsg_message_template-14</v>
       </c>
       <c r="G567" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="J567" t="s">
         <v>76</v>
@@ -21640,11 +21562,11 @@
         <v>397</v>
       </c>
       <c r="F568" t="str">
-        <f>E80</f>
-        <v>hmsg_message_template-156</v>
+        <f>消息模板!$E$9</f>
+        <v>hmsg_message_template-14</v>
       </c>
       <c r="G568" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="J568" t="s">
         <v>76</v>
@@ -21658,11 +21580,11 @@
         <v>397</v>
       </c>
       <c r="F569" t="str">
-        <f>E80</f>
-        <v>hmsg_message_template-156</v>
+        <f>消息模板!$E$9</f>
+        <v>hmsg_message_template-14</v>
       </c>
       <c r="G569" t="s">
-        <v>456</v>
+        <v>406</v>
       </c>
       <c r="J569" t="s">
         <v>76</v>
@@ -21676,11 +21598,11 @@
         <v>397</v>
       </c>
       <c r="F570" t="str">
-        <f>E80</f>
-        <v>hmsg_message_template-156</v>
+        <f>消息模板!$E$9</f>
+        <v>hmsg_message_template-14</v>
       </c>
       <c r="G570" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="J570" t="s">
         <v>76</v>
@@ -21698,7 +21620,7 @@
         <v>hmsg_message_template-156</v>
       </c>
       <c r="G571" t="s">
-        <v>457</v>
+        <v>404</v>
       </c>
       <c r="J571" t="s">
         <v>76</v>
@@ -21716,7 +21638,7 @@
         <v>hmsg_message_template-156</v>
       </c>
       <c r="G572" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="J572" t="s">
         <v>76</v>
@@ -21734,7 +21656,7 @@
         <v>hmsg_message_template-156</v>
       </c>
       <c r="G573" t="s">
-        <v>458</v>
+        <v>402</v>
       </c>
       <c r="J573" t="s">
         <v>76</v>
@@ -21748,11 +21670,11 @@
         <v>397</v>
       </c>
       <c r="F574" t="str">
-        <f>E81</f>
-        <v>hmsg_message_template-157</v>
+        <f>E80</f>
+        <v>hmsg_message_template-156</v>
       </c>
       <c r="G574" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="J574" t="s">
         <v>76</v>
@@ -21766,11 +21688,11 @@
         <v>397</v>
       </c>
       <c r="F575" t="str">
-        <f>E81</f>
-        <v>hmsg_message_template-157</v>
+        <f>E80</f>
+        <v>hmsg_message_template-156</v>
       </c>
       <c r="G575" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="J575" t="s">
         <v>76</v>
@@ -21784,11 +21706,11 @@
         <v>397</v>
       </c>
       <c r="F576" t="str">
-        <f>E81</f>
-        <v>hmsg_message_template-157</v>
+        <f>E80</f>
+        <v>hmsg_message_template-156</v>
       </c>
       <c r="G576" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="J576" t="s">
         <v>76</v>
@@ -21802,11 +21724,11 @@
         <v>397</v>
       </c>
       <c r="F577" t="str">
-        <f>E81</f>
-        <v>hmsg_message_template-157</v>
+        <f>E80</f>
+        <v>hmsg_message_template-156</v>
       </c>
       <c r="G577" t="s">
-        <v>419</v>
+        <v>451</v>
       </c>
       <c r="J577" t="s">
         <v>76</v>
@@ -21820,11 +21742,11 @@
         <v>397</v>
       </c>
       <c r="F578" t="str">
-        <f>E81</f>
-        <v>hmsg_message_template-157</v>
+        <f>E80</f>
+        <v>hmsg_message_template-156</v>
       </c>
       <c r="G578" t="s">
-        <v>415</v>
+        <v>457</v>
       </c>
       <c r="J578" t="s">
         <v>76</v>
@@ -21838,11 +21760,11 @@
         <v>397</v>
       </c>
       <c r="F579" t="str">
-        <f>E81</f>
-        <v>hmsg_message_template-157</v>
+        <f>E80</f>
+        <v>hmsg_message_template-156</v>
       </c>
       <c r="G579" t="s">
-        <v>456</v>
+        <v>416</v>
       </c>
       <c r="J579" t="s">
         <v>76</v>
@@ -21856,11 +21778,11 @@
         <v>397</v>
       </c>
       <c r="F580" t="str">
-        <f>E81</f>
-        <v>hmsg_message_template-157</v>
+        <f>E80</f>
+        <v>hmsg_message_template-156</v>
       </c>
       <c r="G580" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="J580" t="s">
         <v>76</v>
@@ -21878,7 +21800,7 @@
         <v>hmsg_message_template-157</v>
       </c>
       <c r="G581" t="s">
-        <v>457</v>
+        <v>404</v>
       </c>
       <c r="J581" t="s">
         <v>76</v>
@@ -21896,7 +21818,7 @@
         <v>hmsg_message_template-157</v>
       </c>
       <c r="G582" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="J582" t="s">
         <v>76</v>
@@ -21914,7 +21836,7 @@
         <v>hmsg_message_template-157</v>
       </c>
       <c r="G583" t="s">
-        <v>458</v>
+        <v>402</v>
       </c>
       <c r="J583" t="s">
         <v>76</v>
@@ -21928,11 +21850,11 @@
         <v>397</v>
       </c>
       <c r="F584" t="str">
-        <f>E82</f>
-        <v>hmsg_message_template-158</v>
+        <f>E81</f>
+        <v>hmsg_message_template-157</v>
       </c>
       <c r="G584" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="J584" t="s">
         <v>76</v>
@@ -21946,11 +21868,11 @@
         <v>397</v>
       </c>
       <c r="F585" t="str">
-        <f>E82</f>
-        <v>hmsg_message_template-158</v>
+        <f>E81</f>
+        <v>hmsg_message_template-157</v>
       </c>
       <c r="G585" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="J585" t="s">
         <v>76</v>
@@ -21964,11 +21886,11 @@
         <v>397</v>
       </c>
       <c r="F586" t="str">
-        <f>E82</f>
-        <v>hmsg_message_template-158</v>
+        <f>E81</f>
+        <v>hmsg_message_template-157</v>
       </c>
       <c r="G586" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="J586" t="s">
         <v>76</v>
@@ -21982,11 +21904,11 @@
         <v>397</v>
       </c>
       <c r="F587" t="str">
-        <f>E82</f>
-        <v>hmsg_message_template-158</v>
+        <f>E81</f>
+        <v>hmsg_message_template-157</v>
       </c>
       <c r="G587" t="s">
-        <v>419</v>
+        <v>451</v>
       </c>
       <c r="J587" t="s">
         <v>76</v>
@@ -22000,11 +21922,11 @@
         <v>397</v>
       </c>
       <c r="F588" t="str">
-        <f>E82</f>
-        <v>hmsg_message_template-158</v>
+        <f>E81</f>
+        <v>hmsg_message_template-157</v>
       </c>
       <c r="G588" t="s">
-        <v>415</v>
+        <v>457</v>
       </c>
       <c r="J588" t="s">
         <v>76</v>
@@ -22018,11 +21940,11 @@
         <v>397</v>
       </c>
       <c r="F589" t="str">
-        <f>E82</f>
-        <v>hmsg_message_template-158</v>
+        <f>E81</f>
+        <v>hmsg_message_template-157</v>
       </c>
       <c r="G589" t="s">
-        <v>456</v>
+        <v>416</v>
       </c>
       <c r="J589" t="s">
         <v>76</v>
@@ -22036,11 +21958,11 @@
         <v>397</v>
       </c>
       <c r="F590" t="str">
-        <f>E82</f>
-        <v>hmsg_message_template-158</v>
+        <f>E81</f>
+        <v>hmsg_message_template-157</v>
       </c>
       <c r="G590" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="J590" t="s">
         <v>76</v>
@@ -22058,7 +21980,7 @@
         <v>hmsg_message_template-158</v>
       </c>
       <c r="G591" t="s">
-        <v>457</v>
+        <v>404</v>
       </c>
       <c r="J591" t="s">
         <v>76</v>
@@ -22076,7 +21998,7 @@
         <v>hmsg_message_template-158</v>
       </c>
       <c r="G592" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="J592" t="s">
         <v>76</v>
@@ -22094,7 +22016,7 @@
         <v>hmsg_message_template-158</v>
       </c>
       <c r="G593" t="s">
-        <v>458</v>
+        <v>402</v>
       </c>
       <c r="J593" t="s">
         <v>76</v>
@@ -22108,11 +22030,11 @@
         <v>397</v>
       </c>
       <c r="F594" t="str">
-        <f>E83</f>
-        <v>hmsg_message_template-159</v>
+        <f>E82</f>
+        <v>hmsg_message_template-158</v>
       </c>
       <c r="G594" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="J594" t="s">
         <v>76</v>
@@ -22126,11 +22048,11 @@
         <v>397</v>
       </c>
       <c r="F595" t="str">
-        <f>E83</f>
-        <v>hmsg_message_template-159</v>
+        <f>E82</f>
+        <v>hmsg_message_template-158</v>
       </c>
       <c r="G595" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="J595" t="s">
         <v>76</v>
@@ -22144,11 +22066,11 @@
         <v>397</v>
       </c>
       <c r="F596" t="str">
-        <f>E83</f>
-        <v>hmsg_message_template-159</v>
+        <f>E82</f>
+        <v>hmsg_message_template-158</v>
       </c>
       <c r="G596" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="J596" t="s">
         <v>76</v>
@@ -22162,11 +22084,11 @@
         <v>397</v>
       </c>
       <c r="F597" t="str">
-        <f>E83</f>
-        <v>hmsg_message_template-159</v>
+        <f>E82</f>
+        <v>hmsg_message_template-158</v>
       </c>
       <c r="G597" t="s">
-        <v>419</v>
+        <v>451</v>
       </c>
       <c r="J597" t="s">
         <v>76</v>
@@ -22180,11 +22102,11 @@
         <v>397</v>
       </c>
       <c r="F598" t="str">
-        <f>E83</f>
-        <v>hmsg_message_template-159</v>
+        <f>E82</f>
+        <v>hmsg_message_template-158</v>
       </c>
       <c r="G598" t="s">
-        <v>415</v>
+        <v>457</v>
       </c>
       <c r="J598" t="s">
         <v>76</v>
@@ -22198,11 +22120,11 @@
         <v>397</v>
       </c>
       <c r="F599" t="str">
-        <f>E83</f>
-        <v>hmsg_message_template-159</v>
+        <f>E82</f>
+        <v>hmsg_message_template-158</v>
       </c>
       <c r="G599" t="s">
-        <v>456</v>
+        <v>416</v>
       </c>
       <c r="J599" t="s">
         <v>76</v>
@@ -22216,11 +22138,11 @@
         <v>397</v>
       </c>
       <c r="F600" t="str">
-        <f>E83</f>
-        <v>hmsg_message_template-159</v>
+        <f>E82</f>
+        <v>hmsg_message_template-158</v>
       </c>
       <c r="G600" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="J600" t="s">
         <v>76</v>
@@ -22238,7 +22160,7 @@
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G601" t="s">
-        <v>457</v>
+        <v>404</v>
       </c>
       <c r="J601" t="s">
         <v>76</v>
@@ -22256,7 +22178,7 @@
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G602" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="J602" t="s">
         <v>76</v>
@@ -22274,7 +22196,7 @@
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G603" t="s">
-        <v>458</v>
+        <v>402</v>
       </c>
       <c r="J603" t="s">
         <v>76</v>
@@ -22288,11 +22210,11 @@
         <v>397</v>
       </c>
       <c r="F604" t="str">
-        <f>E84</f>
-        <v>hmsg_message_template-160</v>
+        <f>E83</f>
+        <v>hmsg_message_template-159</v>
       </c>
       <c r="G604" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="J604" t="s">
         <v>76</v>
@@ -22306,11 +22228,11 @@
         <v>397</v>
       </c>
       <c r="F605" t="str">
-        <f>E84</f>
-        <v>hmsg_message_template-160</v>
+        <f>E83</f>
+        <v>hmsg_message_template-159</v>
       </c>
       <c r="G605" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="J605" t="s">
         <v>76</v>
@@ -22324,11 +22246,11 @@
         <v>397</v>
       </c>
       <c r="F606" t="str">
-        <f>E84</f>
-        <v>hmsg_message_template-160</v>
+        <f>E83</f>
+        <v>hmsg_message_template-159</v>
       </c>
       <c r="G606" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="J606" t="s">
         <v>76</v>
@@ -22342,11 +22264,11 @@
         <v>397</v>
       </c>
       <c r="F607" t="str">
-        <f>E84</f>
-        <v>hmsg_message_template-160</v>
+        <f>E83</f>
+        <v>hmsg_message_template-159</v>
       </c>
       <c r="G607" t="s">
-        <v>419</v>
+        <v>451</v>
       </c>
       <c r="J607" t="s">
         <v>76</v>
@@ -22360,11 +22282,11 @@
         <v>397</v>
       </c>
       <c r="F608" t="str">
-        <f>E84</f>
-        <v>hmsg_message_template-160</v>
+        <f>E83</f>
+        <v>hmsg_message_template-159</v>
       </c>
       <c r="G608" t="s">
-        <v>415</v>
+        <v>457</v>
       </c>
       <c r="J608" t="s">
         <v>76</v>
@@ -22378,11 +22300,11 @@
         <v>397</v>
       </c>
       <c r="F609" t="str">
-        <f>E84</f>
-        <v>hmsg_message_template-160</v>
+        <f>E83</f>
+        <v>hmsg_message_template-159</v>
       </c>
       <c r="G609" t="s">
-        <v>451</v>
+        <v>416</v>
       </c>
       <c r="J609" t="s">
         <v>76</v>
@@ -22396,11 +22318,11 @@
         <v>397</v>
       </c>
       <c r="F610" t="str">
-        <f>E84</f>
-        <v>hmsg_message_template-160</v>
+        <f>E83</f>
+        <v>hmsg_message_template-159</v>
       </c>
       <c r="G610" t="s">
-        <v>425</v>
+        <v>458</v>
       </c>
       <c r="J610" t="s">
         <v>76</v>
@@ -22418,7 +22340,7 @@
         <v>hmsg_message_template-160</v>
       </c>
       <c r="G611" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="J611" t="s">
         <v>76</v>
@@ -22432,11 +22354,11 @@
         <v>397</v>
       </c>
       <c r="F612" t="str">
-        <f>E85</f>
-        <v>hmsg_message_template-161</v>
+        <f>E84</f>
+        <v>hmsg_message_template-160</v>
       </c>
       <c r="G612" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="J612" t="s">
         <v>76</v>
@@ -22450,11 +22372,11 @@
         <v>397</v>
       </c>
       <c r="F613" t="str">
-        <f>E85</f>
-        <v>hmsg_message_template-161</v>
+        <f>E84</f>
+        <v>hmsg_message_template-160</v>
       </c>
       <c r="G613" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J613" t="s">
         <v>76</v>
@@ -22468,11 +22390,11 @@
         <v>397</v>
       </c>
       <c r="F614" t="str">
-        <f>E85</f>
-        <v>hmsg_message_template-161</v>
+        <f>E84</f>
+        <v>hmsg_message_template-160</v>
       </c>
       <c r="G614" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="J614" t="s">
         <v>76</v>
@@ -22486,11 +22408,11 @@
         <v>397</v>
       </c>
       <c r="F615" t="str">
-        <f>E85</f>
-        <v>hmsg_message_template-161</v>
+        <f>E84</f>
+        <v>hmsg_message_template-160</v>
       </c>
       <c r="G615" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="J615" t="s">
         <v>76</v>
@@ -22504,11 +22426,11 @@
         <v>397</v>
       </c>
       <c r="F616" t="str">
-        <f>E85</f>
-        <v>hmsg_message_template-161</v>
+        <f>E84</f>
+        <v>hmsg_message_template-160</v>
       </c>
       <c r="G616" t="s">
-        <v>415</v>
+        <v>451</v>
       </c>
       <c r="J616" t="s">
         <v>76</v>
@@ -22522,11 +22444,11 @@
         <v>397</v>
       </c>
       <c r="F617" t="str">
-        <f>E85</f>
-        <v>hmsg_message_template-161</v>
+        <f>E84</f>
+        <v>hmsg_message_template-160</v>
       </c>
       <c r="G617" t="s">
-        <v>451</v>
+        <v>425</v>
       </c>
       <c r="J617" t="s">
         <v>76</v>
@@ -22540,11 +22462,11 @@
         <v>397</v>
       </c>
       <c r="F618" t="str">
-        <f>E85</f>
-        <v>hmsg_message_template-161</v>
+        <f>E84</f>
+        <v>hmsg_message_template-160</v>
       </c>
       <c r="G618" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="J618" t="s">
         <v>76</v>
@@ -22562,7 +22484,7 @@
         <v>hmsg_message_template-161</v>
       </c>
       <c r="G619" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="J619" t="s">
         <v>76</v>
@@ -22576,106 +22498,232 @@
         <v>397</v>
       </c>
       <c r="F620" t="str">
+        <f>E85</f>
+        <v>hmsg_message_template-161</v>
+      </c>
+      <c r="G620" t="s">
+        <v>401</v>
+      </c>
+      <c r="J620" t="s">
+        <v>76</v>
+      </c>
+      <c r="K620" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="621" spans="5:11">
+      <c r="E621" t="s">
+        <v>397</v>
+      </c>
+      <c r="F621" t="str">
+        <f>E85</f>
+        <v>hmsg_message_template-161</v>
+      </c>
+      <c r="G621" t="s">
+        <v>402</v>
+      </c>
+      <c r="J621" t="s">
+        <v>76</v>
+      </c>
+      <c r="K621" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="622" spans="5:11">
+      <c r="E622" t="s">
+        <v>397</v>
+      </c>
+      <c r="F622" t="str">
+        <f>E85</f>
+        <v>hmsg_message_template-161</v>
+      </c>
+      <c r="G622" t="s">
+        <v>419</v>
+      </c>
+      <c r="J622" t="s">
+        <v>76</v>
+      </c>
+      <c r="K622" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="623" spans="5:11">
+      <c r="E623" t="s">
+        <v>397</v>
+      </c>
+      <c r="F623" t="str">
+        <f>E85</f>
+        <v>hmsg_message_template-161</v>
+      </c>
+      <c r="G623" t="s">
+        <v>415</v>
+      </c>
+      <c r="J623" t="s">
+        <v>76</v>
+      </c>
+      <c r="K623" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="624" spans="5:11">
+      <c r="E624" t="s">
+        <v>397</v>
+      </c>
+      <c r="F624" t="str">
+        <f>E85</f>
+        <v>hmsg_message_template-161</v>
+      </c>
+      <c r="G624" t="s">
+        <v>451</v>
+      </c>
+      <c r="J624" t="s">
+        <v>76</v>
+      </c>
+      <c r="K624" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="625" spans="5:11">
+      <c r="E625" t="s">
+        <v>397</v>
+      </c>
+      <c r="F625" t="str">
+        <f>E85</f>
+        <v>hmsg_message_template-161</v>
+      </c>
+      <c r="G625" t="s">
+        <v>425</v>
+      </c>
+      <c r="J625" t="s">
+        <v>76</v>
+      </c>
+      <c r="K625" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="626" spans="5:11">
+      <c r="E626" t="s">
+        <v>397</v>
+      </c>
+      <c r="F626" t="str">
+        <f>E85</f>
+        <v>hmsg_message_template-161</v>
+      </c>
+      <c r="G626" t="s">
+        <v>416</v>
+      </c>
+      <c r="J626" t="s">
+        <v>76</v>
+      </c>
+      <c r="K626" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="627" spans="5:11">
+      <c r="E627" t="s">
+        <v>397</v>
+      </c>
+      <c r="F627" t="str">
         <f>E86</f>
         <v>hmsg_message_template-162</v>
       </c>
-      <c r="G620" t="s">
+      <c r="G627" t="s">
         <v>419</v>
       </c>
-      <c r="J620" t="s">
-        <v>76</v>
-      </c>
-      <c r="K620" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="621" spans="5:11">
-      <c r="E621" t="s">
-        <v>397</v>
-      </c>
-      <c r="F621" t="str">
+      <c r="J627" t="s">
+        <v>76</v>
+      </c>
+      <c r="K627" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="628" spans="5:11">
+      <c r="E628" t="s">
+        <v>397</v>
+      </c>
+      <c r="F628" t="str">
         <f>E86</f>
         <v>hmsg_message_template-162</v>
       </c>
-      <c r="G621" t="s">
+      <c r="G628" t="s">
         <v>415</v>
       </c>
-      <c r="J621" t="s">
-        <v>76</v>
-      </c>
-      <c r="K621" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="622" spans="5:11">
-      <c r="E622" t="s">
-        <v>397</v>
-      </c>
-      <c r="F622" t="str">
+      <c r="J628" t="s">
+        <v>76</v>
+      </c>
+      <c r="K628" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="629" spans="5:11">
+      <c r="E629" t="s">
+        <v>397</v>
+      </c>
+      <c r="F629" t="str">
         <f>E86</f>
         <v>hmsg_message_template-162</v>
       </c>
-      <c r="G622" t="s">
+      <c r="G629" t="s">
         <v>451</v>
       </c>
-      <c r="J622" t="s">
-        <v>76</v>
-      </c>
-      <c r="K622" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="623" spans="5:11">
-      <c r="E623" t="s">
-        <v>397</v>
-      </c>
-      <c r="F623" t="str">
+      <c r="J629" t="s">
+        <v>76</v>
+      </c>
+      <c r="K629" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="630" spans="5:11">
+      <c r="E630" t="s">
+        <v>397</v>
+      </c>
+      <c r="F630" t="str">
         <f>E87</f>
         <v>hmsg_message_template-163</v>
       </c>
-      <c r="G623" t="s">
+      <c r="G630" t="s">
         <v>419</v>
       </c>
-      <c r="J623" t="s">
-        <v>76</v>
-      </c>
-      <c r="K623" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="624" spans="5:11">
-      <c r="E624" t="s">
-        <v>397</v>
-      </c>
-      <c r="F624" t="str">
+      <c r="J630" t="s">
+        <v>76</v>
+      </c>
+      <c r="K630" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="631" spans="5:11">
+      <c r="E631" t="s">
+        <v>397</v>
+      </c>
+      <c r="F631" t="str">
         <f>E87</f>
         <v>hmsg_message_template-163</v>
       </c>
-      <c r="G624" t="s">
+      <c r="G631" t="s">
         <v>415</v>
       </c>
-      <c r="J624" t="s">
-        <v>76</v>
-      </c>
-      <c r="K624" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="625" spans="5:11">
-      <c r="E625" t="s">
-        <v>397</v>
-      </c>
-      <c r="F625" t="str">
+      <c r="J631" t="s">
+        <v>76</v>
+      </c>
+      <c r="K631" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="632" spans="5:11">
+      <c r="E632" t="s">
+        <v>397</v>
+      </c>
+      <c r="F632" t="str">
         <f>E87</f>
         <v>hmsg_message_template-163</v>
       </c>
-      <c r="G625" t="s">
+      <c r="G632" t="s">
         <v>451</v>
       </c>
-      <c r="J625" t="s">
-        <v>76</v>
-      </c>
-      <c r="K625" t="s">
+      <c r="J632" t="s">
+        <v>76</v>
+      </c>
+      <c r="K632" t="s">
         <v>76</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4028" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4034" uniqueCount="771">
   <si>
     <r>
       <rPr>
@@ -2365,218 +2365,208 @@
     <t>合并请求</t>
   </si>
   <si>
-    <t>&lt;!doctype html&gt;
-&lt;html xmlns="http://www.w3.org/1999/xhtml" xmlns:v="urn:schemas-microsoft-com:vml"
-      xmlns:o="urn:schemas-microsoft-com:office:office"&gt;
-&lt;head&gt;
-    &lt;title&gt;&lt;/title&gt;
-    &lt;!--[if !mso]&gt;&lt;!-- --&gt;
-    &lt;meta http-equiv="X-UA-Compatible" content="IE=edge"&gt;
-    &lt;!--&lt;![endif]--&gt;
-    &lt;meta http-equiv="Content-Type" content="text/html; charset=UTF-8"&gt;
-    &lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt;
-    &lt;style type="text/css"&gt;
-        #outlook a {
-            padding: 0;
-        }
-        .ReadMsgBody {
-            width: 100%;
-        }
-        .ExternalClass {
-            width: 100%;
-        }
-        .ExternalClass * {
-            line-height: 100%;
-        }
-        body {
-            margin: 0;
-            padding: 0;
-            -webkit-text-size-adjust: 100%;
-            -ms-text-size-adjust: 100%;
-        }
-        table,
-        td {
-            border-collapse: collapse;
-            mso-table-lspace: 0pt;
-            mso-table-rspace: 0pt;
-        }
-        img {
-            border: 0;
-            height: auto;
-            line-height: 100%;
-            outline: none;
-            text-decoration: none;
-            -ms-interpolation-mode: bicubic;
-        }
-        p {
-            display: block;
-            margin: 13px 0;
-        }
-    &lt;/style&gt;
-    &lt;!--[if !mso]&gt;&lt;!--&gt;
-    &lt;style type="text/css"&gt;
-        @media only screen and (max-width: 480px) {
-            @-ms-viewport {
-                width: 320px;
-            }
-            @viewport {
-                width: 320px;
-            }
-        }
-    &lt;/style&gt;
-    &lt;!--&lt;![endif]--&gt;
-    &lt;!--[if mso]&gt;
-    &lt;xml&gt;
-        &lt;o:OfficeDocumentSettings&gt;
-            &lt;o:AllowPNG/&gt;
-            &lt;o:PixelsPerInch&gt;96&lt;/o:PixelsPerInch&gt;
-        &lt;/o:OfficeDocumentSettings&gt;
-    &lt;/xml&gt;
-    &lt;![endif]--&gt;
-    &lt;!--[if lte mso 11]&gt;
-    &lt;style type="text/css"&gt;
-        .outlook-group-fix {
-            width: 100% !important;
-        }
-    &lt;/style&gt;
-    &lt;![endif]--&gt;
-    &lt;!--[if !mso]&gt;&lt;!--&gt;
-    &lt;link href="https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700" rel="stylesheet" type="text/css"&gt;
-    &lt;style type="text/css"&gt;
-        @import url(https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700);
-    &lt;/style&gt;
-    &lt;!--&lt;![endif]--&gt;
-    &lt;style type="text/css"&gt;
-        @media only screen and (min-width: 480px) {
-            .mj-column-per-100 {
-                width: 100% !important;
-                max-width: 100%;
-            }
-        }
-    &lt;/style&gt;
-    &lt;style type="text/css"&gt;
-    &lt;/style&gt;
-&lt;/head&gt;
-&lt;body&gt;
+    <t>&lt;title&gt; &lt;/title&gt;
+  &lt;!--[if !mso]&gt;&lt;!-- --&gt;
+  &lt;meta http-equiv="X-UA-Compatible" content="IE=edge"&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;meta http-equiv="Content-Type" content="text/html; charset=UTF-8"&gt;
+  &lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt;
+  &lt;style type="text/css"&gt;
+    #outlook a {
+      padding: 0;
+    }
+    .ReadMsgBody {
+      width: 100%;
+    }
+    .ExternalClass {
+      width: 100%;
+    }
+    .ExternalClass * {
+      line-height: 100%;
+    }
+    body {
+      margin: 0;
+      padding: 0;
+      -webkit-text-size-adjust: 100%;
+      -ms-text-size-adjust: 100%;
+    }
+    table,
+    td {
+      border-collapse: collapse;
+      mso-table-lspace: 0pt;
+      mso-table-rspace: 0pt;
+    }
+    img {
+      border: 0;
+      height: auto;
+      line-height: 100%;
+      outline: none;
+      text-decoration: none;
+      -ms-interpolation-mode: bicubic;
+    }
+    p {
+      display: block;
+      margin: 13px 0;
+    }
+  &lt;/style&gt;
+  &lt;!--[if !mso]&gt;&lt;!--&gt;
+  &lt;style type="text/css"&gt;
+    @media only screen and (max-width:480px) {
+      @-ms-viewport {
+        width: 320px;
+      }
+      @viewport {
+        width: 320px;
+      }
+    }
+  &lt;/style&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;!--[if mso]&gt;
+  &lt;xml&gt;
+    &lt;o:OfficeDocumentSettings&gt;
+      &lt;o:AllowPNG/&gt;
+      &lt;o:PixelsPerInch&gt;96&lt;/o:PixelsPerInch&gt;
+    &lt;/o:OfficeDocumentSettings&gt;
+  &lt;/xml&gt;
+  &lt;![endif]--&gt;
+  &lt;!--[if lte mso 11]&gt;
+  &lt;style type="text/css"&gt;
+    .outlook-group-fix { width:100% !important; }
+  &lt;/style&gt;
+  &lt;![endif]--&gt;
+  &lt;!--[if !mso]&gt;&lt;!--&gt;
+  &lt;link href="https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700" rel="stylesheet" type="text/css"&gt;
+  &lt;style type="text/css"&gt;
+    @import url(https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700);
+  &lt;/style&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;style type="text/css"&gt;
+    @media only screen and (min-width:480px) {
+      .mj-column-per-100 {
+        width: 100% !important;
+        max-width: 100%;
+      }
+    }
+  &lt;/style&gt;
+  &lt;style type="text/css"&gt;
+  &lt;/style&gt;
 &lt;div style=""&gt;
-    &lt;!--[if mso | IE]&gt;
-    &lt;table
-            align="center" border="0" cellpadding="0" cellspacing="0" class="" style="width:600px;" width="782"
-    &gt;
-        &lt;tr&gt;
-            &lt;td style="line-height:0px;font-size:0px;mso-line-height-rule:exactly;"&gt;
-    &lt;![endif]--&gt;
-    &lt;div style="Margin:0px auto;max-width:600px;"&gt;
-        &lt;table align="center" border="0" cellpadding="0" cellspacing="0" role="presentation" style="width:100%;"&gt;
-            &lt;tbody&gt;
+  &lt;!--[if mso | IE]&gt;
+  &lt;table
+          align="center" border="0" cellpadding="0" cellspacing="0" class="" style="width:782px;" width="782"
+  &gt;
+    &lt;tr&gt;
+      &lt;td style="line-height:0px;font-size:0px;mso-line-height-rule:exactly;"&gt;
+  &lt;![endif]--&gt;
+  &lt;div style="Margin:0px auto;max-width:782px;"&gt;
+    &lt;table align="center" border="0" cellpadding="0" cellspacing="0" role="presentation" style="width:100%;"&gt;
+      &lt;tbody&gt;
+      &lt;tr&gt;
+        &lt;td style="direction:ltr;font-size:0px;padding:20px 0;text-align:center;vertical-align:top;"&gt;
+          &lt;!--[if mso | IE]&gt;
+          &lt;table role="presentation" border="0" cellpadding="0" cellspacing="0"&gt;
             &lt;tr&gt;
-                &lt;td style="direction:ltr;font-size:0px;padding:20px 0;text-align:center;vertical-align:top;"&gt;
-                    &lt;!--[if mso | IE]&gt;
-                    &lt;table role="presentation" border="0" cellpadding="0" cellspacing="0"&gt;
-                        &lt;tr&gt;
-                            &lt;td
-                                    class="" style="vertical-align:top;width:600px;"
-                            &gt;
-                    &lt;![endif]--&gt;
-                    &lt;div class="mj-column-per-100 outlook-group-fix"
-                         style="font-size:13px;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%;"&gt;
-                        &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation"
-                               style="vertical-align:top;" width="100%"&gt;
-                            &lt;tr&gt;
-                                &lt;td align="left" style="font-size:0px;padding:20px 25px;word-break:break-word;"&gt;
-                                    &lt;div style="font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;line-height:1;text-align:left;color:#000000;"&gt;
-                                        &lt;body&gt;
-                                        &lt;div style="width: 600px;
-      background: #FFFFFF;
-      margin: 0 auto;"&gt;
-                                            &lt;div style="height: 55px;
-      background-color: #ffffff;
-      border-bottom: 8px solid #3F51B5;"&gt;
-                                                &lt;table&gt;
-                                                    &lt;tr&gt;
-                                                        &lt;td style="padding-bottom: 0;vertical-align: bottom;"&gt;
-                                                            &lt;table&gt;
-                                                                &lt;tr&gt;
-                                                                    &lt;td style="width:190px;"&gt;&lt;img height="auto"
-                                                                                                  src="https://file.choerodon.com.cn/static/choerodon.png"
-                                                                                                  style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;"
-                                                                                                  width="190"/&gt;&lt;/td&gt;
-                                                                &lt;/tr&gt;
-                                                            &lt;/table&gt;
-                                                        &lt;td&gt;
-                                                    &lt;/tr&gt;
-                                                &lt;/table&gt;
-                                            &lt;/div&gt;
-                                            &lt;div style="padding: 30px 40px;
-      border-bottom: 0;
-      border-top: 0;
-      border-left:1px solid #E6E6E6;
-      border-right:1px solid #E6E6E6;
-      border-radius: 2px;
-      background: #FFFFFF;"&gt;
-                                                &lt;div&gt;
-                                                  &lt;p&gt;项目“${projectName}”下应用服务“${appServiceName}”中 ${realName} 提交了合并请求，需要您进行审核。&lt;/p&gt;
-                                                &lt;/div&gt;
-                                            &lt;/div&gt;
-                                            &lt;div&gt;
-                                                &lt;div style="text-align: justify;"&gt;
-                                                    &lt;table style="height: 148px; background-color: #f7f7f7;width: 100%;"&gt;
-                                                        &lt;tr&gt;
-                                                            &lt;td style="padding-left: 29px;"&gt;
-                                                                &lt;table&gt;
-                                                                    &lt;tr&gt;
-                                                                        &lt;td&gt;&lt;img height="auto"
-                                                                                 style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:90px;"
-                                                                                 width="90"
-                                                                                 src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt;
-                                                                    &lt;/tr&gt;
-                                                                    &lt;tr&gt;
-                                                                        &lt;td style="text-align: center"&gt;微信公众号&lt;/td&gt;
-                                                                    &lt;/tr&gt;
-                                                                &lt;/table&gt;
-                                                            &lt;td&gt;
-                                                            &lt;td&gt;
-                                                                &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; vertical-align: top;"&gt;
-                                                                    &lt;p style="font-size: 12px;
+              &lt;td
+                      class="" style="vertical-align:top;width:782px;"
+              &gt;
+          &lt;![endif]--&gt;
+          &lt;div class="mj-column-per-100 outlook-group-fix" style="font-size:13px;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%;"&gt;
+            &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="vertical-align:top;" width="100%"&gt;
+              &lt;tbody&gt;&lt;tr&gt;
+                &lt;td align="left" style="padding: 10px 25px; word-break: break-word;"&gt;
+                  &lt;div style="line-height: 1; text-align: left;"&gt;
+                    &lt;div style="width: 782px; background: rgb(255, 255, 255); margin: 0px auto;"&gt;
+                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; height: 115px; background-color: rgb(255, 255, 255); border-bottom: 8px solid rgb(63, 81, 181);"&gt;
+                        &lt;table&gt;
+                          &lt;tbody&gt;&lt;tr&gt;
+                            &lt;td style="padding-bottom: 0;vertical-align: bottom;"&gt;
+                              &lt;table&gt;
+                                &lt;tbody&gt;&lt;tr&gt;
+                                  &lt;td style="width:190px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                                &lt;/tr&gt;
+                              &lt;/tbody&gt;&lt;/table&gt;
+                            &lt;/td&gt;&lt;td&gt;
+                            &lt;/td&gt;&lt;td style="vertical-align: bottom;"&gt;
+                              &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; "&gt;
+                                &lt;p style="font-size: 14px;
+    color: #252528;
+    letter-spacing: 0;
+    display: inline-block;
+    text-align: right;
+    width: 558px;
+    padding-top: 55px;"&gt;&lt;/p&gt;
+                              &lt;/div&gt;
+                            &lt;/td&gt;
+                          &lt;/tr&gt;
+                        &lt;/tbody&gt;&lt;/table&gt;
+                      &lt;/div&gt;
+                      &lt;div style="padding: 68px 40px; border-width: 0px 1px; border-bottom-style: initial; border-bottom-color: initial; border-top-style: initial; border-top-color: initial; border-left-style: solid; border-left-color: rgb(230, 230, 230); border-right-style: solid; border-right-color: rgb(230, 230, 230); border-radius: 2px; background: rgb(255, 255, 255);"&gt;
+                        &lt;div style=""&gt;
+                                &lt;p&gt;项目“${projectName}”下应用服务“${appServiceName}”中 ${realName} 提交了合并请求，需要您进行审核。&lt;/p&gt;
+                        &lt;/div&gt;
+                        &lt;div class="mj-column-per-100 outlook-group-fix" style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; text-align: left; direction: ltr; display: inline-block; vertical-align: top; width: 100%;"&gt;
+                          &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="vertical-align:top;" width="100%"&gt;
+                            &lt;tbody&gt;&lt;tr&gt;
+                              &lt;td align="center" vertical-align="middle" style="font-size:0px;padding:10px 25px;padding-top:60px;word-break:break-word;"&gt;
+                                &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="border-collapse:separate;width:212px;line-height:100%;"&gt;
+                                  &lt;tbody&gt;&lt;tr&gt;
+                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#3f51b5;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
+                                      查看详情
+                                    &lt;/a&gt; &lt;/td&gt;
+                                  &lt;/tr&gt;
+                                &lt;/tbody&gt;&lt;/table&gt;&lt;br&gt;
+                              &lt;/td&gt;
+                            &lt;/tr&gt;
+                          &lt;/tbody&gt;&lt;/table&gt;
+                        &lt;/div&gt;
+                      &lt;/div&gt;
+                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px;"&gt;
+                        &lt;div style="text-align: justify;"&gt;
+                          &lt;table style="height: 148px; background-color: #f7f7f7;width: 100%;"&gt;
+                            &lt;tbody&gt;&lt;tr&gt;
+                              &lt;td style="padding-left: 29px;"&gt;
+                                &lt;table&gt;
+                                  &lt;tbody&gt;&lt;tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:90px;" width="90" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                  &lt;tr&gt;
+                                    &lt;td style="text-align: center"&gt;微信公众号&lt;/td&gt;
+                                  &lt;/tr&gt;
+                                &lt;/tbody&gt;&lt;/table&gt;
+                              &lt;/td&gt;&lt;td&gt;
+                              &lt;/td&gt;&lt;td&gt;
+                                &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; vertical-align: top;"&gt;
+                                  &lt;p style="font-size: 12px;
       color: #626774;
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;"&gt; 此邮件为系统邮件，请勿回复。 &lt;/p&gt;
-                                                                    &lt;p style="font-size: 12px;
+                                  &lt;p style="font-size: 12px;
       color: #626774;
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px"
-                                                          href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt;或 &lt;a
-                                                                            style="text-decoration:none;font-size: 12px"
-                                                                            href="http://choerodon.io/zh/docs/"
-                                                                            target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
-                                                                    &lt;p style="font-size: 12px;
+      margin-top: 0;"&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt;或 &lt;a style="text-decoration:none;font-size: 12px" href="http://choerodon.io/zh/docs/" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+                                  &lt;p style="font-size: 12px;
       color: #626774;
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px"
-                                               href="http://forum.choerodon.io/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
-                                                                    &lt;p style="font-size: 12px;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px" href="http://forum.choerodon.io/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
+                                  &lt;p style="font-size: 12px;
       color: #626774;
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：choerodon@vip.hand-china.com&lt;/p&gt;
-                                                                &lt;/div&gt;
-                                                            &lt;/td&gt;
-                                                        &lt;/tr&gt;
-                                                    &lt;/table&gt;
-                                                &lt;/div&gt;
-                                            &lt;/div&gt;
-                                            &lt;div style="width: 600px;
-      height: 34px;
-      background: #3F51B5;
-      "&gt;
-                                                &lt;p style="opacity: 0.8;
+                                &lt;/div&gt;
+                              &lt;/td&gt;
+                            &lt;/tr&gt;
+                          &lt;/tbody&gt;&lt;/table&gt;
+                        &lt;/div&gt;
+                      &lt;/div&gt;
+                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; width: 782px; height: 34px; background: rgb(63, 81, 181);"&gt;
+                        &lt;p style="opacity: 0.8;
       font-size: 10px;
       color: #FFFFFF;
       text-align: center;
@@ -2584,32 +2574,29 @@
       line-height: 34px;
       width: 100%;
       margin: 0 auto;"&gt;Copyright © The Choerodon Author. All rights reserved.&lt;/p&gt;
-                                            &lt;/div&gt;
-                                        &lt;/div&gt;
-                                        &lt;/body&gt;
-                                    &lt;/div&gt;
-                                &lt;/td&gt;
-                            &lt;/tr&gt;
-                        &lt;/table&gt;
+                      &lt;/div&gt;
                     &lt;/div&gt;
-                    &lt;!--[if mso | IE]&gt;
-                    &lt;/td&gt;
-                    &lt;/tr&gt;
-                    &lt;/table&gt;
-                    &lt;![endif]--&gt;
+                  &lt;/div&gt;
                 &lt;/td&gt;
-            &lt;/tr&gt;
-            &lt;/tbody&gt;
-        &lt;/table&gt;
-    &lt;/div&gt;
-    &lt;!--[if mso | IE]&gt;
-    &lt;/td&gt;
-    &lt;/tr&gt;
-    &lt;/table&gt;
-    &lt;![endif]--&gt;
-&lt;/div&gt;
-&lt;/body&gt;
-&lt;/html&gt;</t>
+              &lt;/tr&gt;
+            &lt;/tbody&gt;&lt;/table&gt;
+          &lt;/div&gt;
+          &lt;!--[if mso | IE]&gt;
+          &lt;/td&gt;
+          &lt;/tr&gt;
+          &lt;/table&gt;
+          &lt;![endif]--&gt;
+        &lt;/td&gt;
+      &lt;/tr&gt;
+      &lt;/tbody&gt;
+    &lt;/table&gt;&lt;br&gt;
+  &lt;/div&gt;
+  &lt;!--[if mso | IE]&gt;
+  &lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;/table&gt;
+  &lt;![endif]--&gt;
+&lt;/div&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-21</t>
@@ -4798,218 +4785,208 @@
     <t>MERGE_REQUEST_PASSED.EMAIL</t>
   </si>
   <si>
-    <t>&lt;!doctype html&gt;
-&lt;html xmlns="http://www.w3.org/1999/xhtml" xmlns:v="urn:schemas-microsoft-com:vml"
-      xmlns:o="urn:schemas-microsoft-com:office:office"&gt;
-&lt;head&gt;
-    &lt;title&gt;&lt;/title&gt;
-    &lt;!--[if !mso]&gt;&lt;!-- --&gt;
-    &lt;meta http-equiv="X-UA-Compatible" content="IE=edge"&gt;
-    &lt;!--&lt;![endif]--&gt;
-    &lt;meta http-equiv="Content-Type" content="text/html; charset=UTF-8"&gt;
-    &lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt;
-    &lt;style type="text/css"&gt;
-        #outlook a {
-            padding: 0;
-        }
-        .ReadMsgBody {
-            width: 100%;
-        }
-        .ExternalClass {
-            width: 100%;
-        }
-        .ExternalClass * {
-            line-height: 100%;
-        }
-        body {
-            margin: 0;
-            padding: 0;
-            -webkit-text-size-adjust: 100%;
-            -ms-text-size-adjust: 100%;
-        }
-        table,
-        td {
-            border-collapse: collapse;
-            mso-table-lspace: 0pt;
-            mso-table-rspace: 0pt;
-        }
-        img {
-            border: 0;
-            height: auto;
-            line-height: 100%;
-            outline: none;
-            text-decoration: none;
-            -ms-interpolation-mode: bicubic;
-        }
-        p {
-            display: block;
-            margin: 13px 0;
-        }
-    &lt;/style&gt;
-    &lt;!--[if !mso]&gt;&lt;!--&gt;
-    &lt;style type="text/css"&gt;
-        @media only screen and (max-width: 480px) {
-            @-ms-viewport {
-                width: 320px;
-            }
-            @viewport {
-                width: 320px;
-            }
-        }
-    &lt;/style&gt;
-    &lt;!--&lt;![endif]--&gt;
-    &lt;!--[if mso]&gt;
-    &lt;xml&gt;
-        &lt;o:OfficeDocumentSettings&gt;
-            &lt;o:AllowPNG/&gt;
-            &lt;o:PixelsPerInch&gt;96&lt;/o:PixelsPerInch&gt;
-        &lt;/o:OfficeDocumentSettings&gt;
-    &lt;/xml&gt;
-    &lt;![endif]--&gt;
-    &lt;!--[if lte mso 11]&gt;
-    &lt;style type="text/css"&gt;
-        .outlook-group-fix {
-            width: 100% !important;
-        }
-    &lt;/style&gt;
-    &lt;![endif]--&gt;
-    &lt;!--[if !mso]&gt;&lt;!--&gt;
-    &lt;link href="https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700" rel="stylesheet" type="text/css"&gt;
-    &lt;style type="text/css"&gt;
-        @import url(https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700);
-    &lt;/style&gt;
-    &lt;!--&lt;![endif]--&gt;
-    &lt;style type="text/css"&gt;
-        @media only screen and (min-width: 480px) {
-            .mj-column-per-100 {
-                width: 100% !important;
-                max-width: 100%;
-            }
-        }
-    &lt;/style&gt;
-    &lt;style type="text/css"&gt;
-    &lt;/style&gt;
-&lt;/head&gt;
-&lt;body&gt;
+    <t>&lt;title&gt; &lt;/title&gt;
+  &lt;!--[if !mso]&gt;&lt;!-- --&gt;
+  &lt;meta http-equiv="X-UA-Compatible" content="IE=edge"&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;meta http-equiv="Content-Type" content="text/html; charset=UTF-8"&gt;
+  &lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt;
+  &lt;style type="text/css"&gt;
+    #outlook a {
+      padding: 0;
+    }
+    .ReadMsgBody {
+      width: 100%;
+    }
+    .ExternalClass {
+      width: 100%;
+    }
+    .ExternalClass * {
+      line-height: 100%;
+    }
+    body {
+      margin: 0;
+      padding: 0;
+      -webkit-text-size-adjust: 100%;
+      -ms-text-size-adjust: 100%;
+    }
+    table,
+    td {
+      border-collapse: collapse;
+      mso-table-lspace: 0pt;
+      mso-table-rspace: 0pt;
+    }
+    img {
+      border: 0;
+      height: auto;
+      line-height: 100%;
+      outline: none;
+      text-decoration: none;
+      -ms-interpolation-mode: bicubic;
+    }
+    p {
+      display: block;
+      margin: 13px 0;
+    }
+  &lt;/style&gt;
+  &lt;!--[if !mso]&gt;&lt;!--&gt;
+  &lt;style type="text/css"&gt;
+    @media only screen and (max-width:480px) {
+      @-ms-viewport {
+        width: 320px;
+      }
+      @viewport {
+        width: 320px;
+      }
+    }
+  &lt;/style&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;!--[if mso]&gt;
+  &lt;xml&gt;
+    &lt;o:OfficeDocumentSettings&gt;
+      &lt;o:AllowPNG/&gt;
+      &lt;o:PixelsPerInch&gt;96&lt;/o:PixelsPerInch&gt;
+    &lt;/o:OfficeDocumentSettings&gt;
+  &lt;/xml&gt;
+  &lt;![endif]--&gt;
+  &lt;!--[if lte mso 11]&gt;
+  &lt;style type="text/css"&gt;
+    .outlook-group-fix { width:100% !important; }
+  &lt;/style&gt;
+  &lt;![endif]--&gt;
+  &lt;!--[if !mso]&gt;&lt;!--&gt;
+  &lt;link href="https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700" rel="stylesheet" type="text/css"&gt;
+  &lt;style type="text/css"&gt;
+    @import url(https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700);
+  &lt;/style&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;style type="text/css"&gt;
+    @media only screen and (min-width:480px) {
+      .mj-column-per-100 {
+        width: 100% !important;
+        max-width: 100%;
+      }
+    }
+  &lt;/style&gt;
+  &lt;style type="text/css"&gt;
+  &lt;/style&gt;
 &lt;div style=""&gt;
-    &lt;!--[if mso | IE]&gt;
-    &lt;table
-            align="center" border="0" cellpadding="0" cellspacing="0" class="" style="width:600px;" width="782"
-    &gt;
-        &lt;tr&gt;
-            &lt;td style="line-height:0px;font-size:0px;mso-line-height-rule:exactly;"&gt;
-    &lt;![endif]--&gt;
-    &lt;div style="Margin:0px auto;max-width:600px;"&gt;
-        &lt;table align="center" border="0" cellpadding="0" cellspacing="0" role="presentation" style="width:100%;"&gt;
-            &lt;tbody&gt;
+  &lt;!--[if mso | IE]&gt;
+  &lt;table
+          align="center" border="0" cellpadding="0" cellspacing="0" class="" style="width:782px;" width="782"
+  &gt;
+    &lt;tr&gt;
+      &lt;td style="line-height:0px;font-size:0px;mso-line-height-rule:exactly;"&gt;
+  &lt;![endif]--&gt;
+  &lt;div style="Margin:0px auto;max-width:782px;"&gt;
+    &lt;table align="center" border="0" cellpadding="0" cellspacing="0" role="presentation" style="width:100%;"&gt;
+      &lt;tbody&gt;
+      &lt;tr&gt;
+        &lt;td style="direction:ltr;font-size:0px;padding:20px 0;text-align:center;vertical-align:top;"&gt;
+          &lt;!--[if mso | IE]&gt;
+          &lt;table role="presentation" border="0" cellpadding="0" cellspacing="0"&gt;
             &lt;tr&gt;
-                &lt;td style="direction:ltr;font-size:0px;padding:20px 0;text-align:center;vertical-align:top;"&gt;
-                    &lt;!--[if mso | IE]&gt;
-                    &lt;table role="presentation" border="0" cellpadding="0" cellspacing="0"&gt;
-                        &lt;tr&gt;
-                            &lt;td
-                                    class="" style="vertical-align:top;width:600px;"
-                            &gt;
-                    &lt;![endif]--&gt;
-                    &lt;div class="mj-column-per-100 outlook-group-fix"
-                         style="font-size:13px;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%;"&gt;
-                        &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation"
-                               style="vertical-align:top;" width="100%"&gt;
-                            &lt;tr&gt;
-                                &lt;td align="left" style="font-size:0px;padding:20px 25px;word-break:break-word;"&gt;
-                                    &lt;div style="font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;line-height:1;text-align:left;color:#000000;"&gt;
-                                        &lt;body&gt;
-                                        &lt;div style="width: 600px;
-      background: #FFFFFF;
-      margin: 0 auto;"&gt;
-                                            &lt;div style="height: 55px;
-      background-color: #ffffff;
-      border-bottom: 8px solid #3F51B5;"&gt;
-                                                &lt;table&gt;
-                                                    &lt;tr&gt;
-                                                        &lt;td style="padding-bottom: 0;vertical-align: bottom;"&gt;
-                                                            &lt;table&gt;
-                                                                &lt;tr&gt;
-                                                                    &lt;td style="width:190px;"&gt;&lt;img height="auto"
-                                                                                                  src="https://file.choerodon.com.cn/static/choerodon.png"
-                                                                                                  style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;"
-                                                                                                  width="190"/&gt;&lt;/td&gt;
-                                                                &lt;/tr&gt;
-                                                            &lt;/table&gt;
-                                                        &lt;td&gt;
-                                                    &lt;/tr&gt;
-                                                &lt;/table&gt;
-                                            &lt;/div&gt;
-                                            &lt;div style="padding: 30px 40px;
-      border-bottom: 0;
-      border-top: 0;
-      border-left:1px solid #E6E6E6;
-      border-right:1px solid #E6E6E6;
-      border-radius: 2px;
-      background: #FFFFFF;"&gt;
-                                                &lt;div&gt;
-            &lt;p&gt;您在项目“${projectName}”下应用服务“${appServiceName}”中提交的合并请求已被 ${realName} 合并。&lt;/p&gt;
-                                                   &lt;/div&gt;
-                                            &lt;/div&gt;
-                                            &lt;div&gt;
-                                                &lt;div style="text-align: justify;"&gt;
-                                                    &lt;table style="height: 148px; background-color: #f7f7f7;width: 100%;"&gt;
-                                                        &lt;tr&gt;
-                                                            &lt;td style="padding-left: 29px;"&gt;
-                                                                &lt;table&gt;
-                                                                    &lt;tr&gt;
-                                                                        &lt;td&gt;&lt;img height="auto"
-                                                                                 style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:90px;"
-                                                                                 width="90"
-                                                                                 src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt;
-                                                                    &lt;/tr&gt;
-                                                                    &lt;tr&gt;
-                                                                        &lt;td style="text-align: center"&gt;微信公众号&lt;/td&gt;
-                                                                    &lt;/tr&gt;
-                                                                &lt;/table&gt;
-                                                            &lt;td&gt;
-                                                            &lt;td&gt;
-                                                                &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; vertical-align: top;"&gt;
-                                                                    &lt;p style="font-size: 12px;
+              &lt;td
+                      class="" style="vertical-align:top;width:782px;"
+              &gt;
+          &lt;![endif]--&gt;
+          &lt;div class="mj-column-per-100 outlook-group-fix" style="font-size:13px;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%;"&gt;
+            &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="vertical-align:top;" width="100%"&gt;
+              &lt;tbody&gt;&lt;tr&gt;
+                &lt;td align="left" style="padding: 10px 25px; word-break: break-word;"&gt;
+                  &lt;div style="line-height: 1; text-align: left;"&gt;
+                    &lt;div style="width: 782px; background: rgb(255, 255, 255); margin: 0px auto;"&gt;
+                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; height: 115px; background-color: rgb(255, 255, 255); border-bottom: 8px solid rgb(63, 81, 181);"&gt;
+                        &lt;table&gt;
+                          &lt;tbody&gt;&lt;tr&gt;
+                            &lt;td style="padding-bottom: 0;vertical-align: bottom;"&gt;
+                              &lt;table&gt;
+                                &lt;tbody&gt;&lt;tr&gt;
+                                  &lt;td style="width:190px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                                &lt;/tr&gt;
+                              &lt;/tbody&gt;&lt;/table&gt;
+                            &lt;/td&gt;&lt;td&gt;
+                            &lt;/td&gt;&lt;td style="vertical-align: bottom;"&gt;
+                              &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; "&gt;
+                                &lt;p style="font-size: 14px;
+    color: #252528;
+    letter-spacing: 0;
+    display: inline-block;
+    text-align: right;
+    width: 558px;
+    padding-top: 55px;"&gt;&lt;/p&gt;
+                              &lt;/div&gt;
+                            &lt;/td&gt;
+                          &lt;/tr&gt;
+                        &lt;/tbody&gt;&lt;/table&gt;
+                      &lt;/div&gt;
+                      &lt;div style="padding: 68px 40px; border-width: 0px 1px; border-bottom-style: initial; border-bottom-color: initial; border-top-style: initial; border-top-color: initial; border-left-style: solid; border-left-color: rgb(230, 230, 230); border-right-style: solid; border-right-color: rgb(230, 230, 230); border-radius: 2px; background: rgb(255, 255, 255);"&gt;
+                        &lt;div style=""&gt;
+                                &lt;p&gt;您在项目“${projectName}”下应用服务“${appServiceName}”中提交的合并请求已被 ${realName} 合并。&lt;/p&gt;
+                        &lt;/div&gt;
+                        &lt;div class="mj-column-per-100 outlook-group-fix" style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; text-align: left; direction: ltr; display: inline-block; vertical-align: top; width: 100%;"&gt;
+                          &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="vertical-align:top;" width="100%"&gt;
+                            &lt;tbody&gt;&lt;tr&gt;
+                              &lt;td align="center" vertical-align="middle" style="font-size:0px;padding:10px 25px;padding-top:60px;word-break:break-word;"&gt;
+                                &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="border-collapse:separate;width:212px;line-height:100%;"&gt;
+                                  &lt;tbody&gt;&lt;tr&gt;
+                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#3f51b5;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
+                                      查看详情
+                                    &lt;/a&gt; &lt;/td&gt;
+                                  &lt;/tr&gt;
+                                &lt;/tbody&gt;&lt;/table&gt;&lt;br&gt;
+                              &lt;/td&gt;
+                            &lt;/tr&gt;
+                          &lt;/tbody&gt;&lt;/table&gt;
+                        &lt;/div&gt;
+                      &lt;/div&gt;
+                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px;"&gt;
+                        &lt;div style="text-align: justify;"&gt;
+                          &lt;table style="height: 148px; background-color: #f7f7f7;width: 100%;"&gt;
+                            &lt;tbody&gt;&lt;tr&gt;
+                              &lt;td style="padding-left: 29px;"&gt;
+                                &lt;table&gt;
+                                  &lt;tbody&gt;&lt;tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:90px;" width="90" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                  &lt;tr&gt;
+                                    &lt;td style="text-align: center"&gt;微信公众号&lt;/td&gt;
+                                  &lt;/tr&gt;
+                                &lt;/tbody&gt;&lt;/table&gt;
+                              &lt;/td&gt;&lt;td&gt;
+                              &lt;/td&gt;&lt;td&gt;
+                                &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; vertical-align: top;"&gt;
+                                  &lt;p style="font-size: 12px;
       color: #626774;
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;"&gt; 此邮件为系统邮件，请勿回复。 &lt;/p&gt;
-                                                                    &lt;p style="font-size: 12px;
+                                  &lt;p style="font-size: 12px;
       color: #626774;
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px"
-                                                          href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt;或 &lt;a
-                                                                            style="text-decoration:none;font-size: 12px"
-                                                                            href="http://choerodon.io/zh/docs/"
-                                                                            target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
-                                                                    &lt;p style="font-size: 12px;
+      margin-top: 0;"&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt;或 &lt;a style="text-decoration:none;font-size: 12px" href="http://choerodon.io/zh/docs/" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+                                  &lt;p style="font-size: 12px;
       color: #626774;
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px"
-                                               href="http://forum.choerodon.io/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
-                                                                    &lt;p style="font-size: 12px;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px" href="http://forum.choerodon.io/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
+                                  &lt;p style="font-size: 12px;
       color: #626774;
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：choerodon@vip.hand-china.com&lt;/p&gt;
-                                                                &lt;/div&gt;
-                                                            &lt;/td&gt;
-                                                        &lt;/tr&gt;
-                                                    &lt;/table&gt;
-                                                &lt;/div&gt;
-                                            &lt;/div&gt;
-                                            &lt;div style="width: 600px;
-      height: 34px;
-      background: #3F51B5;
-      "&gt;
-                                                &lt;p style="opacity: 0.8;
+                                &lt;/div&gt;
+                              &lt;/td&gt;
+                            &lt;/tr&gt;
+                          &lt;/tbody&gt;&lt;/table&gt;
+                        &lt;/div&gt;
+                      &lt;/div&gt;
+                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; width: 782px; height: 34px; background: rgb(63, 81, 181);"&gt;
+                        &lt;p style="opacity: 0.8;
       font-size: 10px;
       color: #FFFFFF;
       text-align: center;
@@ -5017,32 +4994,29 @@
       line-height: 34px;
       width: 100%;
       margin: 0 auto;"&gt;Copyright © The Choerodon Author. All rights reserved.&lt;/p&gt;
-                                            &lt;/div&gt;
-                                        &lt;/div&gt;
-                                        &lt;/body&gt;
-                                    &lt;/div&gt;
-                                &lt;/td&gt;
-                            &lt;/tr&gt;
-                        &lt;/table&gt;
+                      &lt;/div&gt;
                     &lt;/div&gt;
-                    &lt;!--[if mso | IE]&gt;
-                    &lt;/td&gt;
-                    &lt;/tr&gt;
-                    &lt;/table&gt;
-                    &lt;![endif]--&gt;
+                  &lt;/div&gt;
                 &lt;/td&gt;
-            &lt;/tr&gt;
-            &lt;/tbody&gt;
-        &lt;/table&gt;
-    &lt;/div&gt;
-    &lt;!--[if mso | IE]&gt;
-    &lt;/td&gt;
-    &lt;/tr&gt;
-    &lt;/table&gt;
-    &lt;![endif]--&gt;
-&lt;/div&gt;
-&lt;/body&gt;
-&lt;/html&gt;</t>
+              &lt;/tr&gt;
+            &lt;/tbody&gt;&lt;/table&gt;
+          &lt;/div&gt;
+          &lt;!--[if mso | IE]&gt;
+          &lt;/td&gt;
+          &lt;/tr&gt;
+          &lt;/table&gt;
+          &lt;![endif]--&gt;
+        &lt;/td&gt;
+      &lt;/tr&gt;
+      &lt;/tbody&gt;
+    &lt;/table&gt;&lt;br&gt;
+  &lt;/div&gt;
+  &lt;!--[if mso | IE]&gt;
+  &lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;/table&gt;
+  &lt;![endif]--&gt;
+&lt;/div&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-106</t>
@@ -7115,218 +7089,208 @@
     <t>CREATE_INSTANCE_FAIL.EMAIL</t>
   </si>
   <si>
-    <t>&lt;!doctype html&gt;
-&lt;html xmlns="http://www.w3.org/1999/xhtml" xmlns:v="urn:schemas-microsoft-com:vml"
-      xmlns:o="urn:schemas-microsoft-com:office:office"&gt;
-&lt;head&gt;
-    &lt;title&gt;&lt;/title&gt;
-    &lt;!--[if !mso]&gt;&lt;!-- --&gt;
-    &lt;meta http-equiv="X-UA-Compatible" content="IE=edge"&gt;
-    &lt;!--&lt;![endif]--&gt;
-    &lt;meta http-equiv="Content-Type" content="text/html; charset=UTF-8"&gt;
-    &lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt;
-    &lt;style type="text/css"&gt;
-        #outlook a {
-            padding: 0;
-        }
-        .ReadMsgBody {
-            width: 100%;
-        }
-        .ExternalClass {
-            width: 100%;
-        }
-        .ExternalClass * {
-            line-height: 100%;
-        }
-        body {
-            margin: 0;
-            padding: 0;
-            -webkit-text-size-adjust: 100%;
-            -ms-text-size-adjust: 100%;
-        }
-        table,
-        td {
-            border-collapse: collapse;
-            mso-table-lspace: 0pt;
-            mso-table-rspace: 0pt;
-        }
-        img {
-            border: 0;
-            height: auto;
-            line-height: 100%;
-            outline: none;
-            text-decoration: none;
-            -ms-interpolation-mode: bicubic;
-        }
-        p {
-            display: block;
-            margin: 13px 0;
-        }
-    &lt;/style&gt;
-    &lt;!--[if !mso]&gt;&lt;!--&gt;
-    &lt;style type="text/css"&gt;
-        @media only screen and (max-width: 480px) {
-            @-ms-viewport {
-                width: 320px;
-            }
-            @viewport {
-                width: 320px;
-            }
-        }
-    &lt;/style&gt;
-    &lt;!--&lt;![endif]--&gt;
-    &lt;!--[if mso]&gt;
-    &lt;xml&gt;
-        &lt;o:OfficeDocumentSettings&gt;
-            &lt;o:AllowPNG/&gt;
-            &lt;o:PixelsPerInch&gt;96&lt;/o:PixelsPerInch&gt;
-        &lt;/o:OfficeDocumentSettings&gt;
-    &lt;/xml&gt;
-    &lt;![endif]--&gt;
-    &lt;!--[if lte mso 11]&gt;
-    &lt;style type="text/css"&gt;
-        .outlook-group-fix {
-            width: 100% !important;
-        }
-    &lt;/style&gt;
-    &lt;![endif]--&gt;
-    &lt;!--[if !mso]&gt;&lt;!--&gt;
-    &lt;link href="https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700" rel="stylesheet" type="text/css"&gt;
-    &lt;style type="text/css"&gt;
-        @import url(https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700);
-    &lt;/style&gt;
-    &lt;!--&lt;![endif]--&gt;
-    &lt;style type="text/css"&gt;
-        @media only screen and (min-width: 480px) {
-            .mj-column-per-100 {
-                width: 100% !important;
-                max-width: 100%;
-            }
-        }
-    &lt;/style&gt;
-    &lt;style type="text/css"&gt;
-    &lt;/style&gt;
-&lt;/head&gt;
-&lt;body&gt;
+    <t>&lt;title&gt; &lt;/title&gt;
+  &lt;!--[if !mso]&gt;&lt;!-- --&gt;
+  &lt;meta http-equiv="X-UA-Compatible" content="IE=edge"&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;meta http-equiv="Content-Type" content="text/html; charset=UTF-8"&gt;
+  &lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt;
+  &lt;style type="text/css"&gt;
+    #outlook a {
+      padding: 0;
+    }
+    .ReadMsgBody {
+      width: 100%;
+    }
+    .ExternalClass {
+      width: 100%;
+    }
+    .ExternalClass * {
+      line-height: 100%;
+    }
+    body {
+      margin: 0;
+      padding: 0;
+      -webkit-text-size-adjust: 100%;
+      -ms-text-size-adjust: 100%;
+    }
+    table,
+    td {
+      border-collapse: collapse;
+      mso-table-lspace: 0pt;
+      mso-table-rspace: 0pt;
+    }
+    img {
+      border: 0;
+      height: auto;
+      line-height: 100%;
+      outline: none;
+      text-decoration: none;
+      -ms-interpolation-mode: bicubic;
+    }
+    p {
+      display: block;
+      margin: 13px 0;
+    }
+  &lt;/style&gt;
+  &lt;!--[if !mso]&gt;&lt;!--&gt;
+  &lt;style type="text/css"&gt;
+    @media only screen and (max-width:480px) {
+      @-ms-viewport {
+        width: 320px;
+      }
+      @viewport {
+        width: 320px;
+      }
+    }
+  &lt;/style&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;!--[if mso]&gt;
+  &lt;xml&gt;
+    &lt;o:OfficeDocumentSettings&gt;
+      &lt;o:AllowPNG/&gt;
+      &lt;o:PixelsPerInch&gt;96&lt;/o:PixelsPerInch&gt;
+    &lt;/o:OfficeDocumentSettings&gt;
+  &lt;/xml&gt;
+  &lt;![endif]--&gt;
+  &lt;!--[if lte mso 11]&gt;
+  &lt;style type="text/css"&gt;
+    .outlook-group-fix { width:100% !important; }
+  &lt;/style&gt;
+  &lt;![endif]--&gt;
+  &lt;!--[if !mso]&gt;&lt;!--&gt;
+  &lt;link href="https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700" rel="stylesheet" type="text/css"&gt;
+  &lt;style type="text/css"&gt;
+    @import url(https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700);
+  &lt;/style&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;style type="text/css"&gt;
+    @media only screen and (min-width:480px) {
+      .mj-column-per-100 {
+        width: 100% !important;
+        max-width: 100%;
+      }
+    }
+  &lt;/style&gt;
+  &lt;style type="text/css"&gt;
+  &lt;/style&gt;
 &lt;div style=""&gt;
-    &lt;!--[if mso | IE]&gt;
-    &lt;table
-            align="center" border="0" cellpadding="0" cellspacing="0" class="" style="width:600px;" width="782"
-    &gt;
-        &lt;tr&gt;
-            &lt;td style="line-height:0px;font-size:0px;mso-line-height-rule:exactly;"&gt;
-    &lt;![endif]--&gt;
-    &lt;div style="Margin:0px auto;max-width:600px;"&gt;
-        &lt;table align="center" border="0" cellpadding="0" cellspacing="0" role="presentation" style="width:100%;"&gt;
-            &lt;tbody&gt;
+  &lt;!--[if mso | IE]&gt;
+  &lt;table
+          align="center" border="0" cellpadding="0" cellspacing="0" class="" style="width:782px;" width="782"
+  &gt;
+    &lt;tr&gt;
+      &lt;td style="line-height:0px;font-size:0px;mso-line-height-rule:exactly;"&gt;
+  &lt;![endif]--&gt;
+  &lt;div style="Margin:0px auto;max-width:782px;"&gt;
+    &lt;table align="center" border="0" cellpadding="0" cellspacing="0" role="presentation" style="width:100%;"&gt;
+      &lt;tbody&gt;
+      &lt;tr&gt;
+        &lt;td style="direction:ltr;font-size:0px;padding:20px 0;text-align:center;vertical-align:top;"&gt;
+          &lt;!--[if mso | IE]&gt;
+          &lt;table role="presentation" border="0" cellpadding="0" cellspacing="0"&gt;
             &lt;tr&gt;
-                &lt;td style="direction:ltr;font-size:0px;padding:20px 0;text-align:center;vertical-align:top;"&gt;
-                    &lt;!--[if mso | IE]&gt;
-                    &lt;table role="presentation" border="0" cellpadding="0" cellspacing="0"&gt;
-                        &lt;tr&gt;
-                            &lt;td
-                                    class="" style="vertical-align:top;width:600px;"
-                            &gt;
-                    &lt;![endif]--&gt;
-                    &lt;div class="mj-column-per-100 outlook-group-fix"
-                         style="font-size:13px;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%;"&gt;
-                        &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation"
-                               style="vertical-align:top;" width="100%"&gt;
-                            &lt;tr&gt;
-                                &lt;td align="left" style="font-size:0px;padding:20px 25px;word-break:break-word;"&gt;
-                                    &lt;div style="font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;line-height:1;text-align:left;color:#000000;"&gt;
-                                        &lt;body&gt;
-                                        &lt;div style="width: 600px;
-      background: #FFFFFF;
-      margin: 0 auto;"&gt;
-                                            &lt;div style="height: 55px;
-      background-color: #ffffff;
-      border-bottom: 8px solid #3F51B5;"&gt;
-                                                &lt;table&gt;
-                                                    &lt;tr&gt;
-                                                        &lt;td style="padding-bottom: 0;vertical-align: bottom;"&gt;
-                                                            &lt;table&gt;
-                                                                &lt;tr&gt;
-                                                                    &lt;td style="width:190px;"&gt;&lt;img height="auto"
-                                                                                                  src="https://file.choerodon.com.cn/static/choerodon.png"
-                                                                                                  style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;"
-                                                                                                  width="190"/&gt;&lt;/td&gt;
-                                                                &lt;/tr&gt;
-                                                            &lt;/table&gt;
-                                                        &lt;td&gt;
-                                                    &lt;/tr&gt;
-                                                &lt;/table&gt;
-                                            &lt;/div&gt;
-                                            &lt;div style="padding: 30px 40px;
-      border-bottom: 0;
-      border-top: 0;
-      border-left:1px solid #E6E6E6;
-      border-right:1px solid #E6E6E6;
-      border-radius: 2px;
-      background: #FFFFFF;"&gt;
-                                                &lt;div&gt;
-                                                    &lt;p&gt;您在项目“${projectName}”下“${envName}”环境中创建的实例“${instanceName}”失败。&lt;/p&gt;
-                                                &lt;/div&gt;
-                                            &lt;/div&gt;
-                                            &lt;div&gt;
-                                                &lt;div style="text-align: justify;"&gt;
-                                                    &lt;table style="height: 148px; background-color: #f7f7f7;width: 100%;"&gt;
-                                                        &lt;tr&gt;
-                                                            &lt;td style="padding-left: 29px;"&gt;
-                                                                &lt;table&gt;
-                                                                    &lt;tr&gt;
-                                                                        &lt;td&gt;&lt;img height="auto"
-                                                                                 style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:90px;"
-                                                                                 width="90"
-                                                                                 src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt;
-                                                                    &lt;/tr&gt;
-                                                                    &lt;tr&gt;
-                                                                        &lt;td style="text-align: center"&gt;微信公众号&lt;/td&gt;
-                                                                    &lt;/tr&gt;
-                                                                &lt;/table&gt;
-                                                            &lt;td&gt;
-                                                            &lt;td&gt;
-                                                                &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; vertical-align: top;"&gt;
-                                                                    &lt;p style="font-size: 12px;
+              &lt;td
+                      class="" style="vertical-align:top;width:782px;"
+              &gt;
+          &lt;![endif]--&gt;
+          &lt;div class="mj-column-per-100 outlook-group-fix" style="font-size:13px;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%;"&gt;
+            &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="vertical-align:top;" width="100%"&gt;
+              &lt;tbody&gt;&lt;tr&gt;
+                &lt;td align="left" style="padding: 10px 25px; word-break: break-word;"&gt;
+                  &lt;div style="line-height: 1; text-align: left;"&gt;
+                    &lt;div style="width: 782px; background: rgb(255, 255, 255); margin: 0px auto;"&gt;
+                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; height: 115px; background-color: rgb(255, 255, 255); border-bottom: 8px solid rgb(63, 81, 181);"&gt;
+                        &lt;table&gt;
+                          &lt;tbody&gt;&lt;tr&gt;
+                            &lt;td style="padding-bottom: 0;vertical-align: bottom;"&gt;
+                              &lt;table&gt;
+                                &lt;tbody&gt;&lt;tr&gt;
+                                  &lt;td style="width:190px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                                &lt;/tr&gt;
+                              &lt;/tbody&gt;&lt;/table&gt;
+                            &lt;/td&gt;&lt;td&gt;
+                            &lt;/td&gt;&lt;td style="vertical-align: bottom;"&gt;
+                              &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; "&gt;
+                                &lt;p style="font-size: 14px;
+    color: #252528;
+    letter-spacing: 0;
+    display: inline-block;
+    text-align: right;
+    width: 558px;
+    padding-top: 55px;"&gt;&lt;/p&gt;
+                              &lt;/div&gt;
+                            &lt;/td&gt;
+                          &lt;/tr&gt;
+                        &lt;/tbody&gt;&lt;/table&gt;
+                      &lt;/div&gt;
+                      &lt;div style="padding: 68px 40px; border-width: 0px 1px; border-bottom-style: initial; border-bottom-color: initial; border-top-style: initial; border-top-color: initial; border-left-style: solid; border-left-color: rgb(230, 230, 230); border-right-style: solid; border-right-color: rgb(230, 230, 230); border-radius: 2px; background: rgb(255, 255, 255);"&gt;
+                        &lt;div style=""&gt;
+                                &lt;p&gt;您在项目“${projectName}”下“${envName}”环境中创建的实例“${instanceName}”失败。&lt;/p&gt;
+                        &lt;/div&gt;
+                        &lt;div class="mj-column-per-100 outlook-group-fix" style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; text-align: left; direction: ltr; display: inline-block; vertical-align: top; width: 100%;"&gt;
+                          &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="vertical-align:top;" width="100%"&gt;
+                            &lt;tbody&gt;&lt;tr&gt;
+                              &lt;td align="center" vertical-align="middle" style="font-size:0px;padding:10px 25px;padding-top:60px;word-break:break-word;"&gt;
+                                &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="border-collapse:separate;width:212px;line-height:100%;"&gt;
+                                  &lt;tbody&gt;&lt;tr&gt;
+                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#3f51b5;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
+                                      查看详情
+                                    &lt;/a&gt; &lt;/td&gt;
+                                  &lt;/tr&gt;
+                                &lt;/tbody&gt;&lt;/table&gt;&lt;br&gt;
+                              &lt;/td&gt;
+                            &lt;/tr&gt;
+                          &lt;/tbody&gt;&lt;/table&gt;
+                        &lt;/div&gt;
+                      &lt;/div&gt;
+                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px;"&gt;
+                        &lt;div style="text-align: justify;"&gt;
+                          &lt;table style="height: 148px; background-color: #f7f7f7;width: 100%;"&gt;
+                            &lt;tbody&gt;&lt;tr&gt;
+                              &lt;td style="padding-left: 29px;"&gt;
+                                &lt;table&gt;
+                                  &lt;tbody&gt;&lt;tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:90px;" width="90" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                  &lt;tr&gt;
+                                    &lt;td style="text-align: center"&gt;微信公众号&lt;/td&gt;
+                                  &lt;/tr&gt;
+                                &lt;/tbody&gt;&lt;/table&gt;
+                              &lt;/td&gt;&lt;td&gt;
+                              &lt;/td&gt;&lt;td&gt;
+                                &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; vertical-align: top;"&gt;
+                                  &lt;p style="font-size: 12px;
       color: #626774;
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;"&gt; 此邮件为系统邮件，请勿回复。 &lt;/p&gt;
-                                                                    &lt;p style="font-size: 12px;
+                                  &lt;p style="font-size: 12px;
       color: #626774;
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px"
-                                                          href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt;或 &lt;a
-                                                                            style="text-decoration:none;font-size: 12px"
-                                                                            href="http://choerodon.io/zh/docs/"
-                                                                            target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
-                                                                    &lt;p style="font-size: 12px;
+      margin-top: 0;"&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt;或 &lt;a style="text-decoration:none;font-size: 12px" href="http://choerodon.io/zh/docs/" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+                                  &lt;p style="font-size: 12px;
       color: #626774;
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px"
-                                               href="http://forum.choerodon.io/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
-                                                                    &lt;p style="font-size: 12px;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px" href="http://forum.choerodon.io/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
+                                  &lt;p style="font-size: 12px;
       color: #626774;
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：choerodon@vip.hand-china.com&lt;/p&gt;
-                                                                &lt;/div&gt;
-                                                            &lt;/td&gt;
-                                                        &lt;/tr&gt;
-                                                    &lt;/table&gt;
-                                                &lt;/div&gt;
-                                            &lt;/div&gt;
-                                            &lt;div style="width: 600px;
-      height: 34px;
-      background: #3F51B5;
-      "&gt;
-                                                &lt;p style="opacity: 0.8;
+                                &lt;/div&gt;
+                              &lt;/td&gt;
+                            &lt;/tr&gt;
+                          &lt;/tbody&gt;&lt;/table&gt;
+                        &lt;/div&gt;
+                      &lt;/div&gt;
+                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; width: 782px; height: 34px; background: rgb(63, 81, 181);"&gt;
+                        &lt;p style="opacity: 0.8;
       font-size: 10px;
       color: #FFFFFF;
       text-align: center;
@@ -7334,32 +7298,29 @@
       line-height: 34px;
       width: 100%;
       margin: 0 auto;"&gt;Copyright © The Choerodon Author. All rights reserved.&lt;/p&gt;
-                                            &lt;/div&gt;
-                                        &lt;/div&gt;
-                                        &lt;/body&gt;
-                                    &lt;/div&gt;
-                                &lt;/td&gt;
-                            &lt;/tr&gt;
-                        &lt;/table&gt;
+                      &lt;/div&gt;
                     &lt;/div&gt;
-                    &lt;!--[if mso | IE]&gt;
-                    &lt;/td&gt;
-                    &lt;/tr&gt;
-                    &lt;/table&gt;
-                    &lt;![endif]--&gt;
+                  &lt;/div&gt;
                 &lt;/td&gt;
-            &lt;/tr&gt;
-            &lt;/tbody&gt;
-        &lt;/table&gt;
-    &lt;/div&gt;
-    &lt;!--[if mso | IE]&gt;
-    &lt;/td&gt;
-    &lt;/tr&gt;
-    &lt;/table&gt;
-    &lt;![endif]--&gt;
-&lt;/div&gt;
-&lt;/body&gt;
-&lt;/html&gt;</t>
+              &lt;/tr&gt;
+            &lt;/tbody&gt;&lt;/table&gt;
+          &lt;/div&gt;
+          &lt;!--[if mso | IE]&gt;
+          &lt;/td&gt;
+          &lt;/tr&gt;
+          &lt;/table&gt;
+          &lt;![endif]--&gt;
+        &lt;/td&gt;
+      &lt;/tr&gt;
+      &lt;/tbody&gt;
+    &lt;/table&gt;&lt;br&gt;
+  &lt;/div&gt;
+  &lt;!--[if mso | IE]&gt;
+  &lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;/table&gt;
+  &lt;![endif]--&gt;
+&lt;/div&gt;</t>
   </si>
   <si>
     <t>消息模板参数</t>
@@ -8539,8 +8500,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -8644,6 +8605,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -8653,7 +8622,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8668,15 +8637,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8690,17 +8659,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8708,22 +8669,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8731,6 +8677,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8765,17 +8718,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8869,61 +8830,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8941,7 +8884,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8953,13 +8926,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8971,7 +8980,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8983,13 +8992,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9001,55 +9010,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9156,71 +9117,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -9245,6 +9141,62 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -9253,151 +9205,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10288,10 +10249,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q632"/>
+  <dimension ref="A1:Q635"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="G522" workbookViewId="0">
-      <selection activeCell="K556" sqref="K556"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="G601" workbookViewId="0">
+      <selection activeCell="K635" sqref="K635"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -20428,17 +20389,17 @@
         <v>397</v>
       </c>
       <c r="F505" t="str">
-        <f>消息模板!$E$13</f>
+        <f>E13</f>
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G505" t="s">
-        <v>419</v>
-      </c>
-      <c r="J505" t="s">
-        <v>76</v>
-      </c>
-      <c r="K505" t="s">
-        <v>76</v>
+        <v>453</v>
+      </c>
+      <c r="J505">
+        <v>0</v>
+      </c>
+      <c r="K505">
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="5:11">
@@ -20450,7 +20411,7 @@
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G506" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="J506" t="s">
         <v>76</v>
@@ -20464,35 +20425,35 @@
         <v>397</v>
       </c>
       <c r="F507" t="str">
+        <f>消息模板!$E$13</f>
+        <v>hmsg_message_template-20</v>
+      </c>
+      <c r="G507" t="s">
+        <v>440</v>
+      </c>
+      <c r="J507" t="s">
+        <v>76</v>
+      </c>
+      <c r="K507" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="508" spans="5:11">
+      <c r="E508" t="s">
+        <v>397</v>
+      </c>
+      <c r="F508" t="str">
         <f>E58</f>
         <v>hmsg_message_template-116</v>
       </c>
-      <c r="G507" t="s">
+      <c r="G508" t="s">
         <v>453</v>
       </c>
-      <c r="J507">
+      <c r="J508">
         <v>0</v>
       </c>
-      <c r="K507">
+      <c r="K508">
         <v>0</v>
-      </c>
-    </row>
-    <row r="508" spans="5:11">
-      <c r="E508" t="s">
-        <v>397</v>
-      </c>
-      <c r="F508" t="str">
-        <f>消息模板!$E$58</f>
-        <v>hmsg_message_template-116</v>
-      </c>
-      <c r="G508" t="s">
-        <v>427</v>
-      </c>
-      <c r="J508" t="s">
-        <v>76</v>
-      </c>
-      <c r="K508" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="509" spans="5:11">
@@ -20504,7 +20465,7 @@
         <v>hmsg_message_template-116</v>
       </c>
       <c r="G509" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="J509" t="s">
         <v>76</v>
@@ -20518,11 +20479,11 @@
         <v>397</v>
       </c>
       <c r="F510" t="str">
-        <f>消息模板!$E$43</f>
-        <v>hmsg_message_template-67</v>
+        <f>消息模板!$E$58</f>
+        <v>hmsg_message_template-116</v>
       </c>
       <c r="G510" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="J510" t="s">
         <v>76</v>
@@ -20540,7 +20501,7 @@
         <v>hmsg_message_template-67</v>
       </c>
       <c r="G511" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="J511" t="s">
         <v>76</v>
@@ -20554,11 +20515,11 @@
         <v>397</v>
       </c>
       <c r="F512" t="str">
-        <f>消息模板!$E$49</f>
-        <v>hmsg_message_template-103</v>
+        <f>消息模板!$E$43</f>
+        <v>hmsg_message_template-67</v>
       </c>
       <c r="G512" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="J512" t="s">
         <v>76</v>
@@ -20576,7 +20537,7 @@
         <v>hmsg_message_template-103</v>
       </c>
       <c r="G513" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="J513" t="s">
         <v>76</v>
@@ -20594,7 +20555,7 @@
         <v>hmsg_message_template-103</v>
       </c>
       <c r="G514" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="J514" t="s">
         <v>76</v>
@@ -20608,11 +20569,11 @@
         <v>397</v>
       </c>
       <c r="F515" t="str">
-        <f>消息模板!$E$51</f>
-        <v>hmsg_message_template-105</v>
+        <f>消息模板!$E$49</f>
+        <v>hmsg_message_template-103</v>
       </c>
       <c r="G515" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="J515" t="s">
         <v>76</v>
@@ -20626,17 +20587,17 @@
         <v>397</v>
       </c>
       <c r="F516" t="str">
-        <f>消息模板!$E$51</f>
+        <f>E51</f>
         <v>hmsg_message_template-105</v>
       </c>
       <c r="G516" t="s">
-        <v>419</v>
-      </c>
-      <c r="J516" t="s">
-        <v>76</v>
-      </c>
-      <c r="K516" t="s">
-        <v>76</v>
+        <v>453</v>
+      </c>
+      <c r="J516">
+        <v>0</v>
+      </c>
+      <c r="K516">
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="5:11">
@@ -20648,7 +20609,7 @@
         <v>hmsg_message_template-105</v>
       </c>
       <c r="G517" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="J517" t="s">
         <v>76</v>
@@ -20662,11 +20623,11 @@
         <v>397</v>
       </c>
       <c r="F518" t="str">
-        <f>消息模板!$E$54</f>
-        <v>hmsg_message_template-112</v>
+        <f>消息模板!$E$51</f>
+        <v>hmsg_message_template-105</v>
       </c>
       <c r="G518" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="J518" t="s">
         <v>76</v>
@@ -20680,17 +20641,17 @@
         <v>397</v>
       </c>
       <c r="F519" t="str">
-        <f>E54</f>
-        <v>hmsg_message_template-112</v>
+        <f>消息模板!$E$51</f>
+        <v>hmsg_message_template-105</v>
       </c>
       <c r="G519" t="s">
-        <v>453</v>
-      </c>
-      <c r="J519">
-        <v>0</v>
-      </c>
-      <c r="K519">
-        <v>0</v>
+        <v>440</v>
+      </c>
+      <c r="J519" t="s">
+        <v>76</v>
+      </c>
+      <c r="K519" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="520" spans="5:11">
@@ -20702,7 +20663,7 @@
         <v>hmsg_message_template-112</v>
       </c>
       <c r="G520" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="J520" t="s">
         <v>76</v>
@@ -20716,71 +20677,71 @@
         <v>397</v>
       </c>
       <c r="F521" t="str">
+        <f>E54</f>
+        <v>hmsg_message_template-112</v>
+      </c>
+      <c r="G521" t="s">
+        <v>453</v>
+      </c>
+      <c r="J521">
+        <v>0</v>
+      </c>
+      <c r="K521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="5:11">
+      <c r="E522" t="s">
+        <v>397</v>
+      </c>
+      <c r="F522" t="str">
         <f>消息模板!$E$54</f>
         <v>hmsg_message_template-112</v>
       </c>
-      <c r="G521" t="s">
+      <c r="G522" t="s">
+        <v>419</v>
+      </c>
+      <c r="J522" t="s">
+        <v>76</v>
+      </c>
+      <c r="K522" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="523" spans="5:11">
+      <c r="E523" t="s">
+        <v>397</v>
+      </c>
+      <c r="F523" t="str">
+        <f>消息模板!$E$54</f>
+        <v>hmsg_message_template-112</v>
+      </c>
+      <c r="G523" t="s">
         <v>430</v>
       </c>
-      <c r="J521" t="s">
-        <v>76</v>
-      </c>
-      <c r="K521" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="522" spans="5:11">
-      <c r="E522" t="s">
-        <v>397</v>
-      </c>
-      <c r="F522" t="str">
+      <c r="J523" t="s">
+        <v>76</v>
+      </c>
+      <c r="K523" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="524" spans="5:11">
+      <c r="E524" t="s">
+        <v>397</v>
+      </c>
+      <c r="F524" t="str">
         <f>E46</f>
         <v>hmsg_message_template-82</v>
       </c>
-      <c r="G522" t="s">
+      <c r="G524" t="s">
         <v>453</v>
       </c>
-      <c r="J522">
+      <c r="J524">
         <v>0</v>
       </c>
-      <c r="K522">
+      <c r="K524">
         <v>0</v>
-      </c>
-    </row>
-    <row r="523" spans="5:11">
-      <c r="E523" t="s">
-        <v>397</v>
-      </c>
-      <c r="F523" t="str">
-        <f>消息模板!$E$46</f>
-        <v>hmsg_message_template-82</v>
-      </c>
-      <c r="G523" t="s">
-        <v>415</v>
-      </c>
-      <c r="J523" t="s">
-        <v>76</v>
-      </c>
-      <c r="K523" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="524" spans="5:11">
-      <c r="E524" t="s">
-        <v>397</v>
-      </c>
-      <c r="F524" t="str">
-        <f>消息模板!$E$46</f>
-        <v>hmsg_message_template-82</v>
-      </c>
-      <c r="G524" t="s">
-        <v>419</v>
-      </c>
-      <c r="J524" t="s">
-        <v>76</v>
-      </c>
-      <c r="K524" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="525" spans="5:11">
@@ -20792,7 +20753,7 @@
         <v>hmsg_message_template-82</v>
       </c>
       <c r="G525" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="J525" t="s">
         <v>76</v>
@@ -20806,11 +20767,11 @@
         <v>397</v>
       </c>
       <c r="F526" t="str">
-        <f>消息模板!$E$15</f>
-        <v>hmsg_message_template-22</v>
+        <f>消息模板!$E$46</f>
+        <v>hmsg_message_template-82</v>
       </c>
       <c r="G526" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="J526" t="s">
         <v>76</v>
@@ -20824,17 +20785,17 @@
         <v>397</v>
       </c>
       <c r="F527" t="str">
-        <f>E15</f>
-        <v>hmsg_message_template-22</v>
+        <f>消息模板!$E$46</f>
+        <v>hmsg_message_template-82</v>
       </c>
       <c r="G527" t="s">
-        <v>453</v>
-      </c>
-      <c r="J527">
-        <v>0</v>
-      </c>
-      <c r="K527">
-        <v>0</v>
+        <v>421</v>
+      </c>
+      <c r="J527" t="s">
+        <v>76</v>
+      </c>
+      <c r="K527" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="528" spans="5:11">
@@ -20846,7 +20807,7 @@
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G528" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="J528" t="s">
         <v>76</v>
@@ -20860,29 +20821,29 @@
         <v>397</v>
       </c>
       <c r="F529" t="str">
+        <f>E15</f>
+        <v>hmsg_message_template-22</v>
+      </c>
+      <c r="G529" t="s">
+        <v>453</v>
+      </c>
+      <c r="J529">
+        <v>0</v>
+      </c>
+      <c r="K529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="5:11">
+      <c r="E530" t="s">
+        <v>397</v>
+      </c>
+      <c r="F530" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-22</v>
       </c>
-      <c r="G529" t="s">
-        <v>421</v>
-      </c>
-      <c r="J529" t="s">
-        <v>76</v>
-      </c>
-      <c r="K529" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="530" spans="5:11">
-      <c r="E530" t="s">
-        <v>397</v>
-      </c>
-      <c r="F530" t="str">
-        <f>消息模板!$E$76</f>
-        <v>hmsg_message_template-146</v>
-      </c>
       <c r="G530" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="J530" t="s">
         <v>76</v>
@@ -20896,17 +20857,17 @@
         <v>397</v>
       </c>
       <c r="F531" t="str">
-        <f>E76</f>
-        <v>hmsg_message_template-146</v>
+        <f>消息模板!$E$15</f>
+        <v>hmsg_message_template-22</v>
       </c>
       <c r="G531" t="s">
-        <v>453</v>
-      </c>
-      <c r="J531">
-        <v>0</v>
-      </c>
-      <c r="K531">
-        <v>0</v>
+        <v>421</v>
+      </c>
+      <c r="J531" t="s">
+        <v>76</v>
+      </c>
+      <c r="K531" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="532" spans="5:11">
@@ -20918,7 +20879,7 @@
         <v>hmsg_message_template-146</v>
       </c>
       <c r="G532" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="J532" t="s">
         <v>76</v>
@@ -20932,29 +20893,29 @@
         <v>397</v>
       </c>
       <c r="F533" t="str">
+        <f>E76</f>
+        <v>hmsg_message_template-146</v>
+      </c>
+      <c r="G533" t="s">
+        <v>453</v>
+      </c>
+      <c r="J533">
+        <v>0</v>
+      </c>
+      <c r="K533">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="5:11">
+      <c r="E534" t="s">
+        <v>397</v>
+      </c>
+      <c r="F534" t="str">
         <f>消息模板!$E$76</f>
         <v>hmsg_message_template-146</v>
       </c>
-      <c r="G533" t="s">
-        <v>421</v>
-      </c>
-      <c r="J533" t="s">
-        <v>76</v>
-      </c>
-      <c r="K533" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="534" spans="5:11">
-      <c r="E534" t="s">
-        <v>397</v>
-      </c>
-      <c r="F534" t="str">
-        <f>消息模板!$E$68</f>
-        <v>hmsg_message_template-126</v>
-      </c>
       <c r="G534" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="J534" t="s">
         <v>76</v>
@@ -20968,17 +20929,17 @@
         <v>397</v>
       </c>
       <c r="F535" t="str">
-        <f>E68</f>
-        <v>hmsg_message_template-126</v>
+        <f>消息模板!$E$76</f>
+        <v>hmsg_message_template-146</v>
       </c>
       <c r="G535" t="s">
-        <v>453</v>
-      </c>
-      <c r="J535">
-        <v>0</v>
-      </c>
-      <c r="K535">
-        <v>0</v>
+        <v>421</v>
+      </c>
+      <c r="J535" t="s">
+        <v>76</v>
+      </c>
+      <c r="K535" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="536" spans="5:11">
@@ -20990,7 +20951,7 @@
         <v>hmsg_message_template-126</v>
       </c>
       <c r="G536" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="J536" t="s">
         <v>76</v>
@@ -21004,161 +20965,161 @@
         <v>397</v>
       </c>
       <c r="F537" t="str">
+        <f>E68</f>
+        <v>hmsg_message_template-126</v>
+      </c>
+      <c r="G537" t="s">
+        <v>453</v>
+      </c>
+      <c r="J537">
+        <v>0</v>
+      </c>
+      <c r="K537">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="5:11">
+      <c r="E538" t="s">
+        <v>397</v>
+      </c>
+      <c r="F538" t="str">
+        <f>消息模板!$E$68</f>
+        <v>hmsg_message_template-126</v>
+      </c>
+      <c r="G538" t="s">
+        <v>419</v>
+      </c>
+      <c r="J538" t="s">
+        <v>76</v>
+      </c>
+      <c r="K538" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="539" spans="5:11">
+      <c r="E539" t="s">
+        <v>397</v>
+      </c>
+      <c r="F539" t="str">
         <f>E11</f>
         <v>hmsg_message_template-16</v>
       </c>
-      <c r="G537" t="s">
+      <c r="G539" t="s">
         <v>453</v>
       </c>
-      <c r="J537">
+      <c r="J539">
         <v>0</v>
       </c>
-      <c r="K537">
+      <c r="K539">
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="5:11">
-      <c r="E538" t="s">
-        <v>397</v>
-      </c>
-      <c r="F538" t="str">
+    <row r="540" spans="5:11">
+      <c r="E540" t="s">
+        <v>397</v>
+      </c>
+      <c r="F540" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-16</v>
       </c>
-      <c r="G538" t="s">
+      <c r="G540" t="s">
         <v>424</v>
       </c>
-      <c r="J538" t="s">
-        <v>76</v>
-      </c>
-      <c r="K538" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="539" spans="5:11">
-      <c r="E539" t="s">
-        <v>397</v>
-      </c>
-      <c r="F539" t="str">
+      <c r="J540" t="s">
+        <v>76</v>
+      </c>
+      <c r="K540" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="541" spans="5:11">
+      <c r="E541" t="s">
+        <v>397</v>
+      </c>
+      <c r="F541" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-16</v>
       </c>
-      <c r="G539" t="s">
+      <c r="G541" t="s">
         <v>419</v>
       </c>
-      <c r="J539" t="s">
-        <v>76</v>
-      </c>
-      <c r="K539" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="540" spans="5:11">
-      <c r="E540" t="s">
-        <v>397</v>
-      </c>
-      <c r="F540" t="str">
+      <c r="J541" t="s">
+        <v>76</v>
+      </c>
+      <c r="K541" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="542" spans="5:11">
+      <c r="E542" t="s">
+        <v>397</v>
+      </c>
+      <c r="F542" t="str">
         <f>E34</f>
         <v>hmsg_message_template-43</v>
       </c>
-      <c r="G540" t="s">
+      <c r="G542" t="s">
         <v>453</v>
       </c>
-      <c r="J540">
+      <c r="J542">
         <v>0</v>
       </c>
-      <c r="K540">
+      <c r="K542">
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="5:11">
-      <c r="E541" t="s">
-        <v>397</v>
-      </c>
-      <c r="F541" t="str">
+    <row r="543" spans="5:11">
+      <c r="E543" t="s">
+        <v>397</v>
+      </c>
+      <c r="F543" t="str">
         <f>消息模板!$E$34</f>
         <v>hmsg_message_template-43</v>
       </c>
-      <c r="G541" t="s">
+      <c r="G543" t="s">
         <v>424</v>
       </c>
-      <c r="J541" t="s">
-        <v>76</v>
-      </c>
-      <c r="K541" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="542" spans="5:11">
-      <c r="E542" t="s">
-        <v>397</v>
-      </c>
-      <c r="F542" t="str">
+      <c r="J543" t="s">
+        <v>76</v>
+      </c>
+      <c r="K543" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="544" spans="5:11">
+      <c r="E544" t="s">
+        <v>397</v>
+      </c>
+      <c r="F544" t="str">
         <f>消息模板!$E$34</f>
         <v>hmsg_message_template-43</v>
       </c>
-      <c r="G542" t="s">
+      <c r="G544" t="s">
         <v>419</v>
       </c>
-      <c r="J542" t="s">
-        <v>76</v>
-      </c>
-      <c r="K542" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="543" spans="5:11">
-      <c r="E543" t="s">
-        <v>397</v>
-      </c>
-      <c r="F543" t="str">
+      <c r="J544" t="s">
+        <v>76</v>
+      </c>
+      <c r="K544" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="545" spans="5:11">
+      <c r="E545" t="s">
+        <v>397</v>
+      </c>
+      <c r="F545" t="str">
         <f>消息模板!$E$64</f>
         <v>hmsg_message_template-122</v>
       </c>
-      <c r="G543" t="s">
+      <c r="G545" t="s">
         <v>439</v>
       </c>
-      <c r="J543" t="s">
-        <v>76</v>
-      </c>
-      <c r="K543" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="544" spans="5:11">
-      <c r="E544" t="s">
-        <v>397</v>
-      </c>
-      <c r="F544" t="str">
-        <f>消息模板!$E$64</f>
-        <v>hmsg_message_template-122</v>
-      </c>
-      <c r="G544" t="s">
-        <v>427</v>
-      </c>
-      <c r="J544" t="s">
-        <v>76</v>
-      </c>
-      <c r="K544" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="545" spans="5:11">
-      <c r="E545" t="s">
-        <v>397</v>
-      </c>
-      <c r="F545" t="str">
-        <f>E64</f>
-        <v>hmsg_message_template-122</v>
-      </c>
-      <c r="G545" t="s">
-        <v>453</v>
-      </c>
-      <c r="J545">
-        <v>0</v>
-      </c>
-      <c r="K545">
-        <v>0</v>
+      <c r="J545" t="s">
+        <v>76</v>
+      </c>
+      <c r="K545" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="546" spans="5:11">
@@ -21170,7 +21131,7 @@
         <v>hmsg_message_template-122</v>
       </c>
       <c r="G546" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="J546" t="s">
         <v>76</v>
@@ -21184,17 +21145,17 @@
         <v>397</v>
       </c>
       <c r="F547" t="str">
-        <f>消息模板!$E$64</f>
+        <f>E64</f>
         <v>hmsg_message_template-122</v>
       </c>
       <c r="G547" t="s">
-        <v>440</v>
-      </c>
-      <c r="J547" t="s">
-        <v>76</v>
-      </c>
-      <c r="K547" t="s">
-        <v>76</v>
+        <v>453</v>
+      </c>
+      <c r="J547">
+        <v>0</v>
+      </c>
+      <c r="K547">
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="5:11">
@@ -21206,7 +21167,7 @@
         <v>hmsg_message_template-122</v>
       </c>
       <c r="G548" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="J548" t="s">
         <v>76</v>
@@ -21220,62 +21181,62 @@
         <v>397</v>
       </c>
       <c r="F549" t="str">
+        <f>消息模板!$E$64</f>
+        <v>hmsg_message_template-122</v>
+      </c>
+      <c r="G549" t="s">
+        <v>440</v>
+      </c>
+      <c r="J549" t="s">
+        <v>76</v>
+      </c>
+      <c r="K549" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="550" spans="5:11">
+      <c r="E550" t="s">
+        <v>397</v>
+      </c>
+      <c r="F550" t="str">
+        <f>消息模板!$E$64</f>
+        <v>hmsg_message_template-122</v>
+      </c>
+      <c r="G550" t="s">
+        <v>430</v>
+      </c>
+      <c r="J550" t="s">
+        <v>76</v>
+      </c>
+      <c r="K550" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="551" spans="5:11">
+      <c r="E551" t="s">
+        <v>397</v>
+      </c>
+      <c r="F551" t="str">
         <f>消息模板!$E$45</f>
         <v>hmsg_message_template-69</v>
       </c>
-      <c r="G549" t="s">
+      <c r="G551" t="s">
         <v>454</v>
       </c>
-      <c r="J549" t="s">
-        <v>76</v>
-      </c>
-      <c r="K549" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="550" spans="5:11">
-      <c r="E550" t="s">
-        <v>397</v>
-      </c>
-      <c r="F550" t="str">
+      <c r="J551" t="s">
+        <v>76</v>
+      </c>
+      <c r="K551" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="552" spans="5:11">
+      <c r="E552" t="s">
+        <v>397</v>
+      </c>
+      <c r="F552" t="str">
         <f>消息模板!$E$45</f>
         <v>hmsg_message_template-69</v>
-      </c>
-      <c r="G550" t="s">
-        <v>405</v>
-      </c>
-      <c r="J550" t="s">
-        <v>76</v>
-      </c>
-      <c r="K550" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="551" spans="5:11">
-      <c r="E551" t="s">
-        <v>397</v>
-      </c>
-      <c r="F551" t="str">
-        <f>消息模板!$E$27</f>
-        <v>hmsg_message_template-36</v>
-      </c>
-      <c r="G551" t="s">
-        <v>424</v>
-      </c>
-      <c r="J551" t="s">
-        <v>76</v>
-      </c>
-      <c r="K551" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="552" spans="5:11">
-      <c r="E552" t="s">
-        <v>397</v>
-      </c>
-      <c r="F552" t="str">
-        <f>消息模板!$E$27</f>
-        <v>hmsg_message_template-36</v>
       </c>
       <c r="G552" t="s">
         <v>405</v>
@@ -21296,7 +21257,7 @@
         <v>hmsg_message_template-36</v>
       </c>
       <c r="G553" t="s">
-        <v>450</v>
+        <v>424</v>
       </c>
       <c r="J553" t="s">
         <v>76</v>
@@ -21314,7 +21275,7 @@
         <v>hmsg_message_template-36</v>
       </c>
       <c r="G554" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="J554" t="s">
         <v>76</v>
@@ -21332,7 +21293,7 @@
         <v>hmsg_message_template-36</v>
       </c>
       <c r="G555" t="s">
-        <v>419</v>
+        <v>450</v>
       </c>
       <c r="J555" t="s">
         <v>76</v>
@@ -21346,83 +21307,83 @@
         <v>397</v>
       </c>
       <c r="F556" t="str">
+        <f>消息模板!$E$27</f>
+        <v>hmsg_message_template-36</v>
+      </c>
+      <c r="G556" t="s">
+        <v>412</v>
+      </c>
+      <c r="J556" t="s">
+        <v>76</v>
+      </c>
+      <c r="K556" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="557" spans="5:11">
+      <c r="E557" t="s">
+        <v>397</v>
+      </c>
+      <c r="F557" t="str">
+        <f>消息模板!$E$27</f>
+        <v>hmsg_message_template-36</v>
+      </c>
+      <c r="G557" t="s">
+        <v>419</v>
+      </c>
+      <c r="J557" t="s">
+        <v>76</v>
+      </c>
+      <c r="K557" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="558" spans="5:11">
+      <c r="E558" t="s">
+        <v>397</v>
+      </c>
+      <c r="F558" t="str">
         <f>E26</f>
         <v>hmsg_message_template-35</v>
       </c>
-      <c r="G556" t="s">
+      <c r="G558" t="s">
         <v>453</v>
       </c>
-      <c r="J556">
+      <c r="J558">
         <v>0</v>
       </c>
-      <c r="K556">
+      <c r="K558">
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="5:11">
-      <c r="E557" t="s">
-        <v>397</v>
-      </c>
-      <c r="F557" t="str">
+    <row r="559" spans="5:11">
+      <c r="E559" t="s">
+        <v>397</v>
+      </c>
+      <c r="F559" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-35</v>
       </c>
-      <c r="G557" t="s">
+      <c r="G559" t="s">
         <v>424</v>
       </c>
-      <c r="J557" t="s">
-        <v>76</v>
-      </c>
-      <c r="K557" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="558" spans="5:11">
-      <c r="E558" t="s">
-        <v>397</v>
-      </c>
-      <c r="F558" t="str">
+      <c r="J559" t="s">
+        <v>76</v>
+      </c>
+      <c r="K559" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="560" spans="5:11">
+      <c r="E560" t="s">
+        <v>397</v>
+      </c>
+      <c r="F560" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-35</v>
       </c>
-      <c r="G558" t="s">
+      <c r="G560" t="s">
         <v>419</v>
-      </c>
-      <c r="J558" t="s">
-        <v>76</v>
-      </c>
-      <c r="K558" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="559" spans="5:11">
-      <c r="E559" t="s">
-        <v>397</v>
-      </c>
-      <c r="F559" t="str">
-        <f>消息模板!$E$9</f>
-        <v>hmsg_message_template-14</v>
-      </c>
-      <c r="G559" t="s">
-        <v>407</v>
-      </c>
-      <c r="J559" t="s">
-        <v>76</v>
-      </c>
-      <c r="K559" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="560" spans="5:11">
-      <c r="E560" t="s">
-        <v>397</v>
-      </c>
-      <c r="F560" t="str">
-        <f>消息模板!$E$9</f>
-        <v>hmsg_message_template-14</v>
-      </c>
-      <c r="G560" t="s">
-        <v>408</v>
       </c>
       <c r="J560" t="s">
         <v>76</v>
@@ -21440,7 +21401,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G561" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="J561" t="s">
         <v>76</v>
@@ -21458,7 +21419,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G562" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="J562" t="s">
         <v>76</v>
@@ -21476,7 +21437,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G563" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="J563" t="s">
         <v>76</v>
@@ -21494,7 +21455,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G564" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="J564" t="s">
         <v>76</v>
@@ -21512,7 +21473,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G565" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J565" t="s">
         <v>76</v>
@@ -21530,7 +21491,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G566" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="J566" t="s">
         <v>76</v>
@@ -21548,7 +21509,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G567" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J567" t="s">
         <v>76</v>
@@ -21566,7 +21527,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G568" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="J568" t="s">
         <v>76</v>
@@ -21584,7 +21545,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G569" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="J569" t="s">
         <v>76</v>
@@ -21602,7 +21563,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G570" t="s">
-        <v>455</v>
+        <v>412</v>
       </c>
       <c r="J570" t="s">
         <v>76</v>
@@ -21616,11 +21577,11 @@
         <v>397</v>
       </c>
       <c r="F571" t="str">
-        <f>E80</f>
-        <v>hmsg_message_template-156</v>
+        <f>消息模板!$E$9</f>
+        <v>hmsg_message_template-14</v>
       </c>
       <c r="G571" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="J571" t="s">
         <v>76</v>
@@ -21634,11 +21595,11 @@
         <v>397</v>
       </c>
       <c r="F572" t="str">
-        <f>E80</f>
-        <v>hmsg_message_template-156</v>
+        <f>消息模板!$E$9</f>
+        <v>hmsg_message_template-14</v>
       </c>
       <c r="G572" t="s">
-        <v>401</v>
+        <v>455</v>
       </c>
       <c r="J572" t="s">
         <v>76</v>
@@ -21656,7 +21617,7 @@
         <v>hmsg_message_template-156</v>
       </c>
       <c r="G573" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="J573" t="s">
         <v>76</v>
@@ -21674,7 +21635,7 @@
         <v>hmsg_message_template-156</v>
       </c>
       <c r="G574" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="J574" t="s">
         <v>76</v>
@@ -21692,7 +21653,7 @@
         <v>hmsg_message_template-156</v>
       </c>
       <c r="G575" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="J575" t="s">
         <v>76</v>
@@ -21710,7 +21671,7 @@
         <v>hmsg_message_template-156</v>
       </c>
       <c r="G576" t="s">
-        <v>456</v>
+        <v>419</v>
       </c>
       <c r="J576" t="s">
         <v>76</v>
@@ -21728,7 +21689,7 @@
         <v>hmsg_message_template-156</v>
       </c>
       <c r="G577" t="s">
-        <v>451</v>
+        <v>415</v>
       </c>
       <c r="J577" t="s">
         <v>76</v>
@@ -21746,7 +21707,7 @@
         <v>hmsg_message_template-156</v>
       </c>
       <c r="G578" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J578" t="s">
         <v>76</v>
@@ -21764,7 +21725,7 @@
         <v>hmsg_message_template-156</v>
       </c>
       <c r="G579" t="s">
-        <v>416</v>
+        <v>451</v>
       </c>
       <c r="J579" t="s">
         <v>76</v>
@@ -21782,7 +21743,7 @@
         <v>hmsg_message_template-156</v>
       </c>
       <c r="G580" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J580" t="s">
         <v>76</v>
@@ -21796,11 +21757,11 @@
         <v>397</v>
       </c>
       <c r="F581" t="str">
-        <f>E81</f>
-        <v>hmsg_message_template-157</v>
+        <f>E80</f>
+        <v>hmsg_message_template-156</v>
       </c>
       <c r="G581" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="J581" t="s">
         <v>76</v>
@@ -21814,11 +21775,11 @@
         <v>397</v>
       </c>
       <c r="F582" t="str">
-        <f>E81</f>
-        <v>hmsg_message_template-157</v>
+        <f>E80</f>
+        <v>hmsg_message_template-156</v>
       </c>
       <c r="G582" t="s">
-        <v>401</v>
+        <v>458</v>
       </c>
       <c r="J582" t="s">
         <v>76</v>
@@ -21836,7 +21797,7 @@
         <v>hmsg_message_template-157</v>
       </c>
       <c r="G583" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="J583" t="s">
         <v>76</v>
@@ -21854,7 +21815,7 @@
         <v>hmsg_message_template-157</v>
       </c>
       <c r="G584" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="J584" t="s">
         <v>76</v>
@@ -21872,7 +21833,7 @@
         <v>hmsg_message_template-157</v>
       </c>
       <c r="G585" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="J585" t="s">
         <v>76</v>
@@ -21890,7 +21851,7 @@
         <v>hmsg_message_template-157</v>
       </c>
       <c r="G586" t="s">
-        <v>456</v>
+        <v>419</v>
       </c>
       <c r="J586" t="s">
         <v>76</v>
@@ -21908,7 +21869,7 @@
         <v>hmsg_message_template-157</v>
       </c>
       <c r="G587" t="s">
-        <v>451</v>
+        <v>415</v>
       </c>
       <c r="J587" t="s">
         <v>76</v>
@@ -21926,7 +21887,7 @@
         <v>hmsg_message_template-157</v>
       </c>
       <c r="G588" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J588" t="s">
         <v>76</v>
@@ -21944,7 +21905,7 @@
         <v>hmsg_message_template-157</v>
       </c>
       <c r="G589" t="s">
-        <v>416</v>
+        <v>451</v>
       </c>
       <c r="J589" t="s">
         <v>76</v>
@@ -21962,7 +21923,7 @@
         <v>hmsg_message_template-157</v>
       </c>
       <c r="G590" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J590" t="s">
         <v>76</v>
@@ -21976,11 +21937,11 @@
         <v>397</v>
       </c>
       <c r="F591" t="str">
-        <f>E82</f>
-        <v>hmsg_message_template-158</v>
+        <f>E81</f>
+        <v>hmsg_message_template-157</v>
       </c>
       <c r="G591" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="J591" t="s">
         <v>76</v>
@@ -21994,11 +21955,11 @@
         <v>397</v>
       </c>
       <c r="F592" t="str">
-        <f>E82</f>
-        <v>hmsg_message_template-158</v>
+        <f>E81</f>
+        <v>hmsg_message_template-157</v>
       </c>
       <c r="G592" t="s">
-        <v>401</v>
+        <v>458</v>
       </c>
       <c r="J592" t="s">
         <v>76</v>
@@ -22016,7 +21977,7 @@
         <v>hmsg_message_template-158</v>
       </c>
       <c r="G593" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="J593" t="s">
         <v>76</v>
@@ -22034,7 +21995,7 @@
         <v>hmsg_message_template-158</v>
       </c>
       <c r="G594" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="J594" t="s">
         <v>76</v>
@@ -22052,7 +22013,7 @@
         <v>hmsg_message_template-158</v>
       </c>
       <c r="G595" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="J595" t="s">
         <v>76</v>
@@ -22070,7 +22031,7 @@
         <v>hmsg_message_template-158</v>
       </c>
       <c r="G596" t="s">
-        <v>456</v>
+        <v>419</v>
       </c>
       <c r="J596" t="s">
         <v>76</v>
@@ -22088,7 +22049,7 @@
         <v>hmsg_message_template-158</v>
       </c>
       <c r="G597" t="s">
-        <v>451</v>
+        <v>415</v>
       </c>
       <c r="J597" t="s">
         <v>76</v>
@@ -22106,7 +22067,7 @@
         <v>hmsg_message_template-158</v>
       </c>
       <c r="G598" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J598" t="s">
         <v>76</v>
@@ -22124,7 +22085,7 @@
         <v>hmsg_message_template-158</v>
       </c>
       <c r="G599" t="s">
-        <v>416</v>
+        <v>451</v>
       </c>
       <c r="J599" t="s">
         <v>76</v>
@@ -22142,7 +22103,7 @@
         <v>hmsg_message_template-158</v>
       </c>
       <c r="G600" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J600" t="s">
         <v>76</v>
@@ -22156,11 +22117,11 @@
         <v>397</v>
       </c>
       <c r="F601" t="str">
-        <f>E83</f>
-        <v>hmsg_message_template-159</v>
+        <f>E82</f>
+        <v>hmsg_message_template-158</v>
       </c>
       <c r="G601" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="J601" t="s">
         <v>76</v>
@@ -22174,11 +22135,11 @@
         <v>397</v>
       </c>
       <c r="F602" t="str">
-        <f>E83</f>
-        <v>hmsg_message_template-159</v>
+        <f>E82</f>
+        <v>hmsg_message_template-158</v>
       </c>
       <c r="G602" t="s">
-        <v>401</v>
+        <v>458</v>
       </c>
       <c r="J602" t="s">
         <v>76</v>
@@ -22196,7 +22157,7 @@
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G603" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="J603" t="s">
         <v>76</v>
@@ -22214,7 +22175,7 @@
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G604" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="J604" t="s">
         <v>76</v>
@@ -22232,7 +22193,7 @@
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G605" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="J605" t="s">
         <v>76</v>
@@ -22250,7 +22211,7 @@
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G606" t="s">
-        <v>456</v>
+        <v>419</v>
       </c>
       <c r="J606" t="s">
         <v>76</v>
@@ -22268,7 +22229,7 @@
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G607" t="s">
-        <v>451</v>
+        <v>415</v>
       </c>
       <c r="J607" t="s">
         <v>76</v>
@@ -22286,7 +22247,7 @@
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G608" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J608" t="s">
         <v>76</v>
@@ -22304,7 +22265,7 @@
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G609" t="s">
-        <v>416</v>
+        <v>451</v>
       </c>
       <c r="J609" t="s">
         <v>76</v>
@@ -22322,7 +22283,7 @@
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G610" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J610" t="s">
         <v>76</v>
@@ -22336,11 +22297,11 @@
         <v>397</v>
       </c>
       <c r="F611" t="str">
-        <f>E84</f>
-        <v>hmsg_message_template-160</v>
+        <f>E83</f>
+        <v>hmsg_message_template-159</v>
       </c>
       <c r="G611" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="J611" t="s">
         <v>76</v>
@@ -22354,11 +22315,11 @@
         <v>397</v>
       </c>
       <c r="F612" t="str">
-        <f>E84</f>
-        <v>hmsg_message_template-160</v>
+        <f>E83</f>
+        <v>hmsg_message_template-159</v>
       </c>
       <c r="G612" t="s">
-        <v>401</v>
+        <v>458</v>
       </c>
       <c r="J612" t="s">
         <v>76</v>
@@ -22376,7 +22337,7 @@
         <v>hmsg_message_template-160</v>
       </c>
       <c r="G613" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="J613" t="s">
         <v>76</v>
@@ -22394,7 +22355,7 @@
         <v>hmsg_message_template-160</v>
       </c>
       <c r="G614" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="J614" t="s">
         <v>76</v>
@@ -22412,7 +22373,7 @@
         <v>hmsg_message_template-160</v>
       </c>
       <c r="G615" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="J615" t="s">
         <v>76</v>
@@ -22430,7 +22391,7 @@
         <v>hmsg_message_template-160</v>
       </c>
       <c r="G616" t="s">
-        <v>451</v>
+        <v>419</v>
       </c>
       <c r="J616" t="s">
         <v>76</v>
@@ -22448,7 +22409,7 @@
         <v>hmsg_message_template-160</v>
       </c>
       <c r="G617" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="J617" t="s">
         <v>76</v>
@@ -22466,7 +22427,7 @@
         <v>hmsg_message_template-160</v>
       </c>
       <c r="G618" t="s">
-        <v>416</v>
+        <v>451</v>
       </c>
       <c r="J618" t="s">
         <v>76</v>
@@ -22480,11 +22441,11 @@
         <v>397</v>
       </c>
       <c r="F619" t="str">
-        <f>E85</f>
-        <v>hmsg_message_template-161</v>
+        <f>E84</f>
+        <v>hmsg_message_template-160</v>
       </c>
       <c r="G619" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="J619" t="s">
         <v>76</v>
@@ -22498,11 +22459,11 @@
         <v>397</v>
       </c>
       <c r="F620" t="str">
-        <f>E85</f>
-        <v>hmsg_message_template-161</v>
+        <f>E84</f>
+        <v>hmsg_message_template-160</v>
       </c>
       <c r="G620" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="J620" t="s">
         <v>76</v>
@@ -22520,7 +22481,7 @@
         <v>hmsg_message_template-161</v>
       </c>
       <c r="G621" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="J621" t="s">
         <v>76</v>
@@ -22538,7 +22499,7 @@
         <v>hmsg_message_template-161</v>
       </c>
       <c r="G622" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="J622" t="s">
         <v>76</v>
@@ -22556,7 +22517,7 @@
         <v>hmsg_message_template-161</v>
       </c>
       <c r="G623" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="J623" t="s">
         <v>76</v>
@@ -22574,7 +22535,7 @@
         <v>hmsg_message_template-161</v>
       </c>
       <c r="G624" t="s">
-        <v>451</v>
+        <v>419</v>
       </c>
       <c r="J624" t="s">
         <v>76</v>
@@ -22592,7 +22553,7 @@
         <v>hmsg_message_template-161</v>
       </c>
       <c r="G625" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="J625" t="s">
         <v>76</v>
@@ -22610,7 +22571,7 @@
         <v>hmsg_message_template-161</v>
       </c>
       <c r="G626" t="s">
-        <v>416</v>
+        <v>451</v>
       </c>
       <c r="J626" t="s">
         <v>76</v>
@@ -22624,11 +22585,11 @@
         <v>397</v>
       </c>
       <c r="F627" t="str">
-        <f>E86</f>
-        <v>hmsg_message_template-162</v>
+        <f>E85</f>
+        <v>hmsg_message_template-161</v>
       </c>
       <c r="G627" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="J627" t="s">
         <v>76</v>
@@ -22642,11 +22603,11 @@
         <v>397</v>
       </c>
       <c r="F628" t="str">
-        <f>E86</f>
-        <v>hmsg_message_template-162</v>
+        <f>E85</f>
+        <v>hmsg_message_template-161</v>
       </c>
       <c r="G628" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="J628" t="s">
         <v>76</v>
@@ -22664,7 +22625,7 @@
         <v>hmsg_message_template-162</v>
       </c>
       <c r="G629" t="s">
-        <v>451</v>
+        <v>419</v>
       </c>
       <c r="J629" t="s">
         <v>76</v>
@@ -22678,11 +22639,11 @@
         <v>397</v>
       </c>
       <c r="F630" t="str">
-        <f>E87</f>
-        <v>hmsg_message_template-163</v>
+        <f>E86</f>
+        <v>hmsg_message_template-162</v>
       </c>
       <c r="G630" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="J630" t="s">
         <v>76</v>
@@ -22696,11 +22657,11 @@
         <v>397</v>
       </c>
       <c r="F631" t="str">
-        <f>E87</f>
-        <v>hmsg_message_template-163</v>
+        <f>E86</f>
+        <v>hmsg_message_template-162</v>
       </c>
       <c r="G631" t="s">
-        <v>415</v>
+        <v>451</v>
       </c>
       <c r="J631" t="s">
         <v>76</v>
@@ -22718,13 +22679,67 @@
         <v>hmsg_message_template-163</v>
       </c>
       <c r="G632" t="s">
+        <v>419</v>
+      </c>
+      <c r="J632" t="s">
+        <v>76</v>
+      </c>
+      <c r="K632" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="633" spans="5:11">
+      <c r="E633" t="s">
+        <v>397</v>
+      </c>
+      <c r="F633" t="str">
+        <f>E87</f>
+        <v>hmsg_message_template-163</v>
+      </c>
+      <c r="G633" t="s">
+        <v>415</v>
+      </c>
+      <c r="J633" t="s">
+        <v>76</v>
+      </c>
+      <c r="K633" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="634" spans="5:11">
+      <c r="E634" t="s">
+        <v>397</v>
+      </c>
+      <c r="F634" t="str">
+        <f>E87</f>
+        <v>hmsg_message_template-163</v>
+      </c>
+      <c r="G634" t="s">
         <v>451</v>
       </c>
-      <c r="J632" t="s">
-        <v>76</v>
-      </c>
-      <c r="K632" t="s">
-        <v>76</v>
+      <c r="J634" t="s">
+        <v>76</v>
+      </c>
+      <c r="K634" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="635" spans="5:11">
+      <c r="E635" t="s">
+        <v>397</v>
+      </c>
+      <c r="F635" t="str">
+        <f>E87</f>
+        <v>hmsg_message_template-163</v>
+      </c>
+      <c r="G635" t="s">
+        <v>453</v>
+      </c>
+      <c r="J635">
+        <v>0</v>
+      </c>
+      <c r="K635">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="2"/>
+    <workbookView windowHeight="19420" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4034" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771">
   <si>
     <r>
       <rPr>
@@ -2353,7 +2353,7 @@
   </si>
   <si>
     <t>&lt;p&gt;您在项目“${projectName}”下创建的应用服务“${appServiceName}”失败。&lt;/p&gt;
-&lt;p&gt;&lt;a href="#/devops/app-service?type=project&amp;id=${projectId}&amp;name=${appServiceName}&amp;category=${projectCategory}&amp;organizationId=${organizationId}"&gt;查看详情&lt;/a&gt;&lt;/p&gt;</t>
+&lt;p&gt;&lt;a href="#/devops/app-service?type=project&amp;id=${projectId}&amp;name=${appServiceName}&amp;organizationId=${organizationId}"&gt;查看详情&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-20</t>
@@ -3219,7 +3219,7 @@
   </si>
   <si>
     <t>&lt;p&gt;项目“${projectName}”下的应用服务“${appServiceName}”已被删除。&lt;/p&gt;
-&lt;p&gt;&lt;a href="#/devops/app-service?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;category=${projectCategory}&amp;organizationId=${organizationId}"&gt;查看详情&lt;/a&gt;&lt;/p&gt;</t>
+&lt;p&gt;&lt;a href="#/devops/app-service?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;organizationId=${organizationId}"&gt;查看详情&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-37</t>
@@ -3286,7 +3286,7 @@
   </si>
   <si>
     <t>&lt;p&gt;项目“${projectName}”下的应用服务“${appServiceName}”已被停用。&lt;/p&gt;
-&lt;p&gt;&lt;a href="#/devops/app-service?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;category=${projectCategory}&amp;organizationId=${organizationId}"&gt;查看详情&lt;/a&gt;&lt;/p&gt;</t>
+&lt;p&gt;&lt;a href="#/devops/app-service?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;organizationId=${organizationId}"&gt;查看详情&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-43</t>
@@ -3563,7 +3563,7 @@
   </si>
   <si>
     <t>&lt;p&gt;项目“${projectName}”下的应用服务“${appServiceName}”已被启用。&lt;/p&gt;
-&lt;p&gt;&lt;a href="#/devops/app-service?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;category=${projectCategory}&amp;organizationId=${organizationId}"&gt;查看详情&lt;/a&gt;&lt;/p&gt;</t>
+&lt;p&gt;&lt;a href="#/devops/app-service?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;organizationId=${organizationId}"&gt;查看详情&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-55</t>
@@ -8499,9 +8499,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -8568,6 +8568,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -8585,10 +8591,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -8605,14 +8612,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -8622,24 +8621,47 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8653,15 +8675,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8676,14 +8690,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8697,32 +8704,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8734,9 +8719,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8830,25 +8830,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8860,7 +8872,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8872,13 +8902,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8890,67 +8926,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8968,13 +8944,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8986,13 +8974,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9004,13 +8998,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9027,12 +9027,28 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -9057,6 +9073,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -9065,26 +9094,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -9099,21 +9108,30 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color auto="1"/>
-      </left>
-      <right/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top/>
-      <bottom/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -9156,17 +9174,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -9178,6 +9185,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9196,73 +9214,101 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9271,97 +9317,51 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -9390,112 +9390,112 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
+    <cellStyle name="输入" xfId="5" builtinId="20"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
+    <cellStyle name="货币" xfId="8" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
+    <cellStyle name="百分比" xfId="10" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
+    <cellStyle name="计算" xfId="16" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
+    <cellStyle name="适中" xfId="18" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
+    <cellStyle name="好" xfId="20" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
+    <cellStyle name="汇总" xfId="22" builtinId="25"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
+    <cellStyle name="标题" xfId="34" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
+    <cellStyle name="注释" xfId="38" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
@@ -9830,7 +9830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
@@ -9838,21 +9838,21 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5833333333333" style="12" customWidth="1"/>
+    <col min="1" max="1" width="15.5855263157895" style="12" customWidth="1"/>
     <col min="2" max="2" width="10.25" style="13" customWidth="1"/>
-    <col min="3" max="3" width="28.1666666666667" customWidth="1"/>
+    <col min="3" max="3" width="28.1644736842105" customWidth="1"/>
     <col min="4" max="4" width="35.25" style="6" customWidth="1"/>
-    <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
-    <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
-    <col min="7" max="7" width="21.5833333333333" customWidth="1"/>
+    <col min="5" max="5" width="38.5855263157895" customWidth="1"/>
+    <col min="6" max="6" width="23.4144736842105" customWidth="1"/>
+    <col min="7" max="7" width="21.5855263157895" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5833333333333" customWidth="1"/>
+    <col min="9" max="9" width="24.5855263157895" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1666666666667" customWidth="1"/>
-    <col min="12" max="12" width="18.5833333333333" customWidth="1"/>
-    <col min="13" max="13" width="13.1666666666667" customWidth="1"/>
+    <col min="11" max="11" width="19.1644736842105" customWidth="1"/>
+    <col min="12" max="12" width="18.5855263157895" customWidth="1"/>
+    <col min="13" max="13" width="13.1644736842105" customWidth="1"/>
     <col min="14" max="1025" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9863,130 +9863,130 @@
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="17"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="4" spans="3:7">
-      <c r="C4" s="20" t="s">
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+    </row>
+    <row r="4" ht="16" spans="3:7">
+      <c r="C4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="36" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" ht="16" spans="1:3">
       <c r="A5" s="14"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="37" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="29"/>
-    </row>
-    <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="30" t="s">
+      <c r="E8" s="38"/>
+    </row>
+    <row r="9" ht="46" spans="3:6">
+      <c r="C9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="39" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="33" t="s">
+    <row r="10" ht="46" spans="3:5">
+      <c r="C10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="39" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="27" t="s">
+    <row r="11" ht="61" spans="3:5">
+      <c r="C11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="39" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="27" t="s">
+    <row r="12" ht="16" spans="3:5">
+      <c r="C12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="40" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="38"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="27"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-    </row>
-    <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="35" t="s">
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="38"/>
+    </row>
+    <row r="15" ht="31" spans="3:5">
+      <c r="C15" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="41" t="s">
         <v>28</v>
       </c>
     </row>
@@ -9995,39 +9995,39 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="3:5">
-      <c r="C19" s="38" t="s">
+    <row r="19" ht="16" spans="3:5">
+      <c r="C19" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="39" t="s">
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+    </row>
+    <row r="20" ht="16" spans="3:4">
+      <c r="C20" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="39" t="s">
+    <row r="21" ht="16" spans="3:4">
+      <c r="C21" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="39" t="s">
+    <row r="22" ht="16" spans="3:4">
+      <c r="C22" s="28" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="39" t="s">
+    <row r="23" ht="16" spans="3:4">
+      <c r="C23" s="28" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -10035,25 +10035,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="18"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="18"/>
-    </row>
-    <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="41" t="s">
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" ht="31" spans="3:3">
+      <c r="C27" s="31" t="s">
         <v>43</v>
       </c>
     </row>
@@ -10074,7 +10074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:R10"/>
   <sheetViews>
@@ -10082,11 +10082,11 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.2"/>
   <cols>
     <col min="5" max="5" width="23.25" customWidth="1"/>
     <col min="6" max="6" width="21.25" customWidth="1"/>
-    <col min="8" max="8" width="14.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="14.6644736842105" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10247,28 +10247,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:Q635"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="G601" workbookViewId="0">
-      <selection activeCell="K635" sqref="K635"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
   <cols>
-    <col min="4" max="4" width="22.5833333333333" customWidth="1"/>
-    <col min="5" max="5" width="26.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="44.8333333333333" customWidth="1"/>
-    <col min="7" max="7" width="29.4166666666667" customWidth="1"/>
+    <col min="4" max="4" width="22.5855263157895" customWidth="1"/>
+    <col min="5" max="5" width="26.3355263157895" customWidth="1"/>
+    <col min="6" max="6" width="44.8355263157895" customWidth="1"/>
+    <col min="7" max="7" width="29.4144736842105" customWidth="1"/>
     <col min="8" max="8" width="24.25" customWidth="1"/>
-    <col min="9" max="9" width="92.8541666666667" customWidth="1"/>
-    <col min="10" max="10" width="29.3333333333333" customWidth="1"/>
-    <col min="11" max="11" width="32.1666666666667" customWidth="1"/>
-    <col min="13" max="13" width="33.1666666666667" customWidth="1"/>
-    <col min="14" max="14" width="23.4166666666667" customWidth="1"/>
-    <col min="15" max="15" width="29.4166666666667" customWidth="1"/>
-    <col min="16" max="16" width="29.8333333333333" customWidth="1"/>
+    <col min="9" max="9" width="92.8552631578947" customWidth="1"/>
+    <col min="10" max="10" width="29.3355263157895" customWidth="1"/>
+    <col min="11" max="11" width="32.1644736842105" customWidth="1"/>
+    <col min="13" max="13" width="33.1644736842105" customWidth="1"/>
+    <col min="14" max="14" width="23.4144736842105" customWidth="1"/>
+    <col min="15" max="15" width="29.4144736842105" customWidth="1"/>
+    <col min="16" max="16" width="29.8355263157895" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10477,7 +10477,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" ht="69.6" spans="5:17">
+    <row r="12" ht="46" spans="5:17">
       <c r="E12" t="s">
         <v>120</v>
       </c>
@@ -10535,7 +10535,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" ht="69.6" spans="5:17">
+    <row r="14" ht="46" spans="5:17">
       <c r="E14" t="s">
         <v>128</v>
       </c>
@@ -10966,7 +10966,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" ht="69.6" spans="5:17">
+    <row r="27" ht="46" spans="5:17">
       <c r="E27" t="s">
         <v>177</v>
       </c>
@@ -11170,7 +11170,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" ht="69.6" spans="5:17">
+    <row r="33" ht="46" spans="5:17">
       <c r="E33" t="s">
         <v>199</v>
       </c>
@@ -11228,7 +11228,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" ht="69.6" spans="5:17">
+    <row r="35" ht="46" spans="5:17">
       <c r="E35" t="s">
         <v>206</v>
       </c>
@@ -11327,7 +11327,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" ht="69.6" spans="5:17">
+    <row r="38" ht="46" spans="5:17">
       <c r="E38" t="s">
         <v>214</v>
       </c>
@@ -11385,7 +11385,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" ht="69.6" spans="5:17">
+    <row r="40" ht="46" spans="5:17">
       <c r="E40" t="s">
         <v>221</v>
       </c>
@@ -11513,7 +11513,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" ht="52.2" spans="5:17">
+    <row r="44" ht="46" spans="5:17">
       <c r="E44" t="s">
         <v>232</v>
       </c>
@@ -11542,7 +11542,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="5:17">
+    <row r="45" ht="18" spans="5:17">
       <c r="E45" t="s">
         <v>236</v>
       </c>
@@ -11687,7 +11687,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="50" ht="52.2" spans="5:17">
+    <row r="50" ht="46" spans="5:17">
       <c r="E50" t="s">
         <v>253</v>
       </c>
@@ -11745,7 +11745,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" ht="52.2" spans="5:17">
+    <row r="52" ht="46" spans="5:17">
       <c r="E52" t="s">
         <v>259</v>
       </c>
@@ -11832,7 +11832,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" ht="87" spans="5:17">
+    <row r="55" ht="61" spans="5:17">
       <c r="E55" t="s">
         <v>269</v>
       </c>
@@ -11954,7 +11954,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="59" ht="69.6" spans="5:17">
+    <row r="59" ht="61" spans="5:17">
       <c r="E59" t="s">
         <v>285</v>
       </c>
@@ -12047,7 +12047,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="62" ht="69.6" spans="5:17">
+    <row r="62" ht="61" spans="5:17">
       <c r="E62" t="s">
         <v>295</v>
       </c>
@@ -12140,7 +12140,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="65" ht="69.6" spans="5:17">
+    <row r="65" ht="61" spans="5:17">
       <c r="E65" t="s">
         <v>305</v>
       </c>
@@ -12204,7 +12204,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="67" ht="69.6" spans="5:17">
+    <row r="67" ht="61" spans="5:17">
       <c r="E67" t="s">
         <v>311</v>
       </c>
@@ -12262,7 +12262,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="69" ht="69.6" spans="5:17">
+    <row r="69" ht="61" spans="5:17">
       <c r="E69" t="s">
         <v>318</v>
       </c>
@@ -12564,7 +12564,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="79" ht="87" spans="5:17">
+    <row r="79" ht="76" spans="5:17">
       <c r="E79" s="11" t="s">
         <v>357</v>
       </c>
@@ -12599,7 +12599,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="80" ht="243.6" spans="5:17">
+    <row r="80" ht="213" spans="5:17">
       <c r="E80" t="s">
         <v>362</v>
       </c>
@@ -12634,7 +12634,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="81" ht="243.6" spans="5:17">
+    <row r="81" ht="213" spans="5:17">
       <c r="E81" t="s">
         <v>367</v>
       </c>
@@ -12669,7 +12669,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="82" ht="243.6" spans="5:17">
+    <row r="82" ht="213" spans="5:17">
       <c r="E82" t="s">
         <v>370</v>
       </c>
@@ -12704,7 +12704,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="83" ht="243.6" spans="5:17">
+    <row r="83" ht="213" spans="5:17">
       <c r="E83" t="s">
         <v>373</v>
       </c>
@@ -12739,7 +12739,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="84" ht="208.8" spans="5:17">
+    <row r="84" ht="183" spans="5:17">
       <c r="E84" t="s">
         <v>376</v>
       </c>
@@ -12774,7 +12774,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="85" ht="208.8" spans="5:17">
+    <row r="85" ht="183" spans="5:17">
       <c r="E85" t="s">
         <v>380</v>
       </c>
@@ -12809,7 +12809,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="86" spans="5:17">
+    <row r="86" ht="16" spans="5:17">
       <c r="E86" t="s">
         <v>383</v>
       </c>
@@ -22750,7 +22750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:O182"/>
   <sheetViews>
@@ -22758,22 +22758,22 @@
       <selection activeCell="D176" sqref="$A176:$XFD176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
   <cols>
-    <col min="1" max="1" width="22.4166666666667" customWidth="1"/>
-    <col min="2" max="2" width="15.4166666666667" customWidth="1"/>
-    <col min="3" max="3" width="22.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="29.4166666666667" customWidth="1"/>
-    <col min="5" max="5" width="43.6666666666667" customWidth="1"/>
-    <col min="6" max="7" width="34.4166666666667" customWidth="1"/>
-    <col min="8" max="8" width="37.9166666666667" customWidth="1"/>
-    <col min="9" max="9" width="26.9166666666667" customWidth="1"/>
-    <col min="10" max="10" width="14.1666666666667" customWidth="1"/>
-    <col min="11" max="11" width="26.8333333333333" customWidth="1"/>
-    <col min="12" max="12" width="29.8333333333333" customWidth="1"/>
-    <col min="13" max="13" width="24.8333333333333" customWidth="1"/>
-    <col min="14" max="14" width="17.5833333333333" customWidth="1"/>
-    <col min="15" max="15" width="15.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="22.4144736842105" customWidth="1"/>
+    <col min="2" max="2" width="15.4144736842105" customWidth="1"/>
+    <col min="3" max="3" width="22.6644736842105" customWidth="1"/>
+    <col min="4" max="4" width="29.4144736842105" customWidth="1"/>
+    <col min="5" max="5" width="43.6644736842105" customWidth="1"/>
+    <col min="6" max="7" width="34.4144736842105" customWidth="1"/>
+    <col min="8" max="8" width="37.9144736842105" customWidth="1"/>
+    <col min="9" max="9" width="26.9144736842105" customWidth="1"/>
+    <col min="10" max="10" width="14.1644736842105" customWidth="1"/>
+    <col min="11" max="11" width="26.8355263157895" customWidth="1"/>
+    <col min="12" max="12" width="29.8355263157895" customWidth="1"/>
+    <col min="13" max="13" width="24.8355263157895" customWidth="1"/>
+    <col min="14" max="14" width="17.5855263157895" customWidth="1"/>
+    <col min="15" max="15" width="15.6644736842105" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -22790,7 +22790,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:8">
+    <row r="4" ht="17" spans="5:8">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -24249,7 +24249,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="48" ht="34.8" spans="5:15">
+    <row r="48" ht="31" spans="5:15">
       <c r="E48" t="s">
         <v>605</v>
       </c>
@@ -24284,7 +24284,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="49" spans="5:15">
+    <row r="49" ht="16" spans="5:15">
       <c r="E49" t="s">
         <v>609</v>
       </c>
@@ -24319,7 +24319,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="50" spans="5:15">
+    <row r="50" ht="16" spans="5:15">
       <c r="E50" t="s">
         <v>612</v>
       </c>
@@ -24354,7 +24354,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="51" spans="5:15">
+    <row r="51" ht="16" spans="5:15">
       <c r="E51" t="s">
         <v>615</v>
       </c>
@@ -24389,7 +24389,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="52" spans="5:15">
+    <row r="52" ht="16" spans="5:15">
       <c r="E52" t="s">
         <v>618</v>
       </c>
@@ -24424,7 +24424,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="53" spans="5:15">
+    <row r="53" ht="16" spans="5:15">
       <c r="E53" t="s">
         <v>621</v>
       </c>
@@ -24459,7 +24459,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="54" spans="5:15">
+    <row r="54" ht="16" spans="5:15">
       <c r="E54" t="s">
         <v>624</v>
       </c>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -5291,7 +5291,7 @@
   </si>
   <si>
     <t>&lt;p&gt;流水线“${pipelineName}”目前暂停于【${stageName}】阶段，需要您进行审核。
-&lt;p&gt;&lt;p&gt;&lt;a href="#/devops/pipeline-manage?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;category=GENERAL&amp;organizationId=${organizationId}&amp;
+&lt;p&gt;&lt;p&gt;&lt;a href="#/devops/pipeline-manage?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;organizationId=${organizationId}&amp;
 pipelineId=${pipelineId}&amp;pipelineIdRecordId=${pipelineIdRecordId}"&gt;查看详情&lt;/a &gt;</t>
   </si>
   <si>
@@ -5570,7 +5570,7 @@
   <si>
     <t>&lt;p&gt;流水线“${pipelineName}”执行失败。
 &lt;p&gt;&lt;p&gt;&lt;a href="#/devops/pipeline-manage?type=project&amp;id=${projectId}&amp;
-name=${projectName}&amp;category=GENERAL&amp;organizationId=${organizationId}&amp;
+name=${projectName}&amp;organizationId=${organizationId}&amp;
 pipelineId=${pipelineId}&amp;pipelineIdRecordId=${pipelineIdRecordId}"&gt;查看详情&lt;/a &gt;</t>
   </si>
   <si>
@@ -5837,7 +5837,7 @@
   <si>
     <t>&lt;p&gt;流水线“${pipelineName}”在【${stageName}】阶段中的或签任务已被${auditName}:${realName}审核。
 &lt;p&gt;&lt;p&gt;&lt;a href="#/devops/pipeline-manage?type=project&amp;id=${projectId}&amp;
-name=${projectName}&amp;category=GENERAL&amp;organizationId=${organizationId}&amp;
+name=${projectName}&amp;organizationId=${organizationId}&amp;
 pipelineId=${pipelineId}&amp;pipelineIdRecordId=${pipelineIdRecordId}"&gt;查看详情&lt;/a &gt;</t>
   </si>
   <si>
@@ -6098,7 +6098,7 @@
   <si>
     <t>&lt;p&gt;流水线“${pipelineName}”在【${stageName}】阶段被${auditName}:${realName}终止。
 &lt;p&gt;&lt;p&gt;&lt;a href="#/devops/pipeline-manage?type=project&amp;id=${projectId}&amp;
-name=${projectName}&amp;category=GENERAL&amp;organizationId=${organizationId}&amp;
+name=${projectName}&amp;organizationId=${organizationId}&amp;
 pipelineId=${pipelineId}&amp;pipelineIdRecordId=${pipelineIdRecordId}"&gt;查看详情&lt;/a &gt;</t>
   </si>
   <si>
@@ -6122,7 +6122,7 @@
   <si>
     <t>&lt;p&gt;流水线“${pipelineName}”执行成功。&lt;/p&gt;&lt;p&gt;
 &lt;a href="#/devops/pipeline-manage?type=project&amp;id=${projectId}&amp;
-name=${projectName}&amp;category=GENERAL&amp;organizationId=${organizationId}&amp;
+name=${projectName}&amp;organizationId=${organizationId}&amp;
 pipelineId=${pipelineId}&amp;pipelineIdRecordId=${pipelineIdRecordId}"&gt;查看详情&lt;/a &gt;</t>
   </si>
   <si>
@@ -6976,7 +6976,7 @@
   <si>
     <t>&lt;p&gt;流水线“${pipelineName}”将要执行阶段【${stageName}】，需要您进行审核。&lt;p&gt;&lt;p&gt;
 &lt;a href=#/devops/pipeline-manage?type=project&amp;id=${projectId}&amp;
-name=${projectName}&amp;category=GENERAL&amp;organizationId=${organizationId}&amp;
+name=${projectName}&amp;organizationId=${organizationId}&amp;
 pipelineId=${pipelineId}&amp;pipelineIdRecordId=${pipelineIdRecordId}&gt;
 点击查看&lt;/a &gt;</t>
   </si>
@@ -8498,10 +8498,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -8612,21 +8612,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -8635,8 +8620,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8651,14 +8644,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -8674,10 +8674,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8689,15 +8689,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8711,17 +8720,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8736,7 +8736,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8842,7 +8842,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8854,13 +8938,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8872,7 +8968,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8884,133 +9004,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9130,31 +9130,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9175,16 +9181,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9200,17 +9206,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9218,139 +9218,139 @@
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10251,8 +10251,8 @@
   <sheetPr/>
   <dimension ref="A1:Q635"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -2353,7 +2353,7 @@
   </si>
   <si>
     <t>&lt;p&gt;您在项目“${projectName}”下创建的应用服务“${appServiceName}”失败。&lt;/p&gt;
-&lt;p&gt;&lt;a href="#/devops/app-service?type=project&amp;id=${projectId}&amp;name=${appServiceName}&amp;category=${projectCategory}&amp;organizationId=${organizationId}"&gt;查看详情&lt;/a&gt;&lt;/p&gt;</t>
+&lt;p&gt;&lt;a href="#/devops/app-service?type=project&amp;id=${projectId}&amp;name=${appServiceName}&amp;organizationId=${organizationId}"&gt;查看详情&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-20</t>
@@ -3219,7 +3219,7 @@
   </si>
   <si>
     <t>&lt;p&gt;项目“${projectName}”下的应用服务“${appServiceName}”已被删除。&lt;/p&gt;
-&lt;p&gt;&lt;a href="#/devops/app-service?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;category=${projectCategory}&amp;organizationId=${organizationId}"&gt;查看详情&lt;/a&gt;&lt;/p&gt;</t>
+&lt;p&gt;&lt;a href="#/devops/app-service?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;organizationId=${organizationId}"&gt;查看详情&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-37</t>
@@ -3286,7 +3286,7 @@
   </si>
   <si>
     <t>&lt;p&gt;项目“${projectName}”下的应用服务“${appServiceName}”已被停用。&lt;/p&gt;
-&lt;p&gt;&lt;a href="#/devops/app-service?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;category=${projectCategory}&amp;organizationId=${organizationId}"&gt;查看详情&lt;/a&gt;&lt;/p&gt;</t>
+&lt;p&gt;&lt;a href="#/devops/app-service?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;organizationId=${organizationId}"&gt;查看详情&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-43</t>
@@ -3563,7 +3563,7 @@
   </si>
   <si>
     <t>&lt;p&gt;项目“${projectName}”下的应用服务“${appServiceName}”已被启用。&lt;/p&gt;
-&lt;p&gt;&lt;a href="#/devops/app-service?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;category=${projectCategory}&amp;organizationId=${organizationId}"&gt;查看详情&lt;/a&gt;&lt;/p&gt;</t>
+&lt;p&gt;&lt;a href="#/devops/app-service?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;organizationId=${organizationId}"&gt;查看详情&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-55</t>
@@ -8428,9 +8428,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="43">
@@ -8522,51 +8522,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8574,13 +8537,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8595,25 +8551,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8633,9 +8573,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8649,26 +8664,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8760,7 +8760,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8772,55 +8886,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8832,7 +8916,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8844,103 +8934,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9047,17 +9047,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9074,8 +9068,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9095,6 +9104,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -9106,30 +9130,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9147,46 +9147,49 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9195,100 +9198,97 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10181,8 +10181,8 @@
   <sheetPr/>
   <dimension ref="A1:Q633"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A71" sqref="$A70:$XFD70 $A71:$XFD71"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="E36" workbookViewId="0">
+      <selection activeCell="I40" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -22626,7 +22626,7 @@
   <sheetPr/>
   <dimension ref="A1:O178"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B137" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B137" workbookViewId="0">
       <selection activeCell="B126" sqref="$A125:$XFD125 $A126:$XFD126"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -5291,7 +5291,7 @@
   </si>
   <si>
     <t>&lt;p&gt;流水线“${pipelineName}”目前暂停于【${stageName}】阶段，需要您进行审核。
-&lt;p&gt;&lt;p&gt;&lt;a href="#/devops/pipeline-manage?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;category=GENERAL&amp;organizationId=${organizationId}&amp;
+&lt;p&gt;&lt;p&gt;&lt;a href="#/devops/pipeline-manage?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;organizationId=${organizationId}&amp;
 pipelineId=${pipelineId}&amp;pipelineIdRecordId=${pipelineIdRecordId}"&gt;查看详情&lt;/a &gt;</t>
   </si>
   <si>
@@ -5319,7 +5319,7 @@
     <t>流水线失败</t>
   </si>
   <si>
-    <t>&lt;p&gt;流水线“${pipelineName}”执行失败。&lt;p&gt;&lt;p&gt;&lt;a href="#/devops/deployment-operation?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;category=undefined&amp;organizationId=${organizationId}&amp;orgId=${organizationId}&amp;pipelineRecordId=${pipelineRecordId}"&gt;查看详情&lt;/a &gt;</t>
+    <t>&lt;p&gt;流水线“${pipelineName}”执行失败。&lt;p&gt;&lt;p&gt;&lt;a href="#/devops/deployment-operation?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;organizationId=${organizationId}&amp;orgId=${organizationId}&amp;pipelineRecordId=${pipelineRecordId}"&gt;查看详情&lt;/a &gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-116</t>
@@ -5570,7 +5570,7 @@
   <si>
     <t>&lt;p&gt;流水线“${pipelineName}”执行失败。
 &lt;p&gt;&lt;p&gt;&lt;a href="#/devops/pipeline-manage?type=project&amp;id=${projectId}&amp;
-name=${projectName}&amp;category=GENERAL&amp;organizationId=${organizationId}&amp;
+name=${projectName}&amp;organizationId=${organizationId}&amp;
 pipelineId=${pipelineId}&amp;pipelineIdRecordId=${pipelineIdRecordId}"&gt;查看详情&lt;/a &gt;</t>
   </si>
   <si>
@@ -5837,7 +5837,7 @@
   <si>
     <t>&lt;p&gt;流水线“${pipelineName}”在【${stageName}】阶段中的或签任务已被${auditName}:${realName}审核。
 &lt;p&gt;&lt;p&gt;&lt;a href="#/devops/pipeline-manage?type=project&amp;id=${projectId}&amp;
-name=${projectName}&amp;category=GENERAL&amp;organizationId=${organizationId}&amp;
+name=${projectName}&amp;organizationId=${organizationId}&amp;
 pipelineId=${pipelineId}&amp;pipelineIdRecordId=${pipelineIdRecordId}"&gt;查看详情&lt;/a &gt;</t>
   </si>
   <si>
@@ -6098,7 +6098,7 @@
   <si>
     <t>&lt;p&gt;流水线“${pipelineName}”在【${stageName}】阶段被${auditName}:${realName}终止。
 &lt;p&gt;&lt;p&gt;&lt;a href="#/devops/pipeline-manage?type=project&amp;id=${projectId}&amp;
-name=${projectName}&amp;category=GENERAL&amp;organizationId=${organizationId}&amp;
+name=${projectName}&amp;organizationId=${organizationId}&amp;
 pipelineId=${pipelineId}&amp;pipelineIdRecordId=${pipelineIdRecordId}"&gt;查看详情&lt;/a &gt;</t>
   </si>
   <si>
@@ -6122,7 +6122,7 @@
   <si>
     <t>&lt;p&gt;流水线“${pipelineName}”执行成功。&lt;/p&gt;&lt;p&gt;
 &lt;a href="#/devops/pipeline-manage?type=project&amp;id=${projectId}&amp;
-name=${projectName}&amp;category=GENERAL&amp;organizationId=${organizationId}&amp;
+name=${projectName}&amp;organizationId=${organizationId}&amp;
 pipelineId=${pipelineId}&amp;pipelineIdRecordId=${pipelineIdRecordId}"&gt;查看详情&lt;/a &gt;</t>
   </si>
   <si>
@@ -6939,7 +6939,7 @@
   <si>
     <t>&lt;p&gt;流水线“${pipelineName}”将要执行阶段【${stageName}】，需要您进行审核。&lt;p&gt;&lt;p&gt;
 &lt;a href=#/devops/pipeline-manage?type=project&amp;id=${projectId}&amp;
-name=${projectName}&amp;category=GENERAL&amp;organizationId=${organizationId}&amp;
+name=${projectName}&amp;organizationId=${organizationId}&amp;
 pipelineId=${pipelineId}&amp;pipelineIdRecordId=${pipelineIdRecordId}&gt;
 点击查看&lt;/a &gt;</t>
   </si>
@@ -8428,10 +8428,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -8521,6 +8521,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -8528,15 +8544,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8550,10 +8560,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8562,44 +8573,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8619,30 +8592,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8656,9 +8620,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8669,6 +8655,20 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8760,13 +8760,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8778,79 +8808,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8862,37 +8820,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8904,7 +8832,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8922,7 +8850,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8934,13 +8892,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9049,42 +9049,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9105,16 +9074,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9134,161 +9112,183 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10181,8 +10181,8 @@
   <sheetPr/>
   <dimension ref="A1:Q633"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="E36" workbookViewId="0">
-      <selection activeCell="I40" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="E399" workbookViewId="0">
+      <selection activeCell="G434" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -11762,7 +11762,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" ht="87" spans="5:17">
+    <row r="55" ht="69.6" spans="5:17">
       <c r="E55" t="s">
         <v>269</v>
       </c>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -7959,7 +7959,7 @@
     <t>CREATEINSTANCESUCCESS</t>
   </si>
   <si>
-    <t>新建实例成功</t>
+    <t>新建应用成功</t>
   </si>
   <si>
     <t>hmsg_template_server-91</t>
@@ -7968,7 +7968,7 @@
     <t>CREATEINSTANCEFAIL</t>
   </si>
   <si>
-    <t>新建实例失败</t>
+    <t>新建应用失败</t>
   </si>
   <si>
     <t>hmsg_template_server-92</t>
@@ -7977,7 +7977,7 @@
     <t>UPDATEINSTANCESUCCESS</t>
   </si>
   <si>
-    <t>更新实例成功</t>
+    <t>更新应用成功</t>
   </si>
   <si>
     <t>hmsg_template_server-93</t>
@@ -7986,7 +7986,7 @@
     <t>UPDATEINSTANCEFAIL</t>
   </si>
   <si>
-    <t>更新实例失败</t>
+    <t>更新应用失败</t>
   </si>
   <si>
     <t>hmsg_template_server-94</t>
@@ -7995,7 +7995,7 @@
     <t>ENABLEINSTANCE</t>
   </si>
   <si>
-    <t>启用实例</t>
+    <t>启用应用</t>
   </si>
   <si>
     <t>hmsg_template_server-95</t>
@@ -8004,7 +8004,7 @@
     <t>STOPINSTANCE</t>
   </si>
   <si>
-    <t>停用实例</t>
+    <t>停用应用</t>
   </si>
   <si>
     <t>发送配置(其它)</t>
@@ -8443,7 +8443,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="48">
+  <fonts count="43">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -8484,12 +8484,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -8540,15 +8534,51 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8560,23 +8590,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8589,22 +8604,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -8619,7 +8628,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -8628,10 +8643,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8651,47 +8674,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF003366"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -8703,12 +8691,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DejaVu Sans"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -8733,13 +8715,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
@@ -8752,12 +8727,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -8801,49 +8770,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8855,25 +8788,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8891,19 +8824,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8921,19 +8890,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8945,19 +8914,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8975,13 +8950,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9112,11 +9081,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9136,36 +9144,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -9176,165 +9154,156 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9347,14 +9316,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9362,44 +9327,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -9412,7 +9377,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -9815,8 +9780,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5833333333333" style="14" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="15" customWidth="1"/>
+    <col min="1" max="1" width="15.5833333333333" style="12" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="13" customWidth="1"/>
     <col min="3" max="3" width="28.1666666666667" customWidth="1"/>
     <col min="4" max="4" width="35.25" style="8" customWidth="1"/>
     <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
@@ -9832,79 +9797,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="16"/>
-      <c r="C1" s="17" t="s">
+      <c r="A1" s="14"/>
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="19"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="3:7">
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23" t="s">
+      <c r="D4" s="20"/>
+      <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="16"/>
+      <c r="A5" s="14"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="31"/>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="32" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -9912,56 +9877,56 @@
       </c>
     </row>
     <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="32" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="32" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="34" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
     </row>
     <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="37" t="s">
         <v>28</v>
       </c>
     </row>
@@ -9971,30 +9936,30 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="17" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="39" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="8" t="s">
@@ -10002,7 +9967,7 @@
       </c>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="39" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -10010,25 +9975,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="20"/>
+      <c r="E25" s="18"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="20"/>
+      <c r="E26" s="18"/>
     </row>
     <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="41" t="s">
         <v>43</v>
       </c>
     </row>
@@ -10226,7 +10191,7 @@
   <sheetPr/>
   <dimension ref="A1:Q633"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="F75" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="F84" workbookViewId="0">
       <selection activeCell="G78" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -10465,7 +10430,7 @@
       <c r="H12" t="s">
         <v>122</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="10" t="s">
         <v>123</v>
       </c>
       <c r="N12" t="s">
@@ -11149,7 +11114,7 @@
       <c r="E33" t="s">
         <v>199</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="8" t="s">
         <v>200</v>
       </c>
       <c r="G33" t="s">
@@ -11158,7 +11123,7 @@
       <c r="H33" t="s">
         <v>201</v>
       </c>
-      <c r="I33" s="12" t="s">
+      <c r="I33" s="10" t="s">
         <v>202</v>
       </c>
       <c r="N33" t="s">
@@ -11315,7 +11280,7 @@
       <c r="H38" t="s">
         <v>217</v>
       </c>
-      <c r="I38" s="12" t="s">
+      <c r="I38" s="10" t="s">
         <v>218</v>
       </c>
       <c r="N38" t="s">
@@ -11884,7 +11849,7 @@
       <c r="H57" t="s">
         <v>282</v>
       </c>
-      <c r="I57" s="10" t="s">
+      <c r="I57" s="8" t="s">
         <v>283</v>
       </c>
       <c r="N57" t="s">
@@ -12192,7 +12157,7 @@
       <c r="H67" t="s">
         <v>315</v>
       </c>
-      <c r="I67" s="12" t="s">
+      <c r="I67" s="10" t="s">
         <v>316</v>
       </c>
       <c r="N67" t="s">
@@ -12482,7 +12447,7 @@
       </c>
     </row>
     <row r="77" ht="87" spans="5:17">
-      <c r="E77" s="13" t="s">
+      <c r="E77" s="11" t="s">
         <v>350</v>
       </c>
       <c r="F77" s="8" t="s">
@@ -12739,7 +12704,7 @@
       <c r="H84" t="s">
         <v>378</v>
       </c>
-      <c r="I84" s="11" t="s">
+      <c r="I84" s="10" t="s">
         <v>379</v>
       </c>
       <c r="J84" t="s">
@@ -12774,7 +12739,7 @@
       <c r="H85" t="s">
         <v>378</v>
       </c>
-      <c r="I85" s="11" t="s">
+      <c r="I85" s="10" t="s">
         <v>382</v>
       </c>
       <c r="J85" t="s">
@@ -22671,8 +22636,8 @@
   <sheetPr/>
   <dimension ref="A1:O178"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B49" workbookViewId="0">
-      <selection activeCell="B126" sqref="$A125:$XFD125 $A126:$XFD126"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E67" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -2606,8 +2606,9 @@
     <t>AUDIT_MERGE_REQUEST.WEB</t>
   </si>
   <si>
-    <t>&lt;p&gt;项目“${projectName}”下应用服务“${appServiceName}”中${realName}提交了合并请求，需要您进行审核。&lt;/p&gt;
-&lt;p&gt;&lt;a href="${gitlabUrl}/${organizationCode}-${projectCode}/${appServiceCode}/merge_requests/${mergeRequestId}"&gt;查看详情&lt;/a&gt;&lt;/p&gt;</t>
+    <t xml:space="preserve">
+&lt;p&gt;项目“${projectName}”下应用服务“${appServiceName}”中${realName}提交了合并请求，需要您进行审核。&lt;/p&gt;
+&lt;p&gt;&lt;a href="${gitlabUrl}/${organizationCode}-${projectCode}/${appServiceCode}/merge_requests/${mergeRequestId}" target=_blank&gt;查看详情&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-22</t>
@@ -4113,7 +4114,7 @@
   </si>
   <si>
     <t>&lt;p&gt;您在项目“${projectName}”下应用服务“${appServiceName}”中的持续集成过程失败。&lt;/p&gt;
-&lt;p&gt;&lt;a href="${gitlabUrl}/${organizationCode}-${projectCode}/${appServiceCode}/pipelines/${gitlabPipelineId}"&gt;查看详情&lt;/a&gt;&lt;/p&gt;</t>
+&lt;p&gt;&lt;a href="${gitlabUrl}/${organizationCode}-${projectCode}/${appServiceCode}/pipelines/${gitlabPipelineId}" target=_blank&gt;查看详情&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-69</t>
@@ -4783,7 +4784,7 @@
   </si>
   <si>
     <t>&lt;p&gt;您在项目“${projectName}”下应用服务“${appServiceName}”中提交的合并请求已被 ${realName} 关闭。&lt;/p&gt;
-&lt;p&gt;&lt;a href="${gitlabUrl}/${organizationCode}-${projectCode}/${appServiceCode}/merge_requests/${mergeRequestId}"&gt;查看详情&lt;/a&gt;&lt;/p&gt;</t>
+&lt;p&gt;&lt;a href="${gitlabUrl}/${organizationCode}-${projectCode}/${appServiceCode}/merge_requests/${mergeRequestId}" target=_blank&gt;查看详情&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-105</t>
@@ -5032,8 +5033,9 @@
     <t>MERGE_REQUEST_PASSED.WEB</t>
   </si>
   <si>
-    <t>&lt;p&gt;您在项目“${projectName}”下应用服务“${appServiceName}”中提交的合并请求已被 ${realName} 合并。&lt;/p&gt;
-&lt;p&gt;&lt;a href="${gitlabUrl}/${organizationCode}-${projectCode}/${appServiceCode}/merge_requests/${mergeRequestId}"&gt;查看详情&lt;/a&gt;&lt;/p&gt;</t>
+    <t xml:space="preserve">
+&lt;p&gt;您在项目“${projectName}”下应用服务“${appServiceName}”中提交的合并请求已被 ${realName} 合并。&lt;/p&gt;
+&lt;p&gt;&lt;a href="${gitlabUrl}/${organizationCode}-${projectCode}/${appServiceCode}/merge_requests/${mergeRequestId}" target=_blank&gt;查看详情&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-107</t>
@@ -5299,7 +5301,7 @@
   <si>
     <t>&lt;p&gt;流水线“${pipelineName}”目前暂停于【${stageName}】阶段，需要您进行审核。
 &lt;p&gt;&lt;p&gt;&lt;a href="#/devops/pipeline-manage?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;organizationId=${organizationId}&amp;
-pipelineId=${pipelineId}&amp;pipelineIdRecordId=${pipelineIdRecordId}"&gt;查看详情&lt;/a &gt;</t>
+pipelineId=${pipelineId}&amp;pipelineIdRecordId=${pipelineIdRecordId}" target=_blank&gt;查看详情&lt;/a &gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-114</t>
@@ -5576,9 +5578,9 @@
   </si>
   <si>
     <t>&lt;p&gt;流水线“${pipelineName}”执行失败。
-&lt;p&gt;&lt;p&gt;&lt;a href="#/devops/pipeline-manage?type=project&amp;id=${projectId}&amp;
+&lt;p&gt;&lt;p&gt;&lt;a  href="#/devops/pipeline-manage?type=project&amp;id=${projectId}&amp;
 name=${projectName}&amp;organizationId=${organizationId}&amp;
-pipelineId=${pipelineId}&amp;pipelineIdRecordId=${pipelineIdRecordId}"&gt;查看详情&lt;/a &gt;</t>
+pipelineId=${pipelineId}&amp;pipelineIdRecordId=${pipelineIdRecordId}" target=_blank&gt;查看详情&lt;/a &gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-118</t>
@@ -5842,10 +5844,11 @@
     <t>或签任务已通过</t>
   </si>
   <si>
-    <t>&lt;p&gt;流水线“${pipelineName}”在【${stageName}】阶段中的或签任务已被${auditName}:${realName}审核。
+    <t xml:space="preserve">
+&lt;p&gt;流水线“${pipelineName}”在【${stageName}】阶段中的或签任务已被${auditName}:${realName}审核。
 &lt;p&gt;&lt;p&gt;&lt;a href="#/devops/pipeline-manage?type=project&amp;id=${projectId}&amp;
 name=${projectName}&amp;organizationId=${organizationId}&amp;
-pipelineId=${pipelineId}&amp;pipelineIdRecordId=${pipelineIdRecordId}"&gt;查看详情&lt;/a &gt;</t>
+pipelineId=${pipelineId}&amp;pipelineIdRecordId=${pipelineIdRecordId}" target=_blank&gt;查看详情&lt;/a &gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-121</t>
@@ -6106,7 +6109,7 @@
     <t>&lt;p&gt;流水线“${pipelineName}”在【${stageName}】阶段被${auditName}:${realName}终止。
 &lt;p&gt;&lt;p&gt;&lt;a href="#/devops/pipeline-manage?type=project&amp;id=${projectId}&amp;
 name=${projectName}&amp;organizationId=${organizationId}&amp;
-pipelineId=${pipelineId}&amp;pipelineIdRecordId=${pipelineIdRecordId}"&gt;查看详情&lt;/a &gt;</t>
+pipelineId=${pipelineId}&amp;pipelineIdRecordId=${pipelineIdRecordId}" target=_blank&gt;查看详情&lt;/a &gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-124</t>
@@ -6379,7 +6382,7 @@
     <t>&lt;p&gt;流水线“${pipelineName}”执行成功。&lt;/p&gt;&lt;p&gt;
 &lt;a href="#/devops/pipeline-manage?type=project&amp;id=${projectId}&amp;
 name=${projectName}&amp;organizationId=${organizationId}&amp;
-pipelineId=${pipelineId}&amp;pipelineIdRecordId=${pipelineIdRecordId}"&gt;查看详情&lt;/a &gt;</t>
+pipelineId=${pipelineId}&amp;pipelineIdRecordId=${pipelineIdRecordId}" target=_blank&gt;查看详情&lt;/a &gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-140</t>
@@ -8438,8 +8441,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -8532,6 +8535,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -8539,14 +8549,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8576,29 +8586,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8629,12 +8617,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -8643,8 +8632,15 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8668,7 +8664,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8677,6 +8673,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8770,13 +8773,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8788,19 +8911,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8812,145 +8941,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9060,8 +9063,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9096,24 +9132,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -9124,21 +9142,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -9157,148 +9160,148 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10191,8 +10194,8 @@
   <sheetPr/>
   <dimension ref="A1:Q633"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="F84" workbookViewId="0">
-      <selection activeCell="G78" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="F47" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -10475,7 +10478,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" ht="69.6" spans="5:17">
+    <row r="14" ht="87" spans="5:17">
       <c r="E14" t="s">
         <v>128</v>
       </c>
@@ -11685,7 +11688,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" ht="52.2" spans="5:17">
+    <row r="52" ht="69.6" spans="5:17">
       <c r="E52" t="s">
         <v>261</v>
       </c>
@@ -11987,7 +11990,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="62" ht="69.6" spans="5:17">
+    <row r="62" ht="87" spans="5:17">
       <c r="E62" t="s">
         <v>297</v>
       </c>
@@ -22636,7 +22639,7 @@
   <sheetPr/>
   <dimension ref="A1:O178"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E67" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="E67" workbookViewId="0">
       <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12420" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -2227,8 +2227,8 @@
                             &lt;td style="padding-bottom: 10px;vertical-align: bottom;"&gt;
                               &lt;table style="width: 100%;"&gt;
                                 &lt;tbody&gt;&lt;tr&gt;
-                                  &lt;td style="width:160px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon-logo.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
-                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼数智化效能平台&lt;/td&gt;&lt;/tr&gt;
+                                  &lt;td style="width:238px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/zknow-logo.jpg" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼 数智化开发管理平台&lt;/td&gt;&lt;/tr&gt;
                               &lt;/tbody&gt;&lt;/table&gt;
                             &lt;/td&gt;&lt;td&gt;
                             &lt;/td&gt;
@@ -2279,33 +2279,33 @@
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;
-      "&gt; 如果您需要了解猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;猪齿鱼论坛&lt;/a&gt;。 &lt;/p&gt;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-          margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：&lt;a href="mailto:zhuchiyu@vip.hand-china.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;zhuchiyu@vip.hand-china.com&lt;/a&gt;。 &lt;/p&gt;
+          margin-top: 0;"&gt;您也可以通过以下方式与我们联系：官方邮箱 &lt;a href="mailto:marketing@zknow.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;marketing@zknow.com&lt;/a&gt;，咨询热线 400 800 2077&lt;/p&gt;
                                 &lt;/div&gt;
                               &lt;/td&gt;
-                            &lt;td style="padding-left: 29px;"&gt;
+                            &lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-xzs.png"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/xiaozhushou.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;官方小助手&lt;/td&gt;
                                   &lt;/tr&gt;
                                 &lt;/tbody&gt;&lt;/table&gt;
-                              &lt;/td&gt;&lt;td style="padding-left: 29px;"&gt;
+                              &lt;/td&gt;&lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/gongzhonghao.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;微信公众号&lt;/td&gt;
                                   &lt;/tr&gt;
@@ -2489,8 +2489,8 @@
                             &lt;td style="padding-bottom: 10px;vertical-align: bottom;"&gt;
                               &lt;table style="width: 100%;"&gt;
                                 &lt;tbody&gt;&lt;tr&gt;
-                                  &lt;td style="width:160px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon-logo.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
-                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼数智化效能平台&lt;/td&gt;&lt;/tr&gt;
+                                  &lt;td style="width:238px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/zknow-logo.jpg" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼 数智化开发管理平台&lt;/td&gt;&lt;/tr&gt;
                               &lt;/tbody&gt;&lt;/table&gt;
                             &lt;/td&gt;&lt;td&gt;
                             &lt;/td&gt;
@@ -2541,33 +2541,33 @@
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;
-      "&gt; 如果您需要了解猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;猪齿鱼论坛&lt;/a&gt;。 &lt;/p&gt;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-          margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：&lt;a href="mailto:zhuchiyu@vip.hand-china.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;zhuchiyu@vip.hand-china.com&lt;/a&gt;。 &lt;/p&gt;
+          margin-top: 0;"&gt;您也可以通过以下方式与我们联系：官方邮箱 &lt;a href="mailto:marketing@zknow.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;marketing@zknow.com&lt;/a&gt;，咨询热线 400 800 2077&lt;/p&gt;
                                 &lt;/div&gt;
                               &lt;/td&gt;
-                            &lt;td style="padding-left: 29px;"&gt;
+                            &lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-xzs.png"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/xiaozhushou.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;官方小助手&lt;/td&gt;
                                   &lt;/tr&gt;
                                 &lt;/tbody&gt;&lt;/table&gt;
-                              &lt;/td&gt;&lt;td style="padding-left: 29px;"&gt;
+                              &lt;/td&gt;&lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/gongzhonghao.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;微信公众号&lt;/td&gt;
                                   &lt;/tr&gt;
@@ -2746,8 +2746,8 @@
                             &lt;td style="padding-bottom: 10px;vertical-align: bottom;"&gt;
                               &lt;table style="width: 100%;"&gt;
                                 &lt;tbody&gt;&lt;tr&gt;
-                                  &lt;td style="width:160px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon-logo.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
-                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼数智化效能平台&lt;/td&gt;&lt;/tr&gt;
+                                  &lt;td style="width:238px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/zknow-logo.jpg" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼 数智化开发管理平台&lt;/td&gt;&lt;/tr&gt;
                               &lt;/tbody&gt;&lt;/table&gt;
                             &lt;/td&gt;&lt;td&gt;
                             &lt;/td&gt;
@@ -2798,33 +2798,33 @@
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;
-      "&gt; 如果您需要了解猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;猪齿鱼论坛&lt;/a&gt;。 &lt;/p&gt;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-          margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：&lt;a href="mailto:zhuchiyu@vip.hand-china.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;zhuchiyu@vip.hand-china.com&lt;/a&gt;。 &lt;/p&gt;
+          margin-top: 0;"&gt;您也可以通过以下方式与我们联系：官方邮箱 &lt;a href="mailto:marketing@zknow.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;marketing@zknow.com&lt;/a&gt;，咨询热线 400 800 2077&lt;/p&gt;
                                 &lt;/div&gt;
                               &lt;/td&gt;
-                            &lt;td style="padding-left: 29px;"&gt;
+                            &lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-xzs.png"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/xiaozhushou.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;官方小助手&lt;/td&gt;
                                   &lt;/tr&gt;
                                 &lt;/tbody&gt;&lt;/table&gt;
-                              &lt;/td&gt;&lt;td style="padding-left: 29px;"&gt;
+                              &lt;/td&gt;&lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/gongzhonghao.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;微信公众号&lt;/td&gt;
                                   &lt;/tr&gt;
@@ -3112,8 +3112,8 @@
                             &lt;td style="padding-bottom: 10px;vertical-align: bottom;"&gt;
                               &lt;table style="width: 100%;"&gt;
                                 &lt;tbody&gt;&lt;tr&gt;
-                                  &lt;td style="width:160px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon-logo.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
-                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼数智化效能平台&lt;/td&gt;&lt;/tr&gt;
+                                  &lt;td style="width:238px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/zknow-logo.jpg" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼 数智化开发管理平台&lt;/td&gt;&lt;/tr&gt;
                               &lt;/tbody&gt;&lt;/table&gt;
                             &lt;/td&gt;&lt;td&gt;
                             &lt;/td&gt;
@@ -3163,33 +3163,33 @@
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;
-      "&gt; 如果您需要了解猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;猪齿鱼论坛&lt;/a&gt;。 &lt;/p&gt;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-          margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：&lt;a href="mailto:zhuchiyu@vip.hand-china.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;zhuchiyu@vip.hand-china.com&lt;/a&gt;。 &lt;/p&gt;
+          margin-top: 0;"&gt;您也可以通过以下方式与我们联系：官方邮箱 &lt;a href="mailto:marketing@zknow.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;marketing@zknow.com&lt;/a&gt;，咨询热线 400 800 2077&lt;/p&gt;
                                 &lt;/div&gt;
                               &lt;/td&gt;
-                            &lt;td style="padding-left: 29px;"&gt;
+                            &lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-xzs.png"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/xiaozhushou.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;官方小助手&lt;/td&gt;
                                   &lt;/tr&gt;
                                 &lt;/tbody&gt;&lt;/table&gt;
-                              &lt;/td&gt;&lt;td style="padding-left: 29px;"&gt;
+                              &lt;/td&gt;&lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/gongzhonghao.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;微信公众号&lt;/td&gt;
                                   &lt;/tr&gt;
@@ -3436,8 +3436,8 @@
                             &lt;td style="padding-bottom: 10px;vertical-align: bottom;"&gt;
                               &lt;table style="width: 100%;"&gt;
                                 &lt;tbody&gt;&lt;tr&gt;
-                                  &lt;td style="width:160px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon-logo.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
-                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼数智化效能平台&lt;/td&gt;&lt;/tr&gt;
+                                  &lt;td style="width:238px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/zknow-logo.jpg" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼 数智化开发管理平台&lt;/td&gt;&lt;/tr&gt;
                               &lt;/tbody&gt;&lt;/table&gt;
                             &lt;/td&gt;&lt;td&gt;
                             &lt;/td&gt;
@@ -3488,33 +3488,33 @@
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;
-      "&gt; 如果您需要了解猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;猪齿鱼论坛&lt;/a&gt;。 &lt;/p&gt;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-          margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：&lt;a href="mailto:zhuchiyu@vip.hand-china.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;zhuchiyu@vip.hand-china.com&lt;/a&gt;。 &lt;/p&gt;
+          margin-top: 0;"&gt;您也可以通过以下方式与我们联系：官方邮箱 &lt;a href="mailto:marketing@zknow.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;marketing@zknow.com&lt;/a&gt;，咨询热线 400 800 2077&lt;/p&gt;
                                 &lt;/div&gt;
                               &lt;/td&gt;
-                            &lt;td style="padding-left: 29px;"&gt;
+                            &lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-xzs.png"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/xiaozhushou.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;官方小助手&lt;/td&gt;
                                   &lt;/tr&gt;
                                 &lt;/tbody&gt;&lt;/table&gt;
-                              &lt;/td&gt;&lt;td style="padding-left: 29px;"&gt;
+                              &lt;/td&gt;&lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/gongzhonghao.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;微信公众号&lt;/td&gt;
                                   &lt;/tr&gt;
@@ -3722,8 +3722,8 @@
                             &lt;td style="padding-bottom: 10px;vertical-align: bottom;"&gt;
                               &lt;table style="width: 100%;"&gt;
                                 &lt;tbody&gt;&lt;tr&gt;
-                                  &lt;td style="width:160px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon-logo.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
-                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼数智化效能平台&lt;/td&gt;&lt;/tr&gt;
+                                  &lt;td style="width:238px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/zknow-logo.jpg" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼 数智化开发管理平台&lt;/td&gt;&lt;/tr&gt;
                               &lt;/tbody&gt;&lt;/table&gt;
                             &lt;/td&gt;&lt;td&gt;
                             &lt;/td&gt;
@@ -3758,33 +3758,33 @@
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;
-      "&gt; 如果您需要了解猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;猪齿鱼论坛&lt;/a&gt;。 &lt;/p&gt;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-          margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：&lt;a href="mailto:zhuchiyu@vip.hand-china.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;zhuchiyu@vip.hand-china.com&lt;/a&gt;。 &lt;/p&gt;
+          margin-top: 0;"&gt;您也可以通过以下方式与我们联系：官方邮箱 &lt;a href="mailto:marketing@zknow.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;marketing@zknow.com&lt;/a&gt;，咨询热线 400 800 2077&lt;/p&gt;
                                 &lt;/div&gt;
                               &lt;/td&gt;
-                            &lt;td style="padding-left: 29px;"&gt;
+                            &lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-xzs.png"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/xiaozhushou.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;官方小助手&lt;/td&gt;
                                   &lt;/tr&gt;
                                 &lt;/tbody&gt;&lt;/table&gt;
-                              &lt;/td&gt;&lt;td style="padding-left: 29px;"&gt;
+                              &lt;/td&gt;&lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/gongzhonghao.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;微信公众号&lt;/td&gt;
                                   &lt;/tr&gt;
@@ -3980,8 +3980,8 @@
                             &lt;td style="padding-bottom: 10px;vertical-align: bottom;"&gt;
                               &lt;table style="width: 100%;"&gt;
                                 &lt;tbody&gt;&lt;tr&gt;
-                                  &lt;td style="width:160px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon-logo.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
-                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼数智化效能平台&lt;/td&gt;&lt;/tr&gt;
+                                  &lt;td style="width:238px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/zknow-logo.jpg" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼 数智化开发管理平台&lt;/td&gt;&lt;/tr&gt;
                               &lt;/tbody&gt;&lt;/table&gt;
                             &lt;/td&gt;&lt;td&gt;
                             &lt;/td&gt;
@@ -4016,33 +4016,33 @@
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;
-      "&gt; 如果您需要了解猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;猪齿鱼论坛&lt;/a&gt;。 &lt;/p&gt;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-          margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：&lt;a href="mailto:zhuchiyu@vip.hand-china.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;zhuchiyu@vip.hand-china.com&lt;/a&gt;。 &lt;/p&gt;
+          margin-top: 0;"&gt;您也可以通过以下方式与我们联系：官方邮箱 &lt;a href="mailto:marketing@zknow.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;marketing@zknow.com&lt;/a&gt;，咨询热线 400 800 2077&lt;/p&gt;
                                 &lt;/div&gt;
                               &lt;/td&gt;
-                            &lt;td style="padding-left: 29px;"&gt;
+                            &lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-xzs.png"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/xiaozhushou.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;官方小助手&lt;/td&gt;
                                   &lt;/tr&gt;
                                 &lt;/tbody&gt;&lt;/table&gt;
-                              &lt;/td&gt;&lt;td style="padding-left: 29px;"&gt;
+                              &lt;/td&gt;&lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/gongzhonghao.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;微信公众号&lt;/td&gt;
                                   &lt;/tr&gt;
@@ -4369,8 +4369,8 @@
                             &lt;td style="padding-bottom: 10px;vertical-align: bottom;"&gt;
                               &lt;table style="width: 100%;"&gt;
                                 &lt;tbody&gt;&lt;tr&gt;
-                                  &lt;td style="width:160px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon-logo.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
-                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼数智化效能平台&lt;/td&gt;&lt;/tr&gt;
+                                  &lt;td style="width:238px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/zknow-logo.jpg" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼 数智化开发管理平台&lt;/td&gt;&lt;/tr&gt;
                               &lt;/tbody&gt;&lt;/table&gt;
                             &lt;/td&gt;&lt;td&gt;
                             &lt;/td&gt;
@@ -4421,33 +4421,33 @@
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;
-      "&gt; 如果您需要了解猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;猪齿鱼论坛&lt;/a&gt;。 &lt;/p&gt;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-          margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：&lt;a href="mailto:zhuchiyu@vip.hand-china.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;zhuchiyu@vip.hand-china.com&lt;/a&gt;。 &lt;/p&gt;
+          margin-top: 0;"&gt;您也可以通过以下方式与我们联系：官方邮箱 &lt;a href="mailto:marketing@zknow.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;marketing@zknow.com&lt;/a&gt;，咨询热线 400 800 2077&lt;/p&gt;
                                 &lt;/div&gt;
                               &lt;/td&gt;
-                            &lt;td style="padding-left: 29px;"&gt;
+                            &lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-xzs.png"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/xiaozhushou.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;官方小助手&lt;/td&gt;
                                   &lt;/tr&gt;
                                 &lt;/tbody&gt;&lt;/table&gt;
-                              &lt;/td&gt;&lt;td style="padding-left: 29px;"&gt;
+                              &lt;/td&gt;&lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/gongzhonghao.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;微信公众号&lt;/td&gt;
                                   &lt;/tr&gt;
@@ -4636,8 +4636,8 @@
                             &lt;td style="padding-bottom: 10px;vertical-align: bottom;"&gt;
                               &lt;table style="width: 100%;"&gt;
                                 &lt;tbody&gt;&lt;tr&gt;
-                                  &lt;td style="width:160px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon-logo.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
-                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼数智化效能平台&lt;/td&gt;&lt;/tr&gt;
+                                  &lt;td style="width:238px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/zknow-logo.jpg" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼 数智化开发管理平台&lt;/td&gt;&lt;/tr&gt;
                               &lt;/tbody&gt;&lt;/table&gt;
                             &lt;/td&gt;&lt;td&gt;
                             &lt;/td&gt;
@@ -4672,33 +4672,33 @@
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;
-      "&gt; 如果您需要了解猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;猪齿鱼论坛&lt;/a&gt;。 &lt;/p&gt;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-          margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：&lt;a href="mailto:zhuchiyu@vip.hand-china.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;zhuchiyu@vip.hand-china.com&lt;/a&gt;。 &lt;/p&gt;
+          margin-top: 0;"&gt;您也可以通过以下方式与我们联系：官方邮箱 &lt;a href="mailto:marketing@zknow.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;marketing@zknow.com&lt;/a&gt;，咨询热线 400 800 2077&lt;/p&gt;
                                 &lt;/div&gt;
                               &lt;/td&gt;
-                            &lt;td style="padding-left: 29px;"&gt;
+                            &lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-xzs.png"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/xiaozhushou.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;官方小助手&lt;/td&gt;
                                   &lt;/tr&gt;
                                 &lt;/tbody&gt;&lt;/table&gt;
-                              &lt;/td&gt;&lt;td style="padding-left: 29px;"&gt;
+                              &lt;/td&gt;&lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/gongzhonghao.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;微信公众号&lt;/td&gt;
                                   &lt;/tr&gt;
@@ -4876,8 +4876,8 @@
                             &lt;td style="padding-bottom: 10px;vertical-align: bottom;"&gt;
                               &lt;table style="width: 100%;"&gt;
                                 &lt;tbody&gt;&lt;tr&gt;
-                                  &lt;td style="width:160px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon-logo.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
-                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼数智化效能平台&lt;/td&gt;&lt;/tr&gt;
+                                  &lt;td style="width:238px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/zknow-logo.jpg" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼 数智化开发管理平台&lt;/td&gt;&lt;/tr&gt;
                               &lt;/tbody&gt;&lt;/table&gt;
                             &lt;/td&gt;&lt;td&gt;
                             &lt;/td&gt;
@@ -4928,33 +4928,33 @@
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;
-      "&gt; 如果您需要了解猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;猪齿鱼论坛&lt;/a&gt;。 &lt;/p&gt;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-          margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：&lt;a href="mailto:zhuchiyu@vip.hand-china.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;zhuchiyu@vip.hand-china.com&lt;/a&gt;。 &lt;/p&gt;
+          margin-top: 0;"&gt;您也可以通过以下方式与我们联系：官方邮箱 &lt;a href="mailto:marketing@zknow.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;marketing@zknow.com&lt;/a&gt;，咨询热线 400 800 2077&lt;/p&gt;
                                 &lt;/div&gt;
                               &lt;/td&gt;
-                            &lt;td style="padding-left: 29px;"&gt;
+                            &lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-xzs.png"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/xiaozhushou.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;官方小助手&lt;/td&gt;
                                   &lt;/tr&gt;
                                 &lt;/tbody&gt;&lt;/table&gt;
-                              &lt;/td&gt;&lt;td style="padding-left: 29px;"&gt;
+                              &lt;/td&gt;&lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/gongzhonghao.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;微信公众号&lt;/td&gt;
                                   &lt;/tr&gt;
@@ -5145,8 +5145,8 @@
                             &lt;td style="padding-bottom: 10px;vertical-align: bottom;"&gt;
                               &lt;table style="width: 100%;"&gt;
                                 &lt;tbody&gt;&lt;tr&gt;
-                                  &lt;td style="width:160px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon-logo.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
-                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼数智化效能平台&lt;/td&gt;&lt;/tr&gt;
+                                  &lt;td style="width:238px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/zknow-logo.jpg" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼 数智化开发管理平台&lt;/td&gt;&lt;/tr&gt;
                               &lt;/tbody&gt;&lt;/table&gt;
                             &lt;/td&gt;&lt;td&gt;
                             &lt;/td&gt;
@@ -5196,33 +5196,33 @@
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;
-      "&gt; 如果您需要了解猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;猪齿鱼论坛&lt;/a&gt;。 &lt;/p&gt;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-          margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：&lt;a href="mailto:zhuchiyu@vip.hand-china.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;zhuchiyu@vip.hand-china.com&lt;/a&gt;。 &lt;/p&gt;
+          margin-top: 0;"&gt;您也可以通过以下方式与我们联系：官方邮箱 &lt;a href="mailto:marketing@zknow.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;marketing@zknow.com&lt;/a&gt;，咨询热线 400 800 2077&lt;/p&gt;
                                 &lt;/div&gt;
                               &lt;/td&gt;
-                            &lt;td style="padding-left: 29px;"&gt;
+                            &lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-xzs.png"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/xiaozhushou.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;官方小助手&lt;/td&gt;
                                   &lt;/tr&gt;
                                 &lt;/tbody&gt;&lt;/table&gt;
-                              &lt;/td&gt;&lt;td style="padding-left: 29px;"&gt;
+                              &lt;/td&gt;&lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/gongzhonghao.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;微信公众号&lt;/td&gt;
                                   &lt;/tr&gt;
@@ -5431,8 +5431,8 @@
                             &lt;td style="padding-bottom: 10px;vertical-align: bottom;"&gt;
                               &lt;table style="width: 100%;"&gt;
                                 &lt;tbody&gt;&lt;tr&gt;
-                                  &lt;td style="width:160px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon-logo.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
-                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼数智化效能平台&lt;/td&gt;&lt;/tr&gt;
+                                  &lt;td style="width:238px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/zknow-logo.jpg" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼 数智化开发管理平台&lt;/td&gt;&lt;/tr&gt;
                               &lt;/tbody&gt;&lt;/table&gt;
                             &lt;/td&gt;&lt;td&gt;
                             &lt;/td&gt;
@@ -5483,33 +5483,33 @@
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;
-      "&gt; 如果您需要了解猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;猪齿鱼论坛&lt;/a&gt;。 &lt;/p&gt;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-          margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：&lt;a href="mailto:zhuchiyu@vip.hand-china.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;zhuchiyu@vip.hand-china.com&lt;/a&gt;。 &lt;/p&gt;
+          margin-top: 0;"&gt;您也可以通过以下方式与我们联系：官方邮箱 &lt;a href="mailto:marketing@zknow.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;marketing@zknow.com&lt;/a&gt;，咨询热线 400 800 2077&lt;/p&gt;
                                 &lt;/div&gt;
                               &lt;/td&gt;
-                            &lt;td style="padding-left: 29px;"&gt;
+                            &lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-xzs.png"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/xiaozhushou.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;官方小助手&lt;/td&gt;
                                   &lt;/tr&gt;
                                 &lt;/tbody&gt;&lt;/table&gt;
-                              &lt;/td&gt;&lt;td style="padding-left: 29px;"&gt;
+                              &lt;/td&gt;&lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/gongzhonghao.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;微信公众号&lt;/td&gt;
                                   &lt;/tr&gt;
@@ -5701,8 +5701,8 @@
                             &lt;td style="padding-bottom: 10px;vertical-align: bottom;"&gt;
                               &lt;table style="width: 100%;"&gt;
                                 &lt;tbody&gt;&lt;tr&gt;
-                                  &lt;td style="width:160px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon-logo.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
-                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼数智化效能平台&lt;/td&gt;&lt;/tr&gt;
+                                  &lt;td style="width:238px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/zknow-logo.jpg" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼 数智化开发管理平台&lt;/td&gt;&lt;/tr&gt;
                               &lt;/tbody&gt;&lt;/table&gt;
                             &lt;/td&gt;&lt;td&gt;
                             &lt;/td&gt;
@@ -5752,33 +5752,33 @@
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;
-      "&gt; 如果您需要了解猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;猪齿鱼论坛&lt;/a&gt;。 &lt;/p&gt;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-          margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：&lt;a href="mailto:zhuchiyu@vip.hand-china.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;zhuchiyu@vip.hand-china.com&lt;/a&gt;。 &lt;/p&gt;
+          margin-top: 0;"&gt;您也可以通过以下方式与我们联系：官方邮箱 &lt;a href="mailto:marketing@zknow.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;marketing@zknow.com&lt;/a&gt;，咨询热线 400 800 2077&lt;/p&gt;
                                 &lt;/div&gt;
                               &lt;/td&gt;
-                            &lt;td style="padding-left: 29px;"&gt;
+                            &lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-xzs.png"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/xiaozhushou.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;官方小助手&lt;/td&gt;
                                   &lt;/tr&gt;
                                 &lt;/tbody&gt;&lt;/table&gt;
-                              &lt;/td&gt;&lt;td style="padding-left: 29px;"&gt;
+                              &lt;/td&gt;&lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/gongzhonghao.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;微信公众号&lt;/td&gt;
                                   &lt;/tr&gt;
@@ -5971,8 +5971,8 @@
                             &lt;td style="padding-bottom: 10px;vertical-align: bottom;"&gt;
                               &lt;table style="width: 100%;"&gt;
                                 &lt;tbody&gt;&lt;tr&gt;
-                                  &lt;td style="width:160px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon-logo.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
-                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼数智化效能平台&lt;/td&gt;&lt;/tr&gt;
+                                  &lt;td style="width:238px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/zknow-logo.jpg" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼 数智化开发管理平台&lt;/td&gt;&lt;/tr&gt;
                               &lt;/tbody&gt;&lt;/table&gt;
                             &lt;/td&gt;&lt;td&gt;
                             &lt;/td&gt;
@@ -6022,33 +6022,33 @@
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;
-      "&gt; 如果您需要了解猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;猪齿鱼论坛&lt;/a&gt;。 &lt;/p&gt;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-          margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：&lt;a href="mailto:zhuchiyu@vip.hand-china.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;zhuchiyu@vip.hand-china.com&lt;/a&gt;。 &lt;/p&gt;
+          margin-top: 0;"&gt;您也可以通过以下方式与我们联系：官方邮箱 &lt;a href="mailto:marketing@zknow.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;marketing@zknow.com&lt;/a&gt;，咨询热线 400 800 2077&lt;/p&gt;
                                 &lt;/div&gt;
                               &lt;/td&gt;
-                            &lt;td style="padding-left: 29px;"&gt;
+                            &lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-xzs.png"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/xiaozhushou.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;官方小助手&lt;/td&gt;
                                   &lt;/tr&gt;
                                 &lt;/tbody&gt;&lt;/table&gt;
-                              &lt;/td&gt;&lt;td style="padding-left: 29px;"&gt;
+                              &lt;/td&gt;&lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/gongzhonghao.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;微信公众号&lt;/td&gt;
                                   &lt;/tr&gt;
@@ -6249,8 +6249,8 @@
                             &lt;td style="padding-bottom: 10px;vertical-align: bottom;"&gt;
                               &lt;table style="width: 100%;"&gt;
                                 &lt;tbody&gt;&lt;tr&gt;
-                                  &lt;td style="width:160px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon-logo.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
-                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼数智化效能平台&lt;/td&gt;&lt;/tr&gt;
+                                  &lt;td style="width:238px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/zknow-logo.jpg" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼 数智化开发管理平台&lt;/td&gt;&lt;/tr&gt;
                               &lt;/tbody&gt;&lt;/table&gt;
                             &lt;/td&gt;&lt;td&gt;
                             &lt;/td&gt;
@@ -6300,33 +6300,33 @@
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;
-      "&gt; 如果您需要了解猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;猪齿鱼论坛&lt;/a&gt;。 &lt;/p&gt;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-          margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：&lt;a href="mailto:zhuchiyu@vip.hand-china.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;zhuchiyu@vip.hand-china.com&lt;/a&gt;。 &lt;/p&gt;
+          margin-top: 0;"&gt;您也可以通过以下方式与我们联系：官方邮箱 &lt;a href="mailto:marketing@zknow.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;marketing@zknow.com&lt;/a&gt;，咨询热线 400 800 2077&lt;/p&gt;
                                 &lt;/div&gt;
                               &lt;/td&gt;
-                            &lt;td style="padding-left: 29px;"&gt;
+                            &lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-xzs.png"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/xiaozhushou.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;官方小助手&lt;/td&gt;
                                   &lt;/tr&gt;
                                 &lt;/tbody&gt;&lt;/table&gt;
-                              &lt;/td&gt;&lt;td style="padding-left: 29px;"&gt;
+                              &lt;/td&gt;&lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/gongzhonghao.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;微信公众号&lt;/td&gt;
                                   &lt;/tr&gt;
@@ -6509,8 +6509,8 @@
                             &lt;td style="padding-bottom: 10px;vertical-align: bottom;"&gt;
                               &lt;table style="width: 100%;"&gt;
                                 &lt;tbody&gt;&lt;tr&gt;
-                                  &lt;td style="width:160px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon-logo.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
-                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼数智化效能平台&lt;/td&gt;&lt;/tr&gt;
+                                  &lt;td style="width:238px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/zknow-logo.jpg" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼 数智化开发管理平台&lt;/td&gt;&lt;/tr&gt;
                               &lt;/tbody&gt;&lt;/table&gt;
                             &lt;/td&gt;&lt;td&gt;
                             &lt;/td&gt;
@@ -6545,33 +6545,33 @@
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;
-      "&gt; 如果您需要了解猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;猪齿鱼论坛&lt;/a&gt;。 &lt;/p&gt;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-          margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：&lt;a href="mailto:zhuchiyu@vip.hand-china.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;zhuchiyu@vip.hand-china.com&lt;/a&gt;。 &lt;/p&gt;
+          margin-top: 0;"&gt;您也可以通过以下方式与我们联系：官方邮箱 &lt;a href="mailto:marketing@zknow.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;marketing@zknow.com&lt;/a&gt;，咨询热线 400 800 2077&lt;/p&gt;
                                 &lt;/div&gt;
                               &lt;/td&gt;
-                            &lt;td style="padding-left: 29px;"&gt;
+                            &lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-xzs.png"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/xiaozhushou.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;官方小助手&lt;/td&gt;
                                   &lt;/tr&gt;
                                 &lt;/tbody&gt;&lt;/table&gt;
-                              &lt;/td&gt;&lt;td style="padding-left: 29px;"&gt;
+                              &lt;/td&gt;&lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/gongzhonghao.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;微信公众号&lt;/td&gt;
                                   &lt;/tr&gt;
@@ -6775,8 +6775,8 @@
                             &lt;td style="padding-bottom: 10px;vertical-align: bottom;"&gt;
                               &lt;table style="width: 100%;"&gt;
                                 &lt;tbody&gt;&lt;tr&gt;
-                                  &lt;td style="width:160px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon-logo.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
-                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼数智化效能平台&lt;/td&gt;&lt;/tr&gt;
+                                  &lt;td style="width:238px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/zknow-logo.jpg" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼 数智化开发管理平台&lt;/td&gt;&lt;/tr&gt;
                               &lt;/tbody&gt;&lt;/table&gt;
                             &lt;/td&gt;&lt;td&gt;
                             &lt;/td&gt;
@@ -6826,33 +6826,33 @@
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;
-      "&gt; 如果您需要了解猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;猪齿鱼论坛&lt;/a&gt;。 &lt;/p&gt;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-          margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：&lt;a href="mailto:zhuchiyu@vip.hand-china.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;zhuchiyu@vip.hand-china.com&lt;/a&gt;。 &lt;/p&gt;
+          margin-top: 0;"&gt;您也可以通过以下方式与我们联系：官方邮箱 &lt;a href="mailto:marketing@zknow.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;marketing@zknow.com&lt;/a&gt;，咨询热线 400 800 2077&lt;/p&gt;
                                 &lt;/div&gt;
                               &lt;/td&gt;
-                            &lt;td style="padding-left: 29px;"&gt;
+                            &lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-xzs.png"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/xiaozhushou.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;官方小助手&lt;/td&gt;
                                   &lt;/tr&gt;
                                 &lt;/tbody&gt;&lt;/table&gt;
-                              &lt;/td&gt;&lt;td style="padding-left: 29px;"&gt;
+                              &lt;/td&gt;&lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/gongzhonghao.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;微信公众号&lt;/td&gt;
                                   &lt;/tr&gt;
@@ -7162,8 +7162,8 @@
                             &lt;td style="padding-bottom: 10px;vertical-align: bottom;"&gt;
                               &lt;table style="width: 100%;"&gt;
                                 &lt;tbody&gt;&lt;tr&gt;
-                                  &lt;td style="width:160px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon-logo.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
-                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼数智化效能平台&lt;/td&gt;&lt;/tr&gt;
+                                  &lt;td style="width:238px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/zknow-logo.jpg" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼 数智化开发管理平台&lt;/td&gt;&lt;/tr&gt;
                               &lt;/tbody&gt;&lt;/table&gt;
                             &lt;/td&gt;&lt;td&gt;
                             &lt;/td&gt;
@@ -7213,33 +7213,33 @@
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;
-      "&gt; 如果您需要了解猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;猪齿鱼论坛&lt;/a&gt;。 &lt;/p&gt;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-          margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：&lt;a href="mailto:zhuchiyu@vip.hand-china.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;zhuchiyu@vip.hand-china.com&lt;/a&gt;。 &lt;/p&gt;
+          margin-top: 0;"&gt;您也可以通过以下方式与我们联系：官方邮箱 &lt;a href="mailto:marketing@zknow.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;marketing@zknow.com&lt;/a&gt;，咨询热线 400 800 2077&lt;/p&gt;
                                 &lt;/div&gt;
                               &lt;/td&gt;
-                            &lt;td style="padding-left: 29px;"&gt;
+                            &lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-xzs.png"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/xiaozhushou.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;官方小助手&lt;/td&gt;
                                   &lt;/tr&gt;
                                 &lt;/tbody&gt;&lt;/table&gt;
-                              &lt;/td&gt;&lt;td style="padding-left: 29px;"&gt;
+                              &lt;/td&gt;&lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/gongzhonghao.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;微信公众号&lt;/td&gt;
                                   &lt;/tr&gt;
@@ -8430,11 +8430,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="43">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -8475,12 +8475,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -8529,7 +8523,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8542,23 +8557,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -8581,8 +8589,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8590,61 +8599,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8663,19 +8620,56 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8767,109 +8761,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8887,7 +8779,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8899,25 +8809,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8935,19 +8875,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9054,13 +9048,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9074,17 +9087,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9127,180 +9145,156 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9313,13 +9307,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9327,44 +9318,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -9377,7 +9368,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -9778,155 +9769,155 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5694444444444" style="13" customWidth="1"/>
-    <col min="2" max="2" width="10.2847222222222" style="14" customWidth="1"/>
-    <col min="3" max="3" width="28.1388888888889" customWidth="1"/>
-    <col min="4" max="4" width="35.2847222222222" style="8" customWidth="1"/>
-    <col min="5" max="5" width="38.5694444444444" customWidth="1"/>
-    <col min="6" max="6" width="23.4236111111111" customWidth="1"/>
-    <col min="7" max="7" width="21.5694444444444" customWidth="1"/>
+    <col min="1" max="1" width="15.5703703703704" style="12" customWidth="1"/>
+    <col min="2" max="2" width="10.2814814814815" style="13" customWidth="1"/>
+    <col min="3" max="3" width="28.1407407407407" customWidth="1"/>
+    <col min="4" max="4" width="35.2814814814815" style="8" customWidth="1"/>
+    <col min="5" max="5" width="38.5703703703704" customWidth="1"/>
+    <col min="6" max="6" width="23.4222222222222" customWidth="1"/>
+    <col min="7" max="7" width="21.5703703703704" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5694444444444" customWidth="1"/>
+    <col min="9" max="9" width="24.5703703703704" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1388888888889" customWidth="1"/>
-    <col min="12" max="12" width="18.5694444444444" customWidth="1"/>
-    <col min="13" max="13" width="13.1388888888889" customWidth="1"/>
-    <col min="14" max="1025" width="10.2847222222222" customWidth="1"/>
+    <col min="11" max="11" width="19.1407407407407" customWidth="1"/>
+    <col min="12" max="12" width="18.5703703703704" customWidth="1"/>
+    <col min="13" max="13" width="13.1407407407407" customWidth="1"/>
+    <col min="14" max="1025" width="10.2814814814815" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="15"/>
-      <c r="C1" s="16" t="s">
+      <c r="A1" s="14"/>
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-    </row>
-    <row r="2" spans="5:5">
-      <c r="E2" s="18"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" ht="18" spans="5:5">
+      <c r="E2" s="17"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-    </row>
-    <row r="4" spans="3:7">
-      <c r="C4" s="21" t="s">
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" ht="18" spans="3:7">
+      <c r="C4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22" t="s">
+      <c r="D4" s="20"/>
+      <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="15"/>
+      <c r="A5" s="14"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="25" t="s">
+    <row r="7" ht="18" spans="3:5">
+      <c r="C7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="30"/>
-    </row>
-    <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="31" t="s">
+      <c r="E8" s="29"/>
+    </row>
+    <row r="9" ht="51.75" spans="3:6">
+      <c r="C9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="32" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="34" t="s">
+    <row r="10" ht="51.75" spans="3:5">
+      <c r="C10" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="32" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="28" t="s">
+    <row r="11" ht="69" spans="3:5">
+      <c r="C11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="32" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="34" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="28"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
-    </row>
-    <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="36" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
+    </row>
+    <row r="15" ht="34.5" spans="3:5">
+      <c r="C15" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="37" t="s">
         <v>28</v>
       </c>
     </row>
@@ -9936,38 +9927,38 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="40" t="s">
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+    </row>
+    <row r="20" ht="18" spans="3:4">
+      <c r="C20" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="40" t="s">
+    <row r="21" ht="18" spans="3:4">
+      <c r="C21" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="40" t="s">
+    <row r="22" ht="18" spans="3:4">
+      <c r="C22" s="39" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="40" t="s">
+    <row r="23" ht="18" spans="3:4">
+      <c r="C23" s="39" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -9975,25 +9966,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="19"/>
+      <c r="E25" s="18"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="19"/>
-    </row>
-    <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="42" t="s">
+      <c r="E26" s="18"/>
+    </row>
+    <row r="27" ht="51.75" spans="3:3">
+      <c r="C27" s="41" t="s">
         <v>43</v>
       </c>
     </row>
@@ -10022,11 +10013,11 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="23.2847222222222" customWidth="1"/>
-    <col min="6" max="6" width="21.2847222222222" customWidth="1"/>
-    <col min="8" max="8" width="14.7083333333333" customWidth="1"/>
+    <col min="5" max="5" width="23.2814814814815" customWidth="1"/>
+    <col min="6" max="6" width="21.2814814814815" customWidth="1"/>
+    <col min="8" max="8" width="14.7111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10191,24 +10182,24 @@
   <sheetPr/>
   <dimension ref="A1:Q633"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="I85" sqref="I85"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="4" max="4" width="22.5694444444444" customWidth="1"/>
-    <col min="5" max="5" width="26.2847222222222" customWidth="1"/>
-    <col min="6" max="6" width="44.8541666666667" customWidth="1"/>
-    <col min="7" max="7" width="29.4236111111111" customWidth="1"/>
-    <col min="8" max="8" width="24.2847222222222" customWidth="1"/>
-    <col min="9" max="9" width="92.8541666666667" customWidth="1"/>
-    <col min="10" max="10" width="29.2847222222222" customWidth="1"/>
-    <col min="11" max="11" width="32.1388888888889" customWidth="1"/>
-    <col min="13" max="13" width="33.1388888888889" customWidth="1"/>
-    <col min="14" max="14" width="23.4236111111111" customWidth="1"/>
-    <col min="15" max="15" width="29.4236111111111" customWidth="1"/>
-    <col min="16" max="16" width="29.8541666666667" customWidth="1"/>
+    <col min="4" max="4" width="22.5703703703704" customWidth="1"/>
+    <col min="5" max="5" width="26.2814814814815" customWidth="1"/>
+    <col min="6" max="6" width="44.8518518518519" customWidth="1"/>
+    <col min="7" max="7" width="29.4222222222222" customWidth="1"/>
+    <col min="8" max="8" width="24.2814814814815" customWidth="1"/>
+    <col min="9" max="9" width="92.8518518518518" customWidth="1"/>
+    <col min="10" max="10" width="29.2814814814815" customWidth="1"/>
+    <col min="11" max="11" width="32.1407407407407" customWidth="1"/>
+    <col min="13" max="13" width="33.1407407407407" customWidth="1"/>
+    <col min="14" max="14" width="23.4222222222222" customWidth="1"/>
+    <col min="15" max="15" width="29.4222222222222" customWidth="1"/>
+    <col min="16" max="16" width="29.8518518518519" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10417,7 +10408,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" ht="69.6" spans="5:17">
+    <row r="12" ht="69" spans="5:17">
       <c r="E12" t="s">
         <v>120</v>
       </c>
@@ -10430,7 +10421,7 @@
       <c r="H12" t="s">
         <v>122</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="10" t="s">
         <v>123</v>
       </c>
       <c r="N12" t="s">
@@ -10475,7 +10466,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" ht="87" spans="5:17">
+    <row r="14" ht="86.25" spans="5:17">
       <c r="E14" t="s">
         <v>128</v>
       </c>
@@ -10906,7 +10897,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" ht="69.6" spans="5:17">
+    <row r="27" ht="69" spans="5:17">
       <c r="E27" t="s">
         <v>177</v>
       </c>
@@ -11123,7 +11114,7 @@
       <c r="H33" t="s">
         <v>201</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="I33" s="10" t="s">
         <v>202</v>
       </c>
       <c r="N33" t="s">
@@ -11168,7 +11159,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" ht="69.6" spans="5:17">
+    <row r="35" ht="69" spans="5:17">
       <c r="E35" t="s">
         <v>206</v>
       </c>
@@ -11280,7 +11271,7 @@
       <c r="H38" t="s">
         <v>217</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="I38" s="10" t="s">
         <v>218</v>
       </c>
       <c r="N38" t="s">
@@ -11325,7 +11316,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" ht="69.6" spans="5:17">
+    <row r="40" ht="69" spans="5:17">
       <c r="E40" t="s">
         <v>222</v>
       </c>
@@ -11453,7 +11444,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" ht="52.2" spans="5:17">
+    <row r="44" ht="51.75" spans="5:17">
       <c r="E44" t="s">
         <v>234</v>
       </c>
@@ -11627,7 +11618,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="50" ht="52.2" spans="5:17">
+    <row r="50" ht="69" spans="5:17">
       <c r="E50" t="s">
         <v>255</v>
       </c>
@@ -11685,7 +11676,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" ht="69.6" spans="5:17">
+    <row r="52" ht="86.25" spans="5:17">
       <c r="E52" t="s">
         <v>261</v>
       </c>
@@ -11772,7 +11763,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" ht="69.6" spans="5:17">
+    <row r="55" ht="69" spans="5:17">
       <c r="E55" t="s">
         <v>271</v>
       </c>
@@ -11894,7 +11885,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="59" ht="69.6" spans="5:17">
+    <row r="59" ht="69" spans="5:17">
       <c r="E59" t="s">
         <v>287</v>
       </c>
@@ -11987,7 +11978,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="62" ht="87" spans="5:17">
+    <row r="62" ht="86.25" spans="5:17">
       <c r="E62" t="s">
         <v>297</v>
       </c>
@@ -12080,7 +12071,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="65" ht="69.6" spans="5:17">
+    <row r="65" ht="69" spans="5:17">
       <c r="E65" t="s">
         <v>307</v>
       </c>
@@ -12157,7 +12148,7 @@
       <c r="H67" t="s">
         <v>315</v>
       </c>
-      <c r="I67" s="11" t="s">
+      <c r="I67" s="10" t="s">
         <v>316</v>
       </c>
       <c r="N67" t="s">
@@ -12202,7 +12193,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="69" ht="69.6" spans="5:17">
+    <row r="69" ht="69" spans="5:17">
       <c r="E69" t="s">
         <v>320</v>
       </c>
@@ -12446,8 +12437,8 @@
         <v>106</v>
       </c>
     </row>
-    <row r="77" ht="87" spans="5:17">
-      <c r="E77" s="12" t="s">
+    <row r="77" ht="86.25" spans="5:17">
+      <c r="E77" s="11" t="s">
         <v>350</v>
       </c>
       <c r="F77" s="8" t="s">
@@ -12481,7 +12472,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="78" ht="243.6" spans="5:17">
+    <row r="78" ht="241.5" spans="5:17">
       <c r="E78" t="s">
         <v>355</v>
       </c>
@@ -12516,7 +12507,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="79" ht="243.6" spans="5:17">
+    <row r="79" ht="241.5" spans="5:17">
       <c r="E79" t="s">
         <v>360</v>
       </c>
@@ -12551,7 +12542,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="80" ht="243.6" spans="5:17">
+    <row r="80" ht="241.5" spans="5:17">
       <c r="E80" t="s">
         <v>363</v>
       </c>
@@ -12586,7 +12577,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="81" ht="243.6" spans="5:17">
+    <row r="81" ht="241.5" spans="5:17">
       <c r="E81" t="s">
         <v>366</v>
       </c>
@@ -12621,7 +12612,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="82" ht="208.8" spans="5:17">
+    <row r="82" ht="207" spans="5:17">
       <c r="E82" t="s">
         <v>369</v>
       </c>
@@ -12656,7 +12647,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="83" ht="208.8" spans="5:17">
+    <row r="83" ht="207" spans="5:17">
       <c r="E83" t="s">
         <v>373</v>
       </c>
@@ -12704,7 +12695,7 @@
       <c r="H84" t="s">
         <v>378</v>
       </c>
-      <c r="I84" s="11" t="s">
+      <c r="I84" s="10" t="s">
         <v>379</v>
       </c>
       <c r="J84" t="s">
@@ -22636,26 +22627,26 @@
   <sheetPr/>
   <dimension ref="A1:O178"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="K97" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="K97" workbookViewId="0">
       <selection activeCell="I132" sqref="$A132:$XFD132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="22.4236111111111" customWidth="1"/>
-    <col min="2" max="2" width="15.4236111111111" customWidth="1"/>
-    <col min="3" max="3" width="22.7083333333333" customWidth="1"/>
-    <col min="4" max="4" width="29.4236111111111" customWidth="1"/>
-    <col min="5" max="5" width="43.7083333333333" customWidth="1"/>
-    <col min="6" max="7" width="34.4236111111111" customWidth="1"/>
-    <col min="8" max="8" width="37.8541666666667" customWidth="1"/>
-    <col min="9" max="9" width="26.8541666666667" customWidth="1"/>
-    <col min="10" max="10" width="14.1388888888889" customWidth="1"/>
-    <col min="11" max="11" width="26.8541666666667" customWidth="1"/>
-    <col min="12" max="12" width="29.8541666666667" customWidth="1"/>
-    <col min="13" max="13" width="24.8541666666667" customWidth="1"/>
-    <col min="14" max="14" width="17.5694444444444" customWidth="1"/>
-    <col min="15" max="15" width="15.7083333333333" customWidth="1"/>
+    <col min="1" max="1" width="22.4222222222222" customWidth="1"/>
+    <col min="2" max="2" width="15.4222222222222" customWidth="1"/>
+    <col min="3" max="3" width="22.7111111111111" customWidth="1"/>
+    <col min="4" max="4" width="29.4222222222222" customWidth="1"/>
+    <col min="5" max="5" width="43.7111111111111" customWidth="1"/>
+    <col min="6" max="7" width="34.4222222222222" customWidth="1"/>
+    <col min="8" max="8" width="37.8518518518519" customWidth="1"/>
+    <col min="9" max="9" width="26.8518518518519" customWidth="1"/>
+    <col min="10" max="10" width="14.1407407407407" customWidth="1"/>
+    <col min="11" max="11" width="26.8518518518519" customWidth="1"/>
+    <col min="12" max="12" width="29.8518518518519" customWidth="1"/>
+    <col min="13" max="13" width="24.8518518518519" customWidth="1"/>
+    <col min="14" max="14" width="17.5703703703704" customWidth="1"/>
+    <col min="15" max="15" width="15.7111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -24061,7 +24052,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="46" ht="34.8" spans="5:15">
+    <row r="46" ht="34.5" spans="5:15">
       <c r="E46" t="s">
         <v>589</v>
       </c>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -7319,7 +7319,7 @@
   </si>
   <si>
     <t>&lt;p&gt;您在项目“${projectName}”下创建的应用服务“${appServiceName}”失败。&lt;/p&gt;
-&lt;p&gt;[查看详情](${CHOERODON_FRONT_URL/#/devops/app-service?type=project&amp;id=${projectId}&amp;name=${appServiceName}&amp;organizationId=${organizationId})&lt;/p&gt;</t>
+&lt;p&gt;[查看详情](${CHOERODON_FRONT_URL}/#/devops/app-service?type=project&amp;id=${projectId}&amp;name=${appServiceName}&amp;organizationId=${organizationId})&lt;/p&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-169</t>
@@ -7329,7 +7329,7 @@
   </si>
   <si>
     <t>&lt;p&gt;项目“${projectName}”下的应用服务“${appServiceName}”已被停用。&lt;/p&gt;
-&lt;p&gt;[查看详情](${CHOERODON_FRONT_URL/#/devops/app-service?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;organizationId=${organizationId})&lt;/p&gt;</t>
+&lt;p&gt;[查看详情](${CHOERODON_FRONT_URL}/#/devops/app-service?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;organizationId=${organizationId})&lt;/p&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-170</t>
@@ -7427,7 +7427,7 @@
     <t>PIPELINESUCCESS.DT</t>
   </si>
   <si>
-    <t>&lt;p&gt;流水线“${pipelineName}”执行成功。&lt;/p&gt;[查看详情](${CHOERODON_FRONT_URL/#/devops/pipeline-manage?type=project&amp;id=${projectId}&amp;
+    <t>&lt;p&gt;流水线“${pipelineName}”执行成功。&lt;/p&gt;[查看详情](${CHOERODON_FRONT_URL}/#/devops/pipeline-manage?type=project&amp;id=${projectId}&amp;
 name=${projectName}&amp;organizationId=${organizationId}&amp;
 pipelineId=${pipelineId}&amp;pipelineIdRecordId=${pipelineIdRecordId})</t>
   </si>
@@ -7439,7 +7439,7 @@
   </si>
   <si>
     <t>&lt;p&gt;流水线“${pipelineName}”执行失败。
-&lt;/p&gt;[查看详情](${CHOERODON_FRONT_URL/#/devops/pipeline-manage?type=project&amp;id=${projectId}&amp;
+&lt;/p&gt;[查看详情](${CHOERODON_FRONT_URL}/#/devops/pipeline-manage?type=project&amp;id=${projectId}&amp;
 name=${projectName}&amp;organizationId=${organizationId}&amp;
 pipelineId=${pipelineId}&amp;pipelineIdRecordId=${pipelineIdRecordId})</t>
   </si>
@@ -8661,9 +8661,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -8761,13 +8761,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -8775,15 +8768,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8791,9 +8798,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8806,9 +8813,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8845,17 +8852,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8866,8 +8872,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8883,24 +8898,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8992,19 +8992,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9016,25 +9010,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9052,19 +9040,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9076,7 +9052,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9088,19 +9076,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9118,43 +9160,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9166,13 +9172,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9288,26 +9288,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9327,17 +9342,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9351,28 +9362,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9380,145 +9380,145 @@
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -10413,8 +10413,8 @@
   <sheetPr/>
   <dimension ref="A1:Q658"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="H96" sqref="H96"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="I102" sqref="I102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -7339,7 +7339,7 @@
   </si>
   <si>
     <t>&lt;p&gt;项目“${projectName}”下的应用服务“${appServiceName}”已被删除。&lt;/p&gt;
-&lt;p&gt;[查看详情](${CHOERODON_FRON_URL}/#/devops/app-service?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;organizationId=${organizationId})</t>
+&lt;p&gt;[查看详情](${CHOERODON_FRONT_URL}/#/devops/app-service?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;organizationId=${organizationId})</t>
   </si>
   <si>
     <t>hmsg_message_template-171</t>
@@ -10413,8 +10413,8 @@
   <sheetPr/>
   <dimension ref="A1:Q658"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="I102" sqref="I102"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="I92" sqref="I92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -7427,9 +7427,7 @@
     <t>PIPELINESUCCESS.DT</t>
   </si>
   <si>
-    <t>&lt;p&gt;流水线“${pipelineName}”执行成功。&lt;/p&gt;[查看详情](${CHOERODON_FRONT_URL}/#/devops/pipeline-manage?type=project&amp;id=${projectId}&amp;
-name=${projectName}&amp;organizationId=${organizationId}&amp;
-pipelineId=${pipelineId}&amp;pipelineIdRecordId=${pipelineIdRecordId})</t>
+    <t>&lt;p&gt;流水线“${pipelineName}”执行成功。&lt;/p&gt;[查看详情](${CHOERODON_FRONT_URL}/#/devops/pipeline-manage?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;organizationId=${organizationId}&amp;pipelineId=${pipelineId}&amp;pipelineIdRecordId=${pipelineIdRecordId})</t>
   </si>
   <si>
     <t>hmsg_message_template-180</t>
@@ -7439,9 +7437,7 @@
   </si>
   <si>
     <t>&lt;p&gt;流水线“${pipelineName}”执行失败。
-&lt;/p&gt;[查看详情](${CHOERODON_FRONT_URL}/#/devops/pipeline-manage?type=project&amp;id=${projectId}&amp;
-name=${projectName}&amp;organizationId=${organizationId}&amp;
-pipelineId=${pipelineId}&amp;pipelineIdRecordId=${pipelineIdRecordId})</t>
+&lt;/p&gt;[查看详情](${CHOERODON_FRONT_URL}/#/devops/pipeline-manage?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;organizationId=${organizationId}&amp;pipelineId=${pipelineId}&amp;pipelineIdRecordId=${pipelineIdRecordId})</t>
   </si>
   <si>
     <t>hmsg_message_template-181</t>
@@ -8660,9 +8656,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="43">
@@ -8789,18 +8785,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8812,10 +8816,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8828,10 +8833,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8843,16 +8848,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8872,6 +8878,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -8880,25 +8893,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9004,6 +9000,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -9016,7 +9024,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9034,37 +9042,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9082,6 +9072,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -9094,13 +9090,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9112,25 +9132,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9142,19 +9150,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9166,13 +9162,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9297,6 +9293,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -9313,16 +9318,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9353,26 +9358,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9380,127 +9376,127 @@
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9509,10 +9505,10 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10414,7 +10410,7 @@
   <dimension ref="A1:Q658"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="I92" sqref="I92"/>
+      <selection activeCell="I102" sqref="I102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -13424,7 +13420,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="101" ht="61" spans="5:17">
+    <row r="101" ht="46" spans="5:17">
       <c r="E101" t="s">
         <v>423</v>
       </c>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="19420" tabRatio="597" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12420" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4235" uniqueCount="823">
   <si>
     <r>
       <rPr>
@@ -2245,7 +2245,7 @@
                               &lt;td align="center" vertical-align="middle" style="font-size:0px;padding:10px 25px;padding-top:60px;word-break:break-word;"&gt;
                                 &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="border-collapse:separate;width:212px;line-height:100%;"&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#3f51b5;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
+                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#5365EA;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
                                       查看详情
                                     &lt;/a&gt; &lt;/td&gt;
                                   &lt;/tr&gt;
@@ -2507,7 +2507,7 @@
                               &lt;td align="center" vertical-align="middle" style="font-size:0px;padding:10px 25px;padding-top:60px;word-break:break-word;"&gt;
                                 &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="border-collapse:separate;width:212px;line-height:100%;"&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#3f51b5;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
+                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#5365EA;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
                                       查看详情
                                     &lt;/a&gt; &lt;/td&gt;
                                   &lt;/tr&gt;
@@ -2764,7 +2764,7 @@
                               &lt;td align="center" vertical-align="middle" style="font-size:0px;padding:10px 25px;padding-top:60px;word-break:break-word;"&gt;
                                 &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="border-collapse:separate;width:212px;line-height:100%;"&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#3f51b5;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
+                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#5365EA;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
                                       查看详情
                                     &lt;/a&gt; &lt;/td&gt;
                                   &lt;/tr&gt;
@@ -3130,7 +3130,7 @@
                               &lt;td align="center" vertical-align="middle" style="font-size:0px;padding:10px 25px;padding-top:60px;word-break:break-word;"&gt;
                                 &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="border-collapse:separate;width:212px;line-height:100%;"&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#3f51b5;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
+                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#5365EA;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
                                       查看详情
                                     &lt;/a&gt; &lt;/td&gt;
                                   &lt;/tr&gt;
@@ -3454,7 +3454,7 @@
                               &lt;td align="center" vertical-align="middle" style="font-size:0px;padding:10px 25px;padding-top:60px;word-break:break-word;"&gt;
                                 &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="border-collapse:separate;width:212px;line-height:100%;"&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#3f51b5;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
+                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#5365EA;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
                                       查看详情
                                     &lt;/a&gt; &lt;/td&gt;
                                   &lt;/tr&gt;
@@ -4387,7 +4387,7 @@
                               &lt;td align="center" vertical-align="middle" style="font-size:0px;padding:10px 25px;padding-top:60px;word-break:break-word;"&gt;
                                 &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="border-collapse:separate;width:212px;line-height:100%;"&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#3f51b5;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
+                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#5365EA;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
                                       查看详情
                                     &lt;/a&gt; &lt;/td&gt;
                                   &lt;/tr&gt;
@@ -4894,7 +4894,7 @@
                               &lt;td align="center" vertical-align="middle" style="font-size:0px;padding:10px 25px;padding-top:60px;word-break:break-word;"&gt;
                                 &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="border-collapse:separate;width:212px;line-height:100%;"&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#3f51b5;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
+                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#5365EA;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
                                       查看详情
                                     &lt;/a&gt; &lt;/td&gt;
                                   &lt;/tr&gt;
@@ -5163,7 +5163,7 @@
                               &lt;td align="center" vertical-align="middle" style="font-size:0px;padding:10px 25px;padding-top:60px;word-break:break-word;"&gt;
                                 &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="border-collapse:separate;width:212px;line-height:100%;"&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#3f51b5;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
+                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#5365EA;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
                                       前往审核
                                     &lt;/a&gt; &lt;/td&gt;
                                   &lt;/tr&gt;
@@ -5449,7 +5449,7 @@
                               &lt;td align="center" vertical-align="middle" style="font-size:0px;padding:10px 25px;padding-top:60px;word-break:break-word;"&gt;
                                 &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="border-collapse:separate;width:212px;line-height:100%;"&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#3f51b5;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
+                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#5365EA;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
                                       查看详情
                                     &lt;/a&gt; &lt;/td&gt;
                                   &lt;/tr&gt;
@@ -5719,7 +5719,7 @@
                               &lt;td align="center" vertical-align="middle" style="font-size:0px;padding:10px 25px;padding-top:60px;word-break:break-word;"&gt;
                                 &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="border-collapse:separate;width:212px;line-height:100%;"&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#3f51b5;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
+                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#5365EA;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
                                       查看详情
                                     &lt;/a&gt; &lt;/td&gt;
                                   &lt;/tr&gt;
@@ -5989,7 +5989,7 @@
                               &lt;td align="center" vertical-align="middle" style="font-size:0px;padding:10px 25px;padding-top:60px;word-break:break-word;"&gt;
                                 &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="border-collapse:separate;width:212px;line-height:100%;"&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#3f51b5;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
+                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#5365EA;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
                                       查看详情
                                     &lt;/a&gt; &lt;/td&gt;
                                   &lt;/tr&gt;
@@ -6267,7 +6267,7 @@
                               &lt;td align="center" vertical-align="middle" style="font-size:0px;padding:10px 25px;padding-top:60px;word-break:break-word;"&gt;
                                 &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="border-collapse:separate;width:212px;line-height:100%;"&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#3f51b5;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
+                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#5365EA;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
                                       查看详情
                                     &lt;/a&gt; &lt;/td&gt;
                                   &lt;/tr&gt;
@@ -6793,7 +6793,7 @@
                               &lt;td align="center" vertical-align="middle" style="font-size:0px;padding:10px 25px;padding-top:60px;word-break:break-word;"&gt;
                                 &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="border-collapse:separate;width:212px;line-height:100%;"&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#3f51b5;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
+                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#5365EA;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
                                       查看详情
                                     &lt;/a&gt; &lt;/td&gt;
                                   &lt;/tr&gt;
@@ -7181,7 +7181,7 @@
                               &lt;td align="center" vertical-align="middle" style="font-size:0px;padding:10px 25px;padding-top:60px;word-break:break-word;"&gt;
                                 &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="border-collapse:separate;width:212px;line-height:100%;"&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#3f51b5;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
+                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#5365EA;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
                                       查看详情
                                     &lt;/a&gt; &lt;/td&gt;
                                   &lt;/tr&gt;
@@ -8656,10 +8656,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -8726,12 +8726,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -8749,10 +8743,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8763,8 +8763,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8779,23 +8825,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8809,7 +8847,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -8817,7 +8855,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -8833,53 +8871,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8894,7 +8894,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8988,7 +8988,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9000,73 +9138,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9078,31 +9156,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9114,61 +9168,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9185,28 +9185,12 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -9231,12 +9215,21 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -9245,13 +9238,11 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -9266,54 +9257,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -9347,13 +9305,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9372,154 +9334,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -9548,112 +9548,112 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
@@ -9988,7 +9988,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
@@ -9996,22 +9996,22 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5723684210526" style="12" customWidth="1"/>
-    <col min="2" max="2" width="10.2828947368421" style="13" customWidth="1"/>
-    <col min="3" max="3" width="28.1381578947368" customWidth="1"/>
-    <col min="4" max="4" width="35.2828947368421" style="8" customWidth="1"/>
-    <col min="5" max="5" width="38.5723684210526" customWidth="1"/>
-    <col min="6" max="6" width="23.4210526315789" customWidth="1"/>
-    <col min="7" max="7" width="21.5723684210526" customWidth="1"/>
+    <col min="1" max="1" width="15.5703703703704" style="12" customWidth="1"/>
+    <col min="2" max="2" width="10.2814814814815" style="13" customWidth="1"/>
+    <col min="3" max="3" width="28.1407407407407" customWidth="1"/>
+    <col min="4" max="4" width="35.2814814814815" style="8" customWidth="1"/>
+    <col min="5" max="5" width="38.5703703703704" customWidth="1"/>
+    <col min="6" max="6" width="23.4222222222222" customWidth="1"/>
+    <col min="7" max="7" width="21.5703703703704" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5723684210526" customWidth="1"/>
+    <col min="9" max="9" width="24.5703703703704" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1381578947368" customWidth="1"/>
-    <col min="12" max="12" width="18.5723684210526" customWidth="1"/>
-    <col min="13" max="13" width="13.1381578947368" customWidth="1"/>
-    <col min="14" max="1025" width="10.2828947368421" customWidth="1"/>
+    <col min="11" max="11" width="19.1407407407407" customWidth="1"/>
+    <col min="12" max="12" width="18.5703703703704" customWidth="1"/>
+    <col min="13" max="13" width="13.1407407407407" customWidth="1"/>
+    <col min="14" max="1025" width="10.2814814814815" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
@@ -10021,130 +10021,130 @@
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-    </row>
-    <row r="2" spans="5:5">
-      <c r="E2" s="29"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" ht="18" spans="5:5">
+      <c r="E2" s="17"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="33" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-    </row>
-    <row r="4" ht="16" spans="3:7">
-      <c r="C4" s="17" t="s">
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" ht="18" spans="3:7">
+      <c r="C4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="34" t="s">
+      <c r="D4" s="20"/>
+      <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="16" spans="1:3">
+    <row r="5" spans="1:3">
       <c r="A5" s="14"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="18" t="s">
+    <row r="7" ht="18" spans="3:5">
+      <c r="C7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="38"/>
-    </row>
-    <row r="9" ht="46" spans="3:6">
-      <c r="C9" s="22" t="s">
+      <c r="E8" s="29"/>
+    </row>
+    <row r="9" ht="51.75" spans="3:6">
+      <c r="C9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="32" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="46" spans="3:5">
-      <c r="C10" s="24" t="s">
+    <row r="10" ht="51.75" spans="3:5">
+      <c r="C10" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="32" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="61" spans="3:5">
-      <c r="C11" s="20" t="s">
+    <row r="11" ht="69" spans="3:5">
+      <c r="C11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="32" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" ht="16" spans="3:5">
-      <c r="C12" s="20" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="34" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="38"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="38"/>
-    </row>
-    <row r="15" ht="31" spans="3:5">
-      <c r="C15" s="25" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
+    </row>
+    <row r="15" ht="34.5" spans="3:5">
+      <c r="C15" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="37" t="s">
         <v>28</v>
       </c>
     </row>
@@ -10153,39 +10153,39 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" ht="16" spans="3:5">
-      <c r="C19" s="27" t="s">
+    <row r="19" spans="3:5">
+      <c r="C19" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-    </row>
-    <row r="20" ht="16" spans="3:4">
-      <c r="C20" s="28" t="s">
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+    </row>
+    <row r="20" ht="18" spans="3:4">
+      <c r="C20" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="16" spans="3:4">
-      <c r="C21" s="28" t="s">
+    <row r="21" ht="18" spans="3:4">
+      <c r="C21" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="16" spans="3:4">
-      <c r="C22" s="28" t="s">
+    <row r="22" ht="18" spans="3:4">
+      <c r="C22" s="39" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="16" spans="3:4">
-      <c r="C23" s="28" t="s">
+    <row r="23" ht="18" spans="3:4">
+      <c r="C23" s="39" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -10193,25 +10193,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="16"/>
+      <c r="E25" s="18"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="16"/>
-    </row>
-    <row r="27" ht="31" spans="3:3">
-      <c r="C27" s="31" t="s">
+      <c r="E26" s="18"/>
+    </row>
+    <row r="27" ht="51.75" spans="3:3">
+      <c r="C27" s="41" t="s">
         <v>43</v>
       </c>
     </row>
@@ -10232,7 +10232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:R10"/>
   <sheetViews>
@@ -10240,11 +10240,11 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="23.2828947368421" customWidth="1"/>
-    <col min="6" max="6" width="21.2828947368421" customWidth="1"/>
-    <col min="8" max="8" width="14.7105263157895" customWidth="1"/>
+    <col min="5" max="5" width="23.2814814814815" customWidth="1"/>
+    <col min="6" max="6" width="21.2814814814815" customWidth="1"/>
+    <col min="8" max="8" width="14.7111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10405,28 +10405,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q658"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="I102" sqref="I102"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="4" max="4" width="22.5723684210526" customWidth="1"/>
-    <col min="5" max="5" width="26.2828947368421" customWidth="1"/>
-    <col min="6" max="6" width="44.8486842105263" customWidth="1"/>
-    <col min="7" max="7" width="29.4210526315789" customWidth="1"/>
-    <col min="8" max="8" width="24.2828947368421" customWidth="1"/>
-    <col min="9" max="9" width="92.8486842105263" customWidth="1"/>
-    <col min="10" max="10" width="29.2828947368421" customWidth="1"/>
-    <col min="11" max="11" width="32.1381578947368" customWidth="1"/>
-    <col min="13" max="13" width="33.1381578947368" customWidth="1"/>
-    <col min="14" max="14" width="23.4210526315789" customWidth="1"/>
-    <col min="15" max="15" width="29.4210526315789" customWidth="1"/>
-    <col min="16" max="16" width="29.8486842105263" customWidth="1"/>
+    <col min="4" max="4" width="22.5703703703704" customWidth="1"/>
+    <col min="5" max="5" width="26.2814814814815" customWidth="1"/>
+    <col min="6" max="6" width="44.8518518518519" customWidth="1"/>
+    <col min="7" max="7" width="29.4222222222222" customWidth="1"/>
+    <col min="8" max="8" width="24.2814814814815" customWidth="1"/>
+    <col min="9" max="9" width="92.8518518518518" customWidth="1"/>
+    <col min="10" max="10" width="29.2814814814815" customWidth="1"/>
+    <col min="11" max="11" width="32.1407407407407" customWidth="1"/>
+    <col min="13" max="13" width="33.1407407407407" customWidth="1"/>
+    <col min="14" max="14" width="23.4222222222222" customWidth="1"/>
+    <col min="15" max="15" width="29.4222222222222" customWidth="1"/>
+    <col min="16" max="16" width="29.8518518518519" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10635,7 +10635,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" ht="46" spans="5:17">
+    <row r="12" ht="69" spans="5:17">
       <c r="E12" t="s">
         <v>120</v>
       </c>
@@ -10693,7 +10693,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" ht="61" spans="5:17">
+    <row r="14" ht="86.25" spans="5:17">
       <c r="E14" t="s">
         <v>128</v>
       </c>
@@ -11124,7 +11124,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" ht="46" spans="5:17">
+    <row r="27" ht="69" spans="5:17">
       <c r="E27" t="s">
         <v>177</v>
       </c>
@@ -11328,7 +11328,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" ht="16" spans="5:17">
+    <row r="33" spans="5:17">
       <c r="E33" t="s">
         <v>199</v>
       </c>
@@ -11386,7 +11386,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" ht="46" spans="5:17">
+    <row r="35" ht="69" spans="5:17">
       <c r="E35" t="s">
         <v>206</v>
       </c>
@@ -11485,7 +11485,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" ht="16" spans="5:17">
+    <row r="38" spans="5:17">
       <c r="E38" t="s">
         <v>215</v>
       </c>
@@ -11543,7 +11543,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" ht="46" spans="5:17">
+    <row r="40" ht="69" spans="5:17">
       <c r="E40" t="s">
         <v>222</v>
       </c>
@@ -11671,7 +11671,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" ht="46" spans="5:17">
+    <row r="44" ht="51.75" spans="5:17">
       <c r="E44" t="s">
         <v>234</v>
       </c>
@@ -11700,7 +11700,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="45" ht="18" spans="5:17">
+    <row r="45" spans="5:17">
       <c r="E45" t="s">
         <v>238</v>
       </c>
@@ -11845,7 +11845,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="50" ht="46" spans="5:17">
+    <row r="50" ht="69" spans="5:17">
       <c r="E50" t="s">
         <v>255</v>
       </c>
@@ -11903,7 +11903,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" ht="61" spans="5:17">
+    <row r="52" ht="86.25" spans="5:17">
       <c r="E52" t="s">
         <v>261</v>
       </c>
@@ -11990,7 +11990,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" ht="61" spans="5:17">
+    <row r="55" ht="69" spans="5:17">
       <c r="E55" t="s">
         <v>271</v>
       </c>
@@ -12112,7 +12112,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="59" ht="61" spans="5:17">
+    <row r="59" ht="69" spans="5:17">
       <c r="E59" t="s">
         <v>287</v>
       </c>
@@ -12205,7 +12205,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="62" ht="76" spans="5:17">
+    <row r="62" ht="86.25" spans="5:17">
       <c r="E62" t="s">
         <v>297</v>
       </c>
@@ -12298,7 +12298,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="65" ht="61" spans="5:17">
+    <row r="65" ht="69" spans="5:17">
       <c r="E65" t="s">
         <v>307</v>
       </c>
@@ -12362,7 +12362,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="67" ht="16" spans="5:17">
+    <row r="67" spans="5:17">
       <c r="E67" t="s">
         <v>313</v>
       </c>
@@ -12420,7 +12420,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="69" ht="61" spans="5:17">
+    <row r="69" ht="69" spans="5:17">
       <c r="E69" t="s">
         <v>320</v>
       </c>
@@ -12664,7 +12664,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="77" ht="76" spans="5:17">
+    <row r="77" ht="86.25" spans="5:17">
       <c r="E77" s="11" t="s">
         <v>350</v>
       </c>
@@ -12699,7 +12699,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="78" ht="213" spans="5:17">
+    <row r="78" ht="241.5" spans="5:17">
       <c r="E78" t="s">
         <v>355</v>
       </c>
@@ -12734,7 +12734,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="79" ht="213" spans="5:17">
+    <row r="79" ht="241.5" spans="5:17">
       <c r="E79" t="s">
         <v>360</v>
       </c>
@@ -12769,7 +12769,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="80" ht="213" spans="5:17">
+    <row r="80" ht="241.5" spans="5:17">
       <c r="E80" t="s">
         <v>363</v>
       </c>
@@ -12804,7 +12804,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="81" ht="213" spans="5:17">
+    <row r="81" ht="241.5" spans="5:17">
       <c r="E81" t="s">
         <v>366</v>
       </c>
@@ -12839,7 +12839,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="82" ht="183" spans="5:17">
+    <row r="82" ht="207" spans="5:17">
       <c r="E82" t="s">
         <v>369</v>
       </c>
@@ -12874,7 +12874,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="83" ht="183" spans="5:17">
+    <row r="83" ht="207" spans="5:17">
       <c r="E83" t="s">
         <v>373</v>
       </c>
@@ -12909,7 +12909,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="84" ht="16" spans="5:17">
+    <row r="84" spans="5:17">
       <c r="E84" t="s">
         <v>376</v>
       </c>
@@ -13095,7 +13095,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="90" ht="46" spans="5:17">
+    <row r="90" ht="51.75" spans="5:17">
       <c r="E90" t="s">
         <v>392</v>
       </c>
@@ -13124,7 +13124,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="91" ht="46" spans="5:17">
+    <row r="91" ht="51.75" spans="5:17">
       <c r="E91" t="s">
         <v>395</v>
       </c>
@@ -13153,7 +13153,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="92" ht="46" spans="5:17">
+    <row r="92" ht="51.75" spans="5:17">
       <c r="E92" t="s">
         <v>398</v>
       </c>
@@ -13182,7 +13182,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="93" ht="61" spans="5:17">
+    <row r="93" ht="86.25" spans="5:17">
       <c r="E93" t="s">
         <v>401</v>
       </c>
@@ -13211,7 +13211,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="94" ht="31" spans="5:17">
+    <row r="94" ht="69" spans="5:17">
       <c r="E94" t="s">
         <v>404</v>
       </c>
@@ -13240,7 +13240,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="95" ht="31" spans="5:17">
+    <row r="95" ht="34.5" spans="5:17">
       <c r="E95" t="s">
         <v>407</v>
       </c>
@@ -13269,7 +13269,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="96" ht="46" spans="5:17">
+    <row r="96" ht="86.25" spans="5:17">
       <c r="E96" t="s">
         <v>410</v>
       </c>
@@ -13327,7 +13327,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="98" ht="16" spans="5:17">
+    <row r="98" spans="5:17">
       <c r="E98" t="s">
         <v>415</v>
       </c>
@@ -13362,7 +13362,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="99" ht="76" spans="5:17">
+    <row r="99" ht="86.25" spans="5:17">
       <c r="E99" t="s">
         <v>417</v>
       </c>
@@ -13391,7 +13391,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="100" ht="61" spans="5:17">
+    <row r="100" ht="69" spans="5:17">
       <c r="E100" t="s">
         <v>420</v>
       </c>
@@ -13420,7 +13420,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="101" ht="46" spans="5:17">
+    <row r="101" ht="51.75" spans="5:17">
       <c r="E101" t="s">
         <v>423</v>
       </c>
@@ -13449,7 +13449,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="102" ht="61" spans="5:17">
+    <row r="102" ht="69" spans="5:17">
       <c r="E102" t="s">
         <v>426</v>
       </c>
@@ -13478,7 +13478,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="103" ht="61" spans="5:17">
+    <row r="103" ht="69" spans="5:17">
       <c r="E103" t="s">
         <v>429</v>
       </c>
@@ -23426,7 +23426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:O204"/>
   <sheetViews>
@@ -23434,22 +23434,22 @@
       <selection activeCell="F135" sqref="F135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="22.4210526315789" customWidth="1"/>
-    <col min="2" max="2" width="15.4210526315789" customWidth="1"/>
-    <col min="3" max="3" width="22.7105263157895" customWidth="1"/>
-    <col min="4" max="4" width="29.4210526315789" customWidth="1"/>
-    <col min="5" max="5" width="43.7105263157895" customWidth="1"/>
-    <col min="6" max="7" width="34.4210526315789" customWidth="1"/>
-    <col min="8" max="8" width="37.8486842105263" customWidth="1"/>
-    <col min="9" max="9" width="26.8486842105263" customWidth="1"/>
-    <col min="10" max="10" width="14.1381578947368" customWidth="1"/>
-    <col min="11" max="11" width="26.8486842105263" customWidth="1"/>
-    <col min="12" max="12" width="29.8486842105263" customWidth="1"/>
-    <col min="13" max="13" width="24.8486842105263" customWidth="1"/>
-    <col min="14" max="14" width="17.5723684210526" customWidth="1"/>
-    <col min="15" max="15" width="15.7105263157895" customWidth="1"/>
+    <col min="1" max="1" width="22.4222222222222" customWidth="1"/>
+    <col min="2" max="2" width="15.4222222222222" customWidth="1"/>
+    <col min="3" max="3" width="22.7111111111111" customWidth="1"/>
+    <col min="4" max="4" width="29.4222222222222" customWidth="1"/>
+    <col min="5" max="5" width="43.7111111111111" customWidth="1"/>
+    <col min="6" max="7" width="34.4222222222222" customWidth="1"/>
+    <col min="8" max="8" width="37.8518518518519" customWidth="1"/>
+    <col min="9" max="9" width="26.8518518518519" customWidth="1"/>
+    <col min="10" max="10" width="14.1407407407407" customWidth="1"/>
+    <col min="11" max="11" width="26.8518518518519" customWidth="1"/>
+    <col min="12" max="12" width="29.8518518518519" customWidth="1"/>
+    <col min="13" max="13" width="24.8518518518519" customWidth="1"/>
+    <col min="14" max="14" width="17.5703703703704" customWidth="1"/>
+    <col min="15" max="15" width="15.7111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -23466,7 +23466,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" ht="17" spans="5:8">
+    <row r="4" spans="5:8">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -24890,7 +24890,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="47" ht="16" spans="5:15">
+    <row r="47" spans="5:15">
       <c r="E47" t="s">
         <v>642</v>
       </c>
@@ -24925,7 +24925,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="48" ht="16" spans="5:15">
+    <row r="48" spans="5:15">
       <c r="E48" t="s">
         <v>645</v>
       </c>
@@ -24960,7 +24960,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="49" ht="16" spans="5:15">
+    <row r="49" spans="5:15">
       <c r="E49" t="s">
         <v>648</v>
       </c>
@@ -24995,7 +24995,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="50" ht="16" spans="5:15">
+    <row r="50" spans="5:15">
       <c r="E50" t="s">
         <v>651</v>
       </c>
@@ -25030,7 +25030,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="51" ht="16" spans="5:15">
+    <row r="51" spans="5:15">
       <c r="E51" t="s">
         <v>654</v>
       </c>
@@ -25065,7 +25065,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="52" ht="16" spans="5:15">
+    <row r="52" spans="5:15">
       <c r="E52" t="s">
         <v>657</v>
       </c>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420" tabRatio="597" activeTab="2"/>
+    <workbookView windowHeight="24160" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -7349,8 +7349,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-&lt;p&gt;您在项目“${projectName}”下应用服务“${appServiceName}”中提交的合并请求已被 ${realName} 合并。&lt;/p&gt;
-&lt;p&gt;[查看详情](${gitlabUrl}/${organizationCode}-${projectCode}/${appServiceCode}/merge_requests/${mergeRequestId})</t>
+&lt;p&gt;您在项目“${projectName}”下应用服务“${appServiceName}”中提交的合并请求已被 ${realName} 合并。&lt;/p&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-172</t>
@@ -7359,8 +7358,7 @@
     <t>MERGE_REQUEST_CLOSED.DT</t>
   </si>
   <si>
-    <t>&lt;p&gt;您在项目“${projectName}”下应用服务“${appServiceName}”中提交的合并请求已被 ${realName} 关闭。&lt;/p&gt;
-[查看详情](${gitlabUrl}/${organizationCode}-${projectCode}/${appServiceCode}/merge_requests/${mergeRequestId})</t>
+    <t>&lt;p&gt;您在项目“${projectName}”下应用服务“${appServiceName}”中提交的合并请求已被 ${realName} 关闭。&lt;/p&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-173</t>
@@ -7380,8 +7378,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-&lt;p&gt;项目“${projectName}”下应用服务“${appServiceName}”中${realName}提交了合并请求，需要您进行审核。&lt;/p&gt;
-[查看详情](${gitlabUrl}/${organizationCode}-${projectCode}/${appServiceCode}/merge_requests/${mergeRequestId})</t>
+&lt;p&gt;项目“${projectName}”下应用服务“${appServiceName}”中${realName}提交了合并请求，需要您进行审核。&lt;/p&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-175</t>
@@ -8656,10 +8653,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -8726,6 +8723,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -8743,29 +8746,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8780,37 +8769,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8825,17 +8784,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8848,6 +8799,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -8855,7 +8814,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -8878,6 +8837,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -8887,14 +8868,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8988,13 +8985,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9006,37 +9057,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9048,49 +9075,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9108,19 +9099,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9132,7 +9117,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9144,31 +9141,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9185,12 +9182,28 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -9215,6 +9228,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -9223,26 +9249,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -9257,15 +9263,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -9275,32 +9272,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9335,22 +9320,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9366,160 +9346,177 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -9548,112 +9545,112 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
+    <cellStyle name="输入" xfId="5" builtinId="20"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
+    <cellStyle name="货币" xfId="8" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
+    <cellStyle name="百分比" xfId="10" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
+    <cellStyle name="计算" xfId="16" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
+    <cellStyle name="适中" xfId="18" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
+    <cellStyle name="好" xfId="20" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
+    <cellStyle name="汇总" xfId="22" builtinId="25"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
+    <cellStyle name="标题" xfId="34" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
+    <cellStyle name="注释" xfId="38" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
@@ -9996,22 +9993,22 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5703703703704" style="12" customWidth="1"/>
-    <col min="2" max="2" width="10.2814814814815" style="13" customWidth="1"/>
-    <col min="3" max="3" width="28.1407407407407" customWidth="1"/>
-    <col min="4" max="4" width="35.2814814814815" style="8" customWidth="1"/>
-    <col min="5" max="5" width="38.5703703703704" customWidth="1"/>
-    <col min="6" max="6" width="23.4222222222222" customWidth="1"/>
-    <col min="7" max="7" width="21.5703703703704" customWidth="1"/>
+    <col min="1" max="1" width="15.5723684210526" style="12" customWidth="1"/>
+    <col min="2" max="2" width="10.2828947368421" style="13" customWidth="1"/>
+    <col min="3" max="3" width="28.1381578947368" customWidth="1"/>
+    <col min="4" max="4" width="35.2828947368421" style="8" customWidth="1"/>
+    <col min="5" max="5" width="38.5723684210526" customWidth="1"/>
+    <col min="6" max="6" width="23.4210526315789" customWidth="1"/>
+    <col min="7" max="7" width="21.5723684210526" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5703703703704" customWidth="1"/>
+    <col min="9" max="9" width="24.5723684210526" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1407407407407" customWidth="1"/>
-    <col min="12" max="12" width="18.5703703703704" customWidth="1"/>
-    <col min="13" max="13" width="13.1407407407407" customWidth="1"/>
-    <col min="14" max="1025" width="10.2814814814815" customWidth="1"/>
+    <col min="11" max="11" width="19.1381578947368" customWidth="1"/>
+    <col min="12" max="12" width="18.5723684210526" customWidth="1"/>
+    <col min="13" max="13" width="13.1381578947368" customWidth="1"/>
+    <col min="14" max="1025" width="10.2828947368421" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
@@ -10021,130 +10018,130 @@
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-    </row>
-    <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="17"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+    </row>
+    <row r="2" spans="5:5">
+      <c r="E2" s="29"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="20" t="s">
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+    </row>
+    <row r="4" ht="16" spans="3:7">
+      <c r="C4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="36" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" ht="16" spans="1:3">
       <c r="A5" s="14"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="24" t="s">
+    <row r="7" spans="3:5">
+      <c r="C7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="37" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="29"/>
-    </row>
-    <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="30" t="s">
+      <c r="E8" s="38"/>
+    </row>
+    <row r="9" ht="46" spans="3:6">
+      <c r="C9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="39" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="33" t="s">
+    <row r="10" ht="46" spans="3:5">
+      <c r="C10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="39" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="27" t="s">
+    <row r="11" ht="61" spans="3:5">
+      <c r="C11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="39" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="27" t="s">
+    <row r="12" ht="16" spans="3:5">
+      <c r="C12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="40" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="38"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="27"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-    </row>
-    <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="35" t="s">
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="38"/>
+    </row>
+    <row r="15" ht="31" spans="3:5">
+      <c r="C15" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="41" t="s">
         <v>28</v>
       </c>
     </row>
@@ -10153,39 +10150,39 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="3:5">
-      <c r="C19" s="38" t="s">
+    <row r="19" ht="16" spans="3:5">
+      <c r="C19" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-    </row>
-    <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="39" t="s">
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+    </row>
+    <row r="20" ht="16" spans="3:4">
+      <c r="C20" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="39" t="s">
+    <row r="21" ht="16" spans="3:4">
+      <c r="C21" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="39" t="s">
+    <row r="22" ht="16" spans="3:4">
+      <c r="C22" s="28" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="39" t="s">
+    <row r="23" ht="16" spans="3:4">
+      <c r="C23" s="28" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -10193,25 +10190,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="18"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="18"/>
-    </row>
-    <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="41" t="s">
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" ht="31" spans="3:3">
+      <c r="C27" s="31" t="s">
         <v>43</v>
       </c>
     </row>
@@ -10240,11 +10237,11 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.2"/>
   <cols>
-    <col min="5" max="5" width="23.2814814814815" customWidth="1"/>
-    <col min="6" max="6" width="21.2814814814815" customWidth="1"/>
-    <col min="8" max="8" width="14.7111111111111" customWidth="1"/>
+    <col min="5" max="5" width="23.2828947368421" customWidth="1"/>
+    <col min="6" max="6" width="21.2828947368421" customWidth="1"/>
+    <col min="8" max="8" width="14.7105263157895" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10409,24 +10406,24 @@
   <sheetPr/>
   <dimension ref="A1:Q658"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="I96" sqref="I96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
   <cols>
-    <col min="4" max="4" width="22.5703703703704" customWidth="1"/>
-    <col min="5" max="5" width="26.2814814814815" customWidth="1"/>
-    <col min="6" max="6" width="44.8518518518519" customWidth="1"/>
-    <col min="7" max="7" width="29.4222222222222" customWidth="1"/>
-    <col min="8" max="8" width="24.2814814814815" customWidth="1"/>
-    <col min="9" max="9" width="92.8518518518518" customWidth="1"/>
-    <col min="10" max="10" width="29.2814814814815" customWidth="1"/>
-    <col min="11" max="11" width="32.1407407407407" customWidth="1"/>
-    <col min="13" max="13" width="33.1407407407407" customWidth="1"/>
-    <col min="14" max="14" width="23.4222222222222" customWidth="1"/>
-    <col min="15" max="15" width="29.4222222222222" customWidth="1"/>
-    <col min="16" max="16" width="29.8518518518519" customWidth="1"/>
+    <col min="4" max="4" width="22.5723684210526" customWidth="1"/>
+    <col min="5" max="5" width="26.2828947368421" customWidth="1"/>
+    <col min="6" max="6" width="44.8486842105263" customWidth="1"/>
+    <col min="7" max="7" width="29.4210526315789" customWidth="1"/>
+    <col min="8" max="8" width="24.2828947368421" customWidth="1"/>
+    <col min="9" max="9" width="92.8486842105263" customWidth="1"/>
+    <col min="10" max="10" width="29.2828947368421" customWidth="1"/>
+    <col min="11" max="11" width="32.1381578947368" customWidth="1"/>
+    <col min="13" max="13" width="33.1381578947368" customWidth="1"/>
+    <col min="14" max="14" width="23.4210526315789" customWidth="1"/>
+    <col min="15" max="15" width="29.4210526315789" customWidth="1"/>
+    <col min="16" max="16" width="29.8486842105263" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10635,7 +10632,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" ht="69" spans="5:17">
+    <row r="12" ht="46" spans="5:17">
       <c r="E12" t="s">
         <v>120</v>
       </c>
@@ -10693,7 +10690,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" ht="86.25" spans="5:17">
+    <row r="14" ht="61" spans="5:17">
       <c r="E14" t="s">
         <v>128</v>
       </c>
@@ -11124,7 +11121,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" ht="69" spans="5:17">
+    <row r="27" ht="46" spans="5:17">
       <c r="E27" t="s">
         <v>177</v>
       </c>
@@ -11328,7 +11325,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="5:17">
+    <row r="33" ht="16" spans="5:17">
       <c r="E33" t="s">
         <v>199</v>
       </c>
@@ -11386,7 +11383,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" ht="69" spans="5:17">
+    <row r="35" ht="46" spans="5:17">
       <c r="E35" t="s">
         <v>206</v>
       </c>
@@ -11485,7 +11482,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="5:17">
+    <row r="38" ht="16" spans="5:17">
       <c r="E38" t="s">
         <v>215</v>
       </c>
@@ -11543,7 +11540,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" ht="69" spans="5:17">
+    <row r="40" ht="46" spans="5:17">
       <c r="E40" t="s">
         <v>222</v>
       </c>
@@ -11671,7 +11668,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" ht="51.75" spans="5:17">
+    <row r="44" ht="46" spans="5:17">
       <c r="E44" t="s">
         <v>234</v>
       </c>
@@ -11700,7 +11697,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="5:17">
+    <row r="45" ht="18" spans="5:17">
       <c r="E45" t="s">
         <v>238</v>
       </c>
@@ -11845,7 +11842,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="50" ht="69" spans="5:17">
+    <row r="50" ht="46" spans="5:17">
       <c r="E50" t="s">
         <v>255</v>
       </c>
@@ -11903,7 +11900,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" ht="86.25" spans="5:17">
+    <row r="52" ht="61" spans="5:17">
       <c r="E52" t="s">
         <v>261</v>
       </c>
@@ -11990,7 +11987,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" ht="69" spans="5:17">
+    <row r="55" ht="61" spans="5:17">
       <c r="E55" t="s">
         <v>271</v>
       </c>
@@ -12112,7 +12109,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="59" ht="69" spans="5:17">
+    <row r="59" ht="61" spans="5:17">
       <c r="E59" t="s">
         <v>287</v>
       </c>
@@ -12205,7 +12202,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="62" ht="86.25" spans="5:17">
+    <row r="62" ht="76" spans="5:17">
       <c r="E62" t="s">
         <v>297</v>
       </c>
@@ -12298,7 +12295,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="65" ht="69" spans="5:17">
+    <row r="65" ht="61" spans="5:17">
       <c r="E65" t="s">
         <v>307</v>
       </c>
@@ -12362,7 +12359,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="67" spans="5:17">
+    <row r="67" ht="16" spans="5:17">
       <c r="E67" t="s">
         <v>313</v>
       </c>
@@ -12420,7 +12417,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="69" ht="69" spans="5:17">
+    <row r="69" ht="61" spans="5:17">
       <c r="E69" t="s">
         <v>320</v>
       </c>
@@ -12664,7 +12661,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="77" ht="86.25" spans="5:17">
+    <row r="77" ht="76" spans="5:17">
       <c r="E77" s="11" t="s">
         <v>350</v>
       </c>
@@ -12699,7 +12696,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="78" ht="241.5" spans="5:17">
+    <row r="78" ht="213" spans="5:17">
       <c r="E78" t="s">
         <v>355</v>
       </c>
@@ -12734,7 +12731,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="79" ht="241.5" spans="5:17">
+    <row r="79" ht="213" spans="5:17">
       <c r="E79" t="s">
         <v>360</v>
       </c>
@@ -12769,7 +12766,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="80" ht="241.5" spans="5:17">
+    <row r="80" ht="213" spans="5:17">
       <c r="E80" t="s">
         <v>363</v>
       </c>
@@ -12804,7 +12801,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="81" ht="241.5" spans="5:17">
+    <row r="81" ht="213" spans="5:17">
       <c r="E81" t="s">
         <v>366</v>
       </c>
@@ -12839,7 +12836,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="82" ht="207" spans="5:17">
+    <row r="82" ht="183" spans="5:17">
       <c r="E82" t="s">
         <v>369</v>
       </c>
@@ -12874,7 +12871,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="83" ht="207" spans="5:17">
+    <row r="83" ht="183" spans="5:17">
       <c r="E83" t="s">
         <v>373</v>
       </c>
@@ -12909,7 +12906,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="84" spans="5:17">
+    <row r="84" ht="16" spans="5:17">
       <c r="E84" t="s">
         <v>376</v>
       </c>
@@ -13095,7 +13092,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="90" ht="51.75" spans="5:17">
+    <row r="90" ht="46" spans="5:17">
       <c r="E90" t="s">
         <v>392</v>
       </c>
@@ -13124,7 +13121,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="91" ht="51.75" spans="5:17">
+    <row r="91" ht="46" spans="5:17">
       <c r="E91" t="s">
         <v>395</v>
       </c>
@@ -13153,7 +13150,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="92" ht="51.75" spans="5:17">
+    <row r="92" ht="46" spans="5:17">
       <c r="E92" t="s">
         <v>398</v>
       </c>
@@ -13182,7 +13179,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="93" ht="86.25" spans="5:17">
+    <row r="93" ht="31" spans="5:17">
       <c r="E93" t="s">
         <v>401</v>
       </c>
@@ -13211,7 +13208,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="94" ht="69" spans="5:17">
+    <row r="94" ht="16" spans="5:17">
       <c r="E94" t="s">
         <v>404</v>
       </c>
@@ -13240,7 +13237,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="95" ht="34.5" spans="5:17">
+    <row r="95" ht="31" spans="5:17">
       <c r="E95" t="s">
         <v>407</v>
       </c>
@@ -13269,7 +13266,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="96" ht="86.25" spans="5:17">
+    <row r="96" ht="31" spans="5:17">
       <c r="E96" t="s">
         <v>410</v>
       </c>
@@ -13327,7 +13324,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="98" spans="5:17">
+    <row r="98" ht="16" spans="5:17">
       <c r="E98" t="s">
         <v>415</v>
       </c>
@@ -13362,7 +13359,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="99" ht="86.25" spans="5:17">
+    <row r="99" ht="76" spans="5:17">
       <c r="E99" t="s">
         <v>417</v>
       </c>
@@ -13391,7 +13388,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="100" ht="69" spans="5:17">
+    <row r="100" ht="61" spans="5:17">
       <c r="E100" t="s">
         <v>420</v>
       </c>
@@ -13420,7 +13417,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="101" ht="51.75" spans="5:17">
+    <row r="101" ht="46" spans="5:17">
       <c r="E101" t="s">
         <v>423</v>
       </c>
@@ -13449,7 +13446,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="102" ht="69" spans="5:17">
+    <row r="102" ht="61" spans="5:17">
       <c r="E102" t="s">
         <v>426</v>
       </c>
@@ -13478,7 +13475,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="103" ht="69" spans="5:17">
+    <row r="103" ht="61" spans="5:17">
       <c r="E103" t="s">
         <v>429</v>
       </c>
@@ -23434,22 +23431,22 @@
       <selection activeCell="F135" sqref="F135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
   <cols>
-    <col min="1" max="1" width="22.4222222222222" customWidth="1"/>
-    <col min="2" max="2" width="15.4222222222222" customWidth="1"/>
-    <col min="3" max="3" width="22.7111111111111" customWidth="1"/>
-    <col min="4" max="4" width="29.4222222222222" customWidth="1"/>
-    <col min="5" max="5" width="43.7111111111111" customWidth="1"/>
-    <col min="6" max="7" width="34.4222222222222" customWidth="1"/>
-    <col min="8" max="8" width="37.8518518518519" customWidth="1"/>
-    <col min="9" max="9" width="26.8518518518519" customWidth="1"/>
-    <col min="10" max="10" width="14.1407407407407" customWidth="1"/>
-    <col min="11" max="11" width="26.8518518518519" customWidth="1"/>
-    <col min="12" max="12" width="29.8518518518519" customWidth="1"/>
-    <col min="13" max="13" width="24.8518518518519" customWidth="1"/>
-    <col min="14" max="14" width="17.5703703703704" customWidth="1"/>
-    <col min="15" max="15" width="15.7111111111111" customWidth="1"/>
+    <col min="1" max="1" width="22.4210526315789" customWidth="1"/>
+    <col min="2" max="2" width="15.4210526315789" customWidth="1"/>
+    <col min="3" max="3" width="22.7105263157895" customWidth="1"/>
+    <col min="4" max="4" width="29.4210526315789" customWidth="1"/>
+    <col min="5" max="5" width="43.7105263157895" customWidth="1"/>
+    <col min="6" max="7" width="34.4210526315789" customWidth="1"/>
+    <col min="8" max="8" width="37.8486842105263" customWidth="1"/>
+    <col min="9" max="9" width="26.8486842105263" customWidth="1"/>
+    <col min="10" max="10" width="14.1381578947368" customWidth="1"/>
+    <col min="11" max="11" width="26.8486842105263" customWidth="1"/>
+    <col min="12" max="12" width="29.8486842105263" customWidth="1"/>
+    <col min="13" max="13" width="24.8486842105263" customWidth="1"/>
+    <col min="14" max="14" width="17.5723684210526" customWidth="1"/>
+    <col min="15" max="15" width="15.7105263157895" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -23466,7 +23463,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:8">
+    <row r="4" ht="17" spans="5:8">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -24890,7 +24887,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="47" spans="5:15">
+    <row r="47" ht="16" spans="5:15">
       <c r="E47" t="s">
         <v>642</v>
       </c>
@@ -24925,7 +24922,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="48" spans="5:15">
+    <row r="48" ht="16" spans="5:15">
       <c r="E48" t="s">
         <v>645</v>
       </c>
@@ -24960,7 +24957,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="49" spans="5:15">
+    <row r="49" ht="16" spans="5:15">
       <c r="E49" t="s">
         <v>648</v>
       </c>
@@ -24995,7 +24992,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="50" spans="5:15">
+    <row r="50" ht="16" spans="5:15">
       <c r="E50" t="s">
         <v>651</v>
       </c>
@@ -25030,7 +25027,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="51" spans="5:15">
+    <row r="51" ht="16" spans="5:15">
       <c r="E51" t="s">
         <v>654</v>
       </c>
@@ -25065,7 +25062,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="52" spans="5:15">
+    <row r="52" ht="16" spans="5:15">
       <c r="E52" t="s">
         <v>657</v>
       </c>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="24160" tabRatio="597" activeTab="2"/>
+    <workbookView windowWidth="21731" windowHeight="10020" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -2764,9 +2764,7 @@
                               &lt;td align="center" vertical-align="middle" style="font-size:0px;padding:10px 25px;padding-top:60px;word-break:break-word;"&gt;
                                 &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="border-collapse:separate;width:212px;line-height:100%;"&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#5365EA;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
-                                      查看详情
-                                    &lt;/a&gt; &lt;/td&gt;
+                                    &lt;p align="center" bgcolor="#5365ea" role="presentation" style="border:none;border-radius:3px;width: 180px;margin:0 auto;cursor:auto;margin-top: 15px;height:20px;padding:10px 25px;background:#5365ea;display: flex;justify-content: center;align-items: center;" valign="middle"&gt; &lt;a href="${link}"  style="background:#5365ea;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;查看详情&lt;/a&gt; &lt;/p&gt;
                                   &lt;/tr&gt;
                                 &lt;/tbody&gt;&lt;/table&gt;&lt;br&gt;
                               &lt;/td&gt;
@@ -8653,10 +8651,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -8723,12 +8721,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -8746,15 +8738,35 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8769,6 +8781,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -8776,15 +8796,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -8798,23 +8811,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -8838,6 +8835,30 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
@@ -8846,7 +8867,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8861,37 +8890,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8985,19 +8983,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9009,43 +9013,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9063,7 +9049,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9075,31 +9127,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9111,61 +9151,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9182,28 +9180,12 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -9228,12 +9210,21 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -9242,13 +9233,11 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -9263,6 +9252,15 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -9272,20 +9270,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9305,17 +9300,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9338,8 +9351,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9354,169 +9367,154 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -9545,112 +9543,112 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
@@ -9993,22 +9991,22 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5723684210526" style="12" customWidth="1"/>
-    <col min="2" max="2" width="10.2828947368421" style="13" customWidth="1"/>
-    <col min="3" max="3" width="28.1381578947368" customWidth="1"/>
-    <col min="4" max="4" width="35.2828947368421" style="8" customWidth="1"/>
-    <col min="5" max="5" width="38.5723684210526" customWidth="1"/>
-    <col min="6" max="6" width="23.4210526315789" customWidth="1"/>
-    <col min="7" max="7" width="21.5723684210526" customWidth="1"/>
+    <col min="1" max="1" width="15.5694444444444" style="12" customWidth="1"/>
+    <col min="2" max="2" width="10.2847222222222" style="13" customWidth="1"/>
+    <col min="3" max="3" width="28.1388888888889" customWidth="1"/>
+    <col min="4" max="4" width="35.2847222222222" style="8" customWidth="1"/>
+    <col min="5" max="5" width="38.5694444444444" customWidth="1"/>
+    <col min="6" max="6" width="23.4236111111111" customWidth="1"/>
+    <col min="7" max="7" width="21.5694444444444" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5723684210526" customWidth="1"/>
+    <col min="9" max="9" width="24.5694444444444" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1381578947368" customWidth="1"/>
-    <col min="12" max="12" width="18.5723684210526" customWidth="1"/>
-    <col min="13" max="13" width="13.1381578947368" customWidth="1"/>
-    <col min="14" max="1025" width="10.2828947368421" customWidth="1"/>
+    <col min="11" max="11" width="19.1388888888889" customWidth="1"/>
+    <col min="12" max="12" width="18.5694444444444" customWidth="1"/>
+    <col min="13" max="13" width="13.1388888888889" customWidth="1"/>
+    <col min="14" max="1025" width="10.2847222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
@@ -10018,130 +10016,130 @@
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="29"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="33" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-    </row>
-    <row r="4" ht="16" spans="3:7">
-      <c r="C4" s="17" t="s">
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="34" t="s">
+      <c r="D4" s="20"/>
+      <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="16" spans="1:3">
+    <row r="5" spans="1:3">
       <c r="A5" s="14"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="38"/>
-    </row>
-    <row r="9" ht="46" spans="3:6">
-      <c r="C9" s="22" t="s">
+      <c r="E8" s="29"/>
+    </row>
+    <row r="9" ht="52.2" spans="3:6">
+      <c r="C9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="32" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="46" spans="3:5">
-      <c r="C10" s="24" t="s">
+    <row r="10" ht="52.2" spans="3:5">
+      <c r="C10" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="32" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="61" spans="3:5">
-      <c r="C11" s="20" t="s">
+    <row r="11" ht="69.6" spans="3:5">
+      <c r="C11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="32" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" ht="16" spans="3:5">
-      <c r="C12" s="20" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="34" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="38"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="38"/>
-    </row>
-    <row r="15" ht="31" spans="3:5">
-      <c r="C15" s="25" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
+    </row>
+    <row r="15" ht="34.8" spans="3:5">
+      <c r="C15" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="37" t="s">
         <v>28</v>
       </c>
     </row>
@@ -10150,39 +10148,39 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" ht="16" spans="3:5">
-      <c r="C19" s="27" t="s">
+    <row r="19" spans="3:5">
+      <c r="C19" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-    </row>
-    <row r="20" ht="16" spans="3:4">
-      <c r="C20" s="28" t="s">
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="16" spans="3:4">
-      <c r="C21" s="28" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="16" spans="3:4">
-      <c r="C22" s="28" t="s">
+    <row r="22" spans="3:4">
+      <c r="C22" s="39" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="16" spans="3:4">
-      <c r="C23" s="28" t="s">
+    <row r="23" spans="3:4">
+      <c r="C23" s="39" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -10190,25 +10188,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="16"/>
+      <c r="E25" s="18"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="16"/>
-    </row>
-    <row r="27" ht="31" spans="3:3">
-      <c r="C27" s="31" t="s">
+      <c r="E26" s="18"/>
+    </row>
+    <row r="27" ht="52.2" spans="3:3">
+      <c r="C27" s="41" t="s">
         <v>43</v>
       </c>
     </row>
@@ -10237,11 +10235,11 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.4"/>
   <cols>
-    <col min="5" max="5" width="23.2828947368421" customWidth="1"/>
-    <col min="6" max="6" width="21.2828947368421" customWidth="1"/>
-    <col min="8" max="8" width="14.7105263157895" customWidth="1"/>
+    <col min="5" max="5" width="23.2847222222222" customWidth="1"/>
+    <col min="6" max="6" width="21.2847222222222" customWidth="1"/>
+    <col min="8" max="8" width="14.7083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10406,24 +10404,24 @@
   <sheetPr/>
   <dimension ref="A1:Q658"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="I96" sqref="I96"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="F14" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="4" max="4" width="22.5723684210526" customWidth="1"/>
-    <col min="5" max="5" width="26.2828947368421" customWidth="1"/>
-    <col min="6" max="6" width="44.8486842105263" customWidth="1"/>
-    <col min="7" max="7" width="29.4210526315789" customWidth="1"/>
-    <col min="8" max="8" width="24.2828947368421" customWidth="1"/>
-    <col min="9" max="9" width="92.8486842105263" customWidth="1"/>
-    <col min="10" max="10" width="29.2828947368421" customWidth="1"/>
-    <col min="11" max="11" width="32.1381578947368" customWidth="1"/>
-    <col min="13" max="13" width="33.1381578947368" customWidth="1"/>
-    <col min="14" max="14" width="23.4210526315789" customWidth="1"/>
-    <col min="15" max="15" width="29.4210526315789" customWidth="1"/>
-    <col min="16" max="16" width="29.8486842105263" customWidth="1"/>
+    <col min="4" max="4" width="22.5694444444444" customWidth="1"/>
+    <col min="5" max="5" width="26.2847222222222" customWidth="1"/>
+    <col min="6" max="6" width="44.8472222222222" customWidth="1"/>
+    <col min="7" max="7" width="29.4236111111111" customWidth="1"/>
+    <col min="8" max="8" width="24.2847222222222" customWidth="1"/>
+    <col min="9" max="9" width="92.8472222222222" customWidth="1"/>
+    <col min="10" max="10" width="29.2847222222222" customWidth="1"/>
+    <col min="11" max="11" width="32.1388888888889" customWidth="1"/>
+    <col min="13" max="13" width="33.1388888888889" customWidth="1"/>
+    <col min="14" max="14" width="23.4236111111111" customWidth="1"/>
+    <col min="15" max="15" width="29.4236111111111" customWidth="1"/>
+    <col min="16" max="16" width="29.8472222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10632,7 +10630,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" ht="46" spans="5:17">
+    <row r="12" ht="69.6" spans="5:17">
       <c r="E12" t="s">
         <v>120</v>
       </c>
@@ -10690,7 +10688,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" ht="61" spans="5:17">
+    <row r="14" ht="87" spans="5:17">
       <c r="E14" t="s">
         <v>128</v>
       </c>
@@ -11121,7 +11119,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" ht="46" spans="5:17">
+    <row r="27" ht="69.6" spans="5:17">
       <c r="E27" t="s">
         <v>177</v>
       </c>
@@ -11325,7 +11323,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" ht="16" spans="5:17">
+    <row r="33" spans="5:17">
       <c r="E33" t="s">
         <v>199</v>
       </c>
@@ -11383,7 +11381,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" ht="46" spans="5:17">
+    <row r="35" ht="69.6" spans="5:17">
       <c r="E35" t="s">
         <v>206</v>
       </c>
@@ -11482,7 +11480,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" ht="16" spans="5:17">
+    <row r="38" spans="5:17">
       <c r="E38" t="s">
         <v>215</v>
       </c>
@@ -11540,7 +11538,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" ht="46" spans="5:17">
+    <row r="40" ht="69.6" spans="5:17">
       <c r="E40" t="s">
         <v>222</v>
       </c>
@@ -11668,7 +11666,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" ht="46" spans="5:17">
+    <row r="44" ht="52.2" spans="5:17">
       <c r="E44" t="s">
         <v>234</v>
       </c>
@@ -11697,7 +11695,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="45" ht="18" spans="5:17">
+    <row r="45" spans="5:17">
       <c r="E45" t="s">
         <v>238</v>
       </c>
@@ -11842,7 +11840,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="50" ht="46" spans="5:17">
+    <row r="50" ht="52.2" spans="5:17">
       <c r="E50" t="s">
         <v>255</v>
       </c>
@@ -11900,7 +11898,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" ht="61" spans="5:17">
+    <row r="52" ht="69.6" spans="5:17">
       <c r="E52" t="s">
         <v>261</v>
       </c>
@@ -11987,7 +11985,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" ht="61" spans="5:17">
+    <row r="55" ht="69.6" spans="5:17">
       <c r="E55" t="s">
         <v>271</v>
       </c>
@@ -12109,7 +12107,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="59" ht="61" spans="5:17">
+    <row r="59" ht="69.6" spans="5:17">
       <c r="E59" t="s">
         <v>287</v>
       </c>
@@ -12202,7 +12200,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="62" ht="76" spans="5:17">
+    <row r="62" ht="87" spans="5:17">
       <c r="E62" t="s">
         <v>297</v>
       </c>
@@ -12295,7 +12293,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="65" ht="61" spans="5:17">
+    <row r="65" ht="69.6" spans="5:17">
       <c r="E65" t="s">
         <v>307</v>
       </c>
@@ -12359,7 +12357,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="67" ht="16" spans="5:17">
+    <row r="67" spans="5:17">
       <c r="E67" t="s">
         <v>313</v>
       </c>
@@ -12417,7 +12415,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="69" ht="61" spans="5:17">
+    <row r="69" ht="69.6" spans="5:17">
       <c r="E69" t="s">
         <v>320</v>
       </c>
@@ -12661,7 +12659,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="77" ht="76" spans="5:17">
+    <row r="77" ht="87" spans="5:17">
       <c r="E77" s="11" t="s">
         <v>350</v>
       </c>
@@ -12696,7 +12694,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="78" ht="213" spans="5:17">
+    <row r="78" ht="243.6" spans="5:17">
       <c r="E78" t="s">
         <v>355</v>
       </c>
@@ -12731,7 +12729,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="79" ht="213" spans="5:17">
+    <row r="79" ht="243.6" spans="5:17">
       <c r="E79" t="s">
         <v>360</v>
       </c>
@@ -12766,7 +12764,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="80" ht="213" spans="5:17">
+    <row r="80" ht="243.6" spans="5:17">
       <c r="E80" t="s">
         <v>363</v>
       </c>
@@ -12801,7 +12799,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="81" ht="213" spans="5:17">
+    <row r="81" ht="243.6" spans="5:17">
       <c r="E81" t="s">
         <v>366</v>
       </c>
@@ -12836,7 +12834,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="82" ht="183" spans="5:17">
+    <row r="82" ht="208.8" spans="5:17">
       <c r="E82" t="s">
         <v>369</v>
       </c>
@@ -12871,7 +12869,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="83" ht="183" spans="5:17">
+    <row r="83" ht="208.8" spans="5:17">
       <c r="E83" t="s">
         <v>373</v>
       </c>
@@ -12906,7 +12904,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="84" ht="16" spans="5:17">
+    <row r="84" spans="5:17">
       <c r="E84" t="s">
         <v>376</v>
       </c>
@@ -13092,7 +13090,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="90" ht="46" spans="5:17">
+    <row r="90" ht="52.2" spans="5:17">
       <c r="E90" t="s">
         <v>392</v>
       </c>
@@ -13121,7 +13119,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="91" ht="46" spans="5:17">
+    <row r="91" ht="52.2" spans="5:17">
       <c r="E91" t="s">
         <v>395</v>
       </c>
@@ -13150,7 +13148,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="92" ht="46" spans="5:17">
+    <row r="92" ht="52.2" spans="5:17">
       <c r="E92" t="s">
         <v>398</v>
       </c>
@@ -13179,7 +13177,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="93" ht="31" spans="5:17">
+    <row r="93" ht="34.8" spans="5:17">
       <c r="E93" t="s">
         <v>401</v>
       </c>
@@ -13208,7 +13206,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="94" ht="16" spans="5:17">
+    <row r="94" spans="5:17">
       <c r="E94" t="s">
         <v>404</v>
       </c>
@@ -13237,7 +13235,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="95" ht="31" spans="5:17">
+    <row r="95" ht="34.8" spans="5:17">
       <c r="E95" t="s">
         <v>407</v>
       </c>
@@ -13266,7 +13264,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="96" ht="31" spans="5:17">
+    <row r="96" ht="52.2" spans="5:17">
       <c r="E96" t="s">
         <v>410</v>
       </c>
@@ -13324,7 +13322,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="98" ht="16" spans="5:17">
+    <row r="98" spans="5:17">
       <c r="E98" t="s">
         <v>415</v>
       </c>
@@ -13359,7 +13357,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="99" ht="76" spans="5:17">
+    <row r="99" ht="87" spans="5:17">
       <c r="E99" t="s">
         <v>417</v>
       </c>
@@ -13388,7 +13386,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="100" ht="61" spans="5:17">
+    <row r="100" ht="69.6" spans="5:17">
       <c r="E100" t="s">
         <v>420</v>
       </c>
@@ -13417,7 +13415,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="101" ht="46" spans="5:17">
+    <row r="101" ht="52.2" spans="5:17">
       <c r="E101" t="s">
         <v>423</v>
       </c>
@@ -13446,7 +13444,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="102" ht="61" spans="5:17">
+    <row r="102" ht="69.6" spans="5:17">
       <c r="E102" t="s">
         <v>426</v>
       </c>
@@ -13475,7 +13473,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="103" ht="61" spans="5:17">
+    <row r="103" ht="69.6" spans="5:17">
       <c r="E103" t="s">
         <v>429</v>
       </c>
@@ -23427,26 +23425,26 @@
   <sheetPr/>
   <dimension ref="A1:O204"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A88" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="F135" sqref="F135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="1" max="1" width="22.4210526315789" customWidth="1"/>
-    <col min="2" max="2" width="15.4210526315789" customWidth="1"/>
-    <col min="3" max="3" width="22.7105263157895" customWidth="1"/>
-    <col min="4" max="4" width="29.4210526315789" customWidth="1"/>
-    <col min="5" max="5" width="43.7105263157895" customWidth="1"/>
-    <col min="6" max="7" width="34.4210526315789" customWidth="1"/>
-    <col min="8" max="8" width="37.8486842105263" customWidth="1"/>
-    <col min="9" max="9" width="26.8486842105263" customWidth="1"/>
-    <col min="10" max="10" width="14.1381578947368" customWidth="1"/>
-    <col min="11" max="11" width="26.8486842105263" customWidth="1"/>
-    <col min="12" max="12" width="29.8486842105263" customWidth="1"/>
-    <col min="13" max="13" width="24.8486842105263" customWidth="1"/>
-    <col min="14" max="14" width="17.5723684210526" customWidth="1"/>
-    <col min="15" max="15" width="15.7105263157895" customWidth="1"/>
+    <col min="1" max="1" width="22.4236111111111" customWidth="1"/>
+    <col min="2" max="2" width="15.4236111111111" customWidth="1"/>
+    <col min="3" max="3" width="22.7083333333333" customWidth="1"/>
+    <col min="4" max="4" width="29.4236111111111" customWidth="1"/>
+    <col min="5" max="5" width="43.7083333333333" customWidth="1"/>
+    <col min="6" max="7" width="34.4236111111111" customWidth="1"/>
+    <col min="8" max="8" width="37.8472222222222" customWidth="1"/>
+    <col min="9" max="9" width="26.8472222222222" customWidth="1"/>
+    <col min="10" max="10" width="14.1388888888889" customWidth="1"/>
+    <col min="11" max="11" width="26.8472222222222" customWidth="1"/>
+    <col min="12" max="12" width="29.8472222222222" customWidth="1"/>
+    <col min="13" max="13" width="24.8472222222222" customWidth="1"/>
+    <col min="14" max="14" width="17.5694444444444" customWidth="1"/>
+    <col min="15" max="15" width="15.7083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -23463,7 +23461,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" ht="17" spans="5:8">
+    <row r="4" spans="5:8">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -24887,7 +24885,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="47" ht="16" spans="5:15">
+    <row r="47" spans="5:15">
       <c r="E47" t="s">
         <v>642</v>
       </c>
@@ -24922,7 +24920,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="48" ht="16" spans="5:15">
+    <row r="48" spans="5:15">
       <c r="E48" t="s">
         <v>645</v>
       </c>
@@ -24957,7 +24955,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="49" ht="16" spans="5:15">
+    <row r="49" spans="5:15">
       <c r="E49" t="s">
         <v>648</v>
       </c>
@@ -24992,7 +24990,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="50" ht="16" spans="5:15">
+    <row r="50" spans="5:15">
       <c r="E50" t="s">
         <v>651</v>
       </c>
@@ -25027,7 +25025,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="51" ht="16" spans="5:15">
+    <row r="51" spans="5:15">
       <c r="E51" t="s">
         <v>654</v>
       </c>
@@ -25062,7 +25060,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="52" ht="16" spans="5:15">
+    <row r="52" spans="5:15">
       <c r="E52" t="s">
         <v>657</v>
       </c>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -2245,9 +2245,7 @@
                               &lt;td align="center" vertical-align="middle" style="font-size:0px;padding:10px 25px;padding-top:60px;word-break:break-word;"&gt;
                                 &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="border-collapse:separate;width:212px;line-height:100%;"&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#5365EA;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
-                                      查看详情
-                                    &lt;/a&gt; &lt;/td&gt;
+                                    &lt;p align="center" bgcolor="#5365ea" role="presentation" style="border:none;border-radius:3px;width: 180px;margin:0 auto;cursor:auto;height:20px;padding:10px 25px;background:#5365ea;display: flex;justify-content: center;align-items: center;" valign="middle"&gt; &lt;a href="${link}"  style="background:#5365ea;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;查看详情&lt;/a&gt; &lt;/p&gt;
                                   &lt;/tr&gt;
                                 &lt;/tbody&gt;&lt;/table&gt;&lt;br&gt;
                               &lt;/td&gt;
@@ -2507,9 +2505,7 @@
                               &lt;td align="center" vertical-align="middle" style="font-size:0px;padding:10px 25px;padding-top:60px;word-break:break-word;"&gt;
                                 &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="border-collapse:separate;width:212px;line-height:100%;"&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#5365EA;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
-                                      查看详情
-                                    &lt;/a&gt; &lt;/td&gt;
+                                    &lt;p align="center" bgcolor="#5365ea" role="presentation" style="border:none;border-radius:3px;width: 180px;margin:0 auto;cursor:auto;height:20px;padding:10px 25px;background:#5365ea;display: flex;justify-content: center;align-items: center;" valign="middle"&gt; &lt;a href="${link}"  style="background:#5365ea;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;查看详情&lt;/a&gt; &lt;/p&gt;
                                   &lt;/tr&gt;
                                 &lt;/tbody&gt;&lt;/table&gt;&lt;br&gt;
                               &lt;/td&gt;
@@ -2764,7 +2760,7 @@
                               &lt;td align="center" vertical-align="middle" style="font-size:0px;padding:10px 25px;padding-top:60px;word-break:break-word;"&gt;
                                 &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="border-collapse:separate;width:212px;line-height:100%;"&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;p align="center" bgcolor="#5365ea" role="presentation" style="border:none;border-radius:3px;width: 180px;margin:0 auto;cursor:auto;margin-top: 15px;height:20px;padding:10px 25px;background:#5365ea;display: flex;justify-content: center;align-items: center;" valign="middle"&gt; &lt;a href="${link}"  style="background:#5365ea;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;查看详情&lt;/a&gt; &lt;/p&gt;
+                                    &lt;p align="center" bgcolor="#5365ea" role="presentation" style="border:none;border-radius:3px;width: 180px;margin:0 auto;cursor:auto;height:20px;padding:10px 25px;background:#5365ea;display: flex;justify-content: center;align-items: center;" valign="middle"&gt; &lt;a href="${link}"  style="background:#5365ea;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;查看详情&lt;/a&gt; &lt;/p&gt;
                                   &lt;/tr&gt;
                                 &lt;/tbody&gt;&lt;/table&gt;&lt;br&gt;
                               &lt;/td&gt;
@@ -3128,9 +3124,7 @@
                               &lt;td align="center" vertical-align="middle" style="font-size:0px;padding:10px 25px;padding-top:60px;word-break:break-word;"&gt;
                                 &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="border-collapse:separate;width:212px;line-height:100%;"&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#5365EA;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
-                                      查看详情
-                                    &lt;/a&gt; &lt;/td&gt;
+                                    &lt;p align="center" bgcolor="#5365ea" role="presentation" style="border:none;border-radius:3px;width: 180px;margin:0 auto;cursor:auto;height:20px;padding:10px 25px;background:#5365ea;display: flex;justify-content: center;align-items: center;" valign="middle"&gt; &lt;a href="${link}"  style="background:#5365ea;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;查看详情&lt;/a&gt; &lt;/p&gt;
                                   &lt;/tr&gt;
                                 &lt;/tbody&gt;&lt;/table&gt;&lt;br&gt;
                               &lt;/td&gt;
@@ -3452,9 +3446,7 @@
                               &lt;td align="center" vertical-align="middle" style="font-size:0px;padding:10px 25px;padding-top:60px;word-break:break-word;"&gt;
                                 &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="border-collapse:separate;width:212px;line-height:100%;"&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#5365EA;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
-                                      查看详情
-                                    &lt;/a&gt; &lt;/td&gt;
+                                    &lt;p align="center" bgcolor="#5365ea" role="presentation" style="border:none;border-radius:3px;width: 180px;margin:0 auto;cursor:auto;height:20px;padding:10px 25px;background:#5365ea;display: flex;justify-content: center;align-items: center;" valign="middle"&gt; &lt;a href="${link}"  style="background:#5365ea;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;查看详情&lt;/a&gt; &lt;/p&gt;
                                   &lt;/tr&gt;
                                 &lt;/tbody&gt;&lt;/table&gt;&lt;br&gt;
                               &lt;/td&gt;
@@ -4385,9 +4377,7 @@
                               &lt;td align="center" vertical-align="middle" style="font-size:0px;padding:10px 25px;padding-top:60px;word-break:break-word;"&gt;
                                 &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="border-collapse:separate;width:212px;line-height:100%;"&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#5365EA;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
-                                      查看详情
-                                    &lt;/a&gt; &lt;/td&gt;
+                                    &lt;p align="center" bgcolor="#5365ea" role="presentation" style="border:none;border-radius:3px;width: 180px;margin:0 auto;cursor:auto;height:20px;padding:10px 25px;background:#5365ea;display: flex;justify-content: center;align-items: center;" valign="middle"&gt; &lt;a href="${link}"  style="background:#5365ea;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;查看详情&lt;/a&gt; &lt;/p&gt;
                                   &lt;/tr&gt;
                                 &lt;/tbody&gt;&lt;/table&gt;&lt;br&gt;
                               &lt;/td&gt;
@@ -4892,9 +4882,7 @@
                               &lt;td align="center" vertical-align="middle" style="font-size:0px;padding:10px 25px;padding-top:60px;word-break:break-word;"&gt;
                                 &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="border-collapse:separate;width:212px;line-height:100%;"&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#5365EA;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
-                                      查看详情
-                                    &lt;/a&gt; &lt;/td&gt;
+                                    &lt;p align="center" bgcolor="#5365ea" role="presentation" style="border:none;border-radius:3px;width: 180px;margin:0 auto;cursor:auto;height:20px;padding:10px 25px;background:#5365ea;display: flex;justify-content: center;align-items: center;" valign="middle"&gt; &lt;a href="${link}"  style="background:#5365ea;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;查看详情&lt;/a&gt; &lt;/p&gt;
                                   &lt;/tr&gt;
                                 &lt;/tbody&gt;&lt;/table&gt;&lt;br&gt;
                               &lt;/td&gt;
@@ -5447,9 +5435,7 @@
                               &lt;td align="center" vertical-align="middle" style="font-size:0px;padding:10px 25px;padding-top:60px;word-break:break-word;"&gt;
                                 &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="border-collapse:separate;width:212px;line-height:100%;"&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#5365EA;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
-                                      查看详情
-                                    &lt;/a&gt; &lt;/td&gt;
+                                    &lt;p align="center" bgcolor="#5365ea" role="presentation" style="border:none;border-radius:3px;width: 180px;margin:0 auto;cursor:auto;height:20px;padding:10px 25px;background:#5365ea;display: flex;justify-content: center;align-items: center;" valign="middle"&gt; &lt;a href="${link}"  style="background:#5365ea;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;查看详情&lt;/a&gt; &lt;/p&gt;
                                   &lt;/tr&gt;
                                 &lt;/tbody&gt;&lt;/table&gt;&lt;br&gt;
                               &lt;/td&gt;
@@ -5717,9 +5703,7 @@
                               &lt;td align="center" vertical-align="middle" style="font-size:0px;padding:10px 25px;padding-top:60px;word-break:break-word;"&gt;
                                 &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="border-collapse:separate;width:212px;line-height:100%;"&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#5365EA;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
-                                      查看详情
-                                    &lt;/a&gt; &lt;/td&gt;
+                                    &lt;p align="center" bgcolor="#5365ea" role="presentation" style="border:none;border-radius:3px;width: 180px;margin:0 auto;cursor:auto;height:20px;padding:10px 25px;background:#5365ea;display: flex;justify-content: center;align-items: center;" valign="middle"&gt; &lt;a href="${link}"  style="background:#5365ea;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;查看详情&lt;/a&gt; &lt;/p&gt;
                                   &lt;/tr&gt;
                                 &lt;/tbody&gt;&lt;/table&gt;&lt;br&gt;
                               &lt;/td&gt;
@@ -5987,9 +5971,7 @@
                               &lt;td align="center" vertical-align="middle" style="font-size:0px;padding:10px 25px;padding-top:60px;word-break:break-word;"&gt;
                                 &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="border-collapse:separate;width:212px;line-height:100%;"&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#5365EA;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
-                                      查看详情
-                                    &lt;/a&gt; &lt;/td&gt;
+                                    &lt;p align="center" bgcolor="#5365ea" role="presentation" style="border:none;border-radius:3px;width: 180px;margin:0 auto;cursor:auto;height:20px;padding:10px 25px;background:#5365ea;display: flex;justify-content: center;align-items: center;" valign="middle"&gt; &lt;a href="${link}"  style="background:#5365ea;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;查看详情&lt;/a&gt; &lt;/p&gt;
                                   &lt;/tr&gt;
                                 &lt;/tbody&gt;&lt;/table&gt;&lt;br&gt;
                               &lt;/td&gt;
@@ -6265,9 +6247,7 @@
                               &lt;td align="center" vertical-align="middle" style="font-size:0px;padding:10px 25px;padding-top:60px;word-break:break-word;"&gt;
                                 &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="border-collapse:separate;width:212px;line-height:100%;"&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#5365EA;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
-                                      查看详情
-                                    &lt;/a&gt; &lt;/td&gt;
+                                    &lt;p align="center" bgcolor="#5365ea" role="presentation" style="border:none;border-radius:3px;width: 180px;margin:0 auto;cursor:auto;height:20px;padding:10px 25px;background:#5365ea;display: flex;justify-content: center;align-items: center;" valign="middle"&gt; &lt;a href="${link}"  style="background:#5365ea;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;查看详情&lt;/a&gt; &lt;/p&gt;
                                   &lt;/tr&gt;
                                 &lt;/tbody&gt;&lt;/table&gt;&lt;br&gt;
                               &lt;/td&gt;
@@ -6791,9 +6771,7 @@
                               &lt;td align="center" vertical-align="middle" style="font-size:0px;padding:10px 25px;padding-top:60px;word-break:break-word;"&gt;
                                 &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="border-collapse:separate;width:212px;line-height:100%;"&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#5365EA;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
-                                      查看详情
-                                    &lt;/a&gt; &lt;/td&gt;
+                                    &lt;p align="center" bgcolor="#5365ea" role="presentation" style="border:none;border-radius:3px;width: 180px;margin:0 auto;cursor:auto;height:20px;padding:10px 25px;background:#5365ea;display: flex;justify-content: center;align-items: center;" valign="middle"&gt; &lt;a href="${link}"  style="background:#5365ea;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;查看详情&lt;/a&gt; &lt;/p&gt;
                                   &lt;/tr&gt;
                                 &lt;/tbody&gt;&lt;/table&gt;&lt;br&gt;
                               &lt;/td&gt;
@@ -7179,9 +7157,7 @@
                               &lt;td align="center" vertical-align="middle" style="font-size:0px;padding:10px 25px;padding-top:60px;word-break:break-word;"&gt;
                                 &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="border-collapse:separate;width:212px;line-height:100%;"&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#5365EA;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
-                                      查看详情
-                                    &lt;/a&gt; &lt;/td&gt;
+                                    &lt;p align="center" bgcolor="#5365ea" role="presentation" style="border:none;border-radius:3px;width: 180px;margin:0 auto;cursor:auto;height:20px;padding:10px 25px;background:#5365ea;display: flex;justify-content: center;align-items: center;" valign="middle"&gt; &lt;a href="${link}"  style="background:#5365ea;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;查看详情&lt;/a&gt; &lt;/p&gt;
                                   &lt;/tr&gt;
                                 &lt;/tbody&gt;&lt;/table&gt;&lt;br&gt;
                               &lt;/td&gt;
@@ -10404,8 +10380,8 @@
   <sheetPr/>
   <dimension ref="A1:Q658"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="F14" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="F16" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -2255,7 +2255,7 @@
                       &lt;/div&gt;
                         &lt;br&gt;
                       &lt;/div&gt;
-                      &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
+                      &lt;div style="background: rgb(255, 255, 255);color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
                         &lt;div style="text-align: justify;"&gt;
                           &lt;table style="height: 148px;width: 100%;"&gt;
                             &lt;tbody&gt;&lt;tr&gt;
@@ -2312,7 +2312,7 @@
                           &lt;/tbody&gt;&lt;/table&gt;
                         &lt;/div&gt;
                       &lt;/div&gt;
-                      &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;width: 782px;height: 34px;"&gt;
+                      &lt;div style="background: rgb(255, 255, 255);color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;width: 782px;height: 34px;"&gt;
                         &lt;p style="
       opacity: 0.8;
       font-size: 10px;
@@ -2515,7 +2515,7 @@
                       &lt;/div&gt;
                         &lt;br&gt;
                       &lt;/div&gt;
-                      &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
+                      &lt;div style="background: rgb(255, 255, 255);color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
                         &lt;div style="text-align: justify;"&gt;
                           &lt;table style="height: 148px;width: 100%;"&gt;
                             &lt;tbody&gt;&lt;tr&gt;
@@ -2572,7 +2572,7 @@
                           &lt;/tbody&gt;&lt;/table&gt;
                         &lt;/div&gt;
                       &lt;/div&gt;
-                      &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;width: 782px;height: 34px;"&gt;
+                      &lt;div style="background: rgb(255, 255, 255);color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;width: 782px;height: 34px;"&gt;
                         &lt;p style="
       opacity: 0.8;
       font-size: 10px;
@@ -2770,7 +2770,7 @@
                       &lt;/div&gt;
                         &lt;br&gt;
                       &lt;/div&gt;
-                      &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
+                      &lt;div style="background: rgb(255, 255, 255);color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
                         &lt;div style="text-align: justify;"&gt;
                           &lt;table style="height: 148px;width: 100%;"&gt;
                             &lt;tbody&gt;&lt;tr&gt;
@@ -2827,7 +2827,7 @@
                           &lt;/tbody&gt;&lt;/table&gt;
                         &lt;/div&gt;
                       &lt;/div&gt;
-                      &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;width: 782px;height: 34px;"&gt;
+                      &lt;div style="background: rgb(255, 255, 255);color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;width: 782px;height: 34px;"&gt;
                         &lt;p style="
       opacity: 0.8;
       font-size: 10px;
@@ -3133,7 +3133,7 @@
                         &lt;/div&gt;
                         &lt;br&gt;
                       &lt;/div&gt;
-                      &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
+                      &lt;div style="background: rgb(255, 255, 255);color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
                         &lt;div style="text-align: justify;"&gt;
                           &lt;table style="height: 148px;width: 100%;"&gt;
                             &lt;tbody&gt;&lt;tr&gt;
@@ -3190,7 +3190,7 @@
                           &lt;/tbody&gt;&lt;/table&gt;
                         &lt;/div&gt;
                       &lt;/div&gt;
-                      &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;width: 782px;height: 34px;"&gt;
+                      &lt;div style="background: rgb(255, 255, 255);color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;width: 782px;height: 34px;"&gt;
                         &lt;p style="
       opacity: 0.8;
       font-size: 10px;
@@ -3456,7 +3456,7 @@
                       &lt;/div&gt;
                         &lt;br&gt;
                       &lt;/div&gt;
-                      &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
+                      &lt;div style="background: rgb(255, 255, 255);color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
                         &lt;div style="text-align: justify;"&gt;
                           &lt;table style="height: 148px;width: 100%;"&gt;
                             &lt;tbody&gt;&lt;tr&gt;
@@ -3513,7 +3513,7 @@
                           &lt;/tbody&gt;&lt;/table&gt;
                         &lt;/div&gt;
                       &lt;/div&gt;
-                      &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;width: 782px;height: 34px;"&gt;
+                      &lt;div style="background: rgb(255, 255, 255);color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;width: 782px;height: 34px;"&gt;
                         &lt;p style="
       opacity: 0.8;
       font-size: 10px;
@@ -3726,7 +3726,7 @@
                         &lt;/div&gt;
                         &lt;br&gt;
                       &lt;/div&gt;
-                      &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
+                      &lt;div style="background: rgb(255, 255, 255);color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
                         &lt;div style="text-align: justify;"&gt;
                           &lt;table style="height: 148px;width: 100%;"&gt;
                             &lt;tbody&gt;&lt;tr&gt;
@@ -3783,7 +3783,7 @@
                           &lt;/tbody&gt;&lt;/table&gt;
                         &lt;/div&gt;
                       &lt;/div&gt;
-                      &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;width: 782px;height: 34px;"&gt;
+                      &lt;div style="background: rgb(255, 255, 255);color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;width: 782px;height: 34px;"&gt;
                         &lt;p style="
       opacity: 0.8;
       font-size: 10px;
@@ -3984,7 +3984,7 @@
                         &lt;/div&gt;
                         &lt;br&gt;
                       &lt;/div&gt;
-                      &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
+                      &lt;div style="background: rgb(255, 255, 255);color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
                         &lt;div style="text-align: justify;"&gt;
                           &lt;table style="height: 148px;width: 100%;"&gt;
                             &lt;tbody&gt;&lt;tr&gt;
@@ -4041,7 +4041,7 @@
                           &lt;/tbody&gt;&lt;/table&gt;
                         &lt;/div&gt;
                       &lt;/div&gt;
-                      &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;width: 782px;height: 34px;"&gt;
+                      &lt;div style="background: rgb(255, 255, 255);color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;width: 782px;height: 34px;"&gt;
                         &lt;p style="
       opacity: 0.8;
       font-size: 10px;
@@ -4387,7 +4387,7 @@
                       &lt;/div&gt;
                         &lt;br&gt;
                       &lt;/div&gt;
-                      &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
+                      &lt;div style="background: rgb(255, 255, 255);color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
                         &lt;div style="text-align: justify;"&gt;
                           &lt;table style="height: 148px;width: 100%;"&gt;
                             &lt;tbody&gt;&lt;tr&gt;
@@ -4444,7 +4444,7 @@
                           &lt;/tbody&gt;&lt;/table&gt;
                         &lt;/div&gt;
                       &lt;/div&gt;
-                      &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;width: 782px;height: 34px;"&gt;
+                      &lt;div style="background: rgb(255, 255, 255);color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;width: 782px;height: 34px;"&gt;
                         &lt;p style="
       opacity: 0.8;
       font-size: 10px;
@@ -4638,7 +4638,7 @@
                         &lt;/div&gt;
                         &lt;br&gt;
                       &lt;/div&gt;
-                      &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
+                      &lt;div style="background: rgb(255, 255, 255);color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
                         &lt;div style="text-align: justify;"&gt;
                           &lt;table style="height: 148px;width: 100%;"&gt;
                             &lt;tbody&gt;&lt;tr&gt;
@@ -4695,7 +4695,7 @@
                           &lt;/tbody&gt;&lt;/table&gt;
                         &lt;/div&gt;
                       &lt;/div&gt;
-                      &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;width: 782px;height: 34px;"&gt;
+                      &lt;div style="background: rgb(255, 255, 255);color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;width: 782px;height: 34px;"&gt;
                         &lt;p style="
       opacity: 0.8;
       font-size: 10px;
@@ -4892,7 +4892,7 @@
                       &lt;/div&gt;
                         &lt;br&gt;
                       &lt;/div&gt;
-                      &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
+                      &lt;div style="background: rgb(255, 255, 255);color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
                         &lt;div style="text-align: justify;"&gt;
                           &lt;table style="height: 148px;width: 100%;"&gt;
                             &lt;tbody&gt;&lt;tr&gt;
@@ -4949,7 +4949,7 @@
                           &lt;/tbody&gt;&lt;/table&gt;
                         &lt;/div&gt;
                       &lt;/div&gt;
-                      &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;width: 782px;height: 34px;"&gt;
+                      &lt;div style="background: rgb(255, 255, 255);color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;width: 782px;height: 34px;"&gt;
                         &lt;p style="
       opacity: 0.8;
       font-size: 10px;
@@ -5160,7 +5160,7 @@
                         &lt;/div&gt;
                         &lt;br&gt;
                       &lt;/div&gt;
-                      &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
+                      &lt;div style="background: rgb(255, 255, 255);color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
                         &lt;div style="text-align: justify;"&gt;
                           &lt;table style="height: 148px;width: 100%;"&gt;
                             &lt;tbody&gt;&lt;tr&gt;
@@ -5217,7 +5217,7 @@
                           &lt;/tbody&gt;&lt;/table&gt;
                         &lt;/div&gt;
                       &lt;/div&gt;
-                      &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;width: 782px;height: 34px;"&gt;
+                      &lt;div style="background: rgb(255, 255, 255);color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;width: 782px;height: 34px;"&gt;
                         &lt;p style="
       opacity: 0.8;
       font-size: 10px;
@@ -5445,7 +5445,7 @@
                       &lt;/div&gt;
                         &lt;br&gt;
                       &lt;/div&gt;
-                      &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
+                      &lt;div style="background: rgb(255, 255, 255);color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
                         &lt;div style="text-align: justify;"&gt;
                           &lt;table style="height: 148px;width: 100%;"&gt;
                             &lt;tbody&gt;&lt;tr&gt;
@@ -5502,7 +5502,7 @@
                           &lt;/tbody&gt;&lt;/table&gt;
                         &lt;/div&gt;
                       &lt;/div&gt;
-                      &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;width: 782px;height: 34px;"&gt;
+                      &lt;div style="background: rgb(255, 255, 255);color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;width: 782px;height: 34px;"&gt;
                         &lt;p style="
       opacity: 0.8;
       font-size: 10px;
@@ -5712,7 +5712,7 @@
                         &lt;/div&gt;
                         &lt;br&gt;
                       &lt;/div&gt;
-                      &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
+                      &lt;div style="background: rgb(255, 255, 255);color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
                         &lt;div style="text-align: justify;"&gt;
                           &lt;table style="height: 148px;width: 100%;"&gt;
                             &lt;tbody&gt;&lt;tr&gt;
@@ -5769,7 +5769,7 @@
                           &lt;/tbody&gt;&lt;/table&gt;
                         &lt;/div&gt;
                       &lt;/div&gt;
-                      &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;width: 782px;height: 34px;"&gt;
+                      &lt;div style="background: rgb(255, 255, 255);color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;width: 782px;height: 34px;"&gt;
                         &lt;p style="
       opacity: 0.8;
       font-size: 10px;
@@ -5980,7 +5980,7 @@
                         &lt;/div&gt;
                         &lt;br&gt;
                       &lt;/div&gt;
-                      &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
+                      &lt;div style="background: rgb(255, 255, 255);color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
                         &lt;div style="text-align: justify;"&gt;
                           &lt;table style="height: 148px;width: 100%;"&gt;
                             &lt;tbody&gt;&lt;tr&gt;
@@ -6037,7 +6037,7 @@
                           &lt;/tbody&gt;&lt;/table&gt;
                         &lt;/div&gt;
                       &lt;/div&gt;
-                      &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;width: 782px;height: 34px;"&gt;
+                      &lt;div style="background: rgb(255, 255, 255);color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;width: 782px;height: 34px;"&gt;
                         &lt;p style="
       opacity: 0.8;
       font-size: 10px;
@@ -6256,7 +6256,7 @@
                         &lt;/div&gt;
                         &lt;br&gt;
                       &lt;/div&gt;
-                      &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
+                      &lt;div style="background: rgb(255, 255, 255);color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
                         &lt;div style="text-align: justify;"&gt;
                           &lt;table style="height: 148px;width: 100%;"&gt;
                             &lt;tbody&gt;&lt;tr&gt;
@@ -6313,7 +6313,7 @@
                           &lt;/tbody&gt;&lt;/table&gt;
                         &lt;/div&gt;
                       &lt;/div&gt;
-                      &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;width: 782px;height: 34px;"&gt;
+                      &lt;div style="background: rgb(255, 255, 255);color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;width: 782px;height: 34px;"&gt;
                         &lt;p style="
       opacity: 0.8;
       font-size: 10px;
@@ -6501,7 +6501,7 @@
                         &lt;/div&gt;
                         &lt;br&gt;
                       &lt;/div&gt;
-                      &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
+                      &lt;div style="background: rgb(255, 255, 255);color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
                         &lt;div style="text-align: justify;"&gt;
                           &lt;table style="height: 148px;width: 100%;"&gt;
                             &lt;tbody&gt;&lt;tr&gt;
@@ -6558,7 +6558,7 @@
                           &lt;/tbody&gt;&lt;/table&gt;
                         &lt;/div&gt;
                       &lt;/div&gt;
-                      &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;width: 782px;height: 34px;"&gt;
+                      &lt;div style="background: rgb(255, 255, 255);color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;width: 782px;height: 34px;"&gt;
                         &lt;p style="
       opacity: 0.8;
       font-size: 10px;
@@ -6780,7 +6780,7 @@
                         &lt;/div&gt;
                         &lt;br&gt;
                       &lt;/div&gt;
-                      &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
+                      &lt;div style="background: rgb(255, 255, 255);color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
                         &lt;div style="text-align: justify;"&gt;
                           &lt;table style="height: 148px;width: 100%;"&gt;
                             &lt;tbody&gt;&lt;tr&gt;
@@ -6837,7 +6837,7 @@
                           &lt;/tbody&gt;&lt;/table&gt;
                         &lt;/div&gt;
                       &lt;/div&gt;
-                      &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;width: 782px;height: 34px;"&gt;
+                      &lt;div style="background: rgb(255, 255, 255);color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;width: 782px;height: 34px;"&gt;
                         &lt;p style="
       opacity: 0.8;
       font-size: 10px;
@@ -7165,7 +7165,7 @@
                           &lt;/tbody&gt;&lt;/table&gt;
                         &lt;/div&gt;
                       &lt;/div&gt;
-                      &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
+                      &lt;div style="background: rgb(255, 255, 255);color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
                         &lt;div style="text-align: justify;"&gt;
                           &lt;table style="height: 148px;width: 100%;"&gt;
                             &lt;tbody&gt;&lt;tr&gt;
@@ -7222,7 +7222,7 @@
                           &lt;/tbody&gt;&lt;/table&gt;
                         &lt;/div&gt;
                       &lt;/div&gt;
-                      &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;width: 782px;height: 34px;"&gt;
+                      &lt;div style="background: rgb(255, 255, 255);color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;width: 782px;height: 34px;"&gt;
                         &lt;p style="
       opacity: 0.8;
       font-size: 10px;
@@ -9492,7 +9492,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9505,6 +9505,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -9969,8 +9972,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5694444444444" style="12" customWidth="1"/>
-    <col min="2" max="2" width="10.2847222222222" style="13" customWidth="1"/>
+    <col min="1" max="1" width="15.5694444444444" style="13" customWidth="1"/>
+    <col min="2" max="2" width="10.2847222222222" style="14" customWidth="1"/>
     <col min="3" max="3" width="28.1388888888889" customWidth="1"/>
     <col min="4" max="4" width="35.2847222222222" style="8" customWidth="1"/>
     <col min="5" max="5" width="38.5694444444444" customWidth="1"/>
@@ -9986,79 +9989,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="14"/>
-      <c r="C1" s="15" t="s">
+      <c r="A1" s="15"/>
+      <c r="C1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="17"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="3:7">
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="14"/>
+      <c r="A5" s="15"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="29"/>
+      <c r="E8" s="30"/>
     </row>
     <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="33" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -10066,56 +10069,56 @@
       </c>
     </row>
     <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="33" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="33" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="35" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="27"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
     </row>
     <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="38" t="s">
         <v>28</v>
       </c>
     </row>
@@ -10125,30 +10128,30 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="18" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="40" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="8" t="s">
@@ -10156,7 +10159,7 @@
       </c>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="40" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -10164,25 +10167,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="18"/>
+      <c r="E25" s="19"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="18"/>
+      <c r="E26" s="19"/>
     </row>
     <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="42" t="s">
         <v>43</v>
       </c>
     </row>
@@ -10380,8 +10383,8 @@
   <sheetPr/>
   <dimension ref="A1:Q658"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="F16" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -10619,7 +10622,7 @@
       <c r="H12" t="s">
         <v>122</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="11" t="s">
         <v>123</v>
       </c>
       <c r="N12" t="s">
@@ -10648,7 +10651,7 @@
       <c r="H13" t="s">
         <v>126</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="11" t="s">
         <v>127</v>
       </c>
       <c r="N13" t="s">
@@ -10706,7 +10709,7 @@
       <c r="H15" t="s">
         <v>118</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="11" t="s">
         <v>133</v>
       </c>
       <c r="N15" t="s">
@@ -11079,7 +11082,7 @@
       <c r="H26" t="s">
         <v>118</v>
       </c>
-      <c r="I26" s="10" t="s">
+      <c r="I26" s="11" t="s">
         <v>176</v>
       </c>
       <c r="N26" t="s">
@@ -11312,7 +11315,7 @@
       <c r="H33" t="s">
         <v>201</v>
       </c>
-      <c r="I33" s="10" t="s">
+      <c r="I33" s="11" t="s">
         <v>202</v>
       </c>
       <c r="N33" t="s">
@@ -11341,7 +11344,7 @@
       <c r="H34" t="s">
         <v>118</v>
       </c>
-      <c r="I34" s="10" t="s">
+      <c r="I34" s="11" t="s">
         <v>205</v>
       </c>
       <c r="N34" t="s">
@@ -11469,7 +11472,7 @@
       <c r="H38" t="s">
         <v>217</v>
       </c>
-      <c r="I38" s="10" t="s">
+      <c r="I38" s="11" t="s">
         <v>218</v>
       </c>
       <c r="N38" t="s">
@@ -11498,7 +11501,7 @@
       <c r="H39" t="s">
         <v>118</v>
       </c>
-      <c r="I39" s="10" t="s">
+      <c r="I39" s="11" t="s">
         <v>221</v>
       </c>
       <c r="N39" t="s">
@@ -11626,7 +11629,7 @@
       <c r="H43" t="s">
         <v>118</v>
       </c>
-      <c r="I43" s="10" t="s">
+      <c r="I43" s="11" t="s">
         <v>233</v>
       </c>
       <c r="N43" t="s">
@@ -11713,7 +11716,7 @@
       <c r="H46" t="s">
         <v>118</v>
       </c>
-      <c r="I46" s="10" t="s">
+      <c r="I46" s="11" t="s">
         <v>244</v>
       </c>
       <c r="N46" t="s">
@@ -11800,7 +11803,7 @@
       <c r="H49" t="s">
         <v>126</v>
       </c>
-      <c r="I49" s="10" t="s">
+      <c r="I49" s="11" t="s">
         <v>254</v>
       </c>
       <c r="N49" t="s">
@@ -11858,7 +11861,7 @@
       <c r="H51" t="s">
         <v>126</v>
       </c>
-      <c r="I51" s="10" t="s">
+      <c r="I51" s="11" t="s">
         <v>260</v>
       </c>
       <c r="N51" t="s">
@@ -11945,7 +11948,7 @@
       <c r="H54" t="s">
         <v>118</v>
       </c>
-      <c r="I54" s="10" t="s">
+      <c r="I54" s="11" t="s">
         <v>270</v>
       </c>
       <c r="N54" t="s">
@@ -12067,7 +12070,7 @@
       <c r="H58" t="s">
         <v>118</v>
       </c>
-      <c r="I58" s="10" t="s">
+      <c r="I58" s="11" t="s">
         <v>286</v>
       </c>
       <c r="N58" t="s">
@@ -12160,7 +12163,7 @@
       <c r="H61" t="s">
         <v>118</v>
       </c>
-      <c r="I61" s="10" t="s">
+      <c r="I61" s="11" t="s">
         <v>296</v>
       </c>
       <c r="N61" t="s">
@@ -12253,7 +12256,7 @@
       <c r="H64" t="s">
         <v>118</v>
       </c>
-      <c r="I64" s="10" t="s">
+      <c r="I64" s="11" t="s">
         <v>306</v>
       </c>
       <c r="N64" t="s">
@@ -12346,7 +12349,7 @@
       <c r="H67" t="s">
         <v>315</v>
       </c>
-      <c r="I67" s="10" t="s">
+      <c r="I67" s="11" t="s">
         <v>316</v>
       </c>
       <c r="N67" t="s">
@@ -12375,7 +12378,7 @@
       <c r="H68" t="s">
         <v>118</v>
       </c>
-      <c r="I68" s="10" t="s">
+      <c r="I68" s="11" t="s">
         <v>319</v>
       </c>
       <c r="N68" t="s">
@@ -12433,7 +12436,7 @@
       <c r="H70" t="s">
         <v>325</v>
       </c>
-      <c r="I70" s="10" t="s">
+      <c r="I70" s="11" t="s">
         <v>326</v>
       </c>
       <c r="N70" t="s">
@@ -12555,7 +12558,7 @@
       <c r="H74" t="s">
         <v>118</v>
       </c>
-      <c r="I74" s="10" t="s">
+      <c r="I74" s="11" t="s">
         <v>341</v>
       </c>
       <c r="N74" t="s">
@@ -12636,7 +12639,7 @@
       </c>
     </row>
     <row r="77" ht="87" spans="5:17">
-      <c r="E77" s="11" t="s">
+      <c r="E77" s="12" t="s">
         <v>350</v>
       </c>
       <c r="F77" s="8" t="s">
@@ -12893,7 +12896,7 @@
       <c r="H84" t="s">
         <v>378</v>
       </c>
-      <c r="I84" s="10" t="s">
+      <c r="I84" s="11" t="s">
         <v>379</v>
       </c>
       <c r="J84" t="s">
@@ -12928,7 +12931,7 @@
       <c r="H85" t="s">
         <v>378</v>
       </c>
-      <c r="I85" s="10" t="s">
+      <c r="I85" s="11" t="s">
         <v>382</v>
       </c>
       <c r="J85" t="s">
@@ -13079,7 +13082,7 @@
       <c r="H90" t="s">
         <v>122</v>
       </c>
-      <c r="I90" s="10" t="s">
+      <c r="I90" s="11" t="s">
         <v>394</v>
       </c>
       <c r="N90" t="s">
@@ -13108,7 +13111,7 @@
       <c r="H91" t="s">
         <v>201</v>
       </c>
-      <c r="I91" s="10" t="s">
+      <c r="I91" s="11" t="s">
         <v>397</v>
       </c>
       <c r="N91" t="s">
@@ -13311,7 +13314,7 @@
       <c r="H98" t="s">
         <v>378</v>
       </c>
-      <c r="I98" s="10" t="s">
+      <c r="I98" s="11" t="s">
         <v>379</v>
       </c>
       <c r="J98" t="s">

--- a/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="24160" tabRatio="597" activeTab="2"/>
+    <workbookView windowWidth="21743" windowHeight="10020" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4235" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4235" uniqueCount="822">
   <si>
     <r>
       <rPr>
@@ -2938,7 +2938,7 @@
     <t>创建环境失败Json</t>
   </si>
   <si>
-    <t>{"objectKind":"${objectKind}","createdAt":"${createdAt}","eventName":"${eventName}","user":{"loginName":"${loginName}","userName":"${userName}"},"objectAttributes":{"organizationId":"${organizationId}","msg":"${msg}","envCode":"${envCode}","envName":"${envName}","clusterId":"${clusterId}","enveId":"${enveId}"}}</t>
+    <t>{"objectKind":"${objectKind}","createdAt":"${createdAt}","eventName":"${eventName}","user":{"loginName":"${loginName}","userName":"${userName}"},"objectAttributes":{"organizationId":"${organizationId}","msg":"${msg}","envCode":"${envCode}","envName":"${envName}","clusterId":"${clusterId}","envId":"${envId}"}}</t>
   </si>
   <si>
     <t>env-notice</t>
@@ -2953,7 +2953,7 @@
     <t>创建环境Json</t>
   </si>
   <si>
-    <t>{"objectKind":"${objectKind}","createdAt":"${createdAt}","eventName":"${eventName}","user":{"loginName":"${loginName}","userName":"${userName}"},"objectAttributes":{"organizationId":"${organizationId}","envCode":"${envCode}","envName":"${envName}","clusterId":"${clusterId}","enveId":"${enveId}"}}</t>
+    <t>{"objectKind":"${objectKind}","createdAt":"${createdAt}","eventName":"${eventName}","user":{"loginName":"${loginName}","userName":"${userName}"},"objectAttributes":{"organizationId":"${organizationId}","envCode":"${envCode}","envName":"${envName}","clusterId":"${clusterId}","envId":"${envId}"}}</t>
   </si>
   <si>
     <t>hmsg_message_template-32</t>
@@ -6918,7 +6918,7 @@
     <t>环境权限分配Json</t>
   </si>
   <si>
-    <t>{"objectKind":"${objectKind}","createdAt":"${createdAt}","eventName":"${eventName}","user":{"loginName":"${loginName}","userName":"${userName}"},"objectAttributes":{"organizationId":"${organizationId}","envCode":"${envCode}","envName":"${envName}","clusterId":"${clusterId}","enveId":"${enveId}","users":"${users}"}}</t>
+    <t>{"objectKind":"${objectKind}","createdAt":"${createdAt}","eventName":"${eventName}","user":{"loginName":"${loginName}","userName":"${userName}"},"objectAttributes":{"organizationId":"${organizationId}","envCode":"${envCode}","envName":"${envName}","clusterId":"${clusterId}","envId":"${envId}","users":"${users}"}}</t>
   </si>
   <si>
     <t>hmsg_message_template-155</t>
@@ -7520,13 +7520,10 @@
     <t>envCode</t>
   </si>
   <si>
-    <t>enveId</t>
+    <t>envId</t>
   </si>
   <si>
     <t>envName</t>
-  </si>
-  <si>
-    <t>envId</t>
   </si>
   <si>
     <t>k8sKind</t>
@@ -8653,10 +8650,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -8723,12 +8720,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -8746,15 +8737,35 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8769,6 +8780,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -8776,15 +8795,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -8798,23 +8810,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -8838,6 +8834,30 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
@@ -8846,7 +8866,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8861,37 +8889,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8985,19 +8982,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9009,43 +9012,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9063,7 +9048,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9075,31 +9126,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9111,61 +9150,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9182,28 +9179,12 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -9228,12 +9209,21 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -9242,13 +9232,11 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -9263,6 +9251,15 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -9272,20 +9269,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9305,17 +9299,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9338,8 +9350,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9354,169 +9366,154 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -9545,112 +9542,112 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
@@ -9993,22 +9990,22 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5723684210526" style="12" customWidth="1"/>
-    <col min="2" max="2" width="10.2828947368421" style="13" customWidth="1"/>
-    <col min="3" max="3" width="28.1381578947368" customWidth="1"/>
-    <col min="4" max="4" width="35.2828947368421" style="8" customWidth="1"/>
-    <col min="5" max="5" width="38.5723684210526" customWidth="1"/>
-    <col min="6" max="6" width="23.4210526315789" customWidth="1"/>
-    <col min="7" max="7" width="21.5723684210526" customWidth="1"/>
+    <col min="1" max="1" width="15.5694444444444" style="12" customWidth="1"/>
+    <col min="2" max="2" width="10.2847222222222" style="13" customWidth="1"/>
+    <col min="3" max="3" width="28.1388888888889" customWidth="1"/>
+    <col min="4" max="4" width="35.2847222222222" style="8" customWidth="1"/>
+    <col min="5" max="5" width="38.5694444444444" customWidth="1"/>
+    <col min="6" max="6" width="23.4236111111111" customWidth="1"/>
+    <col min="7" max="7" width="21.5694444444444" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5723684210526" customWidth="1"/>
+    <col min="9" max="9" width="24.5694444444444" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1381578947368" customWidth="1"/>
-    <col min="12" max="12" width="18.5723684210526" customWidth="1"/>
-    <col min="13" max="13" width="13.1381578947368" customWidth="1"/>
-    <col min="14" max="1025" width="10.2828947368421" customWidth="1"/>
+    <col min="11" max="11" width="19.1388888888889" customWidth="1"/>
+    <col min="12" max="12" width="18.5694444444444" customWidth="1"/>
+    <col min="13" max="13" width="13.1388888888889" customWidth="1"/>
+    <col min="14" max="1025" width="10.2847222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
@@ -10018,130 +10015,130 @@
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="29"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="33" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-    </row>
-    <row r="4" ht="16" spans="3:7">
-      <c r="C4" s="17" t="s">
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="34" t="s">
+      <c r="D4" s="20"/>
+      <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="16" spans="1:3">
+    <row r="5" spans="1:3">
       <c r="A5" s="14"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="38"/>
-    </row>
-    <row r="9" ht="46" spans="3:6">
-      <c r="C9" s="22" t="s">
+      <c r="E8" s="29"/>
+    </row>
+    <row r="9" ht="52.2" spans="3:6">
+      <c r="C9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="32" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="46" spans="3:5">
-      <c r="C10" s="24" t="s">
+    <row r="10" ht="52.2" spans="3:5">
+      <c r="C10" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="32" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="61" spans="3:5">
-      <c r="C11" s="20" t="s">
+    <row r="11" ht="69.6" spans="3:5">
+      <c r="C11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="32" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" ht="16" spans="3:5">
-      <c r="C12" s="20" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="34" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="38"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="38"/>
-    </row>
-    <row r="15" ht="31" spans="3:5">
-      <c r="C15" s="25" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
+    </row>
+    <row r="15" ht="34.8" spans="3:5">
+      <c r="C15" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="37" t="s">
         <v>28</v>
       </c>
     </row>
@@ -10150,39 +10147,39 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" ht="16" spans="3:5">
-      <c r="C19" s="27" t="s">
+    <row r="19" spans="3:5">
+      <c r="C19" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-    </row>
-    <row r="20" ht="16" spans="3:4">
-      <c r="C20" s="28" t="s">
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="16" spans="3:4">
-      <c r="C21" s="28" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="16" spans="3:4">
-      <c r="C22" s="28" t="s">
+    <row r="22" spans="3:4">
+      <c r="C22" s="39" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="16" spans="3:4">
-      <c r="C23" s="28" t="s">
+    <row r="23" spans="3:4">
+      <c r="C23" s="39" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -10190,25 +10187,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="16"/>
+      <c r="E25" s="18"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="16"/>
-    </row>
-    <row r="27" ht="31" spans="3:3">
-      <c r="C27" s="31" t="s">
+      <c r="E26" s="18"/>
+    </row>
+    <row r="27" ht="52.2" spans="3:3">
+      <c r="C27" s="41" t="s">
         <v>43</v>
       </c>
     </row>
@@ -10237,11 +10234,11 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.4"/>
   <cols>
-    <col min="5" max="5" width="23.2828947368421" customWidth="1"/>
-    <col min="6" max="6" width="21.2828947368421" customWidth="1"/>
-    <col min="8" max="8" width="14.7105263157895" customWidth="1"/>
+    <col min="5" max="5" width="23.2847222222222" customWidth="1"/>
+    <col min="6" max="6" width="21.2847222222222" customWidth="1"/>
+    <col min="8" max="8" width="14.7083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10406,24 +10403,24 @@
   <sheetPr/>
   <dimension ref="A1:Q658"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="I96" sqref="I96"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="F21" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="4" max="4" width="22.5723684210526" customWidth="1"/>
-    <col min="5" max="5" width="26.2828947368421" customWidth="1"/>
-    <col min="6" max="6" width="44.8486842105263" customWidth="1"/>
-    <col min="7" max="7" width="29.4210526315789" customWidth="1"/>
-    <col min="8" max="8" width="24.2828947368421" customWidth="1"/>
-    <col min="9" max="9" width="92.8486842105263" customWidth="1"/>
-    <col min="10" max="10" width="29.2828947368421" customWidth="1"/>
-    <col min="11" max="11" width="32.1381578947368" customWidth="1"/>
-    <col min="13" max="13" width="33.1381578947368" customWidth="1"/>
-    <col min="14" max="14" width="23.4210526315789" customWidth="1"/>
-    <col min="15" max="15" width="29.4210526315789" customWidth="1"/>
-    <col min="16" max="16" width="29.8486842105263" customWidth="1"/>
+    <col min="4" max="4" width="22.5694444444444" customWidth="1"/>
+    <col min="5" max="5" width="26.2847222222222" customWidth="1"/>
+    <col min="6" max="6" width="44.8472222222222" customWidth="1"/>
+    <col min="7" max="7" width="29.4236111111111" customWidth="1"/>
+    <col min="8" max="8" width="24.2847222222222" customWidth="1"/>
+    <col min="9" max="9" width="92.8472222222222" customWidth="1"/>
+    <col min="10" max="10" width="29.2847222222222" customWidth="1"/>
+    <col min="11" max="11" width="32.1388888888889" customWidth="1"/>
+    <col min="13" max="13" width="33.1388888888889" customWidth="1"/>
+    <col min="14" max="14" width="23.4236111111111" customWidth="1"/>
+    <col min="15" max="15" width="29.4236111111111" customWidth="1"/>
+    <col min="16" max="16" width="29.8472222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10632,7 +10629,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" ht="46" spans="5:17">
+    <row r="12" ht="69.6" spans="5:17">
       <c r="E12" t="s">
         <v>120</v>
       </c>
@@ -10690,7 +10687,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" ht="61" spans="5:17">
+    <row r="14" ht="87" spans="5:17">
       <c r="E14" t="s">
         <v>128</v>
       </c>
@@ -11121,7 +11118,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" ht="46" spans="5:17">
+    <row r="27" ht="69.6" spans="5:17">
       <c r="E27" t="s">
         <v>177</v>
       </c>
@@ -11325,7 +11322,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" ht="16" spans="5:17">
+    <row r="33" spans="5:17">
       <c r="E33" t="s">
         <v>199</v>
       </c>
@@ -11383,7 +11380,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" ht="46" spans="5:17">
+    <row r="35" ht="69.6" spans="5:17">
       <c r="E35" t="s">
         <v>206</v>
       </c>
@@ -11482,7 +11479,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" ht="16" spans="5:17">
+    <row r="38" spans="5:17">
       <c r="E38" t="s">
         <v>215</v>
       </c>
@@ -11540,7 +11537,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" ht="46" spans="5:17">
+    <row r="40" ht="69.6" spans="5:17">
       <c r="E40" t="s">
         <v>222</v>
       </c>
@@ -11668,7 +11665,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" ht="46" spans="5:17">
+    <row r="44" ht="52.2" spans="5:17">
       <c r="E44" t="s">
         <v>234</v>
       </c>
@@ -11697,7 +11694,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="45" ht="18" spans="5:17">
+    <row r="45" spans="5:17">
       <c r="E45" t="s">
         <v>238</v>
       </c>
@@ -11842,7 +11839,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="50" ht="46" spans="5:17">
+    <row r="50" ht="52.2" spans="5:17">
       <c r="E50" t="s">
         <v>255</v>
       </c>
@@ -11900,7 +11897,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" ht="61" spans="5:17">
+    <row r="52" ht="69.6" spans="5:17">
       <c r="E52" t="s">
         <v>261</v>
       </c>
@@ -11987,7 +11984,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" ht="61" spans="5:17">
+    <row r="55" ht="69.6" spans="5:17">
       <c r="E55" t="s">
         <v>271</v>
       </c>
@@ -12109,7 +12106,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="59" ht="61" spans="5:17">
+    <row r="59" ht="69.6" spans="5:17">
       <c r="E59" t="s">
         <v>287</v>
       </c>
@@ -12202,7 +12199,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="62" ht="76" spans="5:17">
+    <row r="62" ht="87" spans="5:17">
       <c r="E62" t="s">
         <v>297</v>
       </c>
@@ -12295,7 +12292,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="65" ht="61" spans="5:17">
+    <row r="65" ht="69.6" spans="5:17">
       <c r="E65" t="s">
         <v>307</v>
       </c>
@@ -12359,7 +12356,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="67" ht="16" spans="5:17">
+    <row r="67" spans="5:17">
       <c r="E67" t="s">
         <v>313</v>
       </c>
@@ -12417,7 +12414,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="69" ht="61" spans="5:17">
+    <row r="69" ht="69.6" spans="5:17">
       <c r="E69" t="s">
         <v>320</v>
       </c>
@@ -12661,7 +12658,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="77" ht="76" spans="5:17">
+    <row r="77" ht="87" spans="5:17">
       <c r="E77" s="11" t="s">
         <v>350</v>
       </c>
@@ -12696,7 +12693,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="78" ht="213" spans="5:17">
+    <row r="78" ht="243.6" spans="5:17">
       <c r="E78" t="s">
         <v>355</v>
       </c>
@@ -12731,7 +12728,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="79" ht="213" spans="5:17">
+    <row r="79" ht="243.6" spans="5:17">
       <c r="E79" t="s">
         <v>360</v>
       </c>
@@ -12766,7 +12763,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="80" ht="213" spans="5:17">
+    <row r="80" ht="243.6" spans="5:17">
       <c r="E80" t="s">
         <v>363</v>
       </c>
@@ -12801,7 +12798,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="81" ht="213" spans="5:17">
+    <row r="81" ht="243.6" spans="5:17">
       <c r="E81" t="s">
         <v>366</v>
       </c>
@@ -12836,7 +12833,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="82" ht="183" spans="5:17">
+    <row r="82" ht="208.8" spans="5:17">
       <c r="E82" t="s">
         <v>369</v>
       </c>
@@ -12871,7 +12868,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="83" ht="183" spans="5:17">
+    <row r="83" ht="208.8" spans="5:17">
       <c r="E83" t="s">
         <v>373</v>
       </c>
@@ -12906,7 +12903,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="84" ht="16" spans="5:17">
+    <row r="84" spans="5:17">
       <c r="E84" t="s">
         <v>376</v>
       </c>
@@ -13092,7 +13089,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="90" ht="46" spans="5:17">
+    <row r="90" ht="52.2" spans="5:17">
       <c r="E90" t="s">
         <v>392</v>
       </c>
@@ -13121,7 +13118,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="91" ht="46" spans="5:17">
+    <row r="91" ht="52.2" spans="5:17">
       <c r="E91" t="s">
         <v>395</v>
       </c>
@@ -13150,7 +13147,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="92" ht="46" spans="5:17">
+    <row r="92" ht="52.2" spans="5:17">
       <c r="E92" t="s">
         <v>398</v>
       </c>
@@ -13179,7 +13176,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="93" ht="31" spans="5:17">
+    <row r="93" ht="34.8" spans="5:17">
       <c r="E93" t="s">
         <v>401</v>
       </c>
@@ -13208,7 +13205,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="94" ht="16" spans="5:17">
+    <row r="94" spans="5:17">
       <c r="E94" t="s">
         <v>404</v>
       </c>
@@ -13237,7 +13234,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="95" ht="31" spans="5:17">
+    <row r="95" ht="34.8" spans="5:17">
       <c r="E95" t="s">
         <v>407</v>
       </c>
@@ -13266,7 +13263,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="96" ht="31" spans="5:17">
+    <row r="96" ht="52.2" spans="5:17">
       <c r="E96" t="s">
         <v>410</v>
       </c>
@@ -13324,7 +13321,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="98" ht="16" spans="5:17">
+    <row r="98" spans="5:17">
       <c r="E98" t="s">
         <v>415</v>
       </c>
@@ -13359,7 +13356,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="99" ht="76" spans="5:17">
+    <row r="99" ht="87" spans="5:17">
       <c r="E99" t="s">
         <v>417</v>
       </c>
@@ -13388,7 +13385,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="100" ht="61" spans="5:17">
+    <row r="100" ht="69.6" spans="5:17">
       <c r="E100" t="s">
         <v>420</v>
       </c>
@@ -13417,7 +13414,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="101" ht="46" spans="5:17">
+    <row r="101" ht="52.2" spans="5:17">
       <c r="E101" t="s">
         <v>423</v>
       </c>
@@ -13446,7 +13443,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="102" ht="61" spans="5:17">
+    <row r="102" ht="69.6" spans="5:17">
       <c r="E102" t="s">
         <v>426</v>
       </c>
@@ -13475,7 +13472,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="103" ht="61" spans="5:17">
+    <row r="103" ht="69.6" spans="5:17">
       <c r="E103" t="s">
         <v>429</v>
       </c>
@@ -14874,7 +14871,7 @@
         <v>hmsg_message_template-33</v>
       </c>
       <c r="G184" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="J184" t="s">
         <v>76</v>
@@ -14928,7 +14925,7 @@
         <v>hmsg_message_template-33</v>
       </c>
       <c r="G187" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J187" t="s">
         <v>76</v>
@@ -14982,7 +14979,7 @@
         <v>hmsg_message_template-33</v>
       </c>
       <c r="G190" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J190" t="s">
         <v>76</v>
@@ -15000,7 +14997,7 @@
         <v>hmsg_message_template-33</v>
       </c>
       <c r="G191" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J191" t="s">
         <v>76</v>
@@ -15018,7 +15015,7 @@
         <v>hmsg_message_template-33</v>
       </c>
       <c r="G192" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J192" t="s">
         <v>76</v>
@@ -15036,7 +15033,7 @@
         <v>hmsg_message_template-33</v>
       </c>
       <c r="G193" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J193" t="s">
         <v>76</v>
@@ -15090,7 +15087,7 @@
         <v>hmsg_message_template-32</v>
       </c>
       <c r="G196" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="J196" t="s">
         <v>76</v>
@@ -15144,7 +15141,7 @@
         <v>hmsg_message_template-32</v>
       </c>
       <c r="G199" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J199" t="s">
         <v>76</v>
@@ -15198,7 +15195,7 @@
         <v>hmsg_message_template-32</v>
       </c>
       <c r="G202" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J202" t="s">
         <v>76</v>
@@ -15216,7 +15213,7 @@
         <v>hmsg_message_template-32</v>
       </c>
       <c r="G203" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J203" t="s">
         <v>76</v>
@@ -15234,7 +15231,7 @@
         <v>hmsg_message_template-32</v>
       </c>
       <c r="G204" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J204" t="s">
         <v>76</v>
@@ -15252,7 +15249,7 @@
         <v>hmsg_message_template-32</v>
       </c>
       <c r="G205" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J205" t="s">
         <v>76</v>
@@ -15828,7 +15825,7 @@
         <v>hmsg_message_template-39</v>
       </c>
       <c r="G237" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="J237" t="s">
         <v>76</v>
@@ -15882,7 +15879,7 @@
         <v>hmsg_message_template-39</v>
       </c>
       <c r="G240" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J240" t="s">
         <v>76</v>
@@ -15936,7 +15933,7 @@
         <v>hmsg_message_template-39</v>
       </c>
       <c r="G243" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J243" t="s">
         <v>76</v>
@@ -15954,7 +15951,7 @@
         <v>hmsg_message_template-39</v>
       </c>
       <c r="G244" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J244" t="s">
         <v>76</v>
@@ -15972,7 +15969,7 @@
         <v>hmsg_message_template-39</v>
       </c>
       <c r="G245" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J245" t="s">
         <v>76</v>
@@ -15990,7 +15987,7 @@
         <v>hmsg_message_template-39</v>
       </c>
       <c r="G246" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J246" t="s">
         <v>76</v>
@@ -16224,7 +16221,7 @@
         <v>hmsg_message_template-41</v>
       </c>
       <c r="G259" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="J259" t="s">
         <v>76</v>
@@ -16602,7 +16599,7 @@
         <v>hmsg_message_template-53</v>
       </c>
       <c r="G280" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="J280" t="s">
         <v>76</v>
@@ -16890,7 +16887,7 @@
         <v>hmsg_message_template-66</v>
       </c>
       <c r="G296" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J296" t="s">
         <v>76</v>
@@ -16908,7 +16905,7 @@
         <v>hmsg_message_template-66</v>
       </c>
       <c r="G297" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J297" t="s">
         <v>76</v>
@@ -17016,7 +17013,7 @@
         <v>hmsg_message_template-66</v>
       </c>
       <c r="G303" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J303" t="s">
         <v>76</v>
@@ -17034,7 +17031,7 @@
         <v>hmsg_message_template-66</v>
       </c>
       <c r="G304" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J304" t="s">
         <v>76</v>
@@ -17070,7 +17067,7 @@
         <v>hmsg_message_template-24</v>
       </c>
       <c r="G306" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J306" t="s">
         <v>76</v>
@@ -17088,7 +17085,7 @@
         <v>hmsg_message_template-24</v>
       </c>
       <c r="G307" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J307" t="s">
         <v>76</v>
@@ -17196,7 +17193,7 @@
         <v>hmsg_message_template-24</v>
       </c>
       <c r="G313" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J313" t="s">
         <v>76</v>
@@ -17214,7 +17211,7 @@
         <v>hmsg_message_template-24</v>
       </c>
       <c r="G314" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J314" t="s">
         <v>76</v>
@@ -17322,7 +17319,7 @@
         <v>hmsg_message_template-114</v>
       </c>
       <c r="G320" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J320" t="s">
         <v>76</v>
@@ -17340,7 +17337,7 @@
         <v>hmsg_message_template-114</v>
       </c>
       <c r="G321" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J321" t="s">
         <v>76</v>
@@ -17376,7 +17373,7 @@
         <v>hmsg_message_template-114</v>
       </c>
       <c r="G323" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J323" t="s">
         <v>76</v>
@@ -17394,7 +17391,7 @@
         <v>hmsg_message_template-114</v>
       </c>
       <c r="G324" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J324" t="s">
         <v>76</v>
@@ -17502,7 +17499,7 @@
         <v>hmsg_message_template-118</v>
       </c>
       <c r="G330" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J330" t="s">
         <v>76</v>
@@ -17520,7 +17517,7 @@
         <v>hmsg_message_template-118</v>
       </c>
       <c r="G331" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J331" t="s">
         <v>76</v>
@@ -17556,7 +17553,7 @@
         <v>hmsg_message_template-118</v>
       </c>
       <c r="G333" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J333" t="s">
         <v>76</v>
@@ -17574,7 +17571,7 @@
         <v>hmsg_message_template-118</v>
       </c>
       <c r="G334" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J334" t="s">
         <v>76</v>
@@ -17592,7 +17589,7 @@
         <v>hmsg_message_template-118</v>
       </c>
       <c r="G335" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J335" t="s">
         <v>76</v>
@@ -17610,7 +17607,7 @@
         <v>hmsg_message_template-118</v>
       </c>
       <c r="G336" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J336" t="s">
         <v>76</v>
@@ -17718,7 +17715,7 @@
         <v>hmsg_message_template-121</v>
       </c>
       <c r="G342" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J342" t="s">
         <v>76</v>
@@ -17736,7 +17733,7 @@
         <v>hmsg_message_template-121</v>
       </c>
       <c r="G343" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J343" t="s">
         <v>76</v>
@@ -17772,7 +17769,7 @@
         <v>hmsg_message_template-121</v>
       </c>
       <c r="G345" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J345" t="s">
         <v>76</v>
@@ -17790,7 +17787,7 @@
         <v>hmsg_message_template-121</v>
       </c>
       <c r="G346" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J346" t="s">
         <v>76</v>
@@ -17808,7 +17805,7 @@
         <v>hmsg_message_template-121</v>
       </c>
       <c r="G347" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J347" t="s">
         <v>76</v>
@@ -17826,7 +17823,7 @@
         <v>hmsg_message_template-121</v>
       </c>
       <c r="G348" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J348" t="s">
         <v>76</v>
@@ -17934,7 +17931,7 @@
         <v>hmsg_message_template-124</v>
       </c>
       <c r="G354" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J354" t="s">
         <v>76</v>
@@ -17952,7 +17949,7 @@
         <v>hmsg_message_template-124</v>
       </c>
       <c r="G355" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J355" t="s">
         <v>76</v>
@@ -17988,7 +17985,7 @@
         <v>hmsg_message_template-124</v>
       </c>
       <c r="G357" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J357" t="s">
         <v>76</v>
@@ -18006,7 +18003,7 @@
         <v>hmsg_message_template-124</v>
       </c>
       <c r="G358" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J358" t="s">
         <v>76</v>
@@ -18168,7 +18165,7 @@
         <v>hmsg_message_template-143</v>
       </c>
       <c r="G367" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J367" t="s">
         <v>76</v>
@@ -18186,7 +18183,7 @@
         <v>hmsg_message_template-143</v>
       </c>
       <c r="G368" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J368" t="s">
         <v>76</v>
@@ -18420,7 +18417,7 @@
         <v>hmsg_message_template-140</v>
       </c>
       <c r="G381" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J381" t="s">
         <v>76</v>
@@ -18438,7 +18435,7 @@
         <v>hmsg_message_template-140</v>
       </c>
       <c r="G382" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J382" t="s">
         <v>76</v>
@@ -18456,7 +18453,7 @@
         <v>hmsg_message_template-140</v>
       </c>
       <c r="G383" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J383" t="s">
         <v>76</v>
@@ -18474,7 +18471,7 @@
         <v>hmsg_message_template-140</v>
       </c>
       <c r="G384" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J384" t="s">
         <v>76</v>
@@ -18492,7 +18489,7 @@
         <v>hmsg_message_template-140</v>
       </c>
       <c r="G385" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J385" t="s">
         <v>76</v>
@@ -18510,7 +18507,7 @@
         <v>hmsg_message_template-142</v>
       </c>
       <c r="G386" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J386" t="s">
         <v>76</v>
@@ -18528,7 +18525,7 @@
         <v>hmsg_message_template-142</v>
       </c>
       <c r="G387" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J387" t="s">
         <v>76</v>
@@ -18546,7 +18543,7 @@
         <v>hmsg_message_template-142</v>
       </c>
       <c r="G388" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J388" t="s">
         <v>76</v>
@@ -18564,7 +18561,7 @@
         <v>hmsg_message_template-142</v>
       </c>
       <c r="G389" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J389" t="s">
         <v>76</v>
@@ -18582,7 +18579,7 @@
         <v>hmsg_message_template-142</v>
       </c>
       <c r="G390" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J390" t="s">
         <v>76</v>
@@ -18600,7 +18597,7 @@
         <v>hmsg_message_template-117</v>
       </c>
       <c r="G391" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J391" t="s">
         <v>76</v>
@@ -18618,7 +18615,7 @@
         <v>hmsg_message_template-117</v>
       </c>
       <c r="G392" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J392" t="s">
         <v>76</v>
@@ -18654,7 +18651,7 @@
         <v>hmsg_message_template-117</v>
       </c>
       <c r="G394" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J394" t="s">
         <v>76</v>
@@ -18690,7 +18687,7 @@
         <v>hmsg_message_template-117</v>
       </c>
       <c r="G396" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J396" t="s">
         <v>76</v>
@@ -18708,7 +18705,7 @@
         <v>hmsg_message_template-117</v>
       </c>
       <c r="G397" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J397" t="s">
         <v>76</v>
@@ -18744,7 +18741,7 @@
         <v>hmsg_message_template-115</v>
       </c>
       <c r="G399" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J399" t="s">
         <v>76</v>
@@ -18762,7 +18759,7 @@
         <v>hmsg_message_template-115</v>
       </c>
       <c r="G400" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J400" t="s">
         <v>76</v>
@@ -18798,7 +18795,7 @@
         <v>hmsg_message_template-115</v>
       </c>
       <c r="G402" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J402" t="s">
         <v>76</v>
@@ -18816,7 +18813,7 @@
         <v>hmsg_message_template-127</v>
       </c>
       <c r="G403" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J403" t="s">
         <v>76</v>
@@ -18852,7 +18849,7 @@
         <v>hmsg_message_template-127</v>
       </c>
       <c r="G405" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J405" t="s">
         <v>76</v>
@@ -18888,7 +18885,7 @@
         <v>hmsg_message_template-127</v>
       </c>
       <c r="G407" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J407" t="s">
         <v>76</v>
@@ -18906,7 +18903,7 @@
         <v>hmsg_message_template-127</v>
       </c>
       <c r="G408" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J408" t="s">
         <v>76</v>
@@ -18924,7 +18921,7 @@
         <v>hmsg_message_template-125</v>
       </c>
       <c r="G409" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J409" t="s">
         <v>76</v>
@@ -18960,7 +18957,7 @@
         <v>hmsg_message_template-125</v>
       </c>
       <c r="G411" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J411" t="s">
         <v>76</v>
@@ -18996,7 +18993,7 @@
         <v>hmsg_message_template-125</v>
       </c>
       <c r="G413" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J413" t="s">
         <v>76</v>
@@ -19014,7 +19011,7 @@
         <v>hmsg_message_template-125</v>
       </c>
       <c r="G414" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J414" t="s">
         <v>76</v>
@@ -19032,7 +19029,7 @@
         <v>hmsg_message_template-113</v>
       </c>
       <c r="G415" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J415" t="s">
         <v>76</v>
@@ -19050,7 +19047,7 @@
         <v>hmsg_message_template-113</v>
       </c>
       <c r="G416" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J416" t="s">
         <v>76</v>
@@ -19086,7 +19083,7 @@
         <v>hmsg_message_template-113</v>
       </c>
       <c r="G418" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J418" t="s">
         <v>76</v>
@@ -19122,7 +19119,7 @@
         <v>hmsg_message_template-113</v>
       </c>
       <c r="G420" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J420" t="s">
         <v>76</v>
@@ -19140,7 +19137,7 @@
         <v>hmsg_message_template-113</v>
       </c>
       <c r="G421" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J421" t="s">
         <v>76</v>
@@ -19158,7 +19155,7 @@
         <v>hmsg_message_template-123</v>
       </c>
       <c r="G422" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J422" t="s">
         <v>76</v>
@@ -19176,7 +19173,7 @@
         <v>hmsg_message_template-123</v>
       </c>
       <c r="G423" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J423" t="s">
         <v>76</v>
@@ -19194,7 +19191,7 @@
         <v>hmsg_message_template-123</v>
       </c>
       <c r="G424" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J424" t="s">
         <v>76</v>
@@ -19212,7 +19209,7 @@
         <v>hmsg_message_template-123</v>
       </c>
       <c r="G425" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J425" t="s">
         <v>76</v>
@@ -19248,7 +19245,7 @@
         <v>hmsg_message_template-123</v>
       </c>
       <c r="G427" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J427" t="s">
         <v>76</v>
@@ -19266,7 +19263,7 @@
         <v>hmsg_message_template-123</v>
       </c>
       <c r="G428" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J428" t="s">
         <v>76</v>
@@ -19302,7 +19299,7 @@
         <v>hmsg_message_template-123</v>
       </c>
       <c r="G430" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J430" t="s">
         <v>76</v>
@@ -19320,7 +19317,7 @@
         <v>hmsg_message_template-120</v>
       </c>
       <c r="G431" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J431" t="s">
         <v>76</v>
@@ -19338,7 +19335,7 @@
         <v>hmsg_message_template-120</v>
       </c>
       <c r="G432" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J432" t="s">
         <v>76</v>
@@ -19356,7 +19353,7 @@
         <v>hmsg_message_template-120</v>
       </c>
       <c r="G433" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J433" t="s">
         <v>76</v>
@@ -19374,7 +19371,7 @@
         <v>hmsg_message_template-120</v>
       </c>
       <c r="G434" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J434" t="s">
         <v>76</v>
@@ -19410,7 +19407,7 @@
         <v>hmsg_message_template-120</v>
       </c>
       <c r="G436" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J436" t="s">
         <v>76</v>
@@ -19428,7 +19425,7 @@
         <v>hmsg_message_template-120</v>
       </c>
       <c r="G437" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J437" t="s">
         <v>76</v>
@@ -19464,7 +19461,7 @@
         <v>hmsg_message_template-120</v>
       </c>
       <c r="G439" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J439" t="s">
         <v>76</v>
@@ -19482,7 +19479,7 @@
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G440" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J440" t="s">
         <v>76</v>
@@ -19500,7 +19497,7 @@
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G441" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J441" t="s">
         <v>76</v>
@@ -19518,7 +19515,7 @@
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G442" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J442" t="s">
         <v>76</v>
@@ -19536,7 +19533,7 @@
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G443" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J443" t="s">
         <v>76</v>
@@ -19554,7 +19551,7 @@
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G444" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J444" t="s">
         <v>76</v>
@@ -19572,7 +19569,7 @@
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G445" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J445" t="s">
         <v>76</v>
@@ -19590,7 +19587,7 @@
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G446" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J446" t="s">
         <v>76</v>
@@ -19608,7 +19605,7 @@
         <v>hmsg_message_template-68</v>
       </c>
       <c r="G447" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J447" t="s">
         <v>76</v>
@@ -19626,7 +19623,7 @@
         <v>hmsg_message_template-68</v>
       </c>
       <c r="G448" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J448" t="s">
         <v>76</v>
@@ -19644,7 +19641,7 @@
         <v>hmsg_message_template-68</v>
       </c>
       <c r="G449" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J449" t="s">
         <v>76</v>
@@ -19662,7 +19659,7 @@
         <v>hmsg_message_template-68</v>
       </c>
       <c r="G450" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J450" t="s">
         <v>76</v>
@@ -19680,7 +19677,7 @@
         <v>hmsg_message_template-68</v>
       </c>
       <c r="G451" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J451" t="s">
         <v>76</v>
@@ -19698,7 +19695,7 @@
         <v>hmsg_message_template-68</v>
       </c>
       <c r="G452" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J452" t="s">
         <v>76</v>
@@ -19716,7 +19713,7 @@
         <v>hmsg_message_template-68</v>
       </c>
       <c r="G453" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J453" t="s">
         <v>76</v>
@@ -19752,7 +19749,7 @@
         <v>hmsg_message_template-83</v>
       </c>
       <c r="G455" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J455" t="s">
         <v>76</v>
@@ -19770,7 +19767,7 @@
         <v>hmsg_message_template-83</v>
       </c>
       <c r="G456" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J456" t="s">
         <v>76</v>
@@ -19788,7 +19785,7 @@
         <v>hmsg_message_template-56</v>
       </c>
       <c r="G457" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J457" t="s">
         <v>76</v>
@@ -19824,7 +19821,7 @@
         <v>hmsg_message_template-56</v>
       </c>
       <c r="G459" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J459" t="s">
         <v>76</v>
@@ -19860,7 +19857,7 @@
         <v>hmsg_message_template-56</v>
       </c>
       <c r="G461" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J461" t="s">
         <v>76</v>
@@ -19878,7 +19875,7 @@
         <v>hmsg_message_template-54</v>
       </c>
       <c r="G462" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J462" t="s">
         <v>76</v>
@@ -19914,7 +19911,7 @@
         <v>hmsg_message_template-54</v>
       </c>
       <c r="G464" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J464" t="s">
         <v>76</v>
@@ -19950,7 +19947,7 @@
         <v>hmsg_message_template-54</v>
       </c>
       <c r="G466" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J466" t="s">
         <v>76</v>
@@ -19986,7 +19983,7 @@
         <v>hmsg_message_template-147</v>
       </c>
       <c r="G468" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J468" t="s">
         <v>76</v>
@@ -20004,7 +20001,7 @@
         <v>hmsg_message_template-147</v>
       </c>
       <c r="G469" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J469" t="s">
         <v>76</v>
@@ -20040,7 +20037,7 @@
         <v>hmsg_message_template-162</v>
       </c>
       <c r="G471" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J471" t="s">
         <v>76</v>
@@ -20058,7 +20055,7 @@
         <v>hmsg_message_template-162</v>
       </c>
       <c r="G472" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J472" t="s">
         <v>76</v>
@@ -20076,7 +20073,7 @@
         <v>hmsg_message_template-44</v>
       </c>
       <c r="G473" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J473" t="s">
         <v>76</v>
@@ -20112,7 +20109,7 @@
         <v>hmsg_message_template-44</v>
       </c>
       <c r="G475" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J475" t="s">
         <v>76</v>
@@ -20148,7 +20145,7 @@
         <v>hmsg_message_template-44</v>
       </c>
       <c r="G477" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J477" t="s">
         <v>76</v>
@@ -20166,7 +20163,7 @@
         <v>hmsg_message_template-42</v>
       </c>
       <c r="G478" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J478" t="s">
         <v>76</v>
@@ -20202,7 +20199,7 @@
         <v>hmsg_message_template-42</v>
       </c>
       <c r="G480" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J480" t="s">
         <v>76</v>
@@ -20238,7 +20235,7 @@
         <v>hmsg_message_template-42</v>
       </c>
       <c r="G482" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J482" t="s">
         <v>76</v>
@@ -20256,7 +20253,7 @@
         <v>hmsg_message_template-106</v>
       </c>
       <c r="G483" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J483" t="s">
         <v>76</v>
@@ -20274,7 +20271,7 @@
         <v>hmsg_message_template-106</v>
       </c>
       <c r="G484" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J484" t="s">
         <v>76</v>
@@ -20292,7 +20289,7 @@
         <v>hmsg_message_template-106</v>
       </c>
       <c r="G485" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J485" t="s">
         <v>76</v>
@@ -20310,7 +20307,7 @@
         <v>hmsg_message_template-106</v>
       </c>
       <c r="G486" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J486" t="s">
         <v>76</v>
@@ -20328,7 +20325,7 @@
         <v>hmsg_message_template-106</v>
       </c>
       <c r="G487" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J487" t="s">
         <v>76</v>
@@ -20346,7 +20343,7 @@
         <v>hmsg_message_template-106</v>
       </c>
       <c r="G488" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J488" t="s">
         <v>76</v>
@@ -20364,7 +20361,7 @@
         <v>hmsg_message_template-106</v>
       </c>
       <c r="G489" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J489" t="s">
         <v>76</v>
@@ -20382,7 +20379,7 @@
         <v>hmsg_message_template-106</v>
       </c>
       <c r="G490" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J490" t="s">
         <v>76</v>
@@ -20400,7 +20397,7 @@
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G491" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J491" t="s">
         <v>76</v>
@@ -20418,7 +20415,7 @@
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G492" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J492" t="s">
         <v>76</v>
@@ -20436,7 +20433,7 @@
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G493" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J493" t="s">
         <v>76</v>
@@ -20454,7 +20451,7 @@
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G494" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J494" t="s">
         <v>76</v>
@@ -20472,7 +20469,7 @@
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G495" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J495" t="s">
         <v>76</v>
@@ -20490,7 +20487,7 @@
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G496" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J496" t="s">
         <v>76</v>
@@ -20508,7 +20505,7 @@
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G497" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J497" t="s">
         <v>76</v>
@@ -20526,7 +20523,7 @@
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G498" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J498" t="s">
         <v>76</v>
@@ -20544,7 +20541,7 @@
         <v>hmsg_message_template-104</v>
       </c>
       <c r="G499" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J499" t="s">
         <v>76</v>
@@ -20562,7 +20559,7 @@
         <v>hmsg_message_template-104</v>
       </c>
       <c r="G500" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J500" t="s">
         <v>76</v>
@@ -20580,7 +20577,7 @@
         <v>hmsg_message_template-104</v>
       </c>
       <c r="G501" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J501" t="s">
         <v>76</v>
@@ -20598,7 +20595,7 @@
         <v>hmsg_message_template-104</v>
       </c>
       <c r="G502" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J502" t="s">
         <v>76</v>
@@ -20616,7 +20613,7 @@
         <v>hmsg_message_template-104</v>
       </c>
       <c r="G503" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J503" t="s">
         <v>76</v>
@@ -20634,7 +20631,7 @@
         <v>hmsg_message_template-104</v>
       </c>
       <c r="G504" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J504" t="s">
         <v>76</v>
@@ -20652,7 +20649,7 @@
         <v>hmsg_message_template-104</v>
       </c>
       <c r="G505" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J505" t="s">
         <v>76</v>
@@ -20670,7 +20667,7 @@
         <v>hmsg_message_template-104</v>
       </c>
       <c r="G506" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J506" t="s">
         <v>76</v>
@@ -20688,7 +20685,7 @@
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G507" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J507" t="s">
         <v>76</v>
@@ -20724,7 +20721,7 @@
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G509" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J509" t="s">
         <v>76</v>
@@ -20760,7 +20757,7 @@
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G511" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J511" t="s">
         <v>76</v>
@@ -20796,7 +20793,7 @@
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G513" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J513" t="s">
         <v>76</v>
@@ -20814,7 +20811,7 @@
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G514" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J514" t="s">
         <v>76</v>
@@ -20850,7 +20847,7 @@
         <v>hmsg_message_template-84</v>
       </c>
       <c r="G516" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J516" t="s">
         <v>76</v>
@@ -20868,7 +20865,7 @@
         <v>hmsg_message_template-84</v>
       </c>
       <c r="G517" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J517" t="s">
         <v>76</v>
@@ -20886,7 +20883,7 @@
         <v>hmsg_message_template-55</v>
       </c>
       <c r="G518" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J518">
         <v>0</v>
@@ -20904,7 +20901,7 @@
         <v>hmsg_message_template-55</v>
       </c>
       <c r="G519" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J519" t="s">
         <v>76</v>
@@ -20922,7 +20919,7 @@
         <v>hmsg_message_template-55</v>
       </c>
       <c r="G520" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J520" t="s">
         <v>76</v>
@@ -20940,7 +20937,7 @@
         <v>hmsg_message_template-119</v>
       </c>
       <c r="G521" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J521" t="s">
         <v>76</v>
@@ -20958,7 +20955,7 @@
         <v>hmsg_message_template-119</v>
       </c>
       <c r="G522" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J522" t="s">
         <v>76</v>
@@ -20976,7 +20973,7 @@
         <v>hmsg_message_template-119</v>
       </c>
       <c r="G523" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J523" t="s">
         <v>76</v>
@@ -20994,7 +20991,7 @@
         <v>hmsg_message_template-119</v>
       </c>
       <c r="G524" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J524">
         <v>0</v>
@@ -21012,7 +21009,7 @@
         <v>hmsg_message_template-119</v>
       </c>
       <c r="G525" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J525" t="s">
         <v>76</v>
@@ -21030,7 +21027,7 @@
         <v>hmsg_message_template-119</v>
       </c>
       <c r="G526" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J526" t="s">
         <v>76</v>
@@ -21048,7 +21045,7 @@
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G527" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J527" t="s">
         <v>76</v>
@@ -21066,7 +21063,7 @@
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G528" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J528">
         <v>0</v>
@@ -21084,7 +21081,7 @@
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G529" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J529" t="s">
         <v>76</v>
@@ -21102,7 +21099,7 @@
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G530" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J530" t="s">
         <v>76</v>
@@ -21120,7 +21117,7 @@
         <v>hmsg_message_template-116</v>
       </c>
       <c r="G531" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J531">
         <v>0</v>
@@ -21138,7 +21135,7 @@
         <v>hmsg_message_template-116</v>
       </c>
       <c r="G532" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J532" t="s">
         <v>76</v>
@@ -21156,7 +21153,7 @@
         <v>hmsg_message_template-116</v>
       </c>
       <c r="G533" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J533" t="s">
         <v>76</v>
@@ -21174,7 +21171,7 @@
         <v>hmsg_message_template-67</v>
       </c>
       <c r="G534" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J534" t="s">
         <v>76</v>
@@ -21192,7 +21189,7 @@
         <v>hmsg_message_template-67</v>
       </c>
       <c r="G535" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J535" t="s">
         <v>76</v>
@@ -21210,7 +21207,7 @@
         <v>hmsg_message_template-103</v>
       </c>
       <c r="G536" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J536" t="s">
         <v>76</v>
@@ -21228,7 +21225,7 @@
         <v>hmsg_message_template-103</v>
       </c>
       <c r="G537" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J537" t="s">
         <v>76</v>
@@ -21246,7 +21243,7 @@
         <v>hmsg_message_template-103</v>
       </c>
       <c r="G538" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J538" t="s">
         <v>76</v>
@@ -21264,7 +21261,7 @@
         <v>hmsg_message_template-105</v>
       </c>
       <c r="G539" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J539">
         <v>0</v>
@@ -21282,7 +21279,7 @@
         <v>hmsg_message_template-105</v>
       </c>
       <c r="G540" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J540" t="s">
         <v>76</v>
@@ -21300,7 +21297,7 @@
         <v>hmsg_message_template-105</v>
       </c>
       <c r="G541" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J541" t="s">
         <v>76</v>
@@ -21318,7 +21315,7 @@
         <v>hmsg_message_template-105</v>
       </c>
       <c r="G542" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J542" t="s">
         <v>76</v>
@@ -21336,7 +21333,7 @@
         <v>hmsg_message_template-112</v>
       </c>
       <c r="G543" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J543" t="s">
         <v>76</v>
@@ -21354,7 +21351,7 @@
         <v>hmsg_message_template-112</v>
       </c>
       <c r="G544" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J544">
         <v>0</v>
@@ -21372,7 +21369,7 @@
         <v>hmsg_message_template-112</v>
       </c>
       <c r="G545" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J545" t="s">
         <v>76</v>
@@ -21390,7 +21387,7 @@
         <v>hmsg_message_template-112</v>
       </c>
       <c r="G546" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J546" t="s">
         <v>76</v>
@@ -21408,7 +21405,7 @@
         <v>hmsg_message_template-82</v>
       </c>
       <c r="G547" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J547">
         <v>0</v>
@@ -21444,7 +21441,7 @@
         <v>hmsg_message_template-82</v>
       </c>
       <c r="G549" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J549" t="s">
         <v>76</v>
@@ -21462,7 +21459,7 @@
         <v>hmsg_message_template-82</v>
       </c>
       <c r="G550" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J550" t="s">
         <v>76</v>
@@ -21498,7 +21495,7 @@
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G552" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J552">
         <v>0</v>
@@ -21516,7 +21513,7 @@
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G553" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J553" t="s">
         <v>76</v>
@@ -21534,7 +21531,7 @@
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G554" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J554" t="s">
         <v>76</v>
@@ -21570,7 +21567,7 @@
         <v>hmsg_message_template-146</v>
       </c>
       <c r="G556" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J556">
         <v>0</v>
@@ -21588,7 +21585,7 @@
         <v>hmsg_message_template-146</v>
       </c>
       <c r="G557" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J557" t="s">
         <v>76</v>
@@ -21606,7 +21603,7 @@
         <v>hmsg_message_template-146</v>
       </c>
       <c r="G558" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J558" t="s">
         <v>76</v>
@@ -21624,7 +21621,7 @@
         <v>hmsg_message_template-126</v>
       </c>
       <c r="G559" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J559" t="s">
         <v>76</v>
@@ -21642,7 +21639,7 @@
         <v>hmsg_message_template-126</v>
       </c>
       <c r="G560" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J560">
         <v>0</v>
@@ -21660,7 +21657,7 @@
         <v>hmsg_message_template-126</v>
       </c>
       <c r="G561" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J561" t="s">
         <v>76</v>
@@ -21678,7 +21675,7 @@
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G562" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J562">
         <v>0</v>
@@ -21696,7 +21693,7 @@
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G563" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J563" t="s">
         <v>76</v>
@@ -21714,7 +21711,7 @@
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G564" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J564" t="s">
         <v>76</v>
@@ -21732,7 +21729,7 @@
         <v>hmsg_message_template-43</v>
       </c>
       <c r="G565" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J565">
         <v>0</v>
@@ -21750,7 +21747,7 @@
         <v>hmsg_message_template-43</v>
       </c>
       <c r="G566" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J566" t="s">
         <v>76</v>
@@ -21768,7 +21765,7 @@
         <v>hmsg_message_template-43</v>
       </c>
       <c r="G567" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J567" t="s">
         <v>76</v>
@@ -21786,7 +21783,7 @@
         <v>hmsg_message_template-122</v>
       </c>
       <c r="G568" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J568" t="s">
         <v>76</v>
@@ -21804,7 +21801,7 @@
         <v>hmsg_message_template-122</v>
       </c>
       <c r="G569" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J569" t="s">
         <v>76</v>
@@ -21822,7 +21819,7 @@
         <v>hmsg_message_template-122</v>
       </c>
       <c r="G570" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J570">
         <v>0</v>
@@ -21840,7 +21837,7 @@
         <v>hmsg_message_template-122</v>
       </c>
       <c r="G571" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J571" t="s">
         <v>76</v>
@@ -21858,7 +21855,7 @@
         <v>hmsg_message_template-122</v>
       </c>
       <c r="G572" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J572" t="s">
         <v>76</v>
@@ -21876,7 +21873,7 @@
         <v>hmsg_message_template-122</v>
       </c>
       <c r="G573" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J573" t="s">
         <v>76</v>
@@ -21894,7 +21891,7 @@
         <v>hmsg_message_template-69</v>
       </c>
       <c r="G574" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J574" t="s">
         <v>76</v>
@@ -21930,7 +21927,7 @@
         <v>hmsg_message_template-36</v>
       </c>
       <c r="G576" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J576" t="s">
         <v>76</v>
@@ -21966,7 +21963,7 @@
         <v>hmsg_message_template-36</v>
       </c>
       <c r="G578" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J578" t="s">
         <v>76</v>
@@ -22002,7 +21999,7 @@
         <v>hmsg_message_template-36</v>
       </c>
       <c r="G580" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J580" t="s">
         <v>76</v>
@@ -22020,7 +22017,7 @@
         <v>hmsg_message_template-35</v>
       </c>
       <c r="G581" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J581">
         <v>0</v>
@@ -22038,7 +22035,7 @@
         <v>hmsg_message_template-35</v>
       </c>
       <c r="G582" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J582" t="s">
         <v>76</v>
@@ -22056,7 +22053,7 @@
         <v>hmsg_message_template-35</v>
       </c>
       <c r="G583" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J583" t="s">
         <v>76</v>
@@ -22164,7 +22161,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G589" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="J589" t="s">
         <v>76</v>
@@ -22272,7 +22269,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G595" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J595" t="s">
         <v>76</v>
@@ -22344,7 +22341,7 @@
         <v>hmsg_message_template-156</v>
       </c>
       <c r="G599" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J599" t="s">
         <v>76</v>
@@ -22380,7 +22377,7 @@
         <v>hmsg_message_template-156</v>
       </c>
       <c r="G601" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J601" t="s">
         <v>76</v>
@@ -22398,7 +22395,7 @@
         <v>hmsg_message_template-156</v>
       </c>
       <c r="G602" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J602" t="s">
         <v>76</v>
@@ -22416,7 +22413,7 @@
         <v>hmsg_message_template-156</v>
       </c>
       <c r="G603" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J603" t="s">
         <v>76</v>
@@ -22434,7 +22431,7 @@
         <v>hmsg_message_template-156</v>
       </c>
       <c r="G604" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="J604" t="s">
         <v>76</v>
@@ -22452,7 +22449,7 @@
         <v>hmsg_message_template-156</v>
       </c>
       <c r="G605" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J605" t="s">
         <v>76</v>
@@ -22524,7 +22521,7 @@
         <v>hmsg_message_template-157</v>
       </c>
       <c r="G609" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J609" t="s">
         <v>76</v>
@@ -22560,7 +22557,7 @@
         <v>hmsg_message_template-157</v>
       </c>
       <c r="G611" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J611" t="s">
         <v>76</v>
@@ -22578,7 +22575,7 @@
         <v>hmsg_message_template-157</v>
       </c>
       <c r="G612" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J612" t="s">
         <v>76</v>
@@ -22596,7 +22593,7 @@
         <v>hmsg_message_template-157</v>
       </c>
       <c r="G613" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J613" t="s">
         <v>76</v>
@@ -22614,7 +22611,7 @@
         <v>hmsg_message_template-157</v>
       </c>
       <c r="G614" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="J614" t="s">
         <v>76</v>
@@ -22632,7 +22629,7 @@
         <v>hmsg_message_template-157</v>
       </c>
       <c r="G615" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J615" t="s">
         <v>76</v>
@@ -22704,7 +22701,7 @@
         <v>hmsg_message_template-158</v>
       </c>
       <c r="G619" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J619" t="s">
         <v>76</v>
@@ -22740,7 +22737,7 @@
         <v>hmsg_message_template-158</v>
       </c>
       <c r="G621" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J621" t="s">
         <v>76</v>
@@ -22758,7 +22755,7 @@
         <v>hmsg_message_template-158</v>
       </c>
       <c r="G622" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J622" t="s">
         <v>76</v>
@@ -22776,7 +22773,7 @@
         <v>hmsg_message_template-158</v>
       </c>
       <c r="G623" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J623" t="s">
         <v>76</v>
@@ -22794,7 +22791,7 @@
         <v>hmsg_message_template-158</v>
       </c>
       <c r="G624" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="J624" t="s">
         <v>76</v>
@@ -22812,7 +22809,7 @@
         <v>hmsg_message_template-158</v>
       </c>
       <c r="G625" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J625" t="s">
         <v>76</v>
@@ -22884,7 +22881,7 @@
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G629" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J629" t="s">
         <v>76</v>
@@ -22920,7 +22917,7 @@
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G631" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J631" t="s">
         <v>76</v>
@@ -22938,7 +22935,7 @@
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G632" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J632" t="s">
         <v>76</v>
@@ -22956,7 +22953,7 @@
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G633" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J633" t="s">
         <v>76</v>
@@ -22974,7 +22971,7 @@
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G634" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="J634" t="s">
         <v>76</v>
@@ -22992,7 +22989,7 @@
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G635" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J635" t="s">
         <v>76</v>
@@ -23064,7 +23061,7 @@
         <v>hmsg_message_template-160</v>
       </c>
       <c r="G639" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J639" t="s">
         <v>76</v>
@@ -23100,7 +23097,7 @@
         <v>hmsg_message_template-160</v>
       </c>
       <c r="G641" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J641" t="s">
         <v>76</v>
@@ -23118,7 +23115,7 @@
         <v>hmsg_message_template-160</v>
       </c>
       <c r="G642" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J642" t="s">
         <v>76</v>
@@ -23136,7 +23133,7 @@
         <v>hmsg_message_template-160</v>
       </c>
       <c r="G643" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="J643" t="s">
         <v>76</v>
@@ -23208,7 +23205,7 @@
         <v>hmsg_message_template-161</v>
       </c>
       <c r="G647" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J647" t="s">
         <v>76</v>
@@ -23244,7 +23241,7 @@
         <v>hmsg_message_template-161</v>
       </c>
       <c r="G649" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J649" t="s">
         <v>76</v>
@@ -23262,7 +23259,7 @@
         <v>hmsg_message_template-161</v>
       </c>
       <c r="G650" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J650" t="s">
         <v>76</v>
@@ -23280,7 +23277,7 @@
         <v>hmsg_message_template-161</v>
       </c>
       <c r="G651" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="J651" t="s">
         <v>76</v>
@@ -23298,7 +23295,7 @@
         <v>hmsg_message_template-162</v>
       </c>
       <c r="G652" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J652" t="s">
         <v>76</v>
@@ -23334,7 +23331,7 @@
         <v>hmsg_message_template-162</v>
       </c>
       <c r="G654" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J654" t="s">
         <v>76</v>
@@ -23352,7 +23349,7 @@
         <v>hmsg_message_template-163</v>
       </c>
       <c r="G655" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J655" t="s">
         <v>76</v>
@@ -23388,7 +23385,7 @@
         <v>hmsg_message_template-163</v>
       </c>
       <c r="G657" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J657" t="s">
         <v>76</v>
@@ -23406,7 +23403,7 @@
         <v>hmsg_message_template-163</v>
       </c>
       <c r="G658" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J658">
         <v>0</v>
@@ -23431,22 +23428,22 @@
       <selection activeCell="F135" sqref="F135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="1" max="1" width="22.4210526315789" customWidth="1"/>
-    <col min="2" max="2" width="15.4210526315789" customWidth="1"/>
-    <col min="3" max="3" width="22.7105263157895" customWidth="1"/>
-    <col min="4" max="4" width="29.4210526315789" customWidth="1"/>
-    <col min="5" max="5" width="43.7105263157895" customWidth="1"/>
-    <col min="6" max="7" width="34.4210526315789" customWidth="1"/>
-    <col min="8" max="8" width="37.8486842105263" customWidth="1"/>
-    <col min="9" max="9" width="26.8486842105263" customWidth="1"/>
-    <col min="10" max="10" width="14.1381578947368" customWidth="1"/>
-    <col min="11" max="11" width="26.8486842105263" customWidth="1"/>
-    <col min="12" max="12" width="29.8486842105263" customWidth="1"/>
-    <col min="13" max="13" width="24.8486842105263" customWidth="1"/>
-    <col min="14" max="14" width="17.5723684210526" customWidth="1"/>
-    <col min="15" max="15" width="15.7105263157895" customWidth="1"/>
+    <col min="1" max="1" width="22.4236111111111" customWidth="1"/>
+    <col min="2" max="2" width="15.4236111111111" customWidth="1"/>
+    <col min="3" max="3" width="22.7083333333333" customWidth="1"/>
+    <col min="4" max="4" width="29.4236111111111" customWidth="1"/>
+    <col min="5" max="5" width="43.7083333333333" customWidth="1"/>
+    <col min="6" max="7" width="34.4236111111111" customWidth="1"/>
+    <col min="8" max="8" width="37.8472222222222" customWidth="1"/>
+    <col min="9" max="9" width="26.8472222222222" customWidth="1"/>
+    <col min="10" max="10" width="14.1388888888889" customWidth="1"/>
+    <col min="11" max="11" width="26.8472222222222" customWidth="1"/>
+    <col min="12" max="12" width="29.8472222222222" customWidth="1"/>
+    <col min="13" max="13" width="24.8472222222222" customWidth="1"/>
+    <col min="14" max="14" width="17.5694444444444" customWidth="1"/>
+    <col min="15" max="15" width="15.7083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -23463,7 +23460,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" ht="17" spans="5:8">
+    <row r="4" spans="5:8">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -23471,7 +23468,7 @@
         <v>48</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H4" s="5"/>
     </row>
@@ -23483,13 +23480,13 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>501</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>504</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>66</v>
@@ -23498,33 +23495,33 @@
         <v>67</v>
       </c>
       <c r="H7" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="I7" t="s">
         <v>505</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>506</v>
-      </c>
-      <c r="J7" t="s">
-        <v>507</v>
       </c>
       <c r="K7" t="s">
         <v>64</v>
       </c>
       <c r="L7" t="s">
+        <v>507</v>
+      </c>
+      <c r="M7" t="s">
         <v>508</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>509</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>510</v>
-      </c>
-      <c r="O7" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F8" t="s">
         <v>76</v>
@@ -23533,33 +23530,33 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I8" t="s">
         <v>266</v>
       </c>
       <c r="J8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K8" t="s">
         <v>105</v>
       </c>
       <c r="L8" t="s">
+        <v>514</v>
+      </c>
+      <c r="M8" t="s">
         <v>515</v>
-      </c>
-      <c r="M8" t="s">
-        <v>516</v>
       </c>
       <c r="N8" t="s">
         <v>105</v>
       </c>
       <c r="O8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F9" t="s">
         <v>76</v>
@@ -23568,33 +23565,33 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
+        <v>518</v>
+      </c>
+      <c r="I9" t="s">
         <v>519</v>
       </c>
-      <c r="I9" t="s">
-        <v>520</v>
-      </c>
       <c r="J9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K9" t="s">
         <v>105</v>
       </c>
       <c r="L9" t="s">
+        <v>520</v>
+      </c>
+      <c r="M9" t="s">
         <v>521</v>
       </c>
-      <c r="M9" t="s">
-        <v>522</v>
-      </c>
       <c r="N9" t="s">
         <v>76</v>
       </c>
       <c r="O9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -23603,19 +23600,19 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
+        <v>523</v>
+      </c>
+      <c r="I10" t="s">
         <v>524</v>
       </c>
-      <c r="I10" t="s">
-        <v>525</v>
-      </c>
       <c r="J10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K10" t="s">
         <v>105</v>
       </c>
       <c r="L10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M10" t="s">
         <v>354</v>
@@ -23624,12 +23621,12 @@
         <v>76</v>
       </c>
       <c r="O10" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F11" t="s">
         <v>76</v>
@@ -23638,19 +23635,19 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
+        <v>526</v>
+      </c>
+      <c r="I11" t="s">
         <v>527</v>
       </c>
-      <c r="I11" t="s">
-        <v>528</v>
-      </c>
       <c r="J11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K11" t="s">
         <v>105</v>
       </c>
       <c r="L11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M11" t="s">
         <v>354</v>
@@ -23659,12 +23656,12 @@
         <v>76</v>
       </c>
       <c r="O11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F12" t="s">
         <v>76</v>
@@ -23673,19 +23670,19 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I12" t="s">
         <v>312</v>
       </c>
       <c r="J12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K12" t="s">
         <v>105</v>
       </c>
       <c r="L12" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M12" t="s">
         <v>354</v>
@@ -23694,12 +23691,12 @@
         <v>105</v>
       </c>
       <c r="O12" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F13" t="s">
         <v>76</v>
@@ -23708,19 +23705,19 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I13" t="s">
         <v>277</v>
       </c>
       <c r="J13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K13" t="s">
         <v>105</v>
       </c>
       <c r="L13" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M13" t="s">
         <v>354</v>
@@ -23729,12 +23726,12 @@
         <v>105</v>
       </c>
       <c r="O13" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F14" t="s">
         <v>76</v>
@@ -23743,19 +23740,19 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
+        <v>535</v>
+      </c>
+      <c r="I14" t="s">
         <v>536</v>
       </c>
-      <c r="I14" t="s">
-        <v>537</v>
-      </c>
       <c r="J14" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K14" t="s">
         <v>105</v>
       </c>
       <c r="L14" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M14" t="s">
         <v>354</v>
@@ -23764,12 +23761,12 @@
         <v>76</v>
       </c>
       <c r="O14" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F15" t="s">
         <v>76</v>
@@ -23778,33 +23775,33 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
+        <v>538</v>
+      </c>
+      <c r="I15" t="s">
         <v>539</v>
       </c>
-      <c r="I15" t="s">
-        <v>540</v>
-      </c>
       <c r="J15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K15" t="s">
         <v>105</v>
       </c>
       <c r="L15" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M15" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="N15" t="s">
         <v>105</v>
       </c>
       <c r="O15" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F16" t="s">
         <v>76</v>
@@ -23813,33 +23810,33 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
+        <v>543</v>
+      </c>
+      <c r="I16" t="s">
         <v>544</v>
       </c>
-      <c r="I16" t="s">
-        <v>545</v>
-      </c>
       <c r="J16" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K16" t="s">
         <v>105</v>
       </c>
       <c r="L16" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="N16" t="s">
         <v>105</v>
       </c>
       <c r="O16" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F17" t="s">
         <v>76</v>
@@ -23848,33 +23845,33 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
+        <v>548</v>
+      </c>
+      <c r="I17" t="s">
         <v>549</v>
       </c>
-      <c r="I17" t="s">
-        <v>550</v>
-      </c>
       <c r="J17" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K17" t="s">
         <v>105</v>
       </c>
       <c r="L17" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M17" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="N17" t="s">
         <v>105</v>
       </c>
       <c r="O17" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F18" t="s">
         <v>76</v>
@@ -23883,33 +23880,33 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I18" t="s">
         <v>230</v>
       </c>
       <c r="J18" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K18" t="s">
         <v>105</v>
       </c>
       <c r="L18" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M18" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="N18" t="s">
         <v>105</v>
       </c>
       <c r="O18" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F19" t="s">
         <v>76</v>
@@ -23918,33 +23915,33 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
+        <v>555</v>
+      </c>
+      <c r="I19" t="s">
         <v>556</v>
       </c>
-      <c r="I19" t="s">
-        <v>557</v>
-      </c>
       <c r="J19" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K19" t="s">
         <v>105</v>
       </c>
       <c r="L19" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M19" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="N19" t="s">
         <v>76</v>
       </c>
       <c r="O19" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F20" t="s">
         <v>76</v>
@@ -23953,33 +23950,33 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I20" t="s">
         <v>247</v>
       </c>
       <c r="J20" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K20" t="s">
         <v>105</v>
       </c>
       <c r="L20" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M20" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="N20" t="s">
         <v>105</v>
       </c>
       <c r="O20" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F21" t="s">
         <v>76</v>
@@ -23988,33 +23985,33 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I21" t="s">
         <v>136</v>
       </c>
       <c r="J21" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K21" t="s">
         <v>105</v>
       </c>
       <c r="L21" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M21" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="N21" t="s">
         <v>105</v>
       </c>
       <c r="O21" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F22" t="s">
         <v>76</v>
@@ -24023,33 +24020,33 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I22" t="s">
         <v>344</v>
       </c>
       <c r="J22" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K22" t="s">
         <v>105</v>
       </c>
       <c r="L22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M22" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="N22" t="s">
         <v>105</v>
       </c>
       <c r="O22" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F23" t="s">
         <v>76</v>
@@ -24058,33 +24055,33 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
+        <v>568</v>
+      </c>
+      <c r="I23" t="s">
         <v>569</v>
       </c>
-      <c r="I23" t="s">
-        <v>570</v>
-      </c>
       <c r="J23" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K23" t="s">
         <v>105</v>
       </c>
       <c r="L23" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M23" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="N23" t="s">
         <v>105</v>
       </c>
       <c r="O23" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F24" t="s">
         <v>76</v>
@@ -24093,33 +24090,33 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
+        <v>572</v>
+      </c>
+      <c r="I24" t="s">
         <v>573</v>
       </c>
-      <c r="I24" t="s">
-        <v>574</v>
-      </c>
       <c r="J24" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K24" t="s">
         <v>105</v>
       </c>
       <c r="L24" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M24" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="N24" t="s">
         <v>105</v>
       </c>
       <c r="O24" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F25" t="s">
         <v>76</v>
@@ -24128,22 +24125,22 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I25" t="s">
         <v>240</v>
       </c>
       <c r="J25" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K25" t="s">
         <v>105</v>
       </c>
       <c r="L25" t="s">
+        <v>514</v>
+      </c>
+      <c r="M25" t="s">
         <v>515</v>
-      </c>
-      <c r="M25" t="s">
-        <v>516</v>
       </c>
       <c r="N25" t="s">
         <v>76</v>
@@ -24154,7 +24151,7 @@
     </row>
     <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F26" t="s">
         <v>76</v>
@@ -24163,33 +24160,33 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
+        <v>578</v>
+      </c>
+      <c r="I26" t="s">
         <v>579</v>
       </c>
-      <c r="I26" t="s">
-        <v>580</v>
-      </c>
       <c r="J26" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K26" t="s">
         <v>105</v>
       </c>
       <c r="L26" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M26" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="N26" t="s">
         <v>105</v>
       </c>
       <c r="O26" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="27" spans="5:15">
       <c r="E27" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F27" t="s">
         <v>76</v>
@@ -24198,33 +24195,33 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
+        <v>582</v>
+      </c>
+      <c r="I27" t="s">
         <v>583</v>
       </c>
-      <c r="I27" t="s">
-        <v>584</v>
-      </c>
       <c r="J27" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K27" t="s">
         <v>105</v>
       </c>
       <c r="L27" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M27" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="N27" t="s">
         <v>105</v>
       </c>
       <c r="O27" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="28" spans="5:15">
       <c r="E28" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F28" t="s">
         <v>76</v>
@@ -24233,22 +24230,22 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I28" t="s">
         <v>227</v>
       </c>
       <c r="J28" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K28" t="s">
         <v>105</v>
       </c>
       <c r="L28" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M28" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="N28" t="s">
         <v>105</v>
@@ -24259,7 +24256,7 @@
     </row>
     <row r="29" spans="5:15">
       <c r="E29" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F29" t="s">
         <v>76</v>
@@ -24268,22 +24265,22 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I29" t="s">
         <v>189</v>
       </c>
       <c r="J29" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K29" t="s">
         <v>105</v>
       </c>
       <c r="L29" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M29" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="N29" t="s">
         <v>105</v>
@@ -24294,7 +24291,7 @@
     </row>
     <row r="30" spans="5:15">
       <c r="E30" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F30" t="s">
         <v>76</v>
@@ -24303,33 +24300,33 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
+        <v>590</v>
+      </c>
+      <c r="I30" t="s">
         <v>591</v>
       </c>
-      <c r="I30" t="s">
-        <v>592</v>
-      </c>
       <c r="J30" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K30" t="s">
         <v>105</v>
       </c>
       <c r="L30" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M30" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="N30" t="s">
         <v>105</v>
       </c>
       <c r="O30" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="31" spans="5:15">
       <c r="E31" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F31" t="s">
         <v>76</v>
@@ -24338,22 +24335,22 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I31" t="s">
         <v>149</v>
       </c>
       <c r="J31" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K31" t="s">
         <v>105</v>
       </c>
       <c r="L31" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M31" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="N31" t="s">
         <v>105</v>
@@ -24364,7 +24361,7 @@
     </row>
     <row r="32" spans="5:15">
       <c r="E32" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F32" t="s">
         <v>76</v>
@@ -24373,33 +24370,33 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
+        <v>596</v>
+      </c>
+      <c r="I32" t="s">
         <v>597</v>
       </c>
-      <c r="I32" t="s">
-        <v>598</v>
-      </c>
       <c r="J32" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K32" t="s">
         <v>105</v>
       </c>
       <c r="L32" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M32" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="N32" t="s">
         <v>105</v>
       </c>
       <c r="O32" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="33" spans="5:15">
       <c r="E33" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F33" t="s">
         <v>76</v>
@@ -24408,33 +24405,33 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
+        <v>599</v>
+      </c>
+      <c r="I33" t="s">
         <v>600</v>
       </c>
-      <c r="I33" t="s">
-        <v>601</v>
-      </c>
       <c r="J33" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K33" t="s">
         <v>105</v>
       </c>
       <c r="L33" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M33" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="N33" t="s">
         <v>105</v>
       </c>
       <c r="O33" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="34" spans="5:15">
       <c r="E34" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F34" t="s">
         <v>76</v>
@@ -24443,33 +24440,33 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
+        <v>602</v>
+      </c>
+      <c r="I34" t="s">
         <v>603</v>
       </c>
-      <c r="I34" t="s">
-        <v>604</v>
-      </c>
       <c r="J34" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K34" t="s">
         <v>105</v>
       </c>
       <c r="L34" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M34" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="N34" t="s">
         <v>105</v>
       </c>
       <c r="O34" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="35" spans="5:15">
       <c r="E35" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F35" t="s">
         <v>76</v>
@@ -24478,33 +24475,33 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
+        <v>605</v>
+      </c>
+      <c r="I35" t="s">
         <v>606</v>
       </c>
-      <c r="I35" t="s">
-        <v>607</v>
-      </c>
       <c r="J35" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K35" t="s">
         <v>105</v>
       </c>
       <c r="L35" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M35" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="N35" t="s">
         <v>105</v>
       </c>
       <c r="O35" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="36" spans="5:15">
       <c r="E36" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F36" t="s">
         <v>76</v>
@@ -24513,22 +24510,22 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I36" t="s">
         <v>140</v>
       </c>
       <c r="J36" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K36" t="s">
         <v>105</v>
       </c>
       <c r="L36" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M36" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="N36" t="s">
         <v>105</v>
@@ -24539,7 +24536,7 @@
     </row>
     <row r="37" spans="5:15">
       <c r="E37" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F37" t="s">
         <v>76</v>
@@ -24548,33 +24545,33 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
+        <v>610</v>
+      </c>
+      <c r="I37" t="s">
         <v>611</v>
       </c>
-      <c r="I37" t="s">
-        <v>612</v>
-      </c>
       <c r="J37" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K37" t="s">
         <v>105</v>
       </c>
       <c r="L37" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M37" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="N37" t="s">
         <v>105</v>
       </c>
       <c r="O37" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="38" spans="5:15">
       <c r="E38" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F38" t="s">
         <v>76</v>
@@ -24583,33 +24580,33 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
+        <v>614</v>
+      </c>
+      <c r="I38" t="s">
         <v>615</v>
       </c>
-      <c r="I38" t="s">
-        <v>616</v>
-      </c>
       <c r="J38" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K38" t="s">
         <v>105</v>
       </c>
       <c r="L38" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M38" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="N38" t="s">
         <v>105</v>
       </c>
       <c r="O38" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="39" spans="5:15">
       <c r="E39" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F39" t="s">
         <v>76</v>
@@ -24618,33 +24615,33 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
+        <v>617</v>
+      </c>
+      <c r="I39" t="s">
         <v>618</v>
       </c>
-      <c r="I39" t="s">
-        <v>619</v>
-      </c>
       <c r="J39" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K39" t="s">
         <v>105</v>
       </c>
       <c r="L39" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M39" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="N39" t="s">
         <v>105</v>
       </c>
       <c r="O39" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="40" spans="5:15">
       <c r="E40" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F40" t="s">
         <v>76</v>
@@ -24653,33 +24650,33 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
+        <v>620</v>
+      </c>
+      <c r="I40" t="s">
         <v>621</v>
       </c>
-      <c r="I40" t="s">
-        <v>622</v>
-      </c>
       <c r="J40" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K40" t="s">
         <v>105</v>
       </c>
       <c r="L40" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M40" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="N40" t="s">
         <v>105</v>
       </c>
       <c r="O40" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="41" spans="5:15">
       <c r="E41" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F41" t="s">
         <v>76</v>
@@ -24688,33 +24685,33 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
+        <v>623</v>
+      </c>
+      <c r="I41" t="s">
         <v>624</v>
       </c>
-      <c r="I41" t="s">
-        <v>625</v>
-      </c>
       <c r="J41" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K41" t="s">
         <v>105</v>
       </c>
       <c r="L41" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="N41" t="s">
         <v>105</v>
       </c>
       <c r="O41" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="42" spans="5:15">
       <c r="E42" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F42" t="s">
         <v>76</v>
@@ -24723,33 +24720,33 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
+        <v>626</v>
+      </c>
+      <c r="I42" t="s">
         <v>627</v>
       </c>
-      <c r="I42" t="s">
-        <v>628</v>
-      </c>
       <c r="J42" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K42" t="s">
         <v>105</v>
       </c>
       <c r="L42" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M42" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="N42" t="s">
         <v>105</v>
       </c>
       <c r="O42" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="43" spans="5:15">
       <c r="E43" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F43" t="s">
         <v>76</v>
@@ -24758,33 +24755,33 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
+        <v>629</v>
+      </c>
+      <c r="I43" t="s">
         <v>630</v>
       </c>
-      <c r="I43" t="s">
-        <v>631</v>
-      </c>
       <c r="J43" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K43" t="s">
         <v>105</v>
       </c>
       <c r="L43" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M43" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="N43" t="s">
         <v>105</v>
       </c>
       <c r="O43" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="44" spans="5:15">
       <c r="E44" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F44" t="s">
         <v>76</v>
@@ -24793,33 +24790,33 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
+        <v>632</v>
+      </c>
+      <c r="I44" t="s">
         <v>633</v>
       </c>
-      <c r="I44" t="s">
-        <v>634</v>
-      </c>
       <c r="J44" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K44" t="s">
         <v>105</v>
       </c>
       <c r="L44" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M44" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="N44" t="s">
         <v>105</v>
       </c>
       <c r="O44" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="45" spans="5:15">
       <c r="E45" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F45" t="s">
         <v>76</v>
@@ -24828,33 +24825,33 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
+        <v>635</v>
+      </c>
+      <c r="I45" t="s">
         <v>636</v>
       </c>
-      <c r="I45" t="s">
-        <v>637</v>
-      </c>
       <c r="J45" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K45" t="s">
         <v>105</v>
       </c>
       <c r="L45" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M45" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="N45" t="s">
         <v>105</v>
       </c>
       <c r="O45" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="46" ht="16" customHeight="1" spans="5:15">
       <c r="E46" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -24863,19 +24860,19 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
+        <v>638</v>
+      </c>
+      <c r="I46" s="7" t="s">
         <v>639</v>
       </c>
-      <c r="I46" s="7" t="s">
-        <v>640</v>
-      </c>
       <c r="J46" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K46">
         <v>1</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M46" t="s">
         <v>354</v>
@@ -24884,12 +24881,12 @@
         <v>0</v>
       </c>
       <c r="O46" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="47" spans="5:15">
+      <c r="E47" t="s">
         <v>641</v>
-      </c>
-    </row>
-    <row r="47" ht="16" spans="5:15">
-      <c r="E47" t="s">
-        <v>642</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -24898,19 +24895,19 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
+        <v>642</v>
+      </c>
+      <c r="I47" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="I47" s="7" t="s">
-        <v>644</v>
-      </c>
       <c r="J47" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K47">
         <v>1</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M47" t="s">
         <v>359</v>
@@ -24919,12 +24916,12 @@
         <v>0</v>
       </c>
       <c r="O47" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="48" spans="5:15">
+      <c r="E48" t="s">
         <v>644</v>
-      </c>
-    </row>
-    <row r="48" ht="16" spans="5:15">
-      <c r="E48" t="s">
-        <v>645</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -24933,19 +24930,19 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
+        <v>645</v>
+      </c>
+      <c r="I48" s="7" t="s">
         <v>646</v>
       </c>
-      <c r="I48" s="7" t="s">
-        <v>647</v>
-      </c>
       <c r="J48" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K48">
         <v>1</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M48" t="s">
         <v>359</v>
@@ -24954,12 +24951,12 @@
         <v>0</v>
       </c>
       <c r="O48" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="49" spans="5:15">
+      <c r="E49" t="s">
         <v>647</v>
-      </c>
-    </row>
-    <row r="49" ht="16" spans="5:15">
-      <c r="E49" t="s">
-        <v>648</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -24968,19 +24965,19 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
+        <v>648</v>
+      </c>
+      <c r="I49" s="7" t="s">
         <v>649</v>
       </c>
-      <c r="I49" s="7" t="s">
-        <v>650</v>
-      </c>
       <c r="J49" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K49">
         <v>1</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M49" t="s">
         <v>359</v>
@@ -24989,12 +24986,12 @@
         <v>0</v>
       </c>
       <c r="O49" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="50" spans="5:15">
+      <c r="E50" t="s">
         <v>650</v>
-      </c>
-    </row>
-    <row r="50" ht="16" spans="5:15">
-      <c r="E50" t="s">
-        <v>651</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -25003,19 +25000,19 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
+        <v>651</v>
+      </c>
+      <c r="I50" s="7" t="s">
         <v>652</v>
       </c>
-      <c r="I50" s="7" t="s">
-        <v>653</v>
-      </c>
       <c r="J50" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K50">
         <v>1</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M50" t="s">
         <v>359</v>
@@ -25024,12 +25021,12 @@
         <v>0</v>
       </c>
       <c r="O50" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="51" spans="5:15">
+      <c r="E51" t="s">
         <v>653</v>
-      </c>
-    </row>
-    <row r="51" ht="16" spans="5:15">
-      <c r="E51" t="s">
-        <v>654</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -25038,19 +25035,19 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
+        <v>654</v>
+      </c>
+      <c r="I51" s="7" t="s">
         <v>655</v>
       </c>
-      <c r="I51" s="7" t="s">
-        <v>656</v>
-      </c>
       <c r="J51" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K51">
         <v>1</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M51" t="s">
         <v>359</v>
@@ -25059,12 +25056,12 @@
         <v>0</v>
       </c>
       <c r="O51" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="52" spans="5:15">
+      <c r="E52" t="s">
         <v>656</v>
-      </c>
-    </row>
-    <row r="52" ht="16" spans="5:15">
-      <c r="E52" t="s">
-        <v>657</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -25073,19 +25070,19 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
+        <v>657</v>
+      </c>
+      <c r="I52" s="7" t="s">
         <v>658</v>
       </c>
-      <c r="I52" s="7" t="s">
-        <v>659</v>
-      </c>
       <c r="J52" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K52">
         <v>1</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M52" t="s">
         <v>359</v>
@@ -25094,7 +25091,7 @@
         <v>0</v>
       </c>
       <c r="O52" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -25105,31 +25102,31 @@
         <v>51</v>
       </c>
       <c r="C54" t="s">
+        <v>659</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="F54" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="G54" s="3" t="s">
         <v>663</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>664</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>88</v>
       </c>
       <c r="I54" t="s">
+        <v>664</v>
+      </c>
+      <c r="J54" t="s">
         <v>665</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>666</v>
-      </c>
-      <c r="K54" t="s">
-        <v>667</v>
       </c>
       <c r="L54" t="s">
         <v>60</v>
@@ -25138,19 +25135,19 @@
         <v>64</v>
       </c>
       <c r="N54" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="55" spans="5:14">
       <c r="E55" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F55" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G55" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H55" t="s">
         <v>265</v>
@@ -25167,14 +25164,14 @@
     </row>
     <row r="56" spans="5:14">
       <c r="E56" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F56" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-27</v>
       </c>
       <c r="G56" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H56" t="s">
         <v>324</v>
@@ -25198,14 +25195,14 @@
     </row>
     <row r="57" spans="5:14">
       <c r="E57" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F57" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-27</v>
       </c>
       <c r="G57" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H57" t="s">
         <v>333</v>
@@ -25222,14 +25219,14 @@
     </row>
     <row r="58" spans="5:14">
       <c r="E58" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F58" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-27</v>
       </c>
       <c r="G58" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H58" t="s">
         <v>328</v>
@@ -25239,7 +25236,7 @@
         <v>hmsg_email_server-9</v>
       </c>
       <c r="K58" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="L58" t="s">
         <v>76</v>
@@ -25253,14 +25250,14 @@
     </row>
     <row r="59" spans="5:14">
       <c r="E59" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F59" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-29</v>
       </c>
       <c r="G59" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H59" t="s">
         <v>295</v>
@@ -25284,14 +25281,14 @@
     </row>
     <row r="60" spans="5:14">
       <c r="E60" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F60" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-29</v>
       </c>
       <c r="G60" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H60" t="s">
         <v>298</v>
@@ -25308,14 +25305,14 @@
     </row>
     <row r="61" spans="5:14">
       <c r="E61" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F61" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-29</v>
       </c>
       <c r="G61" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H61" t="s">
         <v>291</v>
@@ -25332,14 +25329,14 @@
     </row>
     <row r="62" spans="5:14">
       <c r="E62" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F62" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-30</v>
       </c>
       <c r="G62" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H62" t="s">
         <v>305</v>
@@ -25363,14 +25360,14 @@
     </row>
     <row r="63" spans="5:14">
       <c r="E63" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F63" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-30</v>
       </c>
       <c r="G63" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H63" t="s">
         <v>308</v>
@@ -25387,14 +25384,14 @@
     </row>
     <row r="64" spans="5:14">
       <c r="E64" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F64" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-30</v>
       </c>
       <c r="G64" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H64" t="s">
         <v>302</v>
@@ -25411,14 +25408,14 @@
     </row>
     <row r="65" spans="5:14">
       <c r="E65" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F65" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-31</v>
       </c>
       <c r="G65" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H65" t="s">
         <v>318</v>
@@ -25442,14 +25439,14 @@
     </row>
     <row r="66" spans="5:14">
       <c r="E66" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F66" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-31</v>
       </c>
       <c r="G66" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H66" t="s">
         <v>321</v>
@@ -25466,14 +25463,14 @@
     </row>
     <row r="67" spans="5:14">
       <c r="E67" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F67" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-31</v>
       </c>
       <c r="G67" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H67" t="s">
         <v>314</v>
@@ -25490,14 +25487,14 @@
     </row>
     <row r="68" spans="5:14">
       <c r="E68" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F68" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-31</v>
       </c>
       <c r="G68" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H68" t="s">
         <v>311</v>
@@ -25514,14 +25511,14 @@
     </row>
     <row r="69" spans="5:14">
       <c r="E69" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F69" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-32</v>
       </c>
       <c r="G69" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H69" t="s">
         <v>285</v>
@@ -25545,14 +25542,14 @@
     </row>
     <row r="70" spans="5:14">
       <c r="E70" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F70" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-32</v>
       </c>
       <c r="G70" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H70" t="s">
         <v>288</v>
@@ -25569,14 +25566,14 @@
     </row>
     <row r="71" spans="5:14">
       <c r="E71" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F71" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-32</v>
       </c>
       <c r="G71" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H71" t="s">
         <v>281</v>
@@ -25593,14 +25590,14 @@
     </row>
     <row r="72" spans="5:14">
       <c r="E72" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F72" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-32</v>
       </c>
       <c r="G72" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H72" t="s">
         <v>276</v>
@@ -25617,14 +25614,14 @@
     </row>
     <row r="73" spans="5:14">
       <c r="E73" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F73" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-33</v>
       </c>
       <c r="G73" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H73" t="s">
         <v>269</v>
@@ -25648,14 +25645,14 @@
     </row>
     <row r="74" spans="5:14">
       <c r="E74" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F74" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-33</v>
       </c>
       <c r="G74" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H74" t="s">
         <v>272</v>
@@ -25672,14 +25669,14 @@
     </row>
     <row r="75" spans="5:14">
       <c r="E75" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F75" t="str">
         <f>发送配置!$E$15</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G75" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H75" t="s">
         <v>220</v>
@@ -25703,14 +25700,14 @@
     </row>
     <row r="76" customFormat="1" spans="5:14">
       <c r="E76" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F76" t="str">
         <f>发送配置!$E$15</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G76" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H76" t="s">
         <v>223</v>
@@ -25727,14 +25724,14 @@
     </row>
     <row r="77" spans="5:14">
       <c r="E77" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F77" t="str">
         <f>发送配置!$E$15</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G77" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H77" t="s">
         <v>390</v>
@@ -25751,14 +25748,14 @@
     </row>
     <row r="78" spans="5:14">
       <c r="E78" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F78" t="str">
         <f>发送配置!$E$15</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G78" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H78" t="s">
         <v>216</v>
@@ -25775,14 +25772,14 @@
     </row>
     <row r="79" spans="5:14">
       <c r="E79" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F79" t="str">
         <f>发送配置!$E$15</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G79" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H79" t="s">
         <v>213</v>
@@ -25799,14 +25796,14 @@
     </row>
     <row r="80" spans="5:14">
       <c r="E80" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F80" t="str">
         <f>发送配置!$E$16</f>
         <v>hmsg_template_server-38</v>
       </c>
       <c r="G80" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H80" t="s">
         <v>259</v>
@@ -25830,14 +25827,14 @@
     </row>
     <row r="81" spans="5:14">
       <c r="E81" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F81" t="str">
         <f>发送配置!$E$16</f>
         <v>hmsg_template_server-38</v>
       </c>
       <c r="G81" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H81" t="s">
         <v>262</v>
@@ -25854,14 +25851,14 @@
     </row>
     <row r="82" spans="5:14">
       <c r="E82" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F82" t="str">
         <f>E48</f>
         <v>hmsg_template_server-91</v>
       </c>
       <c r="G82" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H82" t="s">
         <v>381</v>
@@ -25885,14 +25882,14 @@
     </row>
     <row r="83" spans="5:14">
       <c r="E83" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F83" t="str">
         <f>E48</f>
         <v>hmsg_template_server-91</v>
       </c>
       <c r="G83" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H83" t="s">
         <v>377</v>
@@ -25909,14 +25906,14 @@
     </row>
     <row r="84" spans="5:14">
       <c r="E84" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F84" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-40</v>
       </c>
       <c r="G84" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H84" t="s">
         <v>253</v>
@@ -25940,14 +25937,14 @@
     </row>
     <row r="85" spans="5:14">
       <c r="E85" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F85" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-40</v>
       </c>
       <c r="G85" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H85" t="s">
         <v>256</v>
@@ -25964,14 +25961,14 @@
     </row>
     <row r="86" spans="5:14">
       <c r="E86" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F86" t="str">
         <f>发送配置!$E$18</f>
         <v>hmsg_template_server-41</v>
       </c>
       <c r="G86" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H86" t="s">
         <v>232</v>
@@ -25995,14 +25992,14 @@
     </row>
     <row r="87" spans="5:14">
       <c r="E87" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F87" t="str">
         <f>发送配置!$E$18</f>
         <v>hmsg_template_server-41</v>
       </c>
       <c r="G87" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H87" t="s">
         <v>235</v>
@@ -26019,14 +26016,14 @@
     </row>
     <row r="88" spans="5:14">
       <c r="E88" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F88" t="str">
         <f>发送配置!$E$18</f>
         <v>hmsg_template_server-41</v>
       </c>
       <c r="G88" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H88" t="s">
         <v>229</v>
@@ -26043,14 +26040,14 @@
     </row>
     <row r="89" spans="5:14">
       <c r="E89" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F89" t="str">
         <f>发送配置!$E$19</f>
         <v>hmsg_template_server-42</v>
       </c>
       <c r="G89" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H89" t="s">
         <v>125</v>
@@ -26074,14 +26071,14 @@
     </row>
     <row r="90" spans="5:14">
       <c r="E90" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F90" t="str">
         <f>发送配置!$E$19</f>
         <v>hmsg_template_server-42</v>
       </c>
       <c r="G90" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H90" t="s">
         <v>129</v>
@@ -26098,14 +26095,14 @@
     </row>
     <row r="91" spans="5:14">
       <c r="E91" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F91" t="str">
         <f>发送配置!$E$20</f>
         <v>hmsg_template_server-43</v>
       </c>
       <c r="G91" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H91" t="s">
         <v>243</v>
@@ -26129,14 +26126,14 @@
     </row>
     <row r="92" spans="5:14">
       <c r="E92" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F92" t="str">
         <f>发送配置!$E$20</f>
         <v>hmsg_template_server-43</v>
       </c>
       <c r="G92" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H92" t="s">
         <v>246</v>
@@ -26153,14 +26150,14 @@
     </row>
     <row r="93" spans="5:14">
       <c r="E93" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F93" t="str">
         <f>发送配置!$E$20</f>
         <v>hmsg_template_server-43</v>
       </c>
       <c r="G93" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H93" t="s">
         <v>384</v>
@@ -26177,14 +26174,14 @@
     </row>
     <row r="94" spans="5:14">
       <c r="E94" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F94" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-44</v>
       </c>
       <c r="G94" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H94" t="s">
         <v>132</v>
@@ -26208,14 +26205,14 @@
     </row>
     <row r="95" customFormat="1" spans="5:14">
       <c r="E95" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F95" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-44</v>
       </c>
       <c r="G95" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H95" t="s">
         <v>135</v>
@@ -26232,14 +26229,14 @@
     </row>
     <row r="96" spans="5:14">
       <c r="E96" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F96" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-44</v>
       </c>
       <c r="G96" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H96" t="s">
         <v>386</v>
@@ -26256,14 +26253,14 @@
     </row>
     <row r="97" spans="5:14">
       <c r="E97" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F97" t="str">
         <f>发送配置!$E$22</f>
         <v>hmsg_template_server-45</v>
       </c>
       <c r="G97" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H97" t="s">
         <v>340</v>
@@ -26287,14 +26284,14 @@
     </row>
     <row r="98" customFormat="1" spans="5:14">
       <c r="E98" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F98" t="str">
         <f>发送配置!$E$22</f>
         <v>hmsg_template_server-45</v>
       </c>
       <c r="G98" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H98" t="s">
         <v>343</v>
@@ -26311,14 +26308,14 @@
     </row>
     <row r="99" spans="5:14">
       <c r="E99" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F99" t="str">
         <f>发送配置!$E$22</f>
         <v>hmsg_template_server-45</v>
       </c>
       <c r="G99" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H99" t="s">
         <v>388</v>
@@ -26335,14 +26332,14 @@
     </row>
     <row r="100" spans="5:14">
       <c r="E100" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F100" t="str">
         <f>发送配置!$E$23</f>
         <v>hmsg_template_server-46</v>
       </c>
       <c r="G100" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H100" t="s">
         <v>117</v>
@@ -26366,14 +26363,14 @@
     </row>
     <row r="101" customFormat="1" spans="5:14">
       <c r="E101" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F101" t="str">
         <f>发送配置!$E$23</f>
         <v>hmsg_template_server-46</v>
       </c>
       <c r="G101" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H101" t="s">
         <v>121</v>
@@ -26390,14 +26387,14 @@
     </row>
     <row r="102" spans="5:14">
       <c r="E102" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F102" t="str">
         <f>发送配置!$E$23</f>
         <v>hmsg_template_server-46</v>
       </c>
       <c r="G102" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H102" t="s">
         <v>393</v>
@@ -26414,14 +26411,14 @@
     </row>
     <row r="103" spans="5:14">
       <c r="E103" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F103" t="str">
         <f>发送配置!$E$23</f>
         <v>hmsg_template_server-46</v>
       </c>
       <c r="G103" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H103" t="s">
         <v>112</v>
@@ -26438,14 +26435,14 @@
     </row>
     <row r="104" spans="5:14">
       <c r="E104" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F104" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-47</v>
       </c>
       <c r="G104" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H104" t="s">
         <v>204</v>
@@ -26469,14 +26466,14 @@
     </row>
     <row r="105" customFormat="1" spans="5:14">
       <c r="E105" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F105" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-47</v>
       </c>
       <c r="G105" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H105" t="s">
         <v>207</v>
@@ -26493,14 +26490,14 @@
     </row>
     <row r="106" spans="5:14">
       <c r="E106" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F106" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-47</v>
       </c>
       <c r="G106" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H106" t="s">
         <v>396</v>
@@ -26517,14 +26514,14 @@
     </row>
     <row r="107" spans="5:14">
       <c r="E107" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F107" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-47</v>
       </c>
       <c r="G107" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H107" t="s">
         <v>200</v>
@@ -26541,14 +26538,14 @@
     </row>
     <row r="108" spans="5:14">
       <c r="E108" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F108" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-47</v>
       </c>
       <c r="G108" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H108" t="s">
         <v>196</v>
@@ -26565,14 +26562,14 @@
     </row>
     <row r="109" spans="5:14">
       <c r="E109" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F109" t="str">
         <f>发送配置!$E$25</f>
         <v>hmsg_template_server-48</v>
       </c>
       <c r="G109" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H109" t="s">
         <v>239</v>
@@ -26589,14 +26586,14 @@
     </row>
     <row r="110" spans="5:14">
       <c r="E110" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F110" t="str">
         <f>发送配置!$E$26</f>
         <v>hmsg_template_server-53</v>
       </c>
       <c r="G110" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H110" t="s">
         <v>175</v>
@@ -26620,14 +26617,14 @@
     </row>
     <row r="111" customFormat="1" spans="5:14">
       <c r="E111" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F111" t="str">
         <f>发送配置!$E$26</f>
         <v>hmsg_template_server-53</v>
       </c>
       <c r="G111" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H111" t="s">
         <v>178</v>
@@ -26644,14 +26641,14 @@
     </row>
     <row r="112" spans="5:14">
       <c r="E112" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F112" t="str">
         <f>发送配置!$E$26</f>
         <v>hmsg_template_server-53</v>
       </c>
       <c r="G112" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H112" t="s">
         <v>399</v>
@@ -26668,14 +26665,14 @@
     </row>
     <row r="113" spans="5:14">
       <c r="E113" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F113" t="str">
         <f>发送配置!$E$26</f>
         <v>hmsg_template_server-53</v>
       </c>
       <c r="G113" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H113" t="s">
         <v>172</v>
@@ -26692,20 +26689,20 @@
     </row>
     <row r="114" spans="5:14">
       <c r="E114" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F114" t="str">
         <f>发送配置!$E$27</f>
         <v>hmsg_template_server-54</v>
       </c>
       <c r="G114" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H114" t="s">
         <v>169</v>
       </c>
       <c r="L114" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="M114" t="s">
         <v>105</v>
@@ -26716,20 +26713,20 @@
     </row>
     <row r="115" spans="5:14">
       <c r="E115" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F115" t="str">
         <f>发送配置!$E$28</f>
         <v>hmsg_template_server-55</v>
       </c>
       <c r="G115" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H115" t="s">
         <v>226</v>
       </c>
       <c r="L115" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="M115" t="s">
         <v>105</v>
@@ -26740,20 +26737,20 @@
     </row>
     <row r="116" spans="5:14">
       <c r="E116" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F116" t="str">
         <f>发送配置!$E$29</f>
         <v>hmsg_template_server-56</v>
       </c>
       <c r="G116" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H116" t="s">
         <v>188</v>
       </c>
       <c r="L116" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="M116" t="s">
         <v>105</v>
@@ -26764,20 +26761,20 @@
     </row>
     <row r="117" spans="5:14">
       <c r="E117" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F117" t="str">
         <f>发送配置!$E$30</f>
         <v>hmsg_template_server-57</v>
       </c>
       <c r="G117" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H117" t="s">
         <v>210</v>
       </c>
       <c r="L117" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="M117" t="s">
         <v>105</v>
@@ -26788,20 +26785,20 @@
     </row>
     <row r="118" spans="5:14">
       <c r="E118" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F118" t="str">
         <f>发送配置!$E$31</f>
         <v>hmsg_template_server-58</v>
       </c>
       <c r="G118" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H118" t="s">
         <v>148</v>
       </c>
       <c r="L118" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="M118" t="s">
         <v>105</v>
@@ -26812,20 +26809,20 @@
     </row>
     <row r="119" spans="5:14">
       <c r="E119" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F119" t="str">
         <f>发送配置!$E$32</f>
         <v>hmsg_template_server-59</v>
       </c>
       <c r="G119" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H119" t="s">
         <v>152</v>
       </c>
       <c r="L119" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="M119" t="s">
         <v>105</v>
@@ -26836,20 +26833,20 @@
     </row>
     <row r="120" spans="5:14">
       <c r="E120" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F120" t="str">
         <f>发送配置!$E$33</f>
         <v>hmsg_template_server-60</v>
       </c>
       <c r="G120" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H120" t="s">
         <v>155</v>
       </c>
       <c r="L120" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="M120" t="s">
         <v>105</v>
@@ -26860,20 +26857,20 @@
     </row>
     <row r="121" spans="5:14">
       <c r="E121" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F121" t="str">
         <f>发送配置!$E$34</f>
         <v>hmsg_template_server-61</v>
       </c>
       <c r="G121" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H121" t="s">
         <v>160</v>
       </c>
       <c r="L121" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="M121" t="s">
         <v>105</v>
@@ -26884,20 +26881,20 @@
     </row>
     <row r="122" spans="5:14">
       <c r="E122" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F122" t="str">
         <f>发送配置!$E$35</f>
         <v>hmsg_template_server-62</v>
       </c>
       <c r="G122" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H122" t="s">
         <v>185</v>
       </c>
       <c r="L122" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="M122" t="s">
         <v>105</v>
@@ -26908,20 +26905,20 @@
     </row>
     <row r="123" spans="5:14">
       <c r="E123" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F123" t="str">
         <f>发送配置!$E$36</f>
         <v>hmsg_template_server-64</v>
       </c>
       <c r="G123" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H123" t="s">
         <v>139</v>
       </c>
       <c r="L123" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="M123" t="s">
         <v>105</v>
@@ -26932,20 +26929,20 @@
     </row>
     <row r="124" spans="5:14">
       <c r="E124" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F124" t="str">
         <f>发送配置!$E$37</f>
         <v>hmsg_template_server-65</v>
       </c>
       <c r="G124" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H124" t="s">
         <v>191</v>
       </c>
       <c r="L124" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="M124" t="s">
         <v>105</v>
@@ -26956,20 +26953,20 @@
     </row>
     <row r="125" spans="5:14">
       <c r="E125" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F125" t="str">
         <f>发送配置!$E$38</f>
         <v>hmsg_template_server-67</v>
       </c>
       <c r="G125" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H125" t="s">
         <v>164</v>
       </c>
       <c r="L125" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="M125" t="s">
         <v>105</v>
@@ -26980,20 +26977,20 @@
     </row>
     <row r="126" spans="5:14">
       <c r="E126" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F126" t="str">
         <f>发送配置!$E$39</f>
         <v>hmsg_template_server-68</v>
       </c>
       <c r="G126" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H126" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="L126" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="M126" t="s">
         <v>105</v>
@@ -27004,20 +27001,20 @@
     </row>
     <row r="127" spans="5:14">
       <c r="E127" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F127" t="str">
         <f>发送配置!$E$41</f>
         <v>hmsg_template_server-71</v>
       </c>
       <c r="G127" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H127" t="s">
         <v>144</v>
       </c>
       <c r="L127" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="M127" t="s">
         <v>105</v>
@@ -27028,20 +27025,20 @@
     </row>
     <row r="128" spans="5:14">
       <c r="E128" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F128" t="str">
         <f>发送配置!$E$42</f>
         <v>hmsg_template_server-72</v>
       </c>
       <c r="G128" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H128" t="s">
         <v>347</v>
       </c>
       <c r="L128" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="M128" t="s">
         <v>105</v>
@@ -27052,20 +27049,20 @@
     </row>
     <row r="129" spans="5:14">
       <c r="E129" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F129" t="str">
         <f>发送配置!$E$43</f>
         <v>hmsg_template_server-73</v>
       </c>
       <c r="G129" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H129" t="s">
         <v>99</v>
       </c>
       <c r="L129" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="M129" t="s">
         <v>105</v>
@@ -27076,20 +27073,20 @@
     </row>
     <row r="130" spans="5:14">
       <c r="E130" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F130" t="str">
         <f>发送配置!$E$44</f>
         <v>hmsg_template_server-74</v>
       </c>
       <c r="G130" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H130" t="s">
         <v>182</v>
       </c>
       <c r="L130" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="M130" t="s">
         <v>105</v>
@@ -27100,20 +27097,20 @@
     </row>
     <row r="131" spans="5:14">
       <c r="E131" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F131" t="str">
         <f>发送配置!$E$45</f>
         <v>hmsg_template_server-75</v>
       </c>
       <c r="G131" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H131" t="s">
         <v>336</v>
       </c>
       <c r="L131" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="M131" t="s">
         <v>105</v>
@@ -27124,14 +27121,14 @@
     </row>
     <row r="132" spans="5:14">
       <c r="E132" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F132" t="str">
         <f>发送配置!$E$40</f>
         <v>hmsg_template_server-69</v>
       </c>
       <c r="G132" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H132" t="s">
         <v>108</v>
@@ -27148,14 +27145,14 @@
     </row>
     <row r="133" spans="5:14">
       <c r="E133" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F133" t="str">
         <f t="shared" ref="F133:F139" si="0">E46</f>
         <v>hmsg_template_server-89</v>
       </c>
       <c r="G133" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H133" t="s">
         <v>351</v>
@@ -27172,14 +27169,14 @@
     </row>
     <row r="134" spans="5:14">
       <c r="E134" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F134" t="str">
         <f t="shared" si="0"/>
         <v>hmsg_template_server-90</v>
       </c>
       <c r="G134" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H134" t="s">
         <v>356</v>
@@ -27196,14 +27193,14 @@
     </row>
     <row r="135" spans="5:14">
       <c r="E135" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F135" t="str">
         <f t="shared" si="0"/>
         <v>hmsg_template_server-91</v>
       </c>
       <c r="G135" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H135" t="s">
         <v>361</v>
@@ -27220,14 +27217,14 @@
     </row>
     <row r="136" spans="5:14">
       <c r="E136" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F136" t="str">
         <f t="shared" si="0"/>
         <v>hmsg_template_server-92</v>
       </c>
       <c r="G136" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H136" t="s">
         <v>364</v>
@@ -27244,14 +27241,14 @@
     </row>
     <row r="137" spans="5:14">
       <c r="E137" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F137" t="str">
         <f t="shared" si="0"/>
         <v>hmsg_template_server-93</v>
       </c>
       <c r="G137" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H137" t="s">
         <v>367</v>
@@ -27268,14 +27265,14 @@
     </row>
     <row r="138" spans="5:14">
       <c r="E138" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F138" t="str">
         <f t="shared" si="0"/>
         <v>hmsg_template_server-94</v>
       </c>
       <c r="G138" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H138" t="s">
         <v>370</v>
@@ -27292,14 +27289,14 @@
     </row>
     <row r="139" spans="5:14">
       <c r="E139" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F139" t="str">
         <f t="shared" si="0"/>
         <v>hmsg_template_server-95</v>
       </c>
       <c r="G139" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H139" t="s">
         <v>374</v>
@@ -27316,14 +27313,14 @@
     </row>
     <row r="140" customFormat="1" spans="5:14">
       <c r="E140" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F140" t="str">
         <f>发送配置!$E$16</f>
         <v>hmsg_template_server-38</v>
       </c>
       <c r="G140" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H140" t="s">
         <v>402</v>
@@ -27340,14 +27337,14 @@
     </row>
     <row r="141" customFormat="1" spans="5:14">
       <c r="E141" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F141" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-40</v>
       </c>
       <c r="G141" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H141" t="s">
         <v>405</v>
@@ -27364,14 +27361,14 @@
     </row>
     <row r="142" customFormat="1" spans="5:14">
       <c r="E142" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F142" t="str">
         <f>发送配置!$E$18</f>
         <v>hmsg_template_server-41</v>
       </c>
       <c r="G142" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H142" t="s">
         <v>408</v>
@@ -27388,14 +27385,14 @@
     </row>
     <row r="143" customFormat="1" spans="5:14">
       <c r="E143" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F143" t="str">
         <f>发送配置!$E$19</f>
         <v>hmsg_template_server-42</v>
       </c>
       <c r="G143" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H143" t="s">
         <v>411</v>
@@ -27412,14 +27409,14 @@
     </row>
     <row r="144" customFormat="1" spans="5:14">
       <c r="E144" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F144" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-27</v>
       </c>
       <c r="G144" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H144" t="s">
         <v>414</v>
@@ -27436,17 +27433,17 @@
     </row>
     <row r="145" customFormat="1" spans="5:14">
       <c r="E145" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F145" t="str">
         <f>E48</f>
         <v>hmsg_template_server-91</v>
       </c>
       <c r="G145" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H145" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="L145">
         <v>0</v>
@@ -27460,14 +27457,14 @@
     </row>
     <row r="146" customFormat="1" spans="5:14">
       <c r="E146" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F146" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-29</v>
       </c>
       <c r="G146" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H146" t="s">
         <v>418</v>
@@ -27484,14 +27481,14 @@
     </row>
     <row r="147" customFormat="1" spans="5:14">
       <c r="E147" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F147" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-30</v>
       </c>
       <c r="G147" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H147" t="s">
         <v>421</v>
@@ -27508,14 +27505,14 @@
     </row>
     <row r="148" customFormat="1" spans="5:14">
       <c r="E148" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F148" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-31</v>
       </c>
       <c r="G148" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H148" t="s">
         <v>424</v>
@@ -27532,14 +27529,14 @@
     </row>
     <row r="149" customFormat="1" spans="5:14">
       <c r="E149" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F149" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-32</v>
       </c>
       <c r="G149" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H149" t="s">
         <v>427</v>
@@ -27556,14 +27553,14 @@
     </row>
     <row r="150" customFormat="1" spans="5:14">
       <c r="E150" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F150" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-33</v>
       </c>
       <c r="G150" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H150" t="s">
         <v>430</v>
@@ -27649,30 +27646,30 @@
         <v>51</v>
       </c>
       <c r="C160" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D160" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="E160" s="2" t="s">
+      <c r="F160" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="G160" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="F160" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="G160" s="3" t="s">
+      <c r="H160" t="s">
         <v>776</v>
-      </c>
-      <c r="H160" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="161" spans="5:8">
       <c r="E161" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F161" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -27683,10 +27680,10 @@
     </row>
     <row r="162" spans="5:8">
       <c r="E162" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F162" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -27697,10 +27694,10 @@
     </row>
     <row r="163" spans="5:8">
       <c r="E163" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F163" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -27711,10 +27708,10 @@
     </row>
     <row r="164" spans="5:8">
       <c r="E164" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F164" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -27725,10 +27722,10 @@
     </row>
     <row r="165" spans="5:8">
       <c r="E165" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F165" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -27739,10 +27736,10 @@
     </row>
     <row r="166" spans="5:8">
       <c r="E166" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F166" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -27753,10 +27750,10 @@
     </row>
     <row r="167" spans="5:8">
       <c r="E167" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F167" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -27767,10 +27764,10 @@
     </row>
     <row r="168" spans="5:8">
       <c r="E168" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F168" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G168">
         <v>1</v>
@@ -27781,10 +27778,10 @@
     </row>
     <row r="169" spans="5:8">
       <c r="E169" t="s">
+        <v>785</v>
+      </c>
+      <c r="F169" t="s">
         <v>786</v>
-      </c>
-      <c r="F169" t="s">
-        <v>787</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -27795,10 +27792,10 @@
     </row>
     <row r="170" spans="5:8">
       <c r="E170" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F170" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -27809,10 +27806,10 @@
     </row>
     <row r="171" spans="5:8">
       <c r="E171" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F171" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G171">
         <v>1</v>
@@ -27823,10 +27820,10 @@
     </row>
     <row r="172" spans="5:8">
       <c r="E172" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F172" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -27837,10 +27834,10 @@
     </row>
     <row r="173" spans="5:8">
       <c r="E173" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F173" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -27851,10 +27848,10 @@
     </row>
     <row r="174" spans="5:8">
       <c r="E174" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F174" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -27865,10 +27862,10 @@
     </row>
     <row r="175" spans="5:8">
       <c r="E175" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F175" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -27879,10 +27876,10 @@
     </row>
     <row r="176" spans="5:8">
       <c r="E176" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F176" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -27893,10 +27890,10 @@
     </row>
     <row r="177" spans="5:8">
       <c r="E177" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F177" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -27907,10 +27904,10 @@
     </row>
     <row r="178" spans="5:8">
       <c r="E178" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F178" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -27921,10 +27918,10 @@
     </row>
     <row r="179" spans="5:8">
       <c r="E179" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F179" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G179">
         <v>1</v>
@@ -27935,10 +27932,10 @@
     </row>
     <row r="180" spans="5:8">
       <c r="E180" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F180" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -27949,10 +27946,10 @@
     </row>
     <row r="181" spans="5:8">
       <c r="E181" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F181" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -27963,10 +27960,10 @@
     </row>
     <row r="182" spans="5:8">
       <c r="E182" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F182" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -27977,10 +27974,10 @@
     </row>
     <row r="183" spans="5:8">
       <c r="E183" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F183" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G183">
         <v>1</v>
@@ -27991,10 +27988,10 @@
     </row>
     <row r="184" spans="5:8">
       <c r="E184" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F184" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -28005,10 +28002,10 @@
     </row>
     <row r="185" spans="5:8">
       <c r="E185" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F185" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -28019,10 +28016,10 @@
     </row>
     <row r="186" spans="5:8">
       <c r="E186" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F186" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G186">
         <v>1</v>
@@ -28033,10 +28030,10 @@
     </row>
     <row r="187" spans="5:8">
       <c r="E187" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F187" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -28047,10 +28044,10 @@
     </row>
     <row r="188" spans="5:8">
       <c r="E188" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F188" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -28061,10 +28058,10 @@
     </row>
     <row r="189" spans="5:8">
       <c r="E189" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F189" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G189">
         <v>1</v>
@@ -28075,10 +28072,10 @@
     </row>
     <row r="190" spans="5:8">
       <c r="E190" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F190" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -28089,10 +28086,10 @@
     </row>
     <row r="191" spans="5:8">
       <c r="E191" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F191" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -28103,10 +28100,10 @@
     </row>
     <row r="192" spans="5:8">
       <c r="E192" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F192" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -28117,10 +28114,10 @@
     </row>
     <row r="193" spans="5:8">
       <c r="E193" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F193" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G193">
         <v>1</v>
@@ -28131,10 +28128,10 @@
     </row>
     <row r="194" spans="5:8">
       <c r="E194" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F194" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -28145,10 +28142,10 @@
     </row>
     <row r="195" spans="5:8">
       <c r="E195" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F195" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -28159,10 +28156,10 @@
     </row>
     <row r="196" spans="5:8">
       <c r="E196" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F196" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G196">
         <v>1</v>
@@ -28173,10 +28170,10 @@
     </row>
     <row r="197" spans="5:8">
       <c r="E197" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F197" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G197">
         <v>1</v>
@@ -28187,10 +28184,10 @@
     </row>
     <row r="198" spans="5:8">
       <c r="E198" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F198" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -28201,10 +28198,10 @@
     </row>
     <row r="199" spans="5:8">
       <c r="E199" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F199" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G199">
         <v>1</v>
@@ -28215,10 +28212,10 @@
     </row>
     <row r="200" spans="5:8">
       <c r="E200" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F200" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G200">
         <v>1</v>
@@ -28229,10 +28226,10 @@
     </row>
     <row r="201" spans="5:8">
       <c r="E201" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F201" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G201">
         <v>1</v>
@@ -28243,10 +28240,10 @@
     </row>
     <row r="202" spans="5:8">
       <c r="E202" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F202" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G202">
         <v>1</v>
@@ -28257,10 +28254,10 @@
     </row>
     <row r="203" spans="5:8">
       <c r="E203" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F203" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G203">
         <v>1</v>
@@ -28271,10 +28268,10 @@
     </row>
     <row r="204" spans="5:8">
       <c r="E204" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F204" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G204">
         <v>1</v>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21731" windowHeight="10020" tabRatio="597" activeTab="2"/>
+    <workbookView windowHeight="19360" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -2277,7 +2277,7 @@
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;
-      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://www.zknow.com/choerodonDoc/介绍/" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
@@ -2537,7 +2537,7 @@
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;
-      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://www.zknow.com/choerodonDoc/介绍/" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
@@ -2792,7 +2792,7 @@
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;
-      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://www.zknow.com/choerodonDoc/介绍/" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
@@ -3155,7 +3155,7 @@
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;
-      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://www.zknow.com/choerodonDoc/介绍/" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
@@ -3478,7 +3478,7 @@
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;
-      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://www.zknow.com/choerodonDoc/介绍/" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
@@ -3748,7 +3748,7 @@
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;
-      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://www.zknow.com/choerodonDoc/介绍/" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
@@ -4006,7 +4006,7 @@
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;
-      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://www.zknow.com/choerodonDoc/介绍/" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
@@ -4409,7 +4409,7 @@
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;
-      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://www.zknow.com/choerodonDoc/介绍/" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
@@ -4660,7 +4660,7 @@
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;
-      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://www.zknow.com/choerodonDoc/介绍/" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
@@ -4914,7 +4914,7 @@
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;
-      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://www.zknow.com/choerodonDoc/介绍/" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
@@ -5182,7 +5182,7 @@
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;
-      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://www.zknow.com/choerodonDoc/介绍/" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
@@ -5467,7 +5467,7 @@
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;
-      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://www.zknow.com/choerodonDoc/介绍/" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
@@ -5734,7 +5734,7 @@
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;
-      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://www.zknow.com/choerodonDoc/介绍/" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
@@ -6002,7 +6002,7 @@
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;
-      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://www.zknow.com/choerodonDoc/介绍/" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
@@ -6278,7 +6278,7 @@
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;
-      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://www.zknow.com/choerodonDoc/介绍/" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
@@ -6523,7 +6523,7 @@
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;
-      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://www.zknow.com/choerodonDoc/介绍/" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
@@ -6802,7 +6802,7 @@
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;
-      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://www.zknow.com/choerodonDoc/介绍/" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
@@ -7187,7 +7187,7 @@
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;
-      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://www.zknow.com/choerodonDoc/介绍/" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
@@ -8627,10 +8627,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -8697,6 +8697,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -8714,35 +8720,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8755,6 +8734,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -8763,31 +8757,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -8810,11 +8781,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8826,9 +8804,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8843,7 +8820,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8857,15 +8841,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8959,6 +8959,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -8971,79 +9109,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9055,91 +9133,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9156,12 +9156,28 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -9186,6 +9202,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -9194,26 +9223,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -9228,15 +9237,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -9246,17 +9246,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9272,24 +9266,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9327,8 +9303,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9343,156 +9319,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9505,9 +9505,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -9522,112 +9519,112 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
+    <cellStyle name="输入" xfId="5" builtinId="20"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
+    <cellStyle name="货币" xfId="8" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
+    <cellStyle name="百分比" xfId="10" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
+    <cellStyle name="计算" xfId="16" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
+    <cellStyle name="适中" xfId="18" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
+    <cellStyle name="好" xfId="20" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
+    <cellStyle name="汇总" xfId="22" builtinId="25"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
+    <cellStyle name="标题" xfId="34" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
+    <cellStyle name="注释" xfId="38" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
@@ -9970,155 +9967,155 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5694444444444" style="13" customWidth="1"/>
-    <col min="2" max="2" width="10.2847222222222" style="14" customWidth="1"/>
-    <col min="3" max="3" width="28.1388888888889" customWidth="1"/>
-    <col min="4" max="4" width="35.2847222222222" style="8" customWidth="1"/>
-    <col min="5" max="5" width="38.5694444444444" customWidth="1"/>
-    <col min="6" max="6" width="23.4236111111111" customWidth="1"/>
-    <col min="7" max="7" width="21.5694444444444" customWidth="1"/>
+    <col min="1" max="1" width="15.5723684210526" style="12" customWidth="1"/>
+    <col min="2" max="2" width="10.2828947368421" style="13" customWidth="1"/>
+    <col min="3" max="3" width="28.1381578947368" customWidth="1"/>
+    <col min="4" max="4" width="35.2828947368421" style="8" customWidth="1"/>
+    <col min="5" max="5" width="38.5723684210526" customWidth="1"/>
+    <col min="6" max="6" width="23.4210526315789" customWidth="1"/>
+    <col min="7" max="7" width="21.5723684210526" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5694444444444" customWidth="1"/>
+    <col min="9" max="9" width="24.5723684210526" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1388888888889" customWidth="1"/>
-    <col min="12" max="12" width="18.5694444444444" customWidth="1"/>
-    <col min="13" max="13" width="13.1388888888889" customWidth="1"/>
-    <col min="14" max="1025" width="10.2847222222222" customWidth="1"/>
+    <col min="11" max="11" width="19.1381578947368" customWidth="1"/>
+    <col min="12" max="12" width="18.5723684210526" customWidth="1"/>
+    <col min="13" max="13" width="13.1381578947368" customWidth="1"/>
+    <col min="14" max="1025" width="10.2828947368421" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="15"/>
-      <c r="C1" s="16" t="s">
+      <c r="A1" s="14"/>
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="18"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-    </row>
-    <row r="4" spans="3:7">
-      <c r="C4" s="21" t="s">
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+    </row>
+    <row r="4" ht="16" spans="3:7">
+      <c r="C4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="36" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="15"/>
+    <row r="5" ht="16" spans="1:3">
+      <c r="A5" s="14"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="37" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="30"/>
-    </row>
-    <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="31" t="s">
+      <c r="E8" s="38"/>
+    </row>
+    <row r="9" ht="46" spans="3:6">
+      <c r="C9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="39" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="34" t="s">
+    <row r="10" ht="46" spans="3:5">
+      <c r="C10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="39" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="28" t="s">
+    <row r="11" ht="61" spans="3:5">
+      <c r="C11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="39" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="28" t="s">
+    <row r="12" ht="16" spans="3:5">
+      <c r="C12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="40" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="38"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="28"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
-    </row>
-    <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="36" t="s">
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="38"/>
+    </row>
+    <row r="15" ht="31" spans="3:5">
+      <c r="C15" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="41" t="s">
         <v>28</v>
       </c>
     </row>
@@ -10127,39 +10124,39 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="3:5">
-      <c r="C19" s="39" t="s">
+    <row r="19" ht="16" spans="3:5">
+      <c r="C19" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="40" t="s">
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+    </row>
+    <row r="20" ht="16" spans="3:4">
+      <c r="C20" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="40" t="s">
+    <row r="21" ht="16" spans="3:4">
+      <c r="C21" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="40" t="s">
+    <row r="22" ht="16" spans="3:4">
+      <c r="C22" s="28" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="40" t="s">
+    <row r="23" ht="16" spans="3:4">
+      <c r="C23" s="28" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -10167,25 +10164,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="19"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="19"/>
-    </row>
-    <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="42" t="s">
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" ht="31" spans="3:3">
+      <c r="C27" s="31" t="s">
         <v>43</v>
       </c>
     </row>
@@ -10214,11 +10211,11 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.2"/>
   <cols>
-    <col min="5" max="5" width="23.2847222222222" customWidth="1"/>
-    <col min="6" max="6" width="21.2847222222222" customWidth="1"/>
-    <col min="8" max="8" width="14.7083333333333" customWidth="1"/>
+    <col min="5" max="5" width="23.2828947368421" customWidth="1"/>
+    <col min="6" max="6" width="21.2828947368421" customWidth="1"/>
+    <col min="8" max="8" width="14.7105263157895" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10387,20 +10384,20 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
   <cols>
-    <col min="4" max="4" width="22.5694444444444" customWidth="1"/>
-    <col min="5" max="5" width="26.2847222222222" customWidth="1"/>
-    <col min="6" max="6" width="44.8472222222222" customWidth="1"/>
-    <col min="7" max="7" width="29.4236111111111" customWidth="1"/>
-    <col min="8" max="8" width="24.2847222222222" customWidth="1"/>
-    <col min="9" max="9" width="92.8472222222222" customWidth="1"/>
-    <col min="10" max="10" width="29.2847222222222" customWidth="1"/>
-    <col min="11" max="11" width="32.1388888888889" customWidth="1"/>
-    <col min="13" max="13" width="33.1388888888889" customWidth="1"/>
-    <col min="14" max="14" width="23.4236111111111" customWidth="1"/>
-    <col min="15" max="15" width="29.4236111111111" customWidth="1"/>
-    <col min="16" max="16" width="29.8472222222222" customWidth="1"/>
+    <col min="4" max="4" width="22.5723684210526" customWidth="1"/>
+    <col min="5" max="5" width="26.2828947368421" customWidth="1"/>
+    <col min="6" max="6" width="44.8486842105263" customWidth="1"/>
+    <col min="7" max="7" width="29.4210526315789" customWidth="1"/>
+    <col min="8" max="8" width="24.2828947368421" customWidth="1"/>
+    <col min="9" max="9" width="92.8486842105263" customWidth="1"/>
+    <col min="10" max="10" width="29.2828947368421" customWidth="1"/>
+    <col min="11" max="11" width="32.1381578947368" customWidth="1"/>
+    <col min="13" max="13" width="33.1381578947368" customWidth="1"/>
+    <col min="14" max="14" width="23.4210526315789" customWidth="1"/>
+    <col min="15" max="15" width="29.4210526315789" customWidth="1"/>
+    <col min="16" max="16" width="29.8486842105263" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10593,7 +10590,7 @@
       <c r="H11" t="s">
         <v>118</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="7" t="s">
         <v>119</v>
       </c>
       <c r="N11" t="s">
@@ -10609,7 +10606,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" ht="69.6" spans="5:17">
+    <row r="12" ht="46" spans="5:17">
       <c r="E12" t="s">
         <v>120</v>
       </c>
@@ -10622,7 +10619,7 @@
       <c r="H12" t="s">
         <v>122</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="10" t="s">
         <v>123</v>
       </c>
       <c r="N12" t="s">
@@ -10651,7 +10648,7 @@
       <c r="H13" t="s">
         <v>126</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="10" t="s">
         <v>127</v>
       </c>
       <c r="N13" t="s">
@@ -10667,7 +10664,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" ht="87" spans="5:17">
+    <row r="14" ht="61" spans="5:17">
       <c r="E14" t="s">
         <v>128</v>
       </c>
@@ -10709,7 +10706,7 @@
       <c r="H15" t="s">
         <v>118</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="10" t="s">
         <v>133</v>
       </c>
       <c r="N15" t="s">
@@ -11082,7 +11079,7 @@
       <c r="H26" t="s">
         <v>118</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="I26" s="10" t="s">
         <v>176</v>
       </c>
       <c r="N26" t="s">
@@ -11098,7 +11095,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" ht="69.6" spans="5:17">
+    <row r="27" ht="46" spans="5:17">
       <c r="E27" t="s">
         <v>177</v>
       </c>
@@ -11302,7 +11299,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="5:17">
+    <row r="33" ht="16" spans="5:17">
       <c r="E33" t="s">
         <v>199</v>
       </c>
@@ -11315,7 +11312,7 @@
       <c r="H33" t="s">
         <v>201</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="I33" s="10" t="s">
         <v>202</v>
       </c>
       <c r="N33" t="s">
@@ -11344,7 +11341,7 @@
       <c r="H34" t="s">
         <v>118</v>
       </c>
-      <c r="I34" s="11" t="s">
+      <c r="I34" s="10" t="s">
         <v>205</v>
       </c>
       <c r="N34" t="s">
@@ -11360,7 +11357,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" ht="69.6" spans="5:17">
+    <row r="35" ht="46" spans="5:17">
       <c r="E35" t="s">
         <v>206</v>
       </c>
@@ -11459,7 +11456,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="5:17">
+    <row r="38" ht="16" spans="5:17">
       <c r="E38" t="s">
         <v>215</v>
       </c>
@@ -11472,7 +11469,7 @@
       <c r="H38" t="s">
         <v>217</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="I38" s="10" t="s">
         <v>218</v>
       </c>
       <c r="N38" t="s">
@@ -11501,7 +11498,7 @@
       <c r="H39" t="s">
         <v>118</v>
       </c>
-      <c r="I39" s="11" t="s">
+      <c r="I39" s="10" t="s">
         <v>221</v>
       </c>
       <c r="N39" t="s">
@@ -11517,7 +11514,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" ht="69.6" spans="5:17">
+    <row r="40" ht="46" spans="5:17">
       <c r="E40" t="s">
         <v>222</v>
       </c>
@@ -11629,7 +11626,7 @@
       <c r="H43" t="s">
         <v>118</v>
       </c>
-      <c r="I43" s="11" t="s">
+      <c r="I43" s="10" t="s">
         <v>233</v>
       </c>
       <c r="N43" t="s">
@@ -11645,7 +11642,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" ht="52.2" spans="5:17">
+    <row r="44" ht="46" spans="5:17">
       <c r="E44" t="s">
         <v>234</v>
       </c>
@@ -11674,7 +11671,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="5:17">
+    <row r="45" ht="18" spans="5:17">
       <c r="E45" t="s">
         <v>238</v>
       </c>
@@ -11716,7 +11713,7 @@
       <c r="H46" t="s">
         <v>118</v>
       </c>
-      <c r="I46" s="11" t="s">
+      <c r="I46" s="10" t="s">
         <v>244</v>
       </c>
       <c r="N46" t="s">
@@ -11803,7 +11800,7 @@
       <c r="H49" t="s">
         <v>126</v>
       </c>
-      <c r="I49" s="11" t="s">
+      <c r="I49" s="10" t="s">
         <v>254</v>
       </c>
       <c r="N49" t="s">
@@ -11819,7 +11816,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="50" ht="52.2" spans="5:17">
+    <row r="50" ht="46" spans="5:17">
       <c r="E50" t="s">
         <v>255</v>
       </c>
@@ -11861,7 +11858,7 @@
       <c r="H51" t="s">
         <v>126</v>
       </c>
-      <c r="I51" s="11" t="s">
+      <c r="I51" s="10" t="s">
         <v>260</v>
       </c>
       <c r="N51" t="s">
@@ -11877,7 +11874,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" ht="69.6" spans="5:17">
+    <row r="52" ht="61" spans="5:17">
       <c r="E52" t="s">
         <v>261</v>
       </c>
@@ -11948,7 +11945,7 @@
       <c r="H54" t="s">
         <v>118</v>
       </c>
-      <c r="I54" s="11" t="s">
+      <c r="I54" s="10" t="s">
         <v>270</v>
       </c>
       <c r="N54" t="s">
@@ -11964,7 +11961,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" ht="69.6" spans="5:17">
+    <row r="55" ht="61" spans="5:17">
       <c r="E55" t="s">
         <v>271</v>
       </c>
@@ -12070,7 +12067,7 @@
       <c r="H58" t="s">
         <v>118</v>
       </c>
-      <c r="I58" s="11" t="s">
+      <c r="I58" s="10" t="s">
         <v>286</v>
       </c>
       <c r="N58" t="s">
@@ -12086,7 +12083,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="59" ht="69.6" spans="5:17">
+    <row r="59" ht="61" spans="5:17">
       <c r="E59" t="s">
         <v>287</v>
       </c>
@@ -12163,7 +12160,7 @@
       <c r="H61" t="s">
         <v>118</v>
       </c>
-      <c r="I61" s="11" t="s">
+      <c r="I61" s="10" t="s">
         <v>296</v>
       </c>
       <c r="N61" t="s">
@@ -12179,7 +12176,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="62" ht="87" spans="5:17">
+    <row r="62" ht="76" spans="5:17">
       <c r="E62" t="s">
         <v>297</v>
       </c>
@@ -12256,7 +12253,7 @@
       <c r="H64" t="s">
         <v>118</v>
       </c>
-      <c r="I64" s="11" t="s">
+      <c r="I64" s="10" t="s">
         <v>306</v>
       </c>
       <c r="N64" t="s">
@@ -12272,7 +12269,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="65" ht="69.6" spans="5:17">
+    <row r="65" ht="61" spans="5:17">
       <c r="E65" t="s">
         <v>307</v>
       </c>
@@ -12336,7 +12333,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="67" spans="5:17">
+    <row r="67" ht="16" spans="5:17">
       <c r="E67" t="s">
         <v>313</v>
       </c>
@@ -12349,7 +12346,7 @@
       <c r="H67" t="s">
         <v>315</v>
       </c>
-      <c r="I67" s="11" t="s">
+      <c r="I67" s="10" t="s">
         <v>316</v>
       </c>
       <c r="N67" t="s">
@@ -12378,7 +12375,7 @@
       <c r="H68" t="s">
         <v>118</v>
       </c>
-      <c r="I68" s="11" t="s">
+      <c r="I68" s="10" t="s">
         <v>319</v>
       </c>
       <c r="N68" t="s">
@@ -12394,7 +12391,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="69" ht="69.6" spans="5:17">
+    <row r="69" ht="61" spans="5:17">
       <c r="E69" t="s">
         <v>320</v>
       </c>
@@ -12436,7 +12433,7 @@
       <c r="H70" t="s">
         <v>325</v>
       </c>
-      <c r="I70" s="11" t="s">
+      <c r="I70" s="10" t="s">
         <v>326</v>
       </c>
       <c r="N70" t="s">
@@ -12558,7 +12555,7 @@
       <c r="H74" t="s">
         <v>118</v>
       </c>
-      <c r="I74" s="11" t="s">
+      <c r="I74" s="10" t="s">
         <v>341</v>
       </c>
       <c r="N74" t="s">
@@ -12638,8 +12635,8 @@
         <v>106</v>
       </c>
     </row>
-    <row r="77" ht="87" spans="5:17">
-      <c r="E77" s="12" t="s">
+    <row r="77" ht="76" spans="5:17">
+      <c r="E77" s="11" t="s">
         <v>350</v>
       </c>
       <c r="F77" s="8" t="s">
@@ -12673,7 +12670,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="78" ht="243.6" spans="5:17">
+    <row r="78" ht="213" spans="5:17">
       <c r="E78" t="s">
         <v>355</v>
       </c>
@@ -12708,7 +12705,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="79" ht="243.6" spans="5:17">
+    <row r="79" ht="213" spans="5:17">
       <c r="E79" t="s">
         <v>360</v>
       </c>
@@ -12743,7 +12740,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="80" ht="243.6" spans="5:17">
+    <row r="80" ht="213" spans="5:17">
       <c r="E80" t="s">
         <v>363</v>
       </c>
@@ -12778,7 +12775,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="81" ht="243.6" spans="5:17">
+    <row r="81" ht="213" spans="5:17">
       <c r="E81" t="s">
         <v>366</v>
       </c>
@@ -12813,7 +12810,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="82" ht="208.8" spans="5:17">
+    <row r="82" ht="183" spans="5:17">
       <c r="E82" t="s">
         <v>369</v>
       </c>
@@ -12848,7 +12845,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="83" ht="208.8" spans="5:17">
+    <row r="83" ht="183" spans="5:17">
       <c r="E83" t="s">
         <v>373</v>
       </c>
@@ -12883,7 +12880,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="84" spans="5:17">
+    <row r="84" ht="16" spans="5:17">
       <c r="E84" t="s">
         <v>376</v>
       </c>
@@ -12896,7 +12893,7 @@
       <c r="H84" t="s">
         <v>378</v>
       </c>
-      <c r="I84" s="11" t="s">
+      <c r="I84" s="10" t="s">
         <v>379</v>
       </c>
       <c r="J84" t="s">
@@ -12931,7 +12928,7 @@
       <c r="H85" t="s">
         <v>378</v>
       </c>
-      <c r="I85" s="11" t="s">
+      <c r="I85" s="10" t="s">
         <v>382</v>
       </c>
       <c r="J85" t="s">
@@ -13069,7 +13066,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="90" ht="52.2" spans="5:17">
+    <row r="90" ht="46" spans="5:17">
       <c r="E90" t="s">
         <v>392</v>
       </c>
@@ -13082,7 +13079,7 @@
       <c r="H90" t="s">
         <v>122</v>
       </c>
-      <c r="I90" s="11" t="s">
+      <c r="I90" s="10" t="s">
         <v>394</v>
       </c>
       <c r="N90" t="s">
@@ -13098,7 +13095,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="91" ht="52.2" spans="5:17">
+    <row r="91" ht="46" spans="5:17">
       <c r="E91" t="s">
         <v>395</v>
       </c>
@@ -13111,7 +13108,7 @@
       <c r="H91" t="s">
         <v>201</v>
       </c>
-      <c r="I91" s="11" t="s">
+      <c r="I91" s="10" t="s">
         <v>397</v>
       </c>
       <c r="N91" t="s">
@@ -13127,7 +13124,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="92" ht="52.2" spans="5:17">
+    <row r="92" ht="46" spans="5:17">
       <c r="E92" t="s">
         <v>398</v>
       </c>
@@ -13156,7 +13153,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="93" ht="34.8" spans="5:17">
+    <row r="93" ht="31" spans="5:17">
       <c r="E93" t="s">
         <v>401</v>
       </c>
@@ -13185,7 +13182,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="94" spans="5:17">
+    <row r="94" ht="16" spans="5:17">
       <c r="E94" t="s">
         <v>404</v>
       </c>
@@ -13214,7 +13211,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="95" ht="34.8" spans="5:17">
+    <row r="95" ht="31" spans="5:17">
       <c r="E95" t="s">
         <v>407</v>
       </c>
@@ -13243,7 +13240,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="96" ht="52.2" spans="5:17">
+    <row r="96" ht="31" spans="5:17">
       <c r="E96" t="s">
         <v>410</v>
       </c>
@@ -13301,7 +13298,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="98" spans="5:17">
+    <row r="98" ht="16" spans="5:17">
       <c r="E98" t="s">
         <v>415</v>
       </c>
@@ -13314,7 +13311,7 @@
       <c r="H98" t="s">
         <v>378</v>
       </c>
-      <c r="I98" s="11" t="s">
+      <c r="I98" s="10" t="s">
         <v>379</v>
       </c>
       <c r="J98" t="s">
@@ -13336,7 +13333,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="99" ht="87" spans="5:17">
+    <row r="99" ht="76" spans="5:17">
       <c r="E99" t="s">
         <v>417</v>
       </c>
@@ -13365,7 +13362,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="100" ht="69.6" spans="5:17">
+    <row r="100" ht="61" spans="5:17">
       <c r="E100" t="s">
         <v>420</v>
       </c>
@@ -13394,7 +13391,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="101" ht="52.2" spans="5:17">
+    <row r="101" ht="46" spans="5:17">
       <c r="E101" t="s">
         <v>423</v>
       </c>
@@ -13423,7 +13420,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="102" ht="69.6" spans="5:17">
+    <row r="102" ht="61" spans="5:17">
       <c r="E102" t="s">
         <v>426</v>
       </c>
@@ -13452,7 +13449,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="103" ht="69.6" spans="5:17">
+    <row r="103" ht="61" spans="5:17">
       <c r="E103" t="s">
         <v>429</v>
       </c>
@@ -23408,22 +23405,22 @@
       <selection activeCell="F135" sqref="F135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
   <cols>
-    <col min="1" max="1" width="22.4236111111111" customWidth="1"/>
-    <col min="2" max="2" width="15.4236111111111" customWidth="1"/>
-    <col min="3" max="3" width="22.7083333333333" customWidth="1"/>
-    <col min="4" max="4" width="29.4236111111111" customWidth="1"/>
-    <col min="5" max="5" width="43.7083333333333" customWidth="1"/>
-    <col min="6" max="7" width="34.4236111111111" customWidth="1"/>
-    <col min="8" max="8" width="37.8472222222222" customWidth="1"/>
-    <col min="9" max="9" width="26.8472222222222" customWidth="1"/>
-    <col min="10" max="10" width="14.1388888888889" customWidth="1"/>
-    <col min="11" max="11" width="26.8472222222222" customWidth="1"/>
-    <col min="12" max="12" width="29.8472222222222" customWidth="1"/>
-    <col min="13" max="13" width="24.8472222222222" customWidth="1"/>
-    <col min="14" max="14" width="17.5694444444444" customWidth="1"/>
-    <col min="15" max="15" width="15.7083333333333" customWidth="1"/>
+    <col min="1" max="1" width="22.4210526315789" customWidth="1"/>
+    <col min="2" max="2" width="15.4210526315789" customWidth="1"/>
+    <col min="3" max="3" width="22.7105263157895" customWidth="1"/>
+    <col min="4" max="4" width="29.4210526315789" customWidth="1"/>
+    <col min="5" max="5" width="43.7105263157895" customWidth="1"/>
+    <col min="6" max="7" width="34.4210526315789" customWidth="1"/>
+    <col min="8" max="8" width="37.8486842105263" customWidth="1"/>
+    <col min="9" max="9" width="26.8486842105263" customWidth="1"/>
+    <col min="10" max="10" width="14.1381578947368" customWidth="1"/>
+    <col min="11" max="11" width="26.8486842105263" customWidth="1"/>
+    <col min="12" max="12" width="29.8486842105263" customWidth="1"/>
+    <col min="13" max="13" width="24.8486842105263" customWidth="1"/>
+    <col min="14" max="14" width="17.5723684210526" customWidth="1"/>
+    <col min="15" max="15" width="15.7105263157895" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -23440,7 +23437,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:8">
+    <row r="4" ht="17" spans="5:8">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -24864,7 +24861,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="47" spans="5:15">
+    <row r="47" ht="16" spans="5:15">
       <c r="E47" t="s">
         <v>642</v>
       </c>
@@ -24899,7 +24896,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="48" spans="5:15">
+    <row r="48" ht="16" spans="5:15">
       <c r="E48" t="s">
         <v>645</v>
       </c>
@@ -24934,7 +24931,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="49" spans="5:15">
+    <row r="49" ht="16" spans="5:15">
       <c r="E49" t="s">
         <v>648</v>
       </c>
@@ -24969,7 +24966,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="50" spans="5:15">
+    <row r="50" ht="16" spans="5:15">
       <c r="E50" t="s">
         <v>651</v>
       </c>
@@ -25004,7 +25001,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="51" spans="5:15">
+    <row r="51" ht="16" spans="5:15">
       <c r="E51" t="s">
         <v>654</v>
       </c>
@@ -25039,7 +25036,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="52" spans="5:15">
+    <row r="52" ht="16" spans="5:15">
       <c r="E52" t="s">
         <v>657</v>
       </c>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-data-message-template-open.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="19360" tabRatio="597" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="11820" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -2227,8 +2227,8 @@
                             &lt;td style="padding-bottom: 10px;vertical-align: bottom;"&gt;
                               &lt;table style="width: 100%;"&gt;
                                 &lt;tbody&gt;&lt;tr&gt;
-                                  &lt;td style="width:238px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/zknow-logo.jpg" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
-                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼 数智化开发管理平台&lt;/td&gt;&lt;/tr&gt;
+                                  &lt;td style="width:238px;"&gt; &lt;img height="auto" src="${choerodonLogo}" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; ${choerodonSlogan}&lt;/td&gt;&lt;/tr&gt;
                               &lt;/tbody&gt;&lt;/table&gt;
                             &lt;/td&gt;&lt;td&gt;
                             &lt;/td&gt;
@@ -2255,75 +2255,7 @@
                       &lt;/div&gt;
                         &lt;br&gt;
                       &lt;/div&gt;
-                      &lt;div style="background: rgb(255, 255, 255);color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
-                        &lt;div style="text-align: justify;"&gt;
-                          &lt;table style="height: 148px;width: 100%;"&gt;
-                            &lt;tbody&gt;&lt;tr&gt;
-                              &lt;td&gt;
-                                &lt;div style="/* padding-top: 1px; */margin-left: 10px;/* height: 90px; *//* margin-top: 28px; */vertical-align: top;"&gt;
-                                  &lt;p style="
-      font-size: 13px;
-      color: rgba(15,19,88,0.80);
-      letter-spacing: 0;
-      text-align: left;
-      margin-bottom: 6px;
-      margin-top: 0;
-      border-width: 1px;
-      "&gt; 此邮件为系统邮件，请勿回复。 &lt;/p&gt;
-                                  &lt;p style="
-      font-size: 13px;
-      color: rgba(15,19,88,0.80);
-      letter-spacing: 0;
-      text-align: left;
-      margin-bottom: 6px;
-      margin-top: 0;
-      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://www.zknow.com/choerodonDoc/介绍/" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
-                                  &lt;p style="font-size: 13px;
-      color: rgba(15,19,88,0.80);
-      letter-spacing: 0;
-      text-align: left;
-      margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
-                                  &lt;p style="font-size: 13px;
-      color: rgba(15,19,88,0.80);
-      letter-spacing: 0;
-      text-align: left;
-      margin-bottom: 6px;
-          margin-top: 0;"&gt;您也可以通过以下方式与我们联系：官方邮箱 &lt;a href="mailto:marketing@zknow.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;marketing@zknow.com&lt;/a&gt;，咨询热线 400 800 2077&lt;/p&gt;
-                                &lt;/div&gt;
-                              &lt;/td&gt;
-                            &lt;td style="padding-left: 19px;"&gt;
-                                &lt;table&gt;
-                                  &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/xiaozhushou.png"&gt; &lt;/td&gt;&lt;/tr&gt;
-                                  &lt;tr&gt;
-                                    &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;官方小助手&lt;/td&gt;
-                                  &lt;/tr&gt;
-                                &lt;/tbody&gt;&lt;/table&gt;
-                              &lt;/td&gt;&lt;td style="padding-left: 19px;"&gt;
-                                &lt;table&gt;
-                                  &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/gongzhonghao.png"&gt; &lt;/td&gt;&lt;/tr&gt;
-                                  &lt;tr&gt;
-                                    &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;微信公众号&lt;/td&gt;
-                                  &lt;/tr&gt;
-                                &lt;/tbody&gt;&lt;/table&gt;
-                              &lt;/td&gt;&lt;/tr&gt;
-                          &lt;/tbody&gt;&lt;/table&gt;
-                        &lt;/div&gt;
-                      &lt;/div&gt;
-                      &lt;div style="background: rgb(255, 255, 255);color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;width: 782px;height: 34px;"&gt;
-                        &lt;p style="
-      opacity: 0.8;
-      font-size: 10px;
-      color: rgba(15,19,88,0.65);
-      text-align: center;
-      display: inline-block;
-      line-height: 34px;
-      width: 100%;
-      margin: 0 auto;
-      "&gt;Copyright © The Choerodon Author. All rights reserved.&lt;/p&gt;
-                      &lt;/div&gt;
+                      ${choerodonFooter}
                     &lt;/div&gt;
                   &lt;/div&gt;
                 &lt;/td&gt;
@@ -2487,8 +2419,8 @@
                             &lt;td style="padding-bottom: 10px;vertical-align: bottom;"&gt;
                               &lt;table style="width: 100%;"&gt;
                                 &lt;tbody&gt;&lt;tr&gt;
-                                  &lt;td style="width:238px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/zknow-logo.jpg" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
-                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼 数智化开发管理平台&lt;/td&gt;&lt;/tr&gt;
+                                  &lt;td style="width:238px;"&gt; &lt;img height="auto" src="${choerodonLogo}" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; ${choerodonSlogan}&lt;/td&gt;&lt;/tr&gt;
                               &lt;/tbody&gt;&lt;/table&gt;
                             &lt;/td&gt;&lt;td&gt;
                             &lt;/td&gt;
@@ -2515,75 +2447,7 @@
                       &lt;/div&gt;
                         &lt;br&gt;
                       &lt;/div&gt;
-                      &lt;div style="background: rgb(255, 255, 255);color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9